--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="CRONOGRAMA_v2" sheetId="11" r:id="rId5"/>
     <sheet name="CRONOGRAMA_v2_1" sheetId="7" r:id="rId6"/>
     <sheet name="CRONOGRAMA_V3" sheetId="10" r:id="rId7"/>
+    <sheet name="CRONOGRAMA_V3_CONTEUDO" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="147">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1364,6 +1365,27 @@
   <si>
     <t>10|3</t>
   </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>Capacidades</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BackEnd</t>
+  </si>
+  <si>
+    <t>FrontEnd</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>NoSQL</t>
+  </si>
 </sst>
 </file>
 
@@ -1443,7 +1465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1576,8 +1598,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="60">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -2330,11 +2364,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="455">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2861,6 +2932,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2870,15 +2950,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24773,7 +24899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="DA49" sqref="DA49"/>
     </sheetView>
@@ -24939,16 +25065,16 @@
       <c r="CO1" s="401"/>
       <c r="CP1" s="401"/>
       <c r="CQ1" s="402"/>
-      <c r="CR1" s="412" t="s">
+      <c r="CR1" s="415" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="413"/>
-      <c r="CT1" s="413"/>
-      <c r="CU1" s="413"/>
-      <c r="CV1" s="413"/>
-      <c r="CW1" s="413"/>
-      <c r="CX1" s="413"/>
-      <c r="CY1" s="414"/>
+      <c r="CS1" s="416"/>
+      <c r="CT1" s="416"/>
+      <c r="CU1" s="416"/>
+      <c r="CV1" s="416"/>
+      <c r="CW1" s="416"/>
+      <c r="CX1" s="416"/>
+      <c r="CY1" s="417"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26757,11 +26883,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="415" t="s">
+      <c r="AY47" s="412" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="416"/>
-      <c r="BA47" s="417"/>
+      <c r="AZ47" s="413"/>
+      <c r="BA47" s="414"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27530,14 +27656,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="CH1:CQ1"/>
+    <mergeCell ref="CR1:CY1"/>
     <mergeCell ref="AY47:BA47"/>
     <mergeCell ref="BU60:BW60"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="R1:AM1"/>
     <mergeCell ref="AN1:BJ1"/>
     <mergeCell ref="BK1:CG1"/>
-    <mergeCell ref="CH1:CQ1"/>
-    <mergeCell ref="CR1:CY1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27737,16 +27863,16 @@
       <c r="CO1" s="401"/>
       <c r="CP1" s="401"/>
       <c r="CQ1" s="402"/>
-      <c r="CR1" s="412" t="s">
+      <c r="CR1" s="415" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="413"/>
-      <c r="CT1" s="413"/>
-      <c r="CU1" s="413"/>
-      <c r="CV1" s="413"/>
-      <c r="CW1" s="413"/>
-      <c r="CX1" s="413"/>
-      <c r="CY1" s="414"/>
+      <c r="CS1" s="416"/>
+      <c r="CT1" s="416"/>
+      <c r="CU1" s="416"/>
+      <c r="CV1" s="416"/>
+      <c r="CW1" s="416"/>
+      <c r="CX1" s="416"/>
+      <c r="CY1" s="417"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30334,11 +30460,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="415" t="s">
+      <c r="AY47" s="412" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="416"/>
-      <c r="BA47" s="417"/>
+      <c r="AZ47" s="413"/>
+      <c r="BA47" s="414"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -31579,9 +31705,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CM54" sqref="CM54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34010,7 +34136,7 @@
       <c r="CK68" s="381"/>
       <c r="CP68" s="381"/>
       <c r="CU68" s="381"/>
-      <c r="CY68" s="382">
+      <c r="CY68" s="454">
         <v>4</v>
       </c>
     </row>
@@ -34043,4 +34169,658 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C103"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="334"/>
+    <col min="2" max="2" width="5.85546875" style="334" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="5.5703125" style="334"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="433" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="434"/>
+      <c r="B1" s="432" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="433" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="426" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="435" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="425">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="436"/>
+      <c r="B3" s="427">
+        <v>43671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="436"/>
+      <c r="B4" s="428">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="436"/>
+      <c r="B5" s="429">
+        <v>43675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="436"/>
+      <c r="B6" s="429">
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="436"/>
+      <c r="B7" s="429">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="436"/>
+      <c r="B8" s="427">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="436"/>
+      <c r="B9" s="429">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="436"/>
+      <c r="B10" s="428">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="436"/>
+      <c r="B11" s="428">
+        <v>43683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="436"/>
+      <c r="B12" s="428">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="436"/>
+      <c r="B13" s="427">
+        <v>43685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="436"/>
+      <c r="B14" s="428">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="436"/>
+      <c r="B15" s="429">
+        <v>43689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="436"/>
+      <c r="B16" s="429">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="436"/>
+      <c r="B17" s="429">
+        <v>43691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="436"/>
+      <c r="B18" s="427">
+        <v>43692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="431" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="437"/>
+      <c r="B19" s="430">
+        <v>43693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="426" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="441" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="438">
+        <v>43696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="442"/>
+      <c r="B21" s="418">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="442"/>
+      <c r="B22" s="418">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="442"/>
+      <c r="B23" s="420">
+        <v>43699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="442"/>
+      <c r="B24" s="418">
+        <v>43700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="442"/>
+      <c r="B25" s="421">
+        <v>43703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="442"/>
+      <c r="B26" s="421">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="442"/>
+      <c r="B27" s="421">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="442"/>
+      <c r="B28" s="420">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="442"/>
+      <c r="B29" s="421">
+        <v>43707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="442"/>
+      <c r="B30" s="418">
+        <v>43710</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="442"/>
+      <c r="B31" s="418">
+        <v>43711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="442"/>
+      <c r="B32" s="418">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="442"/>
+      <c r="B33" s="420">
+        <v>43713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="442"/>
+      <c r="B34" s="418">
+        <v>43714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="442"/>
+      <c r="B35" s="421">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="442"/>
+      <c r="B36" s="421">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="442"/>
+      <c r="B37" s="421">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="442"/>
+      <c r="B38" s="420">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="442"/>
+      <c r="B39" s="421">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="442"/>
+      <c r="B40" s="418">
+        <v>43724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="442"/>
+      <c r="B41" s="418">
+        <v>43725</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="442"/>
+      <c r="B42" s="418">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="442"/>
+      <c r="B43" s="420">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="440" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="443"/>
+      <c r="B44" s="439">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="444" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="450" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="445">
+        <v>43731</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="451"/>
+      <c r="B46" s="446">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="451"/>
+      <c r="B47" s="446">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="451"/>
+      <c r="B48" s="447">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="451"/>
+      <c r="B49" s="446">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="451"/>
+      <c r="B50" s="448">
+        <v>43738</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="451"/>
+      <c r="B51" s="448">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="451"/>
+      <c r="B52" s="448">
+        <v>43740</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="451"/>
+      <c r="B53" s="447">
+        <v>43741</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="451"/>
+      <c r="B54" s="448">
+        <v>43742</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="451"/>
+      <c r="B55" s="446">
+        <v>43745</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="451"/>
+      <c r="B56" s="446">
+        <v>43746</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="451"/>
+      <c r="B57" s="446">
+        <v>43747</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="451"/>
+      <c r="B58" s="447">
+        <v>43748</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="451"/>
+      <c r="B59" s="446">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="451"/>
+      <c r="B60" s="448">
+        <v>43754</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="451"/>
+      <c r="B61" s="447">
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="451"/>
+      <c r="B62" s="448">
+        <v>43756</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="451"/>
+      <c r="B63" s="446">
+        <v>43759</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="451"/>
+      <c r="B64" s="446">
+        <v>43760</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="451"/>
+      <c r="B65" s="446">
+        <v>43761</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="347" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="452"/>
+      <c r="B66" s="449">
+        <v>43762</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="444" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="450" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="445">
+        <v>43763</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="451"/>
+      <c r="B68" s="448">
+        <v>43766</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="451"/>
+      <c r="B69" s="448">
+        <v>43767</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="451"/>
+      <c r="B70" s="448">
+        <v>43768</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="451"/>
+      <c r="B71" s="447">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="451"/>
+      <c r="B72" s="448">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="451"/>
+      <c r="B73" s="446">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="451"/>
+      <c r="B74" s="446">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="451"/>
+      <c r="B75" s="446">
+        <v>43775</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="451"/>
+      <c r="B76" s="447">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="451"/>
+      <c r="B77" s="446">
+        <v>43777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="451"/>
+      <c r="B78" s="448">
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="451"/>
+      <c r="B79" s="448">
+        <v>43781</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="451"/>
+      <c r="B80" s="448">
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="451"/>
+      <c r="B81" s="447">
+        <v>43783</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="451"/>
+      <c r="B82" s="446">
+        <v>43787</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="451"/>
+      <c r="B83" s="446">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="451"/>
+      <c r="B84" s="447">
+        <v>43790</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="451"/>
+      <c r="B85" s="446">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="451"/>
+      <c r="B86" s="448">
+        <v>43794</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="451"/>
+      <c r="B87" s="448">
+        <v>43795</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="451"/>
+      <c r="B88" s="448">
+        <v>43796</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="347" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="452"/>
+      <c r="B89" s="449">
+        <v>43797</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" s="426" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="441" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="453">
+        <v>43798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="442"/>
+      <c r="B91" s="446">
+        <v>43801</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="442"/>
+      <c r="B92" s="446">
+        <v>43802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="442"/>
+      <c r="B93" s="446">
+        <v>43803</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="442"/>
+      <c r="B94" s="447">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="442"/>
+      <c r="B95" s="446">
+        <v>43805</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="442"/>
+      <c r="B96" s="448">
+        <v>43808</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="442"/>
+      <c r="B97" s="448">
+        <v>43809</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="442"/>
+      <c r="B98" s="448">
+        <v>43810</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="347" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="443"/>
+      <c r="B99" s="449">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="424" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="423">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="421">
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="421">
+        <v>43816</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="421">
+        <v>43817</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A90:A99"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="A45:A66"/>
+    <mergeCell ref="A67:A89"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="163">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1386,6 +1386,67 @@
   <si>
     <t>NoSQL</t>
   </si>
+  <si>
+    <t>Apresentação Semestre
+Conceito Banco de Dados</t>
+  </si>
+  <si>
+    <t>Início - Modelagem - Excel
+Apoio - exemplo-01.xlsx
+1:N
+Início - Conceitual - Lógico - Representação</t>
+  </si>
+  <si>
+    <t>Início - Documentação
+Início - N:N
+Ajuste Conceitual - Lógico - Representação</t>
+  </si>
+  <si>
+    <t>ex: Filmes, Livros</t>
+  </si>
+  <si>
+    <t>ex: Optus</t>
+  </si>
+  <si>
+    <t>Modelagem - Representação - Documentação</t>
+  </si>
+  <si>
+    <t>ex: PClinics, Locadora, E-Commerce</t>
+  </si>
+  <si>
+    <t>Início - DDL
+exemplo-ddl.sql
+01_roteiro_filmes.sql
+01_roteiro_livros.sql</t>
+  </si>
+  <si>
+    <t>RoteiroFilmes
+RoteiroLivros</t>
+  </si>
+  <si>
+    <t>Desafio Ssolve - Documentação + Modelagem + DDL</t>
+  </si>
+  <si>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>Início - DML
+exemplo-dml.sql</t>
+  </si>
+  <si>
+    <t>RoteiroFilmes
+RoteiroLivros
+Optus</t>
+  </si>
+  <si>
+    <t>Desafio Hroads</t>
+  </si>
+  <si>
+    <t>Projeto - Gufos</t>
+  </si>
+  <si>
+    <t>Modelagem - DDL - DML - DQL - Documentação</t>
+  </si>
 </sst>
 </file>
 
@@ -2405,7 +2466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="455">
+  <cellXfs count="472">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2881,6 +2942,7 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2932,6 +2994,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2941,44 +3012,6 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2988,12 +3021,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -3003,8 +3030,147 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3591,123 +3757,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="398" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="398"/>
-      <c r="D1" s="398"/>
-      <c r="E1" s="398"/>
-      <c r="F1" s="398"/>
-      <c r="G1" s="398"/>
-      <c r="H1" s="398"/>
-      <c r="I1" s="398"/>
-      <c r="J1" s="398"/>
-      <c r="K1" s="398"/>
-      <c r="L1" s="398"/>
-      <c r="M1" s="398"/>
-      <c r="N1" s="398"/>
-      <c r="O1" s="398"/>
-      <c r="P1" s="398"/>
-      <c r="Q1" s="398"/>
-      <c r="R1" s="397" t="s">
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="398" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="398"/>
-      <c r="T1" s="398"/>
-      <c r="U1" s="398"/>
-      <c r="V1" s="398"/>
-      <c r="W1" s="398"/>
-      <c r="X1" s="398"/>
-      <c r="Y1" s="398"/>
-      <c r="Z1" s="398"/>
-      <c r="AA1" s="398"/>
-      <c r="AB1" s="398"/>
-      <c r="AC1" s="398"/>
-      <c r="AD1" s="398"/>
-      <c r="AE1" s="398"/>
-      <c r="AF1" s="398"/>
-      <c r="AG1" s="398"/>
-      <c r="AH1" s="398"/>
-      <c r="AI1" s="398"/>
-      <c r="AJ1" s="398"/>
-      <c r="AK1" s="398"/>
-      <c r="AL1" s="398"/>
-      <c r="AM1" s="399"/>
-      <c r="AN1" s="397" t="s">
+      <c r="S1" s="399"/>
+      <c r="T1" s="399"/>
+      <c r="U1" s="399"/>
+      <c r="V1" s="399"/>
+      <c r="W1" s="399"/>
+      <c r="X1" s="399"/>
+      <c r="Y1" s="399"/>
+      <c r="Z1" s="399"/>
+      <c r="AA1" s="399"/>
+      <c r="AB1" s="399"/>
+      <c r="AC1" s="399"/>
+      <c r="AD1" s="399"/>
+      <c r="AE1" s="399"/>
+      <c r="AF1" s="399"/>
+      <c r="AG1" s="399"/>
+      <c r="AH1" s="399"/>
+      <c r="AI1" s="399"/>
+      <c r="AJ1" s="399"/>
+      <c r="AK1" s="399"/>
+      <c r="AL1" s="399"/>
+      <c r="AM1" s="400"/>
+      <c r="AN1" s="398" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="398"/>
-      <c r="AP1" s="398"/>
-      <c r="AQ1" s="398"/>
-      <c r="AR1" s="398"/>
-      <c r="AS1" s="398"/>
-      <c r="AT1" s="399"/>
-      <c r="AU1" s="397" t="s">
+      <c r="AO1" s="399"/>
+      <c r="AP1" s="399"/>
+      <c r="AQ1" s="399"/>
+      <c r="AR1" s="399"/>
+      <c r="AS1" s="399"/>
+      <c r="AT1" s="400"/>
+      <c r="AU1" s="398" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="398"/>
-      <c r="AW1" s="398"/>
-      <c r="AX1" s="398"/>
-      <c r="AY1" s="398"/>
-      <c r="AZ1" s="398"/>
-      <c r="BA1" s="398"/>
-      <c r="BB1" s="398"/>
-      <c r="BC1" s="398"/>
-      <c r="BD1" s="398"/>
-      <c r="BE1" s="398"/>
-      <c r="BF1" s="398"/>
-      <c r="BG1" s="398"/>
-      <c r="BH1" s="398"/>
-      <c r="BI1" s="398"/>
-      <c r="BJ1" s="398"/>
-      <c r="BK1" s="398"/>
-      <c r="BL1" s="398"/>
-      <c r="BM1" s="398"/>
-      <c r="BN1" s="398"/>
-      <c r="BO1" s="398"/>
-      <c r="BP1" s="398"/>
-      <c r="BQ1" s="399"/>
-      <c r="BR1" s="397" t="s">
+      <c r="AV1" s="399"/>
+      <c r="AW1" s="399"/>
+      <c r="AX1" s="399"/>
+      <c r="AY1" s="399"/>
+      <c r="AZ1" s="399"/>
+      <c r="BA1" s="399"/>
+      <c r="BB1" s="399"/>
+      <c r="BC1" s="399"/>
+      <c r="BD1" s="399"/>
+      <c r="BE1" s="399"/>
+      <c r="BF1" s="399"/>
+      <c r="BG1" s="399"/>
+      <c r="BH1" s="399"/>
+      <c r="BI1" s="399"/>
+      <c r="BJ1" s="399"/>
+      <c r="BK1" s="399"/>
+      <c r="BL1" s="399"/>
+      <c r="BM1" s="399"/>
+      <c r="BN1" s="399"/>
+      <c r="BO1" s="399"/>
+      <c r="BP1" s="399"/>
+      <c r="BQ1" s="400"/>
+      <c r="BR1" s="398" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="398"/>
-      <c r="BT1" s="398"/>
-      <c r="BU1" s="398"/>
-      <c r="BV1" s="398"/>
-      <c r="BW1" s="398"/>
-      <c r="BX1" s="398"/>
-      <c r="BY1" s="398"/>
-      <c r="BZ1" s="398"/>
-      <c r="CA1" s="398"/>
-      <c r="CB1" s="398"/>
-      <c r="CC1" s="398"/>
-      <c r="CD1" s="398"/>
-      <c r="CE1" s="398"/>
-      <c r="CF1" s="398"/>
-      <c r="CG1" s="398"/>
-      <c r="CH1" s="398"/>
-      <c r="CI1" s="398"/>
-      <c r="CJ1" s="398"/>
-      <c r="CK1" s="399"/>
-      <c r="CL1" s="397" t="s">
+      <c r="BS1" s="399"/>
+      <c r="BT1" s="399"/>
+      <c r="BU1" s="399"/>
+      <c r="BV1" s="399"/>
+      <c r="BW1" s="399"/>
+      <c r="BX1" s="399"/>
+      <c r="BY1" s="399"/>
+      <c r="BZ1" s="399"/>
+      <c r="CA1" s="399"/>
+      <c r="CB1" s="399"/>
+      <c r="CC1" s="399"/>
+      <c r="CD1" s="399"/>
+      <c r="CE1" s="399"/>
+      <c r="CF1" s="399"/>
+      <c r="CG1" s="399"/>
+      <c r="CH1" s="399"/>
+      <c r="CI1" s="399"/>
+      <c r="CJ1" s="399"/>
+      <c r="CK1" s="400"/>
+      <c r="CL1" s="398" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="398"/>
-      <c r="CN1" s="398"/>
-      <c r="CO1" s="398"/>
-      <c r="CP1" s="398"/>
-      <c r="CQ1" s="398"/>
-      <c r="CR1" s="398"/>
-      <c r="CS1" s="398"/>
-      <c r="CT1" s="398"/>
-      <c r="CU1" s="398"/>
-      <c r="CV1" s="398"/>
-      <c r="CW1" s="398"/>
-      <c r="CX1" s="398"/>
-      <c r="CY1" s="398"/>
-      <c r="CZ1" s="398"/>
-      <c r="DA1" s="398"/>
-      <c r="DB1" s="398"/>
+      <c r="CM1" s="399"/>
+      <c r="CN1" s="399"/>
+      <c r="CO1" s="399"/>
+      <c r="CP1" s="399"/>
+      <c r="CQ1" s="399"/>
+      <c r="CR1" s="399"/>
+      <c r="CS1" s="399"/>
+      <c r="CT1" s="399"/>
+      <c r="CU1" s="399"/>
+      <c r="CV1" s="399"/>
+      <c r="CW1" s="399"/>
+      <c r="CX1" s="399"/>
+      <c r="CY1" s="399"/>
+      <c r="CZ1" s="399"/>
+      <c r="DA1" s="399"/>
+      <c r="DB1" s="399"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22334,15 +22500,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="395" t="s">
+      <c r="CW86" s="396" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="395"/>
-      <c r="CY86" s="395"/>
-      <c r="CZ86" s="395"/>
-      <c r="DA86" s="395"/>
-      <c r="DB86" s="395"/>
-      <c r="DC86" s="396"/>
+      <c r="CX86" s="396"/>
+      <c r="CY86" s="396"/>
+      <c r="CZ86" s="396"/>
+      <c r="DA86" s="396"/>
+      <c r="DB86" s="396"/>
+      <c r="DC86" s="397"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22732,118 +22898,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="409" t="s">
+      <c r="B1" s="410" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="410"/>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
-      <c r="N1" s="410"/>
-      <c r="O1" s="410"/>
-      <c r="P1" s="410"/>
-      <c r="Q1" s="411"/>
-      <c r="R1" s="400" t="s">
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="411"/>
+      <c r="O1" s="411"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="412"/>
+      <c r="R1" s="401" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="401"/>
-      <c r="T1" s="401"/>
-      <c r="U1" s="401"/>
-      <c r="V1" s="401"/>
-      <c r="W1" s="401"/>
-      <c r="X1" s="401"/>
-      <c r="Y1" s="401"/>
-      <c r="Z1" s="401"/>
-      <c r="AA1" s="401"/>
-      <c r="AB1" s="401"/>
-      <c r="AC1" s="401"/>
-      <c r="AD1" s="401"/>
-      <c r="AE1" s="401"/>
-      <c r="AF1" s="401"/>
-      <c r="AG1" s="401"/>
-      <c r="AH1" s="401"/>
-      <c r="AI1" s="401"/>
-      <c r="AJ1" s="401"/>
-      <c r="AK1" s="401"/>
-      <c r="AL1" s="402"/>
-      <c r="AM1" s="400" t="s">
+      <c r="S1" s="402"/>
+      <c r="T1" s="402"/>
+      <c r="U1" s="402"/>
+      <c r="V1" s="402"/>
+      <c r="W1" s="402"/>
+      <c r="X1" s="402"/>
+      <c r="Y1" s="402"/>
+      <c r="Z1" s="402"/>
+      <c r="AA1" s="402"/>
+      <c r="AB1" s="402"/>
+      <c r="AC1" s="402"/>
+      <c r="AD1" s="402"/>
+      <c r="AE1" s="402"/>
+      <c r="AF1" s="402"/>
+      <c r="AG1" s="402"/>
+      <c r="AH1" s="402"/>
+      <c r="AI1" s="402"/>
+      <c r="AJ1" s="402"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="403"/>
+      <c r="AM1" s="401" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="401"/>
-      <c r="AO1" s="401"/>
-      <c r="AP1" s="401"/>
-      <c r="AQ1" s="401"/>
-      <c r="AR1" s="401"/>
-      <c r="AS1" s="401"/>
-      <c r="AT1" s="401"/>
-      <c r="AU1" s="401"/>
-      <c r="AV1" s="401"/>
-      <c r="AW1" s="401"/>
-      <c r="AX1" s="401"/>
-      <c r="AY1" s="401"/>
-      <c r="AZ1" s="401"/>
-      <c r="BA1" s="401"/>
-      <c r="BB1" s="401"/>
-      <c r="BC1" s="401"/>
-      <c r="BD1" s="401"/>
-      <c r="BE1" s="401"/>
-      <c r="BF1" s="401"/>
-      <c r="BG1" s="401"/>
-      <c r="BH1" s="402"/>
-      <c r="BI1" s="400" t="s">
+      <c r="AN1" s="402"/>
+      <c r="AO1" s="402"/>
+      <c r="AP1" s="402"/>
+      <c r="AQ1" s="402"/>
+      <c r="AR1" s="402"/>
+      <c r="AS1" s="402"/>
+      <c r="AT1" s="402"/>
+      <c r="AU1" s="402"/>
+      <c r="AV1" s="402"/>
+      <c r="AW1" s="402"/>
+      <c r="AX1" s="402"/>
+      <c r="AY1" s="402"/>
+      <c r="AZ1" s="402"/>
+      <c r="BA1" s="402"/>
+      <c r="BB1" s="402"/>
+      <c r="BC1" s="402"/>
+      <c r="BD1" s="402"/>
+      <c r="BE1" s="402"/>
+      <c r="BF1" s="402"/>
+      <c r="BG1" s="402"/>
+      <c r="BH1" s="403"/>
+      <c r="BI1" s="401" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="401"/>
-      <c r="BK1" s="401"/>
-      <c r="BL1" s="401"/>
-      <c r="BM1" s="401"/>
-      <c r="BN1" s="401"/>
-      <c r="BO1" s="401"/>
-      <c r="BP1" s="401"/>
-      <c r="BQ1" s="401"/>
-      <c r="BR1" s="401"/>
-      <c r="BS1" s="401"/>
-      <c r="BT1" s="401"/>
-      <c r="BU1" s="401"/>
-      <c r="BV1" s="401"/>
-      <c r="BW1" s="401"/>
-      <c r="BX1" s="401"/>
-      <c r="BY1" s="401"/>
-      <c r="BZ1" s="401"/>
-      <c r="CA1" s="401"/>
-      <c r="CB1" s="401"/>
-      <c r="CC1" s="401"/>
-      <c r="CD1" s="402"/>
-      <c r="CE1" s="400" t="s">
+      <c r="BJ1" s="402"/>
+      <c r="BK1" s="402"/>
+      <c r="BL1" s="402"/>
+      <c r="BM1" s="402"/>
+      <c r="BN1" s="402"/>
+      <c r="BO1" s="402"/>
+      <c r="BP1" s="402"/>
+      <c r="BQ1" s="402"/>
+      <c r="BR1" s="402"/>
+      <c r="BS1" s="402"/>
+      <c r="BT1" s="402"/>
+      <c r="BU1" s="402"/>
+      <c r="BV1" s="402"/>
+      <c r="BW1" s="402"/>
+      <c r="BX1" s="402"/>
+      <c r="BY1" s="402"/>
+      <c r="BZ1" s="402"/>
+      <c r="CA1" s="402"/>
+      <c r="CB1" s="402"/>
+      <c r="CC1" s="402"/>
+      <c r="CD1" s="403"/>
+      <c r="CE1" s="401" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="401"/>
-      <c r="CG1" s="401"/>
-      <c r="CH1" s="401"/>
-      <c r="CI1" s="401"/>
-      <c r="CJ1" s="401"/>
-      <c r="CK1" s="401"/>
-      <c r="CL1" s="401"/>
-      <c r="CM1" s="402"/>
-      <c r="CN1" s="400" t="s">
+      <c r="CF1" s="402"/>
+      <c r="CG1" s="402"/>
+      <c r="CH1" s="402"/>
+      <c r="CI1" s="402"/>
+      <c r="CJ1" s="402"/>
+      <c r="CK1" s="402"/>
+      <c r="CL1" s="402"/>
+      <c r="CM1" s="403"/>
+      <c r="CN1" s="401" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="401"/>
-      <c r="CP1" s="401"/>
-      <c r="CQ1" s="401"/>
-      <c r="CR1" s="401"/>
-      <c r="CS1" s="401"/>
-      <c r="CT1" s="401"/>
-      <c r="CU1" s="401"/>
-      <c r="CV1" s="401"/>
-      <c r="CW1" s="402"/>
+      <c r="CO1" s="402"/>
+      <c r="CP1" s="402"/>
+      <c r="CQ1" s="402"/>
+      <c r="CR1" s="402"/>
+      <c r="CS1" s="402"/>
+      <c r="CT1" s="402"/>
+      <c r="CU1" s="402"/>
+      <c r="CV1" s="402"/>
+      <c r="CW1" s="403"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24290,11 +24456,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="403" t="s">
+      <c r="AX47" s="404" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="404"/>
-      <c r="AZ47" s="405"/>
+      <c r="AY47" s="405"/>
+      <c r="AZ47" s="406"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -24593,11 +24759,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="406" t="s">
+      <c r="BS60" s="407" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="407"/>
-      <c r="BU60" s="408"/>
+      <c r="BT60" s="408"/>
+      <c r="BU60" s="409"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -24961,120 +25127,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="409" t="s">
+      <c r="B1" s="410" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="410"/>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
-      <c r="N1" s="410"/>
-      <c r="O1" s="410"/>
-      <c r="P1" s="410"/>
-      <c r="Q1" s="411"/>
-      <c r="R1" s="400" t="s">
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="411"/>
+      <c r="O1" s="411"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="412"/>
+      <c r="R1" s="401" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="401"/>
-      <c r="T1" s="401"/>
-      <c r="U1" s="401"/>
-      <c r="V1" s="401"/>
-      <c r="W1" s="401"/>
-      <c r="X1" s="401"/>
-      <c r="Y1" s="401"/>
-      <c r="Z1" s="401"/>
-      <c r="AA1" s="401"/>
-      <c r="AB1" s="401"/>
-      <c r="AC1" s="401"/>
-      <c r="AD1" s="401"/>
-      <c r="AE1" s="401"/>
-      <c r="AF1" s="401"/>
-      <c r="AG1" s="401"/>
-      <c r="AH1" s="401"/>
-      <c r="AI1" s="401"/>
-      <c r="AJ1" s="401"/>
-      <c r="AK1" s="401"/>
-      <c r="AL1" s="401"/>
-      <c r="AM1" s="402"/>
-      <c r="AN1" s="400" t="s">
+      <c r="S1" s="402"/>
+      <c r="T1" s="402"/>
+      <c r="U1" s="402"/>
+      <c r="V1" s="402"/>
+      <c r="W1" s="402"/>
+      <c r="X1" s="402"/>
+      <c r="Y1" s="402"/>
+      <c r="Z1" s="402"/>
+      <c r="AA1" s="402"/>
+      <c r="AB1" s="402"/>
+      <c r="AC1" s="402"/>
+      <c r="AD1" s="402"/>
+      <c r="AE1" s="402"/>
+      <c r="AF1" s="402"/>
+      <c r="AG1" s="402"/>
+      <c r="AH1" s="402"/>
+      <c r="AI1" s="402"/>
+      <c r="AJ1" s="402"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="402"/>
+      <c r="AM1" s="403"/>
+      <c r="AN1" s="401" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="401"/>
-      <c r="AP1" s="401"/>
-      <c r="AQ1" s="401"/>
-      <c r="AR1" s="401"/>
-      <c r="AS1" s="401"/>
-      <c r="AT1" s="401"/>
-      <c r="AU1" s="401"/>
-      <c r="AV1" s="401"/>
-      <c r="AW1" s="401"/>
-      <c r="AX1" s="401"/>
-      <c r="AY1" s="401"/>
-      <c r="AZ1" s="401"/>
-      <c r="BA1" s="401"/>
-      <c r="BB1" s="401"/>
-      <c r="BC1" s="401"/>
-      <c r="BD1" s="401"/>
-      <c r="BE1" s="401"/>
-      <c r="BF1" s="401"/>
-      <c r="BG1" s="401"/>
-      <c r="BH1" s="401"/>
-      <c r="BI1" s="401"/>
-      <c r="BJ1" s="402"/>
-      <c r="BK1" s="400" t="s">
+      <c r="AO1" s="402"/>
+      <c r="AP1" s="402"/>
+      <c r="AQ1" s="402"/>
+      <c r="AR1" s="402"/>
+      <c r="AS1" s="402"/>
+      <c r="AT1" s="402"/>
+      <c r="AU1" s="402"/>
+      <c r="AV1" s="402"/>
+      <c r="AW1" s="402"/>
+      <c r="AX1" s="402"/>
+      <c r="AY1" s="402"/>
+      <c r="AZ1" s="402"/>
+      <c r="BA1" s="402"/>
+      <c r="BB1" s="402"/>
+      <c r="BC1" s="402"/>
+      <c r="BD1" s="402"/>
+      <c r="BE1" s="402"/>
+      <c r="BF1" s="402"/>
+      <c r="BG1" s="402"/>
+      <c r="BH1" s="402"/>
+      <c r="BI1" s="402"/>
+      <c r="BJ1" s="403"/>
+      <c r="BK1" s="401" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="401"/>
-      <c r="BM1" s="401"/>
-      <c r="BN1" s="401"/>
-      <c r="BO1" s="401"/>
-      <c r="BP1" s="401"/>
-      <c r="BQ1" s="401"/>
-      <c r="BR1" s="401"/>
-      <c r="BS1" s="401"/>
-      <c r="BT1" s="401"/>
-      <c r="BU1" s="401"/>
-      <c r="BV1" s="401"/>
-      <c r="BW1" s="401"/>
-      <c r="BX1" s="401"/>
-      <c r="BY1" s="401"/>
-      <c r="BZ1" s="401"/>
-      <c r="CA1" s="401"/>
-      <c r="CB1" s="401"/>
-      <c r="CC1" s="401"/>
-      <c r="CD1" s="401"/>
-      <c r="CE1" s="401"/>
-      <c r="CF1" s="401"/>
-      <c r="CG1" s="402"/>
-      <c r="CH1" s="400" t="s">
+      <c r="BL1" s="402"/>
+      <c r="BM1" s="402"/>
+      <c r="BN1" s="402"/>
+      <c r="BO1" s="402"/>
+      <c r="BP1" s="402"/>
+      <c r="BQ1" s="402"/>
+      <c r="BR1" s="402"/>
+      <c r="BS1" s="402"/>
+      <c r="BT1" s="402"/>
+      <c r="BU1" s="402"/>
+      <c r="BV1" s="402"/>
+      <c r="BW1" s="402"/>
+      <c r="BX1" s="402"/>
+      <c r="BY1" s="402"/>
+      <c r="BZ1" s="402"/>
+      <c r="CA1" s="402"/>
+      <c r="CB1" s="402"/>
+      <c r="CC1" s="402"/>
+      <c r="CD1" s="402"/>
+      <c r="CE1" s="402"/>
+      <c r="CF1" s="402"/>
+      <c r="CG1" s="403"/>
+      <c r="CH1" s="401" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="401"/>
-      <c r="CJ1" s="401"/>
-      <c r="CK1" s="401"/>
-      <c r="CL1" s="401"/>
-      <c r="CM1" s="401"/>
-      <c r="CN1" s="401"/>
-      <c r="CO1" s="401"/>
-      <c r="CP1" s="401"/>
-      <c r="CQ1" s="402"/>
-      <c r="CR1" s="415" t="s">
+      <c r="CI1" s="402"/>
+      <c r="CJ1" s="402"/>
+      <c r="CK1" s="402"/>
+      <c r="CL1" s="402"/>
+      <c r="CM1" s="402"/>
+      <c r="CN1" s="402"/>
+      <c r="CO1" s="402"/>
+      <c r="CP1" s="402"/>
+      <c r="CQ1" s="403"/>
+      <c r="CR1" s="413" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="416"/>
-      <c r="CT1" s="416"/>
-      <c r="CU1" s="416"/>
-      <c r="CV1" s="416"/>
-      <c r="CW1" s="416"/>
-      <c r="CX1" s="416"/>
-      <c r="CY1" s="417"/>
+      <c r="CS1" s="414"/>
+      <c r="CT1" s="414"/>
+      <c r="CU1" s="414"/>
+      <c r="CV1" s="414"/>
+      <c r="CW1" s="414"/>
+      <c r="CX1" s="414"/>
+      <c r="CY1" s="415"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26883,11 +27049,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="412" t="s">
+      <c r="AY47" s="416" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="413"/>
-      <c r="BA47" s="414"/>
+      <c r="AZ47" s="417"/>
+      <c r="BA47" s="418"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27280,11 +27446,11 @@
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="406" t="s">
+      <c r="BU60" s="407" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="407"/>
-      <c r="BW60" s="408"/>
+      <c r="BV60" s="408"/>
+      <c r="BW60" s="409"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -27759,120 +27925,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="409" t="s">
+      <c r="B1" s="410" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="410"/>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="410"/>
-      <c r="G1" s="410"/>
-      <c r="H1" s="410"/>
-      <c r="I1" s="410"/>
-      <c r="J1" s="410"/>
-      <c r="K1" s="410"/>
-      <c r="L1" s="410"/>
-      <c r="M1" s="410"/>
-      <c r="N1" s="410"/>
-      <c r="O1" s="410"/>
-      <c r="P1" s="410"/>
-      <c r="Q1" s="411"/>
-      <c r="R1" s="400" t="s">
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="411"/>
+      <c r="O1" s="411"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="412"/>
+      <c r="R1" s="401" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="401"/>
-      <c r="T1" s="401"/>
-      <c r="U1" s="401"/>
-      <c r="V1" s="401"/>
-      <c r="W1" s="401"/>
-      <c r="X1" s="401"/>
-      <c r="Y1" s="401"/>
-      <c r="Z1" s="401"/>
-      <c r="AA1" s="401"/>
-      <c r="AB1" s="401"/>
-      <c r="AC1" s="401"/>
-      <c r="AD1" s="401"/>
-      <c r="AE1" s="401"/>
-      <c r="AF1" s="401"/>
-      <c r="AG1" s="401"/>
-      <c r="AH1" s="401"/>
-      <c r="AI1" s="401"/>
-      <c r="AJ1" s="401"/>
-      <c r="AK1" s="401"/>
-      <c r="AL1" s="401"/>
-      <c r="AM1" s="402"/>
-      <c r="AN1" s="400" t="s">
+      <c r="S1" s="402"/>
+      <c r="T1" s="402"/>
+      <c r="U1" s="402"/>
+      <c r="V1" s="402"/>
+      <c r="W1" s="402"/>
+      <c r="X1" s="402"/>
+      <c r="Y1" s="402"/>
+      <c r="Z1" s="402"/>
+      <c r="AA1" s="402"/>
+      <c r="AB1" s="402"/>
+      <c r="AC1" s="402"/>
+      <c r="AD1" s="402"/>
+      <c r="AE1" s="402"/>
+      <c r="AF1" s="402"/>
+      <c r="AG1" s="402"/>
+      <c r="AH1" s="402"/>
+      <c r="AI1" s="402"/>
+      <c r="AJ1" s="402"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="402"/>
+      <c r="AM1" s="403"/>
+      <c r="AN1" s="401" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="401"/>
-      <c r="AP1" s="401"/>
-      <c r="AQ1" s="401"/>
-      <c r="AR1" s="401"/>
-      <c r="AS1" s="401"/>
-      <c r="AT1" s="401"/>
-      <c r="AU1" s="401"/>
-      <c r="AV1" s="401"/>
-      <c r="AW1" s="401"/>
-      <c r="AX1" s="401"/>
-      <c r="AY1" s="401"/>
-      <c r="AZ1" s="401"/>
-      <c r="BA1" s="401"/>
-      <c r="BB1" s="401"/>
-      <c r="BC1" s="401"/>
-      <c r="BD1" s="401"/>
-      <c r="BE1" s="401"/>
-      <c r="BF1" s="401"/>
-      <c r="BG1" s="401"/>
-      <c r="BH1" s="401"/>
-      <c r="BI1" s="401"/>
-      <c r="BJ1" s="402"/>
-      <c r="BK1" s="400" t="s">
+      <c r="AO1" s="402"/>
+      <c r="AP1" s="402"/>
+      <c r="AQ1" s="402"/>
+      <c r="AR1" s="402"/>
+      <c r="AS1" s="402"/>
+      <c r="AT1" s="402"/>
+      <c r="AU1" s="402"/>
+      <c r="AV1" s="402"/>
+      <c r="AW1" s="402"/>
+      <c r="AX1" s="402"/>
+      <c r="AY1" s="402"/>
+      <c r="AZ1" s="402"/>
+      <c r="BA1" s="402"/>
+      <c r="BB1" s="402"/>
+      <c r="BC1" s="402"/>
+      <c r="BD1" s="402"/>
+      <c r="BE1" s="402"/>
+      <c r="BF1" s="402"/>
+      <c r="BG1" s="402"/>
+      <c r="BH1" s="402"/>
+      <c r="BI1" s="402"/>
+      <c r="BJ1" s="403"/>
+      <c r="BK1" s="401" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="401"/>
-      <c r="BM1" s="401"/>
-      <c r="BN1" s="401"/>
-      <c r="BO1" s="401"/>
-      <c r="BP1" s="401"/>
-      <c r="BQ1" s="401"/>
-      <c r="BR1" s="401"/>
-      <c r="BS1" s="401"/>
-      <c r="BT1" s="401"/>
-      <c r="BU1" s="401"/>
-      <c r="BV1" s="401"/>
-      <c r="BW1" s="401"/>
-      <c r="BX1" s="401"/>
-      <c r="BY1" s="401"/>
-      <c r="BZ1" s="401"/>
-      <c r="CA1" s="401"/>
-      <c r="CB1" s="401"/>
-      <c r="CC1" s="401"/>
-      <c r="CD1" s="401"/>
-      <c r="CE1" s="401"/>
-      <c r="CF1" s="401"/>
-      <c r="CG1" s="402"/>
-      <c r="CH1" s="400" t="s">
+      <c r="BL1" s="402"/>
+      <c r="BM1" s="402"/>
+      <c r="BN1" s="402"/>
+      <c r="BO1" s="402"/>
+      <c r="BP1" s="402"/>
+      <c r="BQ1" s="402"/>
+      <c r="BR1" s="402"/>
+      <c r="BS1" s="402"/>
+      <c r="BT1" s="402"/>
+      <c r="BU1" s="402"/>
+      <c r="BV1" s="402"/>
+      <c r="BW1" s="402"/>
+      <c r="BX1" s="402"/>
+      <c r="BY1" s="402"/>
+      <c r="BZ1" s="402"/>
+      <c r="CA1" s="402"/>
+      <c r="CB1" s="402"/>
+      <c r="CC1" s="402"/>
+      <c r="CD1" s="402"/>
+      <c r="CE1" s="402"/>
+      <c r="CF1" s="402"/>
+      <c r="CG1" s="403"/>
+      <c r="CH1" s="401" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="401"/>
-      <c r="CJ1" s="401"/>
-      <c r="CK1" s="401"/>
-      <c r="CL1" s="401"/>
-      <c r="CM1" s="401"/>
-      <c r="CN1" s="401"/>
-      <c r="CO1" s="401"/>
-      <c r="CP1" s="401"/>
-      <c r="CQ1" s="402"/>
-      <c r="CR1" s="415" t="s">
+      <c r="CI1" s="402"/>
+      <c r="CJ1" s="402"/>
+      <c r="CK1" s="402"/>
+      <c r="CL1" s="402"/>
+      <c r="CM1" s="402"/>
+      <c r="CN1" s="402"/>
+      <c r="CO1" s="402"/>
+      <c r="CP1" s="402"/>
+      <c r="CQ1" s="403"/>
+      <c r="CR1" s="413" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="416"/>
-      <c r="CT1" s="416"/>
-      <c r="CU1" s="416"/>
-      <c r="CV1" s="416"/>
-      <c r="CW1" s="416"/>
-      <c r="CX1" s="416"/>
-      <c r="CY1" s="417"/>
+      <c r="CS1" s="414"/>
+      <c r="CT1" s="414"/>
+      <c r="CU1" s="414"/>
+      <c r="CV1" s="414"/>
+      <c r="CW1" s="414"/>
+      <c r="CX1" s="414"/>
+      <c r="CY1" s="415"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30460,11 +30626,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="412" t="s">
+      <c r="AY47" s="416" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="413"/>
-      <c r="BA47" s="414"/>
+      <c r="AZ47" s="417"/>
+      <c r="BA47" s="418"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -31113,11 +31279,11 @@
       <c r="BK60" s="145"/>
       <c r="BN60" s="321"/>
       <c r="BS60" s="302"/>
-      <c r="BU60" s="406" t="s">
+      <c r="BU60" s="407" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="407"/>
-      <c r="BW60" s="408"/>
+      <c r="BV60" s="408"/>
+      <c r="BW60" s="409"/>
       <c r="BX60" s="302"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -31705,9 +31871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CM54" sqref="CM54"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34136,7 +34302,7 @@
       <c r="CK68" s="381"/>
       <c r="CP68" s="381"/>
       <c r="CU68" s="381"/>
-      <c r="CY68" s="454">
+      <c r="CY68" s="395">
         <v>4</v>
       </c>
     </row>
@@ -34173,645 +34339,894 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="334"/>
-    <col min="2" max="2" width="5.85546875" style="334" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="5.5703125" style="334"/>
+    <col min="1" max="1" width="5.5703125" style="443"/>
+    <col min="2" max="2" width="5.85546875" style="443" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="471" customWidth="1"/>
+    <col min="4" max="4" width="33" style="471" customWidth="1"/>
+    <col min="5" max="16384" width="5.5703125" style="443"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="433" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="434"/>
-      <c r="B1" s="432" t="s">
+    <row r="1" spans="1:4" s="448" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="447"/>
+      <c r="B1" s="425" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="433" t="s">
+      <c r="C1" s="458" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="426" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="435" t="s">
+      <c r="D1" s="458"/>
+    </row>
+    <row r="2" spans="1:4" s="449" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="444" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="425">
+      <c r="B2" s="426">
         <v>43670</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="436"/>
+      <c r="C2" s="459" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="460"/>
+    </row>
+    <row r="3" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="445"/>
       <c r="B3" s="427">
         <v>43671</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="436"/>
+      <c r="C3" s="461"/>
+      <c r="D3" s="461"/>
+    </row>
+    <row r="4" spans="1:4" s="451" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="445"/>
       <c r="B4" s="428">
         <v>43672</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="436"/>
+      <c r="C4" s="462" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="463" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="452" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="445"/>
       <c r="B5" s="429">
         <v>43675</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="436"/>
+      <c r="C5" s="464" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="465" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="445"/>
       <c r="B6" s="429">
         <v>43676</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="436"/>
+      <c r="C6" s="465" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="465" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="452" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="445"/>
       <c r="B7" s="429">
         <v>43677</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="436"/>
+      <c r="C7" s="464" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="464" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="445"/>
       <c r="B8" s="427">
         <v>43678</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="436"/>
+      <c r="C8" s="461"/>
+      <c r="D8" s="461"/>
+    </row>
+    <row r="9" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="445"/>
       <c r="B9" s="429">
         <v>43679</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="436"/>
+      <c r="C9" s="465" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="465"/>
+    </row>
+    <row r="10" spans="1:4" s="451" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="445"/>
       <c r="B10" s="428">
         <v>43682</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="436"/>
+      <c r="C10" s="462" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="462" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="445"/>
       <c r="B11" s="428">
         <v>43683</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="436"/>
+      <c r="C11" s="463" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="463" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="445"/>
       <c r="B12" s="428">
         <v>43684</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="436"/>
+      <c r="C12" s="463" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="463" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="445"/>
       <c r="B13" s="427">
         <v>43685</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="436"/>
+      <c r="C13" s="461"/>
+      <c r="D13" s="461"/>
+    </row>
+    <row r="14" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="445"/>
       <c r="B14" s="428">
         <v>43686</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="436"/>
+      <c r="C14" s="463" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="463"/>
+    </row>
+    <row r="15" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="445"/>
       <c r="B15" s="429">
         <v>43689</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="436"/>
+      <c r="C15" s="465" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="465"/>
+    </row>
+    <row r="16" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="445"/>
       <c r="B16" s="429">
         <v>43690</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="436"/>
+      <c r="C16" s="465" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="465"/>
+    </row>
+    <row r="17" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="445"/>
       <c r="B17" s="429">
         <v>43691</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="436"/>
+      <c r="C17" s="465" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="465"/>
+    </row>
+    <row r="18" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="445"/>
       <c r="B18" s="427">
         <v>43692</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" s="431" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="437"/>
+      <c r="C18" s="461"/>
+      <c r="D18" s="461"/>
+    </row>
+    <row r="19" spans="1:4" s="453" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="446"/>
       <c r="B19" s="430">
         <v>43693</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="426" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="441" t="s">
+      <c r="C19" s="465" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="466"/>
+    </row>
+    <row r="20" spans="1:4" s="449" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="419" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="438">
+      <c r="B20" s="431">
         <v>43696</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="442"/>
-      <c r="B21" s="418">
+      <c r="C20" s="460"/>
+      <c r="D20" s="460"/>
+    </row>
+    <row r="21" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="420"/>
+      <c r="B21" s="432">
         <v>43697</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="442"/>
-      <c r="B22" s="418">
+      <c r="C21" s="463"/>
+      <c r="D21" s="463"/>
+    </row>
+    <row r="22" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="420"/>
+      <c r="B22" s="432">
         <v>43698</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="442"/>
-      <c r="B23" s="420">
+      <c r="C22" s="463"/>
+      <c r="D22" s="463"/>
+    </row>
+    <row r="23" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="420"/>
+      <c r="B23" s="433">
         <v>43699</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="442"/>
-      <c r="B24" s="418">
+      <c r="C23" s="461"/>
+      <c r="D23" s="461"/>
+    </row>
+    <row r="24" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="420"/>
+      <c r="B24" s="432">
         <v>43700</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="442"/>
-      <c r="B25" s="421">
+      <c r="C24" s="463"/>
+      <c r="D24" s="463"/>
+    </row>
+    <row r="25" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="420"/>
+      <c r="B25" s="434">
         <v>43703</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="442"/>
-      <c r="B26" s="421">
+      <c r="C25" s="465"/>
+      <c r="D25" s="465"/>
+    </row>
+    <row r="26" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="420"/>
+      <c r="B26" s="434">
         <v>43704</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="442"/>
-      <c r="B27" s="421">
+      <c r="C26" s="465"/>
+      <c r="D26" s="465"/>
+    </row>
+    <row r="27" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="420"/>
+      <c r="B27" s="434">
         <v>43705</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="442"/>
-      <c r="B28" s="420">
+      <c r="C27" s="465"/>
+      <c r="D27" s="465"/>
+    </row>
+    <row r="28" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="420"/>
+      <c r="B28" s="433">
         <v>43706</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="442"/>
-      <c r="B29" s="421">
+      <c r="C28" s="461"/>
+      <c r="D28" s="461"/>
+    </row>
+    <row r="29" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="420"/>
+      <c r="B29" s="434">
         <v>43707</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="442"/>
-      <c r="B30" s="418">
+      <c r="C29" s="465"/>
+      <c r="D29" s="465"/>
+    </row>
+    <row r="30" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="420"/>
+      <c r="B30" s="432">
         <v>43710</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="442"/>
-      <c r="B31" s="418">
+      <c r="C30" s="463"/>
+      <c r="D30" s="463"/>
+    </row>
+    <row r="31" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="420"/>
+      <c r="B31" s="432">
         <v>43711</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="442"/>
-      <c r="B32" s="418">
+      <c r="C31" s="463"/>
+      <c r="D31" s="463"/>
+    </row>
+    <row r="32" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="420"/>
+      <c r="B32" s="432">
         <v>43712</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="442"/>
-      <c r="B33" s="420">
+      <c r="C32" s="463"/>
+      <c r="D32" s="463"/>
+    </row>
+    <row r="33" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="420"/>
+      <c r="B33" s="433">
         <v>43713</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="442"/>
-      <c r="B34" s="418">
+      <c r="C33" s="461"/>
+      <c r="D33" s="461"/>
+    </row>
+    <row r="34" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="420"/>
+      <c r="B34" s="432">
         <v>43714</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="442"/>
-      <c r="B35" s="421">
+      <c r="C34" s="463"/>
+      <c r="D34" s="463"/>
+    </row>
+    <row r="35" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="420"/>
+      <c r="B35" s="434">
         <v>43717</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="442"/>
-      <c r="B36" s="421">
+      <c r="C35" s="465"/>
+      <c r="D35" s="465"/>
+    </row>
+    <row r="36" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="420"/>
+      <c r="B36" s="434">
         <v>43718</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="442"/>
-      <c r="B37" s="421">
+      <c r="C36" s="465"/>
+      <c r="D36" s="465"/>
+    </row>
+    <row r="37" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="420"/>
+      <c r="B37" s="434">
         <v>43719</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="442"/>
-      <c r="B38" s="420">
+      <c r="C37" s="465"/>
+      <c r="D37" s="465"/>
+    </row>
+    <row r="38" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="420"/>
+      <c r="B38" s="433">
         <v>43720</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="442"/>
-      <c r="B39" s="421">
+      <c r="C38" s="461"/>
+      <c r="D38" s="461"/>
+    </row>
+    <row r="39" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="420"/>
+      <c r="B39" s="434">
         <v>43721</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="442"/>
-      <c r="B40" s="418">
+      <c r="C39" s="465"/>
+      <c r="D39" s="465"/>
+    </row>
+    <row r="40" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="420"/>
+      <c r="B40" s="432">
         <v>43724</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="442"/>
-      <c r="B41" s="418">
+      <c r="C40" s="463"/>
+      <c r="D40" s="463"/>
+    </row>
+    <row r="41" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="420"/>
+      <c r="B41" s="432">
         <v>43725</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="442"/>
-      <c r="B42" s="418">
+      <c r="C41" s="463"/>
+      <c r="D41" s="463"/>
+    </row>
+    <row r="42" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="420"/>
+      <c r="B42" s="432">
         <v>43726</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="442"/>
-      <c r="B43" s="420">
+      <c r="C42" s="463"/>
+      <c r="D42" s="463"/>
+    </row>
+    <row r="43" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="420"/>
+      <c r="B43" s="433">
         <v>43727</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" s="440" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="443"/>
-      <c r="B44" s="439">
+      <c r="C43" s="461"/>
+      <c r="D43" s="461"/>
+    </row>
+    <row r="44" spans="1:4" s="454" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="421"/>
+      <c r="B44" s="435">
         <v>43728</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" s="444" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="450" t="s">
+      <c r="C44" s="467"/>
+      <c r="D44" s="467"/>
+    </row>
+    <row r="45" spans="1:4" s="455" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="422" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="445">
+      <c r="B45" s="436">
         <v>43731</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="451"/>
-      <c r="B46" s="446">
+      <c r="C45" s="468"/>
+      <c r="D45" s="468"/>
+    </row>
+    <row r="46" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="423"/>
+      <c r="B46" s="437">
         <v>43732</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="451"/>
-      <c r="B47" s="446">
+      <c r="C46" s="465"/>
+      <c r="D46" s="465"/>
+    </row>
+    <row r="47" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="423"/>
+      <c r="B47" s="437">
         <v>43733</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="451"/>
-      <c r="B48" s="447">
+      <c r="C47" s="465"/>
+      <c r="D47" s="465"/>
+    </row>
+    <row r="48" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="423"/>
+      <c r="B48" s="438">
         <v>43734</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="451"/>
-      <c r="B49" s="446">
+      <c r="C48" s="461"/>
+      <c r="D48" s="461"/>
+    </row>
+    <row r="49" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="423"/>
+      <c r="B49" s="437">
         <v>43735</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="451"/>
-      <c r="B50" s="448">
+      <c r="C49" s="465"/>
+      <c r="D49" s="465"/>
+    </row>
+    <row r="50" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="423"/>
+      <c r="B50" s="439">
         <v>43738</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="451"/>
-      <c r="B51" s="448">
+      <c r="C50" s="463"/>
+      <c r="D50" s="463"/>
+    </row>
+    <row r="51" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="423"/>
+      <c r="B51" s="439">
         <v>43739</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="451"/>
-      <c r="B52" s="448">
+      <c r="C51" s="463"/>
+      <c r="D51" s="463"/>
+    </row>
+    <row r="52" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="423"/>
+      <c r="B52" s="439">
         <v>43740</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="451"/>
-      <c r="B53" s="447">
+      <c r="C52" s="463"/>
+      <c r="D52" s="463"/>
+    </row>
+    <row r="53" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="423"/>
+      <c r="B53" s="438">
         <v>43741</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="451"/>
-      <c r="B54" s="448">
+      <c r="C53" s="461"/>
+      <c r="D53" s="461"/>
+    </row>
+    <row r="54" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="423"/>
+      <c r="B54" s="439">
         <v>43742</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="451"/>
-      <c r="B55" s="446">
+      <c r="C54" s="463"/>
+      <c r="D54" s="463"/>
+    </row>
+    <row r="55" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="423"/>
+      <c r="B55" s="437">
         <v>43745</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="451"/>
-      <c r="B56" s="446">
+      <c r="C55" s="465"/>
+      <c r="D55" s="465"/>
+    </row>
+    <row r="56" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="423"/>
+      <c r="B56" s="437">
         <v>43746</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="451"/>
-      <c r="B57" s="446">
+      <c r="C56" s="465"/>
+      <c r="D56" s="465"/>
+    </row>
+    <row r="57" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="423"/>
+      <c r="B57" s="437">
         <v>43747</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="451"/>
-      <c r="B58" s="447">
+      <c r="C57" s="465"/>
+      <c r="D57" s="465"/>
+    </row>
+    <row r="58" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="423"/>
+      <c r="B58" s="438">
         <v>43748</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="451"/>
-      <c r="B59" s="446">
+      <c r="C58" s="461"/>
+      <c r="D58" s="461"/>
+    </row>
+    <row r="59" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="423"/>
+      <c r="B59" s="437">
         <v>43749</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="451"/>
-      <c r="B60" s="448">
+      <c r="C59" s="465"/>
+      <c r="D59" s="465"/>
+    </row>
+    <row r="60" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="423"/>
+      <c r="B60" s="439">
         <v>43754</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="451"/>
-      <c r="B61" s="447">
+      <c r="C60" s="463"/>
+      <c r="D60" s="463"/>
+    </row>
+    <row r="61" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="423"/>
+      <c r="B61" s="438">
         <v>43755</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="451"/>
-      <c r="B62" s="448">
+      <c r="C61" s="461"/>
+      <c r="D61" s="461"/>
+    </row>
+    <row r="62" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="423"/>
+      <c r="B62" s="439">
         <v>43756</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="451"/>
-      <c r="B63" s="446">
+      <c r="C62" s="463"/>
+      <c r="D62" s="463"/>
+    </row>
+    <row r="63" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="423"/>
+      <c r="B63" s="437">
         <v>43759</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="451"/>
-      <c r="B64" s="446">
+      <c r="C63" s="465"/>
+      <c r="D63" s="465"/>
+    </row>
+    <row r="64" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="423"/>
+      <c r="B64" s="437">
         <v>43760</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="451"/>
-      <c r="B65" s="446">
+      <c r="C64" s="465"/>
+      <c r="D64" s="465"/>
+    </row>
+    <row r="65" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="423"/>
+      <c r="B65" s="437">
         <v>43761</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" s="347" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="452"/>
-      <c r="B66" s="449">
+      <c r="C65" s="465"/>
+      <c r="D65" s="465"/>
+    </row>
+    <row r="66" spans="1:4" s="456" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="424"/>
+      <c r="B66" s="440">
         <v>43762</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" s="444" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="450" t="s">
+      <c r="C66" s="469"/>
+      <c r="D66" s="469"/>
+    </row>
+    <row r="67" spans="1:4" s="455" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="422" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="445">
+      <c r="B67" s="436">
         <v>43763</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="451"/>
-      <c r="B68" s="448">
+      <c r="C67" s="468"/>
+      <c r="D67" s="468"/>
+    </row>
+    <row r="68" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="423"/>
+      <c r="B68" s="439">
         <v>43766</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="451"/>
-      <c r="B69" s="448">
+      <c r="C68" s="463"/>
+      <c r="D68" s="463"/>
+    </row>
+    <row r="69" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="423"/>
+      <c r="B69" s="439">
         <v>43767</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="451"/>
-      <c r="B70" s="448">
+      <c r="C69" s="463"/>
+      <c r="D69" s="463"/>
+    </row>
+    <row r="70" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="423"/>
+      <c r="B70" s="439">
         <v>43768</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="451"/>
-      <c r="B71" s="447">
+      <c r="C70" s="463"/>
+      <c r="D70" s="463"/>
+    </row>
+    <row r="71" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="423"/>
+      <c r="B71" s="438">
         <v>43769</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="451"/>
-      <c r="B72" s="448">
+      <c r="C71" s="461"/>
+      <c r="D71" s="461"/>
+    </row>
+    <row r="72" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="423"/>
+      <c r="B72" s="439">
         <v>43770</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="451"/>
-      <c r="B73" s="446">
+      <c r="C72" s="463"/>
+      <c r="D72" s="463"/>
+    </row>
+    <row r="73" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="423"/>
+      <c r="B73" s="437">
         <v>43773</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="451"/>
-      <c r="B74" s="446">
+      <c r="C73" s="465"/>
+      <c r="D73" s="465"/>
+    </row>
+    <row r="74" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="423"/>
+      <c r="B74" s="437">
         <v>43774</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="451"/>
-      <c r="B75" s="446">
+      <c r="C74" s="465"/>
+      <c r="D74" s="465"/>
+    </row>
+    <row r="75" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="423"/>
+      <c r="B75" s="437">
         <v>43775</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="451"/>
-      <c r="B76" s="447">
+      <c r="C75" s="465"/>
+      <c r="D75" s="465"/>
+    </row>
+    <row r="76" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="423"/>
+      <c r="B76" s="438">
         <v>43776</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="451"/>
-      <c r="B77" s="446">
+      <c r="C76" s="461"/>
+      <c r="D76" s="461"/>
+    </row>
+    <row r="77" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="423"/>
+      <c r="B77" s="437">
         <v>43777</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="451"/>
-      <c r="B78" s="448">
+      <c r="C77" s="465"/>
+      <c r="D77" s="465"/>
+    </row>
+    <row r="78" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="423"/>
+      <c r="B78" s="439">
         <v>43780</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="451"/>
-      <c r="B79" s="448">
+      <c r="C78" s="463"/>
+      <c r="D78" s="463"/>
+    </row>
+    <row r="79" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="423"/>
+      <c r="B79" s="439">
         <v>43781</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="451"/>
-      <c r="B80" s="448">
+      <c r="C79" s="463"/>
+      <c r="D79" s="463"/>
+    </row>
+    <row r="80" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="423"/>
+      <c r="B80" s="439">
         <v>43782</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="451"/>
-      <c r="B81" s="447">
+      <c r="C80" s="463"/>
+      <c r="D80" s="463"/>
+    </row>
+    <row r="81" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="423"/>
+      <c r="B81" s="438">
         <v>43783</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="451"/>
-      <c r="B82" s="446">
+      <c r="C81" s="461"/>
+      <c r="D81" s="461"/>
+    </row>
+    <row r="82" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="423"/>
+      <c r="B82" s="437">
         <v>43787</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="451"/>
-      <c r="B83" s="446">
+      <c r="C82" s="465"/>
+      <c r="D82" s="465"/>
+    </row>
+    <row r="83" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="423"/>
+      <c r="B83" s="437">
         <v>43788</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="451"/>
-      <c r="B84" s="447">
+      <c r="C83" s="465"/>
+      <c r="D83" s="465"/>
+    </row>
+    <row r="84" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="423"/>
+      <c r="B84" s="438">
         <v>43790</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="451"/>
-      <c r="B85" s="446">
+      <c r="C84" s="461"/>
+      <c r="D84" s="461"/>
+    </row>
+    <row r="85" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="423"/>
+      <c r="B85" s="437">
         <v>43791</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="451"/>
-      <c r="B86" s="448">
+      <c r="C85" s="465"/>
+      <c r="D85" s="465"/>
+    </row>
+    <row r="86" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="423"/>
+      <c r="B86" s="439">
         <v>43794</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="451"/>
-      <c r="B87" s="448">
+      <c r="C86" s="463"/>
+      <c r="D86" s="463"/>
+    </row>
+    <row r="87" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="423"/>
+      <c r="B87" s="439">
         <v>43795</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="451"/>
-      <c r="B88" s="448">
+      <c r="C87" s="463"/>
+      <c r="D87" s="463"/>
+    </row>
+    <row r="88" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="423"/>
+      <c r="B88" s="439">
         <v>43796</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" s="347" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="452"/>
-      <c r="B89" s="449">
+      <c r="C88" s="463"/>
+      <c r="D88" s="463"/>
+    </row>
+    <row r="89" spans="1:4" s="456" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="424"/>
+      <c r="B89" s="440">
         <v>43797</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" s="426" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="441" t="s">
+      <c r="C89" s="469"/>
+      <c r="D89" s="469"/>
+    </row>
+    <row r="90" spans="1:4" s="449" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="419" t="s">
         <v>146</v>
       </c>
-      <c r="B90" s="453">
+      <c r="B90" s="441">
         <v>43798</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="442"/>
-      <c r="B91" s="446">
+      <c r="C90" s="460"/>
+      <c r="D90" s="460"/>
+    </row>
+    <row r="91" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="420"/>
+      <c r="B91" s="437">
         <v>43801</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="442"/>
-      <c r="B92" s="446">
+      <c r="C91" s="465"/>
+      <c r="D91" s="465"/>
+    </row>
+    <row r="92" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="420"/>
+      <c r="B92" s="437">
         <v>43802</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="442"/>
-      <c r="B93" s="446">
+      <c r="C92" s="465"/>
+      <c r="D92" s="465"/>
+    </row>
+    <row r="93" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="420"/>
+      <c r="B93" s="437">
         <v>43803</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" s="333" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="442"/>
-      <c r="B94" s="447">
+      <c r="C93" s="465"/>
+      <c r="D93" s="465"/>
+    </row>
+    <row r="94" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="420"/>
+      <c r="B94" s="438">
         <v>43804</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="442"/>
-      <c r="B95" s="446">
+      <c r="C94" s="461"/>
+      <c r="D94" s="461"/>
+    </row>
+    <row r="95" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="420"/>
+      <c r="B95" s="437">
         <v>43805</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="442"/>
-      <c r="B96" s="448">
+      <c r="C95" s="465"/>
+      <c r="D95" s="465"/>
+    </row>
+    <row r="96" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="420"/>
+      <c r="B96" s="439">
         <v>43808</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="442"/>
-      <c r="B97" s="448">
+      <c r="C96" s="463"/>
+      <c r="D96" s="463"/>
+    </row>
+    <row r="97" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="420"/>
+      <c r="B97" s="439">
         <v>43809</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="442"/>
-      <c r="B98" s="448">
+      <c r="C97" s="463"/>
+      <c r="D97" s="463"/>
+    </row>
+    <row r="98" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="420"/>
+      <c r="B98" s="439">
         <v>43810</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" s="347" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="443"/>
-      <c r="B99" s="449">
+      <c r="C98" s="463"/>
+      <c r="D98" s="463"/>
+    </row>
+    <row r="99" spans="1:4" s="456" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="421"/>
+      <c r="B99" s="440">
         <v>43811</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" s="424" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="423">
+      <c r="C99" s="469"/>
+      <c r="D99" s="469"/>
+    </row>
+    <row r="100" spans="1:4" s="457" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="442">
         <v>43812</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="421">
+      <c r="C100" s="470"/>
+      <c r="D100" s="470"/>
+    </row>
+    <row r="101" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="434">
         <v>43815</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="421">
+      <c r="C101" s="465"/>
+      <c r="D101" s="465"/>
+    </row>
+    <row r="102" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="434">
         <v>43816</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" s="422" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="421">
+      <c r="C102" s="465"/>
+      <c r="D102" s="465"/>
+    </row>
+    <row r="103" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="434">
         <v>43817</v>
       </c>
+      <c r="C103" s="465"/>
+      <c r="D103" s="465"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="166">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1439,13 +1439,22 @@
 Optus</t>
   </si>
   <si>
-    <t>Desafio Hroads</t>
-  </si>
-  <si>
     <t>Projeto - Gufos</t>
   </si>
   <si>
     <t>Modelagem - DDL - DML - DQL - Documentação</t>
+  </si>
+  <si>
+    <t>Desafio HRoads</t>
+  </si>
+  <si>
+    <t>Exercícios</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Procedures</t>
   </si>
 </sst>
 </file>
@@ -2943,6 +2952,138 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3021,72 +3162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -3096,80 +3171,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3757,123 +3766,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="398" t="s">
+      <c r="B1" s="442" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
-      <c r="N1" s="399"/>
-      <c r="O1" s="399"/>
-      <c r="P1" s="399"/>
-      <c r="Q1" s="399"/>
-      <c r="R1" s="398" t="s">
+      <c r="C1" s="443"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="443"/>
+      <c r="F1" s="443"/>
+      <c r="G1" s="443"/>
+      <c r="H1" s="443"/>
+      <c r="I1" s="443"/>
+      <c r="J1" s="443"/>
+      <c r="K1" s="443"/>
+      <c r="L1" s="443"/>
+      <c r="M1" s="443"/>
+      <c r="N1" s="443"/>
+      <c r="O1" s="443"/>
+      <c r="P1" s="443"/>
+      <c r="Q1" s="443"/>
+      <c r="R1" s="442" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="399"/>
-      <c r="T1" s="399"/>
-      <c r="U1" s="399"/>
-      <c r="V1" s="399"/>
-      <c r="W1" s="399"/>
-      <c r="X1" s="399"/>
-      <c r="Y1" s="399"/>
-      <c r="Z1" s="399"/>
-      <c r="AA1" s="399"/>
-      <c r="AB1" s="399"/>
-      <c r="AC1" s="399"/>
-      <c r="AD1" s="399"/>
-      <c r="AE1" s="399"/>
-      <c r="AF1" s="399"/>
-      <c r="AG1" s="399"/>
-      <c r="AH1" s="399"/>
-      <c r="AI1" s="399"/>
-      <c r="AJ1" s="399"/>
-      <c r="AK1" s="399"/>
-      <c r="AL1" s="399"/>
-      <c r="AM1" s="400"/>
-      <c r="AN1" s="398" t="s">
+      <c r="S1" s="443"/>
+      <c r="T1" s="443"/>
+      <c r="U1" s="443"/>
+      <c r="V1" s="443"/>
+      <c r="W1" s="443"/>
+      <c r="X1" s="443"/>
+      <c r="Y1" s="443"/>
+      <c r="Z1" s="443"/>
+      <c r="AA1" s="443"/>
+      <c r="AB1" s="443"/>
+      <c r="AC1" s="443"/>
+      <c r="AD1" s="443"/>
+      <c r="AE1" s="443"/>
+      <c r="AF1" s="443"/>
+      <c r="AG1" s="443"/>
+      <c r="AH1" s="443"/>
+      <c r="AI1" s="443"/>
+      <c r="AJ1" s="443"/>
+      <c r="AK1" s="443"/>
+      <c r="AL1" s="443"/>
+      <c r="AM1" s="444"/>
+      <c r="AN1" s="442" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="399"/>
-      <c r="AP1" s="399"/>
-      <c r="AQ1" s="399"/>
-      <c r="AR1" s="399"/>
-      <c r="AS1" s="399"/>
-      <c r="AT1" s="400"/>
-      <c r="AU1" s="398" t="s">
+      <c r="AO1" s="443"/>
+      <c r="AP1" s="443"/>
+      <c r="AQ1" s="443"/>
+      <c r="AR1" s="443"/>
+      <c r="AS1" s="443"/>
+      <c r="AT1" s="444"/>
+      <c r="AU1" s="442" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="399"/>
-      <c r="AW1" s="399"/>
-      <c r="AX1" s="399"/>
-      <c r="AY1" s="399"/>
-      <c r="AZ1" s="399"/>
-      <c r="BA1" s="399"/>
-      <c r="BB1" s="399"/>
-      <c r="BC1" s="399"/>
-      <c r="BD1" s="399"/>
-      <c r="BE1" s="399"/>
-      <c r="BF1" s="399"/>
-      <c r="BG1" s="399"/>
-      <c r="BH1" s="399"/>
-      <c r="BI1" s="399"/>
-      <c r="BJ1" s="399"/>
-      <c r="BK1" s="399"/>
-      <c r="BL1" s="399"/>
-      <c r="BM1" s="399"/>
-      <c r="BN1" s="399"/>
-      <c r="BO1" s="399"/>
-      <c r="BP1" s="399"/>
-      <c r="BQ1" s="400"/>
-      <c r="BR1" s="398" t="s">
+      <c r="AV1" s="443"/>
+      <c r="AW1" s="443"/>
+      <c r="AX1" s="443"/>
+      <c r="AY1" s="443"/>
+      <c r="AZ1" s="443"/>
+      <c r="BA1" s="443"/>
+      <c r="BB1" s="443"/>
+      <c r="BC1" s="443"/>
+      <c r="BD1" s="443"/>
+      <c r="BE1" s="443"/>
+      <c r="BF1" s="443"/>
+      <c r="BG1" s="443"/>
+      <c r="BH1" s="443"/>
+      <c r="BI1" s="443"/>
+      <c r="BJ1" s="443"/>
+      <c r="BK1" s="443"/>
+      <c r="BL1" s="443"/>
+      <c r="BM1" s="443"/>
+      <c r="BN1" s="443"/>
+      <c r="BO1" s="443"/>
+      <c r="BP1" s="443"/>
+      <c r="BQ1" s="444"/>
+      <c r="BR1" s="442" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="399"/>
-      <c r="BT1" s="399"/>
-      <c r="BU1" s="399"/>
-      <c r="BV1" s="399"/>
-      <c r="BW1" s="399"/>
-      <c r="BX1" s="399"/>
-      <c r="BY1" s="399"/>
-      <c r="BZ1" s="399"/>
-      <c r="CA1" s="399"/>
-      <c r="CB1" s="399"/>
-      <c r="CC1" s="399"/>
-      <c r="CD1" s="399"/>
-      <c r="CE1" s="399"/>
-      <c r="CF1" s="399"/>
-      <c r="CG1" s="399"/>
-      <c r="CH1" s="399"/>
-      <c r="CI1" s="399"/>
-      <c r="CJ1" s="399"/>
-      <c r="CK1" s="400"/>
-      <c r="CL1" s="398" t="s">
+      <c r="BS1" s="443"/>
+      <c r="BT1" s="443"/>
+      <c r="BU1" s="443"/>
+      <c r="BV1" s="443"/>
+      <c r="BW1" s="443"/>
+      <c r="BX1" s="443"/>
+      <c r="BY1" s="443"/>
+      <c r="BZ1" s="443"/>
+      <c r="CA1" s="443"/>
+      <c r="CB1" s="443"/>
+      <c r="CC1" s="443"/>
+      <c r="CD1" s="443"/>
+      <c r="CE1" s="443"/>
+      <c r="CF1" s="443"/>
+      <c r="CG1" s="443"/>
+      <c r="CH1" s="443"/>
+      <c r="CI1" s="443"/>
+      <c r="CJ1" s="443"/>
+      <c r="CK1" s="444"/>
+      <c r="CL1" s="442" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="399"/>
-      <c r="CN1" s="399"/>
-      <c r="CO1" s="399"/>
-      <c r="CP1" s="399"/>
-      <c r="CQ1" s="399"/>
-      <c r="CR1" s="399"/>
-      <c r="CS1" s="399"/>
-      <c r="CT1" s="399"/>
-      <c r="CU1" s="399"/>
-      <c r="CV1" s="399"/>
-      <c r="CW1" s="399"/>
-      <c r="CX1" s="399"/>
-      <c r="CY1" s="399"/>
-      <c r="CZ1" s="399"/>
-      <c r="DA1" s="399"/>
-      <c r="DB1" s="399"/>
+      <c r="CM1" s="443"/>
+      <c r="CN1" s="443"/>
+      <c r="CO1" s="443"/>
+      <c r="CP1" s="443"/>
+      <c r="CQ1" s="443"/>
+      <c r="CR1" s="443"/>
+      <c r="CS1" s="443"/>
+      <c r="CT1" s="443"/>
+      <c r="CU1" s="443"/>
+      <c r="CV1" s="443"/>
+      <c r="CW1" s="443"/>
+      <c r="CX1" s="443"/>
+      <c r="CY1" s="443"/>
+      <c r="CZ1" s="443"/>
+      <c r="DA1" s="443"/>
+      <c r="DB1" s="443"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22500,15 +22509,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="396" t="s">
+      <c r="CW86" s="440" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="396"/>
-      <c r="CY86" s="396"/>
-      <c r="CZ86" s="396"/>
-      <c r="DA86" s="396"/>
-      <c r="DB86" s="396"/>
-      <c r="DC86" s="397"/>
+      <c r="CX86" s="440"/>
+      <c r="CY86" s="440"/>
+      <c r="CZ86" s="440"/>
+      <c r="DA86" s="440"/>
+      <c r="DB86" s="440"/>
+      <c r="DC86" s="441"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22898,118 +22907,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="410" t="s">
+      <c r="B1" s="454" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="411"/>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
-      <c r="N1" s="411"/>
-      <c r="O1" s="411"/>
-      <c r="P1" s="411"/>
-      <c r="Q1" s="412"/>
-      <c r="R1" s="401" t="s">
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="455"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="455"/>
+      <c r="K1" s="455"/>
+      <c r="L1" s="455"/>
+      <c r="M1" s="455"/>
+      <c r="N1" s="455"/>
+      <c r="O1" s="455"/>
+      <c r="P1" s="455"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="445" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="402"/>
-      <c r="T1" s="402"/>
-      <c r="U1" s="402"/>
-      <c r="V1" s="402"/>
-      <c r="W1" s="402"/>
-      <c r="X1" s="402"/>
-      <c r="Y1" s="402"/>
-      <c r="Z1" s="402"/>
-      <c r="AA1" s="402"/>
-      <c r="AB1" s="402"/>
-      <c r="AC1" s="402"/>
-      <c r="AD1" s="402"/>
-      <c r="AE1" s="402"/>
-      <c r="AF1" s="402"/>
-      <c r="AG1" s="402"/>
-      <c r="AH1" s="402"/>
-      <c r="AI1" s="402"/>
-      <c r="AJ1" s="402"/>
-      <c r="AK1" s="402"/>
-      <c r="AL1" s="403"/>
-      <c r="AM1" s="401" t="s">
+      <c r="S1" s="446"/>
+      <c r="T1" s="446"/>
+      <c r="U1" s="446"/>
+      <c r="V1" s="446"/>
+      <c r="W1" s="446"/>
+      <c r="X1" s="446"/>
+      <c r="Y1" s="446"/>
+      <c r="Z1" s="446"/>
+      <c r="AA1" s="446"/>
+      <c r="AB1" s="446"/>
+      <c r="AC1" s="446"/>
+      <c r="AD1" s="446"/>
+      <c r="AE1" s="446"/>
+      <c r="AF1" s="446"/>
+      <c r="AG1" s="446"/>
+      <c r="AH1" s="446"/>
+      <c r="AI1" s="446"/>
+      <c r="AJ1" s="446"/>
+      <c r="AK1" s="446"/>
+      <c r="AL1" s="447"/>
+      <c r="AM1" s="445" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="402"/>
-      <c r="AO1" s="402"/>
-      <c r="AP1" s="402"/>
-      <c r="AQ1" s="402"/>
-      <c r="AR1" s="402"/>
-      <c r="AS1" s="402"/>
-      <c r="AT1" s="402"/>
-      <c r="AU1" s="402"/>
-      <c r="AV1" s="402"/>
-      <c r="AW1" s="402"/>
-      <c r="AX1" s="402"/>
-      <c r="AY1" s="402"/>
-      <c r="AZ1" s="402"/>
-      <c r="BA1" s="402"/>
-      <c r="BB1" s="402"/>
-      <c r="BC1" s="402"/>
-      <c r="BD1" s="402"/>
-      <c r="BE1" s="402"/>
-      <c r="BF1" s="402"/>
-      <c r="BG1" s="402"/>
-      <c r="BH1" s="403"/>
-      <c r="BI1" s="401" t="s">
+      <c r="AN1" s="446"/>
+      <c r="AO1" s="446"/>
+      <c r="AP1" s="446"/>
+      <c r="AQ1" s="446"/>
+      <c r="AR1" s="446"/>
+      <c r="AS1" s="446"/>
+      <c r="AT1" s="446"/>
+      <c r="AU1" s="446"/>
+      <c r="AV1" s="446"/>
+      <c r="AW1" s="446"/>
+      <c r="AX1" s="446"/>
+      <c r="AY1" s="446"/>
+      <c r="AZ1" s="446"/>
+      <c r="BA1" s="446"/>
+      <c r="BB1" s="446"/>
+      <c r="BC1" s="446"/>
+      <c r="BD1" s="446"/>
+      <c r="BE1" s="446"/>
+      <c r="BF1" s="446"/>
+      <c r="BG1" s="446"/>
+      <c r="BH1" s="447"/>
+      <c r="BI1" s="445" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="402"/>
-      <c r="BK1" s="402"/>
-      <c r="BL1" s="402"/>
-      <c r="BM1" s="402"/>
-      <c r="BN1" s="402"/>
-      <c r="BO1" s="402"/>
-      <c r="BP1" s="402"/>
-      <c r="BQ1" s="402"/>
-      <c r="BR1" s="402"/>
-      <c r="BS1" s="402"/>
-      <c r="BT1" s="402"/>
-      <c r="BU1" s="402"/>
-      <c r="BV1" s="402"/>
-      <c r="BW1" s="402"/>
-      <c r="BX1" s="402"/>
-      <c r="BY1" s="402"/>
-      <c r="BZ1" s="402"/>
-      <c r="CA1" s="402"/>
-      <c r="CB1" s="402"/>
-      <c r="CC1" s="402"/>
-      <c r="CD1" s="403"/>
-      <c r="CE1" s="401" t="s">
+      <c r="BJ1" s="446"/>
+      <c r="BK1" s="446"/>
+      <c r="BL1" s="446"/>
+      <c r="BM1" s="446"/>
+      <c r="BN1" s="446"/>
+      <c r="BO1" s="446"/>
+      <c r="BP1" s="446"/>
+      <c r="BQ1" s="446"/>
+      <c r="BR1" s="446"/>
+      <c r="BS1" s="446"/>
+      <c r="BT1" s="446"/>
+      <c r="BU1" s="446"/>
+      <c r="BV1" s="446"/>
+      <c r="BW1" s="446"/>
+      <c r="BX1" s="446"/>
+      <c r="BY1" s="446"/>
+      <c r="BZ1" s="446"/>
+      <c r="CA1" s="446"/>
+      <c r="CB1" s="446"/>
+      <c r="CC1" s="446"/>
+      <c r="CD1" s="447"/>
+      <c r="CE1" s="445" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="402"/>
-      <c r="CG1" s="402"/>
-      <c r="CH1" s="402"/>
-      <c r="CI1" s="402"/>
-      <c r="CJ1" s="402"/>
-      <c r="CK1" s="402"/>
-      <c r="CL1" s="402"/>
-      <c r="CM1" s="403"/>
-      <c r="CN1" s="401" t="s">
+      <c r="CF1" s="446"/>
+      <c r="CG1" s="446"/>
+      <c r="CH1" s="446"/>
+      <c r="CI1" s="446"/>
+      <c r="CJ1" s="446"/>
+      <c r="CK1" s="446"/>
+      <c r="CL1" s="446"/>
+      <c r="CM1" s="447"/>
+      <c r="CN1" s="445" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="402"/>
-      <c r="CP1" s="402"/>
-      <c r="CQ1" s="402"/>
-      <c r="CR1" s="402"/>
-      <c r="CS1" s="402"/>
-      <c r="CT1" s="402"/>
-      <c r="CU1" s="402"/>
-      <c r="CV1" s="402"/>
-      <c r="CW1" s="403"/>
+      <c r="CO1" s="446"/>
+      <c r="CP1" s="446"/>
+      <c r="CQ1" s="446"/>
+      <c r="CR1" s="446"/>
+      <c r="CS1" s="446"/>
+      <c r="CT1" s="446"/>
+      <c r="CU1" s="446"/>
+      <c r="CV1" s="446"/>
+      <c r="CW1" s="447"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24456,11 +24465,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="404" t="s">
+      <c r="AX47" s="448" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="405"/>
-      <c r="AZ47" s="406"/>
+      <c r="AY47" s="449"/>
+      <c r="AZ47" s="450"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -24759,11 +24768,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="407" t="s">
+      <c r="BS60" s="451" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="408"/>
-      <c r="BU60" s="409"/>
+      <c r="BT60" s="452"/>
+      <c r="BU60" s="453"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -25065,8 +25074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="DA49" sqref="DA49"/>
     </sheetView>
   </sheetViews>
@@ -25127,120 +25136,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="410" t="s">
+      <c r="B1" s="454" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="411"/>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
-      <c r="N1" s="411"/>
-      <c r="O1" s="411"/>
-      <c r="P1" s="411"/>
-      <c r="Q1" s="412"/>
-      <c r="R1" s="401" t="s">
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="455"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="455"/>
+      <c r="K1" s="455"/>
+      <c r="L1" s="455"/>
+      <c r="M1" s="455"/>
+      <c r="N1" s="455"/>
+      <c r="O1" s="455"/>
+      <c r="P1" s="455"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="445" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="402"/>
-      <c r="T1" s="402"/>
-      <c r="U1" s="402"/>
-      <c r="V1" s="402"/>
-      <c r="W1" s="402"/>
-      <c r="X1" s="402"/>
-      <c r="Y1" s="402"/>
-      <c r="Z1" s="402"/>
-      <c r="AA1" s="402"/>
-      <c r="AB1" s="402"/>
-      <c r="AC1" s="402"/>
-      <c r="AD1" s="402"/>
-      <c r="AE1" s="402"/>
-      <c r="AF1" s="402"/>
-      <c r="AG1" s="402"/>
-      <c r="AH1" s="402"/>
-      <c r="AI1" s="402"/>
-      <c r="AJ1" s="402"/>
-      <c r="AK1" s="402"/>
-      <c r="AL1" s="402"/>
-      <c r="AM1" s="403"/>
-      <c r="AN1" s="401" t="s">
+      <c r="S1" s="446"/>
+      <c r="T1" s="446"/>
+      <c r="U1" s="446"/>
+      <c r="V1" s="446"/>
+      <c r="W1" s="446"/>
+      <c r="X1" s="446"/>
+      <c r="Y1" s="446"/>
+      <c r="Z1" s="446"/>
+      <c r="AA1" s="446"/>
+      <c r="AB1" s="446"/>
+      <c r="AC1" s="446"/>
+      <c r="AD1" s="446"/>
+      <c r="AE1" s="446"/>
+      <c r="AF1" s="446"/>
+      <c r="AG1" s="446"/>
+      <c r="AH1" s="446"/>
+      <c r="AI1" s="446"/>
+      <c r="AJ1" s="446"/>
+      <c r="AK1" s="446"/>
+      <c r="AL1" s="446"/>
+      <c r="AM1" s="447"/>
+      <c r="AN1" s="445" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="402"/>
-      <c r="AP1" s="402"/>
-      <c r="AQ1" s="402"/>
-      <c r="AR1" s="402"/>
-      <c r="AS1" s="402"/>
-      <c r="AT1" s="402"/>
-      <c r="AU1" s="402"/>
-      <c r="AV1" s="402"/>
-      <c r="AW1" s="402"/>
-      <c r="AX1" s="402"/>
-      <c r="AY1" s="402"/>
-      <c r="AZ1" s="402"/>
-      <c r="BA1" s="402"/>
-      <c r="BB1" s="402"/>
-      <c r="BC1" s="402"/>
-      <c r="BD1" s="402"/>
-      <c r="BE1" s="402"/>
-      <c r="BF1" s="402"/>
-      <c r="BG1" s="402"/>
-      <c r="BH1" s="402"/>
-      <c r="BI1" s="402"/>
-      <c r="BJ1" s="403"/>
-      <c r="BK1" s="401" t="s">
+      <c r="AO1" s="446"/>
+      <c r="AP1" s="446"/>
+      <c r="AQ1" s="446"/>
+      <c r="AR1" s="446"/>
+      <c r="AS1" s="446"/>
+      <c r="AT1" s="446"/>
+      <c r="AU1" s="446"/>
+      <c r="AV1" s="446"/>
+      <c r="AW1" s="446"/>
+      <c r="AX1" s="446"/>
+      <c r="AY1" s="446"/>
+      <c r="AZ1" s="446"/>
+      <c r="BA1" s="446"/>
+      <c r="BB1" s="446"/>
+      <c r="BC1" s="446"/>
+      <c r="BD1" s="446"/>
+      <c r="BE1" s="446"/>
+      <c r="BF1" s="446"/>
+      <c r="BG1" s="446"/>
+      <c r="BH1" s="446"/>
+      <c r="BI1" s="446"/>
+      <c r="BJ1" s="447"/>
+      <c r="BK1" s="445" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="402"/>
-      <c r="BM1" s="402"/>
-      <c r="BN1" s="402"/>
-      <c r="BO1" s="402"/>
-      <c r="BP1" s="402"/>
-      <c r="BQ1" s="402"/>
-      <c r="BR1" s="402"/>
-      <c r="BS1" s="402"/>
-      <c r="BT1" s="402"/>
-      <c r="BU1" s="402"/>
-      <c r="BV1" s="402"/>
-      <c r="BW1" s="402"/>
-      <c r="BX1" s="402"/>
-      <c r="BY1" s="402"/>
-      <c r="BZ1" s="402"/>
-      <c r="CA1" s="402"/>
-      <c r="CB1" s="402"/>
-      <c r="CC1" s="402"/>
-      <c r="CD1" s="402"/>
-      <c r="CE1" s="402"/>
-      <c r="CF1" s="402"/>
-      <c r="CG1" s="403"/>
-      <c r="CH1" s="401" t="s">
+      <c r="BL1" s="446"/>
+      <c r="BM1" s="446"/>
+      <c r="BN1" s="446"/>
+      <c r="BO1" s="446"/>
+      <c r="BP1" s="446"/>
+      <c r="BQ1" s="446"/>
+      <c r="BR1" s="446"/>
+      <c r="BS1" s="446"/>
+      <c r="BT1" s="446"/>
+      <c r="BU1" s="446"/>
+      <c r="BV1" s="446"/>
+      <c r="BW1" s="446"/>
+      <c r="BX1" s="446"/>
+      <c r="BY1" s="446"/>
+      <c r="BZ1" s="446"/>
+      <c r="CA1" s="446"/>
+      <c r="CB1" s="446"/>
+      <c r="CC1" s="446"/>
+      <c r="CD1" s="446"/>
+      <c r="CE1" s="446"/>
+      <c r="CF1" s="446"/>
+      <c r="CG1" s="447"/>
+      <c r="CH1" s="445" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="402"/>
-      <c r="CJ1" s="402"/>
-      <c r="CK1" s="402"/>
-      <c r="CL1" s="402"/>
-      <c r="CM1" s="402"/>
-      <c r="CN1" s="402"/>
-      <c r="CO1" s="402"/>
-      <c r="CP1" s="402"/>
-      <c r="CQ1" s="403"/>
-      <c r="CR1" s="413" t="s">
+      <c r="CI1" s="446"/>
+      <c r="CJ1" s="446"/>
+      <c r="CK1" s="446"/>
+      <c r="CL1" s="446"/>
+      <c r="CM1" s="446"/>
+      <c r="CN1" s="446"/>
+      <c r="CO1" s="446"/>
+      <c r="CP1" s="446"/>
+      <c r="CQ1" s="447"/>
+      <c r="CR1" s="457" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="414"/>
-      <c r="CT1" s="414"/>
-      <c r="CU1" s="414"/>
-      <c r="CV1" s="414"/>
-      <c r="CW1" s="414"/>
-      <c r="CX1" s="414"/>
-      <c r="CY1" s="415"/>
+      <c r="CS1" s="458"/>
+      <c r="CT1" s="458"/>
+      <c r="CU1" s="458"/>
+      <c r="CV1" s="458"/>
+      <c r="CW1" s="458"/>
+      <c r="CX1" s="458"/>
+      <c r="CY1" s="459"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27049,11 +27058,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="416" t="s">
+      <c r="AY47" s="460" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="417"/>
-      <c r="BA47" s="418"/>
+      <c r="AZ47" s="461"/>
+      <c r="BA47" s="462"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27446,11 +27455,11 @@
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="407" t="s">
+      <c r="BU60" s="451" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="408"/>
-      <c r="BW60" s="409"/>
+      <c r="BV60" s="452"/>
+      <c r="BW60" s="453"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -27925,120 +27934,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="410" t="s">
+      <c r="B1" s="454" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="411"/>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
-      <c r="N1" s="411"/>
-      <c r="O1" s="411"/>
-      <c r="P1" s="411"/>
-      <c r="Q1" s="412"/>
-      <c r="R1" s="401" t="s">
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="455"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="455"/>
+      <c r="K1" s="455"/>
+      <c r="L1" s="455"/>
+      <c r="M1" s="455"/>
+      <c r="N1" s="455"/>
+      <c r="O1" s="455"/>
+      <c r="P1" s="455"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="445" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="402"/>
-      <c r="T1" s="402"/>
-      <c r="U1" s="402"/>
-      <c r="V1" s="402"/>
-      <c r="W1" s="402"/>
-      <c r="X1" s="402"/>
-      <c r="Y1" s="402"/>
-      <c r="Z1" s="402"/>
-      <c r="AA1" s="402"/>
-      <c r="AB1" s="402"/>
-      <c r="AC1" s="402"/>
-      <c r="AD1" s="402"/>
-      <c r="AE1" s="402"/>
-      <c r="AF1" s="402"/>
-      <c r="AG1" s="402"/>
-      <c r="AH1" s="402"/>
-      <c r="AI1" s="402"/>
-      <c r="AJ1" s="402"/>
-      <c r="AK1" s="402"/>
-      <c r="AL1" s="402"/>
-      <c r="AM1" s="403"/>
-      <c r="AN1" s="401" t="s">
+      <c r="S1" s="446"/>
+      <c r="T1" s="446"/>
+      <c r="U1" s="446"/>
+      <c r="V1" s="446"/>
+      <c r="W1" s="446"/>
+      <c r="X1" s="446"/>
+      <c r="Y1" s="446"/>
+      <c r="Z1" s="446"/>
+      <c r="AA1" s="446"/>
+      <c r="AB1" s="446"/>
+      <c r="AC1" s="446"/>
+      <c r="AD1" s="446"/>
+      <c r="AE1" s="446"/>
+      <c r="AF1" s="446"/>
+      <c r="AG1" s="446"/>
+      <c r="AH1" s="446"/>
+      <c r="AI1" s="446"/>
+      <c r="AJ1" s="446"/>
+      <c r="AK1" s="446"/>
+      <c r="AL1" s="446"/>
+      <c r="AM1" s="447"/>
+      <c r="AN1" s="445" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="402"/>
-      <c r="AP1" s="402"/>
-      <c r="AQ1" s="402"/>
-      <c r="AR1" s="402"/>
-      <c r="AS1" s="402"/>
-      <c r="AT1" s="402"/>
-      <c r="AU1" s="402"/>
-      <c r="AV1" s="402"/>
-      <c r="AW1" s="402"/>
-      <c r="AX1" s="402"/>
-      <c r="AY1" s="402"/>
-      <c r="AZ1" s="402"/>
-      <c r="BA1" s="402"/>
-      <c r="BB1" s="402"/>
-      <c r="BC1" s="402"/>
-      <c r="BD1" s="402"/>
-      <c r="BE1" s="402"/>
-      <c r="BF1" s="402"/>
-      <c r="BG1" s="402"/>
-      <c r="BH1" s="402"/>
-      <c r="BI1" s="402"/>
-      <c r="BJ1" s="403"/>
-      <c r="BK1" s="401" t="s">
+      <c r="AO1" s="446"/>
+      <c r="AP1" s="446"/>
+      <c r="AQ1" s="446"/>
+      <c r="AR1" s="446"/>
+      <c r="AS1" s="446"/>
+      <c r="AT1" s="446"/>
+      <c r="AU1" s="446"/>
+      <c r="AV1" s="446"/>
+      <c r="AW1" s="446"/>
+      <c r="AX1" s="446"/>
+      <c r="AY1" s="446"/>
+      <c r="AZ1" s="446"/>
+      <c r="BA1" s="446"/>
+      <c r="BB1" s="446"/>
+      <c r="BC1" s="446"/>
+      <c r="BD1" s="446"/>
+      <c r="BE1" s="446"/>
+      <c r="BF1" s="446"/>
+      <c r="BG1" s="446"/>
+      <c r="BH1" s="446"/>
+      <c r="BI1" s="446"/>
+      <c r="BJ1" s="447"/>
+      <c r="BK1" s="445" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="402"/>
-      <c r="BM1" s="402"/>
-      <c r="BN1" s="402"/>
-      <c r="BO1" s="402"/>
-      <c r="BP1" s="402"/>
-      <c r="BQ1" s="402"/>
-      <c r="BR1" s="402"/>
-      <c r="BS1" s="402"/>
-      <c r="BT1" s="402"/>
-      <c r="BU1" s="402"/>
-      <c r="BV1" s="402"/>
-      <c r="BW1" s="402"/>
-      <c r="BX1" s="402"/>
-      <c r="BY1" s="402"/>
-      <c r="BZ1" s="402"/>
-      <c r="CA1" s="402"/>
-      <c r="CB1" s="402"/>
-      <c r="CC1" s="402"/>
-      <c r="CD1" s="402"/>
-      <c r="CE1" s="402"/>
-      <c r="CF1" s="402"/>
-      <c r="CG1" s="403"/>
-      <c r="CH1" s="401" t="s">
+      <c r="BL1" s="446"/>
+      <c r="BM1" s="446"/>
+      <c r="BN1" s="446"/>
+      <c r="BO1" s="446"/>
+      <c r="BP1" s="446"/>
+      <c r="BQ1" s="446"/>
+      <c r="BR1" s="446"/>
+      <c r="BS1" s="446"/>
+      <c r="BT1" s="446"/>
+      <c r="BU1" s="446"/>
+      <c r="BV1" s="446"/>
+      <c r="BW1" s="446"/>
+      <c r="BX1" s="446"/>
+      <c r="BY1" s="446"/>
+      <c r="BZ1" s="446"/>
+      <c r="CA1" s="446"/>
+      <c r="CB1" s="446"/>
+      <c r="CC1" s="446"/>
+      <c r="CD1" s="446"/>
+      <c r="CE1" s="446"/>
+      <c r="CF1" s="446"/>
+      <c r="CG1" s="447"/>
+      <c r="CH1" s="445" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="402"/>
-      <c r="CJ1" s="402"/>
-      <c r="CK1" s="402"/>
-      <c r="CL1" s="402"/>
-      <c r="CM1" s="402"/>
-      <c r="CN1" s="402"/>
-      <c r="CO1" s="402"/>
-      <c r="CP1" s="402"/>
-      <c r="CQ1" s="403"/>
-      <c r="CR1" s="413" t="s">
+      <c r="CI1" s="446"/>
+      <c r="CJ1" s="446"/>
+      <c r="CK1" s="446"/>
+      <c r="CL1" s="446"/>
+      <c r="CM1" s="446"/>
+      <c r="CN1" s="446"/>
+      <c r="CO1" s="446"/>
+      <c r="CP1" s="446"/>
+      <c r="CQ1" s="447"/>
+      <c r="CR1" s="457" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="414"/>
-      <c r="CT1" s="414"/>
-      <c r="CU1" s="414"/>
-      <c r="CV1" s="414"/>
-      <c r="CW1" s="414"/>
-      <c r="CX1" s="414"/>
-      <c r="CY1" s="415"/>
+      <c r="CS1" s="458"/>
+      <c r="CT1" s="458"/>
+      <c r="CU1" s="458"/>
+      <c r="CV1" s="458"/>
+      <c r="CW1" s="458"/>
+      <c r="CX1" s="458"/>
+      <c r="CY1" s="459"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30626,11 +30635,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="416" t="s">
+      <c r="AY47" s="460" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="417"/>
-      <c r="BA47" s="418"/>
+      <c r="AZ47" s="461"/>
+      <c r="BA47" s="462"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -31279,11 +31288,11 @@
       <c r="BK60" s="145"/>
       <c r="BN60" s="321"/>
       <c r="BS60" s="302"/>
-      <c r="BU60" s="407" t="s">
+      <c r="BU60" s="451" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="408"/>
-      <c r="BW60" s="409"/>
+      <c r="BV60" s="452"/>
+      <c r="BW60" s="453"/>
       <c r="BX60" s="302"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -31871,9 +31880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T18" sqref="T18:V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34339,894 +34348,1004 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="443"/>
-    <col min="2" max="2" width="5.85546875" style="443" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="471" customWidth="1"/>
-    <col min="4" max="4" width="33" style="471" customWidth="1"/>
-    <col min="5" max="16384" width="5.5703125" style="443"/>
+    <col min="1" max="1" width="5.5703125" style="414"/>
+    <col min="2" max="2" width="5.85546875" style="414" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="439" customWidth="1"/>
+    <col min="4" max="4" width="33" style="439" customWidth="1"/>
+    <col min="5" max="5" width="17" style="439" customWidth="1"/>
+    <col min="6" max="16384" width="5.5703125" style="414"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="448" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="447"/>
-      <c r="B1" s="425" t="s">
+    <row r="1" spans="1:5" s="416" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="415"/>
+      <c r="B1" s="396" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="458" t="s">
+      <c r="C1" s="426" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="458"/>
-    </row>
-    <row r="2" spans="1:4" s="449" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="444" t="s">
+      <c r="D1" s="426" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="426" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="417" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="466" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="426">
+      <c r="B2" s="397">
         <v>43670</v>
       </c>
-      <c r="C2" s="459" t="s">
+      <c r="C2" s="427" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="460"/>
-    </row>
-    <row r="3" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="445"/>
-      <c r="B3" s="427">
+      <c r="D2" s="428"/>
+      <c r="E2" s="428"/>
+    </row>
+    <row r="3" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="467"/>
+      <c r="B3" s="398">
         <v>43671</v>
       </c>
-      <c r="C3" s="461"/>
-      <c r="D3" s="461"/>
-    </row>
-    <row r="4" spans="1:4" s="451" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="445"/>
-      <c r="B4" s="428">
+      <c r="C3" s="429"/>
+      <c r="D3" s="429"/>
+      <c r="E3" s="429"/>
+    </row>
+    <row r="4" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="467"/>
+      <c r="B4" s="399">
         <v>43672</v>
       </c>
-      <c r="C4" s="462" t="s">
+      <c r="C4" s="430" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="463" t="s">
+      <c r="D4" s="431" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="452" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="445"/>
-      <c r="B5" s="429">
+      <c r="E4" s="431"/>
+    </row>
+    <row r="5" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="467"/>
+      <c r="B5" s="400">
         <v>43675</v>
       </c>
-      <c r="C5" s="464" t="s">
+      <c r="C5" s="432" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="465" t="s">
+      <c r="D5" s="433" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="445"/>
-      <c r="B6" s="429">
+      <c r="E5" s="433"/>
+    </row>
+    <row r="6" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="467"/>
+      <c r="B6" s="400">
         <v>43676</v>
       </c>
-      <c r="C6" s="465" t="s">
+      <c r="C6" s="433" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="465" t="s">
+      <c r="D6" s="433" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="452" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="445"/>
-      <c r="B7" s="429">
+      <c r="E6" s="433"/>
+    </row>
+    <row r="7" spans="1:5" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="467"/>
+      <c r="B7" s="400">
         <v>43677</v>
       </c>
-      <c r="C7" s="464" t="s">
+      <c r="C7" s="432" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="464" t="s">
+      <c r="D7" s="432" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="445"/>
-      <c r="B8" s="427">
+      <c r="E7" s="433"/>
+    </row>
+    <row r="8" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="467"/>
+      <c r="B8" s="398">
         <v>43678</v>
       </c>
-      <c r="C8" s="461"/>
-      <c r="D8" s="461"/>
-    </row>
-    <row r="9" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="445"/>
-      <c r="B9" s="429">
+      <c r="C8" s="429"/>
+      <c r="D8" s="429"/>
+      <c r="E8" s="429"/>
+    </row>
+    <row r="9" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="467"/>
+      <c r="B9" s="400">
         <v>43679</v>
       </c>
-      <c r="C9" s="465" t="s">
+      <c r="C9" s="433" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="465"/>
-    </row>
-    <row r="10" spans="1:4" s="451" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="445"/>
-      <c r="B10" s="428">
+      <c r="D9" s="433"/>
+      <c r="E9" s="433"/>
+    </row>
+    <row r="10" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="467"/>
+      <c r="B10" s="399">
         <v>43682</v>
       </c>
-      <c r="C10" s="462" t="s">
+      <c r="C10" s="430" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="462" t="s">
+      <c r="D10" s="430" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="445"/>
-      <c r="B11" s="428">
+      <c r="E10" s="431"/>
+    </row>
+    <row r="11" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="467"/>
+      <c r="B11" s="399">
         <v>43683</v>
       </c>
-      <c r="C11" s="463" t="s">
+      <c r="C11" s="431" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="431" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="463" t="s">
+      <c r="E11" s="431"/>
+    </row>
+    <row r="12" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="467"/>
+      <c r="B12" s="399">
+        <v>43684</v>
+      </c>
+      <c r="C12" s="431" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="431" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="431"/>
+    </row>
+    <row r="13" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="467"/>
+      <c r="B13" s="398">
+        <v>43685</v>
+      </c>
+      <c r="C13" s="429"/>
+      <c r="D13" s="429"/>
+      <c r="E13" s="429"/>
+    </row>
+    <row r="14" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="467"/>
+      <c r="B14" s="399">
+        <v>43686</v>
+      </c>
+      <c r="C14" s="431" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="445"/>
-      <c r="B12" s="428">
-        <v>43684</v>
-      </c>
-      <c r="C12" s="463" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="463" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="445"/>
-      <c r="B13" s="427">
-        <v>43685</v>
-      </c>
-      <c r="C13" s="461"/>
-      <c r="D13" s="461"/>
-    </row>
-    <row r="14" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="445"/>
-      <c r="B14" s="428">
-        <v>43686</v>
-      </c>
-      <c r="C14" s="463" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="463"/>
-    </row>
-    <row r="15" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="445"/>
-      <c r="B15" s="429">
+      <c r="D14" s="431"/>
+      <c r="E14" s="431"/>
+    </row>
+    <row r="15" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="467"/>
+      <c r="B15" s="400">
         <v>43689</v>
       </c>
-      <c r="C15" s="465" t="s">
+      <c r="C15" s="433" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="465"/>
-    </row>
-    <row r="16" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="445"/>
-      <c r="B16" s="429">
+      <c r="D15" s="433"/>
+      <c r="E15" s="433" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="467"/>
+      <c r="B16" s="400">
         <v>43690</v>
       </c>
-      <c r="C16" s="465" t="s">
+      <c r="C16" s="433" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="465"/>
-    </row>
-    <row r="17" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="445"/>
-      <c r="B17" s="429">
+      <c r="D16" s="433"/>
+      <c r="E16" s="433"/>
+    </row>
+    <row r="17" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="467"/>
+      <c r="B17" s="400">
         <v>43691</v>
       </c>
-      <c r="C17" s="465" t="s">
+      <c r="C17" s="433" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="465"/>
-    </row>
-    <row r="18" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="445"/>
-      <c r="B18" s="427">
+      <c r="D17" s="433"/>
+      <c r="E17" s="433"/>
+    </row>
+    <row r="18" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="467"/>
+      <c r="B18" s="398">
         <v>43692</v>
       </c>
-      <c r="C18" s="461"/>
-      <c r="D18" s="461"/>
-    </row>
-    <row r="19" spans="1:4" s="453" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="446"/>
-      <c r="B19" s="430">
+      <c r="C18" s="429"/>
+      <c r="D18" s="429"/>
+      <c r="E18" s="429"/>
+    </row>
+    <row r="19" spans="1:5" s="421" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="468"/>
+      <c r="B19" s="401">
         <v>43693</v>
       </c>
-      <c r="C19" s="465" t="s">
+      <c r="C19" s="433" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="466"/>
-    </row>
-    <row r="20" spans="1:4" s="449" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="419" t="s">
+      <c r="D19" s="434"/>
+      <c r="E19" s="434"/>
+    </row>
+    <row r="20" spans="1:5" s="417" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="463" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="431">
+      <c r="B20" s="402">
         <v>43696</v>
       </c>
-      <c r="C20" s="460"/>
-      <c r="D20" s="460"/>
-    </row>
-    <row r="21" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="420"/>
-      <c r="B21" s="432">
+      <c r="C20" s="427"/>
+      <c r="D20" s="428"/>
+      <c r="E20" s="428"/>
+    </row>
+    <row r="21" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="464"/>
+      <c r="B21" s="403">
         <v>43697</v>
       </c>
-      <c r="C21" s="463"/>
-      <c r="D21" s="463"/>
-    </row>
-    <row r="22" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="420"/>
-      <c r="B22" s="432">
+      <c r="C21" s="431"/>
+      <c r="D21" s="431"/>
+      <c r="E21" s="431"/>
+    </row>
+    <row r="22" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="464"/>
+      <c r="B22" s="403">
         <v>43698</v>
       </c>
-      <c r="C22" s="463"/>
-      <c r="D22" s="463"/>
-    </row>
-    <row r="23" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="420"/>
-      <c r="B23" s="433">
+      <c r="C22" s="431"/>
+      <c r="D22" s="431"/>
+      <c r="E22" s="431"/>
+    </row>
+    <row r="23" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="464"/>
+      <c r="B23" s="404">
         <v>43699</v>
       </c>
-      <c r="C23" s="461"/>
-      <c r="D23" s="461"/>
-    </row>
-    <row r="24" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="420"/>
-      <c r="B24" s="432">
+      <c r="C23" s="429"/>
+      <c r="D23" s="429"/>
+      <c r="E23" s="429"/>
+    </row>
+    <row r="24" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="464"/>
+      <c r="B24" s="403">
         <v>43700</v>
       </c>
-      <c r="C24" s="463"/>
-      <c r="D24" s="463"/>
-    </row>
-    <row r="25" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="420"/>
-      <c r="B25" s="434">
+      <c r="C24" s="431"/>
+      <c r="D24" s="431"/>
+      <c r="E24" s="431"/>
+    </row>
+    <row r="25" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="464"/>
+      <c r="B25" s="405">
         <v>43703</v>
       </c>
-      <c r="C25" s="465"/>
-      <c r="D25" s="465"/>
-    </row>
-    <row r="26" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="420"/>
-      <c r="B26" s="434">
+      <c r="C25" s="433"/>
+      <c r="D25" s="433"/>
+      <c r="E25" s="433"/>
+    </row>
+    <row r="26" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="464"/>
+      <c r="B26" s="405">
         <v>43704</v>
       </c>
-      <c r="C26" s="465"/>
-      <c r="D26" s="465"/>
-    </row>
-    <row r="27" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="420"/>
-      <c r="B27" s="434">
+      <c r="C26" s="433"/>
+      <c r="D26" s="433"/>
+      <c r="E26" s="433"/>
+    </row>
+    <row r="27" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="464"/>
+      <c r="B27" s="405">
         <v>43705</v>
       </c>
-      <c r="C27" s="465"/>
-      <c r="D27" s="465"/>
-    </row>
-    <row r="28" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="420"/>
-      <c r="B28" s="433">
+      <c r="C27" s="433"/>
+      <c r="D27" s="433"/>
+      <c r="E27" s="433"/>
+    </row>
+    <row r="28" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="464"/>
+      <c r="B28" s="404">
         <v>43706</v>
       </c>
-      <c r="C28" s="461"/>
-      <c r="D28" s="461"/>
-    </row>
-    <row r="29" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="420"/>
-      <c r="B29" s="434">
+      <c r="C28" s="429"/>
+      <c r="D28" s="429"/>
+      <c r="E28" s="429"/>
+    </row>
+    <row r="29" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="464"/>
+      <c r="B29" s="405">
         <v>43707</v>
       </c>
-      <c r="C29" s="465"/>
-      <c r="D29" s="465"/>
-    </row>
-    <row r="30" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="420"/>
-      <c r="B30" s="432">
+      <c r="C29" s="433"/>
+      <c r="D29" s="433"/>
+      <c r="E29" s="433"/>
+    </row>
+    <row r="30" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="464"/>
+      <c r="B30" s="403">
         <v>43710</v>
       </c>
-      <c r="C30" s="463"/>
-      <c r="D30" s="463"/>
-    </row>
-    <row r="31" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="420"/>
-      <c r="B31" s="432">
+      <c r="C30" s="431"/>
+      <c r="D30" s="431"/>
+      <c r="E30" s="431"/>
+    </row>
+    <row r="31" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="464"/>
+      <c r="B31" s="403">
         <v>43711</v>
       </c>
-      <c r="C31" s="463"/>
-      <c r="D31" s="463"/>
-    </row>
-    <row r="32" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="420"/>
-      <c r="B32" s="432">
+      <c r="C31" s="431"/>
+      <c r="D31" s="431"/>
+      <c r="E31" s="431"/>
+    </row>
+    <row r="32" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="464"/>
+      <c r="B32" s="403">
         <v>43712</v>
       </c>
-      <c r="C32" s="463"/>
-      <c r="D32" s="463"/>
-    </row>
-    <row r="33" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="420"/>
-      <c r="B33" s="433">
+      <c r="C32" s="431"/>
+      <c r="D32" s="431"/>
+      <c r="E32" s="431"/>
+    </row>
+    <row r="33" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="464"/>
+      <c r="B33" s="404">
         <v>43713</v>
       </c>
-      <c r="C33" s="461"/>
-      <c r="D33" s="461"/>
-    </row>
-    <row r="34" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="420"/>
-      <c r="B34" s="432">
+      <c r="C33" s="429"/>
+      <c r="D33" s="429"/>
+      <c r="E33" s="429"/>
+    </row>
+    <row r="34" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="464"/>
+      <c r="B34" s="403">
         <v>43714</v>
       </c>
-      <c r="C34" s="463"/>
-      <c r="D34" s="463"/>
-    </row>
-    <row r="35" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="420"/>
-      <c r="B35" s="434">
+      <c r="C34" s="431"/>
+      <c r="D34" s="431"/>
+      <c r="E34" s="431"/>
+    </row>
+    <row r="35" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="464"/>
+      <c r="B35" s="405">
         <v>43717</v>
       </c>
-      <c r="C35" s="465"/>
-      <c r="D35" s="465"/>
-    </row>
-    <row r="36" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="420"/>
-      <c r="B36" s="434">
+      <c r="C35" s="433"/>
+      <c r="D35" s="433"/>
+      <c r="E35" s="433"/>
+    </row>
+    <row r="36" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="464"/>
+      <c r="B36" s="405">
         <v>43718</v>
       </c>
-      <c r="C36" s="465"/>
-      <c r="D36" s="465"/>
-    </row>
-    <row r="37" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="420"/>
-      <c r="B37" s="434">
+      <c r="C36" s="433"/>
+      <c r="D36" s="433"/>
+      <c r="E36" s="433"/>
+    </row>
+    <row r="37" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="464"/>
+      <c r="B37" s="405">
         <v>43719</v>
       </c>
-      <c r="C37" s="465"/>
-      <c r="D37" s="465"/>
-    </row>
-    <row r="38" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="420"/>
-      <c r="B38" s="433">
+      <c r="C37" s="433"/>
+      <c r="D37" s="433"/>
+      <c r="E37" s="433"/>
+    </row>
+    <row r="38" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="464"/>
+      <c r="B38" s="404">
         <v>43720</v>
       </c>
-      <c r="C38" s="461"/>
-      <c r="D38" s="461"/>
-    </row>
-    <row r="39" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="420"/>
-      <c r="B39" s="434">
+      <c r="C38" s="429"/>
+      <c r="D38" s="429"/>
+      <c r="E38" s="429"/>
+    </row>
+    <row r="39" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="464"/>
+      <c r="B39" s="405">
         <v>43721</v>
       </c>
-      <c r="C39" s="465"/>
-      <c r="D39" s="465"/>
-    </row>
-    <row r="40" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="420"/>
-      <c r="B40" s="432">
+      <c r="C39" s="433"/>
+      <c r="D39" s="433"/>
+      <c r="E39" s="433"/>
+    </row>
+    <row r="40" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="464"/>
+      <c r="B40" s="403">
         <v>43724</v>
       </c>
-      <c r="C40" s="463"/>
-      <c r="D40" s="463"/>
-    </row>
-    <row r="41" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="420"/>
-      <c r="B41" s="432">
+      <c r="C40" s="431"/>
+      <c r="D40" s="431"/>
+      <c r="E40" s="431"/>
+    </row>
+    <row r="41" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="464"/>
+      <c r="B41" s="403">
         <v>43725</v>
       </c>
-      <c r="C41" s="463"/>
-      <c r="D41" s="463"/>
-    </row>
-    <row r="42" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="420"/>
-      <c r="B42" s="432">
+      <c r="C41" s="431"/>
+      <c r="D41" s="431"/>
+      <c r="E41" s="431"/>
+    </row>
+    <row r="42" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="464"/>
+      <c r="B42" s="403">
         <v>43726</v>
       </c>
-      <c r="C42" s="463"/>
-      <c r="D42" s="463"/>
-    </row>
-    <row r="43" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="420"/>
-      <c r="B43" s="433">
+      <c r="C42" s="431"/>
+      <c r="D42" s="431"/>
+      <c r="E42" s="431"/>
+    </row>
+    <row r="43" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="464"/>
+      <c r="B43" s="404">
         <v>43727</v>
       </c>
-      <c r="C43" s="461"/>
-      <c r="D43" s="461"/>
-    </row>
-    <row r="44" spans="1:4" s="454" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="421"/>
-      <c r="B44" s="435">
+      <c r="C43" s="429"/>
+      <c r="D43" s="429"/>
+      <c r="E43" s="429"/>
+    </row>
+    <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="465"/>
+      <c r="B44" s="406">
         <v>43728</v>
       </c>
-      <c r="C44" s="467"/>
-      <c r="D44" s="467"/>
-    </row>
-    <row r="45" spans="1:4" s="455" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="422" t="s">
+      <c r="C44" s="435"/>
+      <c r="D44" s="435"/>
+      <c r="E44" s="435"/>
+    </row>
+    <row r="45" spans="1:5" s="423" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="469" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="436">
+      <c r="B45" s="407">
         <v>43731</v>
       </c>
-      <c r="C45" s="468"/>
-      <c r="D45" s="468"/>
-    </row>
-    <row r="46" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="423"/>
-      <c r="B46" s="437">
+      <c r="C45" s="436"/>
+      <c r="D45" s="436"/>
+      <c r="E45" s="436"/>
+    </row>
+    <row r="46" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="470"/>
+      <c r="B46" s="408">
         <v>43732</v>
       </c>
-      <c r="C46" s="465"/>
-      <c r="D46" s="465"/>
-    </row>
-    <row r="47" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="423"/>
-      <c r="B47" s="437">
+      <c r="C46" s="433"/>
+      <c r="D46" s="433"/>
+      <c r="E46" s="433"/>
+    </row>
+    <row r="47" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="470"/>
+      <c r="B47" s="408">
         <v>43733</v>
       </c>
-      <c r="C47" s="465"/>
-      <c r="D47" s="465"/>
-    </row>
-    <row r="48" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="423"/>
-      <c r="B48" s="438">
+      <c r="C47" s="433"/>
+      <c r="D47" s="433"/>
+      <c r="E47" s="433"/>
+    </row>
+    <row r="48" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="470"/>
+      <c r="B48" s="409">
         <v>43734</v>
       </c>
-      <c r="C48" s="461"/>
-      <c r="D48" s="461"/>
-    </row>
-    <row r="49" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="423"/>
-      <c r="B49" s="437">
+      <c r="C48" s="429"/>
+      <c r="D48" s="429"/>
+      <c r="E48" s="429"/>
+    </row>
+    <row r="49" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="470"/>
+      <c r="B49" s="408">
         <v>43735</v>
       </c>
-      <c r="C49" s="465"/>
-      <c r="D49" s="465"/>
-    </row>
-    <row r="50" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="423"/>
-      <c r="B50" s="439">
+      <c r="C49" s="433"/>
+      <c r="D49" s="433"/>
+      <c r="E49" s="433"/>
+    </row>
+    <row r="50" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="470"/>
+      <c r="B50" s="410">
         <v>43738</v>
       </c>
-      <c r="C50" s="463"/>
-      <c r="D50" s="463"/>
-    </row>
-    <row r="51" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="423"/>
-      <c r="B51" s="439">
+      <c r="C50" s="431"/>
+      <c r="D50" s="431"/>
+      <c r="E50" s="431"/>
+    </row>
+    <row r="51" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="470"/>
+      <c r="B51" s="410">
         <v>43739</v>
       </c>
-      <c r="C51" s="463"/>
-      <c r="D51" s="463"/>
-    </row>
-    <row r="52" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="423"/>
-      <c r="B52" s="439">
+      <c r="C51" s="431"/>
+      <c r="D51" s="431"/>
+      <c r="E51" s="431"/>
+    </row>
+    <row r="52" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="470"/>
+      <c r="B52" s="410">
         <v>43740</v>
       </c>
-      <c r="C52" s="463"/>
-      <c r="D52" s="463"/>
-    </row>
-    <row r="53" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="423"/>
-      <c r="B53" s="438">
+      <c r="C52" s="431"/>
+      <c r="D52" s="431"/>
+      <c r="E52" s="431"/>
+    </row>
+    <row r="53" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="470"/>
+      <c r="B53" s="409">
         <v>43741</v>
       </c>
-      <c r="C53" s="461"/>
-      <c r="D53" s="461"/>
-    </row>
-    <row r="54" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="423"/>
-      <c r="B54" s="439">
+      <c r="C53" s="429"/>
+      <c r="D53" s="429"/>
+      <c r="E53" s="429"/>
+    </row>
+    <row r="54" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="470"/>
+      <c r="B54" s="410">
         <v>43742</v>
       </c>
-      <c r="C54" s="463"/>
-      <c r="D54" s="463"/>
-    </row>
-    <row r="55" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="423"/>
-      <c r="B55" s="437">
+      <c r="C54" s="431"/>
+      <c r="D54" s="431"/>
+      <c r="E54" s="431"/>
+    </row>
+    <row r="55" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="470"/>
+      <c r="B55" s="408">
         <v>43745</v>
       </c>
-      <c r="C55" s="465"/>
-      <c r="D55" s="465"/>
-    </row>
-    <row r="56" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="423"/>
-      <c r="B56" s="437">
+      <c r="C55" s="433"/>
+      <c r="D55" s="433"/>
+      <c r="E55" s="433"/>
+    </row>
+    <row r="56" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="470"/>
+      <c r="B56" s="408">
         <v>43746</v>
       </c>
-      <c r="C56" s="465"/>
-      <c r="D56" s="465"/>
-    </row>
-    <row r="57" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="423"/>
-      <c r="B57" s="437">
+      <c r="C56" s="433"/>
+      <c r="D56" s="433"/>
+      <c r="E56" s="433"/>
+    </row>
+    <row r="57" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="470"/>
+      <c r="B57" s="408">
         <v>43747</v>
       </c>
-      <c r="C57" s="465"/>
-      <c r="D57" s="465"/>
-    </row>
-    <row r="58" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="423"/>
-      <c r="B58" s="438">
+      <c r="C57" s="433"/>
+      <c r="D57" s="433"/>
+      <c r="E57" s="433"/>
+    </row>
+    <row r="58" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="470"/>
+      <c r="B58" s="409">
         <v>43748</v>
       </c>
-      <c r="C58" s="461"/>
-      <c r="D58" s="461"/>
-    </row>
-    <row r="59" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="423"/>
-      <c r="B59" s="437">
+      <c r="C58" s="429"/>
+      <c r="D58" s="429"/>
+      <c r="E58" s="429"/>
+    </row>
+    <row r="59" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="470"/>
+      <c r="B59" s="408">
         <v>43749</v>
       </c>
-      <c r="C59" s="465"/>
-      <c r="D59" s="465"/>
-    </row>
-    <row r="60" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="423"/>
-      <c r="B60" s="439">
+      <c r="C59" s="433"/>
+      <c r="D59" s="433"/>
+      <c r="E59" s="433"/>
+    </row>
+    <row r="60" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="470"/>
+      <c r="B60" s="410">
         <v>43754</v>
       </c>
-      <c r="C60" s="463"/>
-      <c r="D60" s="463"/>
-    </row>
-    <row r="61" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="423"/>
-      <c r="B61" s="438">
+      <c r="C60" s="431"/>
+      <c r="D60" s="431"/>
+      <c r="E60" s="431"/>
+    </row>
+    <row r="61" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="470"/>
+      <c r="B61" s="409">
         <v>43755</v>
       </c>
-      <c r="C61" s="461"/>
-      <c r="D61" s="461"/>
-    </row>
-    <row r="62" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="423"/>
-      <c r="B62" s="439">
+      <c r="C61" s="429"/>
+      <c r="D61" s="429"/>
+      <c r="E61" s="429"/>
+    </row>
+    <row r="62" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="470"/>
+      <c r="B62" s="410">
         <v>43756</v>
       </c>
-      <c r="C62" s="463"/>
-      <c r="D62" s="463"/>
-    </row>
-    <row r="63" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="423"/>
-      <c r="B63" s="437">
+      <c r="C62" s="431"/>
+      <c r="D62" s="431"/>
+      <c r="E62" s="431"/>
+    </row>
+    <row r="63" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="470"/>
+      <c r="B63" s="408">
         <v>43759</v>
       </c>
-      <c r="C63" s="465"/>
-      <c r="D63" s="465"/>
-    </row>
-    <row r="64" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="423"/>
-      <c r="B64" s="437">
+      <c r="C63" s="433"/>
+      <c r="D63" s="433"/>
+      <c r="E63" s="433"/>
+    </row>
+    <row r="64" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="470"/>
+      <c r="B64" s="408">
         <v>43760</v>
       </c>
-      <c r="C64" s="465"/>
-      <c r="D64" s="465"/>
-    </row>
-    <row r="65" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="423"/>
-      <c r="B65" s="437">
+      <c r="C64" s="433"/>
+      <c r="D64" s="433"/>
+      <c r="E64" s="433"/>
+    </row>
+    <row r="65" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="470"/>
+      <c r="B65" s="408">
         <v>43761</v>
       </c>
-      <c r="C65" s="465"/>
-      <c r="D65" s="465"/>
-    </row>
-    <row r="66" spans="1:4" s="456" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="424"/>
-      <c r="B66" s="440">
+      <c r="C65" s="433"/>
+      <c r="D65" s="433"/>
+      <c r="E65" s="433"/>
+    </row>
+    <row r="66" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="471"/>
+      <c r="B66" s="411">
         <v>43762</v>
       </c>
-      <c r="C66" s="469"/>
-      <c r="D66" s="469"/>
-    </row>
-    <row r="67" spans="1:4" s="455" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="422" t="s">
+      <c r="C66" s="437"/>
+      <c r="D66" s="437"/>
+      <c r="E66" s="437"/>
+    </row>
+    <row r="67" spans="1:5" s="423" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="469" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="436">
+      <c r="B67" s="407">
         <v>43763</v>
       </c>
-      <c r="C67" s="468"/>
-      <c r="D67" s="468"/>
-    </row>
-    <row r="68" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="423"/>
-      <c r="B68" s="439">
+      <c r="C67" s="436"/>
+      <c r="D67" s="436"/>
+      <c r="E67" s="436"/>
+    </row>
+    <row r="68" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="470"/>
+      <c r="B68" s="410">
         <v>43766</v>
       </c>
-      <c r="C68" s="463"/>
-      <c r="D68" s="463"/>
-    </row>
-    <row r="69" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="423"/>
-      <c r="B69" s="439">
+      <c r="C68" s="431"/>
+      <c r="D68" s="431"/>
+      <c r="E68" s="431"/>
+    </row>
+    <row r="69" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="470"/>
+      <c r="B69" s="410">
         <v>43767</v>
       </c>
-      <c r="C69" s="463"/>
-      <c r="D69" s="463"/>
-    </row>
-    <row r="70" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="423"/>
-      <c r="B70" s="439">
+      <c r="C69" s="431"/>
+      <c r="D69" s="431"/>
+      <c r="E69" s="431"/>
+    </row>
+    <row r="70" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="470"/>
+      <c r="B70" s="410">
         <v>43768</v>
       </c>
-      <c r="C70" s="463"/>
-      <c r="D70" s="463"/>
-    </row>
-    <row r="71" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="423"/>
-      <c r="B71" s="438">
+      <c r="C70" s="431"/>
+      <c r="D70" s="431"/>
+      <c r="E70" s="431"/>
+    </row>
+    <row r="71" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="470"/>
+      <c r="B71" s="409">
         <v>43769</v>
       </c>
-      <c r="C71" s="461"/>
-      <c r="D71" s="461"/>
-    </row>
-    <row r="72" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="423"/>
-      <c r="B72" s="439">
+      <c r="C71" s="429"/>
+      <c r="D71" s="429"/>
+      <c r="E71" s="429"/>
+    </row>
+    <row r="72" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="470"/>
+      <c r="B72" s="410">
         <v>43770</v>
       </c>
-      <c r="C72" s="463"/>
-      <c r="D72" s="463"/>
-    </row>
-    <row r="73" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="423"/>
-      <c r="B73" s="437">
+      <c r="C72" s="431"/>
+      <c r="D72" s="431"/>
+      <c r="E72" s="431"/>
+    </row>
+    <row r="73" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="470"/>
+      <c r="B73" s="408">
         <v>43773</v>
       </c>
-      <c r="C73" s="465"/>
-      <c r="D73" s="465"/>
-    </row>
-    <row r="74" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="423"/>
-      <c r="B74" s="437">
+      <c r="C73" s="433"/>
+      <c r="D73" s="433"/>
+      <c r="E73" s="433"/>
+    </row>
+    <row r="74" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="470"/>
+      <c r="B74" s="408">
         <v>43774</v>
       </c>
-      <c r="C74" s="465"/>
-      <c r="D74" s="465"/>
-    </row>
-    <row r="75" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="423"/>
-      <c r="B75" s="437">
+      <c r="C74" s="433"/>
+      <c r="D74" s="433"/>
+      <c r="E74" s="433"/>
+    </row>
+    <row r="75" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="470"/>
+      <c r="B75" s="408">
         <v>43775</v>
       </c>
-      <c r="C75" s="465"/>
-      <c r="D75" s="465"/>
-    </row>
-    <row r="76" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="423"/>
-      <c r="B76" s="438">
+      <c r="C75" s="433"/>
+      <c r="D75" s="433"/>
+      <c r="E75" s="433"/>
+    </row>
+    <row r="76" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="470"/>
+      <c r="B76" s="409">
         <v>43776</v>
       </c>
-      <c r="C76" s="461"/>
-      <c r="D76" s="461"/>
-    </row>
-    <row r="77" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="423"/>
-      <c r="B77" s="437">
+      <c r="C76" s="429"/>
+      <c r="D76" s="429"/>
+      <c r="E76" s="429"/>
+    </row>
+    <row r="77" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="470"/>
+      <c r="B77" s="408">
         <v>43777</v>
       </c>
-      <c r="C77" s="465"/>
-      <c r="D77" s="465"/>
-    </row>
-    <row r="78" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="423"/>
-      <c r="B78" s="439">
+      <c r="C77" s="433"/>
+      <c r="D77" s="433"/>
+      <c r="E77" s="433"/>
+    </row>
+    <row r="78" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="470"/>
+      <c r="B78" s="410">
         <v>43780</v>
       </c>
-      <c r="C78" s="463"/>
-      <c r="D78" s="463"/>
-    </row>
-    <row r="79" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="423"/>
-      <c r="B79" s="439">
+      <c r="C78" s="431"/>
+      <c r="D78" s="431"/>
+      <c r="E78" s="431"/>
+    </row>
+    <row r="79" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="470"/>
+      <c r="B79" s="410">
         <v>43781</v>
       </c>
-      <c r="C79" s="463"/>
-      <c r="D79" s="463"/>
-    </row>
-    <row r="80" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="423"/>
-      <c r="B80" s="439">
+      <c r="C79" s="431"/>
+      <c r="D79" s="431"/>
+      <c r="E79" s="431"/>
+    </row>
+    <row r="80" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="470"/>
+      <c r="B80" s="410">
         <v>43782</v>
       </c>
-      <c r="C80" s="463"/>
-      <c r="D80" s="463"/>
-    </row>
-    <row r="81" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="423"/>
-      <c r="B81" s="438">
+      <c r="C80" s="431"/>
+      <c r="D80" s="431"/>
+      <c r="E80" s="431"/>
+    </row>
+    <row r="81" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="470"/>
+      <c r="B81" s="409">
         <v>43783</v>
       </c>
-      <c r="C81" s="461"/>
-      <c r="D81" s="461"/>
-    </row>
-    <row r="82" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="423"/>
-      <c r="B82" s="437">
+      <c r="C81" s="429"/>
+      <c r="D81" s="429"/>
+      <c r="E81" s="429"/>
+    </row>
+    <row r="82" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="470"/>
+      <c r="B82" s="408">
         <v>43787</v>
       </c>
-      <c r="C82" s="465"/>
-      <c r="D82" s="465"/>
-    </row>
-    <row r="83" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="423"/>
-      <c r="B83" s="437">
+      <c r="C82" s="433"/>
+      <c r="D82" s="433"/>
+      <c r="E82" s="433"/>
+    </row>
+    <row r="83" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="470"/>
+      <c r="B83" s="408">
         <v>43788</v>
       </c>
-      <c r="C83" s="465"/>
-      <c r="D83" s="465"/>
-    </row>
-    <row r="84" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="423"/>
-      <c r="B84" s="438">
+      <c r="C83" s="433"/>
+      <c r="D83" s="433"/>
+      <c r="E83" s="433"/>
+    </row>
+    <row r="84" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="470"/>
+      <c r="B84" s="409">
         <v>43790</v>
       </c>
-      <c r="C84" s="461"/>
-      <c r="D84" s="461"/>
-    </row>
-    <row r="85" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="423"/>
-      <c r="B85" s="437">
+      <c r="C84" s="429"/>
+      <c r="D84" s="429"/>
+      <c r="E84" s="429"/>
+    </row>
+    <row r="85" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="470"/>
+      <c r="B85" s="408">
         <v>43791</v>
       </c>
-      <c r="C85" s="465"/>
-      <c r="D85" s="465"/>
-    </row>
-    <row r="86" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="423"/>
-      <c r="B86" s="439">
+      <c r="C85" s="433"/>
+      <c r="D85" s="433"/>
+      <c r="E85" s="433"/>
+    </row>
+    <row r="86" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="470"/>
+      <c r="B86" s="410">
         <v>43794</v>
       </c>
-      <c r="C86" s="463"/>
-      <c r="D86" s="463"/>
-    </row>
-    <row r="87" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="423"/>
-      <c r="B87" s="439">
+      <c r="C86" s="431"/>
+      <c r="D86" s="431"/>
+      <c r="E86" s="431"/>
+    </row>
+    <row r="87" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="470"/>
+      <c r="B87" s="410">
         <v>43795</v>
       </c>
-      <c r="C87" s="463"/>
-      <c r="D87" s="463"/>
-    </row>
-    <row r="88" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="423"/>
-      <c r="B88" s="439">
+      <c r="C87" s="431"/>
+      <c r="D87" s="431"/>
+      <c r="E87" s="431"/>
+    </row>
+    <row r="88" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="470"/>
+      <c r="B88" s="410">
         <v>43796</v>
       </c>
-      <c r="C88" s="463"/>
-      <c r="D88" s="463"/>
-    </row>
-    <row r="89" spans="1:4" s="456" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="424"/>
-      <c r="B89" s="440">
+      <c r="C88" s="431"/>
+      <c r="D88" s="431"/>
+      <c r="E88" s="431"/>
+    </row>
+    <row r="89" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="471"/>
+      <c r="B89" s="411">
         <v>43797</v>
       </c>
-      <c r="C89" s="469"/>
-      <c r="D89" s="469"/>
-    </row>
-    <row r="90" spans="1:4" s="449" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="419" t="s">
+      <c r="C89" s="437"/>
+      <c r="D89" s="437"/>
+      <c r="E89" s="437"/>
+    </row>
+    <row r="90" spans="1:5" s="417" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="463" t="s">
         <v>146</v>
       </c>
-      <c r="B90" s="441">
+      <c r="B90" s="412">
         <v>43798</v>
       </c>
-      <c r="C90" s="460"/>
-      <c r="D90" s="460"/>
-    </row>
-    <row r="91" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="420"/>
-      <c r="B91" s="437">
+      <c r="C90" s="428"/>
+      <c r="D90" s="428"/>
+      <c r="E90" s="428"/>
+    </row>
+    <row r="91" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="464"/>
+      <c r="B91" s="408">
         <v>43801</v>
       </c>
-      <c r="C91" s="465"/>
-      <c r="D91" s="465"/>
-    </row>
-    <row r="92" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="420"/>
-      <c r="B92" s="437">
+      <c r="C91" s="433"/>
+      <c r="D91" s="433"/>
+      <c r="E91" s="433"/>
+    </row>
+    <row r="92" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="464"/>
+      <c r="B92" s="408">
         <v>43802</v>
       </c>
-      <c r="C92" s="465"/>
-      <c r="D92" s="465"/>
-    </row>
-    <row r="93" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="420"/>
-      <c r="B93" s="437">
+      <c r="C92" s="433"/>
+      <c r="D92" s="433"/>
+      <c r="E92" s="433"/>
+    </row>
+    <row r="93" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="464"/>
+      <c r="B93" s="408">
         <v>43803</v>
       </c>
-      <c r="C93" s="465"/>
-      <c r="D93" s="465"/>
-    </row>
-    <row r="94" spans="1:4" s="450" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="420"/>
-      <c r="B94" s="438">
+      <c r="C93" s="433"/>
+      <c r="D93" s="433"/>
+      <c r="E93" s="433"/>
+    </row>
+    <row r="94" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="464"/>
+      <c r="B94" s="409">
         <v>43804</v>
       </c>
-      <c r="C94" s="461"/>
-      <c r="D94" s="461"/>
-    </row>
-    <row r="95" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="420"/>
-      <c r="B95" s="437">
+      <c r="C94" s="429"/>
+      <c r="D94" s="429"/>
+      <c r="E94" s="429"/>
+    </row>
+    <row r="95" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="464"/>
+      <c r="B95" s="408">
         <v>43805</v>
       </c>
-      <c r="C95" s="465"/>
-      <c r="D95" s="465"/>
-    </row>
-    <row r="96" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="420"/>
-      <c r="B96" s="439">
+      <c r="C95" s="433"/>
+      <c r="D95" s="433"/>
+      <c r="E95" s="433"/>
+    </row>
+    <row r="96" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="464"/>
+      <c r="B96" s="410">
         <v>43808</v>
       </c>
-      <c r="C96" s="463"/>
-      <c r="D96" s="463"/>
-    </row>
-    <row r="97" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="420"/>
-      <c r="B97" s="439">
+      <c r="C96" s="431"/>
+      <c r="D96" s="431"/>
+      <c r="E96" s="431"/>
+    </row>
+    <row r="97" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="464"/>
+      <c r="B97" s="410">
         <v>43809</v>
       </c>
-      <c r="C97" s="463"/>
-      <c r="D97" s="463"/>
-    </row>
-    <row r="98" spans="1:4" s="451" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="420"/>
-      <c r="B98" s="439">
+      <c r="C97" s="431"/>
+      <c r="D97" s="431"/>
+      <c r="E97" s="431"/>
+    </row>
+    <row r="98" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="464"/>
+      <c r="B98" s="410">
         <v>43810</v>
       </c>
-      <c r="C98" s="463"/>
-      <c r="D98" s="463"/>
-    </row>
-    <row r="99" spans="1:4" s="456" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="421"/>
-      <c r="B99" s="440">
+      <c r="C98" s="431"/>
+      <c r="D98" s="431"/>
+      <c r="E98" s="431"/>
+    </row>
+    <row r="99" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="465"/>
+      <c r="B99" s="411">
         <v>43811</v>
       </c>
-      <c r="C99" s="469"/>
-      <c r="D99" s="469"/>
-    </row>
-    <row r="100" spans="1:4" s="457" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="442">
+      <c r="C99" s="437"/>
+      <c r="D99" s="437"/>
+      <c r="E99" s="437"/>
+    </row>
+    <row r="100" spans="1:5" s="425" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="413">
         <v>43812</v>
       </c>
-      <c r="C100" s="470"/>
-      <c r="D100" s="470"/>
-    </row>
-    <row r="101" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="434">
+      <c r="C100" s="438"/>
+      <c r="D100" s="438"/>
+      <c r="E100" s="438"/>
+    </row>
+    <row r="101" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="405">
         <v>43815</v>
       </c>
-      <c r="C101" s="465"/>
-      <c r="D101" s="465"/>
-    </row>
-    <row r="102" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="434">
+      <c r="C101" s="433"/>
+      <c r="D101" s="433"/>
+      <c r="E101" s="433"/>
+    </row>
+    <row r="102" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="405">
         <v>43816</v>
       </c>
-      <c r="C102" s="465"/>
-      <c r="D102" s="465"/>
-    </row>
-    <row r="103" spans="1:4" s="452" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="434">
+      <c r="C102" s="433"/>
+      <c r="D102" s="433"/>
+      <c r="E102" s="433"/>
+    </row>
+    <row r="103" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="405">
         <v>43817</v>
       </c>
-      <c r="C103" s="465"/>
-      <c r="D103" s="465"/>
+      <c r="C103" s="433"/>
+      <c r="D103" s="433"/>
+      <c r="E103" s="433"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="168">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1387,10 +1387,6 @@
     <t>NoSQL</t>
   </si>
   <si>
-    <t>Apresentação Semestre
-Conceito Banco de Dados</t>
-  </si>
-  <si>
     <t>Início - Modelagem - Excel
 Apoio - exemplo-01.xlsx
 1:N
@@ -1402,9 +1398,6 @@
 Ajuste Conceitual - Lógico - Representação</t>
   </si>
   <si>
-    <t>ex: Filmes, Livros</t>
-  </si>
-  <si>
     <t>ex: Optus</t>
   </si>
   <si>
@@ -1412,16 +1405,6 @@
   </si>
   <si>
     <t>ex: PClinics, Locadora, E-Commerce</t>
-  </si>
-  <si>
-    <t>Início - DDL
-exemplo-ddl.sql
-01_roteiro_filmes.sql
-01_roteiro_livros.sql</t>
-  </si>
-  <si>
-    <t>RoteiroFilmes
-RoteiroLivros</t>
   </si>
   <si>
     <t>Desafio Ssolve - Documentação + Modelagem + DDL</t>
@@ -1432,11 +1415,6 @@
   <si>
     <t>Início - DML
 exemplo-dml.sql</t>
-  </si>
-  <si>
-    <t>RoteiroFilmes
-RoteiroLivros
-Optus</t>
   </si>
   <si>
     <t>Projeto - Gufos</t>
@@ -1455,6 +1433,35 @@
   </si>
   <si>
     <t>Procedures</t>
+  </si>
+  <si>
+    <t>RoteiroMusicas - SStop
+RoteiroLivros</t>
+  </si>
+  <si>
+    <t>ex: Musicas (sstop), Livros</t>
+  </si>
+  <si>
+    <t>Início - DDL
+exemplo-ddl.sql
+01_roteiro_sstop.sql
+01_roteiro_livros.sql</t>
+  </si>
+  <si>
+    <t>RoteiroMusicas - SStop
+RoteiroLivros
+Optus</t>
+  </si>
+  <si>
+    <t>Apresentação API</t>
+  </si>
+  <si>
+    <t>Apresentação Semestre
+Apresentação BD
+Conceito Banco de Dados</t>
+  </si>
+  <si>
+    <t>Desafio InLock</t>
   </si>
 </sst>
 </file>
@@ -31880,7 +31887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="T18" sqref="T18:V30"/>
     </sheetView>
@@ -34350,7 +34357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -34373,13 +34380,13 @@
         <v>141</v>
       </c>
       <c r="D1" s="426" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E1" s="426" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="417" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="466" t="s">
         <v>142</v>
       </c>
@@ -34387,7 +34394,7 @@
         <v>43670</v>
       </c>
       <c r="C2" s="427" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D2" s="428"/>
       <c r="E2" s="428"/>
@@ -34407,10 +34414,10 @@
         <v>43672</v>
       </c>
       <c r="C4" s="430" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="431" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E4" s="431"/>
     </row>
@@ -34420,10 +34427,10 @@
         <v>43675</v>
       </c>
       <c r="C5" s="432" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="433" t="s">
         <v>149</v>
-      </c>
-      <c r="D5" s="433" t="s">
-        <v>151</v>
       </c>
       <c r="E5" s="433"/>
     </row>
@@ -34433,10 +34440,10 @@
         <v>43676</v>
       </c>
       <c r="C6" s="433" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D6" s="433" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E6" s="433"/>
     </row>
@@ -34446,10 +34453,10 @@
         <v>43677</v>
       </c>
       <c r="C7" s="432" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D7" s="432" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E7" s="433"/>
     </row>
@@ -34468,7 +34475,7 @@
         <v>43679</v>
       </c>
       <c r="C9" s="433" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D9" s="433"/>
       <c r="E9" s="433"/>
@@ -34479,10 +34486,10 @@
         <v>43682</v>
       </c>
       <c r="C10" s="430" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D10" s="430" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E10" s="431"/>
     </row>
@@ -34492,10 +34499,10 @@
         <v>43683</v>
       </c>
       <c r="C11" s="431" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D11" s="431" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E11" s="431"/>
     </row>
@@ -34505,10 +34512,10 @@
         <v>43684</v>
       </c>
       <c r="C12" s="431" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D12" s="431" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E12" s="431"/>
     </row>
@@ -34527,7 +34534,7 @@
         <v>43686</v>
       </c>
       <c r="C14" s="431" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D14" s="431"/>
       <c r="E14" s="431"/>
@@ -34538,11 +34545,11 @@
         <v>43689</v>
       </c>
       <c r="C15" s="433" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D15" s="433"/>
       <c r="E15" s="433" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
@@ -34551,7 +34558,7 @@
         <v>43690</v>
       </c>
       <c r="C16" s="433" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D16" s="433"/>
       <c r="E16" s="433"/>
@@ -34562,7 +34569,7 @@
         <v>43691</v>
       </c>
       <c r="C17" s="433" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D17" s="433"/>
       <c r="E17" s="433"/>
@@ -34582,7 +34589,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="433" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D19" s="434"/>
       <c r="E19" s="434"/>
@@ -34594,7 +34601,9 @@
       <c r="B20" s="402">
         <v>43696</v>
       </c>
-      <c r="C20" s="427"/>
+      <c r="C20" s="427" t="s">
+        <v>165</v>
+      </c>
       <c r="D20" s="428"/>
       <c r="E20" s="428"/>
     </row>
@@ -34630,7 +34639,9 @@
       <c r="B24" s="403">
         <v>43700</v>
       </c>
-      <c r="C24" s="431"/>
+      <c r="C24" s="431" t="s">
+        <v>167</v>
+      </c>
       <c r="D24" s="431"/>
       <c r="E24" s="431"/>
     </row>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="181">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1387,12 +1387,6 @@
     <t>NoSQL</t>
   </si>
   <si>
-    <t>Início - Modelagem - Excel
-Apoio - exemplo-01.xlsx
-1:N
-Início - Conceitual - Lógico - Representação</t>
-  </si>
-  <si>
     <t>Início - Documentação
 Início - N:N
 Ajuste Conceitual - Lógico - Representação</t>
@@ -1453,15 +1447,75 @@
 Optus</t>
   </si>
   <si>
-    <t>Apresentação API</t>
-  </si>
-  <si>
     <t>Apresentação Semestre
 Apresentação BD
 Conceito Banco de Dados</t>
   </si>
   <si>
     <t>Desafio InLock</t>
+  </si>
+  <si>
+    <t>Início - Modelagem - Excel
+Apoio - exemplo-01.xlsx - PSales
+1:N
+Início - Conceitual - Lógico - Representação</t>
+  </si>
+  <si>
+    <t>Apresentação API
+JSON
+Projeto Senai.Psales.WebApi</t>
+  </si>
+  <si>
+    <t>EstilosController - verbos - lista fixa
+EstiloDomain
+EstiloRepository - lista</t>
+  </si>
+  <si>
+    <t>Projeto Senai.Psales.WebApi</t>
+  </si>
+  <si>
+    <t>EstilosController - verbos
+EstiloDomain
+EstiloRepository - bd</t>
+  </si>
+  <si>
+    <t>ex.: Optus</t>
+  </si>
+  <si>
+    <t>Controller - Domain - Repository - Artistas
+Cadastrar, Listar, BuscarPorId
+Verificação de Campos
+Swagger</t>
+  </si>
+  <si>
+    <t>Início - Gufos
+Entity Framework</t>
+  </si>
+  <si>
+    <t>Categorias
+Eventos</t>
+  </si>
+  <si>
+    <t>Gufos
+JWT</t>
+  </si>
+  <si>
+    <t>JWT</t>
+  </si>
+  <si>
+    <t>Usuários
+Swagger</t>
+  </si>
+  <si>
+    <t>Eventos
+JWT</t>
+  </si>
+  <si>
+    <t>Gufos - Convites
+CORS</t>
+  </si>
+  <si>
+    <t>ex.: Marvel</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -2478,11 +2532,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="472">
+  <cellXfs count="476">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3091,6 +3158,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3773,123 +3852,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="442" t="s">
+      <c r="B1" s="446" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="443"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-      <c r="L1" s="443"/>
-      <c r="M1" s="443"/>
-      <c r="N1" s="443"/>
-      <c r="O1" s="443"/>
-      <c r="P1" s="443"/>
-      <c r="Q1" s="443"/>
-      <c r="R1" s="442" t="s">
+      <c r="C1" s="447"/>
+      <c r="D1" s="447"/>
+      <c r="E1" s="447"/>
+      <c r="F1" s="447"/>
+      <c r="G1" s="447"/>
+      <c r="H1" s="447"/>
+      <c r="I1" s="447"/>
+      <c r="J1" s="447"/>
+      <c r="K1" s="447"/>
+      <c r="L1" s="447"/>
+      <c r="M1" s="447"/>
+      <c r="N1" s="447"/>
+      <c r="O1" s="447"/>
+      <c r="P1" s="447"/>
+      <c r="Q1" s="447"/>
+      <c r="R1" s="446" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="443"/>
-      <c r="T1" s="443"/>
-      <c r="U1" s="443"/>
-      <c r="V1" s="443"/>
-      <c r="W1" s="443"/>
-      <c r="X1" s="443"/>
-      <c r="Y1" s="443"/>
-      <c r="Z1" s="443"/>
-      <c r="AA1" s="443"/>
-      <c r="AB1" s="443"/>
-      <c r="AC1" s="443"/>
-      <c r="AD1" s="443"/>
-      <c r="AE1" s="443"/>
-      <c r="AF1" s="443"/>
-      <c r="AG1" s="443"/>
-      <c r="AH1" s="443"/>
-      <c r="AI1" s="443"/>
-      <c r="AJ1" s="443"/>
-      <c r="AK1" s="443"/>
-      <c r="AL1" s="443"/>
-      <c r="AM1" s="444"/>
-      <c r="AN1" s="442" t="s">
+      <c r="S1" s="447"/>
+      <c r="T1" s="447"/>
+      <c r="U1" s="447"/>
+      <c r="V1" s="447"/>
+      <c r="W1" s="447"/>
+      <c r="X1" s="447"/>
+      <c r="Y1" s="447"/>
+      <c r="Z1" s="447"/>
+      <c r="AA1" s="447"/>
+      <c r="AB1" s="447"/>
+      <c r="AC1" s="447"/>
+      <c r="AD1" s="447"/>
+      <c r="AE1" s="447"/>
+      <c r="AF1" s="447"/>
+      <c r="AG1" s="447"/>
+      <c r="AH1" s="447"/>
+      <c r="AI1" s="447"/>
+      <c r="AJ1" s="447"/>
+      <c r="AK1" s="447"/>
+      <c r="AL1" s="447"/>
+      <c r="AM1" s="448"/>
+      <c r="AN1" s="446" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="443"/>
-      <c r="AP1" s="443"/>
-      <c r="AQ1" s="443"/>
-      <c r="AR1" s="443"/>
-      <c r="AS1" s="443"/>
-      <c r="AT1" s="444"/>
-      <c r="AU1" s="442" t="s">
+      <c r="AO1" s="447"/>
+      <c r="AP1" s="447"/>
+      <c r="AQ1" s="447"/>
+      <c r="AR1" s="447"/>
+      <c r="AS1" s="447"/>
+      <c r="AT1" s="448"/>
+      <c r="AU1" s="446" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="443"/>
-      <c r="AW1" s="443"/>
-      <c r="AX1" s="443"/>
-      <c r="AY1" s="443"/>
-      <c r="AZ1" s="443"/>
-      <c r="BA1" s="443"/>
-      <c r="BB1" s="443"/>
-      <c r="BC1" s="443"/>
-      <c r="BD1" s="443"/>
-      <c r="BE1" s="443"/>
-      <c r="BF1" s="443"/>
-      <c r="BG1" s="443"/>
-      <c r="BH1" s="443"/>
-      <c r="BI1" s="443"/>
-      <c r="BJ1" s="443"/>
-      <c r="BK1" s="443"/>
-      <c r="BL1" s="443"/>
-      <c r="BM1" s="443"/>
-      <c r="BN1" s="443"/>
-      <c r="BO1" s="443"/>
-      <c r="BP1" s="443"/>
-      <c r="BQ1" s="444"/>
-      <c r="BR1" s="442" t="s">
+      <c r="AV1" s="447"/>
+      <c r="AW1" s="447"/>
+      <c r="AX1" s="447"/>
+      <c r="AY1" s="447"/>
+      <c r="AZ1" s="447"/>
+      <c r="BA1" s="447"/>
+      <c r="BB1" s="447"/>
+      <c r="BC1" s="447"/>
+      <c r="BD1" s="447"/>
+      <c r="BE1" s="447"/>
+      <c r="BF1" s="447"/>
+      <c r="BG1" s="447"/>
+      <c r="BH1" s="447"/>
+      <c r="BI1" s="447"/>
+      <c r="BJ1" s="447"/>
+      <c r="BK1" s="447"/>
+      <c r="BL1" s="447"/>
+      <c r="BM1" s="447"/>
+      <c r="BN1" s="447"/>
+      <c r="BO1" s="447"/>
+      <c r="BP1" s="447"/>
+      <c r="BQ1" s="448"/>
+      <c r="BR1" s="446" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="443"/>
-      <c r="BT1" s="443"/>
-      <c r="BU1" s="443"/>
-      <c r="BV1" s="443"/>
-      <c r="BW1" s="443"/>
-      <c r="BX1" s="443"/>
-      <c r="BY1" s="443"/>
-      <c r="BZ1" s="443"/>
-      <c r="CA1" s="443"/>
-      <c r="CB1" s="443"/>
-      <c r="CC1" s="443"/>
-      <c r="CD1" s="443"/>
-      <c r="CE1" s="443"/>
-      <c r="CF1" s="443"/>
-      <c r="CG1" s="443"/>
-      <c r="CH1" s="443"/>
-      <c r="CI1" s="443"/>
-      <c r="CJ1" s="443"/>
-      <c r="CK1" s="444"/>
-      <c r="CL1" s="442" t="s">
+      <c r="BS1" s="447"/>
+      <c r="BT1" s="447"/>
+      <c r="BU1" s="447"/>
+      <c r="BV1" s="447"/>
+      <c r="BW1" s="447"/>
+      <c r="BX1" s="447"/>
+      <c r="BY1" s="447"/>
+      <c r="BZ1" s="447"/>
+      <c r="CA1" s="447"/>
+      <c r="CB1" s="447"/>
+      <c r="CC1" s="447"/>
+      <c r="CD1" s="447"/>
+      <c r="CE1" s="447"/>
+      <c r="CF1" s="447"/>
+      <c r="CG1" s="447"/>
+      <c r="CH1" s="447"/>
+      <c r="CI1" s="447"/>
+      <c r="CJ1" s="447"/>
+      <c r="CK1" s="448"/>
+      <c r="CL1" s="446" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="443"/>
-      <c r="CN1" s="443"/>
-      <c r="CO1" s="443"/>
-      <c r="CP1" s="443"/>
-      <c r="CQ1" s="443"/>
-      <c r="CR1" s="443"/>
-      <c r="CS1" s="443"/>
-      <c r="CT1" s="443"/>
-      <c r="CU1" s="443"/>
-      <c r="CV1" s="443"/>
-      <c r="CW1" s="443"/>
-      <c r="CX1" s="443"/>
-      <c r="CY1" s="443"/>
-      <c r="CZ1" s="443"/>
-      <c r="DA1" s="443"/>
-      <c r="DB1" s="443"/>
+      <c r="CM1" s="447"/>
+      <c r="CN1" s="447"/>
+      <c r="CO1" s="447"/>
+      <c r="CP1" s="447"/>
+      <c r="CQ1" s="447"/>
+      <c r="CR1" s="447"/>
+      <c r="CS1" s="447"/>
+      <c r="CT1" s="447"/>
+      <c r="CU1" s="447"/>
+      <c r="CV1" s="447"/>
+      <c r="CW1" s="447"/>
+      <c r="CX1" s="447"/>
+      <c r="CY1" s="447"/>
+      <c r="CZ1" s="447"/>
+      <c r="DA1" s="447"/>
+      <c r="DB1" s="447"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22516,15 +22595,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="440" t="s">
+      <c r="CW86" s="444" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="440"/>
-      <c r="CY86" s="440"/>
-      <c r="CZ86" s="440"/>
-      <c r="DA86" s="440"/>
-      <c r="DB86" s="440"/>
-      <c r="DC86" s="441"/>
+      <c r="CX86" s="444"/>
+      <c r="CY86" s="444"/>
+      <c r="CZ86" s="444"/>
+      <c r="DA86" s="444"/>
+      <c r="DB86" s="444"/>
+      <c r="DC86" s="445"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22914,118 +22993,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="454" t="s">
+      <c r="B1" s="458" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
-      <c r="G1" s="455"/>
-      <c r="H1" s="455"/>
-      <c r="I1" s="455"/>
-      <c r="J1" s="455"/>
-      <c r="K1" s="455"/>
-      <c r="L1" s="455"/>
-      <c r="M1" s="455"/>
-      <c r="N1" s="455"/>
-      <c r="O1" s="455"/>
-      <c r="P1" s="455"/>
-      <c r="Q1" s="456"/>
-      <c r="R1" s="445" t="s">
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
+      <c r="E1" s="459"/>
+      <c r="F1" s="459"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="459"/>
+      <c r="K1" s="459"/>
+      <c r="L1" s="459"/>
+      <c r="M1" s="459"/>
+      <c r="N1" s="459"/>
+      <c r="O1" s="459"/>
+      <c r="P1" s="459"/>
+      <c r="Q1" s="460"/>
+      <c r="R1" s="449" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="446"/>
-      <c r="T1" s="446"/>
-      <c r="U1" s="446"/>
-      <c r="V1" s="446"/>
-      <c r="W1" s="446"/>
-      <c r="X1" s="446"/>
-      <c r="Y1" s="446"/>
-      <c r="Z1" s="446"/>
-      <c r="AA1" s="446"/>
-      <c r="AB1" s="446"/>
-      <c r="AC1" s="446"/>
-      <c r="AD1" s="446"/>
-      <c r="AE1" s="446"/>
-      <c r="AF1" s="446"/>
-      <c r="AG1" s="446"/>
-      <c r="AH1" s="446"/>
-      <c r="AI1" s="446"/>
-      <c r="AJ1" s="446"/>
-      <c r="AK1" s="446"/>
-      <c r="AL1" s="447"/>
-      <c r="AM1" s="445" t="s">
+      <c r="S1" s="450"/>
+      <c r="T1" s="450"/>
+      <c r="U1" s="450"/>
+      <c r="V1" s="450"/>
+      <c r="W1" s="450"/>
+      <c r="X1" s="450"/>
+      <c r="Y1" s="450"/>
+      <c r="Z1" s="450"/>
+      <c r="AA1" s="450"/>
+      <c r="AB1" s="450"/>
+      <c r="AC1" s="450"/>
+      <c r="AD1" s="450"/>
+      <c r="AE1" s="450"/>
+      <c r="AF1" s="450"/>
+      <c r="AG1" s="450"/>
+      <c r="AH1" s="450"/>
+      <c r="AI1" s="450"/>
+      <c r="AJ1" s="450"/>
+      <c r="AK1" s="450"/>
+      <c r="AL1" s="451"/>
+      <c r="AM1" s="449" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="446"/>
-      <c r="AO1" s="446"/>
-      <c r="AP1" s="446"/>
-      <c r="AQ1" s="446"/>
-      <c r="AR1" s="446"/>
-      <c r="AS1" s="446"/>
-      <c r="AT1" s="446"/>
-      <c r="AU1" s="446"/>
-      <c r="AV1" s="446"/>
-      <c r="AW1" s="446"/>
-      <c r="AX1" s="446"/>
-      <c r="AY1" s="446"/>
-      <c r="AZ1" s="446"/>
-      <c r="BA1" s="446"/>
-      <c r="BB1" s="446"/>
-      <c r="BC1" s="446"/>
-      <c r="BD1" s="446"/>
-      <c r="BE1" s="446"/>
-      <c r="BF1" s="446"/>
-      <c r="BG1" s="446"/>
-      <c r="BH1" s="447"/>
-      <c r="BI1" s="445" t="s">
+      <c r="AN1" s="450"/>
+      <c r="AO1" s="450"/>
+      <c r="AP1" s="450"/>
+      <c r="AQ1" s="450"/>
+      <c r="AR1" s="450"/>
+      <c r="AS1" s="450"/>
+      <c r="AT1" s="450"/>
+      <c r="AU1" s="450"/>
+      <c r="AV1" s="450"/>
+      <c r="AW1" s="450"/>
+      <c r="AX1" s="450"/>
+      <c r="AY1" s="450"/>
+      <c r="AZ1" s="450"/>
+      <c r="BA1" s="450"/>
+      <c r="BB1" s="450"/>
+      <c r="BC1" s="450"/>
+      <c r="BD1" s="450"/>
+      <c r="BE1" s="450"/>
+      <c r="BF1" s="450"/>
+      <c r="BG1" s="450"/>
+      <c r="BH1" s="451"/>
+      <c r="BI1" s="449" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="446"/>
-      <c r="BK1" s="446"/>
-      <c r="BL1" s="446"/>
-      <c r="BM1" s="446"/>
-      <c r="BN1" s="446"/>
-      <c r="BO1" s="446"/>
-      <c r="BP1" s="446"/>
-      <c r="BQ1" s="446"/>
-      <c r="BR1" s="446"/>
-      <c r="BS1" s="446"/>
-      <c r="BT1" s="446"/>
-      <c r="BU1" s="446"/>
-      <c r="BV1" s="446"/>
-      <c r="BW1" s="446"/>
-      <c r="BX1" s="446"/>
-      <c r="BY1" s="446"/>
-      <c r="BZ1" s="446"/>
-      <c r="CA1" s="446"/>
-      <c r="CB1" s="446"/>
-      <c r="CC1" s="446"/>
-      <c r="CD1" s="447"/>
-      <c r="CE1" s="445" t="s">
+      <c r="BJ1" s="450"/>
+      <c r="BK1" s="450"/>
+      <c r="BL1" s="450"/>
+      <c r="BM1" s="450"/>
+      <c r="BN1" s="450"/>
+      <c r="BO1" s="450"/>
+      <c r="BP1" s="450"/>
+      <c r="BQ1" s="450"/>
+      <c r="BR1" s="450"/>
+      <c r="BS1" s="450"/>
+      <c r="BT1" s="450"/>
+      <c r="BU1" s="450"/>
+      <c r="BV1" s="450"/>
+      <c r="BW1" s="450"/>
+      <c r="BX1" s="450"/>
+      <c r="BY1" s="450"/>
+      <c r="BZ1" s="450"/>
+      <c r="CA1" s="450"/>
+      <c r="CB1" s="450"/>
+      <c r="CC1" s="450"/>
+      <c r="CD1" s="451"/>
+      <c r="CE1" s="449" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="446"/>
-      <c r="CG1" s="446"/>
-      <c r="CH1" s="446"/>
-      <c r="CI1" s="446"/>
-      <c r="CJ1" s="446"/>
-      <c r="CK1" s="446"/>
-      <c r="CL1" s="446"/>
-      <c r="CM1" s="447"/>
-      <c r="CN1" s="445" t="s">
+      <c r="CF1" s="450"/>
+      <c r="CG1" s="450"/>
+      <c r="CH1" s="450"/>
+      <c r="CI1" s="450"/>
+      <c r="CJ1" s="450"/>
+      <c r="CK1" s="450"/>
+      <c r="CL1" s="450"/>
+      <c r="CM1" s="451"/>
+      <c r="CN1" s="449" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="446"/>
-      <c r="CP1" s="446"/>
-      <c r="CQ1" s="446"/>
-      <c r="CR1" s="446"/>
-      <c r="CS1" s="446"/>
-      <c r="CT1" s="446"/>
-      <c r="CU1" s="446"/>
-      <c r="CV1" s="446"/>
-      <c r="CW1" s="447"/>
+      <c r="CO1" s="450"/>
+      <c r="CP1" s="450"/>
+      <c r="CQ1" s="450"/>
+      <c r="CR1" s="450"/>
+      <c r="CS1" s="450"/>
+      <c r="CT1" s="450"/>
+      <c r="CU1" s="450"/>
+      <c r="CV1" s="450"/>
+      <c r="CW1" s="451"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24472,11 +24551,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="448" t="s">
+      <c r="AX47" s="452" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="449"/>
-      <c r="AZ47" s="450"/>
+      <c r="AY47" s="453"/>
+      <c r="AZ47" s="454"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -24775,11 +24854,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="451" t="s">
+      <c r="BS60" s="455" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="452"/>
-      <c r="BU60" s="453"/>
+      <c r="BT60" s="456"/>
+      <c r="BU60" s="457"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -25143,120 +25222,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="454" t="s">
+      <c r="B1" s="458" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
-      <c r="G1" s="455"/>
-      <c r="H1" s="455"/>
-      <c r="I1" s="455"/>
-      <c r="J1" s="455"/>
-      <c r="K1" s="455"/>
-      <c r="L1" s="455"/>
-      <c r="M1" s="455"/>
-      <c r="N1" s="455"/>
-      <c r="O1" s="455"/>
-      <c r="P1" s="455"/>
-      <c r="Q1" s="456"/>
-      <c r="R1" s="445" t="s">
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
+      <c r="E1" s="459"/>
+      <c r="F1" s="459"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="459"/>
+      <c r="K1" s="459"/>
+      <c r="L1" s="459"/>
+      <c r="M1" s="459"/>
+      <c r="N1" s="459"/>
+      <c r="O1" s="459"/>
+      <c r="P1" s="459"/>
+      <c r="Q1" s="460"/>
+      <c r="R1" s="449" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="446"/>
-      <c r="T1" s="446"/>
-      <c r="U1" s="446"/>
-      <c r="V1" s="446"/>
-      <c r="W1" s="446"/>
-      <c r="X1" s="446"/>
-      <c r="Y1" s="446"/>
-      <c r="Z1" s="446"/>
-      <c r="AA1" s="446"/>
-      <c r="AB1" s="446"/>
-      <c r="AC1" s="446"/>
-      <c r="AD1" s="446"/>
-      <c r="AE1" s="446"/>
-      <c r="AF1" s="446"/>
-      <c r="AG1" s="446"/>
-      <c r="AH1" s="446"/>
-      <c r="AI1" s="446"/>
-      <c r="AJ1" s="446"/>
-      <c r="AK1" s="446"/>
-      <c r="AL1" s="446"/>
-      <c r="AM1" s="447"/>
-      <c r="AN1" s="445" t="s">
+      <c r="S1" s="450"/>
+      <c r="T1" s="450"/>
+      <c r="U1" s="450"/>
+      <c r="V1" s="450"/>
+      <c r="W1" s="450"/>
+      <c r="X1" s="450"/>
+      <c r="Y1" s="450"/>
+      <c r="Z1" s="450"/>
+      <c r="AA1" s="450"/>
+      <c r="AB1" s="450"/>
+      <c r="AC1" s="450"/>
+      <c r="AD1" s="450"/>
+      <c r="AE1" s="450"/>
+      <c r="AF1" s="450"/>
+      <c r="AG1" s="450"/>
+      <c r="AH1" s="450"/>
+      <c r="AI1" s="450"/>
+      <c r="AJ1" s="450"/>
+      <c r="AK1" s="450"/>
+      <c r="AL1" s="450"/>
+      <c r="AM1" s="451"/>
+      <c r="AN1" s="449" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="446"/>
-      <c r="AP1" s="446"/>
-      <c r="AQ1" s="446"/>
-      <c r="AR1" s="446"/>
-      <c r="AS1" s="446"/>
-      <c r="AT1" s="446"/>
-      <c r="AU1" s="446"/>
-      <c r="AV1" s="446"/>
-      <c r="AW1" s="446"/>
-      <c r="AX1" s="446"/>
-      <c r="AY1" s="446"/>
-      <c r="AZ1" s="446"/>
-      <c r="BA1" s="446"/>
-      <c r="BB1" s="446"/>
-      <c r="BC1" s="446"/>
-      <c r="BD1" s="446"/>
-      <c r="BE1" s="446"/>
-      <c r="BF1" s="446"/>
-      <c r="BG1" s="446"/>
-      <c r="BH1" s="446"/>
-      <c r="BI1" s="446"/>
-      <c r="BJ1" s="447"/>
-      <c r="BK1" s="445" t="s">
+      <c r="AO1" s="450"/>
+      <c r="AP1" s="450"/>
+      <c r="AQ1" s="450"/>
+      <c r="AR1" s="450"/>
+      <c r="AS1" s="450"/>
+      <c r="AT1" s="450"/>
+      <c r="AU1" s="450"/>
+      <c r="AV1" s="450"/>
+      <c r="AW1" s="450"/>
+      <c r="AX1" s="450"/>
+      <c r="AY1" s="450"/>
+      <c r="AZ1" s="450"/>
+      <c r="BA1" s="450"/>
+      <c r="BB1" s="450"/>
+      <c r="BC1" s="450"/>
+      <c r="BD1" s="450"/>
+      <c r="BE1" s="450"/>
+      <c r="BF1" s="450"/>
+      <c r="BG1" s="450"/>
+      <c r="BH1" s="450"/>
+      <c r="BI1" s="450"/>
+      <c r="BJ1" s="451"/>
+      <c r="BK1" s="449" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="446"/>
-      <c r="BM1" s="446"/>
-      <c r="BN1" s="446"/>
-      <c r="BO1" s="446"/>
-      <c r="BP1" s="446"/>
-      <c r="BQ1" s="446"/>
-      <c r="BR1" s="446"/>
-      <c r="BS1" s="446"/>
-      <c r="BT1" s="446"/>
-      <c r="BU1" s="446"/>
-      <c r="BV1" s="446"/>
-      <c r="BW1" s="446"/>
-      <c r="BX1" s="446"/>
-      <c r="BY1" s="446"/>
-      <c r="BZ1" s="446"/>
-      <c r="CA1" s="446"/>
-      <c r="CB1" s="446"/>
-      <c r="CC1" s="446"/>
-      <c r="CD1" s="446"/>
-      <c r="CE1" s="446"/>
-      <c r="CF1" s="446"/>
-      <c r="CG1" s="447"/>
-      <c r="CH1" s="445" t="s">
+      <c r="BL1" s="450"/>
+      <c r="BM1" s="450"/>
+      <c r="BN1" s="450"/>
+      <c r="BO1" s="450"/>
+      <c r="BP1" s="450"/>
+      <c r="BQ1" s="450"/>
+      <c r="BR1" s="450"/>
+      <c r="BS1" s="450"/>
+      <c r="BT1" s="450"/>
+      <c r="BU1" s="450"/>
+      <c r="BV1" s="450"/>
+      <c r="BW1" s="450"/>
+      <c r="BX1" s="450"/>
+      <c r="BY1" s="450"/>
+      <c r="BZ1" s="450"/>
+      <c r="CA1" s="450"/>
+      <c r="CB1" s="450"/>
+      <c r="CC1" s="450"/>
+      <c r="CD1" s="450"/>
+      <c r="CE1" s="450"/>
+      <c r="CF1" s="450"/>
+      <c r="CG1" s="451"/>
+      <c r="CH1" s="449" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="446"/>
-      <c r="CJ1" s="446"/>
-      <c r="CK1" s="446"/>
-      <c r="CL1" s="446"/>
-      <c r="CM1" s="446"/>
-      <c r="CN1" s="446"/>
-      <c r="CO1" s="446"/>
-      <c r="CP1" s="446"/>
-      <c r="CQ1" s="447"/>
-      <c r="CR1" s="457" t="s">
+      <c r="CI1" s="450"/>
+      <c r="CJ1" s="450"/>
+      <c r="CK1" s="450"/>
+      <c r="CL1" s="450"/>
+      <c r="CM1" s="450"/>
+      <c r="CN1" s="450"/>
+      <c r="CO1" s="450"/>
+      <c r="CP1" s="450"/>
+      <c r="CQ1" s="451"/>
+      <c r="CR1" s="461" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="458"/>
-      <c r="CT1" s="458"/>
-      <c r="CU1" s="458"/>
-      <c r="CV1" s="458"/>
-      <c r="CW1" s="458"/>
-      <c r="CX1" s="458"/>
-      <c r="CY1" s="459"/>
+      <c r="CS1" s="462"/>
+      <c r="CT1" s="462"/>
+      <c r="CU1" s="462"/>
+      <c r="CV1" s="462"/>
+      <c r="CW1" s="462"/>
+      <c r="CX1" s="462"/>
+      <c r="CY1" s="463"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27065,11 +27144,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="460" t="s">
+      <c r="AY47" s="464" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="461"/>
-      <c r="BA47" s="462"/>
+      <c r="AZ47" s="465"/>
+      <c r="BA47" s="466"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27462,11 +27541,11 @@
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="451" t="s">
+      <c r="BU60" s="455" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="452"/>
-      <c r="BW60" s="453"/>
+      <c r="BV60" s="456"/>
+      <c r="BW60" s="457"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -27941,120 +28020,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="454" t="s">
+      <c r="B1" s="458" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
-      <c r="G1" s="455"/>
-      <c r="H1" s="455"/>
-      <c r="I1" s="455"/>
-      <c r="J1" s="455"/>
-      <c r="K1" s="455"/>
-      <c r="L1" s="455"/>
-      <c r="M1" s="455"/>
-      <c r="N1" s="455"/>
-      <c r="O1" s="455"/>
-      <c r="P1" s="455"/>
-      <c r="Q1" s="456"/>
-      <c r="R1" s="445" t="s">
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
+      <c r="E1" s="459"/>
+      <c r="F1" s="459"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="459"/>
+      <c r="K1" s="459"/>
+      <c r="L1" s="459"/>
+      <c r="M1" s="459"/>
+      <c r="N1" s="459"/>
+      <c r="O1" s="459"/>
+      <c r="P1" s="459"/>
+      <c r="Q1" s="460"/>
+      <c r="R1" s="449" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="446"/>
-      <c r="T1" s="446"/>
-      <c r="U1" s="446"/>
-      <c r="V1" s="446"/>
-      <c r="W1" s="446"/>
-      <c r="X1" s="446"/>
-      <c r="Y1" s="446"/>
-      <c r="Z1" s="446"/>
-      <c r="AA1" s="446"/>
-      <c r="AB1" s="446"/>
-      <c r="AC1" s="446"/>
-      <c r="AD1" s="446"/>
-      <c r="AE1" s="446"/>
-      <c r="AF1" s="446"/>
-      <c r="AG1" s="446"/>
-      <c r="AH1" s="446"/>
-      <c r="AI1" s="446"/>
-      <c r="AJ1" s="446"/>
-      <c r="AK1" s="446"/>
-      <c r="AL1" s="446"/>
-      <c r="AM1" s="447"/>
-      <c r="AN1" s="445" t="s">
+      <c r="S1" s="450"/>
+      <c r="T1" s="450"/>
+      <c r="U1" s="450"/>
+      <c r="V1" s="450"/>
+      <c r="W1" s="450"/>
+      <c r="X1" s="450"/>
+      <c r="Y1" s="450"/>
+      <c r="Z1" s="450"/>
+      <c r="AA1" s="450"/>
+      <c r="AB1" s="450"/>
+      <c r="AC1" s="450"/>
+      <c r="AD1" s="450"/>
+      <c r="AE1" s="450"/>
+      <c r="AF1" s="450"/>
+      <c r="AG1" s="450"/>
+      <c r="AH1" s="450"/>
+      <c r="AI1" s="450"/>
+      <c r="AJ1" s="450"/>
+      <c r="AK1" s="450"/>
+      <c r="AL1" s="450"/>
+      <c r="AM1" s="451"/>
+      <c r="AN1" s="449" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="446"/>
-      <c r="AP1" s="446"/>
-      <c r="AQ1" s="446"/>
-      <c r="AR1" s="446"/>
-      <c r="AS1" s="446"/>
-      <c r="AT1" s="446"/>
-      <c r="AU1" s="446"/>
-      <c r="AV1" s="446"/>
-      <c r="AW1" s="446"/>
-      <c r="AX1" s="446"/>
-      <c r="AY1" s="446"/>
-      <c r="AZ1" s="446"/>
-      <c r="BA1" s="446"/>
-      <c r="BB1" s="446"/>
-      <c r="BC1" s="446"/>
-      <c r="BD1" s="446"/>
-      <c r="BE1" s="446"/>
-      <c r="BF1" s="446"/>
-      <c r="BG1" s="446"/>
-      <c r="BH1" s="446"/>
-      <c r="BI1" s="446"/>
-      <c r="BJ1" s="447"/>
-      <c r="BK1" s="445" t="s">
+      <c r="AO1" s="450"/>
+      <c r="AP1" s="450"/>
+      <c r="AQ1" s="450"/>
+      <c r="AR1" s="450"/>
+      <c r="AS1" s="450"/>
+      <c r="AT1" s="450"/>
+      <c r="AU1" s="450"/>
+      <c r="AV1" s="450"/>
+      <c r="AW1" s="450"/>
+      <c r="AX1" s="450"/>
+      <c r="AY1" s="450"/>
+      <c r="AZ1" s="450"/>
+      <c r="BA1" s="450"/>
+      <c r="BB1" s="450"/>
+      <c r="BC1" s="450"/>
+      <c r="BD1" s="450"/>
+      <c r="BE1" s="450"/>
+      <c r="BF1" s="450"/>
+      <c r="BG1" s="450"/>
+      <c r="BH1" s="450"/>
+      <c r="BI1" s="450"/>
+      <c r="BJ1" s="451"/>
+      <c r="BK1" s="449" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="446"/>
-      <c r="BM1" s="446"/>
-      <c r="BN1" s="446"/>
-      <c r="BO1" s="446"/>
-      <c r="BP1" s="446"/>
-      <c r="BQ1" s="446"/>
-      <c r="BR1" s="446"/>
-      <c r="BS1" s="446"/>
-      <c r="BT1" s="446"/>
-      <c r="BU1" s="446"/>
-      <c r="BV1" s="446"/>
-      <c r="BW1" s="446"/>
-      <c r="BX1" s="446"/>
-      <c r="BY1" s="446"/>
-      <c r="BZ1" s="446"/>
-      <c r="CA1" s="446"/>
-      <c r="CB1" s="446"/>
-      <c r="CC1" s="446"/>
-      <c r="CD1" s="446"/>
-      <c r="CE1" s="446"/>
-      <c r="CF1" s="446"/>
-      <c r="CG1" s="447"/>
-      <c r="CH1" s="445" t="s">
+      <c r="BL1" s="450"/>
+      <c r="BM1" s="450"/>
+      <c r="BN1" s="450"/>
+      <c r="BO1" s="450"/>
+      <c r="BP1" s="450"/>
+      <c r="BQ1" s="450"/>
+      <c r="BR1" s="450"/>
+      <c r="BS1" s="450"/>
+      <c r="BT1" s="450"/>
+      <c r="BU1" s="450"/>
+      <c r="BV1" s="450"/>
+      <c r="BW1" s="450"/>
+      <c r="BX1" s="450"/>
+      <c r="BY1" s="450"/>
+      <c r="BZ1" s="450"/>
+      <c r="CA1" s="450"/>
+      <c r="CB1" s="450"/>
+      <c r="CC1" s="450"/>
+      <c r="CD1" s="450"/>
+      <c r="CE1" s="450"/>
+      <c r="CF1" s="450"/>
+      <c r="CG1" s="451"/>
+      <c r="CH1" s="449" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="446"/>
-      <c r="CJ1" s="446"/>
-      <c r="CK1" s="446"/>
-      <c r="CL1" s="446"/>
-      <c r="CM1" s="446"/>
-      <c r="CN1" s="446"/>
-      <c r="CO1" s="446"/>
-      <c r="CP1" s="446"/>
-      <c r="CQ1" s="447"/>
-      <c r="CR1" s="457" t="s">
+      <c r="CI1" s="450"/>
+      <c r="CJ1" s="450"/>
+      <c r="CK1" s="450"/>
+      <c r="CL1" s="450"/>
+      <c r="CM1" s="450"/>
+      <c r="CN1" s="450"/>
+      <c r="CO1" s="450"/>
+      <c r="CP1" s="450"/>
+      <c r="CQ1" s="451"/>
+      <c r="CR1" s="461" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="458"/>
-      <c r="CT1" s="458"/>
-      <c r="CU1" s="458"/>
-      <c r="CV1" s="458"/>
-      <c r="CW1" s="458"/>
-      <c r="CX1" s="458"/>
-      <c r="CY1" s="459"/>
+      <c r="CS1" s="462"/>
+      <c r="CT1" s="462"/>
+      <c r="CU1" s="462"/>
+      <c r="CV1" s="462"/>
+      <c r="CW1" s="462"/>
+      <c r="CX1" s="462"/>
+      <c r="CY1" s="463"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30642,11 +30721,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="460" t="s">
+      <c r="AY47" s="464" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="461"/>
-      <c r="BA47" s="462"/>
+      <c r="AZ47" s="465"/>
+      <c r="BA47" s="466"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -31295,11 +31374,11 @@
       <c r="BK60" s="145"/>
       <c r="BN60" s="321"/>
       <c r="BS60" s="302"/>
-      <c r="BU60" s="451" t="s">
+      <c r="BU60" s="455" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="452"/>
-      <c r="BW60" s="453"/>
+      <c r="BV60" s="456"/>
+      <c r="BW60" s="457"/>
       <c r="BX60" s="302"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -31888,8 +31967,8 @@
   <dimension ref="A1:CY69"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T18" sqref="T18:V30"/>
+      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34357,8 +34436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34366,7 +34445,7 @@
     <col min="1" max="1" width="5.5703125" style="414"/>
     <col min="2" max="2" width="5.85546875" style="414" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" style="439" customWidth="1"/>
-    <col min="4" max="4" width="33" style="439" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="439" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="439" customWidth="1"/>
     <col min="6" max="16384" width="5.5703125" style="414"/>
   </cols>
@@ -34380,27 +34459,27 @@
         <v>141</v>
       </c>
       <c r="D1" s="426" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="426" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="426" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="2" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="466" t="s">
+      <c r="A2" s="470" t="s">
         <v>142</v>
       </c>
       <c r="B2" s="397">
         <v>43670</v>
       </c>
       <c r="C2" s="427" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" s="428"/>
       <c r="E2" s="428"/>
     </row>
     <row r="3" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="467"/>
+      <c r="A3" s="471"/>
       <c r="B3" s="398">
         <v>43671</v>
       </c>
@@ -34409,59 +34488,59 @@
       <c r="E3" s="429"/>
     </row>
     <row r="4" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="467"/>
+      <c r="A4" s="471"/>
       <c r="B4" s="399">
         <v>43672</v>
       </c>
       <c r="C4" s="430" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D4" s="431" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="431"/>
     </row>
     <row r="5" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="467"/>
+      <c r="A5" s="471"/>
       <c r="B5" s="400">
         <v>43675</v>
       </c>
       <c r="C5" s="432" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="433" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="433" t="s">
-        <v>149</v>
-      </c>
       <c r="E5" s="433"/>
     </row>
     <row r="6" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="467"/>
+      <c r="A6" s="471"/>
       <c r="B6" s="400">
         <v>43676</v>
       </c>
       <c r="C6" s="433" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="433" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="433" t="s">
-        <v>151</v>
-      </c>
       <c r="E6" s="433"/>
     </row>
     <row r="7" spans="1:5" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="467"/>
+      <c r="A7" s="471"/>
       <c r="B7" s="400">
         <v>43677</v>
       </c>
       <c r="C7" s="432" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="432" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="433"/>
     </row>
     <row r="8" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="467"/>
+      <c r="A8" s="471"/>
       <c r="B8" s="398">
         <v>43678</v>
       </c>
@@ -34470,57 +34549,57 @@
       <c r="E8" s="429"/>
     </row>
     <row r="9" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="467"/>
+      <c r="A9" s="471"/>
       <c r="B9" s="400">
         <v>43679</v>
       </c>
       <c r="C9" s="433" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="433"/>
       <c r="E9" s="433"/>
     </row>
     <row r="10" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="467"/>
+      <c r="A10" s="471"/>
       <c r="B10" s="399">
         <v>43682</v>
       </c>
       <c r="C10" s="430" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="430" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="431"/>
     </row>
     <row r="11" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="467"/>
+      <c r="A11" s="471"/>
       <c r="B11" s="399">
         <v>43683</v>
       </c>
       <c r="C11" s="431" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="431" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="431" t="s">
-        <v>156</v>
-      </c>
       <c r="E11" s="431"/>
     </row>
     <row r="12" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="467"/>
+      <c r="A12" s="471"/>
       <c r="B12" s="399">
         <v>43684</v>
       </c>
       <c r="C12" s="431" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="431" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="431" t="s">
-        <v>156</v>
-      </c>
       <c r="E12" s="431"/>
     </row>
     <row r="13" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="467"/>
+      <c r="A13" s="471"/>
       <c r="B13" s="398">
         <v>43685</v>
       </c>
@@ -34529,53 +34608,53 @@
       <c r="E13" s="429"/>
     </row>
     <row r="14" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="467"/>
+      <c r="A14" s="471"/>
       <c r="B14" s="399">
         <v>43686</v>
       </c>
       <c r="C14" s="431" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="431"/>
       <c r="E14" s="431"/>
     </row>
     <row r="15" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="467"/>
+      <c r="A15" s="471"/>
       <c r="B15" s="400">
         <v>43689</v>
       </c>
       <c r="C15" s="433" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="433"/>
       <c r="E15" s="433" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="467"/>
+      <c r="A16" s="471"/>
       <c r="B16" s="400">
         <v>43690</v>
       </c>
       <c r="C16" s="433" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D16" s="433"/>
       <c r="E16" s="433"/>
     </row>
     <row r="17" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="467"/>
+      <c r="A17" s="471"/>
       <c r="B17" s="400">
         <v>43691</v>
       </c>
       <c r="C17" s="433" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" s="433"/>
       <c r="E17" s="433"/>
     </row>
     <row r="18" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="467"/>
+      <c r="A18" s="471"/>
       <c r="B18" s="398">
         <v>43692</v>
       </c>
@@ -34584,49 +34663,59 @@
       <c r="E18" s="429"/>
     </row>
     <row r="19" spans="1:5" s="421" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="468"/>
+      <c r="A19" s="472"/>
       <c r="B19" s="401">
         <v>43693</v>
       </c>
       <c r="C19" s="433" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="434"/>
       <c r="E19" s="434"/>
     </row>
-    <row r="20" spans="1:5" s="417" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="463" t="s">
+    <row r="20" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="467" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="402">
         <v>43696</v>
       </c>
       <c r="C20" s="427" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="428"/>
+        <v>167</v>
+      </c>
+      <c r="D20" s="442" t="s">
+        <v>168</v>
+      </c>
       <c r="E20" s="428"/>
     </row>
-    <row r="21" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="464"/>
+    <row r="21" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="468"/>
       <c r="B21" s="403">
         <v>43697</v>
       </c>
-      <c r="C21" s="431"/>
-      <c r="D21" s="431"/>
-      <c r="E21" s="431"/>
-    </row>
-    <row r="22" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="464"/>
+      <c r="C21" s="440" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="430" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="441"/>
+    </row>
+    <row r="22" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="468"/>
       <c r="B22" s="403">
         <v>43698</v>
       </c>
-      <c r="C22" s="431"/>
-      <c r="D22" s="431"/>
+      <c r="C22" s="431" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="443" t="s">
+        <v>172</v>
+      </c>
       <c r="E22" s="431"/>
     </row>
     <row r="23" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="464"/>
+      <c r="A23" s="468"/>
       <c r="B23" s="404">
         <v>43699</v>
       </c>
@@ -34635,45 +34724,57 @@
       <c r="E23" s="429"/>
     </row>
     <row r="24" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="464"/>
+      <c r="A24" s="468"/>
       <c r="B24" s="403">
         <v>43700</v>
       </c>
-      <c r="C24" s="431" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="431"/>
+      <c r="C24" s="431"/>
+      <c r="D24" s="431" t="s">
+        <v>171</v>
+      </c>
       <c r="E24" s="431"/>
     </row>
-    <row r="25" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="464"/>
+    <row r="25" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="468"/>
       <c r="B25" s="405">
         <v>43703</v>
       </c>
-      <c r="C25" s="433"/>
-      <c r="D25" s="433"/>
+      <c r="C25" s="432" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="432" t="s">
+        <v>174</v>
+      </c>
       <c r="E25" s="433"/>
     </row>
-    <row r="26" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="464"/>
+    <row r="26" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="468"/>
       <c r="B26" s="405">
         <v>43704</v>
       </c>
-      <c r="C26" s="433"/>
-      <c r="D26" s="433"/>
+      <c r="C26" s="432" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="432" t="s">
+        <v>178</v>
+      </c>
       <c r="E26" s="433"/>
     </row>
-    <row r="27" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="464"/>
+    <row r="27" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="468"/>
       <c r="B27" s="405">
         <v>43705</v>
       </c>
-      <c r="C27" s="433"/>
-      <c r="D27" s="433"/>
+      <c r="C27" s="433" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="432" t="s">
+        <v>177</v>
+      </c>
       <c r="E27" s="433"/>
     </row>
     <row r="28" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="464"/>
+      <c r="A28" s="468"/>
       <c r="B28" s="404">
         <v>43706</v>
       </c>
@@ -34682,43 +34783,48 @@
       <c r="E28" s="429"/>
     </row>
     <row r="29" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="464"/>
+      <c r="A29" s="468"/>
       <c r="B29" s="405">
         <v>43707</v>
       </c>
-      <c r="C29" s="433"/>
+      <c r="C29" s="433" t="s">
+        <v>165</v>
+      </c>
       <c r="D29" s="433"/>
       <c r="E29" s="433"/>
     </row>
-    <row r="30" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="464"/>
+    <row r="30" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="468"/>
       <c r="B30" s="403">
         <v>43710</v>
       </c>
-      <c r="C30" s="431"/>
+      <c r="C30" s="430" t="s">
+        <v>179</v>
+      </c>
       <c r="D30" s="431"/>
       <c r="E30" s="431"/>
     </row>
     <row r="31" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="464"/>
+      <c r="A31" s="468"/>
       <c r="B31" s="403">
         <v>43711</v>
       </c>
       <c r="C31" s="431"/>
-      <c r="D31" s="431"/>
+      <c r="D31" s="431" t="s">
+        <v>180</v>
+      </c>
       <c r="E31" s="431"/>
     </row>
     <row r="32" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="464"/>
+      <c r="A32" s="468"/>
       <c r="B32" s="403">
         <v>43712</v>
       </c>
-      <c r="C32" s="431"/>
       <c r="D32" s="431"/>
       <c r="E32" s="431"/>
     </row>
     <row r="33" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="464"/>
+      <c r="A33" s="468"/>
       <c r="B33" s="404">
         <v>43713</v>
       </c>
@@ -34727,43 +34833,51 @@
       <c r="E33" s="429"/>
     </row>
     <row r="34" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="464"/>
+      <c r="A34" s="468"/>
       <c r="B34" s="403">
         <v>43714</v>
       </c>
-      <c r="C34" s="431"/>
+      <c r="C34" s="431" t="s">
+        <v>165</v>
+      </c>
       <c r="D34" s="431"/>
       <c r="E34" s="431"/>
     </row>
     <row r="35" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="464"/>
+      <c r="A35" s="468"/>
       <c r="B35" s="405">
         <v>43717</v>
       </c>
-      <c r="C35" s="433"/>
+      <c r="C35" s="433" t="s">
+        <v>152</v>
+      </c>
       <c r="D35" s="433"/>
       <c r="E35" s="433"/>
     </row>
     <row r="36" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="464"/>
+      <c r="A36" s="468"/>
       <c r="B36" s="405">
         <v>43718</v>
       </c>
-      <c r="C36" s="433"/>
+      <c r="C36" s="433" t="s">
+        <v>152</v>
+      </c>
       <c r="D36" s="433"/>
       <c r="E36" s="433"/>
     </row>
     <row r="37" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="464"/>
+      <c r="A37" s="468"/>
       <c r="B37" s="405">
         <v>43719</v>
       </c>
-      <c r="C37" s="433"/>
+      <c r="C37" s="433" t="s">
+        <v>152</v>
+      </c>
       <c r="D37" s="433"/>
       <c r="E37" s="433"/>
     </row>
     <row r="38" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="464"/>
+      <c r="A38" s="468"/>
       <c r="B38" s="404">
         <v>43720</v>
       </c>
@@ -34772,43 +34886,51 @@
       <c r="E38" s="429"/>
     </row>
     <row r="39" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="464"/>
+      <c r="A39" s="468"/>
       <c r="B39" s="405">
         <v>43721</v>
       </c>
-      <c r="C39" s="433"/>
+      <c r="C39" s="433" t="s">
+        <v>152</v>
+      </c>
       <c r="D39" s="433"/>
       <c r="E39" s="433"/>
     </row>
     <row r="40" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="464"/>
+      <c r="A40" s="468"/>
       <c r="B40" s="403">
         <v>43724</v>
       </c>
-      <c r="C40" s="431"/>
+      <c r="C40" s="431" t="s">
+        <v>152</v>
+      </c>
       <c r="D40" s="431"/>
       <c r="E40" s="431"/>
     </row>
     <row r="41" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="464"/>
+      <c r="A41" s="468"/>
       <c r="B41" s="403">
         <v>43725</v>
       </c>
-      <c r="C41" s="431"/>
+      <c r="C41" s="431" t="s">
+        <v>152</v>
+      </c>
       <c r="D41" s="431"/>
       <c r="E41" s="431"/>
     </row>
     <row r="42" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="464"/>
+      <c r="A42" s="468"/>
       <c r="B42" s="403">
         <v>43726</v>
       </c>
-      <c r="C42" s="431"/>
+      <c r="C42" s="431" t="s">
+        <v>152</v>
+      </c>
       <c r="D42" s="431"/>
       <c r="E42" s="431"/>
     </row>
     <row r="43" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="464"/>
+      <c r="A43" s="468"/>
       <c r="B43" s="404">
         <v>43727</v>
       </c>
@@ -34817,16 +34939,18 @@
       <c r="E43" s="429"/>
     </row>
     <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="465"/>
+      <c r="A44" s="469"/>
       <c r="B44" s="406">
         <v>43728</v>
       </c>
-      <c r="C44" s="435"/>
+      <c r="C44" s="435" t="s">
+        <v>152</v>
+      </c>
       <c r="D44" s="435"/>
       <c r="E44" s="435"/>
     </row>
     <row r="45" spans="1:5" s="423" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="469" t="s">
+      <c r="A45" s="473" t="s">
         <v>144</v>
       </c>
       <c r="B45" s="407">
@@ -34837,7 +34961,7 @@
       <c r="E45" s="436"/>
     </row>
     <row r="46" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="470"/>
+      <c r="A46" s="474"/>
       <c r="B46" s="408">
         <v>43732</v>
       </c>
@@ -34846,7 +34970,7 @@
       <c r="E46" s="433"/>
     </row>
     <row r="47" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="470"/>
+      <c r="A47" s="474"/>
       <c r="B47" s="408">
         <v>43733</v>
       </c>
@@ -34855,7 +34979,7 @@
       <c r="E47" s="433"/>
     </row>
     <row r="48" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="470"/>
+      <c r="A48" s="474"/>
       <c r="B48" s="409">
         <v>43734</v>
       </c>
@@ -34864,7 +34988,7 @@
       <c r="E48" s="429"/>
     </row>
     <row r="49" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="470"/>
+      <c r="A49" s="474"/>
       <c r="B49" s="408">
         <v>43735</v>
       </c>
@@ -34873,7 +34997,7 @@
       <c r="E49" s="433"/>
     </row>
     <row r="50" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="470"/>
+      <c r="A50" s="474"/>
       <c r="B50" s="410">
         <v>43738</v>
       </c>
@@ -34882,7 +35006,7 @@
       <c r="E50" s="431"/>
     </row>
     <row r="51" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="470"/>
+      <c r="A51" s="474"/>
       <c r="B51" s="410">
         <v>43739</v>
       </c>
@@ -34891,7 +35015,7 @@
       <c r="E51" s="431"/>
     </row>
     <row r="52" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="470"/>
+      <c r="A52" s="474"/>
       <c r="B52" s="410">
         <v>43740</v>
       </c>
@@ -34900,7 +35024,7 @@
       <c r="E52" s="431"/>
     </row>
     <row r="53" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="470"/>
+      <c r="A53" s="474"/>
       <c r="B53" s="409">
         <v>43741</v>
       </c>
@@ -34909,7 +35033,7 @@
       <c r="E53" s="429"/>
     </row>
     <row r="54" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="470"/>
+      <c r="A54" s="474"/>
       <c r="B54" s="410">
         <v>43742</v>
       </c>
@@ -34918,7 +35042,7 @@
       <c r="E54" s="431"/>
     </row>
     <row r="55" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="470"/>
+      <c r="A55" s="474"/>
       <c r="B55" s="408">
         <v>43745</v>
       </c>
@@ -34927,7 +35051,7 @@
       <c r="E55" s="433"/>
     </row>
     <row r="56" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="470"/>
+      <c r="A56" s="474"/>
       <c r="B56" s="408">
         <v>43746</v>
       </c>
@@ -34936,7 +35060,7 @@
       <c r="E56" s="433"/>
     </row>
     <row r="57" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="470"/>
+      <c r="A57" s="474"/>
       <c r="B57" s="408">
         <v>43747</v>
       </c>
@@ -34945,7 +35069,7 @@
       <c r="E57" s="433"/>
     </row>
     <row r="58" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="470"/>
+      <c r="A58" s="474"/>
       <c r="B58" s="409">
         <v>43748</v>
       </c>
@@ -34954,7 +35078,7 @@
       <c r="E58" s="429"/>
     </row>
     <row r="59" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="470"/>
+      <c r="A59" s="474"/>
       <c r="B59" s="408">
         <v>43749</v>
       </c>
@@ -34963,7 +35087,7 @@
       <c r="E59" s="433"/>
     </row>
     <row r="60" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="470"/>
+      <c r="A60" s="474"/>
       <c r="B60" s="410">
         <v>43754</v>
       </c>
@@ -34972,7 +35096,7 @@
       <c r="E60" s="431"/>
     </row>
     <row r="61" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="470"/>
+      <c r="A61" s="474"/>
       <c r="B61" s="409">
         <v>43755</v>
       </c>
@@ -34981,7 +35105,7 @@
       <c r="E61" s="429"/>
     </row>
     <row r="62" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="470"/>
+      <c r="A62" s="474"/>
       <c r="B62" s="410">
         <v>43756</v>
       </c>
@@ -34990,7 +35114,7 @@
       <c r="E62" s="431"/>
     </row>
     <row r="63" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="470"/>
+      <c r="A63" s="474"/>
       <c r="B63" s="408">
         <v>43759</v>
       </c>
@@ -34999,7 +35123,7 @@
       <c r="E63" s="433"/>
     </row>
     <row r="64" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="470"/>
+      <c r="A64" s="474"/>
       <c r="B64" s="408">
         <v>43760</v>
       </c>
@@ -35008,7 +35132,7 @@
       <c r="E64" s="433"/>
     </row>
     <row r="65" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="470"/>
+      <c r="A65" s="474"/>
       <c r="B65" s="408">
         <v>43761</v>
       </c>
@@ -35017,7 +35141,7 @@
       <c r="E65" s="433"/>
     </row>
     <row r="66" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="471"/>
+      <c r="A66" s="475"/>
       <c r="B66" s="411">
         <v>43762</v>
       </c>
@@ -35026,7 +35150,7 @@
       <c r="E66" s="437"/>
     </row>
     <row r="67" spans="1:5" s="423" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="469" t="s">
+      <c r="A67" s="473" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="407">
@@ -35037,7 +35161,7 @@
       <c r="E67" s="436"/>
     </row>
     <row r="68" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="470"/>
+      <c r="A68" s="474"/>
       <c r="B68" s="410">
         <v>43766</v>
       </c>
@@ -35046,7 +35170,7 @@
       <c r="E68" s="431"/>
     </row>
     <row r="69" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="470"/>
+      <c r="A69" s="474"/>
       <c r="B69" s="410">
         <v>43767</v>
       </c>
@@ -35055,7 +35179,7 @@
       <c r="E69" s="431"/>
     </row>
     <row r="70" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="470"/>
+      <c r="A70" s="474"/>
       <c r="B70" s="410">
         <v>43768</v>
       </c>
@@ -35064,7 +35188,7 @@
       <c r="E70" s="431"/>
     </row>
     <row r="71" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="470"/>
+      <c r="A71" s="474"/>
       <c r="B71" s="409">
         <v>43769</v>
       </c>
@@ -35073,7 +35197,7 @@
       <c r="E71" s="429"/>
     </row>
     <row r="72" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="470"/>
+      <c r="A72" s="474"/>
       <c r="B72" s="410">
         <v>43770</v>
       </c>
@@ -35082,7 +35206,7 @@
       <c r="E72" s="431"/>
     </row>
     <row r="73" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="470"/>
+      <c r="A73" s="474"/>
       <c r="B73" s="408">
         <v>43773</v>
       </c>
@@ -35091,7 +35215,7 @@
       <c r="E73" s="433"/>
     </row>
     <row r="74" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="470"/>
+      <c r="A74" s="474"/>
       <c r="B74" s="408">
         <v>43774</v>
       </c>
@@ -35100,7 +35224,7 @@
       <c r="E74" s="433"/>
     </row>
     <row r="75" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="470"/>
+      <c r="A75" s="474"/>
       <c r="B75" s="408">
         <v>43775</v>
       </c>
@@ -35109,7 +35233,7 @@
       <c r="E75" s="433"/>
     </row>
     <row r="76" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="470"/>
+      <c r="A76" s="474"/>
       <c r="B76" s="409">
         <v>43776</v>
       </c>
@@ -35118,7 +35242,7 @@
       <c r="E76" s="429"/>
     </row>
     <row r="77" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="470"/>
+      <c r="A77" s="474"/>
       <c r="B77" s="408">
         <v>43777</v>
       </c>
@@ -35127,7 +35251,7 @@
       <c r="E77" s="433"/>
     </row>
     <row r="78" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="470"/>
+      <c r="A78" s="474"/>
       <c r="B78" s="410">
         <v>43780</v>
       </c>
@@ -35136,7 +35260,7 @@
       <c r="E78" s="431"/>
     </row>
     <row r="79" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="470"/>
+      <c r="A79" s="474"/>
       <c r="B79" s="410">
         <v>43781</v>
       </c>
@@ -35145,7 +35269,7 @@
       <c r="E79" s="431"/>
     </row>
     <row r="80" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="470"/>
+      <c r="A80" s="474"/>
       <c r="B80" s="410">
         <v>43782</v>
       </c>
@@ -35154,7 +35278,7 @@
       <c r="E80" s="431"/>
     </row>
     <row r="81" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="470"/>
+      <c r="A81" s="474"/>
       <c r="B81" s="409">
         <v>43783</v>
       </c>
@@ -35163,7 +35287,7 @@
       <c r="E81" s="429"/>
     </row>
     <row r="82" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="470"/>
+      <c r="A82" s="474"/>
       <c r="B82" s="408">
         <v>43787</v>
       </c>
@@ -35172,7 +35296,7 @@
       <c r="E82" s="433"/>
     </row>
     <row r="83" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="470"/>
+      <c r="A83" s="474"/>
       <c r="B83" s="408">
         <v>43788</v>
       </c>
@@ -35181,7 +35305,7 @@
       <c r="E83" s="433"/>
     </row>
     <row r="84" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="470"/>
+      <c r="A84" s="474"/>
       <c r="B84" s="409">
         <v>43790</v>
       </c>
@@ -35190,7 +35314,7 @@
       <c r="E84" s="429"/>
     </row>
     <row r="85" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="470"/>
+      <c r="A85" s="474"/>
       <c r="B85" s="408">
         <v>43791</v>
       </c>
@@ -35199,7 +35323,7 @@
       <c r="E85" s="433"/>
     </row>
     <row r="86" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="470"/>
+      <c r="A86" s="474"/>
       <c r="B86" s="410">
         <v>43794</v>
       </c>
@@ -35208,7 +35332,7 @@
       <c r="E86" s="431"/>
     </row>
     <row r="87" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="470"/>
+      <c r="A87" s="474"/>
       <c r="B87" s="410">
         <v>43795</v>
       </c>
@@ -35217,7 +35341,7 @@
       <c r="E87" s="431"/>
     </row>
     <row r="88" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="470"/>
+      <c r="A88" s="474"/>
       <c r="B88" s="410">
         <v>43796</v>
       </c>
@@ -35226,7 +35350,7 @@
       <c r="E88" s="431"/>
     </row>
     <row r="89" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="471"/>
+      <c r="A89" s="475"/>
       <c r="B89" s="411">
         <v>43797</v>
       </c>
@@ -35235,7 +35359,7 @@
       <c r="E89" s="437"/>
     </row>
     <row r="90" spans="1:5" s="417" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="463" t="s">
+      <c r="A90" s="467" t="s">
         <v>146</v>
       </c>
       <c r="B90" s="412">
@@ -35246,7 +35370,7 @@
       <c r="E90" s="428"/>
     </row>
     <row r="91" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="464"/>
+      <c r="A91" s="468"/>
       <c r="B91" s="408">
         <v>43801</v>
       </c>
@@ -35255,7 +35379,7 @@
       <c r="E91" s="433"/>
     </row>
     <row r="92" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="464"/>
+      <c r="A92" s="468"/>
       <c r="B92" s="408">
         <v>43802</v>
       </c>
@@ -35264,7 +35388,7 @@
       <c r="E92" s="433"/>
     </row>
     <row r="93" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="464"/>
+      <c r="A93" s="468"/>
       <c r="B93" s="408">
         <v>43803</v>
       </c>
@@ -35273,7 +35397,7 @@
       <c r="E93" s="433"/>
     </row>
     <row r="94" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="464"/>
+      <c r="A94" s="468"/>
       <c r="B94" s="409">
         <v>43804</v>
       </c>
@@ -35282,7 +35406,7 @@
       <c r="E94" s="429"/>
     </row>
     <row r="95" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="464"/>
+      <c r="A95" s="468"/>
       <c r="B95" s="408">
         <v>43805</v>
       </c>
@@ -35291,7 +35415,7 @@
       <c r="E95" s="433"/>
     </row>
     <row r="96" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="464"/>
+      <c r="A96" s="468"/>
       <c r="B96" s="410">
         <v>43808</v>
       </c>
@@ -35300,7 +35424,7 @@
       <c r="E96" s="431"/>
     </row>
     <row r="97" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="464"/>
+      <c r="A97" s="468"/>
       <c r="B97" s="410">
         <v>43809</v>
       </c>
@@ -35309,7 +35433,7 @@
       <c r="E97" s="431"/>
     </row>
     <row r="98" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="464"/>
+      <c r="A98" s="468"/>
       <c r="B98" s="410">
         <v>43810</v>
       </c>
@@ -35318,7 +35442,7 @@
       <c r="E98" s="431"/>
     </row>
     <row r="99" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="465"/>
+      <c r="A99" s="469"/>
       <c r="B99" s="411">
         <v>43811</v>
       </c>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1461,17 +1461,9 @@
 Início - Conceitual - Lógico - Representação</t>
   </si>
   <si>
-    <t>Apresentação API
-JSON
-Projeto Senai.Psales.WebApi</t>
-  </si>
-  <si>
     <t>EstilosController - verbos - lista fixa
 EstiloDomain
 EstiloRepository - lista</t>
-  </si>
-  <si>
-    <t>Projeto Senai.Psales.WebApi</t>
   </si>
   <si>
     <t>EstilosController - verbos
@@ -1516,6 +1508,14 @@
   </si>
   <si>
     <t>ex.: Marvel</t>
+  </si>
+  <si>
+    <t>Apresentação API
+JSON
+Projeto Senai.Sstop.WebApi</t>
+  </si>
+  <si>
+    <t>Projeto Senai.Sstop.WebApi</t>
   </si>
 </sst>
 </file>
@@ -31966,9 +31966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY69"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34436,8 +34436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34681,10 +34681,10 @@
         <v>43696</v>
       </c>
       <c r="C20" s="427" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="442" t="s">
         <v>167</v>
-      </c>
-      <c r="D20" s="442" t="s">
-        <v>168</v>
       </c>
       <c r="E20" s="428"/>
     </row>
@@ -34694,10 +34694,10 @@
         <v>43697</v>
       </c>
       <c r="C21" s="440" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D21" s="430" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E21" s="441"/>
     </row>
@@ -34707,10 +34707,10 @@
         <v>43698</v>
       </c>
       <c r="C22" s="431" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D22" s="443" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E22" s="431"/>
     </row>
@@ -34730,7 +34730,7 @@
       </c>
       <c r="C24" s="431"/>
       <c r="D24" s="431" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E24" s="431"/>
     </row>
@@ -34740,10 +34740,10 @@
         <v>43703</v>
       </c>
       <c r="C25" s="432" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D25" s="432" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E25" s="433"/>
     </row>
@@ -34753,10 +34753,10 @@
         <v>43704</v>
       </c>
       <c r="C26" s="432" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D26" s="432" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E26" s="433"/>
     </row>
@@ -34766,10 +34766,10 @@
         <v>43705</v>
       </c>
       <c r="C27" s="433" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D27" s="432" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E27" s="433"/>
     </row>
@@ -34799,7 +34799,7 @@
         <v>43710</v>
       </c>
       <c r="C30" s="430" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D30" s="431"/>
       <c r="E30" s="431"/>
@@ -34811,7 +34811,7 @@
       </c>
       <c r="C31" s="431"/>
       <c r="D31" s="431" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E31" s="431"/>
     </row>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -1407,10 +1407,6 @@
     <t>Projeto</t>
   </si>
   <si>
-    <t>Início - DML
-exemplo-dml.sql</t>
-  </si>
-  <si>
     <t>Projeto - Gufos</t>
   </si>
   <si>
@@ -1516,6 +1512,11 @@
   </si>
   <si>
     <t>Projeto Senai.Sstop.WebApi</t>
+  </si>
+  <si>
+    <t>Início - DML
+exemplo-dml.sql
+exemplo-dql.sql</t>
   </si>
 </sst>
 </file>
@@ -3588,7 +3589,7 @@
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31966,9 +31967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY69"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ19" sqref="AJ19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34436,8 +34437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34459,10 +34460,10 @@
         <v>141</v>
       </c>
       <c r="D1" s="426" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="426" t="s">
         <v>157</v>
-      </c>
-      <c r="E1" s="426" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34473,7 +34474,7 @@
         <v>43670</v>
       </c>
       <c r="C2" s="427" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="428"/>
       <c r="E2" s="428"/>
@@ -34493,10 +34494,10 @@
         <v>43672</v>
       </c>
       <c r="C4" s="430" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="431" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="431"/>
     </row>
@@ -34532,10 +34533,10 @@
         <v>43677</v>
       </c>
       <c r="C7" s="432" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="432" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" s="433"/>
     </row>
@@ -34559,16 +34560,16 @@
       <c r="D9" s="433"/>
       <c r="E9" s="433"/>
     </row>
-    <row r="10" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="419" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="471"/>
       <c r="B10" s="399">
         <v>43682</v>
       </c>
       <c r="C10" s="430" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="D10" s="430" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" s="431"/>
     </row>
@@ -34578,10 +34579,10 @@
         <v>43683</v>
       </c>
       <c r="C11" s="431" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="431" t="s">
         <v>154</v>
-      </c>
-      <c r="D11" s="431" t="s">
-        <v>155</v>
       </c>
       <c r="E11" s="431"/>
     </row>
@@ -34591,10 +34592,10 @@
         <v>43684</v>
       </c>
       <c r="C12" s="431" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="431" t="s">
         <v>154</v>
-      </c>
-      <c r="D12" s="431" t="s">
-        <v>155</v>
       </c>
       <c r="E12" s="431"/>
     </row>
@@ -34613,7 +34614,7 @@
         <v>43686</v>
       </c>
       <c r="C14" s="431" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="431"/>
       <c r="E14" s="431"/>
@@ -34628,7 +34629,7 @@
       </c>
       <c r="D15" s="433"/>
       <c r="E15" s="433" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
@@ -34681,10 +34682,10 @@
         <v>43696</v>
       </c>
       <c r="C20" s="427" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" s="442" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20" s="428"/>
     </row>
@@ -34694,10 +34695,10 @@
         <v>43697</v>
       </c>
       <c r="C21" s="440" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" s="430" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E21" s="441"/>
     </row>
@@ -34707,10 +34708,10 @@
         <v>43698</v>
       </c>
       <c r="C22" s="431" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="443" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22" s="431"/>
     </row>
@@ -34730,7 +34731,7 @@
       </c>
       <c r="C24" s="431"/>
       <c r="D24" s="431" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E24" s="431"/>
     </row>
@@ -34740,10 +34741,10 @@
         <v>43703</v>
       </c>
       <c r="C25" s="432" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="432" t="s">
         <v>171</v>
-      </c>
-      <c r="D25" s="432" t="s">
-        <v>172</v>
       </c>
       <c r="E25" s="433"/>
     </row>
@@ -34753,10 +34754,10 @@
         <v>43704</v>
       </c>
       <c r="C26" s="432" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" s="432" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E26" s="433"/>
     </row>
@@ -34766,10 +34767,10 @@
         <v>43705</v>
       </c>
       <c r="C27" s="433" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="432" t="s">
         <v>174</v>
-      </c>
-      <c r="D27" s="432" t="s">
-        <v>175</v>
       </c>
       <c r="E27" s="433"/>
     </row>
@@ -34788,7 +34789,7 @@
         <v>43707</v>
       </c>
       <c r="C29" s="433" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" s="433"/>
       <c r="E29" s="433"/>
@@ -34799,7 +34800,7 @@
         <v>43710</v>
       </c>
       <c r="C30" s="430" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D30" s="431"/>
       <c r="E30" s="431"/>
@@ -34811,7 +34812,7 @@
       </c>
       <c r="C31" s="431"/>
       <c r="D31" s="431" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="431"/>
     </row>
@@ -34838,7 +34839,7 @@
         <v>43714</v>
       </c>
       <c r="C34" s="431" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" s="431"/>
       <c r="E34" s="431"/>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -31969,7 +31969,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3:O15"/>
+      <selection pane="topRight" activeCell="BY58" sqref="BY58:CJ58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34437,8 +34437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1491,14 +1491,6 @@
     <t>JWT</t>
   </si>
   <si>
-    <t>Usuários
-Swagger</t>
-  </si>
-  <si>
-    <t>Eventos
-JWT</t>
-  </si>
-  <si>
     <t>Gufos - Convites
 CORS</t>
   </si>
@@ -1517,6 +1509,14 @@
     <t>Início - DML
 exemplo-dml.sql
 exemplo-dql.sql</t>
+  </si>
+  <si>
+    <t>Eventos
+Usuários</t>
+  </si>
+  <si>
+    <t>JWT
+Swagger</t>
   </si>
 </sst>
 </file>
@@ -34437,8 +34437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34566,7 +34566,7 @@
         <v>43682</v>
       </c>
       <c r="C10" s="430" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10" s="430" t="s">
         <v>162</v>
@@ -34682,7 +34682,7 @@
         <v>43696</v>
       </c>
       <c r="C20" s="427" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D20" s="442" t="s">
         <v>166</v>
@@ -34695,7 +34695,7 @@
         <v>43697</v>
       </c>
       <c r="C21" s="440" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D21" s="430" t="s">
         <v>167</v>
@@ -34708,7 +34708,7 @@
         <v>43698</v>
       </c>
       <c r="C22" s="431" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D22" s="443" t="s">
         <v>169</v>
@@ -34757,7 +34757,7 @@
         <v>172</v>
       </c>
       <c r="D26" s="432" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E26" s="433"/>
     </row>
@@ -34770,7 +34770,7 @@
         <v>173</v>
       </c>
       <c r="D27" s="432" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E27" s="433"/>
     </row>
@@ -34800,7 +34800,7 @@
         <v>43710</v>
       </c>
       <c r="C30" s="430" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D30" s="431"/>
       <c r="E30" s="431"/>
@@ -34812,7 +34812,7 @@
       </c>
       <c r="C31" s="431"/>
       <c r="D31" s="431" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E31" s="431"/>
     </row>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="183">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1491,13 +1491,6 @@
     <t>JWT</t>
   </si>
   <si>
-    <t>Gufos - Convites
-CORS</t>
-  </si>
-  <si>
-    <t>ex.: Marvel</t>
-  </si>
-  <si>
     <t>Apresentação API
 JSON
 Projeto Senai.Sstop.WebApi</t>
@@ -1517,6 +1510,20 @@
   <si>
     <t>JWT
 Swagger</t>
+  </si>
+  <si>
+    <t>ex.: Livros</t>
+  </si>
+  <si>
+    <t>Interfaces
+Presenças
+CORS</t>
+  </si>
+  <si>
+    <t>ex.: Pclinics (SqlClient) - EFCore</t>
+  </si>
+  <si>
+    <t>EFCore ou SqlClient - Opcional</t>
   </si>
 </sst>
 </file>
@@ -31967,9 +31974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BY58" sqref="BY58:CJ58"/>
+    <sheetView topLeftCell="A5" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH25" sqref="AH25:AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34437,8 +34444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34566,7 +34573,7 @@
         <v>43682</v>
       </c>
       <c r="C10" s="430" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D10" s="430" t="s">
         <v>162</v>
@@ -34682,7 +34689,7 @@
         <v>43696</v>
       </c>
       <c r="C20" s="427" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D20" s="442" t="s">
         <v>166</v>
@@ -34695,7 +34702,7 @@
         <v>43697</v>
       </c>
       <c r="C21" s="440" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21" s="430" t="s">
         <v>167</v>
@@ -34708,7 +34715,7 @@
         <v>43698</v>
       </c>
       <c r="C22" s="431" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" s="443" t="s">
         <v>169</v>
@@ -34731,7 +34738,7 @@
       </c>
       <c r="C24" s="431"/>
       <c r="D24" s="431" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E24" s="431"/>
     </row>
@@ -34757,7 +34764,7 @@
         <v>172</v>
       </c>
       <c r="D26" s="432" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E26" s="433"/>
     </row>
@@ -34770,7 +34777,7 @@
         <v>173</v>
       </c>
       <c r="D27" s="432" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E27" s="433"/>
     </row>
@@ -34788,19 +34795,19 @@
       <c r="B29" s="405">
         <v>43707</v>
       </c>
-      <c r="C29" s="433" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="433"/>
+      <c r="C29" s="433"/>
+      <c r="D29" s="433" t="s">
+        <v>168</v>
+      </c>
       <c r="E29" s="433"/>
     </row>
-    <row r="30" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="468"/>
       <c r="B30" s="403">
         <v>43710</v>
       </c>
       <c r="C30" s="430" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D30" s="431"/>
       <c r="E30" s="431"/>
@@ -34812,7 +34819,7 @@
       </c>
       <c r="C31" s="431"/>
       <c r="D31" s="431" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E31" s="431"/>
     </row>
@@ -34821,7 +34828,12 @@
       <c r="B32" s="403">
         <v>43712</v>
       </c>
-      <c r="D32" s="431"/>
+      <c r="C32" s="431" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="431" t="s">
+        <v>182</v>
+      </c>
       <c r="E32" s="431"/>
     </row>
     <row r="33" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
@@ -34839,7 +34851,7 @@
         <v>43714</v>
       </c>
       <c r="C34" s="431" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D34" s="431"/>
       <c r="E34" s="431"/>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="204">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1401,9 +1401,6 @@
     <t>ex: PClinics, Locadora, E-Commerce</t>
   </si>
   <si>
-    <t>Desafio Ssolve - Documentação + Modelagem + DDL</t>
-  </si>
-  <si>
     <t>Projeto</t>
   </si>
   <si>
@@ -1411,9 +1408,6 @@
   </si>
   <si>
     <t>Modelagem - DDL - DML - DQL - Documentação</t>
-  </si>
-  <si>
-    <t>Desafio HRoads</t>
   </si>
   <si>
     <t>Exercícios</t>
@@ -1524,6 +1518,88 @@
   </si>
   <si>
     <t>EFCore ou SqlClient - Opcional</t>
+  </si>
+  <si>
+    <t>Gufos - DOM - Arrays, Funções, Map, Filter, Reduce</t>
+  </si>
+  <si>
+    <t>Início - Gufos - API
+TiposEventos - XMLHttpRequest, Fetch</t>
+  </si>
+  <si>
+    <t>ex.: ex1</t>
+  </si>
+  <si>
+    <t>ex.: ex2</t>
+  </si>
+  <si>
+    <t>ex.: ex3</t>
+  </si>
+  <si>
+    <t>Desafio Hroads</t>
+  </si>
+  <si>
+    <t>Desafio Ssolve</t>
+  </si>
+  <si>
+    <t>Apresenação JavaScript
+Início - gufos.js
+categorias.html (DOM, Id, Class, Function)</t>
+  </si>
+  <si>
+    <t>Apresentação - Mobile
+Comparação - Híbridos, Nativos
+Configuração/Instalação
+Introdução React Native</t>
+  </si>
+  <si>
+    <t>Lista de Eventos</t>
+  </si>
+  <si>
+    <t>Adicionar Exercício</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>SplashScreen</t>
+  </si>
+  <si>
+    <t>Lista de Eventos + Filtro</t>
+  </si>
+  <si>
+    <t>Desafio</t>
+  </si>
+  <si>
+    <t>Apresentação BD's Não Relacionais
+Introdução MongoDB</t>
+  </si>
+  <si>
+    <t>MongoDB - CRUD</t>
+  </si>
+  <si>
+    <t>Interação - BackEnd/MongoDB</t>
+  </si>
+  <si>
+    <t>Introdução - Frameworks FrontEnd
+Introdução - React
+React - Base</t>
+  </si>
+  <si>
+    <t>React
+Login</t>
+  </si>
+  <si>
+    <t>React
+Eventos</t>
+  </si>
+  <si>
+    <t>React
+Categorias
+Componentes</t>
   </si>
 </sst>
 </file>
@@ -2557,7 +2633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="476">
+  <cellXfs count="477">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3274,6 +3350,9 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3815,9 +3894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BL65" sqref="BL65"/>
+    <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ68" sqref="BQ68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31974,9 +32053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY69"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH25" sqref="AH25:AH29"/>
+    <sheetView topLeftCell="A14" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CQ67" sqref="CQ67:CT67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33691,7 +33770,6 @@
       <c r="AQ45" s="347"/>
       <c r="AV45" s="347"/>
       <c r="BA45" s="347"/>
-      <c r="BD45" s="389"/>
       <c r="BE45" s="389"/>
       <c r="BF45" s="347"/>
       <c r="BG45" s="389"/>
@@ -34444,8 +34522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34467,10 +34545,10 @@
         <v>141</v>
       </c>
       <c r="D1" s="426" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E1" s="426" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34481,7 +34559,7 @@
         <v>43670</v>
       </c>
       <c r="C2" s="427" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="428"/>
       <c r="E2" s="428"/>
@@ -34501,10 +34579,10 @@
         <v>43672</v>
       </c>
       <c r="C4" s="430" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D4" s="431" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E4" s="431"/>
     </row>
@@ -34540,10 +34618,10 @@
         <v>43677</v>
       </c>
       <c r="C7" s="432" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D7" s="432" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" s="433"/>
     </row>
@@ -34556,15 +34634,17 @@
       <c r="D8" s="429"/>
       <c r="E8" s="429"/>
     </row>
-    <row r="9" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="471"/>
       <c r="B9" s="400">
         <v>43679</v>
       </c>
-      <c r="C9" s="433" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="433"/>
+      <c r="C9" s="432" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="432" t="s">
+        <v>160</v>
+      </c>
       <c r="E9" s="433"/>
     </row>
     <row r="10" spans="1:5" s="419" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -34573,10 +34653,10 @@
         <v>43682</v>
       </c>
       <c r="C10" s="430" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="430" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E10" s="431"/>
     </row>
@@ -34586,10 +34666,10 @@
         <v>43683</v>
       </c>
       <c r="C11" s="431" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="431" t="s">
         <v>153</v>
-      </c>
-      <c r="D11" s="431" t="s">
-        <v>154</v>
       </c>
       <c r="E11" s="431"/>
     </row>
@@ -34599,10 +34679,10 @@
         <v>43684</v>
       </c>
       <c r="C12" s="431" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="431" t="s">
         <v>153</v>
-      </c>
-      <c r="D12" s="431" t="s">
-        <v>154</v>
       </c>
       <c r="E12" s="431"/>
     </row>
@@ -34621,9 +34701,11 @@
         <v>43686</v>
       </c>
       <c r="C14" s="431" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="431"/>
+        <v>186</v>
+      </c>
+      <c r="D14" s="431" t="s">
+        <v>187</v>
+      </c>
       <c r="E14" s="431"/>
     </row>
     <row r="15" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
@@ -34632,11 +34714,11 @@
         <v>43689</v>
       </c>
       <c r="C15" s="433" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D15" s="433"/>
       <c r="E15" s="433" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
@@ -34645,7 +34727,7 @@
         <v>43690</v>
       </c>
       <c r="C16" s="433" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D16" s="433"/>
       <c r="E16" s="433"/>
@@ -34656,7 +34738,7 @@
         <v>43691</v>
       </c>
       <c r="C17" s="433" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="433"/>
       <c r="E17" s="433"/>
@@ -34676,7 +34758,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="433" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" s="434"/>
       <c r="E19" s="434"/>
@@ -34689,10 +34771,10 @@
         <v>43696</v>
       </c>
       <c r="C20" s="427" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D20" s="442" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E20" s="428"/>
     </row>
@@ -34702,10 +34784,10 @@
         <v>43697</v>
       </c>
       <c r="C21" s="440" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D21" s="430" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E21" s="441"/>
     </row>
@@ -34715,10 +34797,10 @@
         <v>43698</v>
       </c>
       <c r="C22" s="431" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D22" s="443" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E22" s="431"/>
     </row>
@@ -34738,7 +34820,7 @@
       </c>
       <c r="C24" s="431"/>
       <c r="D24" s="431" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E24" s="431"/>
     </row>
@@ -34748,10 +34830,10 @@
         <v>43703</v>
       </c>
       <c r="C25" s="432" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D25" s="432" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E25" s="433"/>
     </row>
@@ -34761,10 +34843,10 @@
         <v>43704</v>
       </c>
       <c r="C26" s="432" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D26" s="432" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E26" s="433"/>
     </row>
@@ -34774,10 +34856,10 @@
         <v>43705</v>
       </c>
       <c r="C27" s="433" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D27" s="432" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E27" s="433"/>
     </row>
@@ -34797,7 +34879,7 @@
       </c>
       <c r="C29" s="433"/>
       <c r="D29" s="433" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E29" s="433"/>
     </row>
@@ -34807,7 +34889,7 @@
         <v>43710</v>
       </c>
       <c r="C30" s="430" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D30" s="431"/>
       <c r="E30" s="431"/>
@@ -34819,7 +34901,7 @@
       </c>
       <c r="C31" s="431"/>
       <c r="D31" s="431" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E31" s="431"/>
     </row>
@@ -34829,10 +34911,10 @@
         <v>43712</v>
       </c>
       <c r="C32" s="431" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D32" s="431" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E32" s="431"/>
     </row>
@@ -34851,7 +34933,7 @@
         <v>43714</v>
       </c>
       <c r="C34" s="431" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" s="431"/>
       <c r="E34" s="431"/>
@@ -34862,7 +34944,7 @@
         <v>43717</v>
       </c>
       <c r="C35" s="433" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D35" s="433"/>
       <c r="E35" s="433"/>
@@ -34873,7 +34955,7 @@
         <v>43718</v>
       </c>
       <c r="C36" s="433" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D36" s="433"/>
       <c r="E36" s="433"/>
@@ -34884,7 +34966,7 @@
         <v>43719</v>
       </c>
       <c r="C37" s="433" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D37" s="433"/>
       <c r="E37" s="433"/>
@@ -34904,7 +34986,7 @@
         <v>43721</v>
       </c>
       <c r="C39" s="433" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39" s="433"/>
       <c r="E39" s="433"/>
@@ -34915,7 +34997,7 @@
         <v>43724</v>
       </c>
       <c r="C40" s="431" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40" s="431"/>
       <c r="E40" s="431"/>
@@ -34926,7 +35008,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="431" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D41" s="431"/>
       <c r="E41" s="431"/>
@@ -34937,7 +35019,7 @@
         <v>43726</v>
       </c>
       <c r="C42" s="431" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="431"/>
       <c r="E42" s="431"/>
@@ -34957,20 +35039,24 @@
         <v>43728</v>
       </c>
       <c r="C44" s="435" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D44" s="435"/>
       <c r="E44" s="435"/>
     </row>
-    <row r="45" spans="1:5" s="423" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="423" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="473" t="s">
         <v>144</v>
       </c>
       <c r="B45" s="407">
         <v>43731</v>
       </c>
-      <c r="C45" s="436"/>
-      <c r="D45" s="436"/>
+      <c r="C45" s="476" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="433" t="s">
+        <v>183</v>
+      </c>
       <c r="E45" s="436"/>
     </row>
     <row r="46" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
@@ -34978,17 +35064,25 @@
       <c r="B46" s="408">
         <v>43732</v>
       </c>
-      <c r="C46" s="433"/>
-      <c r="D46" s="433"/>
+      <c r="C46" s="433" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="433" t="s">
+        <v>184</v>
+      </c>
       <c r="E46" s="433"/>
     </row>
-    <row r="47" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="474"/>
       <c r="B47" s="408">
         <v>43733</v>
       </c>
-      <c r="C47" s="433"/>
-      <c r="D47" s="433"/>
+      <c r="C47" s="432" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="433" t="s">
+        <v>185</v>
+      </c>
       <c r="E47" s="433"/>
     </row>
     <row r="48" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
@@ -35000,30 +35094,36 @@
       <c r="D48" s="429"/>
       <c r="E48" s="429"/>
     </row>
-    <row r="49" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="474"/>
       <c r="B49" s="408">
         <v>43735</v>
       </c>
-      <c r="C49" s="433"/>
+      <c r="C49" s="432" t="s">
+        <v>200</v>
+      </c>
       <c r="D49" s="433"/>
       <c r="E49" s="433"/>
     </row>
-    <row r="50" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="474"/>
       <c r="B50" s="410">
         <v>43738</v>
       </c>
-      <c r="C50" s="431"/>
+      <c r="C50" s="430" t="s">
+        <v>203</v>
+      </c>
       <c r="D50" s="431"/>
       <c r="E50" s="431"/>
     </row>
-    <row r="51" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="474"/>
       <c r="B51" s="410">
         <v>43739</v>
       </c>
-      <c r="C51" s="431"/>
+      <c r="C51" s="430" t="s">
+        <v>201</v>
+      </c>
       <c r="D51" s="431"/>
       <c r="E51" s="431"/>
     </row>
@@ -35032,7 +35132,9 @@
       <c r="B52" s="410">
         <v>43740</v>
       </c>
-      <c r="C52" s="431"/>
+      <c r="C52" s="431" t="s">
+        <v>196</v>
+      </c>
       <c r="D52" s="431"/>
       <c r="E52" s="431"/>
     </row>
@@ -35045,12 +35147,14 @@
       <c r="D53" s="429"/>
       <c r="E53" s="429"/>
     </row>
-    <row r="54" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="474"/>
       <c r="B54" s="410">
         <v>43742</v>
       </c>
-      <c r="C54" s="431"/>
+      <c r="C54" s="430" t="s">
+        <v>202</v>
+      </c>
       <c r="D54" s="431"/>
       <c r="E54" s="431"/>
     </row>
@@ -35059,7 +35163,9 @@
       <c r="B55" s="408">
         <v>43745</v>
       </c>
-      <c r="C55" s="433"/>
+      <c r="C55" s="433" t="s">
+        <v>196</v>
+      </c>
       <c r="D55" s="433"/>
       <c r="E55" s="433"/>
     </row>
@@ -35068,7 +35174,9 @@
       <c r="B56" s="408">
         <v>43746</v>
       </c>
-      <c r="C56" s="433"/>
+      <c r="C56" s="433" t="s">
+        <v>151</v>
+      </c>
       <c r="D56" s="433"/>
       <c r="E56" s="433"/>
     </row>
@@ -35077,7 +35185,9 @@
       <c r="B57" s="408">
         <v>43747</v>
       </c>
-      <c r="C57" s="433"/>
+      <c r="C57" s="433" t="s">
+        <v>151</v>
+      </c>
       <c r="D57" s="433"/>
       <c r="E57" s="433"/>
     </row>
@@ -35095,7 +35205,9 @@
       <c r="B59" s="408">
         <v>43749</v>
       </c>
-      <c r="C59" s="433"/>
+      <c r="C59" s="433" t="s">
+        <v>151</v>
+      </c>
       <c r="D59" s="433"/>
       <c r="E59" s="433"/>
     </row>
@@ -35104,7 +35216,9 @@
       <c r="B60" s="410">
         <v>43754</v>
       </c>
-      <c r="C60" s="431"/>
+      <c r="C60" s="431" t="s">
+        <v>151</v>
+      </c>
       <c r="D60" s="431"/>
       <c r="E60" s="431"/>
     </row>
@@ -35122,7 +35236,9 @@
       <c r="B62" s="410">
         <v>43756</v>
       </c>
-      <c r="C62" s="431"/>
+      <c r="C62" s="431" t="s">
+        <v>151</v>
+      </c>
       <c r="D62" s="431"/>
       <c r="E62" s="431"/>
     </row>
@@ -35131,7 +35247,9 @@
       <c r="B63" s="408">
         <v>43759</v>
       </c>
-      <c r="C63" s="433"/>
+      <c r="C63" s="433" t="s">
+        <v>151</v>
+      </c>
       <c r="D63" s="433"/>
       <c r="E63" s="433"/>
     </row>
@@ -35140,7 +35258,9 @@
       <c r="B64" s="408">
         <v>43760</v>
       </c>
-      <c r="C64" s="433"/>
+      <c r="C64" s="433" t="s">
+        <v>151</v>
+      </c>
       <c r="D64" s="433"/>
       <c r="E64" s="433"/>
     </row>
@@ -35149,7 +35269,9 @@
       <c r="B65" s="408">
         <v>43761</v>
       </c>
-      <c r="C65" s="433"/>
+      <c r="C65" s="433" t="s">
+        <v>151</v>
+      </c>
       <c r="D65" s="433"/>
       <c r="E65" s="433"/>
     </row>
@@ -35162,14 +35284,16 @@
       <c r="D66" s="437"/>
       <c r="E66" s="437"/>
     </row>
-    <row r="67" spans="1:5" s="423" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="423" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="473" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="407">
         <v>43763</v>
       </c>
-      <c r="C67" s="436"/>
+      <c r="C67" s="476" t="s">
+        <v>189</v>
+      </c>
       <c r="D67" s="436"/>
       <c r="E67" s="436"/>
     </row>
@@ -35178,8 +35302,12 @@
       <c r="B68" s="410">
         <v>43766</v>
       </c>
-      <c r="C68" s="431"/>
-      <c r="D68" s="431"/>
+      <c r="C68" s="431" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="431" t="s">
+        <v>191</v>
+      </c>
       <c r="E68" s="431"/>
     </row>
     <row r="69" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
@@ -35187,8 +35315,12 @@
       <c r="B69" s="410">
         <v>43767</v>
       </c>
-      <c r="C69" s="431"/>
-      <c r="D69" s="431"/>
+      <c r="C69" s="431" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="431" t="s">
+        <v>191</v>
+      </c>
       <c r="E69" s="431"/>
     </row>
     <row r="70" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
@@ -35196,8 +35328,12 @@
       <c r="B70" s="410">
         <v>43768</v>
       </c>
-      <c r="C70" s="431"/>
-      <c r="D70" s="431"/>
+      <c r="C70" s="430" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" s="431" t="s">
+        <v>191</v>
+      </c>
       <c r="E70" s="431"/>
     </row>
     <row r="71" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
@@ -35214,7 +35350,9 @@
       <c r="B72" s="410">
         <v>43770</v>
       </c>
-      <c r="C72" s="431"/>
+      <c r="C72" s="431" t="s">
+        <v>196</v>
+      </c>
       <c r="D72" s="431"/>
       <c r="E72" s="431"/>
     </row>
@@ -35223,8 +35361,12 @@
       <c r="B73" s="408">
         <v>43773</v>
       </c>
-      <c r="C73" s="433"/>
-      <c r="D73" s="433"/>
+      <c r="C73" s="433" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" s="433" t="s">
+        <v>191</v>
+      </c>
       <c r="E73" s="433"/>
     </row>
     <row r="74" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
@@ -35232,8 +35374,12 @@
       <c r="B74" s="408">
         <v>43774</v>
       </c>
-      <c r="C74" s="433"/>
-      <c r="D74" s="433"/>
+      <c r="C74" s="433" t="s">
+        <v>194</v>
+      </c>
+      <c r="D74" s="433" t="s">
+        <v>191</v>
+      </c>
       <c r="E74" s="433"/>
     </row>
     <row r="75" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
@@ -35241,7 +35387,9 @@
       <c r="B75" s="408">
         <v>43775</v>
       </c>
-      <c r="C75" s="433"/>
+      <c r="C75" s="433" t="s">
+        <v>196</v>
+      </c>
       <c r="D75" s="433"/>
       <c r="E75" s="433"/>
     </row>
@@ -35259,7 +35407,9 @@
       <c r="B77" s="408">
         <v>43777</v>
       </c>
-      <c r="C77" s="433"/>
+      <c r="C77" s="433" t="s">
+        <v>151</v>
+      </c>
       <c r="D77" s="433"/>
       <c r="E77" s="433"/>
     </row>
@@ -35268,7 +35418,9 @@
       <c r="B78" s="410">
         <v>43780</v>
       </c>
-      <c r="C78" s="431"/>
+      <c r="C78" s="431" t="s">
+        <v>151</v>
+      </c>
       <c r="D78" s="431"/>
       <c r="E78" s="431"/>
     </row>
@@ -35277,7 +35429,9 @@
       <c r="B79" s="410">
         <v>43781</v>
       </c>
-      <c r="C79" s="431"/>
+      <c r="C79" s="431" t="s">
+        <v>151</v>
+      </c>
       <c r="D79" s="431"/>
       <c r="E79" s="431"/>
     </row>
@@ -35286,7 +35440,9 @@
       <c r="B80" s="410">
         <v>43782</v>
       </c>
-      <c r="C80" s="431"/>
+      <c r="C80" s="431" t="s">
+        <v>151</v>
+      </c>
       <c r="D80" s="431"/>
       <c r="E80" s="431"/>
     </row>
@@ -35304,7 +35460,9 @@
       <c r="B82" s="408">
         <v>43787</v>
       </c>
-      <c r="C82" s="433"/>
+      <c r="C82" s="433" t="s">
+        <v>151</v>
+      </c>
       <c r="D82" s="433"/>
       <c r="E82" s="433"/>
     </row>
@@ -35313,7 +35471,9 @@
       <c r="B83" s="408">
         <v>43788</v>
       </c>
-      <c r="C83" s="433"/>
+      <c r="C83" s="433" t="s">
+        <v>151</v>
+      </c>
       <c r="D83" s="433"/>
       <c r="E83" s="433"/>
     </row>
@@ -35331,7 +35491,9 @@
       <c r="B85" s="408">
         <v>43791</v>
       </c>
-      <c r="C85" s="433"/>
+      <c r="C85" s="433" t="s">
+        <v>151</v>
+      </c>
       <c r="D85" s="433"/>
       <c r="E85" s="433"/>
     </row>
@@ -35340,7 +35502,9 @@
       <c r="B86" s="410">
         <v>43794</v>
       </c>
-      <c r="C86" s="431"/>
+      <c r="C86" s="431" t="s">
+        <v>151</v>
+      </c>
       <c r="D86" s="431"/>
       <c r="E86" s="431"/>
     </row>
@@ -35349,7 +35513,9 @@
       <c r="B87" s="410">
         <v>43795</v>
       </c>
-      <c r="C87" s="431"/>
+      <c r="C87" s="431" t="s">
+        <v>151</v>
+      </c>
       <c r="D87" s="431"/>
       <c r="E87" s="431"/>
     </row>
@@ -35358,7 +35524,9 @@
       <c r="B88" s="410">
         <v>43796</v>
       </c>
-      <c r="C88" s="431"/>
+      <c r="C88" s="431" t="s">
+        <v>151</v>
+      </c>
       <c r="D88" s="431"/>
       <c r="E88" s="431"/>
     </row>
@@ -35371,14 +35539,16 @@
       <c r="D89" s="437"/>
       <c r="E89" s="437"/>
     </row>
-    <row r="90" spans="1:5" s="417" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" s="417" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="467" t="s">
         <v>146</v>
       </c>
       <c r="B90" s="412">
         <v>43798</v>
       </c>
-      <c r="C90" s="428"/>
+      <c r="C90" s="427" t="s">
+        <v>197</v>
+      </c>
       <c r="D90" s="428"/>
       <c r="E90" s="428"/>
     </row>
@@ -35387,7 +35557,9 @@
       <c r="B91" s="408">
         <v>43801</v>
       </c>
-      <c r="C91" s="433"/>
+      <c r="C91" s="433" t="s">
+        <v>198</v>
+      </c>
       <c r="D91" s="433"/>
       <c r="E91" s="433"/>
     </row>
@@ -35396,7 +35568,9 @@
       <c r="B92" s="408">
         <v>43802</v>
       </c>
-      <c r="C92" s="433"/>
+      <c r="C92" s="433" t="s">
+        <v>198</v>
+      </c>
       <c r="D92" s="433"/>
       <c r="E92" s="433"/>
     </row>
@@ -35405,7 +35579,9 @@
       <c r="B93" s="408">
         <v>43803</v>
       </c>
-      <c r="C93" s="433"/>
+      <c r="C93" s="433" t="s">
+        <v>199</v>
+      </c>
       <c r="D93" s="433"/>
       <c r="E93" s="433"/>
     </row>
@@ -35423,7 +35599,9 @@
       <c r="B95" s="408">
         <v>43805</v>
       </c>
-      <c r="C95" s="433"/>
+      <c r="C95" s="433" t="s">
+        <v>151</v>
+      </c>
       <c r="D95" s="433"/>
       <c r="E95" s="433"/>
     </row>
@@ -35432,7 +35610,9 @@
       <c r="B96" s="410">
         <v>43808</v>
       </c>
-      <c r="C96" s="431"/>
+      <c r="C96" s="431" t="s">
+        <v>151</v>
+      </c>
       <c r="D96" s="431"/>
       <c r="E96" s="431"/>
     </row>
@@ -35441,7 +35621,9 @@
       <c r="B97" s="410">
         <v>43809</v>
       </c>
-      <c r="C97" s="431"/>
+      <c r="C97" s="431" t="s">
+        <v>151</v>
+      </c>
       <c r="D97" s="431"/>
       <c r="E97" s="431"/>
     </row>
@@ -35450,7 +35632,9 @@
       <c r="B98" s="410">
         <v>43810</v>
       </c>
-      <c r="C98" s="431"/>
+      <c r="C98" s="431" t="s">
+        <v>151</v>
+      </c>
       <c r="D98" s="431"/>
       <c r="E98" s="431"/>
     </row>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="206">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1600,6 +1600,12 @@
     <t>React
 Categorias
 Componentes</t>
+  </si>
+  <si>
+    <t>Desafio - Roman</t>
+  </si>
+  <si>
+    <t>Desafio - Personagens</t>
   </si>
 </sst>
 </file>
@@ -3254,6 +3260,9 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3349,9 +3358,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3939,123 +3945,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="446" t="s">
+      <c r="B1" s="447" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="447"/>
-      <c r="D1" s="447"/>
-      <c r="E1" s="447"/>
-      <c r="F1" s="447"/>
-      <c r="G1" s="447"/>
-      <c r="H1" s="447"/>
-      <c r="I1" s="447"/>
-      <c r="J1" s="447"/>
-      <c r="K1" s="447"/>
-      <c r="L1" s="447"/>
-      <c r="M1" s="447"/>
-      <c r="N1" s="447"/>
-      <c r="O1" s="447"/>
-      <c r="P1" s="447"/>
-      <c r="Q1" s="447"/>
-      <c r="R1" s="446" t="s">
+      <c r="C1" s="448"/>
+      <c r="D1" s="448"/>
+      <c r="E1" s="448"/>
+      <c r="F1" s="448"/>
+      <c r="G1" s="448"/>
+      <c r="H1" s="448"/>
+      <c r="I1" s="448"/>
+      <c r="J1" s="448"/>
+      <c r="K1" s="448"/>
+      <c r="L1" s="448"/>
+      <c r="M1" s="448"/>
+      <c r="N1" s="448"/>
+      <c r="O1" s="448"/>
+      <c r="P1" s="448"/>
+      <c r="Q1" s="448"/>
+      <c r="R1" s="447" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="447"/>
-      <c r="T1" s="447"/>
-      <c r="U1" s="447"/>
-      <c r="V1" s="447"/>
-      <c r="W1" s="447"/>
-      <c r="X1" s="447"/>
-      <c r="Y1" s="447"/>
-      <c r="Z1" s="447"/>
-      <c r="AA1" s="447"/>
-      <c r="AB1" s="447"/>
-      <c r="AC1" s="447"/>
-      <c r="AD1" s="447"/>
-      <c r="AE1" s="447"/>
-      <c r="AF1" s="447"/>
-      <c r="AG1" s="447"/>
-      <c r="AH1" s="447"/>
-      <c r="AI1" s="447"/>
-      <c r="AJ1" s="447"/>
-      <c r="AK1" s="447"/>
-      <c r="AL1" s="447"/>
-      <c r="AM1" s="448"/>
-      <c r="AN1" s="446" t="s">
+      <c r="S1" s="448"/>
+      <c r="T1" s="448"/>
+      <c r="U1" s="448"/>
+      <c r="V1" s="448"/>
+      <c r="W1" s="448"/>
+      <c r="X1" s="448"/>
+      <c r="Y1" s="448"/>
+      <c r="Z1" s="448"/>
+      <c r="AA1" s="448"/>
+      <c r="AB1" s="448"/>
+      <c r="AC1" s="448"/>
+      <c r="AD1" s="448"/>
+      <c r="AE1" s="448"/>
+      <c r="AF1" s="448"/>
+      <c r="AG1" s="448"/>
+      <c r="AH1" s="448"/>
+      <c r="AI1" s="448"/>
+      <c r="AJ1" s="448"/>
+      <c r="AK1" s="448"/>
+      <c r="AL1" s="448"/>
+      <c r="AM1" s="449"/>
+      <c r="AN1" s="447" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="447"/>
-      <c r="AP1" s="447"/>
-      <c r="AQ1" s="447"/>
-      <c r="AR1" s="447"/>
-      <c r="AS1" s="447"/>
-      <c r="AT1" s="448"/>
-      <c r="AU1" s="446" t="s">
+      <c r="AO1" s="448"/>
+      <c r="AP1" s="448"/>
+      <c r="AQ1" s="448"/>
+      <c r="AR1" s="448"/>
+      <c r="AS1" s="448"/>
+      <c r="AT1" s="449"/>
+      <c r="AU1" s="447" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="447"/>
-      <c r="AW1" s="447"/>
-      <c r="AX1" s="447"/>
-      <c r="AY1" s="447"/>
-      <c r="AZ1" s="447"/>
-      <c r="BA1" s="447"/>
-      <c r="BB1" s="447"/>
-      <c r="BC1" s="447"/>
-      <c r="BD1" s="447"/>
-      <c r="BE1" s="447"/>
-      <c r="BF1" s="447"/>
-      <c r="BG1" s="447"/>
-      <c r="BH1" s="447"/>
-      <c r="BI1" s="447"/>
-      <c r="BJ1" s="447"/>
-      <c r="BK1" s="447"/>
-      <c r="BL1" s="447"/>
-      <c r="BM1" s="447"/>
-      <c r="BN1" s="447"/>
-      <c r="BO1" s="447"/>
-      <c r="BP1" s="447"/>
-      <c r="BQ1" s="448"/>
-      <c r="BR1" s="446" t="s">
+      <c r="AV1" s="448"/>
+      <c r="AW1" s="448"/>
+      <c r="AX1" s="448"/>
+      <c r="AY1" s="448"/>
+      <c r="AZ1" s="448"/>
+      <c r="BA1" s="448"/>
+      <c r="BB1" s="448"/>
+      <c r="BC1" s="448"/>
+      <c r="BD1" s="448"/>
+      <c r="BE1" s="448"/>
+      <c r="BF1" s="448"/>
+      <c r="BG1" s="448"/>
+      <c r="BH1" s="448"/>
+      <c r="BI1" s="448"/>
+      <c r="BJ1" s="448"/>
+      <c r="BK1" s="448"/>
+      <c r="BL1" s="448"/>
+      <c r="BM1" s="448"/>
+      <c r="BN1" s="448"/>
+      <c r="BO1" s="448"/>
+      <c r="BP1" s="448"/>
+      <c r="BQ1" s="449"/>
+      <c r="BR1" s="447" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="447"/>
-      <c r="BT1" s="447"/>
-      <c r="BU1" s="447"/>
-      <c r="BV1" s="447"/>
-      <c r="BW1" s="447"/>
-      <c r="BX1" s="447"/>
-      <c r="BY1" s="447"/>
-      <c r="BZ1" s="447"/>
-      <c r="CA1" s="447"/>
-      <c r="CB1" s="447"/>
-      <c r="CC1" s="447"/>
-      <c r="CD1" s="447"/>
-      <c r="CE1" s="447"/>
-      <c r="CF1" s="447"/>
-      <c r="CG1" s="447"/>
-      <c r="CH1" s="447"/>
-      <c r="CI1" s="447"/>
-      <c r="CJ1" s="447"/>
-      <c r="CK1" s="448"/>
-      <c r="CL1" s="446" t="s">
+      <c r="BS1" s="448"/>
+      <c r="BT1" s="448"/>
+      <c r="BU1" s="448"/>
+      <c r="BV1" s="448"/>
+      <c r="BW1" s="448"/>
+      <c r="BX1" s="448"/>
+      <c r="BY1" s="448"/>
+      <c r="BZ1" s="448"/>
+      <c r="CA1" s="448"/>
+      <c r="CB1" s="448"/>
+      <c r="CC1" s="448"/>
+      <c r="CD1" s="448"/>
+      <c r="CE1" s="448"/>
+      <c r="CF1" s="448"/>
+      <c r="CG1" s="448"/>
+      <c r="CH1" s="448"/>
+      <c r="CI1" s="448"/>
+      <c r="CJ1" s="448"/>
+      <c r="CK1" s="449"/>
+      <c r="CL1" s="447" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="447"/>
-      <c r="CN1" s="447"/>
-      <c r="CO1" s="447"/>
-      <c r="CP1" s="447"/>
-      <c r="CQ1" s="447"/>
-      <c r="CR1" s="447"/>
-      <c r="CS1" s="447"/>
-      <c r="CT1" s="447"/>
-      <c r="CU1" s="447"/>
-      <c r="CV1" s="447"/>
-      <c r="CW1" s="447"/>
-      <c r="CX1" s="447"/>
-      <c r="CY1" s="447"/>
-      <c r="CZ1" s="447"/>
-      <c r="DA1" s="447"/>
-      <c r="DB1" s="447"/>
+      <c r="CM1" s="448"/>
+      <c r="CN1" s="448"/>
+      <c r="CO1" s="448"/>
+      <c r="CP1" s="448"/>
+      <c r="CQ1" s="448"/>
+      <c r="CR1" s="448"/>
+      <c r="CS1" s="448"/>
+      <c r="CT1" s="448"/>
+      <c r="CU1" s="448"/>
+      <c r="CV1" s="448"/>
+      <c r="CW1" s="448"/>
+      <c r="CX1" s="448"/>
+      <c r="CY1" s="448"/>
+      <c r="CZ1" s="448"/>
+      <c r="DA1" s="448"/>
+      <c r="DB1" s="448"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22682,15 +22688,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="444" t="s">
+      <c r="CW86" s="445" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="444"/>
-      <c r="CY86" s="444"/>
-      <c r="CZ86" s="444"/>
-      <c r="DA86" s="444"/>
-      <c r="DB86" s="444"/>
-      <c r="DC86" s="445"/>
+      <c r="CX86" s="445"/>
+      <c r="CY86" s="445"/>
+      <c r="CZ86" s="445"/>
+      <c r="DA86" s="445"/>
+      <c r="DB86" s="445"/>
+      <c r="DC86" s="446"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -23080,118 +23086,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="458" t="s">
+      <c r="B1" s="459" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="459"/>
-      <c r="D1" s="459"/>
-      <c r="E1" s="459"/>
-      <c r="F1" s="459"/>
-      <c r="G1" s="459"/>
-      <c r="H1" s="459"/>
-      <c r="I1" s="459"/>
-      <c r="J1" s="459"/>
-      <c r="K1" s="459"/>
-      <c r="L1" s="459"/>
-      <c r="M1" s="459"/>
-      <c r="N1" s="459"/>
-      <c r="O1" s="459"/>
-      <c r="P1" s="459"/>
-      <c r="Q1" s="460"/>
-      <c r="R1" s="449" t="s">
+      <c r="C1" s="460"/>
+      <c r="D1" s="460"/>
+      <c r="E1" s="460"/>
+      <c r="F1" s="460"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="460"/>
+      <c r="I1" s="460"/>
+      <c r="J1" s="460"/>
+      <c r="K1" s="460"/>
+      <c r="L1" s="460"/>
+      <c r="M1" s="460"/>
+      <c r="N1" s="460"/>
+      <c r="O1" s="460"/>
+      <c r="P1" s="460"/>
+      <c r="Q1" s="461"/>
+      <c r="R1" s="450" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="450"/>
-      <c r="T1" s="450"/>
-      <c r="U1" s="450"/>
-      <c r="V1" s="450"/>
-      <c r="W1" s="450"/>
-      <c r="X1" s="450"/>
-      <c r="Y1" s="450"/>
-      <c r="Z1" s="450"/>
-      <c r="AA1" s="450"/>
-      <c r="AB1" s="450"/>
-      <c r="AC1" s="450"/>
-      <c r="AD1" s="450"/>
-      <c r="AE1" s="450"/>
-      <c r="AF1" s="450"/>
-      <c r="AG1" s="450"/>
-      <c r="AH1" s="450"/>
-      <c r="AI1" s="450"/>
-      <c r="AJ1" s="450"/>
-      <c r="AK1" s="450"/>
-      <c r="AL1" s="451"/>
-      <c r="AM1" s="449" t="s">
+      <c r="S1" s="451"/>
+      <c r="T1" s="451"/>
+      <c r="U1" s="451"/>
+      <c r="V1" s="451"/>
+      <c r="W1" s="451"/>
+      <c r="X1" s="451"/>
+      <c r="Y1" s="451"/>
+      <c r="Z1" s="451"/>
+      <c r="AA1" s="451"/>
+      <c r="AB1" s="451"/>
+      <c r="AC1" s="451"/>
+      <c r="AD1" s="451"/>
+      <c r="AE1" s="451"/>
+      <c r="AF1" s="451"/>
+      <c r="AG1" s="451"/>
+      <c r="AH1" s="451"/>
+      <c r="AI1" s="451"/>
+      <c r="AJ1" s="451"/>
+      <c r="AK1" s="451"/>
+      <c r="AL1" s="452"/>
+      <c r="AM1" s="450" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="450"/>
-      <c r="AO1" s="450"/>
-      <c r="AP1" s="450"/>
-      <c r="AQ1" s="450"/>
-      <c r="AR1" s="450"/>
-      <c r="AS1" s="450"/>
-      <c r="AT1" s="450"/>
-      <c r="AU1" s="450"/>
-      <c r="AV1" s="450"/>
-      <c r="AW1" s="450"/>
-      <c r="AX1" s="450"/>
-      <c r="AY1" s="450"/>
-      <c r="AZ1" s="450"/>
-      <c r="BA1" s="450"/>
-      <c r="BB1" s="450"/>
-      <c r="BC1" s="450"/>
-      <c r="BD1" s="450"/>
-      <c r="BE1" s="450"/>
-      <c r="BF1" s="450"/>
-      <c r="BG1" s="450"/>
-      <c r="BH1" s="451"/>
-      <c r="BI1" s="449" t="s">
+      <c r="AN1" s="451"/>
+      <c r="AO1" s="451"/>
+      <c r="AP1" s="451"/>
+      <c r="AQ1" s="451"/>
+      <c r="AR1" s="451"/>
+      <c r="AS1" s="451"/>
+      <c r="AT1" s="451"/>
+      <c r="AU1" s="451"/>
+      <c r="AV1" s="451"/>
+      <c r="AW1" s="451"/>
+      <c r="AX1" s="451"/>
+      <c r="AY1" s="451"/>
+      <c r="AZ1" s="451"/>
+      <c r="BA1" s="451"/>
+      <c r="BB1" s="451"/>
+      <c r="BC1" s="451"/>
+      <c r="BD1" s="451"/>
+      <c r="BE1" s="451"/>
+      <c r="BF1" s="451"/>
+      <c r="BG1" s="451"/>
+      <c r="BH1" s="452"/>
+      <c r="BI1" s="450" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="450"/>
-      <c r="BK1" s="450"/>
-      <c r="BL1" s="450"/>
-      <c r="BM1" s="450"/>
-      <c r="BN1" s="450"/>
-      <c r="BO1" s="450"/>
-      <c r="BP1" s="450"/>
-      <c r="BQ1" s="450"/>
-      <c r="BR1" s="450"/>
-      <c r="BS1" s="450"/>
-      <c r="BT1" s="450"/>
-      <c r="BU1" s="450"/>
-      <c r="BV1" s="450"/>
-      <c r="BW1" s="450"/>
-      <c r="BX1" s="450"/>
-      <c r="BY1" s="450"/>
-      <c r="BZ1" s="450"/>
-      <c r="CA1" s="450"/>
-      <c r="CB1" s="450"/>
-      <c r="CC1" s="450"/>
-      <c r="CD1" s="451"/>
-      <c r="CE1" s="449" t="s">
+      <c r="BJ1" s="451"/>
+      <c r="BK1" s="451"/>
+      <c r="BL1" s="451"/>
+      <c r="BM1" s="451"/>
+      <c r="BN1" s="451"/>
+      <c r="BO1" s="451"/>
+      <c r="BP1" s="451"/>
+      <c r="BQ1" s="451"/>
+      <c r="BR1" s="451"/>
+      <c r="BS1" s="451"/>
+      <c r="BT1" s="451"/>
+      <c r="BU1" s="451"/>
+      <c r="BV1" s="451"/>
+      <c r="BW1" s="451"/>
+      <c r="BX1" s="451"/>
+      <c r="BY1" s="451"/>
+      <c r="BZ1" s="451"/>
+      <c r="CA1" s="451"/>
+      <c r="CB1" s="451"/>
+      <c r="CC1" s="451"/>
+      <c r="CD1" s="452"/>
+      <c r="CE1" s="450" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="450"/>
-      <c r="CG1" s="450"/>
-      <c r="CH1" s="450"/>
-      <c r="CI1" s="450"/>
-      <c r="CJ1" s="450"/>
-      <c r="CK1" s="450"/>
-      <c r="CL1" s="450"/>
-      <c r="CM1" s="451"/>
-      <c r="CN1" s="449" t="s">
+      <c r="CF1" s="451"/>
+      <c r="CG1" s="451"/>
+      <c r="CH1" s="451"/>
+      <c r="CI1" s="451"/>
+      <c r="CJ1" s="451"/>
+      <c r="CK1" s="451"/>
+      <c r="CL1" s="451"/>
+      <c r="CM1" s="452"/>
+      <c r="CN1" s="450" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="450"/>
-      <c r="CP1" s="450"/>
-      <c r="CQ1" s="450"/>
-      <c r="CR1" s="450"/>
-      <c r="CS1" s="450"/>
-      <c r="CT1" s="450"/>
-      <c r="CU1" s="450"/>
-      <c r="CV1" s="450"/>
-      <c r="CW1" s="451"/>
+      <c r="CO1" s="451"/>
+      <c r="CP1" s="451"/>
+      <c r="CQ1" s="451"/>
+      <c r="CR1" s="451"/>
+      <c r="CS1" s="451"/>
+      <c r="CT1" s="451"/>
+      <c r="CU1" s="451"/>
+      <c r="CV1" s="451"/>
+      <c r="CW1" s="452"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24638,11 +24644,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="452" t="s">
+      <c r="AX47" s="453" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="453"/>
-      <c r="AZ47" s="454"/>
+      <c r="AY47" s="454"/>
+      <c r="AZ47" s="455"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -24941,11 +24947,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="455" t="s">
+      <c r="BS60" s="456" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="456"/>
-      <c r="BU60" s="457"/>
+      <c r="BT60" s="457"/>
+      <c r="BU60" s="458"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -25309,120 +25315,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="458" t="s">
+      <c r="B1" s="459" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="459"/>
-      <c r="D1" s="459"/>
-      <c r="E1" s="459"/>
-      <c r="F1" s="459"/>
-      <c r="G1" s="459"/>
-      <c r="H1" s="459"/>
-      <c r="I1" s="459"/>
-      <c r="J1" s="459"/>
-      <c r="K1" s="459"/>
-      <c r="L1" s="459"/>
-      <c r="M1" s="459"/>
-      <c r="N1" s="459"/>
-      <c r="O1" s="459"/>
-      <c r="P1" s="459"/>
-      <c r="Q1" s="460"/>
-      <c r="R1" s="449" t="s">
+      <c r="C1" s="460"/>
+      <c r="D1" s="460"/>
+      <c r="E1" s="460"/>
+      <c r="F1" s="460"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="460"/>
+      <c r="I1" s="460"/>
+      <c r="J1" s="460"/>
+      <c r="K1" s="460"/>
+      <c r="L1" s="460"/>
+      <c r="M1" s="460"/>
+      <c r="N1" s="460"/>
+      <c r="O1" s="460"/>
+      <c r="P1" s="460"/>
+      <c r="Q1" s="461"/>
+      <c r="R1" s="450" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="450"/>
-      <c r="T1" s="450"/>
-      <c r="U1" s="450"/>
-      <c r="V1" s="450"/>
-      <c r="W1" s="450"/>
-      <c r="X1" s="450"/>
-      <c r="Y1" s="450"/>
-      <c r="Z1" s="450"/>
-      <c r="AA1" s="450"/>
-      <c r="AB1" s="450"/>
-      <c r="AC1" s="450"/>
-      <c r="AD1" s="450"/>
-      <c r="AE1" s="450"/>
-      <c r="AF1" s="450"/>
-      <c r="AG1" s="450"/>
-      <c r="AH1" s="450"/>
-      <c r="AI1" s="450"/>
-      <c r="AJ1" s="450"/>
-      <c r="AK1" s="450"/>
-      <c r="AL1" s="450"/>
-      <c r="AM1" s="451"/>
-      <c r="AN1" s="449" t="s">
+      <c r="S1" s="451"/>
+      <c r="T1" s="451"/>
+      <c r="U1" s="451"/>
+      <c r="V1" s="451"/>
+      <c r="W1" s="451"/>
+      <c r="X1" s="451"/>
+      <c r="Y1" s="451"/>
+      <c r="Z1" s="451"/>
+      <c r="AA1" s="451"/>
+      <c r="AB1" s="451"/>
+      <c r="AC1" s="451"/>
+      <c r="AD1" s="451"/>
+      <c r="AE1" s="451"/>
+      <c r="AF1" s="451"/>
+      <c r="AG1" s="451"/>
+      <c r="AH1" s="451"/>
+      <c r="AI1" s="451"/>
+      <c r="AJ1" s="451"/>
+      <c r="AK1" s="451"/>
+      <c r="AL1" s="451"/>
+      <c r="AM1" s="452"/>
+      <c r="AN1" s="450" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="450"/>
-      <c r="AP1" s="450"/>
-      <c r="AQ1" s="450"/>
-      <c r="AR1" s="450"/>
-      <c r="AS1" s="450"/>
-      <c r="AT1" s="450"/>
-      <c r="AU1" s="450"/>
-      <c r="AV1" s="450"/>
-      <c r="AW1" s="450"/>
-      <c r="AX1" s="450"/>
-      <c r="AY1" s="450"/>
-      <c r="AZ1" s="450"/>
-      <c r="BA1" s="450"/>
-      <c r="BB1" s="450"/>
-      <c r="BC1" s="450"/>
-      <c r="BD1" s="450"/>
-      <c r="BE1" s="450"/>
-      <c r="BF1" s="450"/>
-      <c r="BG1" s="450"/>
-      <c r="BH1" s="450"/>
-      <c r="BI1" s="450"/>
-      <c r="BJ1" s="451"/>
-      <c r="BK1" s="449" t="s">
+      <c r="AO1" s="451"/>
+      <c r="AP1" s="451"/>
+      <c r="AQ1" s="451"/>
+      <c r="AR1" s="451"/>
+      <c r="AS1" s="451"/>
+      <c r="AT1" s="451"/>
+      <c r="AU1" s="451"/>
+      <c r="AV1" s="451"/>
+      <c r="AW1" s="451"/>
+      <c r="AX1" s="451"/>
+      <c r="AY1" s="451"/>
+      <c r="AZ1" s="451"/>
+      <c r="BA1" s="451"/>
+      <c r="BB1" s="451"/>
+      <c r="BC1" s="451"/>
+      <c r="BD1" s="451"/>
+      <c r="BE1" s="451"/>
+      <c r="BF1" s="451"/>
+      <c r="BG1" s="451"/>
+      <c r="BH1" s="451"/>
+      <c r="BI1" s="451"/>
+      <c r="BJ1" s="452"/>
+      <c r="BK1" s="450" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="450"/>
-      <c r="BM1" s="450"/>
-      <c r="BN1" s="450"/>
-      <c r="BO1" s="450"/>
-      <c r="BP1" s="450"/>
-      <c r="BQ1" s="450"/>
-      <c r="BR1" s="450"/>
-      <c r="BS1" s="450"/>
-      <c r="BT1" s="450"/>
-      <c r="BU1" s="450"/>
-      <c r="BV1" s="450"/>
-      <c r="BW1" s="450"/>
-      <c r="BX1" s="450"/>
-      <c r="BY1" s="450"/>
-      <c r="BZ1" s="450"/>
-      <c r="CA1" s="450"/>
-      <c r="CB1" s="450"/>
-      <c r="CC1" s="450"/>
-      <c r="CD1" s="450"/>
-      <c r="CE1" s="450"/>
-      <c r="CF1" s="450"/>
-      <c r="CG1" s="451"/>
-      <c r="CH1" s="449" t="s">
+      <c r="BL1" s="451"/>
+      <c r="BM1" s="451"/>
+      <c r="BN1" s="451"/>
+      <c r="BO1" s="451"/>
+      <c r="BP1" s="451"/>
+      <c r="BQ1" s="451"/>
+      <c r="BR1" s="451"/>
+      <c r="BS1" s="451"/>
+      <c r="BT1" s="451"/>
+      <c r="BU1" s="451"/>
+      <c r="BV1" s="451"/>
+      <c r="BW1" s="451"/>
+      <c r="BX1" s="451"/>
+      <c r="BY1" s="451"/>
+      <c r="BZ1" s="451"/>
+      <c r="CA1" s="451"/>
+      <c r="CB1" s="451"/>
+      <c r="CC1" s="451"/>
+      <c r="CD1" s="451"/>
+      <c r="CE1" s="451"/>
+      <c r="CF1" s="451"/>
+      <c r="CG1" s="452"/>
+      <c r="CH1" s="450" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="450"/>
-      <c r="CJ1" s="450"/>
-      <c r="CK1" s="450"/>
-      <c r="CL1" s="450"/>
-      <c r="CM1" s="450"/>
-      <c r="CN1" s="450"/>
-      <c r="CO1" s="450"/>
-      <c r="CP1" s="450"/>
-      <c r="CQ1" s="451"/>
-      <c r="CR1" s="461" t="s">
+      <c r="CI1" s="451"/>
+      <c r="CJ1" s="451"/>
+      <c r="CK1" s="451"/>
+      <c r="CL1" s="451"/>
+      <c r="CM1" s="451"/>
+      <c r="CN1" s="451"/>
+      <c r="CO1" s="451"/>
+      <c r="CP1" s="451"/>
+      <c r="CQ1" s="452"/>
+      <c r="CR1" s="462" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="462"/>
-      <c r="CT1" s="462"/>
-      <c r="CU1" s="462"/>
-      <c r="CV1" s="462"/>
-      <c r="CW1" s="462"/>
-      <c r="CX1" s="462"/>
-      <c r="CY1" s="463"/>
+      <c r="CS1" s="463"/>
+      <c r="CT1" s="463"/>
+      <c r="CU1" s="463"/>
+      <c r="CV1" s="463"/>
+      <c r="CW1" s="463"/>
+      <c r="CX1" s="463"/>
+      <c r="CY1" s="464"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27231,11 +27237,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="464" t="s">
+      <c r="AY47" s="465" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="465"/>
-      <c r="BA47" s="466"/>
+      <c r="AZ47" s="466"/>
+      <c r="BA47" s="467"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27628,11 +27634,11 @@
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="455" t="s">
+      <c r="BU60" s="456" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="456"/>
-      <c r="BW60" s="457"/>
+      <c r="BV60" s="457"/>
+      <c r="BW60" s="458"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -28107,120 +28113,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="458" t="s">
+      <c r="B1" s="459" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="459"/>
-      <c r="D1" s="459"/>
-      <c r="E1" s="459"/>
-      <c r="F1" s="459"/>
-      <c r="G1" s="459"/>
-      <c r="H1" s="459"/>
-      <c r="I1" s="459"/>
-      <c r="J1" s="459"/>
-      <c r="K1" s="459"/>
-      <c r="L1" s="459"/>
-      <c r="M1" s="459"/>
-      <c r="N1" s="459"/>
-      <c r="O1" s="459"/>
-      <c r="P1" s="459"/>
-      <c r="Q1" s="460"/>
-      <c r="R1" s="449" t="s">
+      <c r="C1" s="460"/>
+      <c r="D1" s="460"/>
+      <c r="E1" s="460"/>
+      <c r="F1" s="460"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="460"/>
+      <c r="I1" s="460"/>
+      <c r="J1" s="460"/>
+      <c r="K1" s="460"/>
+      <c r="L1" s="460"/>
+      <c r="M1" s="460"/>
+      <c r="N1" s="460"/>
+      <c r="O1" s="460"/>
+      <c r="P1" s="460"/>
+      <c r="Q1" s="461"/>
+      <c r="R1" s="450" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="450"/>
-      <c r="T1" s="450"/>
-      <c r="U1" s="450"/>
-      <c r="V1" s="450"/>
-      <c r="W1" s="450"/>
-      <c r="X1" s="450"/>
-      <c r="Y1" s="450"/>
-      <c r="Z1" s="450"/>
-      <c r="AA1" s="450"/>
-      <c r="AB1" s="450"/>
-      <c r="AC1" s="450"/>
-      <c r="AD1" s="450"/>
-      <c r="AE1" s="450"/>
-      <c r="AF1" s="450"/>
-      <c r="AG1" s="450"/>
-      <c r="AH1" s="450"/>
-      <c r="AI1" s="450"/>
-      <c r="AJ1" s="450"/>
-      <c r="AK1" s="450"/>
-      <c r="AL1" s="450"/>
-      <c r="AM1" s="451"/>
-      <c r="AN1" s="449" t="s">
+      <c r="S1" s="451"/>
+      <c r="T1" s="451"/>
+      <c r="U1" s="451"/>
+      <c r="V1" s="451"/>
+      <c r="W1" s="451"/>
+      <c r="X1" s="451"/>
+      <c r="Y1" s="451"/>
+      <c r="Z1" s="451"/>
+      <c r="AA1" s="451"/>
+      <c r="AB1" s="451"/>
+      <c r="AC1" s="451"/>
+      <c r="AD1" s="451"/>
+      <c r="AE1" s="451"/>
+      <c r="AF1" s="451"/>
+      <c r="AG1" s="451"/>
+      <c r="AH1" s="451"/>
+      <c r="AI1" s="451"/>
+      <c r="AJ1" s="451"/>
+      <c r="AK1" s="451"/>
+      <c r="AL1" s="451"/>
+      <c r="AM1" s="452"/>
+      <c r="AN1" s="450" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="450"/>
-      <c r="AP1" s="450"/>
-      <c r="AQ1" s="450"/>
-      <c r="AR1" s="450"/>
-      <c r="AS1" s="450"/>
-      <c r="AT1" s="450"/>
-      <c r="AU1" s="450"/>
-      <c r="AV1" s="450"/>
-      <c r="AW1" s="450"/>
-      <c r="AX1" s="450"/>
-      <c r="AY1" s="450"/>
-      <c r="AZ1" s="450"/>
-      <c r="BA1" s="450"/>
-      <c r="BB1" s="450"/>
-      <c r="BC1" s="450"/>
-      <c r="BD1" s="450"/>
-      <c r="BE1" s="450"/>
-      <c r="BF1" s="450"/>
-      <c r="BG1" s="450"/>
-      <c r="BH1" s="450"/>
-      <c r="BI1" s="450"/>
-      <c r="BJ1" s="451"/>
-      <c r="BK1" s="449" t="s">
+      <c r="AO1" s="451"/>
+      <c r="AP1" s="451"/>
+      <c r="AQ1" s="451"/>
+      <c r="AR1" s="451"/>
+      <c r="AS1" s="451"/>
+      <c r="AT1" s="451"/>
+      <c r="AU1" s="451"/>
+      <c r="AV1" s="451"/>
+      <c r="AW1" s="451"/>
+      <c r="AX1" s="451"/>
+      <c r="AY1" s="451"/>
+      <c r="AZ1" s="451"/>
+      <c r="BA1" s="451"/>
+      <c r="BB1" s="451"/>
+      <c r="BC1" s="451"/>
+      <c r="BD1" s="451"/>
+      <c r="BE1" s="451"/>
+      <c r="BF1" s="451"/>
+      <c r="BG1" s="451"/>
+      <c r="BH1" s="451"/>
+      <c r="BI1" s="451"/>
+      <c r="BJ1" s="452"/>
+      <c r="BK1" s="450" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="450"/>
-      <c r="BM1" s="450"/>
-      <c r="BN1" s="450"/>
-      <c r="BO1" s="450"/>
-      <c r="BP1" s="450"/>
-      <c r="BQ1" s="450"/>
-      <c r="BR1" s="450"/>
-      <c r="BS1" s="450"/>
-      <c r="BT1" s="450"/>
-      <c r="BU1" s="450"/>
-      <c r="BV1" s="450"/>
-      <c r="BW1" s="450"/>
-      <c r="BX1" s="450"/>
-      <c r="BY1" s="450"/>
-      <c r="BZ1" s="450"/>
-      <c r="CA1" s="450"/>
-      <c r="CB1" s="450"/>
-      <c r="CC1" s="450"/>
-      <c r="CD1" s="450"/>
-      <c r="CE1" s="450"/>
-      <c r="CF1" s="450"/>
-      <c r="CG1" s="451"/>
-      <c r="CH1" s="449" t="s">
+      <c r="BL1" s="451"/>
+      <c r="BM1" s="451"/>
+      <c r="BN1" s="451"/>
+      <c r="BO1" s="451"/>
+      <c r="BP1" s="451"/>
+      <c r="BQ1" s="451"/>
+      <c r="BR1" s="451"/>
+      <c r="BS1" s="451"/>
+      <c r="BT1" s="451"/>
+      <c r="BU1" s="451"/>
+      <c r="BV1" s="451"/>
+      <c r="BW1" s="451"/>
+      <c r="BX1" s="451"/>
+      <c r="BY1" s="451"/>
+      <c r="BZ1" s="451"/>
+      <c r="CA1" s="451"/>
+      <c r="CB1" s="451"/>
+      <c r="CC1" s="451"/>
+      <c r="CD1" s="451"/>
+      <c r="CE1" s="451"/>
+      <c r="CF1" s="451"/>
+      <c r="CG1" s="452"/>
+      <c r="CH1" s="450" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="450"/>
-      <c r="CJ1" s="450"/>
-      <c r="CK1" s="450"/>
-      <c r="CL1" s="450"/>
-      <c r="CM1" s="450"/>
-      <c r="CN1" s="450"/>
-      <c r="CO1" s="450"/>
-      <c r="CP1" s="450"/>
-      <c r="CQ1" s="451"/>
-      <c r="CR1" s="461" t="s">
+      <c r="CI1" s="451"/>
+      <c r="CJ1" s="451"/>
+      <c r="CK1" s="451"/>
+      <c r="CL1" s="451"/>
+      <c r="CM1" s="451"/>
+      <c r="CN1" s="451"/>
+      <c r="CO1" s="451"/>
+      <c r="CP1" s="451"/>
+      <c r="CQ1" s="452"/>
+      <c r="CR1" s="462" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="462"/>
-      <c r="CT1" s="462"/>
-      <c r="CU1" s="462"/>
-      <c r="CV1" s="462"/>
-      <c r="CW1" s="462"/>
-      <c r="CX1" s="462"/>
-      <c r="CY1" s="463"/>
+      <c r="CS1" s="463"/>
+      <c r="CT1" s="463"/>
+      <c r="CU1" s="463"/>
+      <c r="CV1" s="463"/>
+      <c r="CW1" s="463"/>
+      <c r="CX1" s="463"/>
+      <c r="CY1" s="464"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30808,11 +30814,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="464" t="s">
+      <c r="AY47" s="465" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="465"/>
-      <c r="BA47" s="466"/>
+      <c r="AZ47" s="466"/>
+      <c r="BA47" s="467"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -31461,11 +31467,11 @@
       <c r="BK60" s="145"/>
       <c r="BN60" s="321"/>
       <c r="BS60" s="302"/>
-      <c r="BU60" s="455" t="s">
+      <c r="BU60" s="456" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="456"/>
-      <c r="BW60" s="457"/>
+      <c r="BV60" s="457"/>
+      <c r="BW60" s="458"/>
       <c r="BX60" s="302"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -34522,8 +34528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34552,7 +34558,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="470" t="s">
+      <c r="A2" s="471" t="s">
         <v>142</v>
       </c>
       <c r="B2" s="397">
@@ -34565,7 +34571,7 @@
       <c r="E2" s="428"/>
     </row>
     <row r="3" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="471"/>
+      <c r="A3" s="472"/>
       <c r="B3" s="398">
         <v>43671</v>
       </c>
@@ -34574,7 +34580,7 @@
       <c r="E3" s="429"/>
     </row>
     <row r="4" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="471"/>
+      <c r="A4" s="472"/>
       <c r="B4" s="399">
         <v>43672</v>
       </c>
@@ -34587,7 +34593,7 @@
       <c r="E4" s="431"/>
     </row>
     <row r="5" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="471"/>
+      <c r="A5" s="472"/>
       <c r="B5" s="400">
         <v>43675</v>
       </c>
@@ -34600,7 +34606,7 @@
       <c r="E5" s="433"/>
     </row>
     <row r="6" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="471"/>
+      <c r="A6" s="472"/>
       <c r="B6" s="400">
         <v>43676</v>
       </c>
@@ -34613,7 +34619,7 @@
       <c r="E6" s="433"/>
     </row>
     <row r="7" spans="1:5" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="471"/>
+      <c r="A7" s="472"/>
       <c r="B7" s="400">
         <v>43677</v>
       </c>
@@ -34626,7 +34632,7 @@
       <c r="E7" s="433"/>
     </row>
     <row r="8" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="471"/>
+      <c r="A8" s="472"/>
       <c r="B8" s="398">
         <v>43678</v>
       </c>
@@ -34635,7 +34641,7 @@
       <c r="E8" s="429"/>
     </row>
     <row r="9" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="471"/>
+      <c r="A9" s="472"/>
       <c r="B9" s="400">
         <v>43679</v>
       </c>
@@ -34648,7 +34654,7 @@
       <c r="E9" s="433"/>
     </row>
     <row r="10" spans="1:5" s="419" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="471"/>
+      <c r="A10" s="472"/>
       <c r="B10" s="399">
         <v>43682</v>
       </c>
@@ -34661,7 +34667,7 @@
       <c r="E10" s="431"/>
     </row>
     <row r="11" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="471"/>
+      <c r="A11" s="472"/>
       <c r="B11" s="399">
         <v>43683</v>
       </c>
@@ -34674,7 +34680,7 @@
       <c r="E11" s="431"/>
     </row>
     <row r="12" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="471"/>
+      <c r="A12" s="472"/>
       <c r="B12" s="399">
         <v>43684</v>
       </c>
@@ -34687,7 +34693,7 @@
       <c r="E12" s="431"/>
     </row>
     <row r="13" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="471"/>
+      <c r="A13" s="472"/>
       <c r="B13" s="398">
         <v>43685</v>
       </c>
@@ -34696,7 +34702,7 @@
       <c r="E13" s="429"/>
     </row>
     <row r="14" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="471"/>
+      <c r="A14" s="472"/>
       <c r="B14" s="399">
         <v>43686</v>
       </c>
@@ -34709,7 +34715,7 @@
       <c r="E14" s="431"/>
     </row>
     <row r="15" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="471"/>
+      <c r="A15" s="472"/>
       <c r="B15" s="400">
         <v>43689</v>
       </c>
@@ -34722,7 +34728,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="471"/>
+      <c r="A16" s="472"/>
       <c r="B16" s="400">
         <v>43690</v>
       </c>
@@ -34733,7 +34739,7 @@
       <c r="E16" s="433"/>
     </row>
     <row r="17" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="471"/>
+      <c r="A17" s="472"/>
       <c r="B17" s="400">
         <v>43691</v>
       </c>
@@ -34744,7 +34750,7 @@
       <c r="E17" s="433"/>
     </row>
     <row r="18" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="471"/>
+      <c r="A18" s="472"/>
       <c r="B18" s="398">
         <v>43692</v>
       </c>
@@ -34753,7 +34759,7 @@
       <c r="E18" s="429"/>
     </row>
     <row r="19" spans="1:5" s="421" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="472"/>
+      <c r="A19" s="473"/>
       <c r="B19" s="401">
         <v>43693</v>
       </c>
@@ -34764,7 +34770,7 @@
       <c r="E19" s="434"/>
     </row>
     <row r="20" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="467" t="s">
+      <c r="A20" s="468" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="402">
@@ -34779,7 +34785,7 @@
       <c r="E20" s="428"/>
     </row>
     <row r="21" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="468"/>
+      <c r="A21" s="469"/>
       <c r="B21" s="403">
         <v>43697</v>
       </c>
@@ -34792,7 +34798,7 @@
       <c r="E21" s="441"/>
     </row>
     <row r="22" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="468"/>
+      <c r="A22" s="469"/>
       <c r="B22" s="403">
         <v>43698</v>
       </c>
@@ -34805,7 +34811,7 @@
       <c r="E22" s="431"/>
     </row>
     <row r="23" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="468"/>
+      <c r="A23" s="469"/>
       <c r="B23" s="404">
         <v>43699</v>
       </c>
@@ -34814,7 +34820,7 @@
       <c r="E23" s="429"/>
     </row>
     <row r="24" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="468"/>
+      <c r="A24" s="469"/>
       <c r="B24" s="403">
         <v>43700</v>
       </c>
@@ -34825,7 +34831,7 @@
       <c r="E24" s="431"/>
     </row>
     <row r="25" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="468"/>
+      <c r="A25" s="469"/>
       <c r="B25" s="405">
         <v>43703</v>
       </c>
@@ -34838,7 +34844,7 @@
       <c r="E25" s="433"/>
     </row>
     <row r="26" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="468"/>
+      <c r="A26" s="469"/>
       <c r="B26" s="405">
         <v>43704</v>
       </c>
@@ -34851,7 +34857,7 @@
       <c r="E26" s="433"/>
     </row>
     <row r="27" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="468"/>
+      <c r="A27" s="469"/>
       <c r="B27" s="405">
         <v>43705</v>
       </c>
@@ -34864,7 +34870,7 @@
       <c r="E27" s="433"/>
     </row>
     <row r="28" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="468"/>
+      <c r="A28" s="469"/>
       <c r="B28" s="404">
         <v>43706</v>
       </c>
@@ -34873,7 +34879,7 @@
       <c r="E28" s="429"/>
     </row>
     <row r="29" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="468"/>
+      <c r="A29" s="469"/>
       <c r="B29" s="405">
         <v>43707</v>
       </c>
@@ -34884,7 +34890,7 @@
       <c r="E29" s="433"/>
     </row>
     <row r="30" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="468"/>
+      <c r="A30" s="469"/>
       <c r="B30" s="403">
         <v>43710</v>
       </c>
@@ -34895,7 +34901,7 @@
       <c r="E30" s="431"/>
     </row>
     <row r="31" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="468"/>
+      <c r="A31" s="469"/>
       <c r="B31" s="403">
         <v>43711</v>
       </c>
@@ -34906,7 +34912,7 @@
       <c r="E31" s="431"/>
     </row>
     <row r="32" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="468"/>
+      <c r="A32" s="469"/>
       <c r="B32" s="403">
         <v>43712</v>
       </c>
@@ -34919,7 +34925,7 @@
       <c r="E32" s="431"/>
     </row>
     <row r="33" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="468"/>
+      <c r="A33" s="469"/>
       <c r="B33" s="404">
         <v>43713</v>
       </c>
@@ -34928,7 +34934,7 @@
       <c r="E33" s="429"/>
     </row>
     <row r="34" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="468"/>
+      <c r="A34" s="469"/>
       <c r="B34" s="403">
         <v>43714</v>
       </c>
@@ -34939,7 +34945,7 @@
       <c r="E34" s="431"/>
     </row>
     <row r="35" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="468"/>
+      <c r="A35" s="469"/>
       <c r="B35" s="405">
         <v>43717</v>
       </c>
@@ -34950,7 +34956,7 @@
       <c r="E35" s="433"/>
     </row>
     <row r="36" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="468"/>
+      <c r="A36" s="469"/>
       <c r="B36" s="405">
         <v>43718</v>
       </c>
@@ -34961,7 +34967,7 @@
       <c r="E36" s="433"/>
     </row>
     <row r="37" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="468"/>
+      <c r="A37" s="469"/>
       <c r="B37" s="405">
         <v>43719</v>
       </c>
@@ -34972,7 +34978,7 @@
       <c r="E37" s="433"/>
     </row>
     <row r="38" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="468"/>
+      <c r="A38" s="469"/>
       <c r="B38" s="404">
         <v>43720</v>
       </c>
@@ -34981,7 +34987,7 @@
       <c r="E38" s="429"/>
     </row>
     <row r="39" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="468"/>
+      <c r="A39" s="469"/>
       <c r="B39" s="405">
         <v>43721</v>
       </c>
@@ -34992,7 +34998,7 @@
       <c r="E39" s="433"/>
     </row>
     <row r="40" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="468"/>
+      <c r="A40" s="469"/>
       <c r="B40" s="403">
         <v>43724</v>
       </c>
@@ -35003,7 +35009,7 @@
       <c r="E40" s="431"/>
     </row>
     <row r="41" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="468"/>
+      <c r="A41" s="469"/>
       <c r="B41" s="403">
         <v>43725</v>
       </c>
@@ -35014,7 +35020,7 @@
       <c r="E41" s="431"/>
     </row>
     <row r="42" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="468"/>
+      <c r="A42" s="469"/>
       <c r="B42" s="403">
         <v>43726</v>
       </c>
@@ -35025,7 +35031,7 @@
       <c r="E42" s="431"/>
     </row>
     <row r="43" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="468"/>
+      <c r="A43" s="469"/>
       <c r="B43" s="404">
         <v>43727</v>
       </c>
@@ -35034,7 +35040,7 @@
       <c r="E43" s="429"/>
     </row>
     <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="469"/>
+      <c r="A44" s="470"/>
       <c r="B44" s="406">
         <v>43728</v>
       </c>
@@ -35045,13 +35051,13 @@
       <c r="E44" s="435"/>
     </row>
     <row r="45" spans="1:5" s="423" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="473" t="s">
+      <c r="A45" s="474" t="s">
         <v>144</v>
       </c>
       <c r="B45" s="407">
         <v>43731</v>
       </c>
-      <c r="C45" s="476" t="s">
+      <c r="C45" s="444" t="s">
         <v>188</v>
       </c>
       <c r="D45" s="433" t="s">
@@ -35060,7 +35066,7 @@
       <c r="E45" s="436"/>
     </row>
     <row r="46" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="474"/>
+      <c r="A46" s="475"/>
       <c r="B46" s="408">
         <v>43732</v>
       </c>
@@ -35073,7 +35079,7 @@
       <c r="E46" s="433"/>
     </row>
     <row r="47" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="474"/>
+      <c r="A47" s="475"/>
       <c r="B47" s="408">
         <v>43733</v>
       </c>
@@ -35086,7 +35092,7 @@
       <c r="E47" s="433"/>
     </row>
     <row r="48" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="474"/>
+      <c r="A48" s="475"/>
       <c r="B48" s="409">
         <v>43734</v>
       </c>
@@ -35095,7 +35101,7 @@
       <c r="E48" s="429"/>
     </row>
     <row r="49" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="474"/>
+      <c r="A49" s="475"/>
       <c r="B49" s="408">
         <v>43735</v>
       </c>
@@ -35106,7 +35112,7 @@
       <c r="E49" s="433"/>
     </row>
     <row r="50" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="474"/>
+      <c r="A50" s="475"/>
       <c r="B50" s="410">
         <v>43738</v>
       </c>
@@ -35117,7 +35123,7 @@
       <c r="E50" s="431"/>
     </row>
     <row r="51" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="474"/>
+      <c r="A51" s="475"/>
       <c r="B51" s="410">
         <v>43739</v>
       </c>
@@ -35128,7 +35134,7 @@
       <c r="E51" s="431"/>
     </row>
     <row r="52" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="474"/>
+      <c r="A52" s="475"/>
       <c r="B52" s="410">
         <v>43740</v>
       </c>
@@ -35139,7 +35145,7 @@
       <c r="E52" s="431"/>
     </row>
     <row r="53" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="474"/>
+      <c r="A53" s="475"/>
       <c r="B53" s="409">
         <v>43741</v>
       </c>
@@ -35148,7 +35154,7 @@
       <c r="E53" s="429"/>
     </row>
     <row r="54" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="474"/>
+      <c r="A54" s="475"/>
       <c r="B54" s="410">
         <v>43742</v>
       </c>
@@ -35159,7 +35165,7 @@
       <c r="E54" s="431"/>
     </row>
     <row r="55" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="474"/>
+      <c r="A55" s="475"/>
       <c r="B55" s="408">
         <v>43745</v>
       </c>
@@ -35170,7 +35176,7 @@
       <c r="E55" s="433"/>
     </row>
     <row r="56" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="474"/>
+      <c r="A56" s="475"/>
       <c r="B56" s="408">
         <v>43746</v>
       </c>
@@ -35181,7 +35187,7 @@
       <c r="E56" s="433"/>
     </row>
     <row r="57" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="474"/>
+      <c r="A57" s="475"/>
       <c r="B57" s="408">
         <v>43747</v>
       </c>
@@ -35192,7 +35198,7 @@
       <c r="E57" s="433"/>
     </row>
     <row r="58" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="474"/>
+      <c r="A58" s="475"/>
       <c r="B58" s="409">
         <v>43748</v>
       </c>
@@ -35201,7 +35207,7 @@
       <c r="E58" s="429"/>
     </row>
     <row r="59" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="474"/>
+      <c r="A59" s="475"/>
       <c r="B59" s="408">
         <v>43749</v>
       </c>
@@ -35212,7 +35218,7 @@
       <c r="E59" s="433"/>
     </row>
     <row r="60" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="474"/>
+      <c r="A60" s="475"/>
       <c r="B60" s="410">
         <v>43754</v>
       </c>
@@ -35223,7 +35229,7 @@
       <c r="E60" s="431"/>
     </row>
     <row r="61" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="474"/>
+      <c r="A61" s="475"/>
       <c r="B61" s="409">
         <v>43755</v>
       </c>
@@ -35232,7 +35238,7 @@
       <c r="E61" s="429"/>
     </row>
     <row r="62" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="474"/>
+      <c r="A62" s="475"/>
       <c r="B62" s="410">
         <v>43756</v>
       </c>
@@ -35243,7 +35249,7 @@
       <c r="E62" s="431"/>
     </row>
     <row r="63" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="474"/>
+      <c r="A63" s="475"/>
       <c r="B63" s="408">
         <v>43759</v>
       </c>
@@ -35254,7 +35260,7 @@
       <c r="E63" s="433"/>
     </row>
     <row r="64" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="474"/>
+      <c r="A64" s="475"/>
       <c r="B64" s="408">
         <v>43760</v>
       </c>
@@ -35265,7 +35271,7 @@
       <c r="E64" s="433"/>
     </row>
     <row r="65" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="474"/>
+      <c r="A65" s="475"/>
       <c r="B65" s="408">
         <v>43761</v>
       </c>
@@ -35276,7 +35282,7 @@
       <c r="E65" s="433"/>
     </row>
     <row r="66" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="475"/>
+      <c r="A66" s="476"/>
       <c r="B66" s="411">
         <v>43762</v>
       </c>
@@ -35285,20 +35291,20 @@
       <c r="E66" s="437"/>
     </row>
     <row r="67" spans="1:5" s="423" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="473" t="s">
+      <c r="A67" s="474" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="407">
         <v>43763</v>
       </c>
-      <c r="C67" s="476" t="s">
+      <c r="C67" s="444" t="s">
         <v>189</v>
       </c>
       <c r="D67" s="436"/>
       <c r="E67" s="436"/>
     </row>
     <row r="68" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="474"/>
+      <c r="A68" s="475"/>
       <c r="B68" s="410">
         <v>43766</v>
       </c>
@@ -35311,7 +35317,7 @@
       <c r="E68" s="431"/>
     </row>
     <row r="69" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="474"/>
+      <c r="A69" s="475"/>
       <c r="B69" s="410">
         <v>43767</v>
       </c>
@@ -35324,7 +35330,7 @@
       <c r="E69" s="431"/>
     </row>
     <row r="70" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="474"/>
+      <c r="A70" s="475"/>
       <c r="B70" s="410">
         <v>43768</v>
       </c>
@@ -35337,7 +35343,7 @@
       <c r="E70" s="431"/>
     </row>
     <row r="71" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="474"/>
+      <c r="A71" s="475"/>
       <c r="B71" s="409">
         <v>43769</v>
       </c>
@@ -35346,18 +35352,18 @@
       <c r="E71" s="429"/>
     </row>
     <row r="72" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="474"/>
+      <c r="A72" s="475"/>
       <c r="B72" s="410">
         <v>43770</v>
       </c>
       <c r="C72" s="431" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D72" s="431"/>
       <c r="E72" s="431"/>
     </row>
     <row r="73" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="474"/>
+      <c r="A73" s="475"/>
       <c r="B73" s="408">
         <v>43773</v>
       </c>
@@ -35370,7 +35376,7 @@
       <c r="E73" s="433"/>
     </row>
     <row r="74" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="474"/>
+      <c r="A74" s="475"/>
       <c r="B74" s="408">
         <v>43774</v>
       </c>
@@ -35383,18 +35389,18 @@
       <c r="E74" s="433"/>
     </row>
     <row r="75" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="474"/>
+      <c r="A75" s="475"/>
       <c r="B75" s="408">
         <v>43775</v>
       </c>
       <c r="C75" s="433" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D75" s="433"/>
       <c r="E75" s="433"/>
     </row>
     <row r="76" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="474"/>
+      <c r="A76" s="475"/>
       <c r="B76" s="409">
         <v>43776</v>
       </c>
@@ -35403,7 +35409,7 @@
       <c r="E76" s="429"/>
     </row>
     <row r="77" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="474"/>
+      <c r="A77" s="475"/>
       <c r="B77" s="408">
         <v>43777</v>
       </c>
@@ -35414,7 +35420,7 @@
       <c r="E77" s="433"/>
     </row>
     <row r="78" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="474"/>
+      <c r="A78" s="475"/>
       <c r="B78" s="410">
         <v>43780</v>
       </c>
@@ -35425,7 +35431,7 @@
       <c r="E78" s="431"/>
     </row>
     <row r="79" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="474"/>
+      <c r="A79" s="475"/>
       <c r="B79" s="410">
         <v>43781</v>
       </c>
@@ -35436,7 +35442,7 @@
       <c r="E79" s="431"/>
     </row>
     <row r="80" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="474"/>
+      <c r="A80" s="475"/>
       <c r="B80" s="410">
         <v>43782</v>
       </c>
@@ -35447,7 +35453,7 @@
       <c r="E80" s="431"/>
     </row>
     <row r="81" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="474"/>
+      <c r="A81" s="475"/>
       <c r="B81" s="409">
         <v>43783</v>
       </c>
@@ -35456,7 +35462,7 @@
       <c r="E81" s="429"/>
     </row>
     <row r="82" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="474"/>
+      <c r="A82" s="475"/>
       <c r="B82" s="408">
         <v>43787</v>
       </c>
@@ -35467,7 +35473,7 @@
       <c r="E82" s="433"/>
     </row>
     <row r="83" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="474"/>
+      <c r="A83" s="475"/>
       <c r="B83" s="408">
         <v>43788</v>
       </c>
@@ -35478,7 +35484,7 @@
       <c r="E83" s="433"/>
     </row>
     <row r="84" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="474"/>
+      <c r="A84" s="475"/>
       <c r="B84" s="409">
         <v>43790</v>
       </c>
@@ -35487,7 +35493,7 @@
       <c r="E84" s="429"/>
     </row>
     <row r="85" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="474"/>
+      <c r="A85" s="475"/>
       <c r="B85" s="408">
         <v>43791</v>
       </c>
@@ -35498,7 +35504,7 @@
       <c r="E85" s="433"/>
     </row>
     <row r="86" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="474"/>
+      <c r="A86" s="475"/>
       <c r="B86" s="410">
         <v>43794</v>
       </c>
@@ -35509,7 +35515,7 @@
       <c r="E86" s="431"/>
     </row>
     <row r="87" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="474"/>
+      <c r="A87" s="475"/>
       <c r="B87" s="410">
         <v>43795</v>
       </c>
@@ -35520,7 +35526,7 @@
       <c r="E87" s="431"/>
     </row>
     <row r="88" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="474"/>
+      <c r="A88" s="475"/>
       <c r="B88" s="410">
         <v>43796</v>
       </c>
@@ -35531,7 +35537,7 @@
       <c r="E88" s="431"/>
     </row>
     <row r="89" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="475"/>
+      <c r="A89" s="476"/>
       <c r="B89" s="411">
         <v>43797</v>
       </c>
@@ -35540,7 +35546,7 @@
       <c r="E89" s="437"/>
     </row>
     <row r="90" spans="1:5" s="417" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="467" t="s">
+      <c r="A90" s="468" t="s">
         <v>146</v>
       </c>
       <c r="B90" s="412">
@@ -35553,7 +35559,7 @@
       <c r="E90" s="428"/>
     </row>
     <row r="91" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="468"/>
+      <c r="A91" s="469"/>
       <c r="B91" s="408">
         <v>43801</v>
       </c>
@@ -35564,7 +35570,7 @@
       <c r="E91" s="433"/>
     </row>
     <row r="92" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="468"/>
+      <c r="A92" s="469"/>
       <c r="B92" s="408">
         <v>43802</v>
       </c>
@@ -35575,7 +35581,7 @@
       <c r="E92" s="433"/>
     </row>
     <row r="93" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="468"/>
+      <c r="A93" s="469"/>
       <c r="B93" s="408">
         <v>43803</v>
       </c>
@@ -35586,7 +35592,7 @@
       <c r="E93" s="433"/>
     </row>
     <row r="94" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="468"/>
+      <c r="A94" s="469"/>
       <c r="B94" s="409">
         <v>43804</v>
       </c>
@@ -35595,7 +35601,7 @@
       <c r="E94" s="429"/>
     </row>
     <row r="95" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="468"/>
+      <c r="A95" s="469"/>
       <c r="B95" s="408">
         <v>43805</v>
       </c>
@@ -35606,7 +35612,7 @@
       <c r="E95" s="433"/>
     </row>
     <row r="96" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="468"/>
+      <c r="A96" s="469"/>
       <c r="B96" s="410">
         <v>43808</v>
       </c>
@@ -35617,7 +35623,7 @@
       <c r="E96" s="431"/>
     </row>
     <row r="97" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="468"/>
+      <c r="A97" s="469"/>
       <c r="B97" s="410">
         <v>43809</v>
       </c>
@@ -35628,7 +35634,7 @@
       <c r="E97" s="431"/>
     </row>
     <row r="98" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="468"/>
+      <c r="A98" s="469"/>
       <c r="B98" s="410">
         <v>43810</v>
       </c>
@@ -35639,7 +35645,7 @@
       <c r="E98" s="431"/>
     </row>
     <row r="99" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="469"/>
+      <c r="A99" s="470"/>
       <c r="B99" s="411">
         <v>43811</v>
       </c>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikv\Desktop\_Senai\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD76B866-1697-479A-B42B-8C84118284CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11505" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -1392,9 +1393,6 @@
 Ajuste Conceitual - Lógico - Representação</t>
   </si>
   <si>
-    <t>ex: Optus</t>
-  </si>
-  <si>
     <t>Modelagem - Representação - Documentação</t>
   </si>
   <si>
@@ -1607,15 +1605,18 @@
   <si>
     <t>Desafio - Personagens</t>
   </si>
+  <si>
+    <t>ex: Optus, MicroManu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3677,215 +3678,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="96" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="10" t="s">
         <v>35</v>
       </c>
@@ -3897,7 +3898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
     <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
@@ -3905,7 +3906,7 @@
       <selection pane="topRight" activeCell="BQ68" sqref="BQ68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="92" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="20" customWidth="1"/>
@@ -3943,7 +3944,7 @@
     <col min="108" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="59"/>
       <c r="B1" s="447" t="s">
         <v>42</v>
@@ -4064,7 +4065,7 @@
       <c r="DB1" s="448"/>
       <c r="DC1" s="60"/>
     </row>
-    <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:119" s="24" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
@@ -4399,7 +4400,7 @@
       <c r="DN2" s="23"/>
       <c r="DO2" s="23"/>
     </row>
-    <row r="3" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:119" s="17" customFormat="1">
       <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
@@ -4418,7 +4419,7 @@
       <c r="CL3" s="20"/>
       <c r="DC3" s="19"/>
     </row>
-    <row r="4" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:119" s="17" customFormat="1">
       <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
@@ -4437,7 +4438,7 @@
       <c r="CL4" s="20"/>
       <c r="DC4" s="19"/>
     </row>
-    <row r="5" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:119" s="17" customFormat="1">
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
@@ -4459,7 +4460,7 @@
       <c r="CL5" s="20"/>
       <c r="DC5" s="19"/>
     </row>
-    <row r="6" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:119" s="17" customFormat="1">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
@@ -4481,7 +4482,7 @@
       <c r="CL6" s="20"/>
       <c r="DC6" s="19"/>
     </row>
-    <row r="7" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:119" s="17" customFormat="1">
       <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
@@ -4503,7 +4504,7 @@
       <c r="CL7" s="20"/>
       <c r="DC7" s="19"/>
     </row>
-    <row r="8" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:119" s="17" customFormat="1">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -4525,7 +4526,7 @@
       <c r="CL8" s="20"/>
       <c r="DC8" s="19"/>
     </row>
-    <row r="9" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:119" s="17" customFormat="1">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
@@ -4547,7 +4548,7 @@
       <c r="CL9" s="20"/>
       <c r="DC9" s="19"/>
     </row>
-    <row r="10" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:119" s="17" customFormat="1">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
@@ -4569,7 +4570,7 @@
       <c r="CL10" s="20"/>
       <c r="DC10" s="19"/>
     </row>
-    <row r="11" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:119" s="17" customFormat="1">
       <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
@@ -4590,7 +4591,7 @@
       <c r="CL11" s="20"/>
       <c r="DC11" s="19"/>
     </row>
-    <row r="12" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:119" s="17" customFormat="1">
       <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
@@ -4610,7 +4611,7 @@
       <c r="CL12" s="20"/>
       <c r="DC12" s="19"/>
     </row>
-    <row r="13" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:119" s="17" customFormat="1">
       <c r="A13" s="20" t="s">
         <v>15</v>
       </c>
@@ -4630,7 +4631,7 @@
       <c r="CL13" s="20"/>
       <c r="DC13" s="19"/>
     </row>
-    <row r="14" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:119" s="17" customFormat="1">
       <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
@@ -4651,7 +4652,7 @@
       <c r="CL14" s="20"/>
       <c r="DC14" s="19"/>
     </row>
-    <row r="15" spans="1:119" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:119" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A15" s="30" t="s">
         <v>41</v>
       </c>
@@ -4675,7 +4676,7 @@
       <c r="CL15" s="25"/>
       <c r="DC15" s="32"/>
     </row>
-    <row r="16" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:119" s="24" customFormat="1">
       <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
@@ -4694,7 +4695,7 @@
       <c r="CL16" s="22"/>
       <c r="DC16" s="42"/>
     </row>
-    <row r="17" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16384" s="17" customFormat="1">
       <c r="A17" s="20" t="s">
         <v>19</v>
       </c>
@@ -4713,7 +4714,7 @@
       <c r="CL17" s="20"/>
       <c r="DC17" s="19"/>
     </row>
-    <row r="18" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16384" s="17" customFormat="1">
       <c r="A18" s="20" t="s">
         <v>21</v>
       </c>
@@ -4732,7 +4733,7 @@
       <c r="CL18" s="20"/>
       <c r="DC18" s="19"/>
     </row>
-    <row r="19" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16384" s="17" customFormat="1">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -4751,7 +4752,7 @@
       <c r="CL19" s="20"/>
       <c r="DC19" s="19"/>
     </row>
-    <row r="20" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16384" s="17" customFormat="1">
       <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
@@ -4774,7 +4775,7 @@
       <c r="CL20" s="20"/>
       <c r="DC20" s="19"/>
     </row>
-    <row r="21" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16384" s="17" customFormat="1">
       <c r="A21" s="43" t="s">
         <v>51</v>
       </c>
@@ -4795,7 +4796,7 @@
       <c r="CL21" s="20"/>
       <c r="DC21" s="19"/>
     </row>
-    <row r="22" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16384" s="17" customFormat="1">
       <c r="A22" s="20" t="s">
         <v>22</v>
       </c>
@@ -4815,7 +4816,7 @@
       <c r="CL22" s="20"/>
       <c r="DC22" s="19"/>
     </row>
-    <row r="23" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16384" s="17" customFormat="1">
       <c r="A23" s="20" t="s">
         <v>23</v>
       </c>
@@ -4834,7 +4835,7 @@
       <c r="CL23" s="20"/>
       <c r="DC23" s="19"/>
     </row>
-    <row r="24" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16384" s="17" customFormat="1">
       <c r="A24" s="43" t="s">
         <v>52</v>
       </c>
@@ -4858,7 +4859,7 @@
       <c r="CL24" s="20"/>
       <c r="DC24" s="19"/>
     </row>
-    <row r="25" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16384" s="17" customFormat="1">
       <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
@@ -4881,7 +4882,7 @@
       <c r="CL25" s="20"/>
       <c r="DC25" s="19"/>
     </row>
-    <row r="26" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16384" s="17" customFormat="1">
       <c r="A26" s="43" t="s">
         <v>54</v>
       </c>
@@ -4904,7 +4905,7 @@
       <c r="CL26" s="20"/>
       <c r="DC26" s="19"/>
     </row>
-    <row r="27" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16384" s="17" customFormat="1">
       <c r="A27" s="43" t="s">
         <v>55</v>
       </c>
@@ -4929,7 +4930,7 @@
       <c r="CL27" s="20"/>
       <c r="DC27" s="19"/>
     </row>
-    <row r="28" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16384" s="17" customFormat="1">
       <c r="A28" s="43" t="s">
         <v>56</v>
       </c>
@@ -21315,7 +21316,7 @@
       <c r="XFC28" s="36"/>
       <c r="XFD28" s="36"/>
     </row>
-    <row r="29" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16384" s="17" customFormat="1">
       <c r="A29" s="20" t="s">
         <v>57</v>
       </c>
@@ -21335,7 +21336,7 @@
       <c r="CL29" s="20"/>
       <c r="DC29" s="19"/>
     </row>
-    <row r="30" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16384" s="17" customFormat="1">
       <c r="A30" s="20" t="s">
         <v>58</v>
       </c>
@@ -21355,7 +21356,7 @@
       <c r="CL30" s="20"/>
       <c r="DC30" s="19"/>
     </row>
-    <row r="31" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16384" s="17" customFormat="1">
       <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
@@ -21374,7 +21375,7 @@
       <c r="CL31" s="20"/>
       <c r="DC31" s="19"/>
     </row>
-    <row r="32" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16384" s="17" customFormat="1">
       <c r="A32" s="43" t="s">
         <v>59</v>
       </c>
@@ -21394,7 +21395,7 @@
       <c r="CL32" s="20"/>
       <c r="DC32" s="19"/>
     </row>
-    <row r="33" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:107" s="17" customFormat="1">
       <c r="A33" s="43" t="s">
         <v>43</v>
       </c>
@@ -21414,7 +21415,7 @@
       <c r="CL33" s="20"/>
       <c r="DC33" s="19"/>
     </row>
-    <row r="34" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:107" s="17" customFormat="1">
       <c r="A34" s="43" t="s">
         <v>44</v>
       </c>
@@ -21436,7 +21437,7 @@
       <c r="CL34" s="20"/>
       <c r="DC34" s="19"/>
     </row>
-    <row r="35" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:107" s="17" customFormat="1">
       <c r="A35" s="43" t="s">
         <v>46</v>
       </c>
@@ -21456,7 +21457,7 @@
       <c r="CL35" s="20"/>
       <c r="DC35" s="19"/>
     </row>
-    <row r="36" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:107" s="17" customFormat="1">
       <c r="A36" s="43" t="s">
         <v>45</v>
       </c>
@@ -21478,7 +21479,7 @@
       <c r="CL36" s="20"/>
       <c r="DC36" s="19"/>
     </row>
-    <row r="37" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:107" s="17" customFormat="1">
       <c r="A37" s="43" t="s">
         <v>47</v>
       </c>
@@ -21498,7 +21499,7 @@
       <c r="CL37" s="20"/>
       <c r="DC37" s="19"/>
     </row>
-    <row r="38" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:107" s="17" customFormat="1">
       <c r="A38" s="43" t="s">
         <v>48</v>
       </c>
@@ -21518,7 +21519,7 @@
       <c r="CL38" s="20"/>
       <c r="DC38" s="19"/>
     </row>
-    <row r="39" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:107" s="17" customFormat="1">
       <c r="A39" s="43" t="s">
         <v>49</v>
       </c>
@@ -21538,7 +21539,7 @@
       <c r="CL39" s="20"/>
       <c r="DC39" s="19"/>
     </row>
-    <row r="40" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:107" s="17" customFormat="1">
       <c r="A40" s="43" t="s">
         <v>50</v>
       </c>
@@ -21558,7 +21559,7 @@
       <c r="CL40" s="20"/>
       <c r="DC40" s="19"/>
     </row>
-    <row r="41" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:107" s="17" customFormat="1">
       <c r="A41" s="43" t="s">
         <v>60</v>
       </c>
@@ -21579,7 +21580,7 @@
       <c r="CL41" s="20"/>
       <c r="DC41" s="19"/>
     </row>
-    <row r="42" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:107" s="17" customFormat="1">
       <c r="A42" s="43" t="s">
         <v>61</v>
       </c>
@@ -21600,7 +21601,7 @@
       <c r="CL42" s="20"/>
       <c r="DC42" s="19"/>
     </row>
-    <row r="43" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:107" s="17" customFormat="1">
       <c r="A43" s="43" t="s">
         <v>63</v>
       </c>
@@ -21623,7 +21624,7 @@
       <c r="CL43" s="20"/>
       <c r="DC43" s="19"/>
     </row>
-    <row r="44" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:107" s="17" customFormat="1">
       <c r="A44" s="20" t="s">
         <v>20</v>
       </c>
@@ -21650,7 +21651,7 @@
       <c r="CL44" s="20"/>
       <c r="DC44" s="19"/>
     </row>
-    <row r="45" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:107" s="17" customFormat="1">
       <c r="A45" s="20" t="s">
         <v>24</v>
       </c>
@@ -21670,7 +21671,7 @@
       <c r="CL45" s="20"/>
       <c r="DC45" s="19"/>
     </row>
-    <row r="46" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:107" s="17" customFormat="1">
       <c r="A46" s="20" t="s">
         <v>28</v>
       </c>
@@ -21694,7 +21695,7 @@
       <c r="CL46" s="20"/>
       <c r="DC46" s="19"/>
     </row>
-    <row r="47" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A47" s="30" t="s">
         <v>64</v>
       </c>
@@ -21730,7 +21731,7 @@
       <c r="CL47" s="25"/>
       <c r="DC47" s="32"/>
     </row>
-    <row r="48" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:107" s="24" customFormat="1">
       <c r="A48" s="22" t="s">
         <v>4</v>
       </c>
@@ -21753,7 +21754,7 @@
       <c r="CL48" s="22"/>
       <c r="DC48" s="42"/>
     </row>
-    <row r="49" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:107" s="17" customFormat="1">
       <c r="A49" s="20" t="s">
         <v>67</v>
       </c>
@@ -21774,7 +21775,7 @@
       <c r="CL49" s="20"/>
       <c r="DC49" s="19"/>
     </row>
-    <row r="50" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:107" s="17" customFormat="1">
       <c r="A50" s="20" t="s">
         <v>66</v>
       </c>
@@ -21798,7 +21799,7 @@
       <c r="CL50" s="20"/>
       <c r="DC50" s="19"/>
     </row>
-    <row r="51" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:107" s="17" customFormat="1">
       <c r="A51" s="20" t="s">
         <v>74</v>
       </c>
@@ -21823,7 +21824,7 @@
       <c r="CL51" s="20"/>
       <c r="DC51" s="19"/>
     </row>
-    <row r="52" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A52" s="30" t="s">
         <v>68</v>
       </c>
@@ -21850,7 +21851,7 @@
       <c r="CL52" s="25"/>
       <c r="DC52" s="32"/>
     </row>
-    <row r="53" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:107" s="24" customFormat="1">
       <c r="A53" s="22" t="s">
         <v>2</v>
       </c>
@@ -21876,7 +21877,7 @@
       <c r="CL53" s="22"/>
       <c r="DC53" s="42"/>
     </row>
-    <row r="54" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:107" s="17" customFormat="1">
       <c r="A54" s="20" t="s">
         <v>3</v>
       </c>
@@ -21902,7 +21903,7 @@
       <c r="CL54" s="20"/>
       <c r="DC54" s="19"/>
     </row>
-    <row r="55" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:107" s="17" customFormat="1">
       <c r="A55" s="20" t="s">
         <v>1</v>
       </c>
@@ -21926,7 +21927,7 @@
       <c r="CL55" s="20"/>
       <c r="DC55" s="19"/>
     </row>
-    <row r="56" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:107" s="17" customFormat="1">
       <c r="A56" s="20" t="s">
         <v>0</v>
       </c>
@@ -21955,7 +21956,7 @@
       <c r="CL56" s="20"/>
       <c r="DC56" s="19"/>
     </row>
-    <row r="57" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:107" s="17" customFormat="1">
       <c r="A57" s="43" t="s">
         <v>59</v>
       </c>
@@ -21983,7 +21984,7 @@
       <c r="CL57" s="20"/>
       <c r="DC57" s="19"/>
     </row>
-    <row r="58" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:107" s="17" customFormat="1">
       <c r="A58" s="43" t="s">
         <v>43</v>
       </c>
@@ -22011,7 +22012,7 @@
       <c r="CL58" s="20"/>
       <c r="DC58" s="19"/>
     </row>
-    <row r="59" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:107" s="17" customFormat="1">
       <c r="A59" s="43" t="s">
         <v>44</v>
       </c>
@@ -22039,7 +22040,7 @@
       <c r="CL59" s="20"/>
       <c r="DC59" s="19"/>
     </row>
-    <row r="60" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:107" s="17" customFormat="1">
       <c r="A60" s="43" t="s">
         <v>46</v>
       </c>
@@ -22066,7 +22067,7 @@
       <c r="CL60" s="20"/>
       <c r="DC60" s="19"/>
     </row>
-    <row r="61" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:107" s="17" customFormat="1">
       <c r="A61" s="43" t="s">
         <v>45</v>
       </c>
@@ -22093,7 +22094,7 @@
       <c r="CL61" s="20"/>
       <c r="DC61" s="19"/>
     </row>
-    <row r="62" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:107" s="17" customFormat="1">
       <c r="A62" s="43" t="s">
         <v>47</v>
       </c>
@@ -22120,7 +22121,7 @@
       <c r="CL62" s="20"/>
       <c r="DC62" s="19"/>
     </row>
-    <row r="63" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:107" s="17" customFormat="1">
       <c r="A63" s="43" t="s">
         <v>48</v>
       </c>
@@ -22148,7 +22149,7 @@
       <c r="CL63" s="20"/>
       <c r="DC63" s="19"/>
     </row>
-    <row r="64" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:107" s="17" customFormat="1">
       <c r="A64" s="43" t="s">
         <v>49</v>
       </c>
@@ -22176,7 +22177,7 @@
       <c r="CL64" s="20"/>
       <c r="DC64" s="19"/>
     </row>
-    <row r="65" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:107" s="17" customFormat="1">
       <c r="A65" s="43" t="s">
         <v>50</v>
       </c>
@@ -22204,7 +22205,7 @@
       <c r="CL65" s="20"/>
       <c r="DC65" s="19"/>
     </row>
-    <row r="66" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:107" s="17" customFormat="1">
       <c r="A66" s="43" t="s">
         <v>60</v>
       </c>
@@ -22232,7 +22233,7 @@
       <c r="CL66" s="20"/>
       <c r="DC66" s="19"/>
     </row>
-    <row r="67" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:107" s="17" customFormat="1">
       <c r="A67" s="43" t="s">
         <v>61</v>
       </c>
@@ -22259,7 +22260,7 @@
       <c r="CL67" s="20"/>
       <c r="DC67" s="19"/>
     </row>
-    <row r="68" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A68" s="30" t="s">
         <v>70</v>
       </c>
@@ -22287,7 +22288,7 @@
       <c r="CL68" s="25"/>
       <c r="DC68" s="32"/>
     </row>
-    <row r="69" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:107" s="24" customFormat="1">
       <c r="A69" s="50" t="s">
         <v>29</v>
       </c>
@@ -22308,7 +22309,7 @@
       <c r="CL69" s="22"/>
       <c r="DC69" s="42"/>
     </row>
-    <row r="70" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:107" s="17" customFormat="1">
       <c r="A70" s="45" t="s">
         <v>31</v>
       </c>
@@ -22329,7 +22330,7 @@
       <c r="CL70" s="20"/>
       <c r="DC70" s="19"/>
     </row>
-    <row r="71" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:107" s="17" customFormat="1">
       <c r="A71" s="51" t="s">
         <v>35</v>
       </c>
@@ -22351,7 +22352,7 @@
       <c r="CL71" s="20"/>
       <c r="DC71" s="19"/>
     </row>
-    <row r="72" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:107" s="17" customFormat="1">
       <c r="A72" s="45" t="s">
         <v>30</v>
       </c>
@@ -22372,7 +22373,7 @@
       <c r="CL72" s="20"/>
       <c r="DC72" s="19"/>
     </row>
-    <row r="73" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:107" s="47" customFormat="1">
       <c r="A73" s="45" t="s">
         <v>33</v>
       </c>
@@ -22393,7 +22394,7 @@
       <c r="CL73" s="46"/>
       <c r="DC73" s="49"/>
     </row>
-    <row r="74" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:107" s="47" customFormat="1">
       <c r="A74" s="46" t="s">
         <v>80</v>
       </c>
@@ -22415,7 +22416,7 @@
       <c r="CL74" s="46"/>
       <c r="DC74" s="49"/>
     </row>
-    <row r="75" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:107" s="47" customFormat="1">
       <c r="A75" s="43" t="s">
         <v>75</v>
       </c>
@@ -22437,7 +22438,7 @@
       <c r="CL75" s="46"/>
       <c r="DC75" s="49"/>
     </row>
-    <row r="76" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:107" s="47" customFormat="1">
       <c r="A76" s="43" t="s">
         <v>76</v>
       </c>
@@ -22459,7 +22460,7 @@
       <c r="CL76" s="46"/>
       <c r="DC76" s="49"/>
     </row>
-    <row r="77" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:107" s="47" customFormat="1">
       <c r="A77" s="43" t="s">
         <v>77</v>
       </c>
@@ -22481,7 +22482,7 @@
       <c r="CL77" s="46"/>
       <c r="DC77" s="49"/>
     </row>
-    <row r="78" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:107" s="47" customFormat="1">
       <c r="A78" s="43" t="s">
         <v>78</v>
       </c>
@@ -22503,7 +22504,7 @@
       <c r="CL78" s="46"/>
       <c r="DC78" s="49"/>
     </row>
-    <row r="79" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:107" s="47" customFormat="1">
       <c r="A79" s="43" t="s">
         <v>79</v>
       </c>
@@ -22525,7 +22526,7 @@
       <c r="CL79" s="46"/>
       <c r="DC79" s="49"/>
     </row>
-    <row r="80" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A80" s="30" t="s">
         <v>73</v>
       </c>
@@ -22556,7 +22557,7 @@
       <c r="CL80" s="62"/>
       <c r="DC80" s="32"/>
     </row>
-    <row r="81" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:107" s="24" customFormat="1">
       <c r="A81" s="22" t="s">
         <v>5</v>
       </c>
@@ -22578,7 +22579,7 @@
       <c r="CN81" s="44"/>
       <c r="DC81" s="42"/>
     </row>
-    <row r="82" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:107" s="17" customFormat="1">
       <c r="A82" s="20" t="s">
         <v>12</v>
       </c>
@@ -22599,7 +22600,7 @@
       <c r="CO82" s="21"/>
       <c r="DC82" s="19"/>
     </row>
-    <row r="83" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:107" s="17" customFormat="1">
       <c r="A83" s="20" t="s">
         <v>25</v>
       </c>
@@ -22620,7 +22621,7 @@
       <c r="CO83" s="21"/>
       <c r="DC83" s="19"/>
     </row>
-    <row r="84" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:107" s="17" customFormat="1">
       <c r="A84" s="20" t="s">
         <v>82</v>
       </c>
@@ -22641,7 +22642,7 @@
       <c r="CO84" s="21"/>
       <c r="DC84" s="19"/>
     </row>
-    <row r="85" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:107" s="17" customFormat="1">
       <c r="A85" s="20" t="s">
         <v>84</v>
       </c>
@@ -22665,7 +22666,7 @@
       <c r="CS85" s="21"/>
       <c r="DC85" s="19"/>
     </row>
-    <row r="86" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A86" s="30" t="s">
         <v>83</v>
       </c>
@@ -22714,12 +22715,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -22733,7 +22734,7 @@
     <col min="96" max="100" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100">
       <c r="A1" s="223">
         <v>43670</v>
       </c>
@@ -23042,7 +23043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CX71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -23050,7 +23051,7 @@
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="97"/>
@@ -23084,7 +23085,7 @@
     <col min="103" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:102" s="100" customFormat="1">
       <c r="A1" s="77"/>
       <c r="B1" s="459" t="s">
         <v>103</v>
@@ -23200,7 +23201,7 @@
       <c r="CW1" s="452"/>
       <c r="CX1" s="99"/>
     </row>
-    <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -23506,7 +23507,7 @@
       </c>
       <c r="CX2" s="208"/>
     </row>
-    <row r="3" spans="1:102" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:102" s="113" customFormat="1">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -23612,7 +23613,7 @@
       <c r="CW3" s="111"/>
       <c r="CX3" s="209"/>
     </row>
-    <row r="4" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:102" s="64" customFormat="1">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -23635,7 +23636,7 @@
       <c r="CW4" s="87"/>
       <c r="CX4" s="71"/>
     </row>
-    <row r="5" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:102" s="64" customFormat="1">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -23658,7 +23659,7 @@
       <c r="CW5" s="87"/>
       <c r="CX5" s="71"/>
     </row>
-    <row r="6" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:102" s="64" customFormat="1">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -23684,7 +23685,7 @@
       <c r="CW6" s="87"/>
       <c r="CX6" s="71"/>
     </row>
-    <row r="7" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:102" s="64" customFormat="1">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -23710,7 +23711,7 @@
       <c r="CW7" s="87"/>
       <c r="CX7" s="71"/>
     </row>
-    <row r="8" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:102" s="64" customFormat="1">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -23736,7 +23737,7 @@
       <c r="CW8" s="87"/>
       <c r="CX8" s="71"/>
     </row>
-    <row r="9" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:102" s="64" customFormat="1">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -23762,7 +23763,7 @@
       <c r="CW9" s="87"/>
       <c r="CX9" s="71"/>
     </row>
-    <row r="10" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:102" s="64" customFormat="1">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -23788,7 +23789,7 @@
       <c r="CW10" s="87"/>
       <c r="CX10" s="71"/>
     </row>
-    <row r="11" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:102" s="64" customFormat="1">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -23814,7 +23815,7 @@
       <c r="CW11" s="87"/>
       <c r="CX11" s="71"/>
     </row>
-    <row r="12" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:102" s="64" customFormat="1">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -23838,7 +23839,7 @@
       <c r="CW12" s="87"/>
       <c r="CX12" s="71"/>
     </row>
-    <row r="13" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:102" s="64" customFormat="1">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -23862,7 +23863,7 @@
       <c r="CW13" s="87"/>
       <c r="CX13" s="71"/>
     </row>
-    <row r="14" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:102" s="64" customFormat="1">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -23886,7 +23887,7 @@
       <c r="CW14" s="87"/>
       <c r="CX14" s="71"/>
     </row>
-    <row r="15" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:102" s="64" customFormat="1">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -23911,7 +23912,7 @@
       <c r="CW15" s="87"/>
       <c r="CX15" s="71"/>
     </row>
-    <row r="16" spans="1:102" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:102" s="116" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -23939,7 +23940,7 @@
       <c r="CW16" s="166"/>
       <c r="CX16" s="118"/>
     </row>
-    <row r="17" spans="1:102" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:102" s="121" customFormat="1">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -23962,7 +23963,7 @@
       <c r="CW17" s="122"/>
       <c r="CX17" s="123"/>
     </row>
-    <row r="18" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:102" s="66" customFormat="1">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -23984,7 +23985,7 @@
       <c r="CW18" s="90"/>
       <c r="CX18" s="72"/>
     </row>
-    <row r="19" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:102" s="66" customFormat="1">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -24006,7 +24007,7 @@
       <c r="CW19" s="90"/>
       <c r="CX19" s="72"/>
     </row>
-    <row r="20" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:102" s="66" customFormat="1">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -24029,7 +24030,7 @@
       <c r="CW20" s="90"/>
       <c r="CX20" s="72"/>
     </row>
-    <row r="21" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:102" s="66" customFormat="1">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -24057,7 +24058,7 @@
       <c r="CW21" s="90"/>
       <c r="CX21" s="72"/>
     </row>
-    <row r="22" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:102" s="66" customFormat="1">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -24081,7 +24082,7 @@
       <c r="CW22" s="90"/>
       <c r="CX22" s="72"/>
     </row>
-    <row r="23" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:102" s="66" customFormat="1">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -24109,7 +24110,7 @@
       <c r="CW23" s="90"/>
       <c r="CX23" s="72"/>
     </row>
-    <row r="24" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:102" s="66" customFormat="1">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -24131,7 +24132,7 @@
       <c r="CW24" s="90"/>
       <c r="CX24" s="72"/>
     </row>
-    <row r="25" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:102" s="66" customFormat="1">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -24154,7 +24155,7 @@
       <c r="CW25" s="90"/>
       <c r="CX25" s="72"/>
     </row>
-    <row r="26" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:102" s="66" customFormat="1">
       <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
@@ -24177,7 +24178,7 @@
       <c r="CW26" s="90"/>
       <c r="CX26" s="72"/>
     </row>
-    <row r="27" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:102" s="66" customFormat="1">
       <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
@@ -24200,7 +24201,7 @@
       <c r="CW27" s="90"/>
       <c r="CX27" s="72"/>
     </row>
-    <row r="28" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:102" s="66" customFormat="1">
       <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
@@ -24223,7 +24224,7 @@
       <c r="CW28" s="90"/>
       <c r="CX28" s="72"/>
     </row>
-    <row r="29" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:102" s="66" customFormat="1">
       <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
@@ -24246,7 +24247,7 @@
       <c r="CW29" s="90"/>
       <c r="CX29" s="72"/>
     </row>
-    <row r="30" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:102" s="66" customFormat="1">
       <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
@@ -24269,7 +24270,7 @@
       <c r="CW30" s="90"/>
       <c r="CX30" s="72"/>
     </row>
-    <row r="31" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:102" s="66" customFormat="1">
       <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
@@ -24292,7 +24293,7 @@
       <c r="CW31" s="90"/>
       <c r="CX31" s="72"/>
     </row>
-    <row r="32" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:102" s="66" customFormat="1">
       <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
@@ -24315,7 +24316,7 @@
       <c r="CW32" s="90"/>
       <c r="CX32" s="72"/>
     </row>
-    <row r="33" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:102" s="66" customFormat="1">
       <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
@@ -24338,7 +24339,7 @@
       <c r="CW33" s="90"/>
       <c r="CX33" s="72"/>
     </row>
-    <row r="34" spans="1:102" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:102" s="126" customFormat="1" ht="15.75" thickBot="1">
       <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
@@ -24368,7 +24369,7 @@
       <c r="CW34" s="127"/>
       <c r="CX34" s="128"/>
     </row>
-    <row r="35" spans="1:102" s="131" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:102" s="131" customFormat="1">
       <c r="A35" s="129" t="s">
         <v>97</v>
       </c>
@@ -24391,7 +24392,7 @@
       <c r="CW35" s="132"/>
       <c r="CX35" s="133"/>
     </row>
-    <row r="36" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:102" s="68" customFormat="1">
       <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
@@ -24412,7 +24413,7 @@
       <c r="CW36" s="92"/>
       <c r="CX36" s="73"/>
     </row>
-    <row r="37" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:102" s="68" customFormat="1">
       <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
@@ -24435,7 +24436,7 @@
       <c r="CW37" s="92"/>
       <c r="CX37" s="73"/>
     </row>
-    <row r="38" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:102" s="68" customFormat="1">
       <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
@@ -24457,7 +24458,7 @@
       <c r="CW38" s="92"/>
       <c r="CX38" s="73"/>
     </row>
-    <row r="39" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:102" s="68" customFormat="1">
       <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
@@ -24478,7 +24479,7 @@
       <c r="CW39" s="92"/>
       <c r="CX39" s="73"/>
     </row>
-    <row r="40" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:102" s="174" customFormat="1">
       <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
@@ -24500,7 +24501,7 @@
       <c r="CW40" s="175"/>
       <c r="CX40" s="176"/>
     </row>
-    <row r="41" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:102" s="174" customFormat="1">
       <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
@@ -24522,7 +24523,7 @@
       <c r="CW41" s="175"/>
       <c r="CX41" s="176"/>
     </row>
-    <row r="42" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:102" s="174" customFormat="1">
       <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
@@ -24544,7 +24545,7 @@
       <c r="CW42" s="175"/>
       <c r="CX42" s="176"/>
     </row>
-    <row r="43" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:102" s="174" customFormat="1">
       <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
@@ -24566,7 +24567,7 @@
       <c r="CW43" s="175"/>
       <c r="CX43" s="176"/>
     </row>
-    <row r="44" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:102" s="174" customFormat="1">
       <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
@@ -24588,7 +24589,7 @@
       <c r="CW44" s="175"/>
       <c r="CX44" s="176"/>
     </row>
-    <row r="45" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:102" s="174" customFormat="1">
       <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
@@ -24610,7 +24611,7 @@
       <c r="CW45" s="175"/>
       <c r="CX45" s="176"/>
     </row>
-    <row r="46" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:102" s="68" customFormat="1">
       <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
@@ -24633,7 +24634,7 @@
       <c r="CW46" s="92"/>
       <c r="CX46" s="73"/>
     </row>
-    <row r="47" spans="1:102" s="136" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:102" s="136" customFormat="1" ht="15.75" thickBot="1">
       <c r="A47" s="134" t="s">
         <v>100</v>
       </c>
@@ -24668,7 +24669,7 @@
       <c r="CW47" s="137"/>
       <c r="CX47" s="138"/>
     </row>
-    <row r="48" spans="1:102" s="141" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:102" s="141" customFormat="1">
       <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
@@ -24691,7 +24692,7 @@
       <c r="CW48" s="142"/>
       <c r="CX48" s="143"/>
     </row>
-    <row r="49" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:102" s="69" customFormat="1">
       <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
@@ -24713,7 +24714,7 @@
       <c r="CW49" s="94"/>
       <c r="CX49" s="74"/>
     </row>
-    <row r="50" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:102" s="69" customFormat="1">
       <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
@@ -24734,7 +24735,7 @@
       <c r="CW50" s="94"/>
       <c r="CX50" s="74"/>
     </row>
-    <row r="51" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:102" s="69" customFormat="1">
       <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
@@ -24756,7 +24757,7 @@
       <c r="CW51" s="94"/>
       <c r="CX51" s="74"/>
     </row>
-    <row r="52" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:102" s="69" customFormat="1">
       <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
@@ -24778,7 +24779,7 @@
       <c r="CW52" s="94"/>
       <c r="CX52" s="74"/>
     </row>
-    <row r="53" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:102" s="69" customFormat="1">
       <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
@@ -24800,7 +24801,7 @@
       <c r="CW53" s="94"/>
       <c r="CX53" s="74"/>
     </row>
-    <row r="54" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:102" s="69" customFormat="1">
       <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
@@ -24822,7 +24823,7 @@
       <c r="CW54" s="94"/>
       <c r="CX54" s="74"/>
     </row>
-    <row r="55" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:102" s="69" customFormat="1">
       <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
@@ -24843,7 +24844,7 @@
       <c r="CW55" s="94"/>
       <c r="CX55" s="74"/>
     </row>
-    <row r="56" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:102" s="69" customFormat="1">
       <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
@@ -24865,7 +24866,7 @@
       <c r="CW56" s="94"/>
       <c r="CX56" s="74"/>
     </row>
-    <row r="57" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:102" s="69" customFormat="1">
       <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
@@ -24888,7 +24889,7 @@
       <c r="CW57" s="94"/>
       <c r="CX57" s="74"/>
     </row>
-    <row r="58" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:102" s="69" customFormat="1">
       <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
@@ -24910,7 +24911,7 @@
       <c r="CW58" s="94"/>
       <c r="CX58" s="74"/>
     </row>
-    <row r="59" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:102" s="69" customFormat="1">
       <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
@@ -24932,7 +24933,7 @@
       <c r="CW59" s="94"/>
       <c r="CX59" s="74"/>
     </row>
-    <row r="60" spans="1:102" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:102" s="146" customFormat="1" ht="15.75" thickBot="1">
       <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
@@ -24969,7 +24970,7 @@
       <c r="CW60" s="147"/>
       <c r="CX60" s="148"/>
     </row>
-    <row r="61" spans="1:102" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:102" s="156" customFormat="1">
       <c r="A61" s="154" t="s">
         <v>93</v>
       </c>
@@ -24992,7 +24993,7 @@
       <c r="CW61" s="157"/>
       <c r="CX61" s="158"/>
     </row>
-    <row r="62" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:102" s="70" customFormat="1">
       <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
@@ -25016,7 +25017,7 @@
       <c r="CW62" s="96"/>
       <c r="CX62" s="75"/>
     </row>
-    <row r="63" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:102" s="70" customFormat="1">
       <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
@@ -25040,7 +25041,7 @@
       <c r="CW63" s="96"/>
       <c r="CX63" s="75"/>
     </row>
-    <row r="64" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:102" s="70" customFormat="1">
       <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
@@ -25063,7 +25064,7 @@
       <c r="CW64" s="96"/>
       <c r="CX64" s="75"/>
     </row>
-    <row r="65" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:102" s="70" customFormat="1">
       <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
@@ -25087,7 +25088,7 @@
       <c r="CW65" s="96"/>
       <c r="CX65" s="75"/>
     </row>
-    <row r="66" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:102" s="70" customFormat="1">
       <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
@@ -25111,7 +25112,7 @@
       <c r="CW66" s="96"/>
       <c r="CX66" s="75"/>
     </row>
-    <row r="67" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:102" s="70" customFormat="1">
       <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
@@ -25134,7 +25135,7 @@
       <c r="CW67" s="96"/>
       <c r="CX67" s="75"/>
     </row>
-    <row r="68" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:102" s="70" customFormat="1">
       <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
@@ -25159,7 +25160,7 @@
       <c r="CW68" s="96"/>
       <c r="CX68" s="75"/>
     </row>
-    <row r="69" spans="1:102" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:102" s="161" customFormat="1" ht="15.75" thickBot="1">
       <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
@@ -25187,7 +25188,7 @@
       <c r="CW69" s="162"/>
       <c r="CX69" s="163"/>
     </row>
-    <row r="70" spans="1:102" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:102" s="212" customFormat="1" ht="15.75" thickBot="1">
       <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
@@ -25212,7 +25213,7 @@
       </c>
       <c r="CX70" s="214"/>
     </row>
-    <row r="71" spans="1:102" s="151" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:102" s="151" customFormat="1">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
       <c r="P71" s="153"/>
@@ -25250,7 +25251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -25258,7 +25259,7 @@
       <selection pane="topRight" activeCell="DA49" sqref="DA49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="97" bestFit="1" customWidth="1"/>
@@ -25313,7 +25314,7 @@
     <col min="105" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:104" s="100" customFormat="1">
       <c r="A1" s="77"/>
       <c r="B1" s="459" t="s">
         <v>103</v>
@@ -25431,7 +25432,7 @@
       <c r="CY1" s="464"/>
       <c r="CZ1" s="99"/>
     </row>
-    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -25743,7 +25744,7 @@
       </c>
       <c r="CZ2" s="208"/>
     </row>
-    <row r="3" spans="1:104" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:104" s="113" customFormat="1">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -25850,7 +25851,7 @@
       <c r="CY3" s="269"/>
       <c r="CZ3" s="209"/>
     </row>
-    <row r="4" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:104" s="64" customFormat="1">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -25882,7 +25883,7 @@
       <c r="CY4" s="87"/>
       <c r="CZ4" s="71"/>
     </row>
-    <row r="5" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:104" s="64" customFormat="1">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -25914,7 +25915,7 @@
       <c r="CY5" s="87"/>
       <c r="CZ5" s="71"/>
     </row>
-    <row r="6" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:104" s="64" customFormat="1">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -25949,7 +25950,7 @@
       <c r="CY6" s="87"/>
       <c r="CZ6" s="71"/>
     </row>
-    <row r="7" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:104" s="64" customFormat="1">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -25986,7 +25987,7 @@
       <c r="CY7" s="87"/>
       <c r="CZ7" s="71"/>
     </row>
-    <row r="8" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:104" s="64" customFormat="1">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -26021,7 +26022,7 @@
       <c r="CY8" s="87"/>
       <c r="CZ8" s="71"/>
     </row>
-    <row r="9" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:104" s="64" customFormat="1">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -26056,7 +26057,7 @@
       <c r="CY9" s="87"/>
       <c r="CZ9" s="71"/>
     </row>
-    <row r="10" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:104" s="64" customFormat="1">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -26091,7 +26092,7 @@
       <c r="CY10" s="87"/>
       <c r="CZ10" s="71"/>
     </row>
-    <row r="11" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:104" s="64" customFormat="1">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -26126,7 +26127,7 @@
       <c r="CY11" s="87"/>
       <c r="CZ11" s="71"/>
     </row>
-    <row r="12" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:104" s="64" customFormat="1">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -26159,7 +26160,7 @@
       <c r="CY12" s="87"/>
       <c r="CZ12" s="71"/>
     </row>
-    <row r="13" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:104" s="64" customFormat="1">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -26192,7 +26193,7 @@
       <c r="CY13" s="87"/>
       <c r="CZ13" s="71"/>
     </row>
-    <row r="14" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:104" s="64" customFormat="1">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -26225,7 +26226,7 @@
       <c r="CY14" s="87"/>
       <c r="CZ14" s="71"/>
     </row>
-    <row r="15" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:104" s="64" customFormat="1">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -26259,7 +26260,7 @@
       <c r="CY15" s="87"/>
       <c r="CZ15" s="71"/>
     </row>
-    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -26297,7 +26298,7 @@
       <c r="CY16" s="166"/>
       <c r="CZ16" s="118"/>
     </row>
-    <row r="17" spans="1:104" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:104" s="121" customFormat="1">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -26328,7 +26329,7 @@
       <c r="CY17" s="122"/>
       <c r="CZ17" s="123"/>
     </row>
-    <row r="18" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:104" s="66" customFormat="1">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -26357,7 +26358,7 @@
       <c r="CY18" s="90"/>
       <c r="CZ18" s="72"/>
     </row>
-    <row r="19" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:104" s="66" customFormat="1">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -26387,7 +26388,7 @@
       <c r="CY19" s="90"/>
       <c r="CZ19" s="72"/>
     </row>
-    <row r="20" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:104" s="66" customFormat="1">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -26417,7 +26418,7 @@
       <c r="CY20" s="90"/>
       <c r="CZ20" s="72"/>
     </row>
-    <row r="21" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:104" s="66" customFormat="1">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -26452,7 +26453,7 @@
       <c r="CY21" s="90"/>
       <c r="CZ21" s="72"/>
     </row>
-    <row r="22" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:104" s="66" customFormat="1">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -26484,7 +26485,7 @@
       <c r="CY22" s="90"/>
       <c r="CZ22" s="72"/>
     </row>
-    <row r="23" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:104" s="66" customFormat="1">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -26519,7 +26520,7 @@
       <c r="CY23" s="90"/>
       <c r="CZ23" s="72"/>
     </row>
-    <row r="24" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:104" s="66" customFormat="1">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -26548,7 +26549,7 @@
       <c r="CY24" s="90"/>
       <c r="CZ24" s="72"/>
     </row>
-    <row r="25" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:104" s="66" customFormat="1">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -26578,7 +26579,7 @@
       <c r="CY25" s="90"/>
       <c r="CZ25" s="72"/>
     </row>
-    <row r="26" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:104" s="66" customFormat="1">
       <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
@@ -26609,7 +26610,7 @@
       <c r="CY26" s="90"/>
       <c r="CZ26" s="72"/>
     </row>
-    <row r="27" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:104" s="66" customFormat="1">
       <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
@@ -26639,7 +26640,7 @@
       <c r="CY27" s="90"/>
       <c r="CZ27" s="72"/>
     </row>
-    <row r="28" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:104" s="66" customFormat="1">
       <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
@@ -26669,7 +26670,7 @@
       <c r="CY28" s="90"/>
       <c r="CZ28" s="72"/>
     </row>
-    <row r="29" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:104" s="66" customFormat="1">
       <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
@@ -26699,7 +26700,7 @@
       <c r="CY29" s="90"/>
       <c r="CZ29" s="72"/>
     </row>
-    <row r="30" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:104" s="66" customFormat="1">
       <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
@@ -26729,7 +26730,7 @@
       <c r="CY30" s="90"/>
       <c r="CZ30" s="72"/>
     </row>
-    <row r="31" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:104" s="66" customFormat="1">
       <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
@@ -26759,7 +26760,7 @@
       <c r="CY31" s="90"/>
       <c r="CZ31" s="72"/>
     </row>
-    <row r="32" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:104" s="66" customFormat="1">
       <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
@@ -26789,7 +26790,7 @@
       <c r="CY32" s="90"/>
       <c r="CZ32" s="72"/>
     </row>
-    <row r="33" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:104" s="66" customFormat="1">
       <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
@@ -26820,7 +26821,7 @@
       <c r="CY33" s="90"/>
       <c r="CZ33" s="72"/>
     </row>
-    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1">
       <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
@@ -26860,7 +26861,7 @@
       <c r="CY34" s="127"/>
       <c r="CZ34" s="128"/>
     </row>
-    <row r="35" spans="1:104" s="272" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:104" s="272" customFormat="1">
       <c r="A35" s="270" t="s">
         <v>97</v>
       </c>
@@ -26890,7 +26891,7 @@
       <c r="CY35" s="274"/>
       <c r="CZ35" s="276"/>
     </row>
-    <row r="36" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:104" s="68" customFormat="1">
       <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
@@ -26920,7 +26921,7 @@
       <c r="CY36" s="92"/>
       <c r="CZ36" s="73"/>
     </row>
-    <row r="37" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:104" s="68" customFormat="1">
       <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
@@ -26952,7 +26953,7 @@
       <c r="CY37" s="92"/>
       <c r="CZ37" s="73"/>
     </row>
-    <row r="38" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:104" s="68" customFormat="1">
       <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
@@ -26983,7 +26984,7 @@
       <c r="CY38" s="92"/>
       <c r="CZ38" s="73"/>
     </row>
-    <row r="39" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:104" s="68" customFormat="1">
       <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
@@ -27013,7 +27014,7 @@
       <c r="CY39" s="92"/>
       <c r="CZ39" s="73"/>
     </row>
-    <row r="40" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:104" s="174" customFormat="1">
       <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
@@ -27043,7 +27044,7 @@
       <c r="CY40" s="175"/>
       <c r="CZ40" s="176"/>
     </row>
-    <row r="41" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:104" s="174" customFormat="1">
       <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
@@ -27073,7 +27074,7 @@
       <c r="CY41" s="175"/>
       <c r="CZ41" s="176"/>
     </row>
-    <row r="42" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:104" s="174" customFormat="1">
       <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
@@ -27103,7 +27104,7 @@
       <c r="CY42" s="175"/>
       <c r="CZ42" s="176"/>
     </row>
-    <row r="43" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:104" s="174" customFormat="1">
       <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
@@ -27133,7 +27134,7 @@
       <c r="CY43" s="175"/>
       <c r="CZ43" s="176"/>
     </row>
-    <row r="44" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:104" s="174" customFormat="1">
       <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
@@ -27163,7 +27164,7 @@
       <c r="CY44" s="175"/>
       <c r="CZ44" s="176"/>
     </row>
-    <row r="45" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:104" s="174" customFormat="1">
       <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
@@ -27193,7 +27194,7 @@
       <c r="CY45" s="175"/>
       <c r="CZ45" s="176"/>
     </row>
-    <row r="46" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:104" s="68" customFormat="1">
       <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
@@ -27225,7 +27226,7 @@
       <c r="CY46" s="92"/>
       <c r="CZ46" s="73"/>
     </row>
-    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1">
       <c r="A47" s="279" t="s">
         <v>100</v>
       </c>
@@ -27269,7 +27270,7 @@
       <c r="CY47" s="283"/>
       <c r="CZ47" s="288"/>
     </row>
-    <row r="48" spans="1:104" s="141" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:104" s="141" customFormat="1">
       <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
@@ -27299,7 +27300,7 @@
       <c r="CY48" s="142"/>
       <c r="CZ48" s="143"/>
     </row>
-    <row r="49" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:104" s="69" customFormat="1">
       <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
@@ -27328,7 +27329,7 @@
       <c r="CY49" s="94"/>
       <c r="CZ49" s="74"/>
     </row>
-    <row r="50" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:104" s="69" customFormat="1">
       <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
@@ -27356,7 +27357,7 @@
       <c r="CY50" s="94"/>
       <c r="CZ50" s="74"/>
     </row>
-    <row r="51" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:104" s="69" customFormat="1">
       <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
@@ -27385,7 +27386,7 @@
       <c r="CY51" s="94"/>
       <c r="CZ51" s="74"/>
     </row>
-    <row r="52" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:104" s="69" customFormat="1">
       <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
@@ -27414,7 +27415,7 @@
       <c r="CY52" s="94"/>
       <c r="CZ52" s="74"/>
     </row>
-    <row r="53" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:104" s="69" customFormat="1">
       <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
@@ -27443,7 +27444,7 @@
       <c r="CY53" s="94"/>
       <c r="CZ53" s="74"/>
     </row>
-    <row r="54" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:104" s="69" customFormat="1">
       <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
@@ -27472,7 +27473,7 @@
       <c r="CY54" s="94"/>
       <c r="CZ54" s="74"/>
     </row>
-    <row r="55" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:104" s="69" customFormat="1">
       <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
@@ -27500,7 +27501,7 @@
       <c r="CY55" s="94"/>
       <c r="CZ55" s="74"/>
     </row>
-    <row r="56" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:104" s="69" customFormat="1">
       <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
@@ -27529,7 +27530,7 @@
       <c r="CY56" s="94"/>
       <c r="CZ56" s="74"/>
     </row>
-    <row r="57" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:104" s="69" customFormat="1">
       <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
@@ -27559,7 +27560,7 @@
       <c r="CY57" s="94"/>
       <c r="CZ57" s="74"/>
     </row>
-    <row r="58" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:104" s="69" customFormat="1">
       <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
@@ -27588,7 +27589,7 @@
       <c r="CY58" s="94"/>
       <c r="CZ58" s="74"/>
     </row>
-    <row r="59" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:104" s="69" customFormat="1">
       <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
@@ -27617,7 +27618,7 @@
       <c r="CY59" s="94"/>
       <c r="CZ59" s="74"/>
     </row>
-    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1">
       <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
@@ -27662,7 +27663,7 @@
       <c r="CY60" s="147"/>
       <c r="CZ60" s="148"/>
     </row>
-    <row r="61" spans="1:104" s="291" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:104" s="291" customFormat="1">
       <c r="A61" s="289" t="s">
         <v>93</v>
       </c>
@@ -27694,7 +27695,7 @@
       <c r="CY61" s="293"/>
       <c r="CZ61" s="295"/>
     </row>
-    <row r="62" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:104" s="70" customFormat="1">
       <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
@@ -27725,7 +27726,7 @@
       <c r="CY62" s="96"/>
       <c r="CZ62" s="75"/>
     </row>
-    <row r="63" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:104" s="70" customFormat="1">
       <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
@@ -27756,7 +27757,7 @@
       <c r="CY63" s="96"/>
       <c r="CZ63" s="75"/>
     </row>
-    <row r="64" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:104" s="70" customFormat="1">
       <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
@@ -27786,7 +27787,7 @@
       <c r="CY64" s="96"/>
       <c r="CZ64" s="75"/>
     </row>
-    <row r="65" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:104" s="70" customFormat="1">
       <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
@@ -27817,7 +27818,7 @@
       <c r="CY65" s="96"/>
       <c r="CZ65" s="75"/>
     </row>
-    <row r="66" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:104" s="70" customFormat="1">
       <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
@@ -27848,7 +27849,7 @@
       <c r="CY66" s="96"/>
       <c r="CZ66" s="75"/>
     </row>
-    <row r="67" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:104" s="70" customFormat="1">
       <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
@@ -27878,7 +27879,7 @@
       <c r="CY67" s="96"/>
       <c r="CZ67" s="75"/>
     </row>
-    <row r="68" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:104" s="70" customFormat="1">
       <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
@@ -27910,7 +27911,7 @@
       <c r="CY68" s="96"/>
       <c r="CZ68" s="75"/>
     </row>
-    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1">
       <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
@@ -27943,7 +27944,7 @@
       <c r="CY69" s="162"/>
       <c r="CZ69" s="163"/>
     </row>
-    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1">
       <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
@@ -27977,7 +27978,7 @@
       </c>
       <c r="CZ70" s="214"/>
     </row>
-    <row r="71" spans="1:104" s="151" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:104" s="151" customFormat="1">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
       <c r="P71" s="238"/>
@@ -28025,7 +28026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -28033,7 +28034,7 @@
       <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="97" bestFit="1" customWidth="1"/>
@@ -28111,7 +28112,7 @@
     <col min="105" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:104" s="100" customFormat="1">
       <c r="A1" s="77"/>
       <c r="B1" s="459" t="s">
         <v>103</v>
@@ -28229,7 +28230,7 @@
       <c r="CY1" s="464"/>
       <c r="CZ1" s="99"/>
     </row>
-    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -28541,7 +28542,7 @@
       </c>
       <c r="CZ2" s="208"/>
     </row>
-    <row r="3" spans="1:104" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:104" s="113" customFormat="1">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -28648,7 +28649,7 @@
       <c r="CY3" s="269"/>
       <c r="CZ3" s="209"/>
     </row>
-    <row r="4" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:104" s="64" customFormat="1">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -28698,7 +28699,7 @@
       <c r="CY4" s="87"/>
       <c r="CZ4" s="71"/>
     </row>
-    <row r="5" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:104" s="64" customFormat="1">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -28748,7 +28749,7 @@
       <c r="CY5" s="87"/>
       <c r="CZ5" s="71"/>
     </row>
-    <row r="6" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:104" s="64" customFormat="1">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -28800,7 +28801,7 @@
       <c r="CY6" s="87"/>
       <c r="CZ6" s="71"/>
     </row>
-    <row r="7" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:104" s="64" customFormat="1">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -28854,7 +28855,7 @@
       <c r="CY7" s="87"/>
       <c r="CZ7" s="71"/>
     </row>
-    <row r="8" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:104" s="64" customFormat="1">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -28906,7 +28907,7 @@
       <c r="CY8" s="87"/>
       <c r="CZ8" s="71"/>
     </row>
-    <row r="9" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:104" s="64" customFormat="1">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -28958,7 +28959,7 @@
       <c r="CY9" s="87"/>
       <c r="CZ9" s="71"/>
     </row>
-    <row r="10" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:104" s="64" customFormat="1">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -29010,7 +29011,7 @@
       <c r="CY10" s="87"/>
       <c r="CZ10" s="71"/>
     </row>
-    <row r="11" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:104" s="64" customFormat="1">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -29062,7 +29063,7 @@
       <c r="CY11" s="87"/>
       <c r="CZ11" s="71"/>
     </row>
-    <row r="12" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:104" s="64" customFormat="1">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -29113,7 +29114,7 @@
       <c r="CY12" s="87"/>
       <c r="CZ12" s="71"/>
     </row>
-    <row r="13" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:104" s="64" customFormat="1">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -29164,7 +29165,7 @@
       <c r="CY13" s="87"/>
       <c r="CZ13" s="71"/>
     </row>
-    <row r="14" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:104" s="64" customFormat="1">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -29215,7 +29216,7 @@
       <c r="CY14" s="87"/>
       <c r="CZ14" s="71"/>
     </row>
-    <row r="15" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:104" s="64" customFormat="1">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -29267,7 +29268,7 @@
       <c r="CY15" s="87"/>
       <c r="CZ15" s="71"/>
     </row>
-    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -29322,7 +29323,7 @@
       <c r="CY16" s="166"/>
       <c r="CZ16" s="118"/>
     </row>
-    <row r="17" spans="1:104" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:104" s="121" customFormat="1">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -29371,7 +29372,7 @@
       <c r="CY17" s="122"/>
       <c r="CZ17" s="123"/>
     </row>
-    <row r="18" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:104" s="66" customFormat="1">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -29418,7 +29419,7 @@
       <c r="CY18" s="90"/>
       <c r="CZ18" s="72"/>
     </row>
-    <row r="19" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:104" s="66" customFormat="1">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -29466,7 +29467,7 @@
       <c r="CY19" s="90"/>
       <c r="CZ19" s="72"/>
     </row>
-    <row r="20" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:104" s="66" customFormat="1">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -29514,7 +29515,7 @@
       <c r="CY20" s="90"/>
       <c r="CZ20" s="72"/>
     </row>
-    <row r="21" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:104" s="66" customFormat="1">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -29566,7 +29567,7 @@
       <c r="CY21" s="90"/>
       <c r="CZ21" s="72"/>
     </row>
-    <row r="22" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:104" s="66" customFormat="1">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -29615,7 +29616,7 @@
       <c r="CY22" s="90"/>
       <c r="CZ22" s="72"/>
     </row>
-    <row r="23" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:104" s="66" customFormat="1">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -29668,7 +29669,7 @@
       <c r="CY23" s="90"/>
       <c r="CZ23" s="72"/>
     </row>
-    <row r="24" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:104" s="66" customFormat="1">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -29715,7 +29716,7 @@
       <c r="CY24" s="90"/>
       <c r="CZ24" s="72"/>
     </row>
-    <row r="25" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:104" s="66" customFormat="1">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -29762,7 +29763,7 @@
       <c r="CY25" s="90"/>
       <c r="CZ25" s="72"/>
     </row>
-    <row r="26" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:104" s="66" customFormat="1">
       <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
@@ -29811,7 +29812,7 @@
       <c r="CY26" s="90"/>
       <c r="CZ26" s="72"/>
     </row>
-    <row r="27" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:104" s="66" customFormat="1">
       <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
@@ -29859,7 +29860,7 @@
       <c r="CY27" s="90"/>
       <c r="CZ27" s="72"/>
     </row>
-    <row r="28" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:104" s="66" customFormat="1">
       <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
@@ -29907,7 +29908,7 @@
       <c r="CY28" s="90"/>
       <c r="CZ28" s="72"/>
     </row>
-    <row r="29" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:104" s="66" customFormat="1">
       <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
@@ -29955,7 +29956,7 @@
       <c r="CY29" s="90"/>
       <c r="CZ29" s="72"/>
     </row>
-    <row r="30" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:104" s="66" customFormat="1">
       <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
@@ -30003,7 +30004,7 @@
       <c r="CY30" s="90"/>
       <c r="CZ30" s="72"/>
     </row>
-    <row r="31" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:104" s="66" customFormat="1">
       <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
@@ -30051,7 +30052,7 @@
       <c r="CY31" s="90"/>
       <c r="CZ31" s="72"/>
     </row>
-    <row r="32" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:104" s="66" customFormat="1">
       <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
@@ -30099,7 +30100,7 @@
       <c r="CY32" s="90"/>
       <c r="CZ32" s="72"/>
     </row>
-    <row r="33" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:104" s="66" customFormat="1">
       <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
@@ -30148,7 +30149,7 @@
       <c r="CY33" s="90"/>
       <c r="CZ33" s="72"/>
     </row>
-    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1">
       <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
@@ -30204,7 +30205,7 @@
       <c r="CY34" s="127"/>
       <c r="CZ34" s="128"/>
     </row>
-    <row r="35" spans="1:104" s="272" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:104" s="272" customFormat="1">
       <c r="A35" s="270" t="s">
         <v>97</v>
       </c>
@@ -30252,7 +30253,7 @@
       <c r="CY35" s="274"/>
       <c r="CZ35" s="276"/>
     </row>
-    <row r="36" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:104" s="68" customFormat="1">
       <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
@@ -30301,7 +30302,7 @@
       <c r="CY36" s="92"/>
       <c r="CZ36" s="73"/>
     </row>
-    <row r="37" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:104" s="68" customFormat="1">
       <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
@@ -30352,7 +30353,7 @@
       <c r="CY37" s="92"/>
       <c r="CZ37" s="73"/>
     </row>
-    <row r="38" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:104" s="68" customFormat="1">
       <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
@@ -30401,7 +30402,7 @@
       <c r="CY38" s="92"/>
       <c r="CZ38" s="73"/>
     </row>
-    <row r="39" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:104" s="68" customFormat="1">
       <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
@@ -30450,7 +30451,7 @@
       <c r="CY39" s="92"/>
       <c r="CZ39" s="73"/>
     </row>
-    <row r="40" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:104" s="174" customFormat="1">
       <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
@@ -30499,7 +30500,7 @@
       <c r="CY40" s="175"/>
       <c r="CZ40" s="176"/>
     </row>
-    <row r="41" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:104" s="174" customFormat="1">
       <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
@@ -30547,7 +30548,7 @@
       <c r="CY41" s="175"/>
       <c r="CZ41" s="176"/>
     </row>
-    <row r="42" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:104" s="174" customFormat="1">
       <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
@@ -30595,7 +30596,7 @@
       <c r="CY42" s="175"/>
       <c r="CZ42" s="176"/>
     </row>
-    <row r="43" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:104" s="174" customFormat="1">
       <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
@@ -30644,7 +30645,7 @@
       <c r="CY43" s="175"/>
       <c r="CZ43" s="176"/>
     </row>
-    <row r="44" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:104" s="174" customFormat="1">
       <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
@@ -30693,7 +30694,7 @@
       <c r="CY44" s="175"/>
       <c r="CZ44" s="176"/>
     </row>
-    <row r="45" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:104" s="174" customFormat="1">
       <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
@@ -30742,7 +30743,7 @@
       <c r="CY45" s="175"/>
       <c r="CZ45" s="176"/>
     </row>
-    <row r="46" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:104" s="68" customFormat="1">
       <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
@@ -30793,7 +30794,7 @@
       <c r="CY46" s="92"/>
       <c r="CZ46" s="73"/>
     </row>
-    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1">
       <c r="A47" s="279" t="s">
         <v>100</v>
       </c>
@@ -30853,7 +30854,7 @@
       <c r="CY47" s="283"/>
       <c r="CZ47" s="288"/>
     </row>
-    <row r="48" spans="1:104" s="141" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:104" s="141" customFormat="1">
       <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
@@ -30901,7 +30902,7 @@
       <c r="CY48" s="142"/>
       <c r="CZ48" s="143"/>
     </row>
-    <row r="49" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:104" s="69" customFormat="1">
       <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
@@ -30950,7 +30951,7 @@
       <c r="CY49" s="94"/>
       <c r="CZ49" s="74"/>
     </row>
-    <row r="50" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:104" s="69" customFormat="1">
       <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
@@ -30998,7 +30999,7 @@
       <c r="CY50" s="94"/>
       <c r="CZ50" s="74"/>
     </row>
-    <row r="51" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:104" s="69" customFormat="1">
       <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
@@ -31047,7 +31048,7 @@
       <c r="CY51" s="94"/>
       <c r="CZ51" s="74"/>
     </row>
-    <row r="52" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:104" s="69" customFormat="1">
       <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
@@ -31095,7 +31096,7 @@
       <c r="CY52" s="94"/>
       <c r="CZ52" s="74"/>
     </row>
-    <row r="53" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:104" s="69" customFormat="1">
       <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
@@ -31143,7 +31144,7 @@
       <c r="CY53" s="94"/>
       <c r="CZ53" s="74"/>
     </row>
-    <row r="54" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:104" s="69" customFormat="1">
       <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
@@ -31192,7 +31193,7 @@
       <c r="CY54" s="94"/>
       <c r="CZ54" s="74"/>
     </row>
-    <row r="55" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:104" s="69" customFormat="1">
       <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
@@ -31240,7 +31241,7 @@
       <c r="CY55" s="94"/>
       <c r="CZ55" s="74"/>
     </row>
-    <row r="56" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:104" s="69" customFormat="1">
       <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
@@ -31289,7 +31290,7 @@
       <c r="CY56" s="94"/>
       <c r="CZ56" s="74"/>
     </row>
-    <row r="57" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:104" s="69" customFormat="1">
       <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
@@ -31339,7 +31340,7 @@
       <c r="CY57" s="94"/>
       <c r="CZ57" s="74"/>
     </row>
-    <row r="58" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:104" s="69" customFormat="1">
       <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
@@ -31388,7 +31389,7 @@
       <c r="CY58" s="94"/>
       <c r="CZ58" s="74"/>
     </row>
-    <row r="59" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:104" s="69" customFormat="1">
       <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
@@ -31437,7 +31438,7 @@
       <c r="CY59" s="94"/>
       <c r="CZ59" s="74"/>
     </row>
-    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1">
       <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
@@ -31498,7 +31499,7 @@
       <c r="CY60" s="147"/>
       <c r="CZ60" s="148"/>
     </row>
-    <row r="61" spans="1:104" s="291" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:104" s="291" customFormat="1">
       <c r="A61" s="289" t="s">
         <v>93</v>
       </c>
@@ -31548,7 +31549,7 @@
       <c r="CY61" s="293"/>
       <c r="CZ61" s="295"/>
     </row>
-    <row r="62" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:104" s="70" customFormat="1">
       <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
@@ -31597,7 +31598,7 @@
       <c r="CY62" s="96"/>
       <c r="CZ62" s="75"/>
     </row>
-    <row r="63" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:104" s="70" customFormat="1">
       <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
@@ -31646,7 +31647,7 @@
       <c r="CY63" s="96"/>
       <c r="CZ63" s="75"/>
     </row>
-    <row r="64" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:104" s="70" customFormat="1">
       <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
@@ -31694,7 +31695,7 @@
       <c r="CY64" s="96"/>
       <c r="CZ64" s="75"/>
     </row>
-    <row r="65" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:104" s="70" customFormat="1">
       <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
@@ -31742,7 +31743,7 @@
       <c r="CY65" s="96"/>
       <c r="CZ65" s="75"/>
     </row>
-    <row r="66" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:104" s="70" customFormat="1">
       <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
@@ -31791,7 +31792,7 @@
       <c r="CY66" s="96"/>
       <c r="CZ66" s="75"/>
     </row>
-    <row r="67" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:104" s="70" customFormat="1">
       <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
@@ -31839,7 +31840,7 @@
       <c r="CY67" s="96"/>
       <c r="CZ67" s="75"/>
     </row>
-    <row r="68" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:104" s="70" customFormat="1">
       <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
@@ -31888,7 +31889,7 @@
       <c r="CY68" s="96"/>
       <c r="CZ68" s="75"/>
     </row>
-    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1">
       <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
@@ -31938,7 +31939,7 @@
       <c r="CY69" s="162"/>
       <c r="CZ69" s="163"/>
     </row>
-    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1">
       <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
@@ -31990,7 +31991,7 @@
       </c>
       <c r="CZ70" s="214"/>
     </row>
-    <row r="71" spans="1:104" s="151" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:104" s="151" customFormat="1">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
       <c r="C71" s="304"/>
@@ -32056,7 +32057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CY69"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
@@ -32064,7 +32065,7 @@
       <selection pane="topRight" activeCell="CQ67" sqref="CQ67:CT67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="102.28515625" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="361"/>
@@ -32112,7 +32113,7 @@
     <col min="100" max="16384" width="6.5703125" style="334"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="350" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="350" customFormat="1">
       <c r="A1" s="77"/>
       <c r="B1" s="351"/>
       <c r="C1" s="344"/>
@@ -32137,7 +32138,7 @@
       <c r="CP1" s="344"/>
       <c r="CU1" s="344"/>
     </row>
-    <row r="2" spans="1:103" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" s="107" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -32448,7 +32449,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="343" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="343" customFormat="1">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -32478,7 +32479,7 @@
       <c r="CP3" s="344"/>
       <c r="CU3" s="344"/>
     </row>
-    <row r="4" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" s="332" customFormat="1">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -32508,7 +32509,7 @@
       <c r="CP4" s="333"/>
       <c r="CU4" s="333"/>
     </row>
-    <row r="5" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" s="332" customFormat="1">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -32538,7 +32539,7 @@
       <c r="CP5" s="333"/>
       <c r="CU5" s="333"/>
     </row>
-    <row r="6" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="332" customFormat="1">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -32574,7 +32575,7 @@
       <c r="CP6" s="333"/>
       <c r="CU6" s="333"/>
     </row>
-    <row r="7" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" s="332" customFormat="1">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -32608,7 +32609,7 @@
       <c r="CP7" s="333"/>
       <c r="CU7" s="333"/>
     </row>
-    <row r="8" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="332" customFormat="1">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -32643,7 +32644,7 @@
       <c r="CP8" s="333"/>
       <c r="CU8" s="333"/>
     </row>
-    <row r="9" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="332" customFormat="1">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -32677,7 +32678,7 @@
       <c r="CP9" s="333"/>
       <c r="CU9" s="333"/>
     </row>
-    <row r="10" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="332" customFormat="1">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -32711,7 +32712,7 @@
       <c r="CP10" s="333"/>
       <c r="CU10" s="333"/>
     </row>
-    <row r="11" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" s="332" customFormat="1">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -32746,7 +32747,7 @@
       <c r="CP11" s="333"/>
       <c r="CU11" s="333"/>
     </row>
-    <row r="12" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" s="332" customFormat="1">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -32780,7 +32781,7 @@
       <c r="CP12" s="333"/>
       <c r="CU12" s="333"/>
     </row>
-    <row r="13" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" s="332" customFormat="1">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -32814,7 +32815,7 @@
       <c r="CP13" s="333"/>
       <c r="CU13" s="333"/>
     </row>
-    <row r="14" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" s="332" customFormat="1">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -32845,7 +32846,7 @@
       <c r="CP14" s="333"/>
       <c r="CU14" s="333"/>
     </row>
-    <row r="15" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" s="332" customFormat="1">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -32876,7 +32877,7 @@
       <c r="CP15" s="333"/>
       <c r="CU15" s="333"/>
     </row>
-    <row r="16" spans="1:103" s="346" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" s="346" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -32908,7 +32909,7 @@
       <c r="CP16" s="347"/>
       <c r="CU16" s="347"/>
     </row>
-    <row r="17" spans="1:99" s="363" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:99" s="363" customFormat="1">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -32935,7 +32936,7 @@
       <c r="CP17" s="344"/>
       <c r="CU17" s="344"/>
     </row>
-    <row r="18" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:99" s="337" customFormat="1">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -32966,7 +32967,7 @@
       <c r="CP18" s="333"/>
       <c r="CU18" s="333"/>
     </row>
-    <row r="19" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:99" s="337" customFormat="1">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -32997,7 +32998,7 @@
       <c r="CP19" s="333"/>
       <c r="CU19" s="333"/>
     </row>
-    <row r="20" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:99" s="337" customFormat="1">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -33025,7 +33026,7 @@
       <c r="CP20" s="333"/>
       <c r="CU20" s="333"/>
     </row>
-    <row r="21" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:99" s="337" customFormat="1">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -33053,7 +33054,7 @@
       <c r="CP21" s="333"/>
       <c r="CU21" s="333"/>
     </row>
-    <row r="22" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:99" s="337" customFormat="1">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -33082,7 +33083,7 @@
       <c r="CP22" s="333"/>
       <c r="CU22" s="333"/>
     </row>
-    <row r="23" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:99" s="337" customFormat="1">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -33114,7 +33115,7 @@
       <c r="CP23" s="333"/>
       <c r="CU23" s="333"/>
     </row>
-    <row r="24" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:99" s="337" customFormat="1">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -33141,7 +33142,7 @@
       <c r="CP24" s="333"/>
       <c r="CU24" s="333"/>
     </row>
-    <row r="25" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:99" s="337" customFormat="1">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -33173,7 +33174,7 @@
       <c r="CP25" s="333"/>
       <c r="CU25" s="333"/>
     </row>
-    <row r="26" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:99" s="337" customFormat="1">
       <c r="A26" s="81" t="s">
         <v>127</v>
       </c>
@@ -33205,7 +33206,7 @@
       <c r="CP26" s="333"/>
       <c r="CU26" s="333"/>
     </row>
-    <row r="27" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:99" s="337" customFormat="1">
       <c r="A27" s="81" t="s">
         <v>128</v>
       </c>
@@ -33239,7 +33240,7 @@
       <c r="CP27" s="333"/>
       <c r="CU27" s="333"/>
     </row>
-    <row r="28" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:99" s="337" customFormat="1">
       <c r="A28" s="81" t="s">
         <v>129</v>
       </c>
@@ -33273,7 +33274,7 @@
       <c r="CP28" s="333"/>
       <c r="CU28" s="333"/>
     </row>
-    <row r="29" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:99" s="337" customFormat="1">
       <c r="A29" s="81" t="s">
         <v>130</v>
       </c>
@@ -33304,7 +33305,7 @@
       <c r="CP29" s="333"/>
       <c r="CU29" s="333"/>
     </row>
-    <row r="30" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:99" s="337" customFormat="1">
       <c r="A30" s="80" t="s">
         <v>20</v>
       </c>
@@ -33332,7 +33333,7 @@
       <c r="CP30" s="333"/>
       <c r="CU30" s="333"/>
     </row>
-    <row r="31" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:99" s="337" customFormat="1">
       <c r="A31" s="80" t="s">
         <v>24</v>
       </c>
@@ -33359,7 +33360,7 @@
       <c r="CP31" s="333"/>
       <c r="CU31" s="333"/>
     </row>
-    <row r="32" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:99" s="337" customFormat="1">
       <c r="A32" s="80" t="s">
         <v>28</v>
       </c>
@@ -33387,7 +33388,7 @@
       <c r="CP32" s="333"/>
       <c r="CU32" s="333"/>
     </row>
-    <row r="33" spans="1:99" s="365" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:99" s="365" customFormat="1" ht="15.75" thickBot="1">
       <c r="A33" s="124" t="s">
         <v>99</v>
       </c>
@@ -33424,7 +33425,7 @@
       <c r="CP33" s="347"/>
       <c r="CU33" s="347"/>
     </row>
-    <row r="34" spans="1:99" s="367" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:99" s="367" customFormat="1">
       <c r="A34" s="129" t="s">
         <v>97</v>
       </c>
@@ -33451,7 +33452,7 @@
       <c r="CP34" s="344"/>
       <c r="CU34" s="344"/>
     </row>
-    <row r="35" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:99" s="339" customFormat="1">
       <c r="A35" s="82" t="s">
         <v>2</v>
       </c>
@@ -33482,7 +33483,7 @@
       <c r="CP35" s="333"/>
       <c r="CU35" s="333"/>
     </row>
-    <row r="36" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:99" s="339" customFormat="1">
       <c r="A36" s="82" t="s">
         <v>3</v>
       </c>
@@ -33514,7 +33515,7 @@
       <c r="CP36" s="333"/>
       <c r="CU36" s="333"/>
     </row>
-    <row r="37" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:99" s="339" customFormat="1">
       <c r="A37" s="82" t="s">
         <v>1</v>
       </c>
@@ -33545,7 +33546,7 @@
       <c r="CP37" s="333"/>
       <c r="CU37" s="333"/>
     </row>
-    <row r="38" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:99" s="339" customFormat="1">
       <c r="A38" s="82" t="s">
         <v>0</v>
       </c>
@@ -33579,7 +33580,7 @@
       <c r="CP38" s="333"/>
       <c r="CU38" s="333"/>
     </row>
-    <row r="39" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:99" s="339" customFormat="1">
       <c r="A39" s="172" t="s">
         <v>109</v>
       </c>
@@ -33610,7 +33611,7 @@
       <c r="CP39" s="333"/>
       <c r="CU39" s="333"/>
     </row>
-    <row r="40" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:99" s="339" customFormat="1">
       <c r="A40" s="172" t="s">
         <v>127</v>
       </c>
@@ -33640,7 +33641,7 @@
       <c r="CP40" s="333"/>
       <c r="CU40" s="333"/>
     </row>
-    <row r="41" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:99" s="339" customFormat="1">
       <c r="A41" s="172" t="s">
         <v>128</v>
       </c>
@@ -33671,7 +33672,7 @@
       <c r="CP41" s="333"/>
       <c r="CU41" s="333"/>
     </row>
-    <row r="42" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:99" s="339" customFormat="1">
       <c r="A42" s="172" t="s">
         <v>129</v>
       </c>
@@ -33701,7 +33702,7 @@
       <c r="CP42" s="333"/>
       <c r="CU42" s="333"/>
     </row>
-    <row r="43" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:99" s="339" customFormat="1">
       <c r="A43" s="172" t="s">
         <v>130</v>
       </c>
@@ -33732,7 +33733,7 @@
       <c r="CP43" s="333"/>
       <c r="CU43" s="333"/>
     </row>
-    <row r="44" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:99" s="339" customFormat="1">
       <c r="A44" s="82" t="s">
         <v>4</v>
       </c>
@@ -33760,7 +33761,7 @@
       <c r="CP44" s="333"/>
       <c r="CU44" s="333"/>
     </row>
-    <row r="45" spans="1:99" s="369" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:99" s="369" customFormat="1" ht="15.75" thickBot="1">
       <c r="A45" s="134" t="s">
         <v>100</v>
       </c>
@@ -33796,7 +33797,7 @@
       <c r="CP45" s="347"/>
       <c r="CU45" s="347"/>
     </row>
-    <row r="46" spans="1:99" s="371" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:99" s="371" customFormat="1">
       <c r="A46" s="139" t="s">
         <v>98</v>
       </c>
@@ -33823,7 +33824,7 @@
       <c r="CP46" s="344"/>
       <c r="CU46" s="344"/>
     </row>
-    <row r="47" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:99" s="340" customFormat="1">
       <c r="A47" s="83" t="s">
         <v>29</v>
       </c>
@@ -33854,7 +33855,7 @@
       <c r="CP47" s="333"/>
       <c r="CU47" s="333"/>
     </row>
-    <row r="48" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:99" s="340" customFormat="1">
       <c r="A48" s="83" t="s">
         <v>31</v>
       </c>
@@ -33885,7 +33886,7 @@
       <c r="CP48" s="333"/>
       <c r="CU48" s="333"/>
     </row>
-    <row r="49" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:99" s="340" customFormat="1">
       <c r="A49" s="83" t="s">
         <v>35</v>
       </c>
@@ -33917,7 +33918,7 @@
       <c r="CP49" s="333"/>
       <c r="CU49" s="333"/>
     </row>
-    <row r="50" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:99" s="340" customFormat="1">
       <c r="A50" s="83" t="s">
         <v>30</v>
       </c>
@@ -33948,7 +33949,7 @@
       <c r="CP50" s="333"/>
       <c r="CU50" s="333"/>
     </row>
-    <row r="51" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:99" s="340" customFormat="1">
       <c r="A51" s="83" t="s">
         <v>33</v>
       </c>
@@ -33976,7 +33977,7 @@
       <c r="CP51" s="333"/>
       <c r="CU51" s="333"/>
     </row>
-    <row r="52" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:99" s="340" customFormat="1">
       <c r="A52" s="83" t="s">
         <v>34</v>
       </c>
@@ -34004,7 +34005,7 @@
       <c r="CP52" s="333"/>
       <c r="CU52" s="333"/>
     </row>
-    <row r="53" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:99" s="340" customFormat="1">
       <c r="A53" s="83" t="s">
         <v>32</v>
       </c>
@@ -34032,7 +34033,7 @@
       <c r="CP53" s="333"/>
       <c r="CU53" s="333"/>
     </row>
-    <row r="54" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:99" s="340" customFormat="1">
       <c r="A54" s="181" t="s">
         <v>109</v>
       </c>
@@ -34065,7 +34066,7 @@
       <c r="CP54" s="333"/>
       <c r="CU54" s="333"/>
     </row>
-    <row r="55" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:99" s="340" customFormat="1">
       <c r="A55" s="181" t="s">
         <v>131</v>
       </c>
@@ -34101,7 +34102,7 @@
       <c r="CP55" s="333"/>
       <c r="CU55" s="333"/>
     </row>
-    <row r="56" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:99" s="340" customFormat="1">
       <c r="A56" s="181" t="s">
         <v>132</v>
       </c>
@@ -34135,7 +34136,7 @@
       <c r="CP56" s="333"/>
       <c r="CU56" s="333"/>
     </row>
-    <row r="57" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:99" s="340" customFormat="1">
       <c r="A57" s="181" t="s">
         <v>133</v>
       </c>
@@ -34166,7 +34167,7 @@
       <c r="CP57" s="333"/>
       <c r="CU57" s="333"/>
     </row>
-    <row r="58" spans="1:99" s="373" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:99" s="373" customFormat="1" ht="15.75" thickBot="1">
       <c r="A58" s="144" t="s">
         <v>101</v>
       </c>
@@ -34205,7 +34206,7 @@
       <c r="CP58" s="347"/>
       <c r="CU58" s="347"/>
     </row>
-    <row r="59" spans="1:99" s="375" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:99" s="375" customFormat="1">
       <c r="A59" s="154" t="s">
         <v>93</v>
       </c>
@@ -34232,7 +34233,7 @@
       <c r="CP59" s="344"/>
       <c r="CU59" s="344"/>
     </row>
-    <row r="60" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:99" s="341" customFormat="1">
       <c r="A60" s="85" t="s">
         <v>5</v>
       </c>
@@ -34261,7 +34262,7 @@
       <c r="CP60" s="333"/>
       <c r="CU60" s="333"/>
     </row>
-    <row r="61" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:99" s="341" customFormat="1">
       <c r="A61" s="85" t="s">
         <v>12</v>
       </c>
@@ -34289,7 +34290,7 @@
       <c r="CP61" s="333"/>
       <c r="CU61" s="333"/>
     </row>
-    <row r="62" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:99" s="341" customFormat="1">
       <c r="A62" s="84" t="s">
         <v>96</v>
       </c>
@@ -34316,7 +34317,7 @@
       <c r="CP62" s="333"/>
       <c r="CU62" s="333"/>
     </row>
-    <row r="63" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:99" s="341" customFormat="1">
       <c r="A63" s="85" t="s">
         <v>25</v>
       </c>
@@ -34345,7 +34346,7 @@
       <c r="CP63" s="333"/>
       <c r="CU63" s="333"/>
     </row>
-    <row r="64" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:99" s="341" customFormat="1">
       <c r="A64" s="85" t="s">
         <v>26</v>
       </c>
@@ -34374,7 +34375,7 @@
       <c r="CP64" s="333"/>
       <c r="CU64" s="333"/>
     </row>
-    <row r="65" spans="1:103" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:103" s="341" customFormat="1">
       <c r="A65" s="84" t="s">
         <v>97</v>
       </c>
@@ -34401,7 +34402,7 @@
       <c r="CP65" s="333"/>
       <c r="CU65" s="333"/>
     </row>
-    <row r="66" spans="1:103" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:103" s="341" customFormat="1">
       <c r="A66" s="85" t="s">
         <v>0</v>
       </c>
@@ -34430,7 +34431,7 @@
       <c r="CP66" s="333"/>
       <c r="CU66" s="333"/>
     </row>
-    <row r="67" spans="1:103" s="377" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:103" s="377" customFormat="1" ht="15.75" thickBot="1">
       <c r="A67" s="159" t="s">
         <v>102</v>
       </c>
@@ -34463,7 +34464,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:103" s="382" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:103" s="382" customFormat="1" ht="15.75" thickBot="1">
       <c r="A68" s="210" t="s">
         <v>120</v>
       </c>
@@ -34493,7 +34494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:103" s="379" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:103" s="379" customFormat="1">
       <c r="A69" s="149"/>
       <c r="B69" s="378"/>
       <c r="C69" s="342"/>
@@ -34525,14 +34526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="414"/>
     <col min="2" max="2" width="5.85546875" style="414" bestFit="1" customWidth="1"/>
@@ -34542,7 +34543,7 @@
     <col min="6" max="16384" width="5.5703125" style="414"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="416" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="416" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="415"/>
       <c r="B1" s="396" t="s">
         <v>140</v>
@@ -34551,13 +34552,13 @@
         <v>141</v>
       </c>
       <c r="D1" s="426" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="426" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="426" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" s="417" customFormat="1" ht="45">
       <c r="A2" s="471" t="s">
         <v>142</v>
       </c>
@@ -34565,12 +34566,12 @@
         <v>43670</v>
       </c>
       <c r="C2" s="427" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="428"/>
       <c r="E2" s="428"/>
     </row>
-    <row r="3" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="418" customFormat="1">
       <c r="A3" s="472"/>
       <c r="B3" s="398">
         <v>43671</v>
@@ -34579,20 +34580,20 @@
       <c r="D3" s="429"/>
       <c r="E3" s="429"/>
     </row>
-    <row r="4" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="419" customFormat="1" ht="60">
       <c r="A4" s="472"/>
       <c r="B4" s="399">
         <v>43672</v>
       </c>
       <c r="C4" s="430" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="431" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="431"/>
     </row>
-    <row r="5" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="420" customFormat="1" ht="45">
       <c r="A5" s="472"/>
       <c r="B5" s="400">
         <v>43675</v>
@@ -34601,37 +34602,37 @@
         <v>147</v>
       </c>
       <c r="D5" s="433" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="E5" s="433"/>
     </row>
-    <row r="6" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="420" customFormat="1">
       <c r="A6" s="472"/>
       <c r="B6" s="400">
         <v>43676</v>
       </c>
       <c r="C6" s="433" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="433" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="433" t="s">
-        <v>150</v>
-      </c>
       <c r="E6" s="433"/>
     </row>
-    <row r="7" spans="1:5" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="420" customFormat="1" ht="60">
       <c r="A7" s="472"/>
       <c r="B7" s="400">
         <v>43677</v>
       </c>
       <c r="C7" s="432" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="432" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="433"/>
     </row>
-    <row r="8" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="418" customFormat="1">
       <c r="A8" s="472"/>
       <c r="B8" s="398">
         <v>43678</v>
@@ -34640,59 +34641,59 @@
       <c r="D8" s="429"/>
       <c r="E8" s="429"/>
     </row>
-    <row r="9" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="420" customFormat="1" ht="45">
       <c r="A9" s="472"/>
       <c r="B9" s="400">
         <v>43679</v>
       </c>
       <c r="C9" s="432" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="432" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="433"/>
     </row>
-    <row r="10" spans="1:5" s="419" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="419" customFormat="1" ht="51" customHeight="1">
       <c r="A10" s="472"/>
       <c r="B10" s="399">
         <v>43682</v>
       </c>
       <c r="C10" s="430" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="430" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="431"/>
     </row>
-    <row r="11" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="419" customFormat="1">
       <c r="A11" s="472"/>
       <c r="B11" s="399">
         <v>43683</v>
       </c>
       <c r="C11" s="431" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="431" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="431" t="s">
-        <v>153</v>
-      </c>
       <c r="E11" s="431"/>
     </row>
-    <row r="12" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="419" customFormat="1">
       <c r="A12" s="472"/>
       <c r="B12" s="399">
         <v>43684</v>
       </c>
       <c r="C12" s="431" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="431" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="431" t="s">
-        <v>153</v>
-      </c>
       <c r="E12" s="431"/>
     </row>
-    <row r="13" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="418" customFormat="1">
       <c r="A13" s="472"/>
       <c r="B13" s="398">
         <v>43685</v>
@@ -34701,55 +34702,55 @@
       <c r="D13" s="429"/>
       <c r="E13" s="429"/>
     </row>
-    <row r="14" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="419" customFormat="1">
       <c r="A14" s="472"/>
       <c r="B14" s="399">
         <v>43686</v>
       </c>
       <c r="C14" s="431" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="431" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="431" t="s">
-        <v>187</v>
-      </c>
       <c r="E14" s="431"/>
     </row>
-    <row r="15" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="420" customFormat="1">
       <c r="A15" s="472"/>
       <c r="B15" s="400">
         <v>43689</v>
       </c>
       <c r="C15" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="433"/>
       <c r="E15" s="433" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="420" customFormat="1">
       <c r="A16" s="472"/>
       <c r="B16" s="400">
         <v>43690</v>
       </c>
       <c r="C16" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="433"/>
       <c r="E16" s="433"/>
     </row>
-    <row r="17" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="420" customFormat="1">
       <c r="A17" s="472"/>
       <c r="B17" s="400">
         <v>43691</v>
       </c>
       <c r="C17" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="433"/>
       <c r="E17" s="433"/>
     </row>
-    <row r="18" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="418" customFormat="1">
       <c r="A18" s="472"/>
       <c r="B18" s="398">
         <v>43692</v>
@@ -34758,18 +34759,18 @@
       <c r="D18" s="429"/>
       <c r="E18" s="429"/>
     </row>
-    <row r="19" spans="1:5" s="421" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="421" customFormat="1" ht="15.75" thickBot="1">
       <c r="A19" s="473"/>
       <c r="B19" s="401">
         <v>43693</v>
       </c>
       <c r="C19" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="434"/>
       <c r="E19" s="434"/>
     </row>
-    <row r="20" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="417" customFormat="1" ht="45">
       <c r="A20" s="468" t="s">
         <v>143</v>
       </c>
@@ -34777,40 +34778,40 @@
         <v>43696</v>
       </c>
       <c r="C20" s="427" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="442" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="428"/>
     </row>
-    <row r="21" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="419" customFormat="1" ht="45">
       <c r="A21" s="469"/>
       <c r="B21" s="403">
         <v>43697</v>
       </c>
       <c r="C21" s="440" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="430" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="441"/>
     </row>
-    <row r="22" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="419" customFormat="1" ht="60">
       <c r="A22" s="469"/>
       <c r="B22" s="403">
         <v>43698</v>
       </c>
       <c r="C22" s="431" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D22" s="443" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="431"/>
     </row>
-    <row r="23" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="418" customFormat="1">
       <c r="A23" s="469"/>
       <c r="B23" s="404">
         <v>43699</v>
@@ -34819,57 +34820,57 @@
       <c r="D23" s="429"/>
       <c r="E23" s="429"/>
     </row>
-    <row r="24" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="419" customFormat="1">
       <c r="A24" s="469"/>
       <c r="B24" s="403">
         <v>43700</v>
       </c>
       <c r="C24" s="431"/>
       <c r="D24" s="431" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="431"/>
     </row>
-    <row r="25" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="420" customFormat="1" ht="30">
       <c r="A25" s="469"/>
       <c r="B25" s="405">
         <v>43703</v>
       </c>
       <c r="C25" s="432" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="432" t="s">
         <v>168</v>
       </c>
-      <c r="D25" s="432" t="s">
-        <v>169</v>
-      </c>
       <c r="E25" s="433"/>
     </row>
-    <row r="26" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="420" customFormat="1" ht="30">
       <c r="A26" s="469"/>
       <c r="B26" s="405">
         <v>43704</v>
       </c>
       <c r="C26" s="432" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D26" s="432" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E26" s="433"/>
     </row>
-    <row r="27" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="420" customFormat="1" ht="30">
       <c r="A27" s="469"/>
       <c r="B27" s="405">
         <v>43705</v>
       </c>
       <c r="C27" s="433" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="432" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E27" s="433"/>
     </row>
-    <row r="28" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="418" customFormat="1">
       <c r="A28" s="469"/>
       <c r="B28" s="404">
         <v>43706</v>
@@ -34878,53 +34879,53 @@
       <c r="D28" s="429"/>
       <c r="E28" s="429"/>
     </row>
-    <row r="29" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="420" customFormat="1">
       <c r="A29" s="469"/>
       <c r="B29" s="405">
         <v>43707</v>
       </c>
       <c r="C29" s="433"/>
       <c r="D29" s="433" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E29" s="433"/>
     </row>
-    <row r="30" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="419" customFormat="1" ht="45">
       <c r="A30" s="469"/>
       <c r="B30" s="403">
         <v>43710</v>
       </c>
       <c r="C30" s="430" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D30" s="431"/>
       <c r="E30" s="431"/>
     </row>
-    <row r="31" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="419" customFormat="1">
       <c r="A31" s="469"/>
       <c r="B31" s="403">
         <v>43711</v>
       </c>
       <c r="C31" s="431"/>
       <c r="D31" s="431" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E31" s="431"/>
     </row>
-    <row r="32" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="419" customFormat="1">
       <c r="A32" s="469"/>
       <c r="B32" s="403">
         <v>43712</v>
       </c>
       <c r="C32" s="431" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D32" s="431" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" s="431"/>
     </row>
-    <row r="33" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="418" customFormat="1">
       <c r="A33" s="469"/>
       <c r="B33" s="404">
         <v>43713</v>
@@ -34933,51 +34934,51 @@
       <c r="D33" s="429"/>
       <c r="E33" s="429"/>
     </row>
-    <row r="34" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="419" customFormat="1">
       <c r="A34" s="469"/>
       <c r="B34" s="403">
         <v>43714</v>
       </c>
       <c r="C34" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D34" s="431"/>
       <c r="E34" s="431"/>
     </row>
-    <row r="35" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="420" customFormat="1">
       <c r="A35" s="469"/>
       <c r="B35" s="405">
         <v>43717</v>
       </c>
       <c r="C35" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D35" s="433"/>
       <c r="E35" s="433"/>
     </row>
-    <row r="36" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="420" customFormat="1">
       <c r="A36" s="469"/>
       <c r="B36" s="405">
         <v>43718</v>
       </c>
       <c r="C36" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D36" s="433"/>
       <c r="E36" s="433"/>
     </row>
-    <row r="37" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="420" customFormat="1">
       <c r="A37" s="469"/>
       <c r="B37" s="405">
         <v>43719</v>
       </c>
       <c r="C37" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D37" s="433"/>
       <c r="E37" s="433"/>
     </row>
-    <row r="38" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="418" customFormat="1">
       <c r="A38" s="469"/>
       <c r="B38" s="404">
         <v>43720</v>
@@ -34986,51 +34987,51 @@
       <c r="D38" s="429"/>
       <c r="E38" s="429"/>
     </row>
-    <row r="39" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="420" customFormat="1">
       <c r="A39" s="469"/>
       <c r="B39" s="405">
         <v>43721</v>
       </c>
       <c r="C39" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D39" s="433"/>
       <c r="E39" s="433"/>
     </row>
-    <row r="40" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="419" customFormat="1">
       <c r="A40" s="469"/>
       <c r="B40" s="403">
         <v>43724</v>
       </c>
       <c r="C40" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D40" s="431"/>
       <c r="E40" s="431"/>
     </row>
-    <row r="41" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="419" customFormat="1">
       <c r="A41" s="469"/>
       <c r="B41" s="403">
         <v>43725</v>
       </c>
       <c r="C41" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="431"/>
       <c r="E41" s="431"/>
     </row>
-    <row r="42" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="419" customFormat="1">
       <c r="A42" s="469"/>
       <c r="B42" s="403">
         <v>43726</v>
       </c>
       <c r="C42" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" s="431"/>
       <c r="E42" s="431"/>
     </row>
-    <row r="43" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="418" customFormat="1">
       <c r="A43" s="469"/>
       <c r="B43" s="404">
         <v>43727</v>
@@ -35039,18 +35040,18 @@
       <c r="D43" s="429"/>
       <c r="E43" s="429"/>
     </row>
-    <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1">
       <c r="A44" s="470"/>
       <c r="B44" s="406">
         <v>43728</v>
       </c>
       <c r="C44" s="435" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D44" s="435"/>
       <c r="E44" s="435"/>
     </row>
-    <row r="45" spans="1:5" s="423" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="423" customFormat="1" ht="45">
       <c r="A45" s="474" t="s">
         <v>144</v>
       </c>
@@ -35058,40 +35059,40 @@
         <v>43731</v>
       </c>
       <c r="C45" s="444" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45" s="433" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E45" s="436"/>
     </row>
-    <row r="46" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="420" customFormat="1">
       <c r="A46" s="475"/>
       <c r="B46" s="408">
         <v>43732</v>
       </c>
       <c r="C46" s="433" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D46" s="433" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E46" s="433"/>
     </row>
-    <row r="47" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="420" customFormat="1" ht="30">
       <c r="A47" s="475"/>
       <c r="B47" s="408">
         <v>43733</v>
       </c>
       <c r="C47" s="432" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D47" s="433" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E47" s="433"/>
     </row>
-    <row r="48" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="418" customFormat="1">
       <c r="A48" s="475"/>
       <c r="B48" s="409">
         <v>43734</v>
@@ -35100,51 +35101,51 @@
       <c r="D48" s="429"/>
       <c r="E48" s="429"/>
     </row>
-    <row r="49" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="420" customFormat="1" ht="45">
       <c r="A49" s="475"/>
       <c r="B49" s="408">
         <v>43735</v>
       </c>
       <c r="C49" s="432" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D49" s="433"/>
       <c r="E49" s="433"/>
     </row>
-    <row r="50" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="419" customFormat="1" ht="45">
       <c r="A50" s="475"/>
       <c r="B50" s="410">
         <v>43738</v>
       </c>
       <c r="C50" s="430" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D50" s="431"/>
       <c r="E50" s="431"/>
     </row>
-    <row r="51" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="419" customFormat="1" ht="30">
       <c r="A51" s="475"/>
       <c r="B51" s="410">
         <v>43739</v>
       </c>
       <c r="C51" s="430" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D51" s="431"/>
       <c r="E51" s="431"/>
     </row>
-    <row r="52" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="419" customFormat="1">
       <c r="A52" s="475"/>
       <c r="B52" s="410">
         <v>43740</v>
       </c>
       <c r="C52" s="431" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D52" s="431"/>
       <c r="E52" s="431"/>
     </row>
-    <row r="53" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="418" customFormat="1">
       <c r="A53" s="475"/>
       <c r="B53" s="409">
         <v>43741</v>
@@ -35153,51 +35154,51 @@
       <c r="D53" s="429"/>
       <c r="E53" s="429"/>
     </row>
-    <row r="54" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="419" customFormat="1" ht="30">
       <c r="A54" s="475"/>
       <c r="B54" s="410">
         <v>43742</v>
       </c>
       <c r="C54" s="430" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D54" s="431"/>
       <c r="E54" s="431"/>
     </row>
-    <row r="55" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" s="420" customFormat="1">
       <c r="A55" s="475"/>
       <c r="B55" s="408">
         <v>43745</v>
       </c>
       <c r="C55" s="433" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D55" s="433"/>
       <c r="E55" s="433"/>
     </row>
-    <row r="56" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="420" customFormat="1">
       <c r="A56" s="475"/>
       <c r="B56" s="408">
         <v>43746</v>
       </c>
       <c r="C56" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D56" s="433"/>
       <c r="E56" s="433"/>
     </row>
-    <row r="57" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="420" customFormat="1">
       <c r="A57" s="475"/>
       <c r="B57" s="408">
         <v>43747</v>
       </c>
       <c r="C57" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D57" s="433"/>
       <c r="E57" s="433"/>
     </row>
-    <row r="58" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="418" customFormat="1">
       <c r="A58" s="475"/>
       <c r="B58" s="409">
         <v>43748</v>
@@ -35206,29 +35207,29 @@
       <c r="D58" s="429"/>
       <c r="E58" s="429"/>
     </row>
-    <row r="59" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="420" customFormat="1">
       <c r="A59" s="475"/>
       <c r="B59" s="408">
         <v>43749</v>
       </c>
       <c r="C59" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" s="433"/>
       <c r="E59" s="433"/>
     </row>
-    <row r="60" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" s="419" customFormat="1">
       <c r="A60" s="475"/>
       <c r="B60" s="410">
         <v>43754</v>
       </c>
       <c r="C60" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D60" s="431"/>
       <c r="E60" s="431"/>
     </row>
-    <row r="61" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" s="418" customFormat="1">
       <c r="A61" s="475"/>
       <c r="B61" s="409">
         <v>43755</v>
@@ -35237,51 +35238,51 @@
       <c r="D61" s="429"/>
       <c r="E61" s="429"/>
     </row>
-    <row r="62" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" s="419" customFormat="1">
       <c r="A62" s="475"/>
       <c r="B62" s="410">
         <v>43756</v>
       </c>
       <c r="C62" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D62" s="431"/>
       <c r="E62" s="431"/>
     </row>
-    <row r="63" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" s="420" customFormat="1">
       <c r="A63" s="475"/>
       <c r="B63" s="408">
         <v>43759</v>
       </c>
       <c r="C63" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D63" s="433"/>
       <c r="E63" s="433"/>
     </row>
-    <row r="64" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" s="420" customFormat="1">
       <c r="A64" s="475"/>
       <c r="B64" s="408">
         <v>43760</v>
       </c>
       <c r="C64" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D64" s="433"/>
       <c r="E64" s="433"/>
     </row>
-    <row r="65" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" s="420" customFormat="1">
       <c r="A65" s="475"/>
       <c r="B65" s="408">
         <v>43761</v>
       </c>
       <c r="C65" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65" s="433"/>
       <c r="E65" s="433"/>
     </row>
-    <row r="66" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1">
       <c r="A66" s="476"/>
       <c r="B66" s="411">
         <v>43762</v>
@@ -35290,7 +35291,7 @@
       <c r="D66" s="437"/>
       <c r="E66" s="437"/>
     </row>
-    <row r="67" spans="1:5" s="423" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="423" customFormat="1" ht="60">
       <c r="A67" s="474" t="s">
         <v>145</v>
       </c>
@@ -35298,51 +35299,51 @@
         <v>43763</v>
       </c>
       <c r="C67" s="444" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="436"/>
       <c r="E67" s="436"/>
     </row>
-    <row r="68" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="419" customFormat="1">
       <c r="A68" s="475"/>
       <c r="B68" s="410">
         <v>43766</v>
       </c>
       <c r="C68" s="431" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="431" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="431" t="s">
-        <v>191</v>
-      </c>
       <c r="E68" s="431"/>
     </row>
-    <row r="69" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" s="419" customFormat="1">
       <c r="A69" s="475"/>
       <c r="B69" s="410">
         <v>43767</v>
       </c>
       <c r="C69" s="431" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="431" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E69" s="431"/>
     </row>
-    <row r="70" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="419" customFormat="1">
       <c r="A70" s="475"/>
       <c r="B70" s="410">
         <v>43768</v>
       </c>
       <c r="C70" s="430" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D70" s="431" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E70" s="431"/>
     </row>
-    <row r="71" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" s="418" customFormat="1">
       <c r="A71" s="475"/>
       <c r="B71" s="409">
         <v>43769</v>
@@ -35351,55 +35352,55 @@
       <c r="D71" s="429"/>
       <c r="E71" s="429"/>
     </row>
-    <row r="72" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" s="419" customFormat="1">
       <c r="A72" s="475"/>
       <c r="B72" s="410">
         <v>43770</v>
       </c>
       <c r="C72" s="431" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="431"/>
       <c r="E72" s="431"/>
     </row>
-    <row r="73" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="420" customFormat="1">
       <c r="A73" s="475"/>
       <c r="B73" s="408">
         <v>43773</v>
       </c>
       <c r="C73" s="433" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D73" s="433" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E73" s="433"/>
     </row>
-    <row r="74" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" s="420" customFormat="1">
       <c r="A74" s="475"/>
       <c r="B74" s="408">
         <v>43774</v>
       </c>
       <c r="C74" s="433" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D74" s="433" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E74" s="433"/>
     </row>
-    <row r="75" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" s="420" customFormat="1">
       <c r="A75" s="475"/>
       <c r="B75" s="408">
         <v>43775</v>
       </c>
       <c r="C75" s="433" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D75" s="433"/>
       <c r="E75" s="433"/>
     </row>
-    <row r="76" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" s="418" customFormat="1">
       <c r="A76" s="475"/>
       <c r="B76" s="409">
         <v>43776</v>
@@ -35408,51 +35409,51 @@
       <c r="D76" s="429"/>
       <c r="E76" s="429"/>
     </row>
-    <row r="77" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="420" customFormat="1">
       <c r="A77" s="475"/>
       <c r="B77" s="408">
         <v>43777</v>
       </c>
       <c r="C77" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D77" s="433"/>
       <c r="E77" s="433"/>
     </row>
-    <row r="78" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="419" customFormat="1">
       <c r="A78" s="475"/>
       <c r="B78" s="410">
         <v>43780</v>
       </c>
       <c r="C78" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D78" s="431"/>
       <c r="E78" s="431"/>
     </row>
-    <row r="79" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="419" customFormat="1">
       <c r="A79" s="475"/>
       <c r="B79" s="410">
         <v>43781</v>
       </c>
       <c r="C79" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D79" s="431"/>
       <c r="E79" s="431"/>
     </row>
-    <row r="80" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="419" customFormat="1">
       <c r="A80" s="475"/>
       <c r="B80" s="410">
         <v>43782</v>
       </c>
       <c r="C80" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D80" s="431"/>
       <c r="E80" s="431"/>
     </row>
-    <row r="81" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="418" customFormat="1">
       <c r="A81" s="475"/>
       <c r="B81" s="409">
         <v>43783</v>
@@ -35461,29 +35462,29 @@
       <c r="D81" s="429"/>
       <c r="E81" s="429"/>
     </row>
-    <row r="82" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="420" customFormat="1">
       <c r="A82" s="475"/>
       <c r="B82" s="408">
         <v>43787</v>
       </c>
       <c r="C82" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D82" s="433"/>
       <c r="E82" s="433"/>
     </row>
-    <row r="83" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" s="420" customFormat="1">
       <c r="A83" s="475"/>
       <c r="B83" s="408">
         <v>43788</v>
       </c>
       <c r="C83" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D83" s="433"/>
       <c r="E83" s="433"/>
     </row>
-    <row r="84" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="418" customFormat="1">
       <c r="A84" s="475"/>
       <c r="B84" s="409">
         <v>43790</v>
@@ -35492,51 +35493,51 @@
       <c r="D84" s="429"/>
       <c r="E84" s="429"/>
     </row>
-    <row r="85" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="420" customFormat="1">
       <c r="A85" s="475"/>
       <c r="B85" s="408">
         <v>43791</v>
       </c>
       <c r="C85" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D85" s="433"/>
       <c r="E85" s="433"/>
     </row>
-    <row r="86" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" s="419" customFormat="1">
       <c r="A86" s="475"/>
       <c r="B86" s="410">
         <v>43794</v>
       </c>
       <c r="C86" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D86" s="431"/>
       <c r="E86" s="431"/>
     </row>
-    <row r="87" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="419" customFormat="1">
       <c r="A87" s="475"/>
       <c r="B87" s="410">
         <v>43795</v>
       </c>
       <c r="C87" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D87" s="431"/>
       <c r="E87" s="431"/>
     </row>
-    <row r="88" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" s="419" customFormat="1">
       <c r="A88" s="475"/>
       <c r="B88" s="410">
         <v>43796</v>
       </c>
       <c r="C88" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D88" s="431"/>
       <c r="E88" s="431"/>
     </row>
-    <row r="89" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1">
       <c r="A89" s="476"/>
       <c r="B89" s="411">
         <v>43797</v>
@@ -35545,7 +35546,7 @@
       <c r="D89" s="437"/>
       <c r="E89" s="437"/>
     </row>
-    <row r="90" spans="1:5" s="417" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" s="417" customFormat="1" ht="30">
       <c r="A90" s="468" t="s">
         <v>146</v>
       </c>
@@ -35553,45 +35554,45 @@
         <v>43798</v>
       </c>
       <c r="C90" s="427" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D90" s="428"/>
       <c r="E90" s="428"/>
     </row>
-    <row r="91" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" s="420" customFormat="1">
       <c r="A91" s="469"/>
       <c r="B91" s="408">
         <v>43801</v>
       </c>
       <c r="C91" s="433" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D91" s="433"/>
       <c r="E91" s="433"/>
     </row>
-    <row r="92" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" s="420" customFormat="1">
       <c r="A92" s="469"/>
       <c r="B92" s="408">
         <v>43802</v>
       </c>
       <c r="C92" s="433" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D92" s="433"/>
       <c r="E92" s="433"/>
     </row>
-    <row r="93" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="420" customFormat="1">
       <c r="A93" s="469"/>
       <c r="B93" s="408">
         <v>43803</v>
       </c>
       <c r="C93" s="433" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D93" s="433"/>
       <c r="E93" s="433"/>
     </row>
-    <row r="94" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" s="418" customFormat="1">
       <c r="A94" s="469"/>
       <c r="B94" s="409">
         <v>43804</v>
@@ -35600,51 +35601,51 @@
       <c r="D94" s="429"/>
       <c r="E94" s="429"/>
     </row>
-    <row r="95" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" s="420" customFormat="1">
       <c r="A95" s="469"/>
       <c r="B95" s="408">
         <v>43805</v>
       </c>
       <c r="C95" s="433" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D95" s="433"/>
       <c r="E95" s="433"/>
     </row>
-    <row r="96" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="419" customFormat="1">
       <c r="A96" s="469"/>
       <c r="B96" s="410">
         <v>43808</v>
       </c>
       <c r="C96" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D96" s="431"/>
       <c r="E96" s="431"/>
     </row>
-    <row r="97" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" s="419" customFormat="1">
       <c r="A97" s="469"/>
       <c r="B97" s="410">
         <v>43809</v>
       </c>
       <c r="C97" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D97" s="431"/>
       <c r="E97" s="431"/>
     </row>
-    <row r="98" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" s="419" customFormat="1">
       <c r="A98" s="469"/>
       <c r="B98" s="410">
         <v>43810</v>
       </c>
       <c r="C98" s="431" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D98" s="431"/>
       <c r="E98" s="431"/>
     </row>
-    <row r="99" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="470"/>
       <c r="B99" s="411">
         <v>43811</v>
@@ -35653,7 +35654,7 @@
       <c r="D99" s="437"/>
       <c r="E99" s="437"/>
     </row>
-    <row r="100" spans="1:5" s="425" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" s="425" customFormat="1">
       <c r="B100" s="413">
         <v>43812</v>
       </c>
@@ -35661,7 +35662,7 @@
       <c r="D100" s="438"/>
       <c r="E100" s="438"/>
     </row>
-    <row r="101" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" s="420" customFormat="1">
       <c r="B101" s="405">
         <v>43815</v>
       </c>
@@ -35669,7 +35670,7 @@
       <c r="D101" s="433"/>
       <c r="E101" s="433"/>
     </row>
-    <row r="102" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" s="420" customFormat="1">
       <c r="B102" s="405">
         <v>43816</v>
       </c>
@@ -35677,7 +35678,7 @@
       <c r="D102" s="433"/>
       <c r="E102" s="433"/>
     </row>
-    <row r="103" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" s="420" customFormat="1">
       <c r="B103" s="405">
         <v>43817</v>
       </c>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikv\Desktop\_Senai\senai-dev-2s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github_s\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD76B866-1697-479A-B42B-8C84118284CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A7523D-50D8-4221-BFDD-6CFA05EE9646}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11505" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -1582,22 +1582,12 @@
     <t>Interação - BackEnd/MongoDB</t>
   </si>
   <si>
-    <t>Introdução - Frameworks FrontEnd
-Introdução - React
-React - Base</t>
-  </si>
-  <si>
     <t>React
 Login</t>
   </si>
   <si>
     <t>React
 Eventos</t>
-  </si>
-  <si>
-    <t>React
-Categorias
-Componentes</t>
   </si>
   <si>
     <t>Desafio - Roman</t>
@@ -1608,6 +1598,17 @@
   <si>
     <t>ex: Optus, MicroManu</t>
   </si>
+  <si>
+    <t>Introdução - Frameworks FrontEnd
+Introdução - React
+React - Base
+React - Home</t>
+  </si>
+  <si>
+    <t>React - Home
+Categorias
+Componentes - Rodapé</t>
+  </si>
 </sst>
 </file>
 
@@ -1616,7 +1617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3685,208 +3686,208 @@
       <selection sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>35</v>
       </c>
@@ -3906,7 +3907,7 @@
       <selection pane="topRight" activeCell="BQ68" sqref="BQ68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="20" customWidth="1"/>
@@ -3944,7 +3945,7 @@
     <col min="108" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
       <c r="B1" s="447" t="s">
         <v>42</v>
@@ -4065,7 +4066,7 @@
       <c r="DB1" s="448"/>
       <c r="DC1" s="60"/>
     </row>
-    <row r="2" spans="1:119" s="24" customFormat="1">
+    <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
@@ -4400,7 +4401,7 @@
       <c r="DN2" s="23"/>
       <c r="DO2" s="23"/>
     </row>
-    <row r="3" spans="1:119" s="17" customFormat="1">
+    <row r="3" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
@@ -4419,7 +4420,7 @@
       <c r="CL3" s="20"/>
       <c r="DC3" s="19"/>
     </row>
-    <row r="4" spans="1:119" s="17" customFormat="1">
+    <row r="4" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
@@ -4438,7 +4439,7 @@
       <c r="CL4" s="20"/>
       <c r="DC4" s="19"/>
     </row>
-    <row r="5" spans="1:119" s="17" customFormat="1">
+    <row r="5" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
@@ -4460,7 +4461,7 @@
       <c r="CL5" s="20"/>
       <c r="DC5" s="19"/>
     </row>
-    <row r="6" spans="1:119" s="17" customFormat="1">
+    <row r="6" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
@@ -4482,7 +4483,7 @@
       <c r="CL6" s="20"/>
       <c r="DC6" s="19"/>
     </row>
-    <row r="7" spans="1:119" s="17" customFormat="1">
+    <row r="7" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
@@ -4504,7 +4505,7 @@
       <c r="CL7" s="20"/>
       <c r="DC7" s="19"/>
     </row>
-    <row r="8" spans="1:119" s="17" customFormat="1">
+    <row r="8" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -4526,7 +4527,7 @@
       <c r="CL8" s="20"/>
       <c r="DC8" s="19"/>
     </row>
-    <row r="9" spans="1:119" s="17" customFormat="1">
+    <row r="9" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
@@ -4548,7 +4549,7 @@
       <c r="CL9" s="20"/>
       <c r="DC9" s="19"/>
     </row>
-    <row r="10" spans="1:119" s="17" customFormat="1">
+    <row r="10" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
@@ -4570,7 +4571,7 @@
       <c r="CL10" s="20"/>
       <c r="DC10" s="19"/>
     </row>
-    <row r="11" spans="1:119" s="17" customFormat="1">
+    <row r="11" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
@@ -4591,7 +4592,7 @@
       <c r="CL11" s="20"/>
       <c r="DC11" s="19"/>
     </row>
-    <row r="12" spans="1:119" s="17" customFormat="1">
+    <row r="12" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
@@ -4611,7 +4612,7 @@
       <c r="CL12" s="20"/>
       <c r="DC12" s="19"/>
     </row>
-    <row r="13" spans="1:119" s="17" customFormat="1">
+    <row r="13" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>15</v>
       </c>
@@ -4631,7 +4632,7 @@
       <c r="CL13" s="20"/>
       <c r="DC13" s="19"/>
     </row>
-    <row r="14" spans="1:119" s="17" customFormat="1">
+    <row r="14" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
@@ -4652,7 +4653,7 @@
       <c r="CL14" s="20"/>
       <c r="DC14" s="19"/>
     </row>
-    <row r="15" spans="1:119" s="26" customFormat="1" ht="15.75" thickBot="1">
+    <row r="15" spans="1:119" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>41</v>
       </c>
@@ -4676,7 +4677,7 @@
       <c r="CL15" s="25"/>
       <c r="DC15" s="32"/>
     </row>
-    <row r="16" spans="1:119" s="24" customFormat="1">
+    <row r="16" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
@@ -4695,7 +4696,7 @@
       <c r="CL16" s="22"/>
       <c r="DC16" s="42"/>
     </row>
-    <row r="17" spans="1:16384" s="17" customFormat="1">
+    <row r="17" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>19</v>
       </c>
@@ -4714,7 +4715,7 @@
       <c r="CL17" s="20"/>
       <c r="DC17" s="19"/>
     </row>
-    <row r="18" spans="1:16384" s="17" customFormat="1">
+    <row r="18" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>21</v>
       </c>
@@ -4733,7 +4734,7 @@
       <c r="CL18" s="20"/>
       <c r="DC18" s="19"/>
     </row>
-    <row r="19" spans="1:16384" s="17" customFormat="1">
+    <row r="19" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -4752,7 +4753,7 @@
       <c r="CL19" s="20"/>
       <c r="DC19" s="19"/>
     </row>
-    <row r="20" spans="1:16384" s="17" customFormat="1">
+    <row r="20" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
@@ -4775,7 +4776,7 @@
       <c r="CL20" s="20"/>
       <c r="DC20" s="19"/>
     </row>
-    <row r="21" spans="1:16384" s="17" customFormat="1">
+    <row r="21" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>51</v>
       </c>
@@ -4796,7 +4797,7 @@
       <c r="CL21" s="20"/>
       <c r="DC21" s="19"/>
     </row>
-    <row r="22" spans="1:16384" s="17" customFormat="1">
+    <row r="22" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>22</v>
       </c>
@@ -4816,7 +4817,7 @@
       <c r="CL22" s="20"/>
       <c r="DC22" s="19"/>
     </row>
-    <row r="23" spans="1:16384" s="17" customFormat="1">
+    <row r="23" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>23</v>
       </c>
@@ -4835,7 +4836,7 @@
       <c r="CL23" s="20"/>
       <c r="DC23" s="19"/>
     </row>
-    <row r="24" spans="1:16384" s="17" customFormat="1">
+    <row r="24" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>52</v>
       </c>
@@ -4859,7 +4860,7 @@
       <c r="CL24" s="20"/>
       <c r="DC24" s="19"/>
     </row>
-    <row r="25" spans="1:16384" s="17" customFormat="1">
+    <row r="25" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
@@ -4882,7 +4883,7 @@
       <c r="CL25" s="20"/>
       <c r="DC25" s="19"/>
     </row>
-    <row r="26" spans="1:16384" s="17" customFormat="1">
+    <row r="26" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>54</v>
       </c>
@@ -4905,7 +4906,7 @@
       <c r="CL26" s="20"/>
       <c r="DC26" s="19"/>
     </row>
-    <row r="27" spans="1:16384" s="17" customFormat="1">
+    <row r="27" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>55</v>
       </c>
@@ -4930,7 +4931,7 @@
       <c r="CL27" s="20"/>
       <c r="DC27" s="19"/>
     </row>
-    <row r="28" spans="1:16384" s="17" customFormat="1">
+    <row r="28" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>56</v>
       </c>
@@ -21316,7 +21317,7 @@
       <c r="XFC28" s="36"/>
       <c r="XFD28" s="36"/>
     </row>
-    <row r="29" spans="1:16384" s="17" customFormat="1">
+    <row r="29" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>57</v>
       </c>
@@ -21336,7 +21337,7 @@
       <c r="CL29" s="20"/>
       <c r="DC29" s="19"/>
     </row>
-    <row r="30" spans="1:16384" s="17" customFormat="1">
+    <row r="30" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>58</v>
       </c>
@@ -21356,7 +21357,7 @@
       <c r="CL30" s="20"/>
       <c r="DC30" s="19"/>
     </row>
-    <row r="31" spans="1:16384" s="17" customFormat="1">
+    <row r="31" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
@@ -21375,7 +21376,7 @@
       <c r="CL31" s="20"/>
       <c r="DC31" s="19"/>
     </row>
-    <row r="32" spans="1:16384" s="17" customFormat="1">
+    <row r="32" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>59</v>
       </c>
@@ -21395,7 +21396,7 @@
       <c r="CL32" s="20"/>
       <c r="DC32" s="19"/>
     </row>
-    <row r="33" spans="1:107" s="17" customFormat="1">
+    <row r="33" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>43</v>
       </c>
@@ -21415,7 +21416,7 @@
       <c r="CL33" s="20"/>
       <c r="DC33" s="19"/>
     </row>
-    <row r="34" spans="1:107" s="17" customFormat="1">
+    <row r="34" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>44</v>
       </c>
@@ -21437,7 +21438,7 @@
       <c r="CL34" s="20"/>
       <c r="DC34" s="19"/>
     </row>
-    <row r="35" spans="1:107" s="17" customFormat="1">
+    <row r="35" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>46</v>
       </c>
@@ -21457,7 +21458,7 @@
       <c r="CL35" s="20"/>
       <c r="DC35" s="19"/>
     </row>
-    <row r="36" spans="1:107" s="17" customFormat="1">
+    <row r="36" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>45</v>
       </c>
@@ -21479,7 +21480,7 @@
       <c r="CL36" s="20"/>
       <c r="DC36" s="19"/>
     </row>
-    <row r="37" spans="1:107" s="17" customFormat="1">
+    <row r="37" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>47</v>
       </c>
@@ -21499,7 +21500,7 @@
       <c r="CL37" s="20"/>
       <c r="DC37" s="19"/>
     </row>
-    <row r="38" spans="1:107" s="17" customFormat="1">
+    <row r="38" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>48</v>
       </c>
@@ -21519,7 +21520,7 @@
       <c r="CL38" s="20"/>
       <c r="DC38" s="19"/>
     </row>
-    <row r="39" spans="1:107" s="17" customFormat="1">
+    <row r="39" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>49</v>
       </c>
@@ -21539,7 +21540,7 @@
       <c r="CL39" s="20"/>
       <c r="DC39" s="19"/>
     </row>
-    <row r="40" spans="1:107" s="17" customFormat="1">
+    <row r="40" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
         <v>50</v>
       </c>
@@ -21559,7 +21560,7 @@
       <c r="CL40" s="20"/>
       <c r="DC40" s="19"/>
     </row>
-    <row r="41" spans="1:107" s="17" customFormat="1">
+    <row r="41" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>60</v>
       </c>
@@ -21580,7 +21581,7 @@
       <c r="CL41" s="20"/>
       <c r="DC41" s="19"/>
     </row>
-    <row r="42" spans="1:107" s="17" customFormat="1">
+    <row r="42" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
         <v>61</v>
       </c>
@@ -21601,7 +21602,7 @@
       <c r="CL42" s="20"/>
       <c r="DC42" s="19"/>
     </row>
-    <row r="43" spans="1:107" s="17" customFormat="1">
+    <row r="43" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>63</v>
       </c>
@@ -21624,7 +21625,7 @@
       <c r="CL43" s="20"/>
       <c r="DC43" s="19"/>
     </row>
-    <row r="44" spans="1:107" s="17" customFormat="1">
+    <row r="44" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>20</v>
       </c>
@@ -21651,7 +21652,7 @@
       <c r="CL44" s="20"/>
       <c r="DC44" s="19"/>
     </row>
-    <row r="45" spans="1:107" s="17" customFormat="1">
+    <row r="45" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>24</v>
       </c>
@@ -21671,7 +21672,7 @@
       <c r="CL45" s="20"/>
       <c r="DC45" s="19"/>
     </row>
-    <row r="46" spans="1:107" s="17" customFormat="1">
+    <row r="46" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>28</v>
       </c>
@@ -21695,7 +21696,7 @@
       <c r="CL46" s="20"/>
       <c r="DC46" s="19"/>
     </row>
-    <row r="47" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
+    <row r="47" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
         <v>64</v>
       </c>
@@ -21731,7 +21732,7 @@
       <c r="CL47" s="25"/>
       <c r="DC47" s="32"/>
     </row>
-    <row r="48" spans="1:107" s="24" customFormat="1">
+    <row r="48" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>4</v>
       </c>
@@ -21754,7 +21755,7 @@
       <c r="CL48" s="22"/>
       <c r="DC48" s="42"/>
     </row>
-    <row r="49" spans="1:107" s="17" customFormat="1">
+    <row r="49" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>67</v>
       </c>
@@ -21775,7 +21776,7 @@
       <c r="CL49" s="20"/>
       <c r="DC49" s="19"/>
     </row>
-    <row r="50" spans="1:107" s="17" customFormat="1">
+    <row r="50" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>66</v>
       </c>
@@ -21799,7 +21800,7 @@
       <c r="CL50" s="20"/>
       <c r="DC50" s="19"/>
     </row>
-    <row r="51" spans="1:107" s="17" customFormat="1">
+    <row r="51" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>74</v>
       </c>
@@ -21824,7 +21825,7 @@
       <c r="CL51" s="20"/>
       <c r="DC51" s="19"/>
     </row>
-    <row r="52" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
+    <row r="52" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30" t="s">
         <v>68</v>
       </c>
@@ -21851,7 +21852,7 @@
       <c r="CL52" s="25"/>
       <c r="DC52" s="32"/>
     </row>
-    <row r="53" spans="1:107" s="24" customFormat="1">
+    <row r="53" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>2</v>
       </c>
@@ -21877,7 +21878,7 @@
       <c r="CL53" s="22"/>
       <c r="DC53" s="42"/>
     </row>
-    <row r="54" spans="1:107" s="17" customFormat="1">
+    <row r="54" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>3</v>
       </c>
@@ -21903,7 +21904,7 @@
       <c r="CL54" s="20"/>
       <c r="DC54" s="19"/>
     </row>
-    <row r="55" spans="1:107" s="17" customFormat="1">
+    <row r="55" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>1</v>
       </c>
@@ -21927,7 +21928,7 @@
       <c r="CL55" s="20"/>
       <c r="DC55" s="19"/>
     </row>
-    <row r="56" spans="1:107" s="17" customFormat="1">
+    <row r="56" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>0</v>
       </c>
@@ -21956,7 +21957,7 @@
       <c r="CL56" s="20"/>
       <c r="DC56" s="19"/>
     </row>
-    <row r="57" spans="1:107" s="17" customFormat="1">
+    <row r="57" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
         <v>59</v>
       </c>
@@ -21984,7 +21985,7 @@
       <c r="CL57" s="20"/>
       <c r="DC57" s="19"/>
     </row>
-    <row r="58" spans="1:107" s="17" customFormat="1">
+    <row r="58" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
         <v>43</v>
       </c>
@@ -22012,7 +22013,7 @@
       <c r="CL58" s="20"/>
       <c r="DC58" s="19"/>
     </row>
-    <row r="59" spans="1:107" s="17" customFormat="1">
+    <row r="59" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
         <v>44</v>
       </c>
@@ -22040,7 +22041,7 @@
       <c r="CL59" s="20"/>
       <c r="DC59" s="19"/>
     </row>
-    <row r="60" spans="1:107" s="17" customFormat="1">
+    <row r="60" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
         <v>46</v>
       </c>
@@ -22067,7 +22068,7 @@
       <c r="CL60" s="20"/>
       <c r="DC60" s="19"/>
     </row>
-    <row r="61" spans="1:107" s="17" customFormat="1">
+    <row r="61" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
         <v>45</v>
       </c>
@@ -22094,7 +22095,7 @@
       <c r="CL61" s="20"/>
       <c r="DC61" s="19"/>
     </row>
-    <row r="62" spans="1:107" s="17" customFormat="1">
+    <row r="62" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
         <v>47</v>
       </c>
@@ -22121,7 +22122,7 @@
       <c r="CL62" s="20"/>
       <c r="DC62" s="19"/>
     </row>
-    <row r="63" spans="1:107" s="17" customFormat="1">
+    <row r="63" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
         <v>48</v>
       </c>
@@ -22149,7 +22150,7 @@
       <c r="CL63" s="20"/>
       <c r="DC63" s="19"/>
     </row>
-    <row r="64" spans="1:107" s="17" customFormat="1">
+    <row r="64" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
         <v>49</v>
       </c>
@@ -22177,7 +22178,7 @@
       <c r="CL64" s="20"/>
       <c r="DC64" s="19"/>
     </row>
-    <row r="65" spans="1:107" s="17" customFormat="1">
+    <row r="65" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
         <v>50</v>
       </c>
@@ -22205,7 +22206,7 @@
       <c r="CL65" s="20"/>
       <c r="DC65" s="19"/>
     </row>
-    <row r="66" spans="1:107" s="17" customFormat="1">
+    <row r="66" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
         <v>60</v>
       </c>
@@ -22233,7 +22234,7 @@
       <c r="CL66" s="20"/>
       <c r="DC66" s="19"/>
     </row>
-    <row r="67" spans="1:107" s="17" customFormat="1">
+    <row r="67" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
         <v>61</v>
       </c>
@@ -22260,7 +22261,7 @@
       <c r="CL67" s="20"/>
       <c r="DC67" s="19"/>
     </row>
-    <row r="68" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
+    <row r="68" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30" t="s">
         <v>70</v>
       </c>
@@ -22288,7 +22289,7 @@
       <c r="CL68" s="25"/>
       <c r="DC68" s="32"/>
     </row>
-    <row r="69" spans="1:107" s="24" customFormat="1">
+    <row r="69" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50" t="s">
         <v>29</v>
       </c>
@@ -22309,7 +22310,7 @@
       <c r="CL69" s="22"/>
       <c r="DC69" s="42"/>
     </row>
-    <row r="70" spans="1:107" s="17" customFormat="1">
+    <row r="70" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
         <v>31</v>
       </c>
@@ -22330,7 +22331,7 @@
       <c r="CL70" s="20"/>
       <c r="DC70" s="19"/>
     </row>
-    <row r="71" spans="1:107" s="17" customFormat="1">
+    <row r="71" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="51" t="s">
         <v>35</v>
       </c>
@@ -22352,7 +22353,7 @@
       <c r="CL71" s="20"/>
       <c r="DC71" s="19"/>
     </row>
-    <row r="72" spans="1:107" s="17" customFormat="1">
+    <row r="72" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45" t="s">
         <v>30</v>
       </c>
@@ -22373,7 +22374,7 @@
       <c r="CL72" s="20"/>
       <c r="DC72" s="19"/>
     </row>
-    <row r="73" spans="1:107" s="47" customFormat="1">
+    <row r="73" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45" t="s">
         <v>33</v>
       </c>
@@ -22394,7 +22395,7 @@
       <c r="CL73" s="46"/>
       <c r="DC73" s="49"/>
     </row>
-    <row r="74" spans="1:107" s="47" customFormat="1">
+    <row r="74" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="46" t="s">
         <v>80</v>
       </c>
@@ -22416,7 +22417,7 @@
       <c r="CL74" s="46"/>
       <c r="DC74" s="49"/>
     </row>
-    <row r="75" spans="1:107" s="47" customFormat="1">
+    <row r="75" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
         <v>75</v>
       </c>
@@ -22438,7 +22439,7 @@
       <c r="CL75" s="46"/>
       <c r="DC75" s="49"/>
     </row>
-    <row r="76" spans="1:107" s="47" customFormat="1">
+    <row r="76" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
         <v>76</v>
       </c>
@@ -22460,7 +22461,7 @@
       <c r="CL76" s="46"/>
       <c r="DC76" s="49"/>
     </row>
-    <row r="77" spans="1:107" s="47" customFormat="1">
+    <row r="77" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
         <v>77</v>
       </c>
@@ -22482,7 +22483,7 @@
       <c r="CL77" s="46"/>
       <c r="DC77" s="49"/>
     </row>
-    <row r="78" spans="1:107" s="47" customFormat="1">
+    <row r="78" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
         <v>78</v>
       </c>
@@ -22504,7 +22505,7 @@
       <c r="CL78" s="46"/>
       <c r="DC78" s="49"/>
     </row>
-    <row r="79" spans="1:107" s="47" customFormat="1">
+    <row r="79" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
         <v>79</v>
       </c>
@@ -22526,7 +22527,7 @@
       <c r="CL79" s="46"/>
       <c r="DC79" s="49"/>
     </row>
-    <row r="80" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
+    <row r="80" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="30" t="s">
         <v>73</v>
       </c>
@@ -22557,7 +22558,7 @@
       <c r="CL80" s="62"/>
       <c r="DC80" s="32"/>
     </row>
-    <row r="81" spans="1:107" s="24" customFormat="1">
+    <row r="81" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>5</v>
       </c>
@@ -22579,7 +22580,7 @@
       <c r="CN81" s="44"/>
       <c r="DC81" s="42"/>
     </row>
-    <row r="82" spans="1:107" s="17" customFormat="1">
+    <row r="82" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>12</v>
       </c>
@@ -22600,7 +22601,7 @@
       <c r="CO82" s="21"/>
       <c r="DC82" s="19"/>
     </row>
-    <row r="83" spans="1:107" s="17" customFormat="1">
+    <row r="83" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>25</v>
       </c>
@@ -22621,7 +22622,7 @@
       <c r="CO83" s="21"/>
       <c r="DC83" s="19"/>
     </row>
-    <row r="84" spans="1:107" s="17" customFormat="1">
+    <row r="84" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>82</v>
       </c>
@@ -22642,7 +22643,7 @@
       <c r="CO84" s="21"/>
       <c r="DC84" s="19"/>
     </row>
-    <row r="85" spans="1:107" s="17" customFormat="1">
+    <row r="85" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>84</v>
       </c>
@@ -22666,7 +22667,7 @@
       <c r="CS85" s="21"/>
       <c r="DC85" s="19"/>
     </row>
-    <row r="86" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
+    <row r="86" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="30" t="s">
         <v>83</v>
       </c>
@@ -22720,7 +22721,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -22734,7 +22735,7 @@
     <col min="96" max="100" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1" s="223">
         <v>43670</v>
       </c>
@@ -23051,7 +23052,7 @@
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="97"/>
@@ -23085,7 +23086,7 @@
     <col min="103" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="100" customFormat="1">
+    <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
       <c r="B1" s="459" t="s">
         <v>103</v>
@@ -23201,7 +23202,7 @@
       <c r="CW1" s="452"/>
       <c r="CX1" s="99"/>
     </row>
-    <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -23507,7 +23508,7 @@
       </c>
       <c r="CX2" s="208"/>
     </row>
-    <row r="3" spans="1:102" s="113" customFormat="1">
+    <row r="3" spans="1:102" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -23613,7 +23614,7 @@
       <c r="CW3" s="111"/>
       <c r="CX3" s="209"/>
     </row>
-    <row r="4" spans="1:102" s="64" customFormat="1">
+    <row r="4" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -23636,7 +23637,7 @@
       <c r="CW4" s="87"/>
       <c r="CX4" s="71"/>
     </row>
-    <row r="5" spans="1:102" s="64" customFormat="1">
+    <row r="5" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -23659,7 +23660,7 @@
       <c r="CW5" s="87"/>
       <c r="CX5" s="71"/>
     </row>
-    <row r="6" spans="1:102" s="64" customFormat="1">
+    <row r="6" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -23685,7 +23686,7 @@
       <c r="CW6" s="87"/>
       <c r="CX6" s="71"/>
     </row>
-    <row r="7" spans="1:102" s="64" customFormat="1">
+    <row r="7" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -23711,7 +23712,7 @@
       <c r="CW7" s="87"/>
       <c r="CX7" s="71"/>
     </row>
-    <row r="8" spans="1:102" s="64" customFormat="1">
+    <row r="8" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -23737,7 +23738,7 @@
       <c r="CW8" s="87"/>
       <c r="CX8" s="71"/>
     </row>
-    <row r="9" spans="1:102" s="64" customFormat="1">
+    <row r="9" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -23763,7 +23764,7 @@
       <c r="CW9" s="87"/>
       <c r="CX9" s="71"/>
     </row>
-    <row r="10" spans="1:102" s="64" customFormat="1">
+    <row r="10" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -23789,7 +23790,7 @@
       <c r="CW10" s="87"/>
       <c r="CX10" s="71"/>
     </row>
-    <row r="11" spans="1:102" s="64" customFormat="1">
+    <row r="11" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -23815,7 +23816,7 @@
       <c r="CW11" s="87"/>
       <c r="CX11" s="71"/>
     </row>
-    <row r="12" spans="1:102" s="64" customFormat="1">
+    <row r="12" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -23839,7 +23840,7 @@
       <c r="CW12" s="87"/>
       <c r="CX12" s="71"/>
     </row>
-    <row r="13" spans="1:102" s="64" customFormat="1">
+    <row r="13" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -23863,7 +23864,7 @@
       <c r="CW13" s="87"/>
       <c r="CX13" s="71"/>
     </row>
-    <row r="14" spans="1:102" s="64" customFormat="1">
+    <row r="14" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -23887,7 +23888,7 @@
       <c r="CW14" s="87"/>
       <c r="CX14" s="71"/>
     </row>
-    <row r="15" spans="1:102" s="64" customFormat="1">
+    <row r="15" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -23912,7 +23913,7 @@
       <c r="CW15" s="87"/>
       <c r="CX15" s="71"/>
     </row>
-    <row r="16" spans="1:102" s="116" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:102" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -23940,7 +23941,7 @@
       <c r="CW16" s="166"/>
       <c r="CX16" s="118"/>
     </row>
-    <row r="17" spans="1:102" s="121" customFormat="1">
+    <row r="17" spans="1:102" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -23963,7 +23964,7 @@
       <c r="CW17" s="122"/>
       <c r="CX17" s="123"/>
     </row>
-    <row r="18" spans="1:102" s="66" customFormat="1">
+    <row r="18" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -23985,7 +23986,7 @@
       <c r="CW18" s="90"/>
       <c r="CX18" s="72"/>
     </row>
-    <row r="19" spans="1:102" s="66" customFormat="1">
+    <row r="19" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -24007,7 +24008,7 @@
       <c r="CW19" s="90"/>
       <c r="CX19" s="72"/>
     </row>
-    <row r="20" spans="1:102" s="66" customFormat="1">
+    <row r="20" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -24030,7 +24031,7 @@
       <c r="CW20" s="90"/>
       <c r="CX20" s="72"/>
     </row>
-    <row r="21" spans="1:102" s="66" customFormat="1">
+    <row r="21" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -24058,7 +24059,7 @@
       <c r="CW21" s="90"/>
       <c r="CX21" s="72"/>
     </row>
-    <row r="22" spans="1:102" s="66" customFormat="1">
+    <row r="22" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -24082,7 +24083,7 @@
       <c r="CW22" s="90"/>
       <c r="CX22" s="72"/>
     </row>
-    <row r="23" spans="1:102" s="66" customFormat="1">
+    <row r="23" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -24110,7 +24111,7 @@
       <c r="CW23" s="90"/>
       <c r="CX23" s="72"/>
     </row>
-    <row r="24" spans="1:102" s="66" customFormat="1">
+    <row r="24" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -24132,7 +24133,7 @@
       <c r="CW24" s="90"/>
       <c r="CX24" s="72"/>
     </row>
-    <row r="25" spans="1:102" s="66" customFormat="1">
+    <row r="25" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -24155,7 +24156,7 @@
       <c r="CW25" s="90"/>
       <c r="CX25" s="72"/>
     </row>
-    <row r="26" spans="1:102" s="66" customFormat="1">
+    <row r="26" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
@@ -24178,7 +24179,7 @@
       <c r="CW26" s="90"/>
       <c r="CX26" s="72"/>
     </row>
-    <row r="27" spans="1:102" s="66" customFormat="1">
+    <row r="27" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
@@ -24201,7 +24202,7 @@
       <c r="CW27" s="90"/>
       <c r="CX27" s="72"/>
     </row>
-    <row r="28" spans="1:102" s="66" customFormat="1">
+    <row r="28" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
@@ -24224,7 +24225,7 @@
       <c r="CW28" s="90"/>
       <c r="CX28" s="72"/>
     </row>
-    <row r="29" spans="1:102" s="66" customFormat="1">
+    <row r="29" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
@@ -24247,7 +24248,7 @@
       <c r="CW29" s="90"/>
       <c r="CX29" s="72"/>
     </row>
-    <row r="30" spans="1:102" s="66" customFormat="1">
+    <row r="30" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
@@ -24270,7 +24271,7 @@
       <c r="CW30" s="90"/>
       <c r="CX30" s="72"/>
     </row>
-    <row r="31" spans="1:102" s="66" customFormat="1">
+    <row r="31" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
@@ -24293,7 +24294,7 @@
       <c r="CW31" s="90"/>
       <c r="CX31" s="72"/>
     </row>
-    <row r="32" spans="1:102" s="66" customFormat="1">
+    <row r="32" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
@@ -24316,7 +24317,7 @@
       <c r="CW32" s="90"/>
       <c r="CX32" s="72"/>
     </row>
-    <row r="33" spans="1:102" s="66" customFormat="1">
+    <row r="33" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
@@ -24339,7 +24340,7 @@
       <c r="CW33" s="90"/>
       <c r="CX33" s="72"/>
     </row>
-    <row r="34" spans="1:102" s="126" customFormat="1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:102" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
@@ -24369,7 +24370,7 @@
       <c r="CW34" s="127"/>
       <c r="CX34" s="128"/>
     </row>
-    <row r="35" spans="1:102" s="131" customFormat="1">
+    <row r="35" spans="1:102" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="129" t="s">
         <v>97</v>
       </c>
@@ -24392,7 +24393,7 @@
       <c r="CW35" s="132"/>
       <c r="CX35" s="133"/>
     </row>
-    <row r="36" spans="1:102" s="68" customFormat="1">
+    <row r="36" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
@@ -24413,7 +24414,7 @@
       <c r="CW36" s="92"/>
       <c r="CX36" s="73"/>
     </row>
-    <row r="37" spans="1:102" s="68" customFormat="1">
+    <row r="37" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
@@ -24436,7 +24437,7 @@
       <c r="CW37" s="92"/>
       <c r="CX37" s="73"/>
     </row>
-    <row r="38" spans="1:102" s="68" customFormat="1">
+    <row r="38" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
@@ -24458,7 +24459,7 @@
       <c r="CW38" s="92"/>
       <c r="CX38" s="73"/>
     </row>
-    <row r="39" spans="1:102" s="68" customFormat="1">
+    <row r="39" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
@@ -24479,7 +24480,7 @@
       <c r="CW39" s="92"/>
       <c r="CX39" s="73"/>
     </row>
-    <row r="40" spans="1:102" s="174" customFormat="1">
+    <row r="40" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
@@ -24501,7 +24502,7 @@
       <c r="CW40" s="175"/>
       <c r="CX40" s="176"/>
     </row>
-    <row r="41" spans="1:102" s="174" customFormat="1">
+    <row r="41" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
@@ -24523,7 +24524,7 @@
       <c r="CW41" s="175"/>
       <c r="CX41" s="176"/>
     </row>
-    <row r="42" spans="1:102" s="174" customFormat="1">
+    <row r="42" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
@@ -24545,7 +24546,7 @@
       <c r="CW42" s="175"/>
       <c r="CX42" s="176"/>
     </row>
-    <row r="43" spans="1:102" s="174" customFormat="1">
+    <row r="43" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
@@ -24567,7 +24568,7 @@
       <c r="CW43" s="175"/>
       <c r="CX43" s="176"/>
     </row>
-    <row r="44" spans="1:102" s="174" customFormat="1">
+    <row r="44" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
@@ -24589,7 +24590,7 @@
       <c r="CW44" s="175"/>
       <c r="CX44" s="176"/>
     </row>
-    <row r="45" spans="1:102" s="174" customFormat="1">
+    <row r="45" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
@@ -24611,7 +24612,7 @@
       <c r="CW45" s="175"/>
       <c r="CX45" s="176"/>
     </row>
-    <row r="46" spans="1:102" s="68" customFormat="1">
+    <row r="46" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
@@ -24634,7 +24635,7 @@
       <c r="CW46" s="92"/>
       <c r="CX46" s="73"/>
     </row>
-    <row r="47" spans="1:102" s="136" customFormat="1" ht="15.75" thickBot="1">
+    <row r="47" spans="1:102" s="136" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="134" t="s">
         <v>100</v>
       </c>
@@ -24669,7 +24670,7 @@
       <c r="CW47" s="137"/>
       <c r="CX47" s="138"/>
     </row>
-    <row r="48" spans="1:102" s="141" customFormat="1">
+    <row r="48" spans="1:102" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
@@ -24692,7 +24693,7 @@
       <c r="CW48" s="142"/>
       <c r="CX48" s="143"/>
     </row>
-    <row r="49" spans="1:102" s="69" customFormat="1">
+    <row r="49" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
@@ -24714,7 +24715,7 @@
       <c r="CW49" s="94"/>
       <c r="CX49" s="74"/>
     </row>
-    <row r="50" spans="1:102" s="69" customFormat="1">
+    <row r="50" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
@@ -24735,7 +24736,7 @@
       <c r="CW50" s="94"/>
       <c r="CX50" s="74"/>
     </row>
-    <row r="51" spans="1:102" s="69" customFormat="1">
+    <row r="51" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
@@ -24757,7 +24758,7 @@
       <c r="CW51" s="94"/>
       <c r="CX51" s="74"/>
     </row>
-    <row r="52" spans="1:102" s="69" customFormat="1">
+    <row r="52" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
@@ -24779,7 +24780,7 @@
       <c r="CW52" s="94"/>
       <c r="CX52" s="74"/>
     </row>
-    <row r="53" spans="1:102" s="69" customFormat="1">
+    <row r="53" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
@@ -24801,7 +24802,7 @@
       <c r="CW53" s="94"/>
       <c r="CX53" s="74"/>
     </row>
-    <row r="54" spans="1:102" s="69" customFormat="1">
+    <row r="54" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
@@ -24823,7 +24824,7 @@
       <c r="CW54" s="94"/>
       <c r="CX54" s="74"/>
     </row>
-    <row r="55" spans="1:102" s="69" customFormat="1">
+    <row r="55" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
@@ -24844,7 +24845,7 @@
       <c r="CW55" s="94"/>
       <c r="CX55" s="74"/>
     </row>
-    <row r="56" spans="1:102" s="69" customFormat="1">
+    <row r="56" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
@@ -24866,7 +24867,7 @@
       <c r="CW56" s="94"/>
       <c r="CX56" s="74"/>
     </row>
-    <row r="57" spans="1:102" s="69" customFormat="1">
+    <row r="57" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
@@ -24889,7 +24890,7 @@
       <c r="CW57" s="94"/>
       <c r="CX57" s="74"/>
     </row>
-    <row r="58" spans="1:102" s="69" customFormat="1">
+    <row r="58" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
@@ -24911,7 +24912,7 @@
       <c r="CW58" s="94"/>
       <c r="CX58" s="74"/>
     </row>
-    <row r="59" spans="1:102" s="69" customFormat="1">
+    <row r="59" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
@@ -24933,7 +24934,7 @@
       <c r="CW59" s="94"/>
       <c r="CX59" s="74"/>
     </row>
-    <row r="60" spans="1:102" s="146" customFormat="1" ht="15.75" thickBot="1">
+    <row r="60" spans="1:102" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
@@ -24970,7 +24971,7 @@
       <c r="CW60" s="147"/>
       <c r="CX60" s="148"/>
     </row>
-    <row r="61" spans="1:102" s="156" customFormat="1">
+    <row r="61" spans="1:102" s="156" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="154" t="s">
         <v>93</v>
       </c>
@@ -24993,7 +24994,7 @@
       <c r="CW61" s="157"/>
       <c r="CX61" s="158"/>
     </row>
-    <row r="62" spans="1:102" s="70" customFormat="1">
+    <row r="62" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
@@ -25017,7 +25018,7 @@
       <c r="CW62" s="96"/>
       <c r="CX62" s="75"/>
     </row>
-    <row r="63" spans="1:102" s="70" customFormat="1">
+    <row r="63" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
@@ -25041,7 +25042,7 @@
       <c r="CW63" s="96"/>
       <c r="CX63" s="75"/>
     </row>
-    <row r="64" spans="1:102" s="70" customFormat="1">
+    <row r="64" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
@@ -25064,7 +25065,7 @@
       <c r="CW64" s="96"/>
       <c r="CX64" s="75"/>
     </row>
-    <row r="65" spans="1:102" s="70" customFormat="1">
+    <row r="65" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
@@ -25088,7 +25089,7 @@
       <c r="CW65" s="96"/>
       <c r="CX65" s="75"/>
     </row>
-    <row r="66" spans="1:102" s="70" customFormat="1">
+    <row r="66" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
@@ -25112,7 +25113,7 @@
       <c r="CW66" s="96"/>
       <c r="CX66" s="75"/>
     </row>
-    <row r="67" spans="1:102" s="70" customFormat="1">
+    <row r="67" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
@@ -25135,7 +25136,7 @@
       <c r="CW67" s="96"/>
       <c r="CX67" s="75"/>
     </row>
-    <row r="68" spans="1:102" s="70" customFormat="1">
+    <row r="68" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
@@ -25160,7 +25161,7 @@
       <c r="CW68" s="96"/>
       <c r="CX68" s="75"/>
     </row>
-    <row r="69" spans="1:102" s="161" customFormat="1" ht="15.75" thickBot="1">
+    <row r="69" spans="1:102" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
@@ -25188,7 +25189,7 @@
       <c r="CW69" s="162"/>
       <c r="CX69" s="163"/>
     </row>
-    <row r="70" spans="1:102" s="212" customFormat="1" ht="15.75" thickBot="1">
+    <row r="70" spans="1:102" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
@@ -25213,7 +25214,7 @@
       </c>
       <c r="CX70" s="214"/>
     </row>
-    <row r="71" spans="1:102" s="151" customFormat="1">
+    <row r="71" spans="1:102" s="151" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
       <c r="P71" s="153"/>
@@ -25259,7 +25260,7 @@
       <selection pane="topRight" activeCell="DA49" sqref="DA49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="97" bestFit="1" customWidth="1"/>
@@ -25314,7 +25315,7 @@
     <col min="105" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="100" customFormat="1">
+    <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
       <c r="B1" s="459" t="s">
         <v>103</v>
@@ -25432,7 +25433,7 @@
       <c r="CY1" s="464"/>
       <c r="CZ1" s="99"/>
     </row>
-    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -25744,7 +25745,7 @@
       </c>
       <c r="CZ2" s="208"/>
     </row>
-    <row r="3" spans="1:104" s="113" customFormat="1">
+    <row r="3" spans="1:104" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -25851,7 +25852,7 @@
       <c r="CY3" s="269"/>
       <c r="CZ3" s="209"/>
     </row>
-    <row r="4" spans="1:104" s="64" customFormat="1">
+    <row r="4" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -25883,7 +25884,7 @@
       <c r="CY4" s="87"/>
       <c r="CZ4" s="71"/>
     </row>
-    <row r="5" spans="1:104" s="64" customFormat="1">
+    <row r="5" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -25915,7 +25916,7 @@
       <c r="CY5" s="87"/>
       <c r="CZ5" s="71"/>
     </row>
-    <row r="6" spans="1:104" s="64" customFormat="1">
+    <row r="6" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -25950,7 +25951,7 @@
       <c r="CY6" s="87"/>
       <c r="CZ6" s="71"/>
     </row>
-    <row r="7" spans="1:104" s="64" customFormat="1">
+    <row r="7" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -25987,7 +25988,7 @@
       <c r="CY7" s="87"/>
       <c r="CZ7" s="71"/>
     </row>
-    <row r="8" spans="1:104" s="64" customFormat="1">
+    <row r="8" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -26022,7 +26023,7 @@
       <c r="CY8" s="87"/>
       <c r="CZ8" s="71"/>
     </row>
-    <row r="9" spans="1:104" s="64" customFormat="1">
+    <row r="9" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -26057,7 +26058,7 @@
       <c r="CY9" s="87"/>
       <c r="CZ9" s="71"/>
     </row>
-    <row r="10" spans="1:104" s="64" customFormat="1">
+    <row r="10" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -26092,7 +26093,7 @@
       <c r="CY10" s="87"/>
       <c r="CZ10" s="71"/>
     </row>
-    <row r="11" spans="1:104" s="64" customFormat="1">
+    <row r="11" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -26127,7 +26128,7 @@
       <c r="CY11" s="87"/>
       <c r="CZ11" s="71"/>
     </row>
-    <row r="12" spans="1:104" s="64" customFormat="1">
+    <row r="12" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -26160,7 +26161,7 @@
       <c r="CY12" s="87"/>
       <c r="CZ12" s="71"/>
     </row>
-    <row r="13" spans="1:104" s="64" customFormat="1">
+    <row r="13" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -26193,7 +26194,7 @@
       <c r="CY13" s="87"/>
       <c r="CZ13" s="71"/>
     </row>
-    <row r="14" spans="1:104" s="64" customFormat="1">
+    <row r="14" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -26226,7 +26227,7 @@
       <c r="CY14" s="87"/>
       <c r="CZ14" s="71"/>
     </row>
-    <row r="15" spans="1:104" s="64" customFormat="1">
+    <row r="15" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -26260,7 +26261,7 @@
       <c r="CY15" s="87"/>
       <c r="CZ15" s="71"/>
     </row>
-    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -26298,7 +26299,7 @@
       <c r="CY16" s="166"/>
       <c r="CZ16" s="118"/>
     </row>
-    <row r="17" spans="1:104" s="121" customFormat="1">
+    <row r="17" spans="1:104" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -26329,7 +26330,7 @@
       <c r="CY17" s="122"/>
       <c r="CZ17" s="123"/>
     </row>
-    <row r="18" spans="1:104" s="66" customFormat="1">
+    <row r="18" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -26358,7 +26359,7 @@
       <c r="CY18" s="90"/>
       <c r="CZ18" s="72"/>
     </row>
-    <row r="19" spans="1:104" s="66" customFormat="1">
+    <row r="19" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -26388,7 +26389,7 @@
       <c r="CY19" s="90"/>
       <c r="CZ19" s="72"/>
     </row>
-    <row r="20" spans="1:104" s="66" customFormat="1">
+    <row r="20" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -26418,7 +26419,7 @@
       <c r="CY20" s="90"/>
       <c r="CZ20" s="72"/>
     </row>
-    <row r="21" spans="1:104" s="66" customFormat="1">
+    <row r="21" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -26453,7 +26454,7 @@
       <c r="CY21" s="90"/>
       <c r="CZ21" s="72"/>
     </row>
-    <row r="22" spans="1:104" s="66" customFormat="1">
+    <row r="22" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -26485,7 +26486,7 @@
       <c r="CY22" s="90"/>
       <c r="CZ22" s="72"/>
     </row>
-    <row r="23" spans="1:104" s="66" customFormat="1">
+    <row r="23" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -26520,7 +26521,7 @@
       <c r="CY23" s="90"/>
       <c r="CZ23" s="72"/>
     </row>
-    <row r="24" spans="1:104" s="66" customFormat="1">
+    <row r="24" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -26549,7 +26550,7 @@
       <c r="CY24" s="90"/>
       <c r="CZ24" s="72"/>
     </row>
-    <row r="25" spans="1:104" s="66" customFormat="1">
+    <row r="25" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -26579,7 +26580,7 @@
       <c r="CY25" s="90"/>
       <c r="CZ25" s="72"/>
     </row>
-    <row r="26" spans="1:104" s="66" customFormat="1">
+    <row r="26" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
@@ -26610,7 +26611,7 @@
       <c r="CY26" s="90"/>
       <c r="CZ26" s="72"/>
     </row>
-    <row r="27" spans="1:104" s="66" customFormat="1">
+    <row r="27" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
@@ -26640,7 +26641,7 @@
       <c r="CY27" s="90"/>
       <c r="CZ27" s="72"/>
     </row>
-    <row r="28" spans="1:104" s="66" customFormat="1">
+    <row r="28" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
@@ -26670,7 +26671,7 @@
       <c r="CY28" s="90"/>
       <c r="CZ28" s="72"/>
     </row>
-    <row r="29" spans="1:104" s="66" customFormat="1">
+    <row r="29" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
@@ -26700,7 +26701,7 @@
       <c r="CY29" s="90"/>
       <c r="CZ29" s="72"/>
     </row>
-    <row r="30" spans="1:104" s="66" customFormat="1">
+    <row r="30" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
@@ -26730,7 +26731,7 @@
       <c r="CY30" s="90"/>
       <c r="CZ30" s="72"/>
     </row>
-    <row r="31" spans="1:104" s="66" customFormat="1">
+    <row r="31" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
@@ -26760,7 +26761,7 @@
       <c r="CY31" s="90"/>
       <c r="CZ31" s="72"/>
     </row>
-    <row r="32" spans="1:104" s="66" customFormat="1">
+    <row r="32" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
@@ -26790,7 +26791,7 @@
       <c r="CY32" s="90"/>
       <c r="CZ32" s="72"/>
     </row>
-    <row r="33" spans="1:104" s="66" customFormat="1">
+    <row r="33" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
@@ -26821,7 +26822,7 @@
       <c r="CY33" s="90"/>
       <c r="CZ33" s="72"/>
     </row>
-    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
@@ -26861,7 +26862,7 @@
       <c r="CY34" s="127"/>
       <c r="CZ34" s="128"/>
     </row>
-    <row r="35" spans="1:104" s="272" customFormat="1">
+    <row r="35" spans="1:104" s="272" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="270" t="s">
         <v>97</v>
       </c>
@@ -26891,7 +26892,7 @@
       <c r="CY35" s="274"/>
       <c r="CZ35" s="276"/>
     </row>
-    <row r="36" spans="1:104" s="68" customFormat="1">
+    <row r="36" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
@@ -26921,7 +26922,7 @@
       <c r="CY36" s="92"/>
       <c r="CZ36" s="73"/>
     </row>
-    <row r="37" spans="1:104" s="68" customFormat="1">
+    <row r="37" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
@@ -26953,7 +26954,7 @@
       <c r="CY37" s="92"/>
       <c r="CZ37" s="73"/>
     </row>
-    <row r="38" spans="1:104" s="68" customFormat="1">
+    <row r="38" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
@@ -26984,7 +26985,7 @@
       <c r="CY38" s="92"/>
       <c r="CZ38" s="73"/>
     </row>
-    <row r="39" spans="1:104" s="68" customFormat="1">
+    <row r="39" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
@@ -27014,7 +27015,7 @@
       <c r="CY39" s="92"/>
       <c r="CZ39" s="73"/>
     </row>
-    <row r="40" spans="1:104" s="174" customFormat="1">
+    <row r="40" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
@@ -27044,7 +27045,7 @@
       <c r="CY40" s="175"/>
       <c r="CZ40" s="176"/>
     </row>
-    <row r="41" spans="1:104" s="174" customFormat="1">
+    <row r="41" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
@@ -27074,7 +27075,7 @@
       <c r="CY41" s="175"/>
       <c r="CZ41" s="176"/>
     </row>
-    <row r="42" spans="1:104" s="174" customFormat="1">
+    <row r="42" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
@@ -27104,7 +27105,7 @@
       <c r="CY42" s="175"/>
       <c r="CZ42" s="176"/>
     </row>
-    <row r="43" spans="1:104" s="174" customFormat="1">
+    <row r="43" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
@@ -27134,7 +27135,7 @@
       <c r="CY43" s="175"/>
       <c r="CZ43" s="176"/>
     </row>
-    <row r="44" spans="1:104" s="174" customFormat="1">
+    <row r="44" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
@@ -27164,7 +27165,7 @@
       <c r="CY44" s="175"/>
       <c r="CZ44" s="176"/>
     </row>
-    <row r="45" spans="1:104" s="174" customFormat="1">
+    <row r="45" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
@@ -27194,7 +27195,7 @@
       <c r="CY45" s="175"/>
       <c r="CZ45" s="176"/>
     </row>
-    <row r="46" spans="1:104" s="68" customFormat="1">
+    <row r="46" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
@@ -27226,7 +27227,7 @@
       <c r="CY46" s="92"/>
       <c r="CZ46" s="73"/>
     </row>
-    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1">
+    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="279" t="s">
         <v>100</v>
       </c>
@@ -27270,7 +27271,7 @@
       <c r="CY47" s="283"/>
       <c r="CZ47" s="288"/>
     </row>
-    <row r="48" spans="1:104" s="141" customFormat="1">
+    <row r="48" spans="1:104" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
@@ -27300,7 +27301,7 @@
       <c r="CY48" s="142"/>
       <c r="CZ48" s="143"/>
     </row>
-    <row r="49" spans="1:104" s="69" customFormat="1">
+    <row r="49" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
@@ -27329,7 +27330,7 @@
       <c r="CY49" s="94"/>
       <c r="CZ49" s="74"/>
     </row>
-    <row r="50" spans="1:104" s="69" customFormat="1">
+    <row r="50" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
@@ -27357,7 +27358,7 @@
       <c r="CY50" s="94"/>
       <c r="CZ50" s="74"/>
     </row>
-    <row r="51" spans="1:104" s="69" customFormat="1">
+    <row r="51" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
@@ -27386,7 +27387,7 @@
       <c r="CY51" s="94"/>
       <c r="CZ51" s="74"/>
     </row>
-    <row r="52" spans="1:104" s="69" customFormat="1">
+    <row r="52" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
@@ -27415,7 +27416,7 @@
       <c r="CY52" s="94"/>
       <c r="CZ52" s="74"/>
     </row>
-    <row r="53" spans="1:104" s="69" customFormat="1">
+    <row r="53" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
@@ -27444,7 +27445,7 @@
       <c r="CY53" s="94"/>
       <c r="CZ53" s="74"/>
     </row>
-    <row r="54" spans="1:104" s="69" customFormat="1">
+    <row r="54" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
@@ -27473,7 +27474,7 @@
       <c r="CY54" s="94"/>
       <c r="CZ54" s="74"/>
     </row>
-    <row r="55" spans="1:104" s="69" customFormat="1">
+    <row r="55" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
@@ -27501,7 +27502,7 @@
       <c r="CY55" s="94"/>
       <c r="CZ55" s="74"/>
     </row>
-    <row r="56" spans="1:104" s="69" customFormat="1">
+    <row r="56" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
@@ -27530,7 +27531,7 @@
       <c r="CY56" s="94"/>
       <c r="CZ56" s="74"/>
     </row>
-    <row r="57" spans="1:104" s="69" customFormat="1">
+    <row r="57" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
@@ -27560,7 +27561,7 @@
       <c r="CY57" s="94"/>
       <c r="CZ57" s="74"/>
     </row>
-    <row r="58" spans="1:104" s="69" customFormat="1">
+    <row r="58" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
@@ -27589,7 +27590,7 @@
       <c r="CY58" s="94"/>
       <c r="CZ58" s="74"/>
     </row>
-    <row r="59" spans="1:104" s="69" customFormat="1">
+    <row r="59" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
@@ -27618,7 +27619,7 @@
       <c r="CY59" s="94"/>
       <c r="CZ59" s="74"/>
     </row>
-    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1">
+    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
@@ -27663,7 +27664,7 @@
       <c r="CY60" s="147"/>
       <c r="CZ60" s="148"/>
     </row>
-    <row r="61" spans="1:104" s="291" customFormat="1">
+    <row r="61" spans="1:104" s="291" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="289" t="s">
         <v>93</v>
       </c>
@@ -27695,7 +27696,7 @@
       <c r="CY61" s="293"/>
       <c r="CZ61" s="295"/>
     </row>
-    <row r="62" spans="1:104" s="70" customFormat="1">
+    <row r="62" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
@@ -27726,7 +27727,7 @@
       <c r="CY62" s="96"/>
       <c r="CZ62" s="75"/>
     </row>
-    <row r="63" spans="1:104" s="70" customFormat="1">
+    <row r="63" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
@@ -27757,7 +27758,7 @@
       <c r="CY63" s="96"/>
       <c r="CZ63" s="75"/>
     </row>
-    <row r="64" spans="1:104" s="70" customFormat="1">
+    <row r="64" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
@@ -27787,7 +27788,7 @@
       <c r="CY64" s="96"/>
       <c r="CZ64" s="75"/>
     </row>
-    <row r="65" spans="1:104" s="70" customFormat="1">
+    <row r="65" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
@@ -27818,7 +27819,7 @@
       <c r="CY65" s="96"/>
       <c r="CZ65" s="75"/>
     </row>
-    <row r="66" spans="1:104" s="70" customFormat="1">
+    <row r="66" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
@@ -27849,7 +27850,7 @@
       <c r="CY66" s="96"/>
       <c r="CZ66" s="75"/>
     </row>
-    <row r="67" spans="1:104" s="70" customFormat="1">
+    <row r="67" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
@@ -27879,7 +27880,7 @@
       <c r="CY67" s="96"/>
       <c r="CZ67" s="75"/>
     </row>
-    <row r="68" spans="1:104" s="70" customFormat="1">
+    <row r="68" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
@@ -27911,7 +27912,7 @@
       <c r="CY68" s="96"/>
       <c r="CZ68" s="75"/>
     </row>
-    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1">
+    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
@@ -27944,7 +27945,7 @@
       <c r="CY69" s="162"/>
       <c r="CZ69" s="163"/>
     </row>
-    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1">
+    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
@@ -27978,7 +27979,7 @@
       </c>
       <c r="CZ70" s="214"/>
     </row>
-    <row r="71" spans="1:104" s="151" customFormat="1">
+    <row r="71" spans="1:104" s="151" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
       <c r="P71" s="238"/>
@@ -28034,7 +28035,7 @@
       <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="97" bestFit="1" customWidth="1"/>
@@ -28112,7 +28113,7 @@
     <col min="105" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="100" customFormat="1">
+    <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
       <c r="B1" s="459" t="s">
         <v>103</v>
@@ -28230,7 +28231,7 @@
       <c r="CY1" s="464"/>
       <c r="CZ1" s="99"/>
     </row>
-    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -28542,7 +28543,7 @@
       </c>
       <c r="CZ2" s="208"/>
     </row>
-    <row r="3" spans="1:104" s="113" customFormat="1">
+    <row r="3" spans="1:104" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -28649,7 +28650,7 @@
       <c r="CY3" s="269"/>
       <c r="CZ3" s="209"/>
     </row>
-    <row r="4" spans="1:104" s="64" customFormat="1">
+    <row r="4" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -28699,7 +28700,7 @@
       <c r="CY4" s="87"/>
       <c r="CZ4" s="71"/>
     </row>
-    <row r="5" spans="1:104" s="64" customFormat="1">
+    <row r="5" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -28749,7 +28750,7 @@
       <c r="CY5" s="87"/>
       <c r="CZ5" s="71"/>
     </row>
-    <row r="6" spans="1:104" s="64" customFormat="1">
+    <row r="6" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -28801,7 +28802,7 @@
       <c r="CY6" s="87"/>
       <c r="CZ6" s="71"/>
     </row>
-    <row r="7" spans="1:104" s="64" customFormat="1">
+    <row r="7" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -28855,7 +28856,7 @@
       <c r="CY7" s="87"/>
       <c r="CZ7" s="71"/>
     </row>
-    <row r="8" spans="1:104" s="64" customFormat="1">
+    <row r="8" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -28907,7 +28908,7 @@
       <c r="CY8" s="87"/>
       <c r="CZ8" s="71"/>
     </row>
-    <row r="9" spans="1:104" s="64" customFormat="1">
+    <row r="9" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -28959,7 +28960,7 @@
       <c r="CY9" s="87"/>
       <c r="CZ9" s="71"/>
     </row>
-    <row r="10" spans="1:104" s="64" customFormat="1">
+    <row r="10" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -29011,7 +29012,7 @@
       <c r="CY10" s="87"/>
       <c r="CZ10" s="71"/>
     </row>
-    <row r="11" spans="1:104" s="64" customFormat="1">
+    <row r="11" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -29063,7 +29064,7 @@
       <c r="CY11" s="87"/>
       <c r="CZ11" s="71"/>
     </row>
-    <row r="12" spans="1:104" s="64" customFormat="1">
+    <row r="12" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -29114,7 +29115,7 @@
       <c r="CY12" s="87"/>
       <c r="CZ12" s="71"/>
     </row>
-    <row r="13" spans="1:104" s="64" customFormat="1">
+    <row r="13" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -29165,7 +29166,7 @@
       <c r="CY13" s="87"/>
       <c r="CZ13" s="71"/>
     </row>
-    <row r="14" spans="1:104" s="64" customFormat="1">
+    <row r="14" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -29216,7 +29217,7 @@
       <c r="CY14" s="87"/>
       <c r="CZ14" s="71"/>
     </row>
-    <row r="15" spans="1:104" s="64" customFormat="1">
+    <row r="15" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -29268,7 +29269,7 @@
       <c r="CY15" s="87"/>
       <c r="CZ15" s="71"/>
     </row>
-    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -29323,7 +29324,7 @@
       <c r="CY16" s="166"/>
       <c r="CZ16" s="118"/>
     </row>
-    <row r="17" spans="1:104" s="121" customFormat="1">
+    <row r="17" spans="1:104" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -29372,7 +29373,7 @@
       <c r="CY17" s="122"/>
       <c r="CZ17" s="123"/>
     </row>
-    <row r="18" spans="1:104" s="66" customFormat="1">
+    <row r="18" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -29419,7 +29420,7 @@
       <c r="CY18" s="90"/>
       <c r="CZ18" s="72"/>
     </row>
-    <row r="19" spans="1:104" s="66" customFormat="1">
+    <row r="19" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -29467,7 +29468,7 @@
       <c r="CY19" s="90"/>
       <c r="CZ19" s="72"/>
     </row>
-    <row r="20" spans="1:104" s="66" customFormat="1">
+    <row r="20" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -29515,7 +29516,7 @@
       <c r="CY20" s="90"/>
       <c r="CZ20" s="72"/>
     </row>
-    <row r="21" spans="1:104" s="66" customFormat="1">
+    <row r="21" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -29567,7 +29568,7 @@
       <c r="CY21" s="90"/>
       <c r="CZ21" s="72"/>
     </row>
-    <row r="22" spans="1:104" s="66" customFormat="1">
+    <row r="22" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -29616,7 +29617,7 @@
       <c r="CY22" s="90"/>
       <c r="CZ22" s="72"/>
     </row>
-    <row r="23" spans="1:104" s="66" customFormat="1">
+    <row r="23" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -29669,7 +29670,7 @@
       <c r="CY23" s="90"/>
       <c r="CZ23" s="72"/>
     </row>
-    <row r="24" spans="1:104" s="66" customFormat="1">
+    <row r="24" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -29716,7 +29717,7 @@
       <c r="CY24" s="90"/>
       <c r="CZ24" s="72"/>
     </row>
-    <row r="25" spans="1:104" s="66" customFormat="1">
+    <row r="25" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -29763,7 +29764,7 @@
       <c r="CY25" s="90"/>
       <c r="CZ25" s="72"/>
     </row>
-    <row r="26" spans="1:104" s="66" customFormat="1">
+    <row r="26" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
@@ -29812,7 +29813,7 @@
       <c r="CY26" s="90"/>
       <c r="CZ26" s="72"/>
     </row>
-    <row r="27" spans="1:104" s="66" customFormat="1">
+    <row r="27" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
@@ -29860,7 +29861,7 @@
       <c r="CY27" s="90"/>
       <c r="CZ27" s="72"/>
     </row>
-    <row r="28" spans="1:104" s="66" customFormat="1">
+    <row r="28" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
@@ -29908,7 +29909,7 @@
       <c r="CY28" s="90"/>
       <c r="CZ28" s="72"/>
     </row>
-    <row r="29" spans="1:104" s="66" customFormat="1">
+    <row r="29" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
@@ -29956,7 +29957,7 @@
       <c r="CY29" s="90"/>
       <c r="CZ29" s="72"/>
     </row>
-    <row r="30" spans="1:104" s="66" customFormat="1">
+    <row r="30" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
@@ -30004,7 +30005,7 @@
       <c r="CY30" s="90"/>
       <c r="CZ30" s="72"/>
     </row>
-    <row r="31" spans="1:104" s="66" customFormat="1">
+    <row r="31" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
@@ -30052,7 +30053,7 @@
       <c r="CY31" s="90"/>
       <c r="CZ31" s="72"/>
     </row>
-    <row r="32" spans="1:104" s="66" customFormat="1">
+    <row r="32" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
@@ -30100,7 +30101,7 @@
       <c r="CY32" s="90"/>
       <c r="CZ32" s="72"/>
     </row>
-    <row r="33" spans="1:104" s="66" customFormat="1">
+    <row r="33" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
@@ -30149,7 +30150,7 @@
       <c r="CY33" s="90"/>
       <c r="CZ33" s="72"/>
     </row>
-    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
@@ -30205,7 +30206,7 @@
       <c r="CY34" s="127"/>
       <c r="CZ34" s="128"/>
     </row>
-    <row r="35" spans="1:104" s="272" customFormat="1">
+    <row r="35" spans="1:104" s="272" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="270" t="s">
         <v>97</v>
       </c>
@@ -30253,7 +30254,7 @@
       <c r="CY35" s="274"/>
       <c r="CZ35" s="276"/>
     </row>
-    <row r="36" spans="1:104" s="68" customFormat="1">
+    <row r="36" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
@@ -30302,7 +30303,7 @@
       <c r="CY36" s="92"/>
       <c r="CZ36" s="73"/>
     </row>
-    <row r="37" spans="1:104" s="68" customFormat="1">
+    <row r="37" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
@@ -30353,7 +30354,7 @@
       <c r="CY37" s="92"/>
       <c r="CZ37" s="73"/>
     </row>
-    <row r="38" spans="1:104" s="68" customFormat="1">
+    <row r="38" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
@@ -30402,7 +30403,7 @@
       <c r="CY38" s="92"/>
       <c r="CZ38" s="73"/>
     </row>
-    <row r="39" spans="1:104" s="68" customFormat="1">
+    <row r="39" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
@@ -30451,7 +30452,7 @@
       <c r="CY39" s="92"/>
       <c r="CZ39" s="73"/>
     </row>
-    <row r="40" spans="1:104" s="174" customFormat="1">
+    <row r="40" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
@@ -30500,7 +30501,7 @@
       <c r="CY40" s="175"/>
       <c r="CZ40" s="176"/>
     </row>
-    <row r="41" spans="1:104" s="174" customFormat="1">
+    <row r="41" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
@@ -30548,7 +30549,7 @@
       <c r="CY41" s="175"/>
       <c r="CZ41" s="176"/>
     </row>
-    <row r="42" spans="1:104" s="174" customFormat="1">
+    <row r="42" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
@@ -30596,7 +30597,7 @@
       <c r="CY42" s="175"/>
       <c r="CZ42" s="176"/>
     </row>
-    <row r="43" spans="1:104" s="174" customFormat="1">
+    <row r="43" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
@@ -30645,7 +30646,7 @@
       <c r="CY43" s="175"/>
       <c r="CZ43" s="176"/>
     </row>
-    <row r="44" spans="1:104" s="174" customFormat="1">
+    <row r="44" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
@@ -30694,7 +30695,7 @@
       <c r="CY44" s="175"/>
       <c r="CZ44" s="176"/>
     </row>
-    <row r="45" spans="1:104" s="174" customFormat="1">
+    <row r="45" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
@@ -30743,7 +30744,7 @@
       <c r="CY45" s="175"/>
       <c r="CZ45" s="176"/>
     </row>
-    <row r="46" spans="1:104" s="68" customFormat="1">
+    <row r="46" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
@@ -30794,7 +30795,7 @@
       <c r="CY46" s="92"/>
       <c r="CZ46" s="73"/>
     </row>
-    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1">
+    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="279" t="s">
         <v>100</v>
       </c>
@@ -30854,7 +30855,7 @@
       <c r="CY47" s="283"/>
       <c r="CZ47" s="288"/>
     </row>
-    <row r="48" spans="1:104" s="141" customFormat="1">
+    <row r="48" spans="1:104" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
@@ -30902,7 +30903,7 @@
       <c r="CY48" s="142"/>
       <c r="CZ48" s="143"/>
     </row>
-    <row r="49" spans="1:104" s="69" customFormat="1">
+    <row r="49" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
@@ -30951,7 +30952,7 @@
       <c r="CY49" s="94"/>
       <c r="CZ49" s="74"/>
     </row>
-    <row r="50" spans="1:104" s="69" customFormat="1">
+    <row r="50" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
@@ -30999,7 +31000,7 @@
       <c r="CY50" s="94"/>
       <c r="CZ50" s="74"/>
     </row>
-    <row r="51" spans="1:104" s="69" customFormat="1">
+    <row r="51" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
@@ -31048,7 +31049,7 @@
       <c r="CY51" s="94"/>
       <c r="CZ51" s="74"/>
     </row>
-    <row r="52" spans="1:104" s="69" customFormat="1">
+    <row r="52" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
@@ -31096,7 +31097,7 @@
       <c r="CY52" s="94"/>
       <c r="CZ52" s="74"/>
     </row>
-    <row r="53" spans="1:104" s="69" customFormat="1">
+    <row r="53" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
@@ -31144,7 +31145,7 @@
       <c r="CY53" s="94"/>
       <c r="CZ53" s="74"/>
     </row>
-    <row r="54" spans="1:104" s="69" customFormat="1">
+    <row r="54" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
@@ -31193,7 +31194,7 @@
       <c r="CY54" s="94"/>
       <c r="CZ54" s="74"/>
     </row>
-    <row r="55" spans="1:104" s="69" customFormat="1">
+    <row r="55" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
@@ -31241,7 +31242,7 @@
       <c r="CY55" s="94"/>
       <c r="CZ55" s="74"/>
     </row>
-    <row r="56" spans="1:104" s="69" customFormat="1">
+    <row r="56" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
@@ -31290,7 +31291,7 @@
       <c r="CY56" s="94"/>
       <c r="CZ56" s="74"/>
     </row>
-    <row r="57" spans="1:104" s="69" customFormat="1">
+    <row r="57" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
@@ -31340,7 +31341,7 @@
       <c r="CY57" s="94"/>
       <c r="CZ57" s="74"/>
     </row>
-    <row r="58" spans="1:104" s="69" customFormat="1">
+    <row r="58" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
@@ -31389,7 +31390,7 @@
       <c r="CY58" s="94"/>
       <c r="CZ58" s="74"/>
     </row>
-    <row r="59" spans="1:104" s="69" customFormat="1">
+    <row r="59" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
@@ -31438,7 +31439,7 @@
       <c r="CY59" s="94"/>
       <c r="CZ59" s="74"/>
     </row>
-    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1">
+    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
@@ -31499,7 +31500,7 @@
       <c r="CY60" s="147"/>
       <c r="CZ60" s="148"/>
     </row>
-    <row r="61" spans="1:104" s="291" customFormat="1">
+    <row r="61" spans="1:104" s="291" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="289" t="s">
         <v>93</v>
       </c>
@@ -31549,7 +31550,7 @@
       <c r="CY61" s="293"/>
       <c r="CZ61" s="295"/>
     </row>
-    <row r="62" spans="1:104" s="70" customFormat="1">
+    <row r="62" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
@@ -31598,7 +31599,7 @@
       <c r="CY62" s="96"/>
       <c r="CZ62" s="75"/>
     </row>
-    <row r="63" spans="1:104" s="70" customFormat="1">
+    <row r="63" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
@@ -31647,7 +31648,7 @@
       <c r="CY63" s="96"/>
       <c r="CZ63" s="75"/>
     </row>
-    <row r="64" spans="1:104" s="70" customFormat="1">
+    <row r="64" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
@@ -31695,7 +31696,7 @@
       <c r="CY64" s="96"/>
       <c r="CZ64" s="75"/>
     </row>
-    <row r="65" spans="1:104" s="70" customFormat="1">
+    <row r="65" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
@@ -31743,7 +31744,7 @@
       <c r="CY65" s="96"/>
       <c r="CZ65" s="75"/>
     </row>
-    <row r="66" spans="1:104" s="70" customFormat="1">
+    <row r="66" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
@@ -31792,7 +31793,7 @@
       <c r="CY66" s="96"/>
       <c r="CZ66" s="75"/>
     </row>
-    <row r="67" spans="1:104" s="70" customFormat="1">
+    <row r="67" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
@@ -31840,7 +31841,7 @@
       <c r="CY67" s="96"/>
       <c r="CZ67" s="75"/>
     </row>
-    <row r="68" spans="1:104" s="70" customFormat="1">
+    <row r="68" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
@@ -31889,7 +31890,7 @@
       <c r="CY68" s="96"/>
       <c r="CZ68" s="75"/>
     </row>
-    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1">
+    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
@@ -31939,7 +31940,7 @@
       <c r="CY69" s="162"/>
       <c r="CZ69" s="163"/>
     </row>
-    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1">
+    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
@@ -31991,7 +31992,7 @@
       </c>
       <c r="CZ70" s="214"/>
     </row>
-    <row r="71" spans="1:104" s="151" customFormat="1">
+    <row r="71" spans="1:104" s="151" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
       <c r="C71" s="304"/>
@@ -32060,12 +32061,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CY69"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="CQ67" sqref="CQ67:CT67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="102.28515625" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="361"/>
@@ -32113,7 +32114,7 @@
     <col min="100" max="16384" width="6.5703125" style="334"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="350" customFormat="1">
+    <row r="1" spans="1:103" s="350" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
       <c r="B1" s="351"/>
       <c r="C1" s="344"/>
@@ -32138,7 +32139,7 @@
       <c r="CP1" s="344"/>
       <c r="CU1" s="344"/>
     </row>
-    <row r="2" spans="1:103" s="107" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:103" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -32449,7 +32450,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="343" customFormat="1">
+    <row r="3" spans="1:103" s="343" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -32479,7 +32480,7 @@
       <c r="CP3" s="344"/>
       <c r="CU3" s="344"/>
     </row>
-    <row r="4" spans="1:103" s="332" customFormat="1">
+    <row r="4" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -32509,7 +32510,7 @@
       <c r="CP4" s="333"/>
       <c r="CU4" s="333"/>
     </row>
-    <row r="5" spans="1:103" s="332" customFormat="1">
+    <row r="5" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -32539,7 +32540,7 @@
       <c r="CP5" s="333"/>
       <c r="CU5" s="333"/>
     </row>
-    <row r="6" spans="1:103" s="332" customFormat="1">
+    <row r="6" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -32575,7 +32576,7 @@
       <c r="CP6" s="333"/>
       <c r="CU6" s="333"/>
     </row>
-    <row r="7" spans="1:103" s="332" customFormat="1">
+    <row r="7" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -32609,7 +32610,7 @@
       <c r="CP7" s="333"/>
       <c r="CU7" s="333"/>
     </row>
-    <row r="8" spans="1:103" s="332" customFormat="1">
+    <row r="8" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -32644,7 +32645,7 @@
       <c r="CP8" s="333"/>
       <c r="CU8" s="333"/>
     </row>
-    <row r="9" spans="1:103" s="332" customFormat="1">
+    <row r="9" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -32678,7 +32679,7 @@
       <c r="CP9" s="333"/>
       <c r="CU9" s="333"/>
     </row>
-    <row r="10" spans="1:103" s="332" customFormat="1">
+    <row r="10" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -32712,7 +32713,7 @@
       <c r="CP10" s="333"/>
       <c r="CU10" s="333"/>
     </row>
-    <row r="11" spans="1:103" s="332" customFormat="1">
+    <row r="11" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -32747,7 +32748,7 @@
       <c r="CP11" s="333"/>
       <c r="CU11" s="333"/>
     </row>
-    <row r="12" spans="1:103" s="332" customFormat="1">
+    <row r="12" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -32781,7 +32782,7 @@
       <c r="CP12" s="333"/>
       <c r="CU12" s="333"/>
     </row>
-    <row r="13" spans="1:103" s="332" customFormat="1">
+    <row r="13" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -32815,7 +32816,7 @@
       <c r="CP13" s="333"/>
       <c r="CU13" s="333"/>
     </row>
-    <row r="14" spans="1:103" s="332" customFormat="1">
+    <row r="14" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -32846,7 +32847,7 @@
       <c r="CP14" s="333"/>
       <c r="CU14" s="333"/>
     </row>
-    <row r="15" spans="1:103" s="332" customFormat="1">
+    <row r="15" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -32877,7 +32878,7 @@
       <c r="CP15" s="333"/>
       <c r="CU15" s="333"/>
     </row>
-    <row r="16" spans="1:103" s="346" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:103" s="346" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -32909,7 +32910,7 @@
       <c r="CP16" s="347"/>
       <c r="CU16" s="347"/>
     </row>
-    <row r="17" spans="1:99" s="363" customFormat="1">
+    <row r="17" spans="1:99" s="363" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -32936,7 +32937,7 @@
       <c r="CP17" s="344"/>
       <c r="CU17" s="344"/>
     </row>
-    <row r="18" spans="1:99" s="337" customFormat="1">
+    <row r="18" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -32967,7 +32968,7 @@
       <c r="CP18" s="333"/>
       <c r="CU18" s="333"/>
     </row>
-    <row r="19" spans="1:99" s="337" customFormat="1">
+    <row r="19" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -32998,7 +32999,7 @@
       <c r="CP19" s="333"/>
       <c r="CU19" s="333"/>
     </row>
-    <row r="20" spans="1:99" s="337" customFormat="1">
+    <row r="20" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -33026,7 +33027,7 @@
       <c r="CP20" s="333"/>
       <c r="CU20" s="333"/>
     </row>
-    <row r="21" spans="1:99" s="337" customFormat="1">
+    <row r="21" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -33054,7 +33055,7 @@
       <c r="CP21" s="333"/>
       <c r="CU21" s="333"/>
     </row>
-    <row r="22" spans="1:99" s="337" customFormat="1">
+    <row r="22" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -33083,7 +33084,7 @@
       <c r="CP22" s="333"/>
       <c r="CU22" s="333"/>
     </row>
-    <row r="23" spans="1:99" s="337" customFormat="1">
+    <row r="23" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -33115,7 +33116,7 @@
       <c r="CP23" s="333"/>
       <c r="CU23" s="333"/>
     </row>
-    <row r="24" spans="1:99" s="337" customFormat="1">
+    <row r="24" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -33142,7 +33143,7 @@
       <c r="CP24" s="333"/>
       <c r="CU24" s="333"/>
     </row>
-    <row r="25" spans="1:99" s="337" customFormat="1">
+    <row r="25" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -33174,7 +33175,7 @@
       <c r="CP25" s="333"/>
       <c r="CU25" s="333"/>
     </row>
-    <row r="26" spans="1:99" s="337" customFormat="1">
+    <row r="26" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>127</v>
       </c>
@@ -33206,7 +33207,7 @@
       <c r="CP26" s="333"/>
       <c r="CU26" s="333"/>
     </row>
-    <row r="27" spans="1:99" s="337" customFormat="1">
+    <row r="27" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>128</v>
       </c>
@@ -33240,7 +33241,7 @@
       <c r="CP27" s="333"/>
       <c r="CU27" s="333"/>
     </row>
-    <row r="28" spans="1:99" s="337" customFormat="1">
+    <row r="28" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>129</v>
       </c>
@@ -33274,7 +33275,7 @@
       <c r="CP28" s="333"/>
       <c r="CU28" s="333"/>
     </row>
-    <row r="29" spans="1:99" s="337" customFormat="1">
+    <row r="29" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>130</v>
       </c>
@@ -33305,7 +33306,7 @@
       <c r="CP29" s="333"/>
       <c r="CU29" s="333"/>
     </row>
-    <row r="30" spans="1:99" s="337" customFormat="1">
+    <row r="30" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
         <v>20</v>
       </c>
@@ -33333,7 +33334,7 @@
       <c r="CP30" s="333"/>
       <c r="CU30" s="333"/>
     </row>
-    <row r="31" spans="1:99" s="337" customFormat="1">
+    <row r="31" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
         <v>24</v>
       </c>
@@ -33360,7 +33361,7 @@
       <c r="CP31" s="333"/>
       <c r="CU31" s="333"/>
     </row>
-    <row r="32" spans="1:99" s="337" customFormat="1">
+    <row r="32" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
         <v>28</v>
       </c>
@@ -33388,7 +33389,7 @@
       <c r="CP32" s="333"/>
       <c r="CU32" s="333"/>
     </row>
-    <row r="33" spans="1:99" s="365" customFormat="1" ht="15.75" thickBot="1">
+    <row r="33" spans="1:99" s="365" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="124" t="s">
         <v>99</v>
       </c>
@@ -33425,7 +33426,7 @@
       <c r="CP33" s="347"/>
       <c r="CU33" s="347"/>
     </row>
-    <row r="34" spans="1:99" s="367" customFormat="1">
+    <row r="34" spans="1:99" s="367" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="129" t="s">
         <v>97</v>
       </c>
@@ -33452,7 +33453,7 @@
       <c r="CP34" s="344"/>
       <c r="CU34" s="344"/>
     </row>
-    <row r="35" spans="1:99" s="339" customFormat="1">
+    <row r="35" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="82" t="s">
         <v>2</v>
       </c>
@@ -33483,7 +33484,7 @@
       <c r="CP35" s="333"/>
       <c r="CU35" s="333"/>
     </row>
-    <row r="36" spans="1:99" s="339" customFormat="1">
+    <row r="36" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
         <v>3</v>
       </c>
@@ -33515,7 +33516,7 @@
       <c r="CP36" s="333"/>
       <c r="CU36" s="333"/>
     </row>
-    <row r="37" spans="1:99" s="339" customFormat="1">
+    <row r="37" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="82" t="s">
         <v>1</v>
       </c>
@@ -33546,7 +33547,7 @@
       <c r="CP37" s="333"/>
       <c r="CU37" s="333"/>
     </row>
-    <row r="38" spans="1:99" s="339" customFormat="1">
+    <row r="38" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="82" t="s">
         <v>0</v>
       </c>
@@ -33580,7 +33581,7 @@
       <c r="CP38" s="333"/>
       <c r="CU38" s="333"/>
     </row>
-    <row r="39" spans="1:99" s="339" customFormat="1">
+    <row r="39" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="172" t="s">
         <v>109</v>
       </c>
@@ -33611,7 +33612,7 @@
       <c r="CP39" s="333"/>
       <c r="CU39" s="333"/>
     </row>
-    <row r="40" spans="1:99" s="339" customFormat="1">
+    <row r="40" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="172" t="s">
         <v>127</v>
       </c>
@@ -33641,7 +33642,7 @@
       <c r="CP40" s="333"/>
       <c r="CU40" s="333"/>
     </row>
-    <row r="41" spans="1:99" s="339" customFormat="1">
+    <row r="41" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="172" t="s">
         <v>128</v>
       </c>
@@ -33672,7 +33673,7 @@
       <c r="CP41" s="333"/>
       <c r="CU41" s="333"/>
     </row>
-    <row r="42" spans="1:99" s="339" customFormat="1">
+    <row r="42" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="172" t="s">
         <v>129</v>
       </c>
@@ -33702,7 +33703,7 @@
       <c r="CP42" s="333"/>
       <c r="CU42" s="333"/>
     </row>
-    <row r="43" spans="1:99" s="339" customFormat="1">
+    <row r="43" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="172" t="s">
         <v>130</v>
       </c>
@@ -33733,7 +33734,7 @@
       <c r="CP43" s="333"/>
       <c r="CU43" s="333"/>
     </row>
-    <row r="44" spans="1:99" s="339" customFormat="1">
+    <row r="44" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="82" t="s">
         <v>4</v>
       </c>
@@ -33761,7 +33762,7 @@
       <c r="CP44" s="333"/>
       <c r="CU44" s="333"/>
     </row>
-    <row r="45" spans="1:99" s="369" customFormat="1" ht="15.75" thickBot="1">
+    <row r="45" spans="1:99" s="369" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="134" t="s">
         <v>100</v>
       </c>
@@ -33797,7 +33798,7 @@
       <c r="CP45" s="347"/>
       <c r="CU45" s="347"/>
     </row>
-    <row r="46" spans="1:99" s="371" customFormat="1">
+    <row r="46" spans="1:99" s="371" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="139" t="s">
         <v>98</v>
       </c>
@@ -33824,7 +33825,7 @@
       <c r="CP46" s="344"/>
       <c r="CU46" s="344"/>
     </row>
-    <row r="47" spans="1:99" s="340" customFormat="1">
+    <row r="47" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="83" t="s">
         <v>29</v>
       </c>
@@ -33855,7 +33856,7 @@
       <c r="CP47" s="333"/>
       <c r="CU47" s="333"/>
     </row>
-    <row r="48" spans="1:99" s="340" customFormat="1">
+    <row r="48" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="83" t="s">
         <v>31</v>
       </c>
@@ -33886,7 +33887,7 @@
       <c r="CP48" s="333"/>
       <c r="CU48" s="333"/>
     </row>
-    <row r="49" spans="1:99" s="340" customFormat="1">
+    <row r="49" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="83" t="s">
         <v>35</v>
       </c>
@@ -33918,7 +33919,7 @@
       <c r="CP49" s="333"/>
       <c r="CU49" s="333"/>
     </row>
-    <row r="50" spans="1:99" s="340" customFormat="1">
+    <row r="50" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="83" t="s">
         <v>30</v>
       </c>
@@ -33949,7 +33950,7 @@
       <c r="CP50" s="333"/>
       <c r="CU50" s="333"/>
     </row>
-    <row r="51" spans="1:99" s="340" customFormat="1">
+    <row r="51" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="83" t="s">
         <v>33</v>
       </c>
@@ -33977,7 +33978,7 @@
       <c r="CP51" s="333"/>
       <c r="CU51" s="333"/>
     </row>
-    <row r="52" spans="1:99" s="340" customFormat="1">
+    <row r="52" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
         <v>34</v>
       </c>
@@ -34005,7 +34006,7 @@
       <c r="CP52" s="333"/>
       <c r="CU52" s="333"/>
     </row>
-    <row r="53" spans="1:99" s="340" customFormat="1">
+    <row r="53" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
         <v>32</v>
       </c>
@@ -34033,7 +34034,7 @@
       <c r="CP53" s="333"/>
       <c r="CU53" s="333"/>
     </row>
-    <row r="54" spans="1:99" s="340" customFormat="1">
+    <row r="54" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="181" t="s">
         <v>109</v>
       </c>
@@ -34066,7 +34067,7 @@
       <c r="CP54" s="333"/>
       <c r="CU54" s="333"/>
     </row>
-    <row r="55" spans="1:99" s="340" customFormat="1">
+    <row r="55" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="181" t="s">
         <v>131</v>
       </c>
@@ -34102,7 +34103,7 @@
       <c r="CP55" s="333"/>
       <c r="CU55" s="333"/>
     </row>
-    <row r="56" spans="1:99" s="340" customFormat="1">
+    <row r="56" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="181" t="s">
         <v>132</v>
       </c>
@@ -34136,7 +34137,7 @@
       <c r="CP56" s="333"/>
       <c r="CU56" s="333"/>
     </row>
-    <row r="57" spans="1:99" s="340" customFormat="1">
+    <row r="57" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="181" t="s">
         <v>133</v>
       </c>
@@ -34167,7 +34168,7 @@
       <c r="CP57" s="333"/>
       <c r="CU57" s="333"/>
     </row>
-    <row r="58" spans="1:99" s="373" customFormat="1" ht="15.75" thickBot="1">
+    <row r="58" spans="1:99" s="373" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="144" t="s">
         <v>101</v>
       </c>
@@ -34206,7 +34207,7 @@
       <c r="CP58" s="347"/>
       <c r="CU58" s="347"/>
     </row>
-    <row r="59" spans="1:99" s="375" customFormat="1">
+    <row r="59" spans="1:99" s="375" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="154" t="s">
         <v>93</v>
       </c>
@@ -34233,7 +34234,7 @@
       <c r="CP59" s="344"/>
       <c r="CU59" s="344"/>
     </row>
-    <row r="60" spans="1:99" s="341" customFormat="1">
+    <row r="60" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="85" t="s">
         <v>5</v>
       </c>
@@ -34262,7 +34263,7 @@
       <c r="CP60" s="333"/>
       <c r="CU60" s="333"/>
     </row>
-    <row r="61" spans="1:99" s="341" customFormat="1">
+    <row r="61" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="85" t="s">
         <v>12</v>
       </c>
@@ -34290,7 +34291,7 @@
       <c r="CP61" s="333"/>
       <c r="CU61" s="333"/>
     </row>
-    <row r="62" spans="1:99" s="341" customFormat="1">
+    <row r="62" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="84" t="s">
         <v>96</v>
       </c>
@@ -34317,7 +34318,7 @@
       <c r="CP62" s="333"/>
       <c r="CU62" s="333"/>
     </row>
-    <row r="63" spans="1:99" s="341" customFormat="1">
+    <row r="63" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="85" t="s">
         <v>25</v>
       </c>
@@ -34346,7 +34347,7 @@
       <c r="CP63" s="333"/>
       <c r="CU63" s="333"/>
     </row>
-    <row r="64" spans="1:99" s="341" customFormat="1">
+    <row r="64" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="85" t="s">
         <v>26</v>
       </c>
@@ -34375,7 +34376,7 @@
       <c r="CP64" s="333"/>
       <c r="CU64" s="333"/>
     </row>
-    <row r="65" spans="1:103" s="341" customFormat="1">
+    <row r="65" spans="1:103" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="84" t="s">
         <v>97</v>
       </c>
@@ -34402,7 +34403,7 @@
       <c r="CP65" s="333"/>
       <c r="CU65" s="333"/>
     </row>
-    <row r="66" spans="1:103" s="341" customFormat="1">
+    <row r="66" spans="1:103" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="85" t="s">
         <v>0</v>
       </c>
@@ -34431,7 +34432,7 @@
       <c r="CP66" s="333"/>
       <c r="CU66" s="333"/>
     </row>
-    <row r="67" spans="1:103" s="377" customFormat="1" ht="15.75" thickBot="1">
+    <row r="67" spans="1:103" s="377" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="159" t="s">
         <v>102</v>
       </c>
@@ -34464,7 +34465,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:103" s="382" customFormat="1" ht="15.75" thickBot="1">
+    <row r="68" spans="1:103" s="382" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="210" t="s">
         <v>120</v>
       </c>
@@ -34494,7 +34495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:103" s="379" customFormat="1">
+    <row r="69" spans="1:103" s="379" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="149"/>
       <c r="B69" s="378"/>
       <c r="C69" s="342"/>
@@ -34529,11 +34530,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="414"/>
     <col min="2" max="2" width="5.85546875" style="414" bestFit="1" customWidth="1"/>
@@ -34543,7 +34544,7 @@
     <col min="6" max="16384" width="5.5703125" style="414"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="416" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" s="416" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="415"/>
       <c r="B1" s="396" t="s">
         <v>140</v>
@@ -34558,7 +34559,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="417" customFormat="1" ht="45">
+    <row r="2" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="471" t="s">
         <v>142</v>
       </c>
@@ -34571,7 +34572,7 @@
       <c r="D2" s="428"/>
       <c r="E2" s="428"/>
     </row>
-    <row r="3" spans="1:5" s="418" customFormat="1">
+    <row r="3" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="472"/>
       <c r="B3" s="398">
         <v>43671</v>
@@ -34580,7 +34581,7 @@
       <c r="D3" s="429"/>
       <c r="E3" s="429"/>
     </row>
-    <row r="4" spans="1:5" s="419" customFormat="1" ht="60">
+    <row r="4" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="472"/>
       <c r="B4" s="399">
         <v>43672</v>
@@ -34593,7 +34594,7 @@
       </c>
       <c r="E4" s="431"/>
     </row>
-    <row r="5" spans="1:5" s="420" customFormat="1" ht="45">
+    <row r="5" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="472"/>
       <c r="B5" s="400">
         <v>43675</v>
@@ -34602,11 +34603,11 @@
         <v>147</v>
       </c>
       <c r="D5" s="433" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E5" s="433"/>
     </row>
-    <row r="6" spans="1:5" s="420" customFormat="1">
+    <row r="6" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="472"/>
       <c r="B6" s="400">
         <v>43676</v>
@@ -34619,7 +34620,7 @@
       </c>
       <c r="E6" s="433"/>
     </row>
-    <row r="7" spans="1:5" s="420" customFormat="1" ht="60">
+    <row r="7" spans="1:5" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="472"/>
       <c r="B7" s="400">
         <v>43677</v>
@@ -34632,7 +34633,7 @@
       </c>
       <c r="E7" s="433"/>
     </row>
-    <row r="8" spans="1:5" s="418" customFormat="1">
+    <row r="8" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="472"/>
       <c r="B8" s="398">
         <v>43678</v>
@@ -34641,7 +34642,7 @@
       <c r="D8" s="429"/>
       <c r="E8" s="429"/>
     </row>
-    <row r="9" spans="1:5" s="420" customFormat="1" ht="45">
+    <row r="9" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="472"/>
       <c r="B9" s="400">
         <v>43679</v>
@@ -34654,7 +34655,7 @@
       </c>
       <c r="E9" s="433"/>
     </row>
-    <row r="10" spans="1:5" s="419" customFormat="1" ht="51" customHeight="1">
+    <row r="10" spans="1:5" s="419" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="472"/>
       <c r="B10" s="399">
         <v>43682</v>
@@ -34667,7 +34668,7 @@
       </c>
       <c r="E10" s="431"/>
     </row>
-    <row r="11" spans="1:5" s="419" customFormat="1">
+    <row r="11" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="472"/>
       <c r="B11" s="399">
         <v>43683</v>
@@ -34680,7 +34681,7 @@
       </c>
       <c r="E11" s="431"/>
     </row>
-    <row r="12" spans="1:5" s="419" customFormat="1">
+    <row r="12" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="472"/>
       <c r="B12" s="399">
         <v>43684</v>
@@ -34693,7 +34694,7 @@
       </c>
       <c r="E12" s="431"/>
     </row>
-    <row r="13" spans="1:5" s="418" customFormat="1">
+    <row r="13" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="472"/>
       <c r="B13" s="398">
         <v>43685</v>
@@ -34702,7 +34703,7 @@
       <c r="D13" s="429"/>
       <c r="E13" s="429"/>
     </row>
-    <row r="14" spans="1:5" s="419" customFormat="1">
+    <row r="14" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="472"/>
       <c r="B14" s="399">
         <v>43686</v>
@@ -34715,7 +34716,7 @@
       </c>
       <c r="E14" s="431"/>
     </row>
-    <row r="15" spans="1:5" s="420" customFormat="1">
+    <row r="15" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="472"/>
       <c r="B15" s="400">
         <v>43689</v>
@@ -34728,7 +34729,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="420" customFormat="1">
+    <row r="16" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="472"/>
       <c r="B16" s="400">
         <v>43690</v>
@@ -34739,7 +34740,7 @@
       <c r="D16" s="433"/>
       <c r="E16" s="433"/>
     </row>
-    <row r="17" spans="1:5" s="420" customFormat="1">
+    <row r="17" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="472"/>
       <c r="B17" s="400">
         <v>43691</v>
@@ -34750,7 +34751,7 @@
       <c r="D17" s="433"/>
       <c r="E17" s="433"/>
     </row>
-    <row r="18" spans="1:5" s="418" customFormat="1">
+    <row r="18" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="472"/>
       <c r="B18" s="398">
         <v>43692</v>
@@ -34759,7 +34760,7 @@
       <c r="D18" s="429"/>
       <c r="E18" s="429"/>
     </row>
-    <row r="19" spans="1:5" s="421" customFormat="1" ht="15.75" thickBot="1">
+    <row r="19" spans="1:5" s="421" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="473"/>
       <c r="B19" s="401">
         <v>43693</v>
@@ -34770,7 +34771,7 @@
       <c r="D19" s="434"/>
       <c r="E19" s="434"/>
     </row>
-    <row r="20" spans="1:5" s="417" customFormat="1" ht="45">
+    <row r="20" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="468" t="s">
         <v>143</v>
       </c>
@@ -34785,7 +34786,7 @@
       </c>
       <c r="E20" s="428"/>
     </row>
-    <row r="21" spans="1:5" s="419" customFormat="1" ht="45">
+    <row r="21" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="469"/>
       <c r="B21" s="403">
         <v>43697</v>
@@ -34798,7 +34799,7 @@
       </c>
       <c r="E21" s="441"/>
     </row>
-    <row r="22" spans="1:5" s="419" customFormat="1" ht="60">
+    <row r="22" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="469"/>
       <c r="B22" s="403">
         <v>43698</v>
@@ -34811,7 +34812,7 @@
       </c>
       <c r="E22" s="431"/>
     </row>
-    <row r="23" spans="1:5" s="418" customFormat="1">
+    <row r="23" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="469"/>
       <c r="B23" s="404">
         <v>43699</v>
@@ -34820,7 +34821,7 @@
       <c r="D23" s="429"/>
       <c r="E23" s="429"/>
     </row>
-    <row r="24" spans="1:5" s="419" customFormat="1">
+    <row r="24" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="469"/>
       <c r="B24" s="403">
         <v>43700</v>
@@ -34831,7 +34832,7 @@
       </c>
       <c r="E24" s="431"/>
     </row>
-    <row r="25" spans="1:5" s="420" customFormat="1" ht="30">
+    <row r="25" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="469"/>
       <c r="B25" s="405">
         <v>43703</v>
@@ -34844,7 +34845,7 @@
       </c>
       <c r="E25" s="433"/>
     </row>
-    <row r="26" spans="1:5" s="420" customFormat="1" ht="30">
+    <row r="26" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="469"/>
       <c r="B26" s="405">
         <v>43704</v>
@@ -34857,7 +34858,7 @@
       </c>
       <c r="E26" s="433"/>
     </row>
-    <row r="27" spans="1:5" s="420" customFormat="1" ht="30">
+    <row r="27" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="469"/>
       <c r="B27" s="405">
         <v>43705</v>
@@ -34870,7 +34871,7 @@
       </c>
       <c r="E27" s="433"/>
     </row>
-    <row r="28" spans="1:5" s="418" customFormat="1">
+    <row r="28" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="469"/>
       <c r="B28" s="404">
         <v>43706</v>
@@ -34879,7 +34880,7 @@
       <c r="D28" s="429"/>
       <c r="E28" s="429"/>
     </row>
-    <row r="29" spans="1:5" s="420" customFormat="1">
+    <row r="29" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="469"/>
       <c r="B29" s="405">
         <v>43707</v>
@@ -34890,7 +34891,7 @@
       </c>
       <c r="E29" s="433"/>
     </row>
-    <row r="30" spans="1:5" s="419" customFormat="1" ht="45">
+    <row r="30" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="469"/>
       <c r="B30" s="403">
         <v>43710</v>
@@ -34901,7 +34902,7 @@
       <c r="D30" s="431"/>
       <c r="E30" s="431"/>
     </row>
-    <row r="31" spans="1:5" s="419" customFormat="1">
+    <row r="31" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="469"/>
       <c r="B31" s="403">
         <v>43711</v>
@@ -34912,7 +34913,7 @@
       </c>
       <c r="E31" s="431"/>
     </row>
-    <row r="32" spans="1:5" s="419" customFormat="1">
+    <row r="32" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="469"/>
       <c r="B32" s="403">
         <v>43712</v>
@@ -34925,7 +34926,7 @@
       </c>
       <c r="E32" s="431"/>
     </row>
-    <row r="33" spans="1:5" s="418" customFormat="1">
+    <row r="33" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="469"/>
       <c r="B33" s="404">
         <v>43713</v>
@@ -34934,7 +34935,7 @@
       <c r="D33" s="429"/>
       <c r="E33" s="429"/>
     </row>
-    <row r="34" spans="1:5" s="419" customFormat="1">
+    <row r="34" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="469"/>
       <c r="B34" s="403">
         <v>43714</v>
@@ -34945,7 +34946,7 @@
       <c r="D34" s="431"/>
       <c r="E34" s="431"/>
     </row>
-    <row r="35" spans="1:5" s="420" customFormat="1">
+    <row r="35" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="469"/>
       <c r="B35" s="405">
         <v>43717</v>
@@ -34956,7 +34957,7 @@
       <c r="D35" s="433"/>
       <c r="E35" s="433"/>
     </row>
-    <row r="36" spans="1:5" s="420" customFormat="1">
+    <row r="36" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="469"/>
       <c r="B36" s="405">
         <v>43718</v>
@@ -34967,7 +34968,7 @@
       <c r="D36" s="433"/>
       <c r="E36" s="433"/>
     </row>
-    <row r="37" spans="1:5" s="420" customFormat="1">
+    <row r="37" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="469"/>
       <c r="B37" s="405">
         <v>43719</v>
@@ -34978,7 +34979,7 @@
       <c r="D37" s="433"/>
       <c r="E37" s="433"/>
     </row>
-    <row r="38" spans="1:5" s="418" customFormat="1">
+    <row r="38" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="469"/>
       <c r="B38" s="404">
         <v>43720</v>
@@ -34987,7 +34988,7 @@
       <c r="D38" s="429"/>
       <c r="E38" s="429"/>
     </row>
-    <row r="39" spans="1:5" s="420" customFormat="1">
+    <row r="39" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="469"/>
       <c r="B39" s="405">
         <v>43721</v>
@@ -34998,7 +34999,7 @@
       <c r="D39" s="433"/>
       <c r="E39" s="433"/>
     </row>
-    <row r="40" spans="1:5" s="419" customFormat="1">
+    <row r="40" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="469"/>
       <c r="B40" s="403">
         <v>43724</v>
@@ -35009,7 +35010,7 @@
       <c r="D40" s="431"/>
       <c r="E40" s="431"/>
     </row>
-    <row r="41" spans="1:5" s="419" customFormat="1">
+    <row r="41" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="469"/>
       <c r="B41" s="403">
         <v>43725</v>
@@ -35020,7 +35021,7 @@
       <c r="D41" s="431"/>
       <c r="E41" s="431"/>
     </row>
-    <row r="42" spans="1:5" s="419" customFormat="1">
+    <row r="42" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="469"/>
       <c r="B42" s="403">
         <v>43726</v>
@@ -35031,7 +35032,7 @@
       <c r="D42" s="431"/>
       <c r="E42" s="431"/>
     </row>
-    <row r="43" spans="1:5" s="418" customFormat="1">
+    <row r="43" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="469"/>
       <c r="B43" s="404">
         <v>43727</v>
@@ -35040,7 +35041,7 @@
       <c r="D43" s="429"/>
       <c r="E43" s="429"/>
     </row>
-    <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1">
+    <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="470"/>
       <c r="B44" s="406">
         <v>43728</v>
@@ -35051,7 +35052,7 @@
       <c r="D44" s="435"/>
       <c r="E44" s="435"/>
     </row>
-    <row r="45" spans="1:5" s="423" customFormat="1" ht="45">
+    <row r="45" spans="1:5" s="423" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="474" t="s">
         <v>144</v>
       </c>
@@ -35066,7 +35067,7 @@
       </c>
       <c r="E45" s="436"/>
     </row>
-    <row r="46" spans="1:5" s="420" customFormat="1">
+    <row r="46" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="475"/>
       <c r="B46" s="408">
         <v>43732</v>
@@ -35079,7 +35080,7 @@
       </c>
       <c r="E46" s="433"/>
     </row>
-    <row r="47" spans="1:5" s="420" customFormat="1" ht="30">
+    <row r="47" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="475"/>
       <c r="B47" s="408">
         <v>43733</v>
@@ -35092,7 +35093,7 @@
       </c>
       <c r="E47" s="433"/>
     </row>
-    <row r="48" spans="1:5" s="418" customFormat="1">
+    <row r="48" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="475"/>
       <c r="B48" s="409">
         <v>43734</v>
@@ -35101,40 +35102,40 @@
       <c r="D48" s="429"/>
       <c r="E48" s="429"/>
     </row>
-    <row r="49" spans="1:5" s="420" customFormat="1" ht="45">
+    <row r="49" spans="1:5" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="475"/>
       <c r="B49" s="408">
         <v>43735</v>
       </c>
       <c r="C49" s="432" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D49" s="433"/>
       <c r="E49" s="433"/>
     </row>
-    <row r="50" spans="1:5" s="419" customFormat="1" ht="45">
+    <row r="50" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="475"/>
       <c r="B50" s="410">
         <v>43738</v>
       </c>
       <c r="C50" s="430" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D50" s="431"/>
       <c r="E50" s="431"/>
     </row>
-    <row r="51" spans="1:5" s="419" customFormat="1" ht="30">
+    <row r="51" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="475"/>
       <c r="B51" s="410">
         <v>43739</v>
       </c>
       <c r="C51" s="430" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D51" s="431"/>
       <c r="E51" s="431"/>
     </row>
-    <row r="52" spans="1:5" s="419" customFormat="1">
+    <row r="52" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="475"/>
       <c r="B52" s="410">
         <v>43740</v>
@@ -35145,7 +35146,7 @@
       <c r="D52" s="431"/>
       <c r="E52" s="431"/>
     </row>
-    <row r="53" spans="1:5" s="418" customFormat="1">
+    <row r="53" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="475"/>
       <c r="B53" s="409">
         <v>43741</v>
@@ -35154,18 +35155,18 @@
       <c r="D53" s="429"/>
       <c r="E53" s="429"/>
     </row>
-    <row r="54" spans="1:5" s="419" customFormat="1" ht="30">
+    <row r="54" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="475"/>
       <c r="B54" s="410">
         <v>43742</v>
       </c>
       <c r="C54" s="430" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D54" s="431"/>
       <c r="E54" s="431"/>
     </row>
-    <row r="55" spans="1:5" s="420" customFormat="1">
+    <row r="55" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="475"/>
       <c r="B55" s="408">
         <v>43745</v>
@@ -35176,7 +35177,7 @@
       <c r="D55" s="433"/>
       <c r="E55" s="433"/>
     </row>
-    <row r="56" spans="1:5" s="420" customFormat="1">
+    <row r="56" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="475"/>
       <c r="B56" s="408">
         <v>43746</v>
@@ -35187,7 +35188,7 @@
       <c r="D56" s="433"/>
       <c r="E56" s="433"/>
     </row>
-    <row r="57" spans="1:5" s="420" customFormat="1">
+    <row r="57" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="475"/>
       <c r="B57" s="408">
         <v>43747</v>
@@ -35198,7 +35199,7 @@
       <c r="D57" s="433"/>
       <c r="E57" s="433"/>
     </row>
-    <row r="58" spans="1:5" s="418" customFormat="1">
+    <row r="58" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="475"/>
       <c r="B58" s="409">
         <v>43748</v>
@@ -35207,7 +35208,7 @@
       <c r="D58" s="429"/>
       <c r="E58" s="429"/>
     </row>
-    <row r="59" spans="1:5" s="420" customFormat="1">
+    <row r="59" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="475"/>
       <c r="B59" s="408">
         <v>43749</v>
@@ -35218,7 +35219,7 @@
       <c r="D59" s="433"/>
       <c r="E59" s="433"/>
     </row>
-    <row r="60" spans="1:5" s="419" customFormat="1">
+    <row r="60" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="475"/>
       <c r="B60" s="410">
         <v>43754</v>
@@ -35229,7 +35230,7 @@
       <c r="D60" s="431"/>
       <c r="E60" s="431"/>
     </row>
-    <row r="61" spans="1:5" s="418" customFormat="1">
+    <row r="61" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="475"/>
       <c r="B61" s="409">
         <v>43755</v>
@@ -35238,7 +35239,7 @@
       <c r="D61" s="429"/>
       <c r="E61" s="429"/>
     </row>
-    <row r="62" spans="1:5" s="419" customFormat="1">
+    <row r="62" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="475"/>
       <c r="B62" s="410">
         <v>43756</v>
@@ -35249,7 +35250,7 @@
       <c r="D62" s="431"/>
       <c r="E62" s="431"/>
     </row>
-    <row r="63" spans="1:5" s="420" customFormat="1">
+    <row r="63" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="475"/>
       <c r="B63" s="408">
         <v>43759</v>
@@ -35260,7 +35261,7 @@
       <c r="D63" s="433"/>
       <c r="E63" s="433"/>
     </row>
-    <row r="64" spans="1:5" s="420" customFormat="1">
+    <row r="64" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="475"/>
       <c r="B64" s="408">
         <v>43760</v>
@@ -35271,7 +35272,7 @@
       <c r="D64" s="433"/>
       <c r="E64" s="433"/>
     </row>
-    <row r="65" spans="1:5" s="420" customFormat="1">
+    <row r="65" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="475"/>
       <c r="B65" s="408">
         <v>43761</v>
@@ -35282,7 +35283,7 @@
       <c r="D65" s="433"/>
       <c r="E65" s="433"/>
     </row>
-    <row r="66" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1">
+    <row r="66" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="476"/>
       <c r="B66" s="411">
         <v>43762</v>
@@ -35291,7 +35292,7 @@
       <c r="D66" s="437"/>
       <c r="E66" s="437"/>
     </row>
-    <row r="67" spans="1:5" s="423" customFormat="1" ht="60">
+    <row r="67" spans="1:5" s="423" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="474" t="s">
         <v>145</v>
       </c>
@@ -35304,7 +35305,7 @@
       <c r="D67" s="436"/>
       <c r="E67" s="436"/>
     </row>
-    <row r="68" spans="1:5" s="419" customFormat="1">
+    <row r="68" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="475"/>
       <c r="B68" s="410">
         <v>43766</v>
@@ -35317,7 +35318,7 @@
       </c>
       <c r="E68" s="431"/>
     </row>
-    <row r="69" spans="1:5" s="419" customFormat="1">
+    <row r="69" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="475"/>
       <c r="B69" s="410">
         <v>43767</v>
@@ -35330,7 +35331,7 @@
       </c>
       <c r="E69" s="431"/>
     </row>
-    <row r="70" spans="1:5" s="419" customFormat="1">
+    <row r="70" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="475"/>
       <c r="B70" s="410">
         <v>43768</v>
@@ -35343,7 +35344,7 @@
       </c>
       <c r="E70" s="431"/>
     </row>
-    <row r="71" spans="1:5" s="418" customFormat="1">
+    <row r="71" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="475"/>
       <c r="B71" s="409">
         <v>43769</v>
@@ -35352,18 +35353,18 @@
       <c r="D71" s="429"/>
       <c r="E71" s="429"/>
     </row>
-    <row r="72" spans="1:5" s="419" customFormat="1">
+    <row r="72" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="475"/>
       <c r="B72" s="410">
         <v>43770</v>
       </c>
       <c r="C72" s="431" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D72" s="431"/>
       <c r="E72" s="431"/>
     </row>
-    <row r="73" spans="1:5" s="420" customFormat="1">
+    <row r="73" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="475"/>
       <c r="B73" s="408">
         <v>43773</v>
@@ -35376,7 +35377,7 @@
       </c>
       <c r="E73" s="433"/>
     </row>
-    <row r="74" spans="1:5" s="420" customFormat="1">
+    <row r="74" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="475"/>
       <c r="B74" s="408">
         <v>43774</v>
@@ -35389,18 +35390,18 @@
       </c>
       <c r="E74" s="433"/>
     </row>
-    <row r="75" spans="1:5" s="420" customFormat="1">
+    <row r="75" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="475"/>
       <c r="B75" s="408">
         <v>43775</v>
       </c>
       <c r="C75" s="433" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D75" s="433"/>
       <c r="E75" s="433"/>
     </row>
-    <row r="76" spans="1:5" s="418" customFormat="1">
+    <row r="76" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="475"/>
       <c r="B76" s="409">
         <v>43776</v>
@@ -35409,7 +35410,7 @@
       <c r="D76" s="429"/>
       <c r="E76" s="429"/>
     </row>
-    <row r="77" spans="1:5" s="420" customFormat="1">
+    <row r="77" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="475"/>
       <c r="B77" s="408">
         <v>43777</v>
@@ -35420,7 +35421,7 @@
       <c r="D77" s="433"/>
       <c r="E77" s="433"/>
     </row>
-    <row r="78" spans="1:5" s="419" customFormat="1">
+    <row r="78" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="475"/>
       <c r="B78" s="410">
         <v>43780</v>
@@ -35431,7 +35432,7 @@
       <c r="D78" s="431"/>
       <c r="E78" s="431"/>
     </row>
-    <row r="79" spans="1:5" s="419" customFormat="1">
+    <row r="79" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="475"/>
       <c r="B79" s="410">
         <v>43781</v>
@@ -35442,7 +35443,7 @@
       <c r="D79" s="431"/>
       <c r="E79" s="431"/>
     </row>
-    <row r="80" spans="1:5" s="419" customFormat="1">
+    <row r="80" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="475"/>
       <c r="B80" s="410">
         <v>43782</v>
@@ -35453,7 +35454,7 @@
       <c r="D80" s="431"/>
       <c r="E80" s="431"/>
     </row>
-    <row r="81" spans="1:5" s="418" customFormat="1">
+    <row r="81" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="475"/>
       <c r="B81" s="409">
         <v>43783</v>
@@ -35462,7 +35463,7 @@
       <c r="D81" s="429"/>
       <c r="E81" s="429"/>
     </row>
-    <row r="82" spans="1:5" s="420" customFormat="1">
+    <row r="82" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="475"/>
       <c r="B82" s="408">
         <v>43787</v>
@@ -35473,7 +35474,7 @@
       <c r="D82" s="433"/>
       <c r="E82" s="433"/>
     </row>
-    <row r="83" spans="1:5" s="420" customFormat="1">
+    <row r="83" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="475"/>
       <c r="B83" s="408">
         <v>43788</v>
@@ -35484,7 +35485,7 @@
       <c r="D83" s="433"/>
       <c r="E83" s="433"/>
     </row>
-    <row r="84" spans="1:5" s="418" customFormat="1">
+    <row r="84" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="475"/>
       <c r="B84" s="409">
         <v>43790</v>
@@ -35493,7 +35494,7 @@
       <c r="D84" s="429"/>
       <c r="E84" s="429"/>
     </row>
-    <row r="85" spans="1:5" s="420" customFormat="1">
+    <row r="85" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="475"/>
       <c r="B85" s="408">
         <v>43791</v>
@@ -35504,7 +35505,7 @@
       <c r="D85" s="433"/>
       <c r="E85" s="433"/>
     </row>
-    <row r="86" spans="1:5" s="419" customFormat="1">
+    <row r="86" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="475"/>
       <c r="B86" s="410">
         <v>43794</v>
@@ -35515,7 +35516,7 @@
       <c r="D86" s="431"/>
       <c r="E86" s="431"/>
     </row>
-    <row r="87" spans="1:5" s="419" customFormat="1">
+    <row r="87" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="475"/>
       <c r="B87" s="410">
         <v>43795</v>
@@ -35526,7 +35527,7 @@
       <c r="D87" s="431"/>
       <c r="E87" s="431"/>
     </row>
-    <row r="88" spans="1:5" s="419" customFormat="1">
+    <row r="88" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="475"/>
       <c r="B88" s="410">
         <v>43796</v>
@@ -35537,7 +35538,7 @@
       <c r="D88" s="431"/>
       <c r="E88" s="431"/>
     </row>
-    <row r="89" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1">
+    <row r="89" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="476"/>
       <c r="B89" s="411">
         <v>43797</v>
@@ -35546,7 +35547,7 @@
       <c r="D89" s="437"/>
       <c r="E89" s="437"/>
     </row>
-    <row r="90" spans="1:5" s="417" customFormat="1" ht="30">
+    <row r="90" spans="1:5" s="417" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="468" t="s">
         <v>146</v>
       </c>
@@ -35559,7 +35560,7 @@
       <c r="D90" s="428"/>
       <c r="E90" s="428"/>
     </row>
-    <row r="91" spans="1:5" s="420" customFormat="1">
+    <row r="91" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="469"/>
       <c r="B91" s="408">
         <v>43801</v>
@@ -35570,7 +35571,7 @@
       <c r="D91" s="433"/>
       <c r="E91" s="433"/>
     </row>
-    <row r="92" spans="1:5" s="420" customFormat="1">
+    <row r="92" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="469"/>
       <c r="B92" s="408">
         <v>43802</v>
@@ -35581,7 +35582,7 @@
       <c r="D92" s="433"/>
       <c r="E92" s="433"/>
     </row>
-    <row r="93" spans="1:5" s="420" customFormat="1">
+    <row r="93" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="469"/>
       <c r="B93" s="408">
         <v>43803</v>
@@ -35592,7 +35593,7 @@
       <c r="D93" s="433"/>
       <c r="E93" s="433"/>
     </row>
-    <row r="94" spans="1:5" s="418" customFormat="1">
+    <row r="94" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="469"/>
       <c r="B94" s="409">
         <v>43804</v>
@@ -35601,7 +35602,7 @@
       <c r="D94" s="429"/>
       <c r="E94" s="429"/>
     </row>
-    <row r="95" spans="1:5" s="420" customFormat="1">
+    <row r="95" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="469"/>
       <c r="B95" s="408">
         <v>43805</v>
@@ -35612,7 +35613,7 @@
       <c r="D95" s="433"/>
       <c r="E95" s="433"/>
     </row>
-    <row r="96" spans="1:5" s="419" customFormat="1">
+    <row r="96" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="469"/>
       <c r="B96" s="410">
         <v>43808</v>
@@ -35623,7 +35624,7 @@
       <c r="D96" s="431"/>
       <c r="E96" s="431"/>
     </row>
-    <row r="97" spans="1:5" s="419" customFormat="1">
+    <row r="97" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="469"/>
       <c r="B97" s="410">
         <v>43809</v>
@@ -35634,7 +35635,7 @@
       <c r="D97" s="431"/>
       <c r="E97" s="431"/>
     </row>
-    <row r="98" spans="1:5" s="419" customFormat="1">
+    <row r="98" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="469"/>
       <c r="B98" s="410">
         <v>43810</v>
@@ -35645,7 +35646,7 @@
       <c r="D98" s="431"/>
       <c r="E98" s="431"/>
     </row>
-    <row r="99" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1">
+    <row r="99" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="470"/>
       <c r="B99" s="411">
         <v>43811</v>
@@ -35654,7 +35655,7 @@
       <c r="D99" s="437"/>
       <c r="E99" s="437"/>
     </row>
-    <row r="100" spans="1:5" s="425" customFormat="1">
+    <row r="100" spans="1:5" s="425" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="413">
         <v>43812</v>
       </c>
@@ -35662,7 +35663,7 @@
       <c r="D100" s="438"/>
       <c r="E100" s="438"/>
     </row>
-    <row r="101" spans="1:5" s="420" customFormat="1">
+    <row r="101" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="405">
         <v>43815</v>
       </c>
@@ -35670,7 +35671,7 @@
       <c r="D101" s="433"/>
       <c r="E101" s="433"/>
     </row>
-    <row r="102" spans="1:5" s="420" customFormat="1">
+    <row r="102" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="405">
         <v>43816</v>
       </c>
@@ -35678,7 +35679,7 @@
       <c r="D102" s="433"/>
       <c r="E102" s="433"/>
     </row>
-    <row r="103" spans="1:5" s="420" customFormat="1">
+    <row r="103" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="405">
         <v>43817</v>
       </c>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github_s\senai-dev-2s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A7523D-50D8-4221-BFDD-6CFA05EE9646}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B7234-9673-4AC2-ACE3-9C1E02EA6BB2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1421,9 +1421,6 @@
 RoteiroLivros</t>
   </si>
   <si>
-    <t>ex: Musicas (sstop), Livros</t>
-  </si>
-  <si>
     <t>Início - DDL
 exemplo-ddl.sql
 01_roteiro_sstop.sql
@@ -1609,6 +1606,9 @@
 Categorias
 Componentes - Rodapé</t>
   </si>
+  <si>
+    <t>ex: Musicas (sstop), Livros, pessoas</t>
+  </si>
 </sst>
 </file>
 
@@ -1617,7 +1617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,6 +1683,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2641,7 +2649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="477">
+  <cellXfs count="478">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3361,6 +3369,9 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3686,208 +3697,208 @@
       <selection sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="96" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="10" t="s">
         <v>35</v>
       </c>
@@ -3907,7 +3918,7 @@
       <selection pane="topRight" activeCell="BQ68" sqref="BQ68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="92" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="20" customWidth="1"/>
@@ -3945,7 +3956,7 @@
     <col min="108" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="59"/>
       <c r="B1" s="447" t="s">
         <v>42</v>
@@ -4066,7 +4077,7 @@
       <c r="DB1" s="448"/>
       <c r="DC1" s="60"/>
     </row>
-    <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:119" s="24" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
@@ -4401,7 +4412,7 @@
       <c r="DN2" s="23"/>
       <c r="DO2" s="23"/>
     </row>
-    <row r="3" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:119" s="17" customFormat="1">
       <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
@@ -4420,7 +4431,7 @@
       <c r="CL3" s="20"/>
       <c r="DC3" s="19"/>
     </row>
-    <row r="4" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:119" s="17" customFormat="1">
       <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
@@ -4439,7 +4450,7 @@
       <c r="CL4" s="20"/>
       <c r="DC4" s="19"/>
     </row>
-    <row r="5" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:119" s="17" customFormat="1">
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
@@ -4461,7 +4472,7 @@
       <c r="CL5" s="20"/>
       <c r="DC5" s="19"/>
     </row>
-    <row r="6" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:119" s="17" customFormat="1">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
@@ -4483,7 +4494,7 @@
       <c r="CL6" s="20"/>
       <c r="DC6" s="19"/>
     </row>
-    <row r="7" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:119" s="17" customFormat="1">
       <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
@@ -4505,7 +4516,7 @@
       <c r="CL7" s="20"/>
       <c r="DC7" s="19"/>
     </row>
-    <row r="8" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:119" s="17" customFormat="1">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -4527,7 +4538,7 @@
       <c r="CL8" s="20"/>
       <c r="DC8" s="19"/>
     </row>
-    <row r="9" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:119" s="17" customFormat="1">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
@@ -4549,7 +4560,7 @@
       <c r="CL9" s="20"/>
       <c r="DC9" s="19"/>
     </row>
-    <row r="10" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:119" s="17" customFormat="1">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
@@ -4571,7 +4582,7 @@
       <c r="CL10" s="20"/>
       <c r="DC10" s="19"/>
     </row>
-    <row r="11" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:119" s="17" customFormat="1">
       <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
@@ -4592,7 +4603,7 @@
       <c r="CL11" s="20"/>
       <c r="DC11" s="19"/>
     </row>
-    <row r="12" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:119" s="17" customFormat="1">
       <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
@@ -4612,7 +4623,7 @@
       <c r="CL12" s="20"/>
       <c r="DC12" s="19"/>
     </row>
-    <row r="13" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:119" s="17" customFormat="1">
       <c r="A13" s="20" t="s">
         <v>15</v>
       </c>
@@ -4632,7 +4643,7 @@
       <c r="CL13" s="20"/>
       <c r="DC13" s="19"/>
     </row>
-    <row r="14" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:119" s="17" customFormat="1">
       <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
@@ -4653,7 +4664,7 @@
       <c r="CL14" s="20"/>
       <c r="DC14" s="19"/>
     </row>
-    <row r="15" spans="1:119" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:119" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A15" s="30" t="s">
         <v>41</v>
       </c>
@@ -4677,7 +4688,7 @@
       <c r="CL15" s="25"/>
       <c r="DC15" s="32"/>
     </row>
-    <row r="16" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:119" s="24" customFormat="1">
       <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
@@ -4696,7 +4707,7 @@
       <c r="CL16" s="22"/>
       <c r="DC16" s="42"/>
     </row>
-    <row r="17" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16384" s="17" customFormat="1">
       <c r="A17" s="20" t="s">
         <v>19</v>
       </c>
@@ -4715,7 +4726,7 @@
       <c r="CL17" s="20"/>
       <c r="DC17" s="19"/>
     </row>
-    <row r="18" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16384" s="17" customFormat="1">
       <c r="A18" s="20" t="s">
         <v>21</v>
       </c>
@@ -4734,7 +4745,7 @@
       <c r="CL18" s="20"/>
       <c r="DC18" s="19"/>
     </row>
-    <row r="19" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16384" s="17" customFormat="1">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -4753,7 +4764,7 @@
       <c r="CL19" s="20"/>
       <c r="DC19" s="19"/>
     </row>
-    <row r="20" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16384" s="17" customFormat="1">
       <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
@@ -4776,7 +4787,7 @@
       <c r="CL20" s="20"/>
       <c r="DC20" s="19"/>
     </row>
-    <row r="21" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16384" s="17" customFormat="1">
       <c r="A21" s="43" t="s">
         <v>51</v>
       </c>
@@ -4797,7 +4808,7 @@
       <c r="CL21" s="20"/>
       <c r="DC21" s="19"/>
     </row>
-    <row r="22" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16384" s="17" customFormat="1">
       <c r="A22" s="20" t="s">
         <v>22</v>
       </c>
@@ -4817,7 +4828,7 @@
       <c r="CL22" s="20"/>
       <c r="DC22" s="19"/>
     </row>
-    <row r="23" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16384" s="17" customFormat="1">
       <c r="A23" s="20" t="s">
         <v>23</v>
       </c>
@@ -4836,7 +4847,7 @@
       <c r="CL23" s="20"/>
       <c r="DC23" s="19"/>
     </row>
-    <row r="24" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16384" s="17" customFormat="1">
       <c r="A24" s="43" t="s">
         <v>52</v>
       </c>
@@ -4860,7 +4871,7 @@
       <c r="CL24" s="20"/>
       <c r="DC24" s="19"/>
     </row>
-    <row r="25" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16384" s="17" customFormat="1">
       <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
@@ -4883,7 +4894,7 @@
       <c r="CL25" s="20"/>
       <c r="DC25" s="19"/>
     </row>
-    <row r="26" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16384" s="17" customFormat="1">
       <c r="A26" s="43" t="s">
         <v>54</v>
       </c>
@@ -4906,7 +4917,7 @@
       <c r="CL26" s="20"/>
       <c r="DC26" s="19"/>
     </row>
-    <row r="27" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16384" s="17" customFormat="1">
       <c r="A27" s="43" t="s">
         <v>55</v>
       </c>
@@ -4931,7 +4942,7 @@
       <c r="CL27" s="20"/>
       <c r="DC27" s="19"/>
     </row>
-    <row r="28" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16384" s="17" customFormat="1">
       <c r="A28" s="43" t="s">
         <v>56</v>
       </c>
@@ -21317,7 +21328,7 @@
       <c r="XFC28" s="36"/>
       <c r="XFD28" s="36"/>
     </row>
-    <row r="29" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16384" s="17" customFormat="1">
       <c r="A29" s="20" t="s">
         <v>57</v>
       </c>
@@ -21337,7 +21348,7 @@
       <c r="CL29" s="20"/>
       <c r="DC29" s="19"/>
     </row>
-    <row r="30" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16384" s="17" customFormat="1">
       <c r="A30" s="20" t="s">
         <v>58</v>
       </c>
@@ -21357,7 +21368,7 @@
       <c r="CL30" s="20"/>
       <c r="DC30" s="19"/>
     </row>
-    <row r="31" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16384" s="17" customFormat="1">
       <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
@@ -21376,7 +21387,7 @@
       <c r="CL31" s="20"/>
       <c r="DC31" s="19"/>
     </row>
-    <row r="32" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16384" s="17" customFormat="1">
       <c r="A32" s="43" t="s">
         <v>59</v>
       </c>
@@ -21396,7 +21407,7 @@
       <c r="CL32" s="20"/>
       <c r="DC32" s="19"/>
     </row>
-    <row r="33" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:107" s="17" customFormat="1">
       <c r="A33" s="43" t="s">
         <v>43</v>
       </c>
@@ -21416,7 +21427,7 @@
       <c r="CL33" s="20"/>
       <c r="DC33" s="19"/>
     </row>
-    <row r="34" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:107" s="17" customFormat="1">
       <c r="A34" s="43" t="s">
         <v>44</v>
       </c>
@@ -21438,7 +21449,7 @@
       <c r="CL34" s="20"/>
       <c r="DC34" s="19"/>
     </row>
-    <row r="35" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:107" s="17" customFormat="1">
       <c r="A35" s="43" t="s">
         <v>46</v>
       </c>
@@ -21458,7 +21469,7 @@
       <c r="CL35" s="20"/>
       <c r="DC35" s="19"/>
     </row>
-    <row r="36" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:107" s="17" customFormat="1">
       <c r="A36" s="43" t="s">
         <v>45</v>
       </c>
@@ -21480,7 +21491,7 @@
       <c r="CL36" s="20"/>
       <c r="DC36" s="19"/>
     </row>
-    <row r="37" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:107" s="17" customFormat="1">
       <c r="A37" s="43" t="s">
         <v>47</v>
       </c>
@@ -21500,7 +21511,7 @@
       <c r="CL37" s="20"/>
       <c r="DC37" s="19"/>
     </row>
-    <row r="38" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:107" s="17" customFormat="1">
       <c r="A38" s="43" t="s">
         <v>48</v>
       </c>
@@ -21520,7 +21531,7 @@
       <c r="CL38" s="20"/>
       <c r="DC38" s="19"/>
     </row>
-    <row r="39" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:107" s="17" customFormat="1">
       <c r="A39" s="43" t="s">
         <v>49</v>
       </c>
@@ -21540,7 +21551,7 @@
       <c r="CL39" s="20"/>
       <c r="DC39" s="19"/>
     </row>
-    <row r="40" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:107" s="17" customFormat="1">
       <c r="A40" s="43" t="s">
         <v>50</v>
       </c>
@@ -21560,7 +21571,7 @@
       <c r="CL40" s="20"/>
       <c r="DC40" s="19"/>
     </row>
-    <row r="41" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:107" s="17" customFormat="1">
       <c r="A41" s="43" t="s">
         <v>60</v>
       </c>
@@ -21581,7 +21592,7 @@
       <c r="CL41" s="20"/>
       <c r="DC41" s="19"/>
     </row>
-    <row r="42" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:107" s="17" customFormat="1">
       <c r="A42" s="43" t="s">
         <v>61</v>
       </c>
@@ -21602,7 +21613,7 @@
       <c r="CL42" s="20"/>
       <c r="DC42" s="19"/>
     </row>
-    <row r="43" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:107" s="17" customFormat="1">
       <c r="A43" s="43" t="s">
         <v>63</v>
       </c>
@@ -21625,7 +21636,7 @@
       <c r="CL43" s="20"/>
       <c r="DC43" s="19"/>
     </row>
-    <row r="44" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:107" s="17" customFormat="1">
       <c r="A44" s="20" t="s">
         <v>20</v>
       </c>
@@ -21652,7 +21663,7 @@
       <c r="CL44" s="20"/>
       <c r="DC44" s="19"/>
     </row>
-    <row r="45" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:107" s="17" customFormat="1">
       <c r="A45" s="20" t="s">
         <v>24</v>
       </c>
@@ -21672,7 +21683,7 @@
       <c r="CL45" s="20"/>
       <c r="DC45" s="19"/>
     </row>
-    <row r="46" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:107" s="17" customFormat="1">
       <c r="A46" s="20" t="s">
         <v>28</v>
       </c>
@@ -21696,7 +21707,7 @@
       <c r="CL46" s="20"/>
       <c r="DC46" s="19"/>
     </row>
-    <row r="47" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A47" s="30" t="s">
         <v>64</v>
       </c>
@@ -21732,7 +21743,7 @@
       <c r="CL47" s="25"/>
       <c r="DC47" s="32"/>
     </row>
-    <row r="48" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:107" s="24" customFormat="1">
       <c r="A48" s="22" t="s">
         <v>4</v>
       </c>
@@ -21755,7 +21766,7 @@
       <c r="CL48" s="22"/>
       <c r="DC48" s="42"/>
     </row>
-    <row r="49" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:107" s="17" customFormat="1">
       <c r="A49" s="20" t="s">
         <v>67</v>
       </c>
@@ -21776,7 +21787,7 @@
       <c r="CL49" s="20"/>
       <c r="DC49" s="19"/>
     </row>
-    <row r="50" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:107" s="17" customFormat="1">
       <c r="A50" s="20" t="s">
         <v>66</v>
       </c>
@@ -21800,7 +21811,7 @@
       <c r="CL50" s="20"/>
       <c r="DC50" s="19"/>
     </row>
-    <row r="51" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:107" s="17" customFormat="1">
       <c r="A51" s="20" t="s">
         <v>74</v>
       </c>
@@ -21825,7 +21836,7 @@
       <c r="CL51" s="20"/>
       <c r="DC51" s="19"/>
     </row>
-    <row r="52" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A52" s="30" t="s">
         <v>68</v>
       </c>
@@ -21852,7 +21863,7 @@
       <c r="CL52" s="25"/>
       <c r="DC52" s="32"/>
     </row>
-    <row r="53" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:107" s="24" customFormat="1">
       <c r="A53" s="22" t="s">
         <v>2</v>
       </c>
@@ -21878,7 +21889,7 @@
       <c r="CL53" s="22"/>
       <c r="DC53" s="42"/>
     </row>
-    <row r="54" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:107" s="17" customFormat="1">
       <c r="A54" s="20" t="s">
         <v>3</v>
       </c>
@@ -21904,7 +21915,7 @@
       <c r="CL54" s="20"/>
       <c r="DC54" s="19"/>
     </row>
-    <row r="55" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:107" s="17" customFormat="1">
       <c r="A55" s="20" t="s">
         <v>1</v>
       </c>
@@ -21928,7 +21939,7 @@
       <c r="CL55" s="20"/>
       <c r="DC55" s="19"/>
     </row>
-    <row r="56" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:107" s="17" customFormat="1">
       <c r="A56" s="20" t="s">
         <v>0</v>
       </c>
@@ -21957,7 +21968,7 @@
       <c r="CL56" s="20"/>
       <c r="DC56" s="19"/>
     </row>
-    <row r="57" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:107" s="17" customFormat="1">
       <c r="A57" s="43" t="s">
         <v>59</v>
       </c>
@@ -21985,7 +21996,7 @@
       <c r="CL57" s="20"/>
       <c r="DC57" s="19"/>
     </row>
-    <row r="58" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:107" s="17" customFormat="1">
       <c r="A58" s="43" t="s">
         <v>43</v>
       </c>
@@ -22013,7 +22024,7 @@
       <c r="CL58" s="20"/>
       <c r="DC58" s="19"/>
     </row>
-    <row r="59" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:107" s="17" customFormat="1">
       <c r="A59" s="43" t="s">
         <v>44</v>
       </c>
@@ -22041,7 +22052,7 @@
       <c r="CL59" s="20"/>
       <c r="DC59" s="19"/>
     </row>
-    <row r="60" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:107" s="17" customFormat="1">
       <c r="A60" s="43" t="s">
         <v>46</v>
       </c>
@@ -22068,7 +22079,7 @@
       <c r="CL60" s="20"/>
       <c r="DC60" s="19"/>
     </row>
-    <row r="61" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:107" s="17" customFormat="1">
       <c r="A61" s="43" t="s">
         <v>45</v>
       </c>
@@ -22095,7 +22106,7 @@
       <c r="CL61" s="20"/>
       <c r="DC61" s="19"/>
     </row>
-    <row r="62" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:107" s="17" customFormat="1">
       <c r="A62" s="43" t="s">
         <v>47</v>
       </c>
@@ -22122,7 +22133,7 @@
       <c r="CL62" s="20"/>
       <c r="DC62" s="19"/>
     </row>
-    <row r="63" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:107" s="17" customFormat="1">
       <c r="A63" s="43" t="s">
         <v>48</v>
       </c>
@@ -22150,7 +22161,7 @@
       <c r="CL63" s="20"/>
       <c r="DC63" s="19"/>
     </row>
-    <row r="64" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:107" s="17" customFormat="1">
       <c r="A64" s="43" t="s">
         <v>49</v>
       </c>
@@ -22178,7 +22189,7 @@
       <c r="CL64" s="20"/>
       <c r="DC64" s="19"/>
     </row>
-    <row r="65" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:107" s="17" customFormat="1">
       <c r="A65" s="43" t="s">
         <v>50</v>
       </c>
@@ -22206,7 +22217,7 @@
       <c r="CL65" s="20"/>
       <c r="DC65" s="19"/>
     </row>
-    <row r="66" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:107" s="17" customFormat="1">
       <c r="A66" s="43" t="s">
         <v>60</v>
       </c>
@@ -22234,7 +22245,7 @@
       <c r="CL66" s="20"/>
       <c r="DC66" s="19"/>
     </row>
-    <row r="67" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:107" s="17" customFormat="1">
       <c r="A67" s="43" t="s">
         <v>61</v>
       </c>
@@ -22261,7 +22272,7 @@
       <c r="CL67" s="20"/>
       <c r="DC67" s="19"/>
     </row>
-    <row r="68" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A68" s="30" t="s">
         <v>70</v>
       </c>
@@ -22289,7 +22300,7 @@
       <c r="CL68" s="25"/>
       <c r="DC68" s="32"/>
     </row>
-    <row r="69" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:107" s="24" customFormat="1">
       <c r="A69" s="50" t="s">
         <v>29</v>
       </c>
@@ -22310,7 +22321,7 @@
       <c r="CL69" s="22"/>
       <c r="DC69" s="42"/>
     </row>
-    <row r="70" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:107" s="17" customFormat="1">
       <c r="A70" s="45" t="s">
         <v>31</v>
       </c>
@@ -22331,7 +22342,7 @@
       <c r="CL70" s="20"/>
       <c r="DC70" s="19"/>
     </row>
-    <row r="71" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:107" s="17" customFormat="1">
       <c r="A71" s="51" t="s">
         <v>35</v>
       </c>
@@ -22353,7 +22364,7 @@
       <c r="CL71" s="20"/>
       <c r="DC71" s="19"/>
     </row>
-    <row r="72" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:107" s="17" customFormat="1">
       <c r="A72" s="45" t="s">
         <v>30</v>
       </c>
@@ -22374,7 +22385,7 @@
       <c r="CL72" s="20"/>
       <c r="DC72" s="19"/>
     </row>
-    <row r="73" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:107" s="47" customFormat="1">
       <c r="A73" s="45" t="s">
         <v>33</v>
       </c>
@@ -22395,7 +22406,7 @@
       <c r="CL73" s="46"/>
       <c r="DC73" s="49"/>
     </row>
-    <row r="74" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:107" s="47" customFormat="1">
       <c r="A74" s="46" t="s">
         <v>80</v>
       </c>
@@ -22417,7 +22428,7 @@
       <c r="CL74" s="46"/>
       <c r="DC74" s="49"/>
     </row>
-    <row r="75" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:107" s="47" customFormat="1">
       <c r="A75" s="43" t="s">
         <v>75</v>
       </c>
@@ -22439,7 +22450,7 @@
       <c r="CL75" s="46"/>
       <c r="DC75" s="49"/>
     </row>
-    <row r="76" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:107" s="47" customFormat="1">
       <c r="A76" s="43" t="s">
         <v>76</v>
       </c>
@@ -22461,7 +22472,7 @@
       <c r="CL76" s="46"/>
       <c r="DC76" s="49"/>
     </row>
-    <row r="77" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:107" s="47" customFormat="1">
       <c r="A77" s="43" t="s">
         <v>77</v>
       </c>
@@ -22483,7 +22494,7 @@
       <c r="CL77" s="46"/>
       <c r="DC77" s="49"/>
     </row>
-    <row r="78" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:107" s="47" customFormat="1">
       <c r="A78" s="43" t="s">
         <v>78</v>
       </c>
@@ -22505,7 +22516,7 @@
       <c r="CL78" s="46"/>
       <c r="DC78" s="49"/>
     </row>
-    <row r="79" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:107" s="47" customFormat="1">
       <c r="A79" s="43" t="s">
         <v>79</v>
       </c>
@@ -22527,7 +22538,7 @@
       <c r="CL79" s="46"/>
       <c r="DC79" s="49"/>
     </row>
-    <row r="80" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A80" s="30" t="s">
         <v>73</v>
       </c>
@@ -22558,7 +22569,7 @@
       <c r="CL80" s="62"/>
       <c r="DC80" s="32"/>
     </row>
-    <row r="81" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:107" s="24" customFormat="1">
       <c r="A81" s="22" t="s">
         <v>5</v>
       </c>
@@ -22580,7 +22591,7 @@
       <c r="CN81" s="44"/>
       <c r="DC81" s="42"/>
     </row>
-    <row r="82" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:107" s="17" customFormat="1">
       <c r="A82" s="20" t="s">
         <v>12</v>
       </c>
@@ -22601,7 +22612,7 @@
       <c r="CO82" s="21"/>
       <c r="DC82" s="19"/>
     </row>
-    <row r="83" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:107" s="17" customFormat="1">
       <c r="A83" s="20" t="s">
         <v>25</v>
       </c>
@@ -22622,7 +22633,7 @@
       <c r="CO83" s="21"/>
       <c r="DC83" s="19"/>
     </row>
-    <row r="84" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:107" s="17" customFormat="1">
       <c r="A84" s="20" t="s">
         <v>82</v>
       </c>
@@ -22643,7 +22654,7 @@
       <c r="CO84" s="21"/>
       <c r="DC84" s="19"/>
     </row>
-    <row r="85" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:107" s="17" customFormat="1">
       <c r="A85" s="20" t="s">
         <v>84</v>
       </c>
@@ -22667,7 +22678,7 @@
       <c r="CS85" s="21"/>
       <c r="DC85" s="19"/>
     </row>
-    <row r="86" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="A86" s="30" t="s">
         <v>83</v>
       </c>
@@ -22721,7 +22732,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -22735,7 +22746,7 @@
     <col min="96" max="100" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100">
       <c r="A1" s="223">
         <v>43670</v>
       </c>
@@ -23052,7 +23063,7 @@
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="97"/>
@@ -23086,7 +23097,7 @@
     <col min="103" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:102" s="100" customFormat="1">
       <c r="A1" s="77"/>
       <c r="B1" s="459" t="s">
         <v>103</v>
@@ -23202,7 +23213,7 @@
       <c r="CW1" s="452"/>
       <c r="CX1" s="99"/>
     </row>
-    <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -23508,7 +23519,7 @@
       </c>
       <c r="CX2" s="208"/>
     </row>
-    <row r="3" spans="1:102" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:102" s="113" customFormat="1">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -23614,7 +23625,7 @@
       <c r="CW3" s="111"/>
       <c r="CX3" s="209"/>
     </row>
-    <row r="4" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:102" s="64" customFormat="1">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -23637,7 +23648,7 @@
       <c r="CW4" s="87"/>
       <c r="CX4" s="71"/>
     </row>
-    <row r="5" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:102" s="64" customFormat="1">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -23660,7 +23671,7 @@
       <c r="CW5" s="87"/>
       <c r="CX5" s="71"/>
     </row>
-    <row r="6" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:102" s="64" customFormat="1">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -23686,7 +23697,7 @@
       <c r="CW6" s="87"/>
       <c r="CX6" s="71"/>
     </row>
-    <row r="7" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:102" s="64" customFormat="1">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -23712,7 +23723,7 @@
       <c r="CW7" s="87"/>
       <c r="CX7" s="71"/>
     </row>
-    <row r="8" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:102" s="64" customFormat="1">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -23738,7 +23749,7 @@
       <c r="CW8" s="87"/>
       <c r="CX8" s="71"/>
     </row>
-    <row r="9" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:102" s="64" customFormat="1">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -23764,7 +23775,7 @@
       <c r="CW9" s="87"/>
       <c r="CX9" s="71"/>
     </row>
-    <row r="10" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:102" s="64" customFormat="1">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -23790,7 +23801,7 @@
       <c r="CW10" s="87"/>
       <c r="CX10" s="71"/>
     </row>
-    <row r="11" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:102" s="64" customFormat="1">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -23816,7 +23827,7 @@
       <c r="CW11" s="87"/>
       <c r="CX11" s="71"/>
     </row>
-    <row r="12" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:102" s="64" customFormat="1">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -23840,7 +23851,7 @@
       <c r="CW12" s="87"/>
       <c r="CX12" s="71"/>
     </row>
-    <row r="13" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:102" s="64" customFormat="1">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -23864,7 +23875,7 @@
       <c r="CW13" s="87"/>
       <c r="CX13" s="71"/>
     </row>
-    <row r="14" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:102" s="64" customFormat="1">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -23888,7 +23899,7 @@
       <c r="CW14" s="87"/>
       <c r="CX14" s="71"/>
     </row>
-    <row r="15" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:102" s="64" customFormat="1">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -23913,7 +23924,7 @@
       <c r="CW15" s="87"/>
       <c r="CX15" s="71"/>
     </row>
-    <row r="16" spans="1:102" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:102" s="116" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -23941,7 +23952,7 @@
       <c r="CW16" s="166"/>
       <c r="CX16" s="118"/>
     </row>
-    <row r="17" spans="1:102" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:102" s="121" customFormat="1">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -23964,7 +23975,7 @@
       <c r="CW17" s="122"/>
       <c r="CX17" s="123"/>
     </row>
-    <row r="18" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:102" s="66" customFormat="1">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -23986,7 +23997,7 @@
       <c r="CW18" s="90"/>
       <c r="CX18" s="72"/>
     </row>
-    <row r="19" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:102" s="66" customFormat="1">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -24008,7 +24019,7 @@
       <c r="CW19" s="90"/>
       <c r="CX19" s="72"/>
     </row>
-    <row r="20" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:102" s="66" customFormat="1">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -24031,7 +24042,7 @@
       <c r="CW20" s="90"/>
       <c r="CX20" s="72"/>
     </row>
-    <row r="21" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:102" s="66" customFormat="1">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -24059,7 +24070,7 @@
       <c r="CW21" s="90"/>
       <c r="CX21" s="72"/>
     </row>
-    <row r="22" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:102" s="66" customFormat="1">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -24083,7 +24094,7 @@
       <c r="CW22" s="90"/>
       <c r="CX22" s="72"/>
     </row>
-    <row r="23" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:102" s="66" customFormat="1">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -24111,7 +24122,7 @@
       <c r="CW23" s="90"/>
       <c r="CX23" s="72"/>
     </row>
-    <row r="24" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:102" s="66" customFormat="1">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -24133,7 +24144,7 @@
       <c r="CW24" s="90"/>
       <c r="CX24" s="72"/>
     </row>
-    <row r="25" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:102" s="66" customFormat="1">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -24156,7 +24167,7 @@
       <c r="CW25" s="90"/>
       <c r="CX25" s="72"/>
     </row>
-    <row r="26" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:102" s="66" customFormat="1">
       <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
@@ -24179,7 +24190,7 @@
       <c r="CW26" s="90"/>
       <c r="CX26" s="72"/>
     </row>
-    <row r="27" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:102" s="66" customFormat="1">
       <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
@@ -24202,7 +24213,7 @@
       <c r="CW27" s="90"/>
       <c r="CX27" s="72"/>
     </row>
-    <row r="28" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:102" s="66" customFormat="1">
       <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
@@ -24225,7 +24236,7 @@
       <c r="CW28" s="90"/>
       <c r="CX28" s="72"/>
     </row>
-    <row r="29" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:102" s="66" customFormat="1">
       <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
@@ -24248,7 +24259,7 @@
       <c r="CW29" s="90"/>
       <c r="CX29" s="72"/>
     </row>
-    <row r="30" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:102" s="66" customFormat="1">
       <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
@@ -24271,7 +24282,7 @@
       <c r="CW30" s="90"/>
       <c r="CX30" s="72"/>
     </row>
-    <row r="31" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:102" s="66" customFormat="1">
       <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
@@ -24294,7 +24305,7 @@
       <c r="CW31" s="90"/>
       <c r="CX31" s="72"/>
     </row>
-    <row r="32" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:102" s="66" customFormat="1">
       <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
@@ -24317,7 +24328,7 @@
       <c r="CW32" s="90"/>
       <c r="CX32" s="72"/>
     </row>
-    <row r="33" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:102" s="66" customFormat="1">
       <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
@@ -24340,7 +24351,7 @@
       <c r="CW33" s="90"/>
       <c r="CX33" s="72"/>
     </row>
-    <row r="34" spans="1:102" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:102" s="126" customFormat="1" ht="15.75" thickBot="1">
       <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
@@ -24370,7 +24381,7 @@
       <c r="CW34" s="127"/>
       <c r="CX34" s="128"/>
     </row>
-    <row r="35" spans="1:102" s="131" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:102" s="131" customFormat="1">
       <c r="A35" s="129" t="s">
         <v>97</v>
       </c>
@@ -24393,7 +24404,7 @@
       <c r="CW35" s="132"/>
       <c r="CX35" s="133"/>
     </row>
-    <row r="36" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:102" s="68" customFormat="1">
       <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
@@ -24414,7 +24425,7 @@
       <c r="CW36" s="92"/>
       <c r="CX36" s="73"/>
     </row>
-    <row r="37" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:102" s="68" customFormat="1">
       <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
@@ -24437,7 +24448,7 @@
       <c r="CW37" s="92"/>
       <c r="CX37" s="73"/>
     </row>
-    <row r="38" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:102" s="68" customFormat="1">
       <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
@@ -24459,7 +24470,7 @@
       <c r="CW38" s="92"/>
       <c r="CX38" s="73"/>
     </row>
-    <row r="39" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:102" s="68" customFormat="1">
       <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
@@ -24480,7 +24491,7 @@
       <c r="CW39" s="92"/>
       <c r="CX39" s="73"/>
     </row>
-    <row r="40" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:102" s="174" customFormat="1">
       <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
@@ -24502,7 +24513,7 @@
       <c r="CW40" s="175"/>
       <c r="CX40" s="176"/>
     </row>
-    <row r="41" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:102" s="174" customFormat="1">
       <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
@@ -24524,7 +24535,7 @@
       <c r="CW41" s="175"/>
       <c r="CX41" s="176"/>
     </row>
-    <row r="42" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:102" s="174" customFormat="1">
       <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
@@ -24546,7 +24557,7 @@
       <c r="CW42" s="175"/>
       <c r="CX42" s="176"/>
     </row>
-    <row r="43" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:102" s="174" customFormat="1">
       <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
@@ -24568,7 +24579,7 @@
       <c r="CW43" s="175"/>
       <c r="CX43" s="176"/>
     </row>
-    <row r="44" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:102" s="174" customFormat="1">
       <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
@@ -24590,7 +24601,7 @@
       <c r="CW44" s="175"/>
       <c r="CX44" s="176"/>
     </row>
-    <row r="45" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:102" s="174" customFormat="1">
       <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
@@ -24612,7 +24623,7 @@
       <c r="CW45" s="175"/>
       <c r="CX45" s="176"/>
     </row>
-    <row r="46" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:102" s="68" customFormat="1">
       <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
@@ -24635,7 +24646,7 @@
       <c r="CW46" s="92"/>
       <c r="CX46" s="73"/>
     </row>
-    <row r="47" spans="1:102" s="136" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:102" s="136" customFormat="1" ht="15.75" thickBot="1">
       <c r="A47" s="134" t="s">
         <v>100</v>
       </c>
@@ -24670,7 +24681,7 @@
       <c r="CW47" s="137"/>
       <c r="CX47" s="138"/>
     </row>
-    <row r="48" spans="1:102" s="141" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:102" s="141" customFormat="1">
       <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
@@ -24693,7 +24704,7 @@
       <c r="CW48" s="142"/>
       <c r="CX48" s="143"/>
     </row>
-    <row r="49" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:102" s="69" customFormat="1">
       <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
@@ -24715,7 +24726,7 @@
       <c r="CW49" s="94"/>
       <c r="CX49" s="74"/>
     </row>
-    <row r="50" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:102" s="69" customFormat="1">
       <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
@@ -24736,7 +24747,7 @@
       <c r="CW50" s="94"/>
       <c r="CX50" s="74"/>
     </row>
-    <row r="51" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:102" s="69" customFormat="1">
       <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
@@ -24758,7 +24769,7 @@
       <c r="CW51" s="94"/>
       <c r="CX51" s="74"/>
     </row>
-    <row r="52" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:102" s="69" customFormat="1">
       <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
@@ -24780,7 +24791,7 @@
       <c r="CW52" s="94"/>
       <c r="CX52" s="74"/>
     </row>
-    <row r="53" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:102" s="69" customFormat="1">
       <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
@@ -24802,7 +24813,7 @@
       <c r="CW53" s="94"/>
       <c r="CX53" s="74"/>
     </row>
-    <row r="54" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:102" s="69" customFormat="1">
       <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
@@ -24824,7 +24835,7 @@
       <c r="CW54" s="94"/>
       <c r="CX54" s="74"/>
     </row>
-    <row r="55" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:102" s="69" customFormat="1">
       <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
@@ -24845,7 +24856,7 @@
       <c r="CW55" s="94"/>
       <c r="CX55" s="74"/>
     </row>
-    <row r="56" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:102" s="69" customFormat="1">
       <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
@@ -24867,7 +24878,7 @@
       <c r="CW56" s="94"/>
       <c r="CX56" s="74"/>
     </row>
-    <row r="57" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:102" s="69" customFormat="1">
       <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
@@ -24890,7 +24901,7 @@
       <c r="CW57" s="94"/>
       <c r="CX57" s="74"/>
     </row>
-    <row r="58" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:102" s="69" customFormat="1">
       <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
@@ -24912,7 +24923,7 @@
       <c r="CW58" s="94"/>
       <c r="CX58" s="74"/>
     </row>
-    <row r="59" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:102" s="69" customFormat="1">
       <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
@@ -24934,7 +24945,7 @@
       <c r="CW59" s="94"/>
       <c r="CX59" s="74"/>
     </row>
-    <row r="60" spans="1:102" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:102" s="146" customFormat="1" ht="15.75" thickBot="1">
       <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
@@ -24971,7 +24982,7 @@
       <c r="CW60" s="147"/>
       <c r="CX60" s="148"/>
     </row>
-    <row r="61" spans="1:102" s="156" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:102" s="156" customFormat="1">
       <c r="A61" s="154" t="s">
         <v>93</v>
       </c>
@@ -24994,7 +25005,7 @@
       <c r="CW61" s="157"/>
       <c r="CX61" s="158"/>
     </row>
-    <row r="62" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:102" s="70" customFormat="1">
       <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
@@ -25018,7 +25029,7 @@
       <c r="CW62" s="96"/>
       <c r="CX62" s="75"/>
     </row>
-    <row r="63" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:102" s="70" customFormat="1">
       <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
@@ -25042,7 +25053,7 @@
       <c r="CW63" s="96"/>
       <c r="CX63" s="75"/>
     </row>
-    <row r="64" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:102" s="70" customFormat="1">
       <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
@@ -25065,7 +25076,7 @@
       <c r="CW64" s="96"/>
       <c r="CX64" s="75"/>
     </row>
-    <row r="65" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:102" s="70" customFormat="1">
       <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
@@ -25089,7 +25100,7 @@
       <c r="CW65" s="96"/>
       <c r="CX65" s="75"/>
     </row>
-    <row r="66" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:102" s="70" customFormat="1">
       <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
@@ -25113,7 +25124,7 @@
       <c r="CW66" s="96"/>
       <c r="CX66" s="75"/>
     </row>
-    <row r="67" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:102" s="70" customFormat="1">
       <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
@@ -25136,7 +25147,7 @@
       <c r="CW67" s="96"/>
       <c r="CX67" s="75"/>
     </row>
-    <row r="68" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:102" s="70" customFormat="1">
       <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
@@ -25161,7 +25172,7 @@
       <c r="CW68" s="96"/>
       <c r="CX68" s="75"/>
     </row>
-    <row r="69" spans="1:102" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:102" s="161" customFormat="1" ht="15.75" thickBot="1">
       <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
@@ -25189,7 +25200,7 @@
       <c r="CW69" s="162"/>
       <c r="CX69" s="163"/>
     </row>
-    <row r="70" spans="1:102" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:102" s="212" customFormat="1" ht="15.75" thickBot="1">
       <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
@@ -25214,7 +25225,7 @@
       </c>
       <c r="CX70" s="214"/>
     </row>
-    <row r="71" spans="1:102" s="151" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:102" s="151" customFormat="1">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
       <c r="P71" s="153"/>
@@ -25260,7 +25271,7 @@
       <selection pane="topRight" activeCell="DA49" sqref="DA49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="97" bestFit="1" customWidth="1"/>
@@ -25315,7 +25326,7 @@
     <col min="105" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:104" s="100" customFormat="1">
       <c r="A1" s="77"/>
       <c r="B1" s="459" t="s">
         <v>103</v>
@@ -25433,7 +25444,7 @@
       <c r="CY1" s="464"/>
       <c r="CZ1" s="99"/>
     </row>
-    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -25745,7 +25756,7 @@
       </c>
       <c r="CZ2" s="208"/>
     </row>
-    <row r="3" spans="1:104" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:104" s="113" customFormat="1">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -25852,7 +25863,7 @@
       <c r="CY3" s="269"/>
       <c r="CZ3" s="209"/>
     </row>
-    <row r="4" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:104" s="64" customFormat="1">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -25884,7 +25895,7 @@
       <c r="CY4" s="87"/>
       <c r="CZ4" s="71"/>
     </row>
-    <row r="5" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:104" s="64" customFormat="1">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -25916,7 +25927,7 @@
       <c r="CY5" s="87"/>
       <c r="CZ5" s="71"/>
     </row>
-    <row r="6" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:104" s="64" customFormat="1">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -25951,7 +25962,7 @@
       <c r="CY6" s="87"/>
       <c r="CZ6" s="71"/>
     </row>
-    <row r="7" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:104" s="64" customFormat="1">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -25988,7 +25999,7 @@
       <c r="CY7" s="87"/>
       <c r="CZ7" s="71"/>
     </row>
-    <row r="8" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:104" s="64" customFormat="1">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -26023,7 +26034,7 @@
       <c r="CY8" s="87"/>
       <c r="CZ8" s="71"/>
     </row>
-    <row r="9" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:104" s="64" customFormat="1">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -26058,7 +26069,7 @@
       <c r="CY9" s="87"/>
       <c r="CZ9" s="71"/>
     </row>
-    <row r="10" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:104" s="64" customFormat="1">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -26093,7 +26104,7 @@
       <c r="CY10" s="87"/>
       <c r="CZ10" s="71"/>
     </row>
-    <row r="11" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:104" s="64" customFormat="1">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -26128,7 +26139,7 @@
       <c r="CY11" s="87"/>
       <c r="CZ11" s="71"/>
     </row>
-    <row r="12" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:104" s="64" customFormat="1">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -26161,7 +26172,7 @@
       <c r="CY12" s="87"/>
       <c r="CZ12" s="71"/>
     </row>
-    <row r="13" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:104" s="64" customFormat="1">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -26194,7 +26205,7 @@
       <c r="CY13" s="87"/>
       <c r="CZ13" s="71"/>
     </row>
-    <row r="14" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:104" s="64" customFormat="1">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -26227,7 +26238,7 @@
       <c r="CY14" s="87"/>
       <c r="CZ14" s="71"/>
     </row>
-    <row r="15" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:104" s="64" customFormat="1">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -26261,7 +26272,7 @@
       <c r="CY15" s="87"/>
       <c r="CZ15" s="71"/>
     </row>
-    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -26299,7 +26310,7 @@
       <c r="CY16" s="166"/>
       <c r="CZ16" s="118"/>
     </row>
-    <row r="17" spans="1:104" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:104" s="121" customFormat="1">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -26330,7 +26341,7 @@
       <c r="CY17" s="122"/>
       <c r="CZ17" s="123"/>
     </row>
-    <row r="18" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:104" s="66" customFormat="1">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -26359,7 +26370,7 @@
       <c r="CY18" s="90"/>
       <c r="CZ18" s="72"/>
     </row>
-    <row r="19" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:104" s="66" customFormat="1">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -26389,7 +26400,7 @@
       <c r="CY19" s="90"/>
       <c r="CZ19" s="72"/>
     </row>
-    <row r="20" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:104" s="66" customFormat="1">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -26419,7 +26430,7 @@
       <c r="CY20" s="90"/>
       <c r="CZ20" s="72"/>
     </row>
-    <row r="21" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:104" s="66" customFormat="1">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -26454,7 +26465,7 @@
       <c r="CY21" s="90"/>
       <c r="CZ21" s="72"/>
     </row>
-    <row r="22" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:104" s="66" customFormat="1">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -26486,7 +26497,7 @@
       <c r="CY22" s="90"/>
       <c r="CZ22" s="72"/>
     </row>
-    <row r="23" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:104" s="66" customFormat="1">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -26521,7 +26532,7 @@
       <c r="CY23" s="90"/>
       <c r="CZ23" s="72"/>
     </row>
-    <row r="24" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:104" s="66" customFormat="1">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -26550,7 +26561,7 @@
       <c r="CY24" s="90"/>
       <c r="CZ24" s="72"/>
     </row>
-    <row r="25" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:104" s="66" customFormat="1">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -26580,7 +26591,7 @@
       <c r="CY25" s="90"/>
       <c r="CZ25" s="72"/>
     </row>
-    <row r="26" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:104" s="66" customFormat="1">
       <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
@@ -26611,7 +26622,7 @@
       <c r="CY26" s="90"/>
       <c r="CZ26" s="72"/>
     </row>
-    <row r="27" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:104" s="66" customFormat="1">
       <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
@@ -26641,7 +26652,7 @@
       <c r="CY27" s="90"/>
       <c r="CZ27" s="72"/>
     </row>
-    <row r="28" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:104" s="66" customFormat="1">
       <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
@@ -26671,7 +26682,7 @@
       <c r="CY28" s="90"/>
       <c r="CZ28" s="72"/>
     </row>
-    <row r="29" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:104" s="66" customFormat="1">
       <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
@@ -26701,7 +26712,7 @@
       <c r="CY29" s="90"/>
       <c r="CZ29" s="72"/>
     </row>
-    <row r="30" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:104" s="66" customFormat="1">
       <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
@@ -26731,7 +26742,7 @@
       <c r="CY30" s="90"/>
       <c r="CZ30" s="72"/>
     </row>
-    <row r="31" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:104" s="66" customFormat="1">
       <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
@@ -26761,7 +26772,7 @@
       <c r="CY31" s="90"/>
       <c r="CZ31" s="72"/>
     </row>
-    <row r="32" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:104" s="66" customFormat="1">
       <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
@@ -26791,7 +26802,7 @@
       <c r="CY32" s="90"/>
       <c r="CZ32" s="72"/>
     </row>
-    <row r="33" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:104" s="66" customFormat="1">
       <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
@@ -26822,7 +26833,7 @@
       <c r="CY33" s="90"/>
       <c r="CZ33" s="72"/>
     </row>
-    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1">
       <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
@@ -26862,7 +26873,7 @@
       <c r="CY34" s="127"/>
       <c r="CZ34" s="128"/>
     </row>
-    <row r="35" spans="1:104" s="272" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:104" s="272" customFormat="1">
       <c r="A35" s="270" t="s">
         <v>97</v>
       </c>
@@ -26892,7 +26903,7 @@
       <c r="CY35" s="274"/>
       <c r="CZ35" s="276"/>
     </row>
-    <row r="36" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:104" s="68" customFormat="1">
       <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
@@ -26922,7 +26933,7 @@
       <c r="CY36" s="92"/>
       <c r="CZ36" s="73"/>
     </row>
-    <row r="37" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:104" s="68" customFormat="1">
       <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
@@ -26954,7 +26965,7 @@
       <c r="CY37" s="92"/>
       <c r="CZ37" s="73"/>
     </row>
-    <row r="38" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:104" s="68" customFormat="1">
       <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
@@ -26985,7 +26996,7 @@
       <c r="CY38" s="92"/>
       <c r="CZ38" s="73"/>
     </row>
-    <row r="39" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:104" s="68" customFormat="1">
       <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
@@ -27015,7 +27026,7 @@
       <c r="CY39" s="92"/>
       <c r="CZ39" s="73"/>
     </row>
-    <row r="40" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:104" s="174" customFormat="1">
       <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
@@ -27045,7 +27056,7 @@
       <c r="CY40" s="175"/>
       <c r="CZ40" s="176"/>
     </row>
-    <row r="41" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:104" s="174" customFormat="1">
       <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
@@ -27075,7 +27086,7 @@
       <c r="CY41" s="175"/>
       <c r="CZ41" s="176"/>
     </row>
-    <row r="42" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:104" s="174" customFormat="1">
       <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
@@ -27105,7 +27116,7 @@
       <c r="CY42" s="175"/>
       <c r="CZ42" s="176"/>
     </row>
-    <row r="43" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:104" s="174" customFormat="1">
       <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
@@ -27135,7 +27146,7 @@
       <c r="CY43" s="175"/>
       <c r="CZ43" s="176"/>
     </row>
-    <row r="44" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:104" s="174" customFormat="1">
       <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
@@ -27165,7 +27176,7 @@
       <c r="CY44" s="175"/>
       <c r="CZ44" s="176"/>
     </row>
-    <row r="45" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:104" s="174" customFormat="1">
       <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
@@ -27195,7 +27206,7 @@
       <c r="CY45" s="175"/>
       <c r="CZ45" s="176"/>
     </row>
-    <row r="46" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:104" s="68" customFormat="1">
       <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
@@ -27227,7 +27238,7 @@
       <c r="CY46" s="92"/>
       <c r="CZ46" s="73"/>
     </row>
-    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1">
       <c r="A47" s="279" t="s">
         <v>100</v>
       </c>
@@ -27271,7 +27282,7 @@
       <c r="CY47" s="283"/>
       <c r="CZ47" s="288"/>
     </row>
-    <row r="48" spans="1:104" s="141" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:104" s="141" customFormat="1">
       <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
@@ -27301,7 +27312,7 @@
       <c r="CY48" s="142"/>
       <c r="CZ48" s="143"/>
     </row>
-    <row r="49" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:104" s="69" customFormat="1">
       <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
@@ -27330,7 +27341,7 @@
       <c r="CY49" s="94"/>
       <c r="CZ49" s="74"/>
     </row>
-    <row r="50" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:104" s="69" customFormat="1">
       <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
@@ -27358,7 +27369,7 @@
       <c r="CY50" s="94"/>
       <c r="CZ50" s="74"/>
     </row>
-    <row r="51" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:104" s="69" customFormat="1">
       <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
@@ -27387,7 +27398,7 @@
       <c r="CY51" s="94"/>
       <c r="CZ51" s="74"/>
     </row>
-    <row r="52" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:104" s="69" customFormat="1">
       <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
@@ -27416,7 +27427,7 @@
       <c r="CY52" s="94"/>
       <c r="CZ52" s="74"/>
     </row>
-    <row r="53" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:104" s="69" customFormat="1">
       <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
@@ -27445,7 +27456,7 @@
       <c r="CY53" s="94"/>
       <c r="CZ53" s="74"/>
     </row>
-    <row r="54" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:104" s="69" customFormat="1">
       <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
@@ -27474,7 +27485,7 @@
       <c r="CY54" s="94"/>
       <c r="CZ54" s="74"/>
     </row>
-    <row r="55" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:104" s="69" customFormat="1">
       <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
@@ -27502,7 +27513,7 @@
       <c r="CY55" s="94"/>
       <c r="CZ55" s="74"/>
     </row>
-    <row r="56" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:104" s="69" customFormat="1">
       <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
@@ -27531,7 +27542,7 @@
       <c r="CY56" s="94"/>
       <c r="CZ56" s="74"/>
     </row>
-    <row r="57" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:104" s="69" customFormat="1">
       <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
@@ -27561,7 +27572,7 @@
       <c r="CY57" s="94"/>
       <c r="CZ57" s="74"/>
     </row>
-    <row r="58" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:104" s="69" customFormat="1">
       <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
@@ -27590,7 +27601,7 @@
       <c r="CY58" s="94"/>
       <c r="CZ58" s="74"/>
     </row>
-    <row r="59" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:104" s="69" customFormat="1">
       <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
@@ -27619,7 +27630,7 @@
       <c r="CY59" s="94"/>
       <c r="CZ59" s="74"/>
     </row>
-    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1">
       <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
@@ -27664,7 +27675,7 @@
       <c r="CY60" s="147"/>
       <c r="CZ60" s="148"/>
     </row>
-    <row r="61" spans="1:104" s="291" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:104" s="291" customFormat="1">
       <c r="A61" s="289" t="s">
         <v>93</v>
       </c>
@@ -27696,7 +27707,7 @@
       <c r="CY61" s="293"/>
       <c r="CZ61" s="295"/>
     </row>
-    <row r="62" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:104" s="70" customFormat="1">
       <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
@@ -27727,7 +27738,7 @@
       <c r="CY62" s="96"/>
       <c r="CZ62" s="75"/>
     </row>
-    <row r="63" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:104" s="70" customFormat="1">
       <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
@@ -27758,7 +27769,7 @@
       <c r="CY63" s="96"/>
       <c r="CZ63" s="75"/>
     </row>
-    <row r="64" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:104" s="70" customFormat="1">
       <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
@@ -27788,7 +27799,7 @@
       <c r="CY64" s="96"/>
       <c r="CZ64" s="75"/>
     </row>
-    <row r="65" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:104" s="70" customFormat="1">
       <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
@@ -27819,7 +27830,7 @@
       <c r="CY65" s="96"/>
       <c r="CZ65" s="75"/>
     </row>
-    <row r="66" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:104" s="70" customFormat="1">
       <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
@@ -27850,7 +27861,7 @@
       <c r="CY66" s="96"/>
       <c r="CZ66" s="75"/>
     </row>
-    <row r="67" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:104" s="70" customFormat="1">
       <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
@@ -27880,7 +27891,7 @@
       <c r="CY67" s="96"/>
       <c r="CZ67" s="75"/>
     </row>
-    <row r="68" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:104" s="70" customFormat="1">
       <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
@@ -27912,7 +27923,7 @@
       <c r="CY68" s="96"/>
       <c r="CZ68" s="75"/>
     </row>
-    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1">
       <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
@@ -27945,7 +27956,7 @@
       <c r="CY69" s="162"/>
       <c r="CZ69" s="163"/>
     </row>
-    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1">
       <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
@@ -27979,7 +27990,7 @@
       </c>
       <c r="CZ70" s="214"/>
     </row>
-    <row r="71" spans="1:104" s="151" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:104" s="151" customFormat="1">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
       <c r="P71" s="238"/>
@@ -28035,7 +28046,7 @@
       <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="97" bestFit="1" customWidth="1"/>
@@ -28113,7 +28124,7 @@
     <col min="105" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:104" s="100" customFormat="1">
       <c r="A1" s="77"/>
       <c r="B1" s="459" t="s">
         <v>103</v>
@@ -28231,7 +28242,7 @@
       <c r="CY1" s="464"/>
       <c r="CZ1" s="99"/>
     </row>
-    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -28543,7 +28554,7 @@
       </c>
       <c r="CZ2" s="208"/>
     </row>
-    <row r="3" spans="1:104" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:104" s="113" customFormat="1">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -28650,7 +28661,7 @@
       <c r="CY3" s="269"/>
       <c r="CZ3" s="209"/>
     </row>
-    <row r="4" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:104" s="64" customFormat="1">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -28700,7 +28711,7 @@
       <c r="CY4" s="87"/>
       <c r="CZ4" s="71"/>
     </row>
-    <row r="5" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:104" s="64" customFormat="1">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -28750,7 +28761,7 @@
       <c r="CY5" s="87"/>
       <c r="CZ5" s="71"/>
     </row>
-    <row r="6" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:104" s="64" customFormat="1">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -28802,7 +28813,7 @@
       <c r="CY6" s="87"/>
       <c r="CZ6" s="71"/>
     </row>
-    <row r="7" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:104" s="64" customFormat="1">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -28856,7 +28867,7 @@
       <c r="CY7" s="87"/>
       <c r="CZ7" s="71"/>
     </row>
-    <row r="8" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:104" s="64" customFormat="1">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -28908,7 +28919,7 @@
       <c r="CY8" s="87"/>
       <c r="CZ8" s="71"/>
     </row>
-    <row r="9" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:104" s="64" customFormat="1">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -28960,7 +28971,7 @@
       <c r="CY9" s="87"/>
       <c r="CZ9" s="71"/>
     </row>
-    <row r="10" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:104" s="64" customFormat="1">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -29012,7 +29023,7 @@
       <c r="CY10" s="87"/>
       <c r="CZ10" s="71"/>
     </row>
-    <row r="11" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:104" s="64" customFormat="1">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -29064,7 +29075,7 @@
       <c r="CY11" s="87"/>
       <c r="CZ11" s="71"/>
     </row>
-    <row r="12" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:104" s="64" customFormat="1">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -29115,7 +29126,7 @@
       <c r="CY12" s="87"/>
       <c r="CZ12" s="71"/>
     </row>
-    <row r="13" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:104" s="64" customFormat="1">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -29166,7 +29177,7 @@
       <c r="CY13" s="87"/>
       <c r="CZ13" s="71"/>
     </row>
-    <row r="14" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:104" s="64" customFormat="1">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -29217,7 +29228,7 @@
       <c r="CY14" s="87"/>
       <c r="CZ14" s="71"/>
     </row>
-    <row r="15" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:104" s="64" customFormat="1">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -29269,7 +29280,7 @@
       <c r="CY15" s="87"/>
       <c r="CZ15" s="71"/>
     </row>
-    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -29324,7 +29335,7 @@
       <c r="CY16" s="166"/>
       <c r="CZ16" s="118"/>
     </row>
-    <row r="17" spans="1:104" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:104" s="121" customFormat="1">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -29373,7 +29384,7 @@
       <c r="CY17" s="122"/>
       <c r="CZ17" s="123"/>
     </row>
-    <row r="18" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:104" s="66" customFormat="1">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -29420,7 +29431,7 @@
       <c r="CY18" s="90"/>
       <c r="CZ18" s="72"/>
     </row>
-    <row r="19" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:104" s="66" customFormat="1">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -29468,7 +29479,7 @@
       <c r="CY19" s="90"/>
       <c r="CZ19" s="72"/>
     </row>
-    <row r="20" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:104" s="66" customFormat="1">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -29516,7 +29527,7 @@
       <c r="CY20" s="90"/>
       <c r="CZ20" s="72"/>
     </row>
-    <row r="21" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:104" s="66" customFormat="1">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -29568,7 +29579,7 @@
       <c r="CY21" s="90"/>
       <c r="CZ21" s="72"/>
     </row>
-    <row r="22" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:104" s="66" customFormat="1">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -29617,7 +29628,7 @@
       <c r="CY22" s="90"/>
       <c r="CZ22" s="72"/>
     </row>
-    <row r="23" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:104" s="66" customFormat="1">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -29670,7 +29681,7 @@
       <c r="CY23" s="90"/>
       <c r="CZ23" s="72"/>
     </row>
-    <row r="24" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:104" s="66" customFormat="1">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -29717,7 +29728,7 @@
       <c r="CY24" s="90"/>
       <c r="CZ24" s="72"/>
     </row>
-    <row r="25" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:104" s="66" customFormat="1">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -29764,7 +29775,7 @@
       <c r="CY25" s="90"/>
       <c r="CZ25" s="72"/>
     </row>
-    <row r="26" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:104" s="66" customFormat="1">
       <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
@@ -29813,7 +29824,7 @@
       <c r="CY26" s="90"/>
       <c r="CZ26" s="72"/>
     </row>
-    <row r="27" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:104" s="66" customFormat="1">
       <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
@@ -29861,7 +29872,7 @@
       <c r="CY27" s="90"/>
       <c r="CZ27" s="72"/>
     </row>
-    <row r="28" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:104" s="66" customFormat="1">
       <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
@@ -29909,7 +29920,7 @@
       <c r="CY28" s="90"/>
       <c r="CZ28" s="72"/>
     </row>
-    <row r="29" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:104" s="66" customFormat="1">
       <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
@@ -29957,7 +29968,7 @@
       <c r="CY29" s="90"/>
       <c r="CZ29" s="72"/>
     </row>
-    <row r="30" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:104" s="66" customFormat="1">
       <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
@@ -30005,7 +30016,7 @@
       <c r="CY30" s="90"/>
       <c r="CZ30" s="72"/>
     </row>
-    <row r="31" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:104" s="66" customFormat="1">
       <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
@@ -30053,7 +30064,7 @@
       <c r="CY31" s="90"/>
       <c r="CZ31" s="72"/>
     </row>
-    <row r="32" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:104" s="66" customFormat="1">
       <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
@@ -30101,7 +30112,7 @@
       <c r="CY32" s="90"/>
       <c r="CZ32" s="72"/>
     </row>
-    <row r="33" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:104" s="66" customFormat="1">
       <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
@@ -30150,7 +30161,7 @@
       <c r="CY33" s="90"/>
       <c r="CZ33" s="72"/>
     </row>
-    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1">
       <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
@@ -30206,7 +30217,7 @@
       <c r="CY34" s="127"/>
       <c r="CZ34" s="128"/>
     </row>
-    <row r="35" spans="1:104" s="272" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:104" s="272" customFormat="1">
       <c r="A35" s="270" t="s">
         <v>97</v>
       </c>
@@ -30254,7 +30265,7 @@
       <c r="CY35" s="274"/>
       <c r="CZ35" s="276"/>
     </row>
-    <row r="36" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:104" s="68" customFormat="1">
       <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
@@ -30303,7 +30314,7 @@
       <c r="CY36" s="92"/>
       <c r="CZ36" s="73"/>
     </row>
-    <row r="37" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:104" s="68" customFormat="1">
       <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
@@ -30354,7 +30365,7 @@
       <c r="CY37" s="92"/>
       <c r="CZ37" s="73"/>
     </row>
-    <row r="38" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:104" s="68" customFormat="1">
       <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
@@ -30403,7 +30414,7 @@
       <c r="CY38" s="92"/>
       <c r="CZ38" s="73"/>
     </row>
-    <row r="39" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:104" s="68" customFormat="1">
       <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
@@ -30452,7 +30463,7 @@
       <c r="CY39" s="92"/>
       <c r="CZ39" s="73"/>
     </row>
-    <row r="40" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:104" s="174" customFormat="1">
       <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
@@ -30501,7 +30512,7 @@
       <c r="CY40" s="175"/>
       <c r="CZ40" s="176"/>
     </row>
-    <row r="41" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:104" s="174" customFormat="1">
       <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
@@ -30549,7 +30560,7 @@
       <c r="CY41" s="175"/>
       <c r="CZ41" s="176"/>
     </row>
-    <row r="42" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:104" s="174" customFormat="1">
       <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
@@ -30597,7 +30608,7 @@
       <c r="CY42" s="175"/>
       <c r="CZ42" s="176"/>
     </row>
-    <row r="43" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:104" s="174" customFormat="1">
       <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
@@ -30646,7 +30657,7 @@
       <c r="CY43" s="175"/>
       <c r="CZ43" s="176"/>
     </row>
-    <row r="44" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:104" s="174" customFormat="1">
       <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
@@ -30695,7 +30706,7 @@
       <c r="CY44" s="175"/>
       <c r="CZ44" s="176"/>
     </row>
-    <row r="45" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:104" s="174" customFormat="1">
       <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
@@ -30744,7 +30755,7 @@
       <c r="CY45" s="175"/>
       <c r="CZ45" s="176"/>
     </row>
-    <row r="46" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:104" s="68" customFormat="1">
       <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
@@ -30795,7 +30806,7 @@
       <c r="CY46" s="92"/>
       <c r="CZ46" s="73"/>
     </row>
-    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1">
       <c r="A47" s="279" t="s">
         <v>100</v>
       </c>
@@ -30855,7 +30866,7 @@
       <c r="CY47" s="283"/>
       <c r="CZ47" s="288"/>
     </row>
-    <row r="48" spans="1:104" s="141" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:104" s="141" customFormat="1">
       <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
@@ -30903,7 +30914,7 @@
       <c r="CY48" s="142"/>
       <c r="CZ48" s="143"/>
     </row>
-    <row r="49" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:104" s="69" customFormat="1">
       <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
@@ -30952,7 +30963,7 @@
       <c r="CY49" s="94"/>
       <c r="CZ49" s="74"/>
     </row>
-    <row r="50" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:104" s="69" customFormat="1">
       <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
@@ -31000,7 +31011,7 @@
       <c r="CY50" s="94"/>
       <c r="CZ50" s="74"/>
     </row>
-    <row r="51" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:104" s="69" customFormat="1">
       <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
@@ -31049,7 +31060,7 @@
       <c r="CY51" s="94"/>
       <c r="CZ51" s="74"/>
     </row>
-    <row r="52" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:104" s="69" customFormat="1">
       <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
@@ -31097,7 +31108,7 @@
       <c r="CY52" s="94"/>
       <c r="CZ52" s="74"/>
     </row>
-    <row r="53" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:104" s="69" customFormat="1">
       <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
@@ -31145,7 +31156,7 @@
       <c r="CY53" s="94"/>
       <c r="CZ53" s="74"/>
     </row>
-    <row r="54" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:104" s="69" customFormat="1">
       <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
@@ -31194,7 +31205,7 @@
       <c r="CY54" s="94"/>
       <c r="CZ54" s="74"/>
     </row>
-    <row r="55" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:104" s="69" customFormat="1">
       <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
@@ -31242,7 +31253,7 @@
       <c r="CY55" s="94"/>
       <c r="CZ55" s="74"/>
     </row>
-    <row r="56" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:104" s="69" customFormat="1">
       <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
@@ -31291,7 +31302,7 @@
       <c r="CY56" s="94"/>
       <c r="CZ56" s="74"/>
     </row>
-    <row r="57" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:104" s="69" customFormat="1">
       <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
@@ -31341,7 +31352,7 @@
       <c r="CY57" s="94"/>
       <c r="CZ57" s="74"/>
     </row>
-    <row r="58" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:104" s="69" customFormat="1">
       <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
@@ -31390,7 +31401,7 @@
       <c r="CY58" s="94"/>
       <c r="CZ58" s="74"/>
     </row>
-    <row r="59" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:104" s="69" customFormat="1">
       <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
@@ -31439,7 +31450,7 @@
       <c r="CY59" s="94"/>
       <c r="CZ59" s="74"/>
     </row>
-    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1">
       <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
@@ -31500,7 +31511,7 @@
       <c r="CY60" s="147"/>
       <c r="CZ60" s="148"/>
     </row>
-    <row r="61" spans="1:104" s="291" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:104" s="291" customFormat="1">
       <c r="A61" s="289" t="s">
         <v>93</v>
       </c>
@@ -31550,7 +31561,7 @@
       <c r="CY61" s="293"/>
       <c r="CZ61" s="295"/>
     </row>
-    <row r="62" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:104" s="70" customFormat="1">
       <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
@@ -31599,7 +31610,7 @@
       <c r="CY62" s="96"/>
       <c r="CZ62" s="75"/>
     </row>
-    <row r="63" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:104" s="70" customFormat="1">
       <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
@@ -31648,7 +31659,7 @@
       <c r="CY63" s="96"/>
       <c r="CZ63" s="75"/>
     </row>
-    <row r="64" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:104" s="70" customFormat="1">
       <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
@@ -31696,7 +31707,7 @@
       <c r="CY64" s="96"/>
       <c r="CZ64" s="75"/>
     </row>
-    <row r="65" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:104" s="70" customFormat="1">
       <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
@@ -31744,7 +31755,7 @@
       <c r="CY65" s="96"/>
       <c r="CZ65" s="75"/>
     </row>
-    <row r="66" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:104" s="70" customFormat="1">
       <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
@@ -31793,7 +31804,7 @@
       <c r="CY66" s="96"/>
       <c r="CZ66" s="75"/>
     </row>
-    <row r="67" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:104" s="70" customFormat="1">
       <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
@@ -31841,7 +31852,7 @@
       <c r="CY67" s="96"/>
       <c r="CZ67" s="75"/>
     </row>
-    <row r="68" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:104" s="70" customFormat="1">
       <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
@@ -31890,7 +31901,7 @@
       <c r="CY68" s="96"/>
       <c r="CZ68" s="75"/>
     </row>
-    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1">
       <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
@@ -31940,7 +31951,7 @@
       <c r="CY69" s="162"/>
       <c r="CZ69" s="163"/>
     </row>
-    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1">
       <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
@@ -31992,7 +32003,7 @@
       </c>
       <c r="CZ70" s="214"/>
     </row>
-    <row r="71" spans="1:104" s="151" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:104" s="151" customFormat="1">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
       <c r="C71" s="304"/>
@@ -32066,7 +32077,7 @@
       <selection pane="topRight" activeCell="CQ67" sqref="CQ67:CT67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="102.28515625" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="361"/>
@@ -32114,7 +32125,7 @@
     <col min="100" max="16384" width="6.5703125" style="334"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="350" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="350" customFormat="1">
       <c r="A1" s="77"/>
       <c r="B1" s="351"/>
       <c r="C1" s="344"/>
@@ -32139,7 +32150,7 @@
       <c r="CP1" s="344"/>
       <c r="CU1" s="344"/>
     </row>
-    <row r="2" spans="1:103" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" s="107" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -32450,7 +32461,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="343" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="343" customFormat="1">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -32480,7 +32491,7 @@
       <c r="CP3" s="344"/>
       <c r="CU3" s="344"/>
     </row>
-    <row r="4" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" s="332" customFormat="1">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -32510,7 +32521,7 @@
       <c r="CP4" s="333"/>
       <c r="CU4" s="333"/>
     </row>
-    <row r="5" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" s="332" customFormat="1">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -32540,7 +32551,7 @@
       <c r="CP5" s="333"/>
       <c r="CU5" s="333"/>
     </row>
-    <row r="6" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="332" customFormat="1">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -32576,7 +32587,7 @@
       <c r="CP6" s="333"/>
       <c r="CU6" s="333"/>
     </row>
-    <row r="7" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" s="332" customFormat="1">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -32610,7 +32621,7 @@
       <c r="CP7" s="333"/>
       <c r="CU7" s="333"/>
     </row>
-    <row r="8" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="332" customFormat="1">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -32645,7 +32656,7 @@
       <c r="CP8" s="333"/>
       <c r="CU8" s="333"/>
     </row>
-    <row r="9" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="332" customFormat="1">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -32679,7 +32690,7 @@
       <c r="CP9" s="333"/>
       <c r="CU9" s="333"/>
     </row>
-    <row r="10" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="332" customFormat="1">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -32713,7 +32724,7 @@
       <c r="CP10" s="333"/>
       <c r="CU10" s="333"/>
     </row>
-    <row r="11" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" s="332" customFormat="1">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -32748,7 +32759,7 @@
       <c r="CP11" s="333"/>
       <c r="CU11" s="333"/>
     </row>
-    <row r="12" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" s="332" customFormat="1">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -32782,7 +32793,7 @@
       <c r="CP12" s="333"/>
       <c r="CU12" s="333"/>
     </row>
-    <row r="13" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" s="332" customFormat="1">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -32816,7 +32827,7 @@
       <c r="CP13" s="333"/>
       <c r="CU13" s="333"/>
     </row>
-    <row r="14" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" s="332" customFormat="1">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -32847,7 +32858,7 @@
       <c r="CP14" s="333"/>
       <c r="CU14" s="333"/>
     </row>
-    <row r="15" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" s="332" customFormat="1">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -32878,7 +32889,7 @@
       <c r="CP15" s="333"/>
       <c r="CU15" s="333"/>
     </row>
-    <row r="16" spans="1:103" s="346" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" s="346" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -32910,7 +32921,7 @@
       <c r="CP16" s="347"/>
       <c r="CU16" s="347"/>
     </row>
-    <row r="17" spans="1:99" s="363" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:99" s="363" customFormat="1">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -32937,7 +32948,7 @@
       <c r="CP17" s="344"/>
       <c r="CU17" s="344"/>
     </row>
-    <row r="18" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:99" s="337" customFormat="1">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -32968,7 +32979,7 @@
       <c r="CP18" s="333"/>
       <c r="CU18" s="333"/>
     </row>
-    <row r="19" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:99" s="337" customFormat="1">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -32999,7 +33010,7 @@
       <c r="CP19" s="333"/>
       <c r="CU19" s="333"/>
     </row>
-    <row r="20" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:99" s="337" customFormat="1">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -33027,7 +33038,7 @@
       <c r="CP20" s="333"/>
       <c r="CU20" s="333"/>
     </row>
-    <row r="21" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:99" s="337" customFormat="1">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -33055,7 +33066,7 @@
       <c r="CP21" s="333"/>
       <c r="CU21" s="333"/>
     </row>
-    <row r="22" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:99" s="337" customFormat="1">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -33084,7 +33095,7 @@
       <c r="CP22" s="333"/>
       <c r="CU22" s="333"/>
     </row>
-    <row r="23" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:99" s="337" customFormat="1">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -33116,7 +33127,7 @@
       <c r="CP23" s="333"/>
       <c r="CU23" s="333"/>
     </row>
-    <row r="24" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:99" s="337" customFormat="1">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -33143,7 +33154,7 @@
       <c r="CP24" s="333"/>
       <c r="CU24" s="333"/>
     </row>
-    <row r="25" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:99" s="337" customFormat="1">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -33175,7 +33186,7 @@
       <c r="CP25" s="333"/>
       <c r="CU25" s="333"/>
     </row>
-    <row r="26" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:99" s="337" customFormat="1">
       <c r="A26" s="81" t="s">
         <v>127</v>
       </c>
@@ -33207,7 +33218,7 @@
       <c r="CP26" s="333"/>
       <c r="CU26" s="333"/>
     </row>
-    <row r="27" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:99" s="337" customFormat="1">
       <c r="A27" s="81" t="s">
         <v>128</v>
       </c>
@@ -33241,7 +33252,7 @@
       <c r="CP27" s="333"/>
       <c r="CU27" s="333"/>
     </row>
-    <row r="28" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:99" s="337" customFormat="1">
       <c r="A28" s="81" t="s">
         <v>129</v>
       </c>
@@ -33275,7 +33286,7 @@
       <c r="CP28" s="333"/>
       <c r="CU28" s="333"/>
     </row>
-    <row r="29" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:99" s="337" customFormat="1">
       <c r="A29" s="81" t="s">
         <v>130</v>
       </c>
@@ -33306,7 +33317,7 @@
       <c r="CP29" s="333"/>
       <c r="CU29" s="333"/>
     </row>
-    <row r="30" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:99" s="337" customFormat="1">
       <c r="A30" s="80" t="s">
         <v>20</v>
       </c>
@@ -33334,7 +33345,7 @@
       <c r="CP30" s="333"/>
       <c r="CU30" s="333"/>
     </row>
-    <row r="31" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:99" s="337" customFormat="1">
       <c r="A31" s="80" t="s">
         <v>24</v>
       </c>
@@ -33361,7 +33372,7 @@
       <c r="CP31" s="333"/>
       <c r="CU31" s="333"/>
     </row>
-    <row r="32" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:99" s="337" customFormat="1">
       <c r="A32" s="80" t="s">
         <v>28</v>
       </c>
@@ -33389,7 +33400,7 @@
       <c r="CP32" s="333"/>
       <c r="CU32" s="333"/>
     </row>
-    <row r="33" spans="1:99" s="365" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:99" s="365" customFormat="1" ht="15.75" thickBot="1">
       <c r="A33" s="124" t="s">
         <v>99</v>
       </c>
@@ -33426,7 +33437,7 @@
       <c r="CP33" s="347"/>
       <c r="CU33" s="347"/>
     </row>
-    <row r="34" spans="1:99" s="367" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:99" s="367" customFormat="1">
       <c r="A34" s="129" t="s">
         <v>97</v>
       </c>
@@ -33453,7 +33464,7 @@
       <c r="CP34" s="344"/>
       <c r="CU34" s="344"/>
     </row>
-    <row r="35" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:99" s="339" customFormat="1">
       <c r="A35" s="82" t="s">
         <v>2</v>
       </c>
@@ -33484,7 +33495,7 @@
       <c r="CP35" s="333"/>
       <c r="CU35" s="333"/>
     </row>
-    <row r="36" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:99" s="339" customFormat="1">
       <c r="A36" s="82" t="s">
         <v>3</v>
       </c>
@@ -33516,7 +33527,7 @@
       <c r="CP36" s="333"/>
       <c r="CU36" s="333"/>
     </row>
-    <row r="37" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:99" s="339" customFormat="1">
       <c r="A37" s="82" t="s">
         <v>1</v>
       </c>
@@ -33547,7 +33558,7 @@
       <c r="CP37" s="333"/>
       <c r="CU37" s="333"/>
     </row>
-    <row r="38" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:99" s="339" customFormat="1">
       <c r="A38" s="82" t="s">
         <v>0</v>
       </c>
@@ -33581,7 +33592,7 @@
       <c r="CP38" s="333"/>
       <c r="CU38" s="333"/>
     </row>
-    <row r="39" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:99" s="339" customFormat="1">
       <c r="A39" s="172" t="s">
         <v>109</v>
       </c>
@@ -33612,7 +33623,7 @@
       <c r="CP39" s="333"/>
       <c r="CU39" s="333"/>
     </row>
-    <row r="40" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:99" s="339" customFormat="1">
       <c r="A40" s="172" t="s">
         <v>127</v>
       </c>
@@ -33642,7 +33653,7 @@
       <c r="CP40" s="333"/>
       <c r="CU40" s="333"/>
     </row>
-    <row r="41" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:99" s="339" customFormat="1">
       <c r="A41" s="172" t="s">
         <v>128</v>
       </c>
@@ -33673,7 +33684,7 @@
       <c r="CP41" s="333"/>
       <c r="CU41" s="333"/>
     </row>
-    <row r="42" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:99" s="339" customFormat="1">
       <c r="A42" s="172" t="s">
         <v>129</v>
       </c>
@@ -33703,7 +33714,7 @@
       <c r="CP42" s="333"/>
       <c r="CU42" s="333"/>
     </row>
-    <row r="43" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:99" s="339" customFormat="1">
       <c r="A43" s="172" t="s">
         <v>130</v>
       </c>
@@ -33734,7 +33745,7 @@
       <c r="CP43" s="333"/>
       <c r="CU43" s="333"/>
     </row>
-    <row r="44" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:99" s="339" customFormat="1">
       <c r="A44" s="82" t="s">
         <v>4</v>
       </c>
@@ -33762,7 +33773,7 @@
       <c r="CP44" s="333"/>
       <c r="CU44" s="333"/>
     </row>
-    <row r="45" spans="1:99" s="369" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:99" s="369" customFormat="1" ht="15.75" thickBot="1">
       <c r="A45" s="134" t="s">
         <v>100</v>
       </c>
@@ -33798,7 +33809,7 @@
       <c r="CP45" s="347"/>
       <c r="CU45" s="347"/>
     </row>
-    <row r="46" spans="1:99" s="371" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:99" s="371" customFormat="1">
       <c r="A46" s="139" t="s">
         <v>98</v>
       </c>
@@ -33825,7 +33836,7 @@
       <c r="CP46" s="344"/>
       <c r="CU46" s="344"/>
     </row>
-    <row r="47" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:99" s="340" customFormat="1">
       <c r="A47" s="83" t="s">
         <v>29</v>
       </c>
@@ -33856,7 +33867,7 @@
       <c r="CP47" s="333"/>
       <c r="CU47" s="333"/>
     </row>
-    <row r="48" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:99" s="340" customFormat="1">
       <c r="A48" s="83" t="s">
         <v>31</v>
       </c>
@@ -33887,7 +33898,7 @@
       <c r="CP48" s="333"/>
       <c r="CU48" s="333"/>
     </row>
-    <row r="49" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:99" s="340" customFormat="1">
       <c r="A49" s="83" t="s">
         <v>35</v>
       </c>
@@ -33919,7 +33930,7 @@
       <c r="CP49" s="333"/>
       <c r="CU49" s="333"/>
     </row>
-    <row r="50" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:99" s="340" customFormat="1">
       <c r="A50" s="83" t="s">
         <v>30</v>
       </c>
@@ -33950,7 +33961,7 @@
       <c r="CP50" s="333"/>
       <c r="CU50" s="333"/>
     </row>
-    <row r="51" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:99" s="340" customFormat="1">
       <c r="A51" s="83" t="s">
         <v>33</v>
       </c>
@@ -33978,7 +33989,7 @@
       <c r="CP51" s="333"/>
       <c r="CU51" s="333"/>
     </row>
-    <row r="52" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:99" s="340" customFormat="1">
       <c r="A52" s="83" t="s">
         <v>34</v>
       </c>
@@ -34006,7 +34017,7 @@
       <c r="CP52" s="333"/>
       <c r="CU52" s="333"/>
     </row>
-    <row r="53" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:99" s="340" customFormat="1">
       <c r="A53" s="83" t="s">
         <v>32</v>
       </c>
@@ -34034,7 +34045,7 @@
       <c r="CP53" s="333"/>
       <c r="CU53" s="333"/>
     </row>
-    <row r="54" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:99" s="340" customFormat="1">
       <c r="A54" s="181" t="s">
         <v>109</v>
       </c>
@@ -34067,7 +34078,7 @@
       <c r="CP54" s="333"/>
       <c r="CU54" s="333"/>
     </row>
-    <row r="55" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:99" s="340" customFormat="1">
       <c r="A55" s="181" t="s">
         <v>131</v>
       </c>
@@ -34103,7 +34114,7 @@
       <c r="CP55" s="333"/>
       <c r="CU55" s="333"/>
     </row>
-    <row r="56" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:99" s="340" customFormat="1">
       <c r="A56" s="181" t="s">
         <v>132</v>
       </c>
@@ -34137,7 +34148,7 @@
       <c r="CP56" s="333"/>
       <c r="CU56" s="333"/>
     </row>
-    <row r="57" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:99" s="340" customFormat="1">
       <c r="A57" s="181" t="s">
         <v>133</v>
       </c>
@@ -34168,7 +34179,7 @@
       <c r="CP57" s="333"/>
       <c r="CU57" s="333"/>
     </row>
-    <row r="58" spans="1:99" s="373" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:99" s="373" customFormat="1" ht="15.75" thickBot="1">
       <c r="A58" s="144" t="s">
         <v>101</v>
       </c>
@@ -34207,7 +34218,7 @@
       <c r="CP58" s="347"/>
       <c r="CU58" s="347"/>
     </row>
-    <row r="59" spans="1:99" s="375" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:99" s="375" customFormat="1">
       <c r="A59" s="154" t="s">
         <v>93</v>
       </c>
@@ -34234,7 +34245,7 @@
       <c r="CP59" s="344"/>
       <c r="CU59" s="344"/>
     </row>
-    <row r="60" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:99" s="341" customFormat="1">
       <c r="A60" s="85" t="s">
         <v>5</v>
       </c>
@@ -34263,7 +34274,7 @@
       <c r="CP60" s="333"/>
       <c r="CU60" s="333"/>
     </row>
-    <row r="61" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:99" s="341" customFormat="1">
       <c r="A61" s="85" t="s">
         <v>12</v>
       </c>
@@ -34291,7 +34302,7 @@
       <c r="CP61" s="333"/>
       <c r="CU61" s="333"/>
     </row>
-    <row r="62" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:99" s="341" customFormat="1">
       <c r="A62" s="84" t="s">
         <v>96</v>
       </c>
@@ -34318,7 +34329,7 @@
       <c r="CP62" s="333"/>
       <c r="CU62" s="333"/>
     </row>
-    <row r="63" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:99" s="341" customFormat="1">
       <c r="A63" s="85" t="s">
         <v>25</v>
       </c>
@@ -34347,7 +34358,7 @@
       <c r="CP63" s="333"/>
       <c r="CU63" s="333"/>
     </row>
-    <row r="64" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:99" s="341" customFormat="1">
       <c r="A64" s="85" t="s">
         <v>26</v>
       </c>
@@ -34376,7 +34387,7 @@
       <c r="CP64" s="333"/>
       <c r="CU64" s="333"/>
     </row>
-    <row r="65" spans="1:103" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:103" s="341" customFormat="1">
       <c r="A65" s="84" t="s">
         <v>97</v>
       </c>
@@ -34403,7 +34414,7 @@
       <c r="CP65" s="333"/>
       <c r="CU65" s="333"/>
     </row>
-    <row r="66" spans="1:103" s="341" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:103" s="341" customFormat="1">
       <c r="A66" s="85" t="s">
         <v>0</v>
       </c>
@@ -34432,7 +34443,7 @@
       <c r="CP66" s="333"/>
       <c r="CU66" s="333"/>
     </row>
-    <row r="67" spans="1:103" s="377" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:103" s="377" customFormat="1" ht="15.75" thickBot="1">
       <c r="A67" s="159" t="s">
         <v>102</v>
       </c>
@@ -34465,7 +34476,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:103" s="382" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:103" s="382" customFormat="1" ht="15.75" thickBot="1">
       <c r="A68" s="210" t="s">
         <v>120</v>
       </c>
@@ -34495,7 +34506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:103" s="379" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:103" s="379" customFormat="1">
       <c r="A69" s="149"/>
       <c r="B69" s="378"/>
       <c r="C69" s="342"/>
@@ -34528,13 +34539,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="414"/>
     <col min="2" max="2" width="5.85546875" style="414" bestFit="1" customWidth="1"/>
@@ -34544,7 +34555,7 @@
     <col min="6" max="16384" width="5.5703125" style="414"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="416" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="416" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="415"/>
       <c r="B1" s="396" t="s">
         <v>140</v>
@@ -34559,7 +34570,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="417" customFormat="1" ht="45">
       <c r="A2" s="471" t="s">
         <v>142</v>
       </c>
@@ -34567,12 +34578,12 @@
         <v>43670</v>
       </c>
       <c r="C2" s="427" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="428"/>
       <c r="E2" s="428"/>
     </row>
-    <row r="3" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="418" customFormat="1">
       <c r="A3" s="472"/>
       <c r="B3" s="398">
         <v>43671</v>
@@ -34581,20 +34592,21 @@
       <c r="D3" s="429"/>
       <c r="E3" s="429"/>
     </row>
-    <row r="4" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="419" customFormat="1" ht="60">
       <c r="A4" s="472"/>
       <c r="B4" s="399">
         <v>43672</v>
       </c>
       <c r="C4" s="430" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="431" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="E4" s="431"/>
-    </row>
-    <row r="5" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="P4" s="477"/>
+    </row>
+    <row r="5" spans="1:16" s="420" customFormat="1" ht="45">
       <c r="A5" s="472"/>
       <c r="B5" s="400">
         <v>43675</v>
@@ -34603,11 +34615,11 @@
         <v>147</v>
       </c>
       <c r="D5" s="433" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="433"/>
     </row>
-    <row r="6" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="420" customFormat="1">
       <c r="A6" s="472"/>
       <c r="B6" s="400">
         <v>43676</v>
@@ -34620,20 +34632,20 @@
       </c>
       <c r="E6" s="433"/>
     </row>
-    <row r="7" spans="1:5" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="420" customFormat="1" ht="60">
       <c r="A7" s="472"/>
       <c r="B7" s="400">
         <v>43677</v>
       </c>
       <c r="C7" s="432" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="432" t="s">
         <v>156</v>
       </c>
       <c r="E7" s="433"/>
     </row>
-    <row r="8" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="418" customFormat="1">
       <c r="A8" s="472"/>
       <c r="B8" s="398">
         <v>43678</v>
@@ -34642,33 +34654,33 @@
       <c r="D8" s="429"/>
       <c r="E8" s="429"/>
     </row>
-    <row r="9" spans="1:5" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="420" customFormat="1" ht="45">
       <c r="A9" s="472"/>
       <c r="B9" s="400">
         <v>43679</v>
       </c>
       <c r="C9" s="432" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="432" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" s="433"/>
     </row>
-    <row r="10" spans="1:5" s="419" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="419" customFormat="1" ht="51" customHeight="1">
       <c r="A10" s="472"/>
       <c r="B10" s="399">
         <v>43682</v>
       </c>
       <c r="C10" s="430" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="430" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="431"/>
     </row>
-    <row r="11" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="419" customFormat="1">
       <c r="A11" s="472"/>
       <c r="B11" s="399">
         <v>43683</v>
@@ -34681,7 +34693,7 @@
       </c>
       <c r="E11" s="431"/>
     </row>
-    <row r="12" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="419" customFormat="1">
       <c r="A12" s="472"/>
       <c r="B12" s="399">
         <v>43684</v>
@@ -34694,7 +34706,7 @@
       </c>
       <c r="E12" s="431"/>
     </row>
-    <row r="13" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="418" customFormat="1">
       <c r="A13" s="472"/>
       <c r="B13" s="398">
         <v>43685</v>
@@ -34703,20 +34715,20 @@
       <c r="D13" s="429"/>
       <c r="E13" s="429"/>
     </row>
-    <row r="14" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="419" customFormat="1">
       <c r="A14" s="472"/>
       <c r="B14" s="399">
         <v>43686</v>
       </c>
       <c r="C14" s="431" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="431" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="431" t="s">
-        <v>186</v>
-      </c>
       <c r="E14" s="431"/>
     </row>
-    <row r="15" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="420" customFormat="1">
       <c r="A15" s="472"/>
       <c r="B15" s="400">
         <v>43689</v>
@@ -34729,7 +34741,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="420" customFormat="1">
       <c r="A16" s="472"/>
       <c r="B16" s="400">
         <v>43690</v>
@@ -34740,7 +34752,7 @@
       <c r="D16" s="433"/>
       <c r="E16" s="433"/>
     </row>
-    <row r="17" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="420" customFormat="1">
       <c r="A17" s="472"/>
       <c r="B17" s="400">
         <v>43691</v>
@@ -34751,7 +34763,7 @@
       <c r="D17" s="433"/>
       <c r="E17" s="433"/>
     </row>
-    <row r="18" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="418" customFormat="1">
       <c r="A18" s="472"/>
       <c r="B18" s="398">
         <v>43692</v>
@@ -34760,7 +34772,7 @@
       <c r="D18" s="429"/>
       <c r="E18" s="429"/>
     </row>
-    <row r="19" spans="1:5" s="421" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="421" customFormat="1" ht="15.75" thickBot="1">
       <c r="A19" s="473"/>
       <c r="B19" s="401">
         <v>43693</v>
@@ -34771,7 +34783,7 @@
       <c r="D19" s="434"/>
       <c r="E19" s="434"/>
     </row>
-    <row r="20" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="417" customFormat="1" ht="45">
       <c r="A20" s="468" t="s">
         <v>143</v>
       </c>
@@ -34779,40 +34791,40 @@
         <v>43696</v>
       </c>
       <c r="C20" s="427" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D20" s="442" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" s="428"/>
     </row>
-    <row r="21" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="419" customFormat="1" ht="45">
       <c r="A21" s="469"/>
       <c r="B21" s="403">
         <v>43697</v>
       </c>
       <c r="C21" s="440" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D21" s="430" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" s="441"/>
     </row>
-    <row r="22" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="419" customFormat="1" ht="60">
       <c r="A22" s="469"/>
       <c r="B22" s="403">
         <v>43698</v>
       </c>
       <c r="C22" s="431" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22" s="443" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" s="431"/>
     </row>
-    <row r="23" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="418" customFormat="1">
       <c r="A23" s="469"/>
       <c r="B23" s="404">
         <v>43699</v>
@@ -34821,57 +34833,57 @@
       <c r="D23" s="429"/>
       <c r="E23" s="429"/>
     </row>
-    <row r="24" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="419" customFormat="1">
       <c r="A24" s="469"/>
       <c r="B24" s="403">
         <v>43700</v>
       </c>
       <c r="C24" s="431"/>
       <c r="D24" s="431" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="431"/>
     </row>
-    <row r="25" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="420" customFormat="1" ht="30">
       <c r="A25" s="469"/>
       <c r="B25" s="405">
         <v>43703</v>
       </c>
       <c r="C25" s="432" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="432" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="432" t="s">
-        <v>168</v>
-      </c>
       <c r="E25" s="433"/>
     </row>
-    <row r="26" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="420" customFormat="1" ht="30">
       <c r="A26" s="469"/>
       <c r="B26" s="405">
         <v>43704</v>
       </c>
       <c r="C26" s="432" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D26" s="432" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E26" s="433"/>
     </row>
-    <row r="27" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="420" customFormat="1" ht="30">
       <c r="A27" s="469"/>
       <c r="B27" s="405">
         <v>43705</v>
       </c>
       <c r="C27" s="433" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D27" s="432" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E27" s="433"/>
     </row>
-    <row r="28" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="418" customFormat="1">
       <c r="A28" s="469"/>
       <c r="B28" s="404">
         <v>43706</v>
@@ -34880,53 +34892,53 @@
       <c r="D28" s="429"/>
       <c r="E28" s="429"/>
     </row>
-    <row r="29" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="420" customFormat="1">
       <c r="A29" s="469"/>
       <c r="B29" s="405">
         <v>43707</v>
       </c>
       <c r="C29" s="433"/>
       <c r="D29" s="433" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E29" s="433"/>
     </row>
-    <row r="30" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="419" customFormat="1" ht="45">
       <c r="A30" s="469"/>
       <c r="B30" s="403">
         <v>43710</v>
       </c>
       <c r="C30" s="430" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D30" s="431"/>
       <c r="E30" s="431"/>
     </row>
-    <row r="31" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="419" customFormat="1">
       <c r="A31" s="469"/>
       <c r="B31" s="403">
         <v>43711</v>
       </c>
       <c r="C31" s="431"/>
       <c r="D31" s="431" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="431"/>
     </row>
-    <row r="32" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="419" customFormat="1">
       <c r="A32" s="469"/>
       <c r="B32" s="403">
         <v>43712</v>
       </c>
       <c r="C32" s="431" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="431" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" s="431"/>
     </row>
-    <row r="33" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="418" customFormat="1">
       <c r="A33" s="469"/>
       <c r="B33" s="404">
         <v>43713</v>
@@ -34935,7 +34947,7 @@
       <c r="D33" s="429"/>
       <c r="E33" s="429"/>
     </row>
-    <row r="34" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="419" customFormat="1">
       <c r="A34" s="469"/>
       <c r="B34" s="403">
         <v>43714</v>
@@ -34946,7 +34958,7 @@
       <c r="D34" s="431"/>
       <c r="E34" s="431"/>
     </row>
-    <row r="35" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="420" customFormat="1">
       <c r="A35" s="469"/>
       <c r="B35" s="405">
         <v>43717</v>
@@ -34957,7 +34969,7 @@
       <c r="D35" s="433"/>
       <c r="E35" s="433"/>
     </row>
-    <row r="36" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="420" customFormat="1">
       <c r="A36" s="469"/>
       <c r="B36" s="405">
         <v>43718</v>
@@ -34968,7 +34980,7 @@
       <c r="D36" s="433"/>
       <c r="E36" s="433"/>
     </row>
-    <row r="37" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="420" customFormat="1">
       <c r="A37" s="469"/>
       <c r="B37" s="405">
         <v>43719</v>
@@ -34979,7 +34991,7 @@
       <c r="D37" s="433"/>
       <c r="E37" s="433"/>
     </row>
-    <row r="38" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="418" customFormat="1">
       <c r="A38" s="469"/>
       <c r="B38" s="404">
         <v>43720</v>
@@ -34988,7 +35000,7 @@
       <c r="D38" s="429"/>
       <c r="E38" s="429"/>
     </row>
-    <row r="39" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="420" customFormat="1">
       <c r="A39" s="469"/>
       <c r="B39" s="405">
         <v>43721</v>
@@ -34999,7 +35011,7 @@
       <c r="D39" s="433"/>
       <c r="E39" s="433"/>
     </row>
-    <row r="40" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="419" customFormat="1">
       <c r="A40" s="469"/>
       <c r="B40" s="403">
         <v>43724</v>
@@ -35010,7 +35022,7 @@
       <c r="D40" s="431"/>
       <c r="E40" s="431"/>
     </row>
-    <row r="41" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="419" customFormat="1">
       <c r="A41" s="469"/>
       <c r="B41" s="403">
         <v>43725</v>
@@ -35021,7 +35033,7 @@
       <c r="D41" s="431"/>
       <c r="E41" s="431"/>
     </row>
-    <row r="42" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="419" customFormat="1">
       <c r="A42" s="469"/>
       <c r="B42" s="403">
         <v>43726</v>
@@ -35032,7 +35044,7 @@
       <c r="D42" s="431"/>
       <c r="E42" s="431"/>
     </row>
-    <row r="43" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="418" customFormat="1">
       <c r="A43" s="469"/>
       <c r="B43" s="404">
         <v>43727</v>
@@ -35041,7 +35053,7 @@
       <c r="D43" s="429"/>
       <c r="E43" s="429"/>
     </row>
-    <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1">
       <c r="A44" s="470"/>
       <c r="B44" s="406">
         <v>43728</v>
@@ -35052,7 +35064,7 @@
       <c r="D44" s="435"/>
       <c r="E44" s="435"/>
     </row>
-    <row r="45" spans="1:5" s="423" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="423" customFormat="1" ht="45">
       <c r="A45" s="474" t="s">
         <v>144</v>
       </c>
@@ -35060,40 +35072,40 @@
         <v>43731</v>
       </c>
       <c r="C45" s="444" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D45" s="433" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E45" s="436"/>
     </row>
-    <row r="46" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="420" customFormat="1">
       <c r="A46" s="475"/>
       <c r="B46" s="408">
         <v>43732</v>
       </c>
       <c r="C46" s="433" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D46" s="433" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E46" s="433"/>
     </row>
-    <row r="47" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="420" customFormat="1" ht="30">
       <c r="A47" s="475"/>
       <c r="B47" s="408">
         <v>43733</v>
       </c>
       <c r="C47" s="432" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47" s="433" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="433"/>
     </row>
-    <row r="48" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="418" customFormat="1">
       <c r="A48" s="475"/>
       <c r="B48" s="409">
         <v>43734</v>
@@ -35102,51 +35114,51 @@
       <c r="D48" s="429"/>
       <c r="E48" s="429"/>
     </row>
-    <row r="49" spans="1:5" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="420" customFormat="1" ht="60">
       <c r="A49" s="475"/>
       <c r="B49" s="408">
         <v>43735</v>
       </c>
       <c r="C49" s="432" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D49" s="433"/>
       <c r="E49" s="433"/>
     </row>
-    <row r="50" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="419" customFormat="1" ht="45">
       <c r="A50" s="475"/>
       <c r="B50" s="410">
         <v>43738</v>
       </c>
       <c r="C50" s="430" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D50" s="431"/>
       <c r="E50" s="431"/>
     </row>
-    <row r="51" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="419" customFormat="1" ht="30">
       <c r="A51" s="475"/>
       <c r="B51" s="410">
         <v>43739</v>
       </c>
       <c r="C51" s="430" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D51" s="431"/>
       <c r="E51" s="431"/>
     </row>
-    <row r="52" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="419" customFormat="1">
       <c r="A52" s="475"/>
       <c r="B52" s="410">
         <v>43740</v>
       </c>
       <c r="C52" s="431" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D52" s="431"/>
       <c r="E52" s="431"/>
     </row>
-    <row r="53" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="418" customFormat="1">
       <c r="A53" s="475"/>
       <c r="B53" s="409">
         <v>43741</v>
@@ -35155,29 +35167,29 @@
       <c r="D53" s="429"/>
       <c r="E53" s="429"/>
     </row>
-    <row r="54" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="419" customFormat="1" ht="30">
       <c r="A54" s="475"/>
       <c r="B54" s="410">
         <v>43742</v>
       </c>
       <c r="C54" s="430" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D54" s="431"/>
       <c r="E54" s="431"/>
     </row>
-    <row r="55" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" s="420" customFormat="1">
       <c r="A55" s="475"/>
       <c r="B55" s="408">
         <v>43745</v>
       </c>
       <c r="C55" s="433" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D55" s="433"/>
       <c r="E55" s="433"/>
     </row>
-    <row r="56" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="420" customFormat="1">
       <c r="A56" s="475"/>
       <c r="B56" s="408">
         <v>43746</v>
@@ -35188,7 +35200,7 @@
       <c r="D56" s="433"/>
       <c r="E56" s="433"/>
     </row>
-    <row r="57" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="420" customFormat="1">
       <c r="A57" s="475"/>
       <c r="B57" s="408">
         <v>43747</v>
@@ -35199,7 +35211,7 @@
       <c r="D57" s="433"/>
       <c r="E57" s="433"/>
     </row>
-    <row r="58" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="418" customFormat="1">
       <c r="A58" s="475"/>
       <c r="B58" s="409">
         <v>43748</v>
@@ -35208,7 +35220,7 @@
       <c r="D58" s="429"/>
       <c r="E58" s="429"/>
     </row>
-    <row r="59" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="420" customFormat="1">
       <c r="A59" s="475"/>
       <c r="B59" s="408">
         <v>43749</v>
@@ -35219,7 +35231,7 @@
       <c r="D59" s="433"/>
       <c r="E59" s="433"/>
     </row>
-    <row r="60" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" s="419" customFormat="1">
       <c r="A60" s="475"/>
       <c r="B60" s="410">
         <v>43754</v>
@@ -35230,7 +35242,7 @@
       <c r="D60" s="431"/>
       <c r="E60" s="431"/>
     </row>
-    <row r="61" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" s="418" customFormat="1">
       <c r="A61" s="475"/>
       <c r="B61" s="409">
         <v>43755</v>
@@ -35239,7 +35251,7 @@
       <c r="D61" s="429"/>
       <c r="E61" s="429"/>
     </row>
-    <row r="62" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" s="419" customFormat="1">
       <c r="A62" s="475"/>
       <c r="B62" s="410">
         <v>43756</v>
@@ -35250,7 +35262,7 @@
       <c r="D62" s="431"/>
       <c r="E62" s="431"/>
     </row>
-    <row r="63" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" s="420" customFormat="1">
       <c r="A63" s="475"/>
       <c r="B63" s="408">
         <v>43759</v>
@@ -35261,7 +35273,7 @@
       <c r="D63" s="433"/>
       <c r="E63" s="433"/>
     </row>
-    <row r="64" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" s="420" customFormat="1">
       <c r="A64" s="475"/>
       <c r="B64" s="408">
         <v>43760</v>
@@ -35272,7 +35284,7 @@
       <c r="D64" s="433"/>
       <c r="E64" s="433"/>
     </row>
-    <row r="65" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" s="420" customFormat="1">
       <c r="A65" s="475"/>
       <c r="B65" s="408">
         <v>43761</v>
@@ -35283,7 +35295,7 @@
       <c r="D65" s="433"/>
       <c r="E65" s="433"/>
     </row>
-    <row r="66" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1">
       <c r="A66" s="476"/>
       <c r="B66" s="411">
         <v>43762</v>
@@ -35292,7 +35304,7 @@
       <c r="D66" s="437"/>
       <c r="E66" s="437"/>
     </row>
-    <row r="67" spans="1:5" s="423" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="423" customFormat="1" ht="60">
       <c r="A67" s="474" t="s">
         <v>145</v>
       </c>
@@ -35300,51 +35312,51 @@
         <v>43763</v>
       </c>
       <c r="C67" s="444" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="436"/>
       <c r="E67" s="436"/>
     </row>
-    <row r="68" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="419" customFormat="1">
       <c r="A68" s="475"/>
       <c r="B68" s="410">
         <v>43766</v>
       </c>
       <c r="C68" s="431" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="431" t="s">
         <v>189</v>
       </c>
-      <c r="D68" s="431" t="s">
-        <v>190</v>
-      </c>
       <c r="E68" s="431"/>
     </row>
-    <row r="69" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" s="419" customFormat="1">
       <c r="A69" s="475"/>
       <c r="B69" s="410">
         <v>43767</v>
       </c>
       <c r="C69" s="431" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="431" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E69" s="431"/>
     </row>
-    <row r="70" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="419" customFormat="1">
       <c r="A70" s="475"/>
       <c r="B70" s="410">
         <v>43768</v>
       </c>
       <c r="C70" s="430" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D70" s="431" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E70" s="431"/>
     </row>
-    <row r="71" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" s="418" customFormat="1">
       <c r="A71" s="475"/>
       <c r="B71" s="409">
         <v>43769</v>
@@ -35353,55 +35365,55 @@
       <c r="D71" s="429"/>
       <c r="E71" s="429"/>
     </row>
-    <row r="72" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" s="419" customFormat="1">
       <c r="A72" s="475"/>
       <c r="B72" s="410">
         <v>43770</v>
       </c>
       <c r="C72" s="431" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="431"/>
       <c r="E72" s="431"/>
     </row>
-    <row r="73" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="420" customFormat="1">
       <c r="A73" s="475"/>
       <c r="B73" s="408">
         <v>43773</v>
       </c>
       <c r="C73" s="433" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D73" s="433" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E73" s="433"/>
     </row>
-    <row r="74" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" s="420" customFormat="1">
       <c r="A74" s="475"/>
       <c r="B74" s="408">
         <v>43774</v>
       </c>
       <c r="C74" s="433" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D74" s="433" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E74" s="433"/>
     </row>
-    <row r="75" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" s="420" customFormat="1">
       <c r="A75" s="475"/>
       <c r="B75" s="408">
         <v>43775</v>
       </c>
       <c r="C75" s="433" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D75" s="433"/>
       <c r="E75" s="433"/>
     </row>
-    <row r="76" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" s="418" customFormat="1">
       <c r="A76" s="475"/>
       <c r="B76" s="409">
         <v>43776</v>
@@ -35410,7 +35422,7 @@
       <c r="D76" s="429"/>
       <c r="E76" s="429"/>
     </row>
-    <row r="77" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="420" customFormat="1">
       <c r="A77" s="475"/>
       <c r="B77" s="408">
         <v>43777</v>
@@ -35421,7 +35433,7 @@
       <c r="D77" s="433"/>
       <c r="E77" s="433"/>
     </row>
-    <row r="78" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="419" customFormat="1">
       <c r="A78" s="475"/>
       <c r="B78" s="410">
         <v>43780</v>
@@ -35432,7 +35444,7 @@
       <c r="D78" s="431"/>
       <c r="E78" s="431"/>
     </row>
-    <row r="79" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="419" customFormat="1">
       <c r="A79" s="475"/>
       <c r="B79" s="410">
         <v>43781</v>
@@ -35443,7 +35455,7 @@
       <c r="D79" s="431"/>
       <c r="E79" s="431"/>
     </row>
-    <row r="80" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="419" customFormat="1">
       <c r="A80" s="475"/>
       <c r="B80" s="410">
         <v>43782</v>
@@ -35454,7 +35466,7 @@
       <c r="D80" s="431"/>
       <c r="E80" s="431"/>
     </row>
-    <row r="81" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="418" customFormat="1">
       <c r="A81" s="475"/>
       <c r="B81" s="409">
         <v>43783</v>
@@ -35463,7 +35475,7 @@
       <c r="D81" s="429"/>
       <c r="E81" s="429"/>
     </row>
-    <row r="82" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="420" customFormat="1">
       <c r="A82" s="475"/>
       <c r="B82" s="408">
         <v>43787</v>
@@ -35474,7 +35486,7 @@
       <c r="D82" s="433"/>
       <c r="E82" s="433"/>
     </row>
-    <row r="83" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" s="420" customFormat="1">
       <c r="A83" s="475"/>
       <c r="B83" s="408">
         <v>43788</v>
@@ -35485,7 +35497,7 @@
       <c r="D83" s="433"/>
       <c r="E83" s="433"/>
     </row>
-    <row r="84" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="418" customFormat="1">
       <c r="A84" s="475"/>
       <c r="B84" s="409">
         <v>43790</v>
@@ -35494,7 +35506,7 @@
       <c r="D84" s="429"/>
       <c r="E84" s="429"/>
     </row>
-    <row r="85" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="420" customFormat="1">
       <c r="A85" s="475"/>
       <c r="B85" s="408">
         <v>43791</v>
@@ -35505,7 +35517,7 @@
       <c r="D85" s="433"/>
       <c r="E85" s="433"/>
     </row>
-    <row r="86" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" s="419" customFormat="1">
       <c r="A86" s="475"/>
       <c r="B86" s="410">
         <v>43794</v>
@@ -35516,7 +35528,7 @@
       <c r="D86" s="431"/>
       <c r="E86" s="431"/>
     </row>
-    <row r="87" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="419" customFormat="1">
       <c r="A87" s="475"/>
       <c r="B87" s="410">
         <v>43795</v>
@@ -35527,7 +35539,7 @@
       <c r="D87" s="431"/>
       <c r="E87" s="431"/>
     </row>
-    <row r="88" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" s="419" customFormat="1">
       <c r="A88" s="475"/>
       <c r="B88" s="410">
         <v>43796</v>
@@ -35538,7 +35550,7 @@
       <c r="D88" s="431"/>
       <c r="E88" s="431"/>
     </row>
-    <row r="89" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1">
       <c r="A89" s="476"/>
       <c r="B89" s="411">
         <v>43797</v>
@@ -35547,7 +35559,7 @@
       <c r="D89" s="437"/>
       <c r="E89" s="437"/>
     </row>
-    <row r="90" spans="1:5" s="417" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" s="417" customFormat="1" ht="30">
       <c r="A90" s="468" t="s">
         <v>146</v>
       </c>
@@ -35555,45 +35567,45 @@
         <v>43798</v>
       </c>
       <c r="C90" s="427" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D90" s="428"/>
       <c r="E90" s="428"/>
     </row>
-    <row r="91" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" s="420" customFormat="1">
       <c r="A91" s="469"/>
       <c r="B91" s="408">
         <v>43801</v>
       </c>
       <c r="C91" s="433" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D91" s="433"/>
       <c r="E91" s="433"/>
     </row>
-    <row r="92" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" s="420" customFormat="1">
       <c r="A92" s="469"/>
       <c r="B92" s="408">
         <v>43802</v>
       </c>
       <c r="C92" s="433" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D92" s="433"/>
       <c r="E92" s="433"/>
     </row>
-    <row r="93" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="420" customFormat="1">
       <c r="A93" s="469"/>
       <c r="B93" s="408">
         <v>43803</v>
       </c>
       <c r="C93" s="433" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D93" s="433"/>
       <c r="E93" s="433"/>
     </row>
-    <row r="94" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" s="418" customFormat="1">
       <c r="A94" s="469"/>
       <c r="B94" s="409">
         <v>43804</v>
@@ -35602,7 +35614,7 @@
       <c r="D94" s="429"/>
       <c r="E94" s="429"/>
     </row>
-    <row r="95" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" s="420" customFormat="1">
       <c r="A95" s="469"/>
       <c r="B95" s="408">
         <v>43805</v>
@@ -35613,7 +35625,7 @@
       <c r="D95" s="433"/>
       <c r="E95" s="433"/>
     </row>
-    <row r="96" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="419" customFormat="1">
       <c r="A96" s="469"/>
       <c r="B96" s="410">
         <v>43808</v>
@@ -35624,7 +35636,7 @@
       <c r="D96" s="431"/>
       <c r="E96" s="431"/>
     </row>
-    <row r="97" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" s="419" customFormat="1">
       <c r="A97" s="469"/>
       <c r="B97" s="410">
         <v>43809</v>
@@ -35635,7 +35647,7 @@
       <c r="D97" s="431"/>
       <c r="E97" s="431"/>
     </row>
-    <row r="98" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" s="419" customFormat="1">
       <c r="A98" s="469"/>
       <c r="B98" s="410">
         <v>43810</v>
@@ -35646,7 +35658,7 @@
       <c r="D98" s="431"/>
       <c r="E98" s="431"/>
     </row>
-    <row r="99" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="470"/>
       <c r="B99" s="411">
         <v>43811</v>
@@ -35655,7 +35667,7 @@
       <c r="D99" s="437"/>
       <c r="E99" s="437"/>
     </row>
-    <row r="100" spans="1:5" s="425" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" s="425" customFormat="1">
       <c r="B100" s="413">
         <v>43812</v>
       </c>
@@ -35663,7 +35675,7 @@
       <c r="D100" s="438"/>
       <c r="E100" s="438"/>
     </row>
-    <row r="101" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" s="420" customFormat="1">
       <c r="B101" s="405">
         <v>43815</v>
       </c>
@@ -35671,7 +35683,7 @@
       <c r="D101" s="433"/>
       <c r="E101" s="433"/>
     </row>
-    <row r="102" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" s="420" customFormat="1">
       <c r="B102" s="405">
         <v>43816</v>
       </c>
@@ -35679,7 +35691,7 @@
       <c r="D102" s="433"/>
       <c r="E102" s="433"/>
     </row>
-    <row r="103" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" s="420" customFormat="1">
       <c r="B103" s="405">
         <v>43817</v>
       </c>
@@ -35696,5 +35708,6 @@
     <mergeCell ref="A67:A89"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai-dev-2s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github_s\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B7234-9673-4AC2-ACE3-9C1E02EA6BB2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331A9F7-CD9B-4C3B-922C-7F8AC69F65E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="209">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1607,7 +1607,18 @@
 Componentes - Rodapé</t>
   </si>
   <si>
-    <t>ex: Musicas (sstop), Livros, pessoas</t>
+    <t>ex: Musicas (Sstop), Livros, Pessoas</t>
+  </si>
+  <si>
+    <t>RoteiroMusicas - SStop
+RoteiroLivros 
+Optus</t>
+  </si>
+  <si>
+    <t>ex: Moda, Dps</t>
+  </si>
+  <si>
+    <t>Optus</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1628,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3273,6 +3284,9 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3368,9 +3382,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3697,208 +3708,208 @@
       <selection sqref="A1:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>35</v>
       </c>
@@ -3918,7 +3929,7 @@
       <selection pane="topRight" activeCell="BQ68" sqref="BQ68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="20" customWidth="1"/>
@@ -3956,128 +3967,128 @@
     <col min="108" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="447" t="s">
+      <c r="B1" s="448" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="448"/>
-      <c r="D1" s="448"/>
-      <c r="E1" s="448"/>
-      <c r="F1" s="448"/>
-      <c r="G1" s="448"/>
-      <c r="H1" s="448"/>
-      <c r="I1" s="448"/>
-      <c r="J1" s="448"/>
-      <c r="K1" s="448"/>
-      <c r="L1" s="448"/>
-      <c r="M1" s="448"/>
-      <c r="N1" s="448"/>
-      <c r="O1" s="448"/>
-      <c r="P1" s="448"/>
-      <c r="Q1" s="448"/>
-      <c r="R1" s="447" t="s">
+      <c r="C1" s="449"/>
+      <c r="D1" s="449"/>
+      <c r="E1" s="449"/>
+      <c r="F1" s="449"/>
+      <c r="G1" s="449"/>
+      <c r="H1" s="449"/>
+      <c r="I1" s="449"/>
+      <c r="J1" s="449"/>
+      <c r="K1" s="449"/>
+      <c r="L1" s="449"/>
+      <c r="M1" s="449"/>
+      <c r="N1" s="449"/>
+      <c r="O1" s="449"/>
+      <c r="P1" s="449"/>
+      <c r="Q1" s="449"/>
+      <c r="R1" s="448" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="448"/>
-      <c r="T1" s="448"/>
-      <c r="U1" s="448"/>
-      <c r="V1" s="448"/>
-      <c r="W1" s="448"/>
-      <c r="X1" s="448"/>
-      <c r="Y1" s="448"/>
-      <c r="Z1" s="448"/>
-      <c r="AA1" s="448"/>
-      <c r="AB1" s="448"/>
-      <c r="AC1" s="448"/>
-      <c r="AD1" s="448"/>
-      <c r="AE1" s="448"/>
-      <c r="AF1" s="448"/>
-      <c r="AG1" s="448"/>
-      <c r="AH1" s="448"/>
-      <c r="AI1" s="448"/>
-      <c r="AJ1" s="448"/>
-      <c r="AK1" s="448"/>
-      <c r="AL1" s="448"/>
-      <c r="AM1" s="449"/>
-      <c r="AN1" s="447" t="s">
+      <c r="S1" s="449"/>
+      <c r="T1" s="449"/>
+      <c r="U1" s="449"/>
+      <c r="V1" s="449"/>
+      <c r="W1" s="449"/>
+      <c r="X1" s="449"/>
+      <c r="Y1" s="449"/>
+      <c r="Z1" s="449"/>
+      <c r="AA1" s="449"/>
+      <c r="AB1" s="449"/>
+      <c r="AC1" s="449"/>
+      <c r="AD1" s="449"/>
+      <c r="AE1" s="449"/>
+      <c r="AF1" s="449"/>
+      <c r="AG1" s="449"/>
+      <c r="AH1" s="449"/>
+      <c r="AI1" s="449"/>
+      <c r="AJ1" s="449"/>
+      <c r="AK1" s="449"/>
+      <c r="AL1" s="449"/>
+      <c r="AM1" s="450"/>
+      <c r="AN1" s="448" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="448"/>
-      <c r="AP1" s="448"/>
-      <c r="AQ1" s="448"/>
-      <c r="AR1" s="448"/>
-      <c r="AS1" s="448"/>
-      <c r="AT1" s="449"/>
-      <c r="AU1" s="447" t="s">
+      <c r="AO1" s="449"/>
+      <c r="AP1" s="449"/>
+      <c r="AQ1" s="449"/>
+      <c r="AR1" s="449"/>
+      <c r="AS1" s="449"/>
+      <c r="AT1" s="450"/>
+      <c r="AU1" s="448" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="448"/>
-      <c r="AW1" s="448"/>
-      <c r="AX1" s="448"/>
-      <c r="AY1" s="448"/>
-      <c r="AZ1" s="448"/>
-      <c r="BA1" s="448"/>
-      <c r="BB1" s="448"/>
-      <c r="BC1" s="448"/>
-      <c r="BD1" s="448"/>
-      <c r="BE1" s="448"/>
-      <c r="BF1" s="448"/>
-      <c r="BG1" s="448"/>
-      <c r="BH1" s="448"/>
-      <c r="BI1" s="448"/>
-      <c r="BJ1" s="448"/>
-      <c r="BK1" s="448"/>
-      <c r="BL1" s="448"/>
-      <c r="BM1" s="448"/>
-      <c r="BN1" s="448"/>
-      <c r="BO1" s="448"/>
-      <c r="BP1" s="448"/>
-      <c r="BQ1" s="449"/>
-      <c r="BR1" s="447" t="s">
+      <c r="AV1" s="449"/>
+      <c r="AW1" s="449"/>
+      <c r="AX1" s="449"/>
+      <c r="AY1" s="449"/>
+      <c r="AZ1" s="449"/>
+      <c r="BA1" s="449"/>
+      <c r="BB1" s="449"/>
+      <c r="BC1" s="449"/>
+      <c r="BD1" s="449"/>
+      <c r="BE1" s="449"/>
+      <c r="BF1" s="449"/>
+      <c r="BG1" s="449"/>
+      <c r="BH1" s="449"/>
+      <c r="BI1" s="449"/>
+      <c r="BJ1" s="449"/>
+      <c r="BK1" s="449"/>
+      <c r="BL1" s="449"/>
+      <c r="BM1" s="449"/>
+      <c r="BN1" s="449"/>
+      <c r="BO1" s="449"/>
+      <c r="BP1" s="449"/>
+      <c r="BQ1" s="450"/>
+      <c r="BR1" s="448" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="448"/>
-      <c r="BT1" s="448"/>
-      <c r="BU1" s="448"/>
-      <c r="BV1" s="448"/>
-      <c r="BW1" s="448"/>
-      <c r="BX1" s="448"/>
-      <c r="BY1" s="448"/>
-      <c r="BZ1" s="448"/>
-      <c r="CA1" s="448"/>
-      <c r="CB1" s="448"/>
-      <c r="CC1" s="448"/>
-      <c r="CD1" s="448"/>
-      <c r="CE1" s="448"/>
-      <c r="CF1" s="448"/>
-      <c r="CG1" s="448"/>
-      <c r="CH1" s="448"/>
-      <c r="CI1" s="448"/>
-      <c r="CJ1" s="448"/>
-      <c r="CK1" s="449"/>
-      <c r="CL1" s="447" t="s">
+      <c r="BS1" s="449"/>
+      <c r="BT1" s="449"/>
+      <c r="BU1" s="449"/>
+      <c r="BV1" s="449"/>
+      <c r="BW1" s="449"/>
+      <c r="BX1" s="449"/>
+      <c r="BY1" s="449"/>
+      <c r="BZ1" s="449"/>
+      <c r="CA1" s="449"/>
+      <c r="CB1" s="449"/>
+      <c r="CC1" s="449"/>
+      <c r="CD1" s="449"/>
+      <c r="CE1" s="449"/>
+      <c r="CF1" s="449"/>
+      <c r="CG1" s="449"/>
+      <c r="CH1" s="449"/>
+      <c r="CI1" s="449"/>
+      <c r="CJ1" s="449"/>
+      <c r="CK1" s="450"/>
+      <c r="CL1" s="448" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="448"/>
-      <c r="CN1" s="448"/>
-      <c r="CO1" s="448"/>
-      <c r="CP1" s="448"/>
-      <c r="CQ1" s="448"/>
-      <c r="CR1" s="448"/>
-      <c r="CS1" s="448"/>
-      <c r="CT1" s="448"/>
-      <c r="CU1" s="448"/>
-      <c r="CV1" s="448"/>
-      <c r="CW1" s="448"/>
-      <c r="CX1" s="448"/>
-      <c r="CY1" s="448"/>
-      <c r="CZ1" s="448"/>
-      <c r="DA1" s="448"/>
-      <c r="DB1" s="448"/>
+      <c r="CM1" s="449"/>
+      <c r="CN1" s="449"/>
+      <c r="CO1" s="449"/>
+      <c r="CP1" s="449"/>
+      <c r="CQ1" s="449"/>
+      <c r="CR1" s="449"/>
+      <c r="CS1" s="449"/>
+      <c r="CT1" s="449"/>
+      <c r="CU1" s="449"/>
+      <c r="CV1" s="449"/>
+      <c r="CW1" s="449"/>
+      <c r="CX1" s="449"/>
+      <c r="CY1" s="449"/>
+      <c r="CZ1" s="449"/>
+      <c r="DA1" s="449"/>
+      <c r="DB1" s="449"/>
       <c r="DC1" s="60"/>
     </row>
-    <row r="2" spans="1:119" s="24" customFormat="1">
+    <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>40</v>
       </c>
@@ -4412,7 +4423,7 @@
       <c r="DN2" s="23"/>
       <c r="DO2" s="23"/>
     </row>
-    <row r="3" spans="1:119" s="17" customFormat="1">
+    <row r="3" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
@@ -4431,7 +4442,7 @@
       <c r="CL3" s="20"/>
       <c r="DC3" s="19"/>
     </row>
-    <row r="4" spans="1:119" s="17" customFormat="1">
+    <row r="4" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
@@ -4450,7 +4461,7 @@
       <c r="CL4" s="20"/>
       <c r="DC4" s="19"/>
     </row>
-    <row r="5" spans="1:119" s="17" customFormat="1">
+    <row r="5" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
@@ -4472,7 +4483,7 @@
       <c r="CL5" s="20"/>
       <c r="DC5" s="19"/>
     </row>
-    <row r="6" spans="1:119" s="17" customFormat="1">
+    <row r="6" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
@@ -4494,7 +4505,7 @@
       <c r="CL6" s="20"/>
       <c r="DC6" s="19"/>
     </row>
-    <row r="7" spans="1:119" s="17" customFormat="1">
+    <row r="7" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
@@ -4516,7 +4527,7 @@
       <c r="CL7" s="20"/>
       <c r="DC7" s="19"/>
     </row>
-    <row r="8" spans="1:119" s="17" customFormat="1">
+    <row r="8" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -4538,7 +4549,7 @@
       <c r="CL8" s="20"/>
       <c r="DC8" s="19"/>
     </row>
-    <row r="9" spans="1:119" s="17" customFormat="1">
+    <row r="9" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
@@ -4560,7 +4571,7 @@
       <c r="CL9" s="20"/>
       <c r="DC9" s="19"/>
     </row>
-    <row r="10" spans="1:119" s="17" customFormat="1">
+    <row r="10" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
@@ -4582,7 +4593,7 @@
       <c r="CL10" s="20"/>
       <c r="DC10" s="19"/>
     </row>
-    <row r="11" spans="1:119" s="17" customFormat="1">
+    <row r="11" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
@@ -4603,7 +4614,7 @@
       <c r="CL11" s="20"/>
       <c r="DC11" s="19"/>
     </row>
-    <row r="12" spans="1:119" s="17" customFormat="1">
+    <row r="12" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
@@ -4623,7 +4634,7 @@
       <c r="CL12" s="20"/>
       <c r="DC12" s="19"/>
     </row>
-    <row r="13" spans="1:119" s="17" customFormat="1">
+    <row r="13" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>15</v>
       </c>
@@ -4643,7 +4654,7 @@
       <c r="CL13" s="20"/>
       <c r="DC13" s="19"/>
     </row>
-    <row r="14" spans="1:119" s="17" customFormat="1">
+    <row r="14" spans="1:119" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>16</v>
       </c>
@@ -4664,7 +4675,7 @@
       <c r="CL14" s="20"/>
       <c r="DC14" s="19"/>
     </row>
-    <row r="15" spans="1:119" s="26" customFormat="1" ht="15.75" thickBot="1">
+    <row r="15" spans="1:119" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>41</v>
       </c>
@@ -4688,7 +4699,7 @@
       <c r="CL15" s="25"/>
       <c r="DC15" s="32"/>
     </row>
-    <row r="16" spans="1:119" s="24" customFormat="1">
+    <row r="16" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
@@ -4707,7 +4718,7 @@
       <c r="CL16" s="22"/>
       <c r="DC16" s="42"/>
     </row>
-    <row r="17" spans="1:16384" s="17" customFormat="1">
+    <row r="17" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>19</v>
       </c>
@@ -4726,7 +4737,7 @@
       <c r="CL17" s="20"/>
       <c r="DC17" s="19"/>
     </row>
-    <row r="18" spans="1:16384" s="17" customFormat="1">
+    <row r="18" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>21</v>
       </c>
@@ -4745,7 +4756,7 @@
       <c r="CL18" s="20"/>
       <c r="DC18" s="19"/>
     </row>
-    <row r="19" spans="1:16384" s="17" customFormat="1">
+    <row r="19" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>62</v>
       </c>
@@ -4764,7 +4775,7 @@
       <c r="CL19" s="20"/>
       <c r="DC19" s="19"/>
     </row>
-    <row r="20" spans="1:16384" s="17" customFormat="1">
+    <row r="20" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
@@ -4787,7 +4798,7 @@
       <c r="CL20" s="20"/>
       <c r="DC20" s="19"/>
     </row>
-    <row r="21" spans="1:16384" s="17" customFormat="1">
+    <row r="21" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>51</v>
       </c>
@@ -4808,7 +4819,7 @@
       <c r="CL21" s="20"/>
       <c r="DC21" s="19"/>
     </row>
-    <row r="22" spans="1:16384" s="17" customFormat="1">
+    <row r="22" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>22</v>
       </c>
@@ -4828,7 +4839,7 @@
       <c r="CL22" s="20"/>
       <c r="DC22" s="19"/>
     </row>
-    <row r="23" spans="1:16384" s="17" customFormat="1">
+    <row r="23" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>23</v>
       </c>
@@ -4847,7 +4858,7 @@
       <c r="CL23" s="20"/>
       <c r="DC23" s="19"/>
     </row>
-    <row r="24" spans="1:16384" s="17" customFormat="1">
+    <row r="24" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>52</v>
       </c>
@@ -4871,7 +4882,7 @@
       <c r="CL24" s="20"/>
       <c r="DC24" s="19"/>
     </row>
-    <row r="25" spans="1:16384" s="17" customFormat="1">
+    <row r="25" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
@@ -4894,7 +4905,7 @@
       <c r="CL25" s="20"/>
       <c r="DC25" s="19"/>
     </row>
-    <row r="26" spans="1:16384" s="17" customFormat="1">
+    <row r="26" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>54</v>
       </c>
@@ -4917,7 +4928,7 @@
       <c r="CL26" s="20"/>
       <c r="DC26" s="19"/>
     </row>
-    <row r="27" spans="1:16384" s="17" customFormat="1">
+    <row r="27" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>55</v>
       </c>
@@ -4942,7 +4953,7 @@
       <c r="CL27" s="20"/>
       <c r="DC27" s="19"/>
     </row>
-    <row r="28" spans="1:16384" s="17" customFormat="1">
+    <row r="28" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>56</v>
       </c>
@@ -21328,7 +21339,7 @@
       <c r="XFC28" s="36"/>
       <c r="XFD28" s="36"/>
     </row>
-    <row r="29" spans="1:16384" s="17" customFormat="1">
+    <row r="29" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>57</v>
       </c>
@@ -21348,7 +21359,7 @@
       <c r="CL29" s="20"/>
       <c r="DC29" s="19"/>
     </row>
-    <row r="30" spans="1:16384" s="17" customFormat="1">
+    <row r="30" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>58</v>
       </c>
@@ -21368,7 +21379,7 @@
       <c r="CL30" s="20"/>
       <c r="DC30" s="19"/>
     </row>
-    <row r="31" spans="1:16384" s="17" customFormat="1">
+    <row r="31" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
@@ -21387,7 +21398,7 @@
       <c r="CL31" s="20"/>
       <c r="DC31" s="19"/>
     </row>
-    <row r="32" spans="1:16384" s="17" customFormat="1">
+    <row r="32" spans="1:16384" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>59</v>
       </c>
@@ -21407,7 +21418,7 @@
       <c r="CL32" s="20"/>
       <c r="DC32" s="19"/>
     </row>
-    <row r="33" spans="1:107" s="17" customFormat="1">
+    <row r="33" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>43</v>
       </c>
@@ -21427,7 +21438,7 @@
       <c r="CL33" s="20"/>
       <c r="DC33" s="19"/>
     </row>
-    <row r="34" spans="1:107" s="17" customFormat="1">
+    <row r="34" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>44</v>
       </c>
@@ -21449,7 +21460,7 @@
       <c r="CL34" s="20"/>
       <c r="DC34" s="19"/>
     </row>
-    <row r="35" spans="1:107" s="17" customFormat="1">
+    <row r="35" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>46</v>
       </c>
@@ -21469,7 +21480,7 @@
       <c r="CL35" s="20"/>
       <c r="DC35" s="19"/>
     </row>
-    <row r="36" spans="1:107" s="17" customFormat="1">
+    <row r="36" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>45</v>
       </c>
@@ -21491,7 +21502,7 @@
       <c r="CL36" s="20"/>
       <c r="DC36" s="19"/>
     </row>
-    <row r="37" spans="1:107" s="17" customFormat="1">
+    <row r="37" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>47</v>
       </c>
@@ -21511,7 +21522,7 @@
       <c r="CL37" s="20"/>
       <c r="DC37" s="19"/>
     </row>
-    <row r="38" spans="1:107" s="17" customFormat="1">
+    <row r="38" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>48</v>
       </c>
@@ -21531,7 +21542,7 @@
       <c r="CL38" s="20"/>
       <c r="DC38" s="19"/>
     </row>
-    <row r="39" spans="1:107" s="17" customFormat="1">
+    <row r="39" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>49</v>
       </c>
@@ -21551,7 +21562,7 @@
       <c r="CL39" s="20"/>
       <c r="DC39" s="19"/>
     </row>
-    <row r="40" spans="1:107" s="17" customFormat="1">
+    <row r="40" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
         <v>50</v>
       </c>
@@ -21571,7 +21582,7 @@
       <c r="CL40" s="20"/>
       <c r="DC40" s="19"/>
     </row>
-    <row r="41" spans="1:107" s="17" customFormat="1">
+    <row r="41" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>60</v>
       </c>
@@ -21592,7 +21603,7 @@
       <c r="CL41" s="20"/>
       <c r="DC41" s="19"/>
     </row>
-    <row r="42" spans="1:107" s="17" customFormat="1">
+    <row r="42" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
         <v>61</v>
       </c>
@@ -21613,7 +21624,7 @@
       <c r="CL42" s="20"/>
       <c r="DC42" s="19"/>
     </row>
-    <row r="43" spans="1:107" s="17" customFormat="1">
+    <row r="43" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>63</v>
       </c>
@@ -21636,7 +21647,7 @@
       <c r="CL43" s="20"/>
       <c r="DC43" s="19"/>
     </row>
-    <row r="44" spans="1:107" s="17" customFormat="1">
+    <row r="44" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>20</v>
       </c>
@@ -21663,7 +21674,7 @@
       <c r="CL44" s="20"/>
       <c r="DC44" s="19"/>
     </row>
-    <row r="45" spans="1:107" s="17" customFormat="1">
+    <row r="45" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>24</v>
       </c>
@@ -21683,7 +21694,7 @@
       <c r="CL45" s="20"/>
       <c r="DC45" s="19"/>
     </row>
-    <row r="46" spans="1:107" s="17" customFormat="1">
+    <row r="46" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>28</v>
       </c>
@@ -21707,7 +21718,7 @@
       <c r="CL46" s="20"/>
       <c r="DC46" s="19"/>
     </row>
-    <row r="47" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
+    <row r="47" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
         <v>64</v>
       </c>
@@ -21743,7 +21754,7 @@
       <c r="CL47" s="25"/>
       <c r="DC47" s="32"/>
     </row>
-    <row r="48" spans="1:107" s="24" customFormat="1">
+    <row r="48" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>4</v>
       </c>
@@ -21766,7 +21777,7 @@
       <c r="CL48" s="22"/>
       <c r="DC48" s="42"/>
     </row>
-    <row r="49" spans="1:107" s="17" customFormat="1">
+    <row r="49" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>67</v>
       </c>
@@ -21787,7 +21798,7 @@
       <c r="CL49" s="20"/>
       <c r="DC49" s="19"/>
     </row>
-    <row r="50" spans="1:107" s="17" customFormat="1">
+    <row r="50" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>66</v>
       </c>
@@ -21811,7 +21822,7 @@
       <c r="CL50" s="20"/>
       <c r="DC50" s="19"/>
     </row>
-    <row r="51" spans="1:107" s="17" customFormat="1">
+    <row r="51" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>74</v>
       </c>
@@ -21836,7 +21847,7 @@
       <c r="CL51" s="20"/>
       <c r="DC51" s="19"/>
     </row>
-    <row r="52" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
+    <row r="52" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="30" t="s">
         <v>68</v>
       </c>
@@ -21863,7 +21874,7 @@
       <c r="CL52" s="25"/>
       <c r="DC52" s="32"/>
     </row>
-    <row r="53" spans="1:107" s="24" customFormat="1">
+    <row r="53" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>2</v>
       </c>
@@ -21889,7 +21900,7 @@
       <c r="CL53" s="22"/>
       <c r="DC53" s="42"/>
     </row>
-    <row r="54" spans="1:107" s="17" customFormat="1">
+    <row r="54" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>3</v>
       </c>
@@ -21915,7 +21926,7 @@
       <c r="CL54" s="20"/>
       <c r="DC54" s="19"/>
     </row>
-    <row r="55" spans="1:107" s="17" customFormat="1">
+    <row r="55" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>1</v>
       </c>
@@ -21939,7 +21950,7 @@
       <c r="CL55" s="20"/>
       <c r="DC55" s="19"/>
     </row>
-    <row r="56" spans="1:107" s="17" customFormat="1">
+    <row r="56" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>0</v>
       </c>
@@ -21968,7 +21979,7 @@
       <c r="CL56" s="20"/>
       <c r="DC56" s="19"/>
     </row>
-    <row r="57" spans="1:107" s="17" customFormat="1">
+    <row r="57" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
         <v>59</v>
       </c>
@@ -21996,7 +22007,7 @@
       <c r="CL57" s="20"/>
       <c r="DC57" s="19"/>
     </row>
-    <row r="58" spans="1:107" s="17" customFormat="1">
+    <row r="58" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
         <v>43</v>
       </c>
@@ -22024,7 +22035,7 @@
       <c r="CL58" s="20"/>
       <c r="DC58" s="19"/>
     </row>
-    <row r="59" spans="1:107" s="17" customFormat="1">
+    <row r="59" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
         <v>44</v>
       </c>
@@ -22052,7 +22063,7 @@
       <c r="CL59" s="20"/>
       <c r="DC59" s="19"/>
     </row>
-    <row r="60" spans="1:107" s="17" customFormat="1">
+    <row r="60" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
         <v>46</v>
       </c>
@@ -22079,7 +22090,7 @@
       <c r="CL60" s="20"/>
       <c r="DC60" s="19"/>
     </row>
-    <row r="61" spans="1:107" s="17" customFormat="1">
+    <row r="61" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
         <v>45</v>
       </c>
@@ -22106,7 +22117,7 @@
       <c r="CL61" s="20"/>
       <c r="DC61" s="19"/>
     </row>
-    <row r="62" spans="1:107" s="17" customFormat="1">
+    <row r="62" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
         <v>47</v>
       </c>
@@ -22133,7 +22144,7 @@
       <c r="CL62" s="20"/>
       <c r="DC62" s="19"/>
     </row>
-    <row r="63" spans="1:107" s="17" customFormat="1">
+    <row r="63" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
         <v>48</v>
       </c>
@@ -22161,7 +22172,7 @@
       <c r="CL63" s="20"/>
       <c r="DC63" s="19"/>
     </row>
-    <row r="64" spans="1:107" s="17" customFormat="1">
+    <row r="64" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
         <v>49</v>
       </c>
@@ -22189,7 +22200,7 @@
       <c r="CL64" s="20"/>
       <c r="DC64" s="19"/>
     </row>
-    <row r="65" spans="1:107" s="17" customFormat="1">
+    <row r="65" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
         <v>50</v>
       </c>
@@ -22217,7 +22228,7 @@
       <c r="CL65" s="20"/>
       <c r="DC65" s="19"/>
     </row>
-    <row r="66" spans="1:107" s="17" customFormat="1">
+    <row r="66" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
         <v>60</v>
       </c>
@@ -22245,7 +22256,7 @@
       <c r="CL66" s="20"/>
       <c r="DC66" s="19"/>
     </row>
-    <row r="67" spans="1:107" s="17" customFormat="1">
+    <row r="67" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
         <v>61</v>
       </c>
@@ -22272,7 +22283,7 @@
       <c r="CL67" s="20"/>
       <c r="DC67" s="19"/>
     </row>
-    <row r="68" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
+    <row r="68" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30" t="s">
         <v>70</v>
       </c>
@@ -22300,7 +22311,7 @@
       <c r="CL68" s="25"/>
       <c r="DC68" s="32"/>
     </row>
-    <row r="69" spans="1:107" s="24" customFormat="1">
+    <row r="69" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50" t="s">
         <v>29</v>
       </c>
@@ -22321,7 +22332,7 @@
       <c r="CL69" s="22"/>
       <c r="DC69" s="42"/>
     </row>
-    <row r="70" spans="1:107" s="17" customFormat="1">
+    <row r="70" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
         <v>31</v>
       </c>
@@ -22342,7 +22353,7 @@
       <c r="CL70" s="20"/>
       <c r="DC70" s="19"/>
     </row>
-    <row r="71" spans="1:107" s="17" customFormat="1">
+    <row r="71" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="51" t="s">
         <v>35</v>
       </c>
@@ -22364,7 +22375,7 @@
       <c r="CL71" s="20"/>
       <c r="DC71" s="19"/>
     </row>
-    <row r="72" spans="1:107" s="17" customFormat="1">
+    <row r="72" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45" t="s">
         <v>30</v>
       </c>
@@ -22385,7 +22396,7 @@
       <c r="CL72" s="20"/>
       <c r="DC72" s="19"/>
     </row>
-    <row r="73" spans="1:107" s="47" customFormat="1">
+    <row r="73" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45" t="s">
         <v>33</v>
       </c>
@@ -22406,7 +22417,7 @@
       <c r="CL73" s="46"/>
       <c r="DC73" s="49"/>
     </row>
-    <row r="74" spans="1:107" s="47" customFormat="1">
+    <row r="74" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="46" t="s">
         <v>80</v>
       </c>
@@ -22428,7 +22439,7 @@
       <c r="CL74" s="46"/>
       <c r="DC74" s="49"/>
     </row>
-    <row r="75" spans="1:107" s="47" customFormat="1">
+    <row r="75" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
         <v>75</v>
       </c>
@@ -22450,7 +22461,7 @@
       <c r="CL75" s="46"/>
       <c r="DC75" s="49"/>
     </row>
-    <row r="76" spans="1:107" s="47" customFormat="1">
+    <row r="76" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
         <v>76</v>
       </c>
@@ -22472,7 +22483,7 @@
       <c r="CL76" s="46"/>
       <c r="DC76" s="49"/>
     </row>
-    <row r="77" spans="1:107" s="47" customFormat="1">
+    <row r="77" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
         <v>77</v>
       </c>
@@ -22494,7 +22505,7 @@
       <c r="CL77" s="46"/>
       <c r="DC77" s="49"/>
     </row>
-    <row r="78" spans="1:107" s="47" customFormat="1">
+    <row r="78" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
         <v>78</v>
       </c>
@@ -22516,7 +22527,7 @@
       <c r="CL78" s="46"/>
       <c r="DC78" s="49"/>
     </row>
-    <row r="79" spans="1:107" s="47" customFormat="1">
+    <row r="79" spans="1:107" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
         <v>79</v>
       </c>
@@ -22538,7 +22549,7 @@
       <c r="CL79" s="46"/>
       <c r="DC79" s="49"/>
     </row>
-    <row r="80" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
+    <row r="80" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="30" t="s">
         <v>73</v>
       </c>
@@ -22569,7 +22580,7 @@
       <c r="CL80" s="62"/>
       <c r="DC80" s="32"/>
     </row>
-    <row r="81" spans="1:107" s="24" customFormat="1">
+    <row r="81" spans="1:107" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>5</v>
       </c>
@@ -22591,7 +22602,7 @@
       <c r="CN81" s="44"/>
       <c r="DC81" s="42"/>
     </row>
-    <row r="82" spans="1:107" s="17" customFormat="1">
+    <row r="82" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>12</v>
       </c>
@@ -22612,7 +22623,7 @@
       <c r="CO82" s="21"/>
       <c r="DC82" s="19"/>
     </row>
-    <row r="83" spans="1:107" s="17" customFormat="1">
+    <row r="83" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>25</v>
       </c>
@@ -22633,7 +22644,7 @@
       <c r="CO83" s="21"/>
       <c r="DC83" s="19"/>
     </row>
-    <row r="84" spans="1:107" s="17" customFormat="1">
+    <row r="84" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>82</v>
       </c>
@@ -22654,7 +22665,7 @@
       <c r="CO84" s="21"/>
       <c r="DC84" s="19"/>
     </row>
-    <row r="85" spans="1:107" s="17" customFormat="1">
+    <row r="85" spans="1:107" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>84</v>
       </c>
@@ -22678,7 +22689,7 @@
       <c r="CS85" s="21"/>
       <c r="DC85" s="19"/>
     </row>
-    <row r="86" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1">
+    <row r="86" spans="1:107" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="30" t="s">
         <v>83</v>
       </c>
@@ -22701,15 +22712,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="445" t="s">
+      <c r="CW86" s="446" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="445"/>
-      <c r="CY86" s="445"/>
-      <c r="CZ86" s="445"/>
-      <c r="DA86" s="445"/>
-      <c r="DB86" s="445"/>
-      <c r="DC86" s="446"/>
+      <c r="CX86" s="446"/>
+      <c r="CY86" s="446"/>
+      <c r="CZ86" s="446"/>
+      <c r="DA86" s="446"/>
+      <c r="DB86" s="446"/>
+      <c r="DC86" s="447"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22732,7 +22743,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
@@ -22746,7 +22757,7 @@
     <col min="96" max="100" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1" s="223">
         <v>43670</v>
       </c>
@@ -23063,7 +23074,7 @@
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="97"/>
@@ -23097,123 +23108,123 @@
     <col min="103" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="100" customFormat="1">
+    <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="459" t="s">
+      <c r="B1" s="460" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="460"/>
-      <c r="D1" s="460"/>
-      <c r="E1" s="460"/>
-      <c r="F1" s="460"/>
-      <c r="G1" s="460"/>
-      <c r="H1" s="460"/>
-      <c r="I1" s="460"/>
-      <c r="J1" s="460"/>
-      <c r="K1" s="460"/>
-      <c r="L1" s="460"/>
-      <c r="M1" s="460"/>
-      <c r="N1" s="460"/>
-      <c r="O1" s="460"/>
-      <c r="P1" s="460"/>
-      <c r="Q1" s="461"/>
-      <c r="R1" s="450" t="s">
+      <c r="C1" s="461"/>
+      <c r="D1" s="461"/>
+      <c r="E1" s="461"/>
+      <c r="F1" s="461"/>
+      <c r="G1" s="461"/>
+      <c r="H1" s="461"/>
+      <c r="I1" s="461"/>
+      <c r="J1" s="461"/>
+      <c r="K1" s="461"/>
+      <c r="L1" s="461"/>
+      <c r="M1" s="461"/>
+      <c r="N1" s="461"/>
+      <c r="O1" s="461"/>
+      <c r="P1" s="461"/>
+      <c r="Q1" s="462"/>
+      <c r="R1" s="451" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="451"/>
-      <c r="T1" s="451"/>
-      <c r="U1" s="451"/>
-      <c r="V1" s="451"/>
-      <c r="W1" s="451"/>
-      <c r="X1" s="451"/>
-      <c r="Y1" s="451"/>
-      <c r="Z1" s="451"/>
-      <c r="AA1" s="451"/>
-      <c r="AB1" s="451"/>
-      <c r="AC1" s="451"/>
-      <c r="AD1" s="451"/>
-      <c r="AE1" s="451"/>
-      <c r="AF1" s="451"/>
-      <c r="AG1" s="451"/>
-      <c r="AH1" s="451"/>
-      <c r="AI1" s="451"/>
-      <c r="AJ1" s="451"/>
-      <c r="AK1" s="451"/>
-      <c r="AL1" s="452"/>
-      <c r="AM1" s="450" t="s">
+      <c r="S1" s="452"/>
+      <c r="T1" s="452"/>
+      <c r="U1" s="452"/>
+      <c r="V1" s="452"/>
+      <c r="W1" s="452"/>
+      <c r="X1" s="452"/>
+      <c r="Y1" s="452"/>
+      <c r="Z1" s="452"/>
+      <c r="AA1" s="452"/>
+      <c r="AB1" s="452"/>
+      <c r="AC1" s="452"/>
+      <c r="AD1" s="452"/>
+      <c r="AE1" s="452"/>
+      <c r="AF1" s="452"/>
+      <c r="AG1" s="452"/>
+      <c r="AH1" s="452"/>
+      <c r="AI1" s="452"/>
+      <c r="AJ1" s="452"/>
+      <c r="AK1" s="452"/>
+      <c r="AL1" s="453"/>
+      <c r="AM1" s="451" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="451"/>
-      <c r="AO1" s="451"/>
-      <c r="AP1" s="451"/>
-      <c r="AQ1" s="451"/>
-      <c r="AR1" s="451"/>
-      <c r="AS1" s="451"/>
-      <c r="AT1" s="451"/>
-      <c r="AU1" s="451"/>
-      <c r="AV1" s="451"/>
-      <c r="AW1" s="451"/>
-      <c r="AX1" s="451"/>
-      <c r="AY1" s="451"/>
-      <c r="AZ1" s="451"/>
-      <c r="BA1" s="451"/>
-      <c r="BB1" s="451"/>
-      <c r="BC1" s="451"/>
-      <c r="BD1" s="451"/>
-      <c r="BE1" s="451"/>
-      <c r="BF1" s="451"/>
-      <c r="BG1" s="451"/>
-      <c r="BH1" s="452"/>
-      <c r="BI1" s="450" t="s">
+      <c r="AN1" s="452"/>
+      <c r="AO1" s="452"/>
+      <c r="AP1" s="452"/>
+      <c r="AQ1" s="452"/>
+      <c r="AR1" s="452"/>
+      <c r="AS1" s="452"/>
+      <c r="AT1" s="452"/>
+      <c r="AU1" s="452"/>
+      <c r="AV1" s="452"/>
+      <c r="AW1" s="452"/>
+      <c r="AX1" s="452"/>
+      <c r="AY1" s="452"/>
+      <c r="AZ1" s="452"/>
+      <c r="BA1" s="452"/>
+      <c r="BB1" s="452"/>
+      <c r="BC1" s="452"/>
+      <c r="BD1" s="452"/>
+      <c r="BE1" s="452"/>
+      <c r="BF1" s="452"/>
+      <c r="BG1" s="452"/>
+      <c r="BH1" s="453"/>
+      <c r="BI1" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="451"/>
-      <c r="BK1" s="451"/>
-      <c r="BL1" s="451"/>
-      <c r="BM1" s="451"/>
-      <c r="BN1" s="451"/>
-      <c r="BO1" s="451"/>
-      <c r="BP1" s="451"/>
-      <c r="BQ1" s="451"/>
-      <c r="BR1" s="451"/>
-      <c r="BS1" s="451"/>
-      <c r="BT1" s="451"/>
-      <c r="BU1" s="451"/>
-      <c r="BV1" s="451"/>
-      <c r="BW1" s="451"/>
-      <c r="BX1" s="451"/>
-      <c r="BY1" s="451"/>
-      <c r="BZ1" s="451"/>
-      <c r="CA1" s="451"/>
-      <c r="CB1" s="451"/>
-      <c r="CC1" s="451"/>
-      <c r="CD1" s="452"/>
-      <c r="CE1" s="450" t="s">
+      <c r="BJ1" s="452"/>
+      <c r="BK1" s="452"/>
+      <c r="BL1" s="452"/>
+      <c r="BM1" s="452"/>
+      <c r="BN1" s="452"/>
+      <c r="BO1" s="452"/>
+      <c r="BP1" s="452"/>
+      <c r="BQ1" s="452"/>
+      <c r="BR1" s="452"/>
+      <c r="BS1" s="452"/>
+      <c r="BT1" s="452"/>
+      <c r="BU1" s="452"/>
+      <c r="BV1" s="452"/>
+      <c r="BW1" s="452"/>
+      <c r="BX1" s="452"/>
+      <c r="BY1" s="452"/>
+      <c r="BZ1" s="452"/>
+      <c r="CA1" s="452"/>
+      <c r="CB1" s="452"/>
+      <c r="CC1" s="452"/>
+      <c r="CD1" s="453"/>
+      <c r="CE1" s="451" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="451"/>
-      <c r="CG1" s="451"/>
-      <c r="CH1" s="451"/>
-      <c r="CI1" s="451"/>
-      <c r="CJ1" s="451"/>
-      <c r="CK1" s="451"/>
-      <c r="CL1" s="451"/>
-      <c r="CM1" s="452"/>
-      <c r="CN1" s="450" t="s">
+      <c r="CF1" s="452"/>
+      <c r="CG1" s="452"/>
+      <c r="CH1" s="452"/>
+      <c r="CI1" s="452"/>
+      <c r="CJ1" s="452"/>
+      <c r="CK1" s="452"/>
+      <c r="CL1" s="452"/>
+      <c r="CM1" s="453"/>
+      <c r="CN1" s="451" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="451"/>
-      <c r="CP1" s="451"/>
-      <c r="CQ1" s="451"/>
-      <c r="CR1" s="451"/>
-      <c r="CS1" s="451"/>
-      <c r="CT1" s="451"/>
-      <c r="CU1" s="451"/>
-      <c r="CV1" s="451"/>
-      <c r="CW1" s="452"/>
+      <c r="CO1" s="452"/>
+      <c r="CP1" s="452"/>
+      <c r="CQ1" s="452"/>
+      <c r="CR1" s="452"/>
+      <c r="CS1" s="452"/>
+      <c r="CT1" s="452"/>
+      <c r="CU1" s="452"/>
+      <c r="CV1" s="452"/>
+      <c r="CW1" s="453"/>
       <c r="CX1" s="99"/>
     </row>
-    <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -23519,7 +23530,7 @@
       </c>
       <c r="CX2" s="208"/>
     </row>
-    <row r="3" spans="1:102" s="113" customFormat="1">
+    <row r="3" spans="1:102" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -23625,7 +23636,7 @@
       <c r="CW3" s="111"/>
       <c r="CX3" s="209"/>
     </row>
-    <row r="4" spans="1:102" s="64" customFormat="1">
+    <row r="4" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -23648,7 +23659,7 @@
       <c r="CW4" s="87"/>
       <c r="CX4" s="71"/>
     </row>
-    <row r="5" spans="1:102" s="64" customFormat="1">
+    <row r="5" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -23671,7 +23682,7 @@
       <c r="CW5" s="87"/>
       <c r="CX5" s="71"/>
     </row>
-    <row r="6" spans="1:102" s="64" customFormat="1">
+    <row r="6" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -23697,7 +23708,7 @@
       <c r="CW6" s="87"/>
       <c r="CX6" s="71"/>
     </row>
-    <row r="7" spans="1:102" s="64" customFormat="1">
+    <row r="7" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -23723,7 +23734,7 @@
       <c r="CW7" s="87"/>
       <c r="CX7" s="71"/>
     </row>
-    <row r="8" spans="1:102" s="64" customFormat="1">
+    <row r="8" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -23749,7 +23760,7 @@
       <c r="CW8" s="87"/>
       <c r="CX8" s="71"/>
     </row>
-    <row r="9" spans="1:102" s="64" customFormat="1">
+    <row r="9" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -23775,7 +23786,7 @@
       <c r="CW9" s="87"/>
       <c r="CX9" s="71"/>
     </row>
-    <row r="10" spans="1:102" s="64" customFormat="1">
+    <row r="10" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -23801,7 +23812,7 @@
       <c r="CW10" s="87"/>
       <c r="CX10" s="71"/>
     </row>
-    <row r="11" spans="1:102" s="64" customFormat="1">
+    <row r="11" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -23827,7 +23838,7 @@
       <c r="CW11" s="87"/>
       <c r="CX11" s="71"/>
     </row>
-    <row r="12" spans="1:102" s="64" customFormat="1">
+    <row r="12" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -23851,7 +23862,7 @@
       <c r="CW12" s="87"/>
       <c r="CX12" s="71"/>
     </row>
-    <row r="13" spans="1:102" s="64" customFormat="1">
+    <row r="13" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -23875,7 +23886,7 @@
       <c r="CW13" s="87"/>
       <c r="CX13" s="71"/>
     </row>
-    <row r="14" spans="1:102" s="64" customFormat="1">
+    <row r="14" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -23899,7 +23910,7 @@
       <c r="CW14" s="87"/>
       <c r="CX14" s="71"/>
     </row>
-    <row r="15" spans="1:102" s="64" customFormat="1">
+    <row r="15" spans="1:102" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -23924,7 +23935,7 @@
       <c r="CW15" s="87"/>
       <c r="CX15" s="71"/>
     </row>
-    <row r="16" spans="1:102" s="116" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:102" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -23952,7 +23963,7 @@
       <c r="CW16" s="166"/>
       <c r="CX16" s="118"/>
     </row>
-    <row r="17" spans="1:102" s="121" customFormat="1">
+    <row r="17" spans="1:102" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -23975,7 +23986,7 @@
       <c r="CW17" s="122"/>
       <c r="CX17" s="123"/>
     </row>
-    <row r="18" spans="1:102" s="66" customFormat="1">
+    <row r="18" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -23997,7 +24008,7 @@
       <c r="CW18" s="90"/>
       <c r="CX18" s="72"/>
     </row>
-    <row r="19" spans="1:102" s="66" customFormat="1">
+    <row r="19" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -24019,7 +24030,7 @@
       <c r="CW19" s="90"/>
       <c r="CX19" s="72"/>
     </row>
-    <row r="20" spans="1:102" s="66" customFormat="1">
+    <row r="20" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -24042,7 +24053,7 @@
       <c r="CW20" s="90"/>
       <c r="CX20" s="72"/>
     </row>
-    <row r="21" spans="1:102" s="66" customFormat="1">
+    <row r="21" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -24070,7 +24081,7 @@
       <c r="CW21" s="90"/>
       <c r="CX21" s="72"/>
     </row>
-    <row r="22" spans="1:102" s="66" customFormat="1">
+    <row r="22" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -24094,7 +24105,7 @@
       <c r="CW22" s="90"/>
       <c r="CX22" s="72"/>
     </row>
-    <row r="23" spans="1:102" s="66" customFormat="1">
+    <row r="23" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -24122,7 +24133,7 @@
       <c r="CW23" s="90"/>
       <c r="CX23" s="72"/>
     </row>
-    <row r="24" spans="1:102" s="66" customFormat="1">
+    <row r="24" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -24144,7 +24155,7 @@
       <c r="CW24" s="90"/>
       <c r="CX24" s="72"/>
     </row>
-    <row r="25" spans="1:102" s="66" customFormat="1">
+    <row r="25" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -24167,7 +24178,7 @@
       <c r="CW25" s="90"/>
       <c r="CX25" s="72"/>
     </row>
-    <row r="26" spans="1:102" s="66" customFormat="1">
+    <row r="26" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
@@ -24190,7 +24201,7 @@
       <c r="CW26" s="90"/>
       <c r="CX26" s="72"/>
     </row>
-    <row r="27" spans="1:102" s="66" customFormat="1">
+    <row r="27" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
@@ -24213,7 +24224,7 @@
       <c r="CW27" s="90"/>
       <c r="CX27" s="72"/>
     </row>
-    <row r="28" spans="1:102" s="66" customFormat="1">
+    <row r="28" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
@@ -24236,7 +24247,7 @@
       <c r="CW28" s="90"/>
       <c r="CX28" s="72"/>
     </row>
-    <row r="29" spans="1:102" s="66" customFormat="1">
+    <row r="29" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
@@ -24259,7 +24270,7 @@
       <c r="CW29" s="90"/>
       <c r="CX29" s="72"/>
     </row>
-    <row r="30" spans="1:102" s="66" customFormat="1">
+    <row r="30" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
@@ -24282,7 +24293,7 @@
       <c r="CW30" s="90"/>
       <c r="CX30" s="72"/>
     </row>
-    <row r="31" spans="1:102" s="66" customFormat="1">
+    <row r="31" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
@@ -24305,7 +24316,7 @@
       <c r="CW31" s="90"/>
       <c r="CX31" s="72"/>
     </row>
-    <row r="32" spans="1:102" s="66" customFormat="1">
+    <row r="32" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
@@ -24328,7 +24339,7 @@
       <c r="CW32" s="90"/>
       <c r="CX32" s="72"/>
     </row>
-    <row r="33" spans="1:102" s="66" customFormat="1">
+    <row r="33" spans="1:102" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
@@ -24351,7 +24362,7 @@
       <c r="CW33" s="90"/>
       <c r="CX33" s="72"/>
     </row>
-    <row r="34" spans="1:102" s="126" customFormat="1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:102" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
@@ -24381,7 +24392,7 @@
       <c r="CW34" s="127"/>
       <c r="CX34" s="128"/>
     </row>
-    <row r="35" spans="1:102" s="131" customFormat="1">
+    <row r="35" spans="1:102" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="129" t="s">
         <v>97</v>
       </c>
@@ -24404,7 +24415,7 @@
       <c r="CW35" s="132"/>
       <c r="CX35" s="133"/>
     </row>
-    <row r="36" spans="1:102" s="68" customFormat="1">
+    <row r="36" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
@@ -24425,7 +24436,7 @@
       <c r="CW36" s="92"/>
       <c r="CX36" s="73"/>
     </row>
-    <row r="37" spans="1:102" s="68" customFormat="1">
+    <row r="37" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
@@ -24448,7 +24459,7 @@
       <c r="CW37" s="92"/>
       <c r="CX37" s="73"/>
     </row>
-    <row r="38" spans="1:102" s="68" customFormat="1">
+    <row r="38" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
@@ -24470,7 +24481,7 @@
       <c r="CW38" s="92"/>
       <c r="CX38" s="73"/>
     </row>
-    <row r="39" spans="1:102" s="68" customFormat="1">
+    <row r="39" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
@@ -24491,7 +24502,7 @@
       <c r="CW39" s="92"/>
       <c r="CX39" s="73"/>
     </row>
-    <row r="40" spans="1:102" s="174" customFormat="1">
+    <row r="40" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
@@ -24513,7 +24524,7 @@
       <c r="CW40" s="175"/>
       <c r="CX40" s="176"/>
     </row>
-    <row r="41" spans="1:102" s="174" customFormat="1">
+    <row r="41" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
@@ -24535,7 +24546,7 @@
       <c r="CW41" s="175"/>
       <c r="CX41" s="176"/>
     </row>
-    <row r="42" spans="1:102" s="174" customFormat="1">
+    <row r="42" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
@@ -24557,7 +24568,7 @@
       <c r="CW42" s="175"/>
       <c r="CX42" s="176"/>
     </row>
-    <row r="43" spans="1:102" s="174" customFormat="1">
+    <row r="43" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
@@ -24579,7 +24590,7 @@
       <c r="CW43" s="175"/>
       <c r="CX43" s="176"/>
     </row>
-    <row r="44" spans="1:102" s="174" customFormat="1">
+    <row r="44" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
@@ -24601,7 +24612,7 @@
       <c r="CW44" s="175"/>
       <c r="CX44" s="176"/>
     </row>
-    <row r="45" spans="1:102" s="174" customFormat="1">
+    <row r="45" spans="1:102" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
@@ -24623,7 +24634,7 @@
       <c r="CW45" s="175"/>
       <c r="CX45" s="176"/>
     </row>
-    <row r="46" spans="1:102" s="68" customFormat="1">
+    <row r="46" spans="1:102" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
@@ -24646,7 +24657,7 @@
       <c r="CW46" s="92"/>
       <c r="CX46" s="73"/>
     </row>
-    <row r="47" spans="1:102" s="136" customFormat="1" ht="15.75" thickBot="1">
+    <row r="47" spans="1:102" s="136" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="134" t="s">
         <v>100</v>
       </c>
@@ -24657,11 +24668,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="453" t="s">
+      <c r="AX47" s="454" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="454"/>
-      <c r="AZ47" s="455"/>
+      <c r="AY47" s="455"/>
+      <c r="AZ47" s="456"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -24681,7 +24692,7 @@
       <c r="CW47" s="137"/>
       <c r="CX47" s="138"/>
     </row>
-    <row r="48" spans="1:102" s="141" customFormat="1">
+    <row r="48" spans="1:102" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
@@ -24704,7 +24715,7 @@
       <c r="CW48" s="142"/>
       <c r="CX48" s="143"/>
     </row>
-    <row r="49" spans="1:102" s="69" customFormat="1">
+    <row r="49" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
@@ -24726,7 +24737,7 @@
       <c r="CW49" s="94"/>
       <c r="CX49" s="74"/>
     </row>
-    <row r="50" spans="1:102" s="69" customFormat="1">
+    <row r="50" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
@@ -24747,7 +24758,7 @@
       <c r="CW50" s="94"/>
       <c r="CX50" s="74"/>
     </row>
-    <row r="51" spans="1:102" s="69" customFormat="1">
+    <row r="51" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
@@ -24769,7 +24780,7 @@
       <c r="CW51" s="94"/>
       <c r="CX51" s="74"/>
     </row>
-    <row r="52" spans="1:102" s="69" customFormat="1">
+    <row r="52" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
@@ -24791,7 +24802,7 @@
       <c r="CW52" s="94"/>
       <c r="CX52" s="74"/>
     </row>
-    <row r="53" spans="1:102" s="69" customFormat="1">
+    <row r="53" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
@@ -24813,7 +24824,7 @@
       <c r="CW53" s="94"/>
       <c r="CX53" s="74"/>
     </row>
-    <row r="54" spans="1:102" s="69" customFormat="1">
+    <row r="54" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
@@ -24835,7 +24846,7 @@
       <c r="CW54" s="94"/>
       <c r="CX54" s="74"/>
     </row>
-    <row r="55" spans="1:102" s="69" customFormat="1">
+    <row r="55" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
@@ -24856,7 +24867,7 @@
       <c r="CW55" s="94"/>
       <c r="CX55" s="74"/>
     </row>
-    <row r="56" spans="1:102" s="69" customFormat="1">
+    <row r="56" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
@@ -24878,7 +24889,7 @@
       <c r="CW56" s="94"/>
       <c r="CX56" s="74"/>
     </row>
-    <row r="57" spans="1:102" s="69" customFormat="1">
+    <row r="57" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
@@ -24901,7 +24912,7 @@
       <c r="CW57" s="94"/>
       <c r="CX57" s="74"/>
     </row>
-    <row r="58" spans="1:102" s="69" customFormat="1">
+    <row r="58" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
@@ -24923,7 +24934,7 @@
       <c r="CW58" s="94"/>
       <c r="CX58" s="74"/>
     </row>
-    <row r="59" spans="1:102" s="69" customFormat="1">
+    <row r="59" spans="1:102" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
@@ -24945,7 +24956,7 @@
       <c r="CW59" s="94"/>
       <c r="CX59" s="74"/>
     </row>
-    <row r="60" spans="1:102" s="146" customFormat="1" ht="15.75" thickBot="1">
+    <row r="60" spans="1:102" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
@@ -24960,11 +24971,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="456" t="s">
+      <c r="BS60" s="457" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="457"/>
-      <c r="BU60" s="458"/>
+      <c r="BT60" s="458"/>
+      <c r="BU60" s="459"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -24982,7 +24993,7 @@
       <c r="CW60" s="147"/>
       <c r="CX60" s="148"/>
     </row>
-    <row r="61" spans="1:102" s="156" customFormat="1">
+    <row r="61" spans="1:102" s="156" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="154" t="s">
         <v>93</v>
       </c>
@@ -25005,7 +25016,7 @@
       <c r="CW61" s="157"/>
       <c r="CX61" s="158"/>
     </row>
-    <row r="62" spans="1:102" s="70" customFormat="1">
+    <row r="62" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
@@ -25029,7 +25040,7 @@
       <c r="CW62" s="96"/>
       <c r="CX62" s="75"/>
     </row>
-    <row r="63" spans="1:102" s="70" customFormat="1">
+    <row r="63" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
@@ -25053,7 +25064,7 @@
       <c r="CW63" s="96"/>
       <c r="CX63" s="75"/>
     </row>
-    <row r="64" spans="1:102" s="70" customFormat="1">
+    <row r="64" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
@@ -25076,7 +25087,7 @@
       <c r="CW64" s="96"/>
       <c r="CX64" s="75"/>
     </row>
-    <row r="65" spans="1:102" s="70" customFormat="1">
+    <row r="65" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
@@ -25100,7 +25111,7 @@
       <c r="CW65" s="96"/>
       <c r="CX65" s="75"/>
     </row>
-    <row r="66" spans="1:102" s="70" customFormat="1">
+    <row r="66" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
@@ -25124,7 +25135,7 @@
       <c r="CW66" s="96"/>
       <c r="CX66" s="75"/>
     </row>
-    <row r="67" spans="1:102" s="70" customFormat="1">
+    <row r="67" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
@@ -25147,7 +25158,7 @@
       <c r="CW67" s="96"/>
       <c r="CX67" s="75"/>
     </row>
-    <row r="68" spans="1:102" s="70" customFormat="1">
+    <row r="68" spans="1:102" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
@@ -25172,7 +25183,7 @@
       <c r="CW68" s="96"/>
       <c r="CX68" s="75"/>
     </row>
-    <row r="69" spans="1:102" s="161" customFormat="1" ht="15.75" thickBot="1">
+    <row r="69" spans="1:102" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
@@ -25200,7 +25211,7 @@
       <c r="CW69" s="162"/>
       <c r="CX69" s="163"/>
     </row>
-    <row r="70" spans="1:102" s="212" customFormat="1" ht="15.75" thickBot="1">
+    <row r="70" spans="1:102" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
@@ -25225,7 +25236,7 @@
       </c>
       <c r="CX70" s="214"/>
     </row>
-    <row r="71" spans="1:102" s="151" customFormat="1">
+    <row r="71" spans="1:102" s="151" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
       <c r="P71" s="153"/>
@@ -25271,7 +25282,7 @@
       <selection pane="topRight" activeCell="DA49" sqref="DA49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="97" bestFit="1" customWidth="1"/>
@@ -25326,125 +25337,125 @@
     <col min="105" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="100" customFormat="1">
+    <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="459" t="s">
+      <c r="B1" s="460" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="460"/>
-      <c r="D1" s="460"/>
-      <c r="E1" s="460"/>
-      <c r="F1" s="460"/>
-      <c r="G1" s="460"/>
-      <c r="H1" s="460"/>
-      <c r="I1" s="460"/>
-      <c r="J1" s="460"/>
-      <c r="K1" s="460"/>
-      <c r="L1" s="460"/>
-      <c r="M1" s="460"/>
-      <c r="N1" s="460"/>
-      <c r="O1" s="460"/>
-      <c r="P1" s="460"/>
-      <c r="Q1" s="461"/>
-      <c r="R1" s="450" t="s">
+      <c r="C1" s="461"/>
+      <c r="D1" s="461"/>
+      <c r="E1" s="461"/>
+      <c r="F1" s="461"/>
+      <c r="G1" s="461"/>
+      <c r="H1" s="461"/>
+      <c r="I1" s="461"/>
+      <c r="J1" s="461"/>
+      <c r="K1" s="461"/>
+      <c r="L1" s="461"/>
+      <c r="M1" s="461"/>
+      <c r="N1" s="461"/>
+      <c r="O1" s="461"/>
+      <c r="P1" s="461"/>
+      <c r="Q1" s="462"/>
+      <c r="R1" s="451" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="451"/>
-      <c r="T1" s="451"/>
-      <c r="U1" s="451"/>
-      <c r="V1" s="451"/>
-      <c r="W1" s="451"/>
-      <c r="X1" s="451"/>
-      <c r="Y1" s="451"/>
-      <c r="Z1" s="451"/>
-      <c r="AA1" s="451"/>
-      <c r="AB1" s="451"/>
-      <c r="AC1" s="451"/>
-      <c r="AD1" s="451"/>
-      <c r="AE1" s="451"/>
-      <c r="AF1" s="451"/>
-      <c r="AG1" s="451"/>
-      <c r="AH1" s="451"/>
-      <c r="AI1" s="451"/>
-      <c r="AJ1" s="451"/>
-      <c r="AK1" s="451"/>
-      <c r="AL1" s="451"/>
-      <c r="AM1" s="452"/>
-      <c r="AN1" s="450" t="s">
+      <c r="S1" s="452"/>
+      <c r="T1" s="452"/>
+      <c r="U1" s="452"/>
+      <c r="V1" s="452"/>
+      <c r="W1" s="452"/>
+      <c r="X1" s="452"/>
+      <c r="Y1" s="452"/>
+      <c r="Z1" s="452"/>
+      <c r="AA1" s="452"/>
+      <c r="AB1" s="452"/>
+      <c r="AC1" s="452"/>
+      <c r="AD1" s="452"/>
+      <c r="AE1" s="452"/>
+      <c r="AF1" s="452"/>
+      <c r="AG1" s="452"/>
+      <c r="AH1" s="452"/>
+      <c r="AI1" s="452"/>
+      <c r="AJ1" s="452"/>
+      <c r="AK1" s="452"/>
+      <c r="AL1" s="452"/>
+      <c r="AM1" s="453"/>
+      <c r="AN1" s="451" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="451"/>
-      <c r="AP1" s="451"/>
-      <c r="AQ1" s="451"/>
-      <c r="AR1" s="451"/>
-      <c r="AS1" s="451"/>
-      <c r="AT1" s="451"/>
-      <c r="AU1" s="451"/>
-      <c r="AV1" s="451"/>
-      <c r="AW1" s="451"/>
-      <c r="AX1" s="451"/>
-      <c r="AY1" s="451"/>
-      <c r="AZ1" s="451"/>
-      <c r="BA1" s="451"/>
-      <c r="BB1" s="451"/>
-      <c r="BC1" s="451"/>
-      <c r="BD1" s="451"/>
-      <c r="BE1" s="451"/>
-      <c r="BF1" s="451"/>
-      <c r="BG1" s="451"/>
-      <c r="BH1" s="451"/>
-      <c r="BI1" s="451"/>
-      <c r="BJ1" s="452"/>
-      <c r="BK1" s="450" t="s">
+      <c r="AO1" s="452"/>
+      <c r="AP1" s="452"/>
+      <c r="AQ1" s="452"/>
+      <c r="AR1" s="452"/>
+      <c r="AS1" s="452"/>
+      <c r="AT1" s="452"/>
+      <c r="AU1" s="452"/>
+      <c r="AV1" s="452"/>
+      <c r="AW1" s="452"/>
+      <c r="AX1" s="452"/>
+      <c r="AY1" s="452"/>
+      <c r="AZ1" s="452"/>
+      <c r="BA1" s="452"/>
+      <c r="BB1" s="452"/>
+      <c r="BC1" s="452"/>
+      <c r="BD1" s="452"/>
+      <c r="BE1" s="452"/>
+      <c r="BF1" s="452"/>
+      <c r="BG1" s="452"/>
+      <c r="BH1" s="452"/>
+      <c r="BI1" s="452"/>
+      <c r="BJ1" s="453"/>
+      <c r="BK1" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="451"/>
-      <c r="BM1" s="451"/>
-      <c r="BN1" s="451"/>
-      <c r="BO1" s="451"/>
-      <c r="BP1" s="451"/>
-      <c r="BQ1" s="451"/>
-      <c r="BR1" s="451"/>
-      <c r="BS1" s="451"/>
-      <c r="BT1" s="451"/>
-      <c r="BU1" s="451"/>
-      <c r="BV1" s="451"/>
-      <c r="BW1" s="451"/>
-      <c r="BX1" s="451"/>
-      <c r="BY1" s="451"/>
-      <c r="BZ1" s="451"/>
-      <c r="CA1" s="451"/>
-      <c r="CB1" s="451"/>
-      <c r="CC1" s="451"/>
-      <c r="CD1" s="451"/>
-      <c r="CE1" s="451"/>
-      <c r="CF1" s="451"/>
-      <c r="CG1" s="452"/>
-      <c r="CH1" s="450" t="s">
+      <c r="BL1" s="452"/>
+      <c r="BM1" s="452"/>
+      <c r="BN1" s="452"/>
+      <c r="BO1" s="452"/>
+      <c r="BP1" s="452"/>
+      <c r="BQ1" s="452"/>
+      <c r="BR1" s="452"/>
+      <c r="BS1" s="452"/>
+      <c r="BT1" s="452"/>
+      <c r="BU1" s="452"/>
+      <c r="BV1" s="452"/>
+      <c r="BW1" s="452"/>
+      <c r="BX1" s="452"/>
+      <c r="BY1" s="452"/>
+      <c r="BZ1" s="452"/>
+      <c r="CA1" s="452"/>
+      <c r="CB1" s="452"/>
+      <c r="CC1" s="452"/>
+      <c r="CD1" s="452"/>
+      <c r="CE1" s="452"/>
+      <c r="CF1" s="452"/>
+      <c r="CG1" s="453"/>
+      <c r="CH1" s="451" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="451"/>
-      <c r="CJ1" s="451"/>
-      <c r="CK1" s="451"/>
-      <c r="CL1" s="451"/>
-      <c r="CM1" s="451"/>
-      <c r="CN1" s="451"/>
-      <c r="CO1" s="451"/>
-      <c r="CP1" s="451"/>
-      <c r="CQ1" s="452"/>
-      <c r="CR1" s="462" t="s">
+      <c r="CI1" s="452"/>
+      <c r="CJ1" s="452"/>
+      <c r="CK1" s="452"/>
+      <c r="CL1" s="452"/>
+      <c r="CM1" s="452"/>
+      <c r="CN1" s="452"/>
+      <c r="CO1" s="452"/>
+      <c r="CP1" s="452"/>
+      <c r="CQ1" s="453"/>
+      <c r="CR1" s="463" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="463"/>
-      <c r="CT1" s="463"/>
-      <c r="CU1" s="463"/>
-      <c r="CV1" s="463"/>
-      <c r="CW1" s="463"/>
-      <c r="CX1" s="463"/>
-      <c r="CY1" s="464"/>
+      <c r="CS1" s="464"/>
+      <c r="CT1" s="464"/>
+      <c r="CU1" s="464"/>
+      <c r="CV1" s="464"/>
+      <c r="CW1" s="464"/>
+      <c r="CX1" s="464"/>
+      <c r="CY1" s="465"/>
       <c r="CZ1" s="99"/>
     </row>
-    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -25756,7 +25767,7 @@
       </c>
       <c r="CZ2" s="208"/>
     </row>
-    <row r="3" spans="1:104" s="113" customFormat="1">
+    <row r="3" spans="1:104" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -25863,7 +25874,7 @@
       <c r="CY3" s="269"/>
       <c r="CZ3" s="209"/>
     </row>
-    <row r="4" spans="1:104" s="64" customFormat="1">
+    <row r="4" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -25895,7 +25906,7 @@
       <c r="CY4" s="87"/>
       <c r="CZ4" s="71"/>
     </row>
-    <row r="5" spans="1:104" s="64" customFormat="1">
+    <row r="5" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -25927,7 +25938,7 @@
       <c r="CY5" s="87"/>
       <c r="CZ5" s="71"/>
     </row>
-    <row r="6" spans="1:104" s="64" customFormat="1">
+    <row r="6" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -25962,7 +25973,7 @@
       <c r="CY6" s="87"/>
       <c r="CZ6" s="71"/>
     </row>
-    <row r="7" spans="1:104" s="64" customFormat="1">
+    <row r="7" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -25999,7 +26010,7 @@
       <c r="CY7" s="87"/>
       <c r="CZ7" s="71"/>
     </row>
-    <row r="8" spans="1:104" s="64" customFormat="1">
+    <row r="8" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -26034,7 +26045,7 @@
       <c r="CY8" s="87"/>
       <c r="CZ8" s="71"/>
     </row>
-    <row r="9" spans="1:104" s="64" customFormat="1">
+    <row r="9" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -26069,7 +26080,7 @@
       <c r="CY9" s="87"/>
       <c r="CZ9" s="71"/>
     </row>
-    <row r="10" spans="1:104" s="64" customFormat="1">
+    <row r="10" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -26104,7 +26115,7 @@
       <c r="CY10" s="87"/>
       <c r="CZ10" s="71"/>
     </row>
-    <row r="11" spans="1:104" s="64" customFormat="1">
+    <row r="11" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -26139,7 +26150,7 @@
       <c r="CY11" s="87"/>
       <c r="CZ11" s="71"/>
     </row>
-    <row r="12" spans="1:104" s="64" customFormat="1">
+    <row r="12" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -26172,7 +26183,7 @@
       <c r="CY12" s="87"/>
       <c r="CZ12" s="71"/>
     </row>
-    <row r="13" spans="1:104" s="64" customFormat="1">
+    <row r="13" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -26205,7 +26216,7 @@
       <c r="CY13" s="87"/>
       <c r="CZ13" s="71"/>
     </row>
-    <row r="14" spans="1:104" s="64" customFormat="1">
+    <row r="14" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -26238,7 +26249,7 @@
       <c r="CY14" s="87"/>
       <c r="CZ14" s="71"/>
     </row>
-    <row r="15" spans="1:104" s="64" customFormat="1">
+    <row r="15" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -26272,7 +26283,7 @@
       <c r="CY15" s="87"/>
       <c r="CZ15" s="71"/>
     </row>
-    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -26310,7 +26321,7 @@
       <c r="CY16" s="166"/>
       <c r="CZ16" s="118"/>
     </row>
-    <row r="17" spans="1:104" s="121" customFormat="1">
+    <row r="17" spans="1:104" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -26341,7 +26352,7 @@
       <c r="CY17" s="122"/>
       <c r="CZ17" s="123"/>
     </row>
-    <row r="18" spans="1:104" s="66" customFormat="1">
+    <row r="18" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -26370,7 +26381,7 @@
       <c r="CY18" s="90"/>
       <c r="CZ18" s="72"/>
     </row>
-    <row r="19" spans="1:104" s="66" customFormat="1">
+    <row r="19" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -26400,7 +26411,7 @@
       <c r="CY19" s="90"/>
       <c r="CZ19" s="72"/>
     </row>
-    <row r="20" spans="1:104" s="66" customFormat="1">
+    <row r="20" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -26430,7 +26441,7 @@
       <c r="CY20" s="90"/>
       <c r="CZ20" s="72"/>
     </row>
-    <row r="21" spans="1:104" s="66" customFormat="1">
+    <row r="21" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -26465,7 +26476,7 @@
       <c r="CY21" s="90"/>
       <c r="CZ21" s="72"/>
     </row>
-    <row r="22" spans="1:104" s="66" customFormat="1">
+    <row r="22" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -26497,7 +26508,7 @@
       <c r="CY22" s="90"/>
       <c r="CZ22" s="72"/>
     </row>
-    <row r="23" spans="1:104" s="66" customFormat="1">
+    <row r="23" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -26532,7 +26543,7 @@
       <c r="CY23" s="90"/>
       <c r="CZ23" s="72"/>
     </row>
-    <row r="24" spans="1:104" s="66" customFormat="1">
+    <row r="24" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -26561,7 +26572,7 @@
       <c r="CY24" s="90"/>
       <c r="CZ24" s="72"/>
     </row>
-    <row r="25" spans="1:104" s="66" customFormat="1">
+    <row r="25" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -26591,7 +26602,7 @@
       <c r="CY25" s="90"/>
       <c r="CZ25" s="72"/>
     </row>
-    <row r="26" spans="1:104" s="66" customFormat="1">
+    <row r="26" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
@@ -26622,7 +26633,7 @@
       <c r="CY26" s="90"/>
       <c r="CZ26" s="72"/>
     </row>
-    <row r="27" spans="1:104" s="66" customFormat="1">
+    <row r="27" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
@@ -26652,7 +26663,7 @@
       <c r="CY27" s="90"/>
       <c r="CZ27" s="72"/>
     </row>
-    <row r="28" spans="1:104" s="66" customFormat="1">
+    <row r="28" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
@@ -26682,7 +26693,7 @@
       <c r="CY28" s="90"/>
       <c r="CZ28" s="72"/>
     </row>
-    <row r="29" spans="1:104" s="66" customFormat="1">
+    <row r="29" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
@@ -26712,7 +26723,7 @@
       <c r="CY29" s="90"/>
       <c r="CZ29" s="72"/>
     </row>
-    <row r="30" spans="1:104" s="66" customFormat="1">
+    <row r="30" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
@@ -26742,7 +26753,7 @@
       <c r="CY30" s="90"/>
       <c r="CZ30" s="72"/>
     </row>
-    <row r="31" spans="1:104" s="66" customFormat="1">
+    <row r="31" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
@@ -26772,7 +26783,7 @@
       <c r="CY31" s="90"/>
       <c r="CZ31" s="72"/>
     </row>
-    <row r="32" spans="1:104" s="66" customFormat="1">
+    <row r="32" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
@@ -26802,7 +26813,7 @@
       <c r="CY32" s="90"/>
       <c r="CZ32" s="72"/>
     </row>
-    <row r="33" spans="1:104" s="66" customFormat="1">
+    <row r="33" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
@@ -26833,7 +26844,7 @@
       <c r="CY33" s="90"/>
       <c r="CZ33" s="72"/>
     </row>
-    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
@@ -26873,7 +26884,7 @@
       <c r="CY34" s="127"/>
       <c r="CZ34" s="128"/>
     </row>
-    <row r="35" spans="1:104" s="272" customFormat="1">
+    <row r="35" spans="1:104" s="272" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="270" t="s">
         <v>97</v>
       </c>
@@ -26903,7 +26914,7 @@
       <c r="CY35" s="274"/>
       <c r="CZ35" s="276"/>
     </row>
-    <row r="36" spans="1:104" s="68" customFormat="1">
+    <row r="36" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
@@ -26933,7 +26944,7 @@
       <c r="CY36" s="92"/>
       <c r="CZ36" s="73"/>
     </row>
-    <row r="37" spans="1:104" s="68" customFormat="1">
+    <row r="37" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
@@ -26965,7 +26976,7 @@
       <c r="CY37" s="92"/>
       <c r="CZ37" s="73"/>
     </row>
-    <row r="38" spans="1:104" s="68" customFormat="1">
+    <row r="38" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
@@ -26996,7 +27007,7 @@
       <c r="CY38" s="92"/>
       <c r="CZ38" s="73"/>
     </row>
-    <row r="39" spans="1:104" s="68" customFormat="1">
+    <row r="39" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
@@ -27026,7 +27037,7 @@
       <c r="CY39" s="92"/>
       <c r="CZ39" s="73"/>
     </row>
-    <row r="40" spans="1:104" s="174" customFormat="1">
+    <row r="40" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
@@ -27056,7 +27067,7 @@
       <c r="CY40" s="175"/>
       <c r="CZ40" s="176"/>
     </row>
-    <row r="41" spans="1:104" s="174" customFormat="1">
+    <row r="41" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
@@ -27086,7 +27097,7 @@
       <c r="CY41" s="175"/>
       <c r="CZ41" s="176"/>
     </row>
-    <row r="42" spans="1:104" s="174" customFormat="1">
+    <row r="42" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
@@ -27116,7 +27127,7 @@
       <c r="CY42" s="175"/>
       <c r="CZ42" s="176"/>
     </row>
-    <row r="43" spans="1:104" s="174" customFormat="1">
+    <row r="43" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
@@ -27146,7 +27157,7 @@
       <c r="CY43" s="175"/>
       <c r="CZ43" s="176"/>
     </row>
-    <row r="44" spans="1:104" s="174" customFormat="1">
+    <row r="44" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
@@ -27176,7 +27187,7 @@
       <c r="CY44" s="175"/>
       <c r="CZ44" s="176"/>
     </row>
-    <row r="45" spans="1:104" s="174" customFormat="1">
+    <row r="45" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
@@ -27206,7 +27217,7 @@
       <c r="CY45" s="175"/>
       <c r="CZ45" s="176"/>
     </row>
-    <row r="46" spans="1:104" s="68" customFormat="1">
+    <row r="46" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
@@ -27238,7 +27249,7 @@
       <c r="CY46" s="92"/>
       <c r="CZ46" s="73"/>
     </row>
-    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1">
+    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="279" t="s">
         <v>100</v>
       </c>
@@ -27250,11 +27261,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="465" t="s">
+      <c r="AY47" s="466" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="466"/>
-      <c r="BA47" s="467"/>
+      <c r="AZ47" s="467"/>
+      <c r="BA47" s="468"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27282,7 +27293,7 @@
       <c r="CY47" s="283"/>
       <c r="CZ47" s="288"/>
     </row>
-    <row r="48" spans="1:104" s="141" customFormat="1">
+    <row r="48" spans="1:104" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
@@ -27312,7 +27323,7 @@
       <c r="CY48" s="142"/>
       <c r="CZ48" s="143"/>
     </row>
-    <row r="49" spans="1:104" s="69" customFormat="1">
+    <row r="49" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
@@ -27341,7 +27352,7 @@
       <c r="CY49" s="94"/>
       <c r="CZ49" s="74"/>
     </row>
-    <row r="50" spans="1:104" s="69" customFormat="1">
+    <row r="50" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
@@ -27369,7 +27380,7 @@
       <c r="CY50" s="94"/>
       <c r="CZ50" s="74"/>
     </row>
-    <row r="51" spans="1:104" s="69" customFormat="1">
+    <row r="51" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
@@ -27398,7 +27409,7 @@
       <c r="CY51" s="94"/>
       <c r="CZ51" s="74"/>
     </row>
-    <row r="52" spans="1:104" s="69" customFormat="1">
+    <row r="52" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
@@ -27427,7 +27438,7 @@
       <c r="CY52" s="94"/>
       <c r="CZ52" s="74"/>
     </row>
-    <row r="53" spans="1:104" s="69" customFormat="1">
+    <row r="53" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
@@ -27456,7 +27467,7 @@
       <c r="CY53" s="94"/>
       <c r="CZ53" s="74"/>
     </row>
-    <row r="54" spans="1:104" s="69" customFormat="1">
+    <row r="54" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
@@ -27485,7 +27496,7 @@
       <c r="CY54" s="94"/>
       <c r="CZ54" s="74"/>
     </row>
-    <row r="55" spans="1:104" s="69" customFormat="1">
+    <row r="55" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
@@ -27513,7 +27524,7 @@
       <c r="CY55" s="94"/>
       <c r="CZ55" s="74"/>
     </row>
-    <row r="56" spans="1:104" s="69" customFormat="1">
+    <row r="56" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
@@ -27542,7 +27553,7 @@
       <c r="CY56" s="94"/>
       <c r="CZ56" s="74"/>
     </row>
-    <row r="57" spans="1:104" s="69" customFormat="1">
+    <row r="57" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
@@ -27572,7 +27583,7 @@
       <c r="CY57" s="94"/>
       <c r="CZ57" s="74"/>
     </row>
-    <row r="58" spans="1:104" s="69" customFormat="1">
+    <row r="58" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
@@ -27601,7 +27612,7 @@
       <c r="CY58" s="94"/>
       <c r="CZ58" s="74"/>
     </row>
-    <row r="59" spans="1:104" s="69" customFormat="1">
+    <row r="59" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
@@ -27630,7 +27641,7 @@
       <c r="CY59" s="94"/>
       <c r="CZ59" s="74"/>
     </row>
-    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1">
+    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
@@ -27647,11 +27658,11 @@
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="456" t="s">
+      <c r="BU60" s="457" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="457"/>
-      <c r="BW60" s="458"/>
+      <c r="BV60" s="458"/>
+      <c r="BW60" s="459"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -27675,7 +27686,7 @@
       <c r="CY60" s="147"/>
       <c r="CZ60" s="148"/>
     </row>
-    <row r="61" spans="1:104" s="291" customFormat="1">
+    <row r="61" spans="1:104" s="291" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="289" t="s">
         <v>93</v>
       </c>
@@ -27707,7 +27718,7 @@
       <c r="CY61" s="293"/>
       <c r="CZ61" s="295"/>
     </row>
-    <row r="62" spans="1:104" s="70" customFormat="1">
+    <row r="62" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
@@ -27738,7 +27749,7 @@
       <c r="CY62" s="96"/>
       <c r="CZ62" s="75"/>
     </row>
-    <row r="63" spans="1:104" s="70" customFormat="1">
+    <row r="63" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
@@ -27769,7 +27780,7 @@
       <c r="CY63" s="96"/>
       <c r="CZ63" s="75"/>
     </row>
-    <row r="64" spans="1:104" s="70" customFormat="1">
+    <row r="64" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
@@ -27799,7 +27810,7 @@
       <c r="CY64" s="96"/>
       <c r="CZ64" s="75"/>
     </row>
-    <row r="65" spans="1:104" s="70" customFormat="1">
+    <row r="65" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
@@ -27830,7 +27841,7 @@
       <c r="CY65" s="96"/>
       <c r="CZ65" s="75"/>
     </row>
-    <row r="66" spans="1:104" s="70" customFormat="1">
+    <row r="66" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
@@ -27861,7 +27872,7 @@
       <c r="CY66" s="96"/>
       <c r="CZ66" s="75"/>
     </row>
-    <row r="67" spans="1:104" s="70" customFormat="1">
+    <row r="67" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
@@ -27891,7 +27902,7 @@
       <c r="CY67" s="96"/>
       <c r="CZ67" s="75"/>
     </row>
-    <row r="68" spans="1:104" s="70" customFormat="1">
+    <row r="68" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
@@ -27923,7 +27934,7 @@
       <c r="CY68" s="96"/>
       <c r="CZ68" s="75"/>
     </row>
-    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1">
+    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
@@ -27956,7 +27967,7 @@
       <c r="CY69" s="162"/>
       <c r="CZ69" s="163"/>
     </row>
-    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1">
+    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
@@ -27990,7 +28001,7 @@
       </c>
       <c r="CZ70" s="214"/>
     </row>
-    <row r="71" spans="1:104" s="151" customFormat="1">
+    <row r="71" spans="1:104" s="151" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
       <c r="P71" s="238"/>
@@ -28046,7 +28057,7 @@
       <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="97" bestFit="1" customWidth="1"/>
@@ -28124,125 +28135,125 @@
     <col min="105" max="16384" width="8.28515625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="100" customFormat="1">
+    <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="459" t="s">
+      <c r="B1" s="460" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="460"/>
-      <c r="D1" s="460"/>
-      <c r="E1" s="460"/>
-      <c r="F1" s="460"/>
-      <c r="G1" s="460"/>
-      <c r="H1" s="460"/>
-      <c r="I1" s="460"/>
-      <c r="J1" s="460"/>
-      <c r="K1" s="460"/>
-      <c r="L1" s="460"/>
-      <c r="M1" s="460"/>
-      <c r="N1" s="460"/>
-      <c r="O1" s="460"/>
-      <c r="P1" s="460"/>
-      <c r="Q1" s="461"/>
-      <c r="R1" s="450" t="s">
+      <c r="C1" s="461"/>
+      <c r="D1" s="461"/>
+      <c r="E1" s="461"/>
+      <c r="F1" s="461"/>
+      <c r="G1" s="461"/>
+      <c r="H1" s="461"/>
+      <c r="I1" s="461"/>
+      <c r="J1" s="461"/>
+      <c r="K1" s="461"/>
+      <c r="L1" s="461"/>
+      <c r="M1" s="461"/>
+      <c r="N1" s="461"/>
+      <c r="O1" s="461"/>
+      <c r="P1" s="461"/>
+      <c r="Q1" s="462"/>
+      <c r="R1" s="451" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="451"/>
-      <c r="T1" s="451"/>
-      <c r="U1" s="451"/>
-      <c r="V1" s="451"/>
-      <c r="W1" s="451"/>
-      <c r="X1" s="451"/>
-      <c r="Y1" s="451"/>
-      <c r="Z1" s="451"/>
-      <c r="AA1" s="451"/>
-      <c r="AB1" s="451"/>
-      <c r="AC1" s="451"/>
-      <c r="AD1" s="451"/>
-      <c r="AE1" s="451"/>
-      <c r="AF1" s="451"/>
-      <c r="AG1" s="451"/>
-      <c r="AH1" s="451"/>
-      <c r="AI1" s="451"/>
-      <c r="AJ1" s="451"/>
-      <c r="AK1" s="451"/>
-      <c r="AL1" s="451"/>
-      <c r="AM1" s="452"/>
-      <c r="AN1" s="450" t="s">
+      <c r="S1" s="452"/>
+      <c r="T1" s="452"/>
+      <c r="U1" s="452"/>
+      <c r="V1" s="452"/>
+      <c r="W1" s="452"/>
+      <c r="X1" s="452"/>
+      <c r="Y1" s="452"/>
+      <c r="Z1" s="452"/>
+      <c r="AA1" s="452"/>
+      <c r="AB1" s="452"/>
+      <c r="AC1" s="452"/>
+      <c r="AD1" s="452"/>
+      <c r="AE1" s="452"/>
+      <c r="AF1" s="452"/>
+      <c r="AG1" s="452"/>
+      <c r="AH1" s="452"/>
+      <c r="AI1" s="452"/>
+      <c r="AJ1" s="452"/>
+      <c r="AK1" s="452"/>
+      <c r="AL1" s="452"/>
+      <c r="AM1" s="453"/>
+      <c r="AN1" s="451" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="451"/>
-      <c r="AP1" s="451"/>
-      <c r="AQ1" s="451"/>
-      <c r="AR1" s="451"/>
-      <c r="AS1" s="451"/>
-      <c r="AT1" s="451"/>
-      <c r="AU1" s="451"/>
-      <c r="AV1" s="451"/>
-      <c r="AW1" s="451"/>
-      <c r="AX1" s="451"/>
-      <c r="AY1" s="451"/>
-      <c r="AZ1" s="451"/>
-      <c r="BA1" s="451"/>
-      <c r="BB1" s="451"/>
-      <c r="BC1" s="451"/>
-      <c r="BD1" s="451"/>
-      <c r="BE1" s="451"/>
-      <c r="BF1" s="451"/>
-      <c r="BG1" s="451"/>
-      <c r="BH1" s="451"/>
-      <c r="BI1" s="451"/>
-      <c r="BJ1" s="452"/>
-      <c r="BK1" s="450" t="s">
+      <c r="AO1" s="452"/>
+      <c r="AP1" s="452"/>
+      <c r="AQ1" s="452"/>
+      <c r="AR1" s="452"/>
+      <c r="AS1" s="452"/>
+      <c r="AT1" s="452"/>
+      <c r="AU1" s="452"/>
+      <c r="AV1" s="452"/>
+      <c r="AW1" s="452"/>
+      <c r="AX1" s="452"/>
+      <c r="AY1" s="452"/>
+      <c r="AZ1" s="452"/>
+      <c r="BA1" s="452"/>
+      <c r="BB1" s="452"/>
+      <c r="BC1" s="452"/>
+      <c r="BD1" s="452"/>
+      <c r="BE1" s="452"/>
+      <c r="BF1" s="452"/>
+      <c r="BG1" s="452"/>
+      <c r="BH1" s="452"/>
+      <c r="BI1" s="452"/>
+      <c r="BJ1" s="453"/>
+      <c r="BK1" s="451" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="451"/>
-      <c r="BM1" s="451"/>
-      <c r="BN1" s="451"/>
-      <c r="BO1" s="451"/>
-      <c r="BP1" s="451"/>
-      <c r="BQ1" s="451"/>
-      <c r="BR1" s="451"/>
-      <c r="BS1" s="451"/>
-      <c r="BT1" s="451"/>
-      <c r="BU1" s="451"/>
-      <c r="BV1" s="451"/>
-      <c r="BW1" s="451"/>
-      <c r="BX1" s="451"/>
-      <c r="BY1" s="451"/>
-      <c r="BZ1" s="451"/>
-      <c r="CA1" s="451"/>
-      <c r="CB1" s="451"/>
-      <c r="CC1" s="451"/>
-      <c r="CD1" s="451"/>
-      <c r="CE1" s="451"/>
-      <c r="CF1" s="451"/>
-      <c r="CG1" s="452"/>
-      <c r="CH1" s="450" t="s">
+      <c r="BL1" s="452"/>
+      <c r="BM1" s="452"/>
+      <c r="BN1" s="452"/>
+      <c r="BO1" s="452"/>
+      <c r="BP1" s="452"/>
+      <c r="BQ1" s="452"/>
+      <c r="BR1" s="452"/>
+      <c r="BS1" s="452"/>
+      <c r="BT1" s="452"/>
+      <c r="BU1" s="452"/>
+      <c r="BV1" s="452"/>
+      <c r="BW1" s="452"/>
+      <c r="BX1" s="452"/>
+      <c r="BY1" s="452"/>
+      <c r="BZ1" s="452"/>
+      <c r="CA1" s="452"/>
+      <c r="CB1" s="452"/>
+      <c r="CC1" s="452"/>
+      <c r="CD1" s="452"/>
+      <c r="CE1" s="452"/>
+      <c r="CF1" s="452"/>
+      <c r="CG1" s="453"/>
+      <c r="CH1" s="451" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="451"/>
-      <c r="CJ1" s="451"/>
-      <c r="CK1" s="451"/>
-      <c r="CL1" s="451"/>
-      <c r="CM1" s="451"/>
-      <c r="CN1" s="451"/>
-      <c r="CO1" s="451"/>
-      <c r="CP1" s="451"/>
-      <c r="CQ1" s="452"/>
-      <c r="CR1" s="462" t="s">
+      <c r="CI1" s="452"/>
+      <c r="CJ1" s="452"/>
+      <c r="CK1" s="452"/>
+      <c r="CL1" s="452"/>
+      <c r="CM1" s="452"/>
+      <c r="CN1" s="452"/>
+      <c r="CO1" s="452"/>
+      <c r="CP1" s="452"/>
+      <c r="CQ1" s="453"/>
+      <c r="CR1" s="463" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="463"/>
-      <c r="CT1" s="463"/>
-      <c r="CU1" s="463"/>
-      <c r="CV1" s="463"/>
-      <c r="CW1" s="463"/>
-      <c r="CX1" s="463"/>
-      <c r="CY1" s="464"/>
+      <c r="CS1" s="464"/>
+      <c r="CT1" s="464"/>
+      <c r="CU1" s="464"/>
+      <c r="CV1" s="464"/>
+      <c r="CW1" s="464"/>
+      <c r="CX1" s="464"/>
+      <c r="CY1" s="465"/>
       <c r="CZ1" s="99"/>
     </row>
-    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -28554,7 +28565,7 @@
       </c>
       <c r="CZ2" s="208"/>
     </row>
-    <row r="3" spans="1:104" s="113" customFormat="1">
+    <row r="3" spans="1:104" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -28661,7 +28672,7 @@
       <c r="CY3" s="269"/>
       <c r="CZ3" s="209"/>
     </row>
-    <row r="4" spans="1:104" s="64" customFormat="1">
+    <row r="4" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -28711,7 +28722,7 @@
       <c r="CY4" s="87"/>
       <c r="CZ4" s="71"/>
     </row>
-    <row r="5" spans="1:104" s="64" customFormat="1">
+    <row r="5" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -28761,7 +28772,7 @@
       <c r="CY5" s="87"/>
       <c r="CZ5" s="71"/>
     </row>
-    <row r="6" spans="1:104" s="64" customFormat="1">
+    <row r="6" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -28813,7 +28824,7 @@
       <c r="CY6" s="87"/>
       <c r="CZ6" s="71"/>
     </row>
-    <row r="7" spans="1:104" s="64" customFormat="1">
+    <row r="7" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -28867,7 +28878,7 @@
       <c r="CY7" s="87"/>
       <c r="CZ7" s="71"/>
     </row>
-    <row r="8" spans="1:104" s="64" customFormat="1">
+    <row r="8" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -28919,7 +28930,7 @@
       <c r="CY8" s="87"/>
       <c r="CZ8" s="71"/>
     </row>
-    <row r="9" spans="1:104" s="64" customFormat="1">
+    <row r="9" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -28971,7 +28982,7 @@
       <c r="CY9" s="87"/>
       <c r="CZ9" s="71"/>
     </row>
-    <row r="10" spans="1:104" s="64" customFormat="1">
+    <row r="10" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -29023,7 +29034,7 @@
       <c r="CY10" s="87"/>
       <c r="CZ10" s="71"/>
     </row>
-    <row r="11" spans="1:104" s="64" customFormat="1">
+    <row r="11" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -29075,7 +29086,7 @@
       <c r="CY11" s="87"/>
       <c r="CZ11" s="71"/>
     </row>
-    <row r="12" spans="1:104" s="64" customFormat="1">
+    <row r="12" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -29126,7 +29137,7 @@
       <c r="CY12" s="87"/>
       <c r="CZ12" s="71"/>
     </row>
-    <row r="13" spans="1:104" s="64" customFormat="1">
+    <row r="13" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -29177,7 +29188,7 @@
       <c r="CY13" s="87"/>
       <c r="CZ13" s="71"/>
     </row>
-    <row r="14" spans="1:104" s="64" customFormat="1">
+    <row r="14" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -29228,7 +29239,7 @@
       <c r="CY14" s="87"/>
       <c r="CZ14" s="71"/>
     </row>
-    <row r="15" spans="1:104" s="64" customFormat="1">
+    <row r="15" spans="1:104" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -29280,7 +29291,7 @@
       <c r="CY15" s="87"/>
       <c r="CZ15" s="71"/>
     </row>
-    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:104" s="116" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -29335,7 +29346,7 @@
       <c r="CY16" s="166"/>
       <c r="CZ16" s="118"/>
     </row>
-    <row r="17" spans="1:104" s="121" customFormat="1">
+    <row r="17" spans="1:104" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -29384,7 +29395,7 @@
       <c r="CY17" s="122"/>
       <c r="CZ17" s="123"/>
     </row>
-    <row r="18" spans="1:104" s="66" customFormat="1">
+    <row r="18" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -29431,7 +29442,7 @@
       <c r="CY18" s="90"/>
       <c r="CZ18" s="72"/>
     </row>
-    <row r="19" spans="1:104" s="66" customFormat="1">
+    <row r="19" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -29479,7 +29490,7 @@
       <c r="CY19" s="90"/>
       <c r="CZ19" s="72"/>
     </row>
-    <row r="20" spans="1:104" s="66" customFormat="1">
+    <row r="20" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -29527,7 +29538,7 @@
       <c r="CY20" s="90"/>
       <c r="CZ20" s="72"/>
     </row>
-    <row r="21" spans="1:104" s="66" customFormat="1">
+    <row r="21" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -29579,7 +29590,7 @@
       <c r="CY21" s="90"/>
       <c r="CZ21" s="72"/>
     </row>
-    <row r="22" spans="1:104" s="66" customFormat="1">
+    <row r="22" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -29628,7 +29639,7 @@
       <c r="CY22" s="90"/>
       <c r="CZ22" s="72"/>
     </row>
-    <row r="23" spans="1:104" s="66" customFormat="1">
+    <row r="23" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -29681,7 +29692,7 @@
       <c r="CY23" s="90"/>
       <c r="CZ23" s="72"/>
     </row>
-    <row r="24" spans="1:104" s="66" customFormat="1">
+    <row r="24" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -29728,7 +29739,7 @@
       <c r="CY24" s="90"/>
       <c r="CZ24" s="72"/>
     </row>
-    <row r="25" spans="1:104" s="66" customFormat="1">
+    <row r="25" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -29775,7 +29786,7 @@
       <c r="CY25" s="90"/>
       <c r="CZ25" s="72"/>
     </row>
-    <row r="26" spans="1:104" s="66" customFormat="1">
+    <row r="26" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>110</v>
       </c>
@@ -29824,7 +29835,7 @@
       <c r="CY26" s="90"/>
       <c r="CZ26" s="72"/>
     </row>
-    <row r="27" spans="1:104" s="66" customFormat="1">
+    <row r="27" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>112</v>
       </c>
@@ -29872,7 +29883,7 @@
       <c r="CY27" s="90"/>
       <c r="CZ27" s="72"/>
     </row>
-    <row r="28" spans="1:104" s="66" customFormat="1">
+    <row r="28" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>111</v>
       </c>
@@ -29920,7 +29931,7 @@
       <c r="CY28" s="90"/>
       <c r="CZ28" s="72"/>
     </row>
-    <row r="29" spans="1:104" s="66" customFormat="1">
+    <row r="29" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>113</v>
       </c>
@@ -29968,7 +29979,7 @@
       <c r="CY29" s="90"/>
       <c r="CZ29" s="72"/>
     </row>
-    <row r="30" spans="1:104" s="66" customFormat="1">
+    <row r="30" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>114</v>
       </c>
@@ -30016,7 +30027,7 @@
       <c r="CY30" s="90"/>
       <c r="CZ30" s="72"/>
     </row>
-    <row r="31" spans="1:104" s="66" customFormat="1">
+    <row r="31" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
         <v>20</v>
       </c>
@@ -30064,7 +30075,7 @@
       <c r="CY31" s="90"/>
       <c r="CZ31" s="72"/>
     </row>
-    <row r="32" spans="1:104" s="66" customFormat="1">
+    <row r="32" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
         <v>24</v>
       </c>
@@ -30112,7 +30123,7 @@
       <c r="CY32" s="90"/>
       <c r="CZ32" s="72"/>
     </row>
-    <row r="33" spans="1:104" s="66" customFormat="1">
+    <row r="33" spans="1:104" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80" t="s">
         <v>28</v>
       </c>
@@ -30161,7 +30172,7 @@
       <c r="CY33" s="90"/>
       <c r="CZ33" s="72"/>
     </row>
-    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:104" s="126" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="124" t="s">
         <v>99</v>
       </c>
@@ -30217,7 +30228,7 @@
       <c r="CY34" s="127"/>
       <c r="CZ34" s="128"/>
     </row>
-    <row r="35" spans="1:104" s="272" customFormat="1">
+    <row r="35" spans="1:104" s="272" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="270" t="s">
         <v>97</v>
       </c>
@@ -30265,7 +30276,7 @@
       <c r="CY35" s="274"/>
       <c r="CZ35" s="276"/>
     </row>
-    <row r="36" spans="1:104" s="68" customFormat="1">
+    <row r="36" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
         <v>2</v>
       </c>
@@ -30314,7 +30325,7 @@
       <c r="CY36" s="92"/>
       <c r="CZ36" s="73"/>
     </row>
-    <row r="37" spans="1:104" s="68" customFormat="1">
+    <row r="37" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="82" t="s">
         <v>3</v>
       </c>
@@ -30365,7 +30376,7 @@
       <c r="CY37" s="92"/>
       <c r="CZ37" s="73"/>
     </row>
-    <row r="38" spans="1:104" s="68" customFormat="1">
+    <row r="38" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="82" t="s">
         <v>1</v>
       </c>
@@ -30414,7 +30425,7 @@
       <c r="CY38" s="92"/>
       <c r="CZ38" s="73"/>
     </row>
-    <row r="39" spans="1:104" s="68" customFormat="1">
+    <row r="39" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="82" t="s">
         <v>0</v>
       </c>
@@ -30463,7 +30474,7 @@
       <c r="CY39" s="92"/>
       <c r="CZ39" s="73"/>
     </row>
-    <row r="40" spans="1:104" s="174" customFormat="1">
+    <row r="40" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="172" t="s">
         <v>116</v>
       </c>
@@ -30512,7 +30523,7 @@
       <c r="CY40" s="175"/>
       <c r="CZ40" s="176"/>
     </row>
-    <row r="41" spans="1:104" s="174" customFormat="1">
+    <row r="41" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="172" t="s">
         <v>104</v>
       </c>
@@ -30560,7 +30571,7 @@
       <c r="CY41" s="175"/>
       <c r="CZ41" s="176"/>
     </row>
-    <row r="42" spans="1:104" s="174" customFormat="1">
+    <row r="42" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="172" t="s">
         <v>105</v>
       </c>
@@ -30608,7 +30619,7 @@
       <c r="CY42" s="175"/>
       <c r="CZ42" s="176"/>
     </row>
-    <row r="43" spans="1:104" s="174" customFormat="1">
+    <row r="43" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="172" t="s">
         <v>106</v>
       </c>
@@ -30657,7 +30668,7 @@
       <c r="CY43" s="175"/>
       <c r="CZ43" s="176"/>
     </row>
-    <row r="44" spans="1:104" s="174" customFormat="1">
+    <row r="44" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="172" t="s">
         <v>107</v>
       </c>
@@ -30706,7 +30717,7 @@
       <c r="CY44" s="175"/>
       <c r="CZ44" s="176"/>
     </row>
-    <row r="45" spans="1:104" s="174" customFormat="1">
+    <row r="45" spans="1:104" s="174" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="172" t="s">
         <v>108</v>
       </c>
@@ -30755,7 +30766,7 @@
       <c r="CY45" s="175"/>
       <c r="CZ45" s="176"/>
     </row>
-    <row r="46" spans="1:104" s="68" customFormat="1">
+    <row r="46" spans="1:104" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="82" t="s">
         <v>4</v>
       </c>
@@ -30806,7 +30817,7 @@
       <c r="CY46" s="92"/>
       <c r="CZ46" s="73"/>
     </row>
-    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1">
+    <row r="47" spans="1:104" s="281" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="279" t="s">
         <v>100</v>
       </c>
@@ -30827,11 +30838,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="465" t="s">
+      <c r="AY47" s="466" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="466"/>
-      <c r="BA47" s="467"/>
+      <c r="AZ47" s="467"/>
+      <c r="BA47" s="468"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -30866,7 +30877,7 @@
       <c r="CY47" s="283"/>
       <c r="CZ47" s="288"/>
     </row>
-    <row r="48" spans="1:104" s="141" customFormat="1">
+    <row r="48" spans="1:104" s="141" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="139" t="s">
         <v>98</v>
       </c>
@@ -30914,7 +30925,7 @@
       <c r="CY48" s="142"/>
       <c r="CZ48" s="143"/>
     </row>
-    <row r="49" spans="1:104" s="69" customFormat="1">
+    <row r="49" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="83" t="s">
         <v>29</v>
       </c>
@@ -30963,7 +30974,7 @@
       <c r="CY49" s="94"/>
       <c r="CZ49" s="74"/>
     </row>
-    <row r="50" spans="1:104" s="69" customFormat="1">
+    <row r="50" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="83" t="s">
         <v>31</v>
       </c>
@@ -31011,7 +31022,7 @@
       <c r="CY50" s="94"/>
       <c r="CZ50" s="74"/>
     </row>
-    <row r="51" spans="1:104" s="69" customFormat="1">
+    <row r="51" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="83" t="s">
         <v>35</v>
       </c>
@@ -31060,7 +31071,7 @@
       <c r="CY51" s="94"/>
       <c r="CZ51" s="74"/>
     </row>
-    <row r="52" spans="1:104" s="69" customFormat="1">
+    <row r="52" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
         <v>30</v>
       </c>
@@ -31108,7 +31119,7 @@
       <c r="CY52" s="94"/>
       <c r="CZ52" s="74"/>
     </row>
-    <row r="53" spans="1:104" s="69" customFormat="1">
+    <row r="53" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
         <v>33</v>
       </c>
@@ -31156,7 +31167,7 @@
       <c r="CY53" s="94"/>
       <c r="CZ53" s="74"/>
     </row>
-    <row r="54" spans="1:104" s="69" customFormat="1">
+    <row r="54" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="83" t="s">
         <v>34</v>
       </c>
@@ -31205,7 +31216,7 @@
       <c r="CY54" s="94"/>
       <c r="CZ54" s="74"/>
     </row>
-    <row r="55" spans="1:104" s="69" customFormat="1">
+    <row r="55" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="83" t="s">
         <v>32</v>
       </c>
@@ -31253,7 +31264,7 @@
       <c r="CY55" s="94"/>
       <c r="CZ55" s="74"/>
     </row>
-    <row r="56" spans="1:104" s="69" customFormat="1">
+    <row r="56" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="181" t="s">
         <v>109</v>
       </c>
@@ -31302,7 +31313,7 @@
       <c r="CY56" s="94"/>
       <c r="CZ56" s="74"/>
     </row>
-    <row r="57" spans="1:104" s="69" customFormat="1">
+    <row r="57" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="181" t="s">
         <v>117</v>
       </c>
@@ -31352,7 +31363,7 @@
       <c r="CY57" s="94"/>
       <c r="CZ57" s="74"/>
     </row>
-    <row r="58" spans="1:104" s="69" customFormat="1">
+    <row r="58" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="181" t="s">
         <v>118</v>
       </c>
@@ -31401,7 +31412,7 @@
       <c r="CY58" s="94"/>
       <c r="CZ58" s="74"/>
     </row>
-    <row r="59" spans="1:104" s="69" customFormat="1">
+    <row r="59" spans="1:104" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="181" t="s">
         <v>119</v>
       </c>
@@ -31450,7 +31461,7 @@
       <c r="CY59" s="94"/>
       <c r="CZ59" s="74"/>
     </row>
-    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1">
+    <row r="60" spans="1:104" s="146" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="144" t="s">
         <v>101</v>
       </c>
@@ -31480,11 +31491,11 @@
       <c r="BK60" s="145"/>
       <c r="BN60" s="321"/>
       <c r="BS60" s="302"/>
-      <c r="BU60" s="456" t="s">
+      <c r="BU60" s="457" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="457"/>
-      <c r="BW60" s="458"/>
+      <c r="BV60" s="458"/>
+      <c r="BW60" s="459"/>
       <c r="BX60" s="302"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -31511,7 +31522,7 @@
       <c r="CY60" s="147"/>
       <c r="CZ60" s="148"/>
     </row>
-    <row r="61" spans="1:104" s="291" customFormat="1">
+    <row r="61" spans="1:104" s="291" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="289" t="s">
         <v>93</v>
       </c>
@@ -31561,7 +31572,7 @@
       <c r="CY61" s="293"/>
       <c r="CZ61" s="295"/>
     </row>
-    <row r="62" spans="1:104" s="70" customFormat="1">
+    <row r="62" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="85" t="s">
         <v>5</v>
       </c>
@@ -31610,7 +31621,7 @@
       <c r="CY62" s="96"/>
       <c r="CZ62" s="75"/>
     </row>
-    <row r="63" spans="1:104" s="70" customFormat="1">
+    <row r="63" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="85" t="s">
         <v>12</v>
       </c>
@@ -31659,7 +31670,7 @@
       <c r="CY63" s="96"/>
       <c r="CZ63" s="75"/>
     </row>
-    <row r="64" spans="1:104" s="70" customFormat="1">
+    <row r="64" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
         <v>96</v>
       </c>
@@ -31707,7 +31718,7 @@
       <c r="CY64" s="96"/>
       <c r="CZ64" s="75"/>
     </row>
-    <row r="65" spans="1:104" s="70" customFormat="1">
+    <row r="65" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="85" t="s">
         <v>25</v>
       </c>
@@ -31755,7 +31766,7 @@
       <c r="CY65" s="96"/>
       <c r="CZ65" s="75"/>
     </row>
-    <row r="66" spans="1:104" s="70" customFormat="1">
+    <row r="66" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="85" t="s">
         <v>26</v>
       </c>
@@ -31804,7 +31815,7 @@
       <c r="CY66" s="96"/>
       <c r="CZ66" s="75"/>
     </row>
-    <row r="67" spans="1:104" s="70" customFormat="1">
+    <row r="67" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84" t="s">
         <v>97</v>
       </c>
@@ -31852,7 +31863,7 @@
       <c r="CY67" s="96"/>
       <c r="CZ67" s="75"/>
     </row>
-    <row r="68" spans="1:104" s="70" customFormat="1">
+    <row r="68" spans="1:104" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
@@ -31901,7 +31912,7 @@
       <c r="CY68" s="96"/>
       <c r="CZ68" s="75"/>
     </row>
-    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1">
+    <row r="69" spans="1:104" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="159" t="s">
         <v>102</v>
       </c>
@@ -31951,7 +31962,7 @@
       <c r="CY69" s="162"/>
       <c r="CZ69" s="163"/>
     </row>
-    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1">
+    <row r="70" spans="1:104" s="212" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="210" t="s">
         <v>120</v>
       </c>
@@ -32003,7 +32014,7 @@
       </c>
       <c r="CZ70" s="214"/>
     </row>
-    <row r="71" spans="1:104" s="151" customFormat="1">
+    <row r="71" spans="1:104" s="151" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="149"/>
       <c r="B71" s="150"/>
       <c r="C71" s="304"/>
@@ -32077,7 +32088,7 @@
       <selection pane="topRight" activeCell="CQ67" sqref="CQ67:CT67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="102.28515625" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="361"/>
@@ -32125,7 +32136,7 @@
     <col min="100" max="16384" width="6.5703125" style="334"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="350" customFormat="1">
+    <row r="1" spans="1:103" s="350" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
       <c r="B1" s="351"/>
       <c r="C1" s="344"/>
@@ -32150,7 +32161,7 @@
       <c r="CP1" s="344"/>
       <c r="CU1" s="344"/>
     </row>
-    <row r="2" spans="1:103" s="107" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:103" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>94</v>
       </c>
@@ -32461,7 +32472,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="343" customFormat="1">
+    <row r="3" spans="1:103" s="343" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
         <v>93</v>
       </c>
@@ -32491,7 +32502,7 @@
       <c r="CP3" s="344"/>
       <c r="CU3" s="344"/>
     </row>
-    <row r="4" spans="1:103" s="332" customFormat="1">
+    <row r="4" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -32521,7 +32532,7 @@
       <c r="CP4" s="333"/>
       <c r="CU4" s="333"/>
     </row>
-    <row r="5" spans="1:103" s="332" customFormat="1">
+    <row r="5" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -32551,7 +32562,7 @@
       <c r="CP5" s="333"/>
       <c r="CU5" s="333"/>
     </row>
-    <row r="6" spans="1:103" s="332" customFormat="1">
+    <row r="6" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -32587,7 +32598,7 @@
       <c r="CP6" s="333"/>
       <c r="CU6" s="333"/>
     </row>
-    <row r="7" spans="1:103" s="332" customFormat="1">
+    <row r="7" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>11</v>
       </c>
@@ -32621,7 +32632,7 @@
       <c r="CP7" s="333"/>
       <c r="CU7" s="333"/>
     </row>
-    <row r="8" spans="1:103" s="332" customFormat="1">
+    <row r="8" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>7</v>
       </c>
@@ -32656,7 +32667,7 @@
       <c r="CP8" s="333"/>
       <c r="CU8" s="333"/>
     </row>
-    <row r="9" spans="1:103" s="332" customFormat="1">
+    <row r="9" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>9</v>
       </c>
@@ -32690,7 +32701,7 @@
       <c r="CP9" s="333"/>
       <c r="CU9" s="333"/>
     </row>
-    <row r="10" spans="1:103" s="332" customFormat="1">
+    <row r="10" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
         <v>13</v>
       </c>
@@ -32724,7 +32735,7 @@
       <c r="CP10" s="333"/>
       <c r="CU10" s="333"/>
     </row>
-    <row r="11" spans="1:103" s="332" customFormat="1">
+    <row r="11" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>14</v>
       </c>
@@ -32759,7 +32770,7 @@
       <c r="CP11" s="333"/>
       <c r="CU11" s="333"/>
     </row>
-    <row r="12" spans="1:103" s="332" customFormat="1">
+    <row r="12" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
         <v>10</v>
       </c>
@@ -32793,7 +32804,7 @@
       <c r="CP12" s="333"/>
       <c r="CU12" s="333"/>
     </row>
-    <row r="13" spans="1:103" s="332" customFormat="1">
+    <row r="13" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
         <v>17</v>
       </c>
@@ -32827,7 +32838,7 @@
       <c r="CP13" s="333"/>
       <c r="CU13" s="333"/>
     </row>
-    <row r="14" spans="1:103" s="332" customFormat="1">
+    <row r="14" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>15</v>
       </c>
@@ -32858,7 +32869,7 @@
       <c r="CP14" s="333"/>
       <c r="CU14" s="333"/>
     </row>
-    <row r="15" spans="1:103" s="332" customFormat="1">
+    <row r="15" spans="1:103" s="332" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
@@ -32889,7 +32900,7 @@
       <c r="CP15" s="333"/>
       <c r="CU15" s="333"/>
     </row>
-    <row r="16" spans="1:103" s="346" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:103" s="346" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="114" t="s">
         <v>95</v>
       </c>
@@ -32921,7 +32932,7 @@
       <c r="CP16" s="347"/>
       <c r="CU16" s="347"/>
     </row>
-    <row r="17" spans="1:99" s="363" customFormat="1">
+    <row r="17" spans="1:99" s="363" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="119" t="s">
         <v>96</v>
       </c>
@@ -32948,7 +32959,7 @@
       <c r="CP17" s="344"/>
       <c r="CU17" s="344"/>
     </row>
-    <row r="18" spans="1:99" s="337" customFormat="1">
+    <row r="18" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80" t="s">
         <v>18</v>
       </c>
@@ -32979,7 +32990,7 @@
       <c r="CP18" s="333"/>
       <c r="CU18" s="333"/>
     </row>
-    <row r="19" spans="1:99" s="337" customFormat="1">
+    <row r="19" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80" t="s">
         <v>19</v>
       </c>
@@ -33010,7 +33021,7 @@
       <c r="CP19" s="333"/>
       <c r="CU19" s="333"/>
     </row>
-    <row r="20" spans="1:99" s="337" customFormat="1">
+    <row r="20" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>21</v>
       </c>
@@ -33038,7 +33049,7 @@
       <c r="CP20" s="333"/>
       <c r="CU20" s="333"/>
     </row>
-    <row r="21" spans="1:99" s="337" customFormat="1">
+    <row r="21" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>27</v>
       </c>
@@ -33066,7 +33077,7 @@
       <c r="CP21" s="333"/>
       <c r="CU21" s="333"/>
     </row>
-    <row r="22" spans="1:99" s="337" customFormat="1">
+    <row r="22" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>22</v>
       </c>
@@ -33095,7 +33106,7 @@
       <c r="CP22" s="333"/>
       <c r="CU22" s="333"/>
     </row>
-    <row r="23" spans="1:99" s="337" customFormat="1">
+    <row r="23" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>23</v>
       </c>
@@ -33127,7 +33138,7 @@
       <c r="CP23" s="333"/>
       <c r="CU23" s="333"/>
     </row>
-    <row r="24" spans="1:99" s="337" customFormat="1">
+    <row r="24" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80" t="s">
         <v>26</v>
       </c>
@@ -33154,7 +33165,7 @@
       <c r="CP24" s="333"/>
       <c r="CU24" s="333"/>
     </row>
-    <row r="25" spans="1:99" s="337" customFormat="1">
+    <row r="25" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>109</v>
       </c>
@@ -33186,7 +33197,7 @@
       <c r="CP25" s="333"/>
       <c r="CU25" s="333"/>
     </row>
-    <row r="26" spans="1:99" s="337" customFormat="1">
+    <row r="26" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>127</v>
       </c>
@@ -33218,7 +33229,7 @@
       <c r="CP26" s="333"/>
       <c r="CU26" s="333"/>
     </row>
-    <row r="27" spans="1:99" s="337" customFormat="1">
+    <row r="27" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>128</v>
       </c>
@@ -33252,7 +33263,7 @@
       <c r="CP27" s="333"/>
       <c r="CU27" s="333"/>
     </row>
-    <row r="28" spans="1:99" s="337" customFormat="1">
+    <row r="28" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>129</v>
       </c>
@@ -33286,7 +33297,7 @@
       <c r="CP28" s="333"/>
       <c r="CU28" s="333"/>
     </row>
-    <row r="29" spans="1:99" s="337" customFormat="1">
+    <row r="29" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>130</v>
       </c>
@@ -33317,7 +33328,7 @@
       <c r="CP29" s="333"/>
       <c r="CU29" s="333"/>
     </row>
-    <row r="30" spans="1:99" s="337" customFormat="1">
+    <row r="30" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
         <v>20</v>
       </c>
@@ -33345,7 +33356,7 @@
       <c r="CP30" s="333"/>
       <c r="CU30" s="333"/>
     </row>
-    <row r="31" spans="1:99" s="337" customFormat="1">
+    <row r="31" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
         <v>24</v>
       </c>
@@ -33372,7 +33383,7 @@
       <c r="CP31" s="333"/>
       <c r="CU31" s="333"/>
     </row>
-    <row r="32" spans="1:99" s="337" customFormat="1">
+    <row r="32" spans="1:99" s="337" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
         <v>28</v>
       </c>
@@ -33400,7 +33411,7 @@
       <c r="CP32" s="333"/>
       <c r="CU32" s="333"/>
     </row>
-    <row r="33" spans="1:99" s="365" customFormat="1" ht="15.75" thickBot="1">
+    <row r="33" spans="1:99" s="365" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="124" t="s">
         <v>99</v>
       </c>
@@ -33437,7 +33448,7 @@
       <c r="CP33" s="347"/>
       <c r="CU33" s="347"/>
     </row>
-    <row r="34" spans="1:99" s="367" customFormat="1">
+    <row r="34" spans="1:99" s="367" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="129" t="s">
         <v>97</v>
       </c>
@@ -33464,7 +33475,7 @@
       <c r="CP34" s="344"/>
       <c r="CU34" s="344"/>
     </row>
-    <row r="35" spans="1:99" s="339" customFormat="1">
+    <row r="35" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="82" t="s">
         <v>2</v>
       </c>
@@ -33495,7 +33506,7 @@
       <c r="CP35" s="333"/>
       <c r="CU35" s="333"/>
     </row>
-    <row r="36" spans="1:99" s="339" customFormat="1">
+    <row r="36" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
         <v>3</v>
       </c>
@@ -33527,7 +33538,7 @@
       <c r="CP36" s="333"/>
       <c r="CU36" s="333"/>
     </row>
-    <row r="37" spans="1:99" s="339" customFormat="1">
+    <row r="37" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="82" t="s">
         <v>1</v>
       </c>
@@ -33558,7 +33569,7 @@
       <c r="CP37" s="333"/>
       <c r="CU37" s="333"/>
     </row>
-    <row r="38" spans="1:99" s="339" customFormat="1">
+    <row r="38" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="82" t="s">
         <v>0</v>
       </c>
@@ -33592,7 +33603,7 @@
       <c r="CP38" s="333"/>
       <c r="CU38" s="333"/>
     </row>
-    <row r="39" spans="1:99" s="339" customFormat="1">
+    <row r="39" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="172" t="s">
         <v>109</v>
       </c>
@@ -33623,7 +33634,7 @@
       <c r="CP39" s="333"/>
       <c r="CU39" s="333"/>
     </row>
-    <row r="40" spans="1:99" s="339" customFormat="1">
+    <row r="40" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="172" t="s">
         <v>127</v>
       </c>
@@ -33653,7 +33664,7 @@
       <c r="CP40" s="333"/>
       <c r="CU40" s="333"/>
     </row>
-    <row r="41" spans="1:99" s="339" customFormat="1">
+    <row r="41" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="172" t="s">
         <v>128</v>
       </c>
@@ -33684,7 +33695,7 @@
       <c r="CP41" s="333"/>
       <c r="CU41" s="333"/>
     </row>
-    <row r="42" spans="1:99" s="339" customFormat="1">
+    <row r="42" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="172" t="s">
         <v>129</v>
       </c>
@@ -33714,7 +33725,7 @@
       <c r="CP42" s="333"/>
       <c r="CU42" s="333"/>
     </row>
-    <row r="43" spans="1:99" s="339" customFormat="1">
+    <row r="43" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="172" t="s">
         <v>130</v>
       </c>
@@ -33745,7 +33756,7 @@
       <c r="CP43" s="333"/>
       <c r="CU43" s="333"/>
     </row>
-    <row r="44" spans="1:99" s="339" customFormat="1">
+    <row r="44" spans="1:99" s="339" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="82" t="s">
         <v>4</v>
       </c>
@@ -33773,7 +33784,7 @@
       <c r="CP44" s="333"/>
       <c r="CU44" s="333"/>
     </row>
-    <row r="45" spans="1:99" s="369" customFormat="1" ht="15.75" thickBot="1">
+    <row r="45" spans="1:99" s="369" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="134" t="s">
         <v>100</v>
       </c>
@@ -33809,7 +33820,7 @@
       <c r="CP45" s="347"/>
       <c r="CU45" s="347"/>
     </row>
-    <row r="46" spans="1:99" s="371" customFormat="1">
+    <row r="46" spans="1:99" s="371" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="139" t="s">
         <v>98</v>
       </c>
@@ -33836,7 +33847,7 @@
       <c r="CP46" s="344"/>
       <c r="CU46" s="344"/>
     </row>
-    <row r="47" spans="1:99" s="340" customFormat="1">
+    <row r="47" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="83" t="s">
         <v>29</v>
       </c>
@@ -33867,7 +33878,7 @@
       <c r="CP47" s="333"/>
       <c r="CU47" s="333"/>
     </row>
-    <row r="48" spans="1:99" s="340" customFormat="1">
+    <row r="48" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="83" t="s">
         <v>31</v>
       </c>
@@ -33898,7 +33909,7 @@
       <c r="CP48" s="333"/>
       <c r="CU48" s="333"/>
     </row>
-    <row r="49" spans="1:99" s="340" customFormat="1">
+    <row r="49" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="83" t="s">
         <v>35</v>
       </c>
@@ -33930,7 +33941,7 @@
       <c r="CP49" s="333"/>
       <c r="CU49" s="333"/>
     </row>
-    <row r="50" spans="1:99" s="340" customFormat="1">
+    <row r="50" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="83" t="s">
         <v>30</v>
       </c>
@@ -33961,7 +33972,7 @@
       <c r="CP50" s="333"/>
       <c r="CU50" s="333"/>
     </row>
-    <row r="51" spans="1:99" s="340" customFormat="1">
+    <row r="51" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="83" t="s">
         <v>33</v>
       </c>
@@ -33989,7 +34000,7 @@
       <c r="CP51" s="333"/>
       <c r="CU51" s="333"/>
     </row>
-    <row r="52" spans="1:99" s="340" customFormat="1">
+    <row r="52" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83" t="s">
         <v>34</v>
       </c>
@@ -34017,7 +34028,7 @@
       <c r="CP52" s="333"/>
       <c r="CU52" s="333"/>
     </row>
-    <row r="53" spans="1:99" s="340" customFormat="1">
+    <row r="53" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="83" t="s">
         <v>32</v>
       </c>
@@ -34045,7 +34056,7 @@
       <c r="CP53" s="333"/>
       <c r="CU53" s="333"/>
     </row>
-    <row r="54" spans="1:99" s="340" customFormat="1">
+    <row r="54" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="181" t="s">
         <v>109</v>
       </c>
@@ -34078,7 +34089,7 @@
       <c r="CP54" s="333"/>
       <c r="CU54" s="333"/>
     </row>
-    <row r="55" spans="1:99" s="340" customFormat="1">
+    <row r="55" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="181" t="s">
         <v>131</v>
       </c>
@@ -34114,7 +34125,7 @@
       <c r="CP55" s="333"/>
       <c r="CU55" s="333"/>
     </row>
-    <row r="56" spans="1:99" s="340" customFormat="1">
+    <row r="56" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="181" t="s">
         <v>132</v>
       </c>
@@ -34148,7 +34159,7 @@
       <c r="CP56" s="333"/>
       <c r="CU56" s="333"/>
     </row>
-    <row r="57" spans="1:99" s="340" customFormat="1">
+    <row r="57" spans="1:99" s="340" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="181" t="s">
         <v>133</v>
       </c>
@@ -34179,7 +34190,7 @@
       <c r="CP57" s="333"/>
       <c r="CU57" s="333"/>
     </row>
-    <row r="58" spans="1:99" s="373" customFormat="1" ht="15.75" thickBot="1">
+    <row r="58" spans="1:99" s="373" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="144" t="s">
         <v>101</v>
       </c>
@@ -34218,7 +34229,7 @@
       <c r="CP58" s="347"/>
       <c r="CU58" s="347"/>
     </row>
-    <row r="59" spans="1:99" s="375" customFormat="1">
+    <row r="59" spans="1:99" s="375" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="154" t="s">
         <v>93</v>
       </c>
@@ -34245,7 +34256,7 @@
       <c r="CP59" s="344"/>
       <c r="CU59" s="344"/>
     </row>
-    <row r="60" spans="1:99" s="341" customFormat="1">
+    <row r="60" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="85" t="s">
         <v>5</v>
       </c>
@@ -34274,7 +34285,7 @@
       <c r="CP60" s="333"/>
       <c r="CU60" s="333"/>
     </row>
-    <row r="61" spans="1:99" s="341" customFormat="1">
+    <row r="61" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="85" t="s">
         <v>12</v>
       </c>
@@ -34302,7 +34313,7 @@
       <c r="CP61" s="333"/>
       <c r="CU61" s="333"/>
     </row>
-    <row r="62" spans="1:99" s="341" customFormat="1">
+    <row r="62" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="84" t="s">
         <v>96</v>
       </c>
@@ -34329,7 +34340,7 @@
       <c r="CP62" s="333"/>
       <c r="CU62" s="333"/>
     </row>
-    <row r="63" spans="1:99" s="341" customFormat="1">
+    <row r="63" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="85" t="s">
         <v>25</v>
       </c>
@@ -34358,7 +34369,7 @@
       <c r="CP63" s="333"/>
       <c r="CU63" s="333"/>
     </row>
-    <row r="64" spans="1:99" s="341" customFormat="1">
+    <row r="64" spans="1:99" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="85" t="s">
         <v>26</v>
       </c>
@@ -34387,7 +34398,7 @@
       <c r="CP64" s="333"/>
       <c r="CU64" s="333"/>
     </row>
-    <row r="65" spans="1:103" s="341" customFormat="1">
+    <row r="65" spans="1:103" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="84" t="s">
         <v>97</v>
       </c>
@@ -34414,7 +34425,7 @@
       <c r="CP65" s="333"/>
       <c r="CU65" s="333"/>
     </row>
-    <row r="66" spans="1:103" s="341" customFormat="1">
+    <row r="66" spans="1:103" s="341" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="85" t="s">
         <v>0</v>
       </c>
@@ -34443,7 +34454,7 @@
       <c r="CP66" s="333"/>
       <c r="CU66" s="333"/>
     </row>
-    <row r="67" spans="1:103" s="377" customFormat="1" ht="15.75" thickBot="1">
+    <row r="67" spans="1:103" s="377" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="159" t="s">
         <v>102</v>
       </c>
@@ -34476,7 +34487,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:103" s="382" customFormat="1" ht="15.75" thickBot="1">
+    <row r="68" spans="1:103" s="382" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="210" t="s">
         <v>120</v>
       </c>
@@ -34506,7 +34517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:103" s="379" customFormat="1">
+    <row r="69" spans="1:103" s="379" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="149"/>
       <c r="B69" s="378"/>
       <c r="C69" s="342"/>
@@ -34542,10 +34553,10 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="414"/>
     <col min="2" max="2" width="5.85546875" style="414" bestFit="1" customWidth="1"/>
@@ -34555,7 +34566,7 @@
     <col min="6" max="16384" width="5.5703125" style="414"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="416" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" s="416" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="415"/>
       <c r="B1" s="396" t="s">
         <v>140</v>
@@ -34570,8 +34581,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="417" customFormat="1" ht="45">
-      <c r="A2" s="471" t="s">
+    <row r="2" spans="1:16" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="472" t="s">
         <v>142</v>
       </c>
       <c r="B2" s="397">
@@ -34583,8 +34594,8 @@
       <c r="D2" s="428"/>
       <c r="E2" s="428"/>
     </row>
-    <row r="3" spans="1:16" s="418" customFormat="1">
-      <c r="A3" s="472"/>
+    <row r="3" spans="1:16" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="473"/>
       <c r="B3" s="398">
         <v>43671</v>
       </c>
@@ -34592,8 +34603,8 @@
       <c r="D3" s="429"/>
       <c r="E3" s="429"/>
     </row>
-    <row r="4" spans="1:16" s="419" customFormat="1" ht="60">
-      <c r="A4" s="472"/>
+    <row r="4" spans="1:16" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="473"/>
       <c r="B4" s="399">
         <v>43672</v>
       </c>
@@ -34604,10 +34615,10 @@
         <v>205</v>
       </c>
       <c r="E4" s="431"/>
-      <c r="P4" s="477"/>
-    </row>
-    <row r="5" spans="1:16" s="420" customFormat="1" ht="45">
-      <c r="A5" s="472"/>
+      <c r="P4" s="445"/>
+    </row>
+    <row r="5" spans="1:16" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="473"/>
       <c r="B5" s="400">
         <v>43675</v>
       </c>
@@ -34617,10 +34628,12 @@
       <c r="D5" s="433" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="433"/>
-    </row>
-    <row r="6" spans="1:16" s="420" customFormat="1">
-      <c r="A6" s="472"/>
+      <c r="E5" s="433" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="473"/>
       <c r="B6" s="400">
         <v>43676</v>
       </c>
@@ -34632,8 +34645,8 @@
       </c>
       <c r="E6" s="433"/>
     </row>
-    <row r="7" spans="1:16" s="420" customFormat="1" ht="60">
-      <c r="A7" s="472"/>
+    <row r="7" spans="1:16" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="473"/>
       <c r="B7" s="400">
         <v>43677</v>
       </c>
@@ -34643,10 +34656,12 @@
       <c r="D7" s="432" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="433"/>
-    </row>
-    <row r="8" spans="1:16" s="418" customFormat="1">
-      <c r="A8" s="472"/>
+      <c r="E7" s="433" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="473"/>
       <c r="B8" s="398">
         <v>43678</v>
       </c>
@@ -34654,8 +34669,8 @@
       <c r="D8" s="429"/>
       <c r="E8" s="429"/>
     </row>
-    <row r="9" spans="1:16" s="420" customFormat="1" ht="45">
-      <c r="A9" s="472"/>
+    <row r="9" spans="1:16" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="473"/>
       <c r="B9" s="400">
         <v>43679</v>
       </c>
@@ -34667,8 +34682,8 @@
       </c>
       <c r="E9" s="433"/>
     </row>
-    <row r="10" spans="1:16" s="419" customFormat="1" ht="51" customHeight="1">
-      <c r="A10" s="472"/>
+    <row r="10" spans="1:16" s="419" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="473"/>
       <c r="B10" s="399">
         <v>43682</v>
       </c>
@@ -34676,12 +34691,12 @@
         <v>172</v>
       </c>
       <c r="D10" s="430" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="E10" s="431"/>
     </row>
-    <row r="11" spans="1:16" s="419" customFormat="1">
-      <c r="A11" s="472"/>
+    <row r="11" spans="1:16" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="473"/>
       <c r="B11" s="399">
         <v>43683</v>
       </c>
@@ -34693,8 +34708,8 @@
       </c>
       <c r="E11" s="431"/>
     </row>
-    <row r="12" spans="1:16" s="419" customFormat="1">
-      <c r="A12" s="472"/>
+    <row r="12" spans="1:16" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="473"/>
       <c r="B12" s="399">
         <v>43684</v>
       </c>
@@ -34706,8 +34721,8 @@
       </c>
       <c r="E12" s="431"/>
     </row>
-    <row r="13" spans="1:16" s="418" customFormat="1">
-      <c r="A13" s="472"/>
+    <row r="13" spans="1:16" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="473"/>
       <c r="B13" s="398">
         <v>43685</v>
       </c>
@@ -34715,8 +34730,8 @@
       <c r="D13" s="429"/>
       <c r="E13" s="429"/>
     </row>
-    <row r="14" spans="1:16" s="419" customFormat="1">
-      <c r="A14" s="472"/>
+    <row r="14" spans="1:16" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="473"/>
       <c r="B14" s="399">
         <v>43686</v>
       </c>
@@ -34728,8 +34743,8 @@
       </c>
       <c r="E14" s="431"/>
     </row>
-    <row r="15" spans="1:16" s="420" customFormat="1">
-      <c r="A15" s="472"/>
+    <row r="15" spans="1:16" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="473"/>
       <c r="B15" s="400">
         <v>43689</v>
       </c>
@@ -34741,8 +34756,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="420" customFormat="1">
-      <c r="A16" s="472"/>
+    <row r="16" spans="1:16" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="473"/>
       <c r="B16" s="400">
         <v>43690</v>
       </c>
@@ -34752,8 +34767,8 @@
       <c r="D16" s="433"/>
       <c r="E16" s="433"/>
     </row>
-    <row r="17" spans="1:5" s="420" customFormat="1">
-      <c r="A17" s="472"/>
+    <row r="17" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="473"/>
       <c r="B17" s="400">
         <v>43691</v>
       </c>
@@ -34763,8 +34778,8 @@
       <c r="D17" s="433"/>
       <c r="E17" s="433"/>
     </row>
-    <row r="18" spans="1:5" s="418" customFormat="1">
-      <c r="A18" s="472"/>
+    <row r="18" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="473"/>
       <c r="B18" s="398">
         <v>43692</v>
       </c>
@@ -34772,8 +34787,8 @@
       <c r="D18" s="429"/>
       <c r="E18" s="429"/>
     </row>
-    <row r="19" spans="1:5" s="421" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A19" s="473"/>
+    <row r="19" spans="1:5" s="421" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="474"/>
       <c r="B19" s="401">
         <v>43693</v>
       </c>
@@ -34783,8 +34798,8 @@
       <c r="D19" s="434"/>
       <c r="E19" s="434"/>
     </row>
-    <row r="20" spans="1:5" s="417" customFormat="1" ht="45">
-      <c r="A20" s="468" t="s">
+    <row r="20" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="469" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="402">
@@ -34798,8 +34813,8 @@
       </c>
       <c r="E20" s="428"/>
     </row>
-    <row r="21" spans="1:5" s="419" customFormat="1" ht="45">
-      <c r="A21" s="469"/>
+    <row r="21" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="470"/>
       <c r="B21" s="403">
         <v>43697</v>
       </c>
@@ -34811,8 +34826,8 @@
       </c>
       <c r="E21" s="441"/>
     </row>
-    <row r="22" spans="1:5" s="419" customFormat="1" ht="60">
-      <c r="A22" s="469"/>
+    <row r="22" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="470"/>
       <c r="B22" s="403">
         <v>43698</v>
       </c>
@@ -34824,8 +34839,8 @@
       </c>
       <c r="E22" s="431"/>
     </row>
-    <row r="23" spans="1:5" s="418" customFormat="1">
-      <c r="A23" s="469"/>
+    <row r="23" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="470"/>
       <c r="B23" s="404">
         <v>43699</v>
       </c>
@@ -34833,8 +34848,8 @@
       <c r="D23" s="429"/>
       <c r="E23" s="429"/>
     </row>
-    <row r="24" spans="1:5" s="419" customFormat="1">
-      <c r="A24" s="469"/>
+    <row r="24" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="470"/>
       <c r="B24" s="403">
         <v>43700</v>
       </c>
@@ -34844,8 +34859,8 @@
       </c>
       <c r="E24" s="431"/>
     </row>
-    <row r="25" spans="1:5" s="420" customFormat="1" ht="30">
-      <c r="A25" s="469"/>
+    <row r="25" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="470"/>
       <c r="B25" s="405">
         <v>43703</v>
       </c>
@@ -34857,8 +34872,8 @@
       </c>
       <c r="E25" s="433"/>
     </row>
-    <row r="26" spans="1:5" s="420" customFormat="1" ht="30">
-      <c r="A26" s="469"/>
+    <row r="26" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="470"/>
       <c r="B26" s="405">
         <v>43704</v>
       </c>
@@ -34870,8 +34885,8 @@
       </c>
       <c r="E26" s="433"/>
     </row>
-    <row r="27" spans="1:5" s="420" customFormat="1" ht="30">
-      <c r="A27" s="469"/>
+    <row r="27" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="470"/>
       <c r="B27" s="405">
         <v>43705</v>
       </c>
@@ -34883,8 +34898,8 @@
       </c>
       <c r="E27" s="433"/>
     </row>
-    <row r="28" spans="1:5" s="418" customFormat="1">
-      <c r="A28" s="469"/>
+    <row r="28" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="470"/>
       <c r="B28" s="404">
         <v>43706</v>
       </c>
@@ -34892,8 +34907,8 @@
       <c r="D28" s="429"/>
       <c r="E28" s="429"/>
     </row>
-    <row r="29" spans="1:5" s="420" customFormat="1">
-      <c r="A29" s="469"/>
+    <row r="29" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="470"/>
       <c r="B29" s="405">
         <v>43707</v>
       </c>
@@ -34903,8 +34918,8 @@
       </c>
       <c r="E29" s="433"/>
     </row>
-    <row r="30" spans="1:5" s="419" customFormat="1" ht="45">
-      <c r="A30" s="469"/>
+    <row r="30" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="470"/>
       <c r="B30" s="403">
         <v>43710</v>
       </c>
@@ -34914,8 +34929,8 @@
       <c r="D30" s="431"/>
       <c r="E30" s="431"/>
     </row>
-    <row r="31" spans="1:5" s="419" customFormat="1">
-      <c r="A31" s="469"/>
+    <row r="31" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="470"/>
       <c r="B31" s="403">
         <v>43711</v>
       </c>
@@ -34925,8 +34940,8 @@
       </c>
       <c r="E31" s="431"/>
     </row>
-    <row r="32" spans="1:5" s="419" customFormat="1">
-      <c r="A32" s="469"/>
+    <row r="32" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="470"/>
       <c r="B32" s="403">
         <v>43712</v>
       </c>
@@ -34938,8 +34953,8 @@
       </c>
       <c r="E32" s="431"/>
     </row>
-    <row r="33" spans="1:5" s="418" customFormat="1">
-      <c r="A33" s="469"/>
+    <row r="33" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="470"/>
       <c r="B33" s="404">
         <v>43713</v>
       </c>
@@ -34947,8 +34962,8 @@
       <c r="D33" s="429"/>
       <c r="E33" s="429"/>
     </row>
-    <row r="34" spans="1:5" s="419" customFormat="1">
-      <c r="A34" s="469"/>
+    <row r="34" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="470"/>
       <c r="B34" s="403">
         <v>43714</v>
       </c>
@@ -34958,8 +34973,8 @@
       <c r="D34" s="431"/>
       <c r="E34" s="431"/>
     </row>
-    <row r="35" spans="1:5" s="420" customFormat="1">
-      <c r="A35" s="469"/>
+    <row r="35" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="470"/>
       <c r="B35" s="405">
         <v>43717</v>
       </c>
@@ -34969,8 +34984,8 @@
       <c r="D35" s="433"/>
       <c r="E35" s="433"/>
     </row>
-    <row r="36" spans="1:5" s="420" customFormat="1">
-      <c r="A36" s="469"/>
+    <row r="36" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="470"/>
       <c r="B36" s="405">
         <v>43718</v>
       </c>
@@ -34980,8 +34995,8 @@
       <c r="D36" s="433"/>
       <c r="E36" s="433"/>
     </row>
-    <row r="37" spans="1:5" s="420" customFormat="1">
-      <c r="A37" s="469"/>
+    <row r="37" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="470"/>
       <c r="B37" s="405">
         <v>43719</v>
       </c>
@@ -34991,8 +35006,8 @@
       <c r="D37" s="433"/>
       <c r="E37" s="433"/>
     </row>
-    <row r="38" spans="1:5" s="418" customFormat="1">
-      <c r="A38" s="469"/>
+    <row r="38" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="470"/>
       <c r="B38" s="404">
         <v>43720</v>
       </c>
@@ -35000,8 +35015,8 @@
       <c r="D38" s="429"/>
       <c r="E38" s="429"/>
     </row>
-    <row r="39" spans="1:5" s="420" customFormat="1">
-      <c r="A39" s="469"/>
+    <row r="39" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="470"/>
       <c r="B39" s="405">
         <v>43721</v>
       </c>
@@ -35011,8 +35026,8 @@
       <c r="D39" s="433"/>
       <c r="E39" s="433"/>
     </row>
-    <row r="40" spans="1:5" s="419" customFormat="1">
-      <c r="A40" s="469"/>
+    <row r="40" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="470"/>
       <c r="B40" s="403">
         <v>43724</v>
       </c>
@@ -35022,8 +35037,8 @@
       <c r="D40" s="431"/>
       <c r="E40" s="431"/>
     </row>
-    <row r="41" spans="1:5" s="419" customFormat="1">
-      <c r="A41" s="469"/>
+    <row r="41" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="470"/>
       <c r="B41" s="403">
         <v>43725</v>
       </c>
@@ -35033,8 +35048,8 @@
       <c r="D41" s="431"/>
       <c r="E41" s="431"/>
     </row>
-    <row r="42" spans="1:5" s="419" customFormat="1">
-      <c r="A42" s="469"/>
+    <row r="42" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="470"/>
       <c r="B42" s="403">
         <v>43726</v>
       </c>
@@ -35044,8 +35059,8 @@
       <c r="D42" s="431"/>
       <c r="E42" s="431"/>
     </row>
-    <row r="43" spans="1:5" s="418" customFormat="1">
-      <c r="A43" s="469"/>
+    <row r="43" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="470"/>
       <c r="B43" s="404">
         <v>43727</v>
       </c>
@@ -35053,8 +35068,8 @@
       <c r="D43" s="429"/>
       <c r="E43" s="429"/>
     </row>
-    <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A44" s="470"/>
+    <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="471"/>
       <c r="B44" s="406">
         <v>43728</v>
       </c>
@@ -35064,8 +35079,8 @@
       <c r="D44" s="435"/>
       <c r="E44" s="435"/>
     </row>
-    <row r="45" spans="1:5" s="423" customFormat="1" ht="45">
-      <c r="A45" s="474" t="s">
+    <row r="45" spans="1:5" s="423" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="475" t="s">
         <v>144</v>
       </c>
       <c r="B45" s="407">
@@ -35079,8 +35094,8 @@
       </c>
       <c r="E45" s="436"/>
     </row>
-    <row r="46" spans="1:5" s="420" customFormat="1">
-      <c r="A46" s="475"/>
+    <row r="46" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="476"/>
       <c r="B46" s="408">
         <v>43732</v>
       </c>
@@ -35092,8 +35107,8 @@
       </c>
       <c r="E46" s="433"/>
     </row>
-    <row r="47" spans="1:5" s="420" customFormat="1" ht="30">
-      <c r="A47" s="475"/>
+    <row r="47" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="476"/>
       <c r="B47" s="408">
         <v>43733</v>
       </c>
@@ -35105,8 +35120,8 @@
       </c>
       <c r="E47" s="433"/>
     </row>
-    <row r="48" spans="1:5" s="418" customFormat="1">
-      <c r="A48" s="475"/>
+    <row r="48" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="476"/>
       <c r="B48" s="409">
         <v>43734</v>
       </c>
@@ -35114,8 +35129,8 @@
       <c r="D48" s="429"/>
       <c r="E48" s="429"/>
     </row>
-    <row r="49" spans="1:5" s="420" customFormat="1" ht="60">
-      <c r="A49" s="475"/>
+    <row r="49" spans="1:5" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="476"/>
       <c r="B49" s="408">
         <v>43735</v>
       </c>
@@ -35125,8 +35140,8 @@
       <c r="D49" s="433"/>
       <c r="E49" s="433"/>
     </row>
-    <row r="50" spans="1:5" s="419" customFormat="1" ht="45">
-      <c r="A50" s="475"/>
+    <row r="50" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="476"/>
       <c r="B50" s="410">
         <v>43738</v>
       </c>
@@ -35136,8 +35151,8 @@
       <c r="D50" s="431"/>
       <c r="E50" s="431"/>
     </row>
-    <row r="51" spans="1:5" s="419" customFormat="1" ht="30">
-      <c r="A51" s="475"/>
+    <row r="51" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="476"/>
       <c r="B51" s="410">
         <v>43739</v>
       </c>
@@ -35147,8 +35162,8 @@
       <c r="D51" s="431"/>
       <c r="E51" s="431"/>
     </row>
-    <row r="52" spans="1:5" s="419" customFormat="1">
-      <c r="A52" s="475"/>
+    <row r="52" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="476"/>
       <c r="B52" s="410">
         <v>43740</v>
       </c>
@@ -35158,8 +35173,8 @@
       <c r="D52" s="431"/>
       <c r="E52" s="431"/>
     </row>
-    <row r="53" spans="1:5" s="418" customFormat="1">
-      <c r="A53" s="475"/>
+    <row r="53" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="476"/>
       <c r="B53" s="409">
         <v>43741</v>
       </c>
@@ -35167,8 +35182,8 @@
       <c r="D53" s="429"/>
       <c r="E53" s="429"/>
     </row>
-    <row r="54" spans="1:5" s="419" customFormat="1" ht="30">
-      <c r="A54" s="475"/>
+    <row r="54" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="476"/>
       <c r="B54" s="410">
         <v>43742</v>
       </c>
@@ -35178,8 +35193,8 @@
       <c r="D54" s="431"/>
       <c r="E54" s="431"/>
     </row>
-    <row r="55" spans="1:5" s="420" customFormat="1">
-      <c r="A55" s="475"/>
+    <row r="55" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="476"/>
       <c r="B55" s="408">
         <v>43745</v>
       </c>
@@ -35189,8 +35204,8 @@
       <c r="D55" s="433"/>
       <c r="E55" s="433"/>
     </row>
-    <row r="56" spans="1:5" s="420" customFormat="1">
-      <c r="A56" s="475"/>
+    <row r="56" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="476"/>
       <c r="B56" s="408">
         <v>43746</v>
       </c>
@@ -35200,8 +35215,8 @@
       <c r="D56" s="433"/>
       <c r="E56" s="433"/>
     </row>
-    <row r="57" spans="1:5" s="420" customFormat="1">
-      <c r="A57" s="475"/>
+    <row r="57" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="476"/>
       <c r="B57" s="408">
         <v>43747</v>
       </c>
@@ -35211,8 +35226,8 @@
       <c r="D57" s="433"/>
       <c r="E57" s="433"/>
     </row>
-    <row r="58" spans="1:5" s="418" customFormat="1">
-      <c r="A58" s="475"/>
+    <row r="58" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="476"/>
       <c r="B58" s="409">
         <v>43748</v>
       </c>
@@ -35220,8 +35235,8 @@
       <c r="D58" s="429"/>
       <c r="E58" s="429"/>
     </row>
-    <row r="59" spans="1:5" s="420" customFormat="1">
-      <c r="A59" s="475"/>
+    <row r="59" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="476"/>
       <c r="B59" s="408">
         <v>43749</v>
       </c>
@@ -35231,8 +35246,8 @@
       <c r="D59" s="433"/>
       <c r="E59" s="433"/>
     </row>
-    <row r="60" spans="1:5" s="419" customFormat="1">
-      <c r="A60" s="475"/>
+    <row r="60" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="476"/>
       <c r="B60" s="410">
         <v>43754</v>
       </c>
@@ -35242,8 +35257,8 @@
       <c r="D60" s="431"/>
       <c r="E60" s="431"/>
     </row>
-    <row r="61" spans="1:5" s="418" customFormat="1">
-      <c r="A61" s="475"/>
+    <row r="61" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="476"/>
       <c r="B61" s="409">
         <v>43755</v>
       </c>
@@ -35251,8 +35266,8 @@
       <c r="D61" s="429"/>
       <c r="E61" s="429"/>
     </row>
-    <row r="62" spans="1:5" s="419" customFormat="1">
-      <c r="A62" s="475"/>
+    <row r="62" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="476"/>
       <c r="B62" s="410">
         <v>43756</v>
       </c>
@@ -35262,8 +35277,8 @@
       <c r="D62" s="431"/>
       <c r="E62" s="431"/>
     </row>
-    <row r="63" spans="1:5" s="420" customFormat="1">
-      <c r="A63" s="475"/>
+    <row r="63" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="476"/>
       <c r="B63" s="408">
         <v>43759</v>
       </c>
@@ -35273,8 +35288,8 @@
       <c r="D63" s="433"/>
       <c r="E63" s="433"/>
     </row>
-    <row r="64" spans="1:5" s="420" customFormat="1">
-      <c r="A64" s="475"/>
+    <row r="64" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="476"/>
       <c r="B64" s="408">
         <v>43760</v>
       </c>
@@ -35284,8 +35299,8 @@
       <c r="D64" s="433"/>
       <c r="E64" s="433"/>
     </row>
-    <row r="65" spans="1:5" s="420" customFormat="1">
-      <c r="A65" s="475"/>
+    <row r="65" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="476"/>
       <c r="B65" s="408">
         <v>43761</v>
       </c>
@@ -35295,8 +35310,8 @@
       <c r="D65" s="433"/>
       <c r="E65" s="433"/>
     </row>
-    <row r="66" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A66" s="476"/>
+    <row r="66" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="477"/>
       <c r="B66" s="411">
         <v>43762</v>
       </c>
@@ -35304,8 +35319,8 @@
       <c r="D66" s="437"/>
       <c r="E66" s="437"/>
     </row>
-    <row r="67" spans="1:5" s="423" customFormat="1" ht="60">
-      <c r="A67" s="474" t="s">
+    <row r="67" spans="1:5" s="423" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="475" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="407">
@@ -35317,8 +35332,8 @@
       <c r="D67" s="436"/>
       <c r="E67" s="436"/>
     </row>
-    <row r="68" spans="1:5" s="419" customFormat="1">
-      <c r="A68" s="475"/>
+    <row r="68" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="476"/>
       <c r="B68" s="410">
         <v>43766</v>
       </c>
@@ -35330,8 +35345,8 @@
       </c>
       <c r="E68" s="431"/>
     </row>
-    <row r="69" spans="1:5" s="419" customFormat="1">
-      <c r="A69" s="475"/>
+    <row r="69" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="476"/>
       <c r="B69" s="410">
         <v>43767</v>
       </c>
@@ -35343,8 +35358,8 @@
       </c>
       <c r="E69" s="431"/>
     </row>
-    <row r="70" spans="1:5" s="419" customFormat="1">
-      <c r="A70" s="475"/>
+    <row r="70" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="476"/>
       <c r="B70" s="410">
         <v>43768</v>
       </c>
@@ -35356,8 +35371,8 @@
       </c>
       <c r="E70" s="431"/>
     </row>
-    <row r="71" spans="1:5" s="418" customFormat="1">
-      <c r="A71" s="475"/>
+    <row r="71" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="476"/>
       <c r="B71" s="409">
         <v>43769</v>
       </c>
@@ -35365,8 +35380,8 @@
       <c r="D71" s="429"/>
       <c r="E71" s="429"/>
     </row>
-    <row r="72" spans="1:5" s="419" customFormat="1">
-      <c r="A72" s="475"/>
+    <row r="72" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="476"/>
       <c r="B72" s="410">
         <v>43770</v>
       </c>
@@ -35376,8 +35391,8 @@
       <c r="D72" s="431"/>
       <c r="E72" s="431"/>
     </row>
-    <row r="73" spans="1:5" s="420" customFormat="1">
-      <c r="A73" s="475"/>
+    <row r="73" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="476"/>
       <c r="B73" s="408">
         <v>43773</v>
       </c>
@@ -35389,8 +35404,8 @@
       </c>
       <c r="E73" s="433"/>
     </row>
-    <row r="74" spans="1:5" s="420" customFormat="1">
-      <c r="A74" s="475"/>
+    <row r="74" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="476"/>
       <c r="B74" s="408">
         <v>43774</v>
       </c>
@@ -35402,8 +35417,8 @@
       </c>
       <c r="E74" s="433"/>
     </row>
-    <row r="75" spans="1:5" s="420" customFormat="1">
-      <c r="A75" s="475"/>
+    <row r="75" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="476"/>
       <c r="B75" s="408">
         <v>43775</v>
       </c>
@@ -35413,8 +35428,8 @@
       <c r="D75" s="433"/>
       <c r="E75" s="433"/>
     </row>
-    <row r="76" spans="1:5" s="418" customFormat="1">
-      <c r="A76" s="475"/>
+    <row r="76" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="476"/>
       <c r="B76" s="409">
         <v>43776</v>
       </c>
@@ -35422,8 +35437,8 @@
       <c r="D76" s="429"/>
       <c r="E76" s="429"/>
     </row>
-    <row r="77" spans="1:5" s="420" customFormat="1">
-      <c r="A77" s="475"/>
+    <row r="77" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="476"/>
       <c r="B77" s="408">
         <v>43777</v>
       </c>
@@ -35433,8 +35448,8 @@
       <c r="D77" s="433"/>
       <c r="E77" s="433"/>
     </row>
-    <row r="78" spans="1:5" s="419" customFormat="1">
-      <c r="A78" s="475"/>
+    <row r="78" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="476"/>
       <c r="B78" s="410">
         <v>43780</v>
       </c>
@@ -35444,8 +35459,8 @@
       <c r="D78" s="431"/>
       <c r="E78" s="431"/>
     </row>
-    <row r="79" spans="1:5" s="419" customFormat="1">
-      <c r="A79" s="475"/>
+    <row r="79" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="476"/>
       <c r="B79" s="410">
         <v>43781</v>
       </c>
@@ -35455,8 +35470,8 @@
       <c r="D79" s="431"/>
       <c r="E79" s="431"/>
     </row>
-    <row r="80" spans="1:5" s="419" customFormat="1">
-      <c r="A80" s="475"/>
+    <row r="80" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="476"/>
       <c r="B80" s="410">
         <v>43782</v>
       </c>
@@ -35466,8 +35481,8 @@
       <c r="D80" s="431"/>
       <c r="E80" s="431"/>
     </row>
-    <row r="81" spans="1:5" s="418" customFormat="1">
-      <c r="A81" s="475"/>
+    <row r="81" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="476"/>
       <c r="B81" s="409">
         <v>43783</v>
       </c>
@@ -35475,8 +35490,8 @@
       <c r="D81" s="429"/>
       <c r="E81" s="429"/>
     </row>
-    <row r="82" spans="1:5" s="420" customFormat="1">
-      <c r="A82" s="475"/>
+    <row r="82" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="476"/>
       <c r="B82" s="408">
         <v>43787</v>
       </c>
@@ -35486,8 +35501,8 @@
       <c r="D82" s="433"/>
       <c r="E82" s="433"/>
     </row>
-    <row r="83" spans="1:5" s="420" customFormat="1">
-      <c r="A83" s="475"/>
+    <row r="83" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="476"/>
       <c r="B83" s="408">
         <v>43788</v>
       </c>
@@ -35497,8 +35512,8 @@
       <c r="D83" s="433"/>
       <c r="E83" s="433"/>
     </row>
-    <row r="84" spans="1:5" s="418" customFormat="1">
-      <c r="A84" s="475"/>
+    <row r="84" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="476"/>
       <c r="B84" s="409">
         <v>43790</v>
       </c>
@@ -35506,8 +35521,8 @@
       <c r="D84" s="429"/>
       <c r="E84" s="429"/>
     </row>
-    <row r="85" spans="1:5" s="420" customFormat="1">
-      <c r="A85" s="475"/>
+    <row r="85" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="476"/>
       <c r="B85" s="408">
         <v>43791</v>
       </c>
@@ -35517,8 +35532,8 @@
       <c r="D85" s="433"/>
       <c r="E85" s="433"/>
     </row>
-    <row r="86" spans="1:5" s="419" customFormat="1">
-      <c r="A86" s="475"/>
+    <row r="86" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="476"/>
       <c r="B86" s="410">
         <v>43794</v>
       </c>
@@ -35528,8 +35543,8 @@
       <c r="D86" s="431"/>
       <c r="E86" s="431"/>
     </row>
-    <row r="87" spans="1:5" s="419" customFormat="1">
-      <c r="A87" s="475"/>
+    <row r="87" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="476"/>
       <c r="B87" s="410">
         <v>43795</v>
       </c>
@@ -35539,8 +35554,8 @@
       <c r="D87" s="431"/>
       <c r="E87" s="431"/>
     </row>
-    <row r="88" spans="1:5" s="419" customFormat="1">
-      <c r="A88" s="475"/>
+    <row r="88" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="476"/>
       <c r="B88" s="410">
         <v>43796</v>
       </c>
@@ -35550,8 +35565,8 @@
       <c r="D88" s="431"/>
       <c r="E88" s="431"/>
     </row>
-    <row r="89" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A89" s="476"/>
+    <row r="89" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="477"/>
       <c r="B89" s="411">
         <v>43797</v>
       </c>
@@ -35559,8 +35574,8 @@
       <c r="D89" s="437"/>
       <c r="E89" s="437"/>
     </row>
-    <row r="90" spans="1:5" s="417" customFormat="1" ht="30">
-      <c r="A90" s="468" t="s">
+    <row r="90" spans="1:5" s="417" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="469" t="s">
         <v>146</v>
       </c>
       <c r="B90" s="412">
@@ -35572,8 +35587,8 @@
       <c r="D90" s="428"/>
       <c r="E90" s="428"/>
     </row>
-    <row r="91" spans="1:5" s="420" customFormat="1">
-      <c r="A91" s="469"/>
+    <row r="91" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="470"/>
       <c r="B91" s="408">
         <v>43801</v>
       </c>
@@ -35583,8 +35598,8 @@
       <c r="D91" s="433"/>
       <c r="E91" s="433"/>
     </row>
-    <row r="92" spans="1:5" s="420" customFormat="1">
-      <c r="A92" s="469"/>
+    <row r="92" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="470"/>
       <c r="B92" s="408">
         <v>43802</v>
       </c>
@@ -35594,8 +35609,8 @@
       <c r="D92" s="433"/>
       <c r="E92" s="433"/>
     </row>
-    <row r="93" spans="1:5" s="420" customFormat="1">
-      <c r="A93" s="469"/>
+    <row r="93" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="470"/>
       <c r="B93" s="408">
         <v>43803</v>
       </c>
@@ -35605,8 +35620,8 @@
       <c r="D93" s="433"/>
       <c r="E93" s="433"/>
     </row>
-    <row r="94" spans="1:5" s="418" customFormat="1">
-      <c r="A94" s="469"/>
+    <row r="94" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="470"/>
       <c r="B94" s="409">
         <v>43804</v>
       </c>
@@ -35614,8 +35629,8 @@
       <c r="D94" s="429"/>
       <c r="E94" s="429"/>
     </row>
-    <row r="95" spans="1:5" s="420" customFormat="1">
-      <c r="A95" s="469"/>
+    <row r="95" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="470"/>
       <c r="B95" s="408">
         <v>43805</v>
       </c>
@@ -35625,8 +35640,8 @@
       <c r="D95" s="433"/>
       <c r="E95" s="433"/>
     </row>
-    <row r="96" spans="1:5" s="419" customFormat="1">
-      <c r="A96" s="469"/>
+    <row r="96" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="470"/>
       <c r="B96" s="410">
         <v>43808</v>
       </c>
@@ -35636,8 +35651,8 @@
       <c r="D96" s="431"/>
       <c r="E96" s="431"/>
     </row>
-    <row r="97" spans="1:5" s="419" customFormat="1">
-      <c r="A97" s="469"/>
+    <row r="97" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="470"/>
       <c r="B97" s="410">
         <v>43809</v>
       </c>
@@ -35647,8 +35662,8 @@
       <c r="D97" s="431"/>
       <c r="E97" s="431"/>
     </row>
-    <row r="98" spans="1:5" s="419" customFormat="1">
-      <c r="A98" s="469"/>
+    <row r="98" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="470"/>
       <c r="B98" s="410">
         <v>43810</v>
       </c>
@@ -35658,8 +35673,8 @@
       <c r="D98" s="431"/>
       <c r="E98" s="431"/>
     </row>
-    <row r="99" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A99" s="470"/>
+    <row r="99" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="471"/>
       <c r="B99" s="411">
         <v>43811</v>
       </c>
@@ -35667,7 +35682,7 @@
       <c r="D99" s="437"/>
       <c r="E99" s="437"/>
     </row>
-    <row r="100" spans="1:5" s="425" customFormat="1">
+    <row r="100" spans="1:5" s="425" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="413">
         <v>43812</v>
       </c>
@@ -35675,7 +35690,7 @@
       <c r="D100" s="438"/>
       <c r="E100" s="438"/>
     </row>
-    <row r="101" spans="1:5" s="420" customFormat="1">
+    <row r="101" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="405">
         <v>43815</v>
       </c>
@@ -35683,7 +35698,7 @@
       <c r="D101" s="433"/>
       <c r="E101" s="433"/>
     </row>
-    <row r="102" spans="1:5" s="420" customFormat="1">
+    <row r="102" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="405">
         <v>43816</v>
       </c>
@@ -35691,7 +35706,7 @@
       <c r="D102" s="433"/>
       <c r="E102" s="433"/>
     </row>
-    <row r="103" spans="1:5" s="420" customFormat="1">
+    <row r="103" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="405">
         <v>43817</v>
       </c>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github_s\senai-dev-2s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331A9F7-CD9B-4C3B-922C-7F8AC69F65E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="211">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1440,12 +1439,6 @@
     <t>Desafio InLock</t>
   </si>
   <si>
-    <t>Início - Modelagem - Excel
-Apoio - exemplo-01.xlsx - PSales
-1:N
-Início - Conceitual - Lógico - Representação</t>
-  </si>
-  <si>
     <t>EstilosController - verbos - lista fixa
 EstiloDomain
 EstiloRepository - lista</t>
@@ -1618,13 +1611,28 @@
     <t>ex: Moda, Dps</t>
   </si>
   <si>
-    <t>Optus</t>
+    <t>Início - Modelagem - Excel
+Apoio - exemplo-01.xlsx - Psales
+1:1 (Pessoas)
+1:N
+Início - Conceitual - Lógico - Representação</t>
+  </si>
+  <si>
+    <t>ex: Optus</t>
+  </si>
+  <si>
+    <t>Não Feitos
+(Manhã)</t>
+  </si>
+  <si>
+    <t>Não Feitos
+(Tarde)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
@@ -2660,7 +2668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="478">
+  <cellXfs count="479">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3383,6 +3391,9 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3701,7 +3712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3921,7 +3932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
     <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
@@ -22738,7 +22749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23066,7 +23077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -25274,7 +25285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -28049,7 +28060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -32080,7 +32091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY69"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
@@ -34549,11 +34560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34563,10 +34574,12 @@
     <col min="3" max="3" width="48.7109375" style="439" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" style="439" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="439" customWidth="1"/>
-    <col min="6" max="16384" width="5.5703125" style="414"/>
+    <col min="6" max="6" width="13.5703125" style="414" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="414" customWidth="1"/>
+    <col min="8" max="16384" width="5.5703125" style="414"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="416" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="416" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="415"/>
       <c r="B1" s="396" t="s">
         <v>140</v>
@@ -34579,6 +34592,12 @@
       </c>
       <c r="E1" s="426" t="s">
         <v>154</v>
+      </c>
+      <c r="F1" s="478" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="478" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34603,16 +34622,16 @@
       <c r="D3" s="429"/>
       <c r="E3" s="429"/>
     </row>
-    <row r="4" spans="1:16" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="419" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="473"/>
       <c r="B4" s="399">
         <v>43672</v>
       </c>
       <c r="C4" s="430" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="D4" s="431" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="431"/>
       <c r="P4" s="445"/>
@@ -34626,10 +34645,10 @@
         <v>147</v>
       </c>
       <c r="D5" s="433" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="433" t="s">
-        <v>207</v>
+        <v>201</v>
+      </c>
+      <c r="F5" s="433" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="420" customFormat="1" x14ac:dyDescent="0.25">
@@ -34675,23 +34694,23 @@
         <v>43679</v>
       </c>
       <c r="C9" s="432" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="432" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="433"/>
     </row>
-    <row r="10" spans="1:16" s="419" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="473"/>
       <c r="B10" s="399">
         <v>43682</v>
       </c>
       <c r="C10" s="430" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" s="430" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" s="431"/>
     </row>
@@ -34736,10 +34755,10 @@
         <v>43686</v>
       </c>
       <c r="C14" s="431" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="431" t="s">
         <v>184</v>
-      </c>
-      <c r="D14" s="431" t="s">
-        <v>185</v>
       </c>
       <c r="E14" s="431"/>
     </row>
@@ -34806,10 +34825,10 @@
         <v>43696</v>
       </c>
       <c r="C20" s="427" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20" s="442" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="428"/>
     </row>
@@ -34819,10 +34838,10 @@
         <v>43697</v>
       </c>
       <c r="C21" s="440" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="430" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E21" s="441"/>
     </row>
@@ -34832,10 +34851,10 @@
         <v>43698</v>
       </c>
       <c r="C22" s="431" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D22" s="443" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E22" s="431"/>
     </row>
@@ -34855,7 +34874,7 @@
       </c>
       <c r="C24" s="431"/>
       <c r="D24" s="431" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E24" s="431"/>
     </row>
@@ -34865,10 +34884,10 @@
         <v>43703</v>
       </c>
       <c r="C25" s="432" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="432" t="s">
         <v>166</v>
-      </c>
-      <c r="D25" s="432" t="s">
-        <v>167</v>
       </c>
       <c r="E25" s="433"/>
     </row>
@@ -34878,10 +34897,10 @@
         <v>43704</v>
       </c>
       <c r="C26" s="432" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D26" s="432" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E26" s="433"/>
     </row>
@@ -34891,10 +34910,10 @@
         <v>43705</v>
       </c>
       <c r="C27" s="433" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D27" s="432" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E27" s="433"/>
     </row>
@@ -34914,7 +34933,7 @@
       </c>
       <c r="C29" s="433"/>
       <c r="D29" s="433" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E29" s="433"/>
     </row>
@@ -34924,7 +34943,7 @@
         <v>43710</v>
       </c>
       <c r="C30" s="430" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D30" s="431"/>
       <c r="E30" s="431"/>
@@ -34936,7 +34955,7 @@
       </c>
       <c r="C31" s="431"/>
       <c r="D31" s="431" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E31" s="431"/>
     </row>
@@ -34949,7 +34968,7 @@
         <v>160</v>
       </c>
       <c r="D32" s="431" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E32" s="431"/>
     </row>
@@ -35087,10 +35106,10 @@
         <v>43731</v>
       </c>
       <c r="C45" s="444" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D45" s="433" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E45" s="436"/>
     </row>
@@ -35100,10 +35119,10 @@
         <v>43732</v>
       </c>
       <c r="C46" s="433" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D46" s="433" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E46" s="433"/>
     </row>
@@ -35113,10 +35132,10 @@
         <v>43733</v>
       </c>
       <c r="C47" s="432" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D47" s="433" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="433"/>
     </row>
@@ -35135,7 +35154,7 @@
         <v>43735</v>
       </c>
       <c r="C49" s="432" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D49" s="433"/>
       <c r="E49" s="433"/>
@@ -35146,7 +35165,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="430" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D50" s="431"/>
       <c r="E50" s="431"/>
@@ -35157,7 +35176,7 @@
         <v>43739</v>
       </c>
       <c r="C51" s="430" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D51" s="431"/>
       <c r="E51" s="431"/>
@@ -35168,7 +35187,7 @@
         <v>43740</v>
       </c>
       <c r="C52" s="431" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D52" s="431"/>
       <c r="E52" s="431"/>
@@ -35188,7 +35207,7 @@
         <v>43742</v>
       </c>
       <c r="C54" s="430" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D54" s="431"/>
       <c r="E54" s="431"/>
@@ -35199,7 +35218,7 @@
         <v>43745</v>
       </c>
       <c r="C55" s="433" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D55" s="433"/>
       <c r="E55" s="433"/>
@@ -35327,7 +35346,7 @@
         <v>43763</v>
       </c>
       <c r="C67" s="444" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D67" s="436"/>
       <c r="E67" s="436"/>
@@ -35338,10 +35357,10 @@
         <v>43766</v>
       </c>
       <c r="C68" s="431" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="431" t="s">
         <v>188</v>
-      </c>
-      <c r="D68" s="431" t="s">
-        <v>189</v>
       </c>
       <c r="E68" s="431"/>
     </row>
@@ -35351,10 +35370,10 @@
         <v>43767</v>
       </c>
       <c r="C69" s="431" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D69" s="431" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E69" s="431"/>
     </row>
@@ -35364,10 +35383,10 @@
         <v>43768</v>
       </c>
       <c r="C70" s="430" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D70" s="431" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E70" s="431"/>
     </row>
@@ -35386,7 +35405,7 @@
         <v>43770</v>
       </c>
       <c r="C72" s="431" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D72" s="431"/>
       <c r="E72" s="431"/>
@@ -35397,10 +35416,10 @@
         <v>43773</v>
       </c>
       <c r="C73" s="433" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D73" s="433" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E73" s="433"/>
     </row>
@@ -35410,10 +35429,10 @@
         <v>43774</v>
       </c>
       <c r="C74" s="433" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D74" s="433" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E74" s="433"/>
     </row>
@@ -35423,7 +35442,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="433" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D75" s="433"/>
       <c r="E75" s="433"/>
@@ -35582,7 +35601,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="427" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D90" s="428"/>
       <c r="E90" s="428"/>
@@ -35593,7 +35612,7 @@
         <v>43801</v>
       </c>
       <c r="C91" s="433" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D91" s="433"/>
       <c r="E91" s="433"/>
@@ -35604,7 +35623,7 @@
         <v>43802</v>
       </c>
       <c r="C92" s="433" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D92" s="433"/>
       <c r="E92" s="433"/>
@@ -35615,7 +35634,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="433" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D93" s="433"/>
       <c r="E93" s="433"/>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="211">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1416,19 +1416,10 @@
     <t>Procedures</t>
   </si>
   <si>
-    <t>RoteiroMusicas - SStop
-RoteiroLivros</t>
-  </si>
-  <si>
     <t>Início - DDL
 exemplo-ddl.sql
 01_roteiro_sstop.sql
 01_roteiro_livros.sql</t>
-  </si>
-  <si>
-    <t>RoteiroMusicas - SStop
-RoteiroLivros
-Optus</t>
   </si>
   <si>
     <t>Apresentação Semestre
@@ -1603,11 +1594,6 @@
     <t>ex: Musicas (Sstop), Livros, Pessoas</t>
   </si>
   <si>
-    <t>RoteiroMusicas - SStop
-RoteiroLivros 
-Optus</t>
-  </si>
-  <si>
     <t>ex: Moda, Dps</t>
   </si>
   <si>
@@ -1627,6 +1613,17 @@
   <si>
     <t>Não Feitos
 (Tarde)</t>
+  </si>
+  <si>
+    <t>ex: RoteiroLivros</t>
+  </si>
+  <si>
+    <t>RoteiroLivros
+Optus</t>
+  </si>
+  <si>
+    <t>RoteiroLivros 
+Optus</t>
   </si>
 </sst>
 </file>
@@ -3295,6 +3292,9 @@
     <xf numFmtId="0" fontId="10" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3390,9 +3390,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3980,123 +3977,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="448" t="s">
+      <c r="B1" s="449" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="449"/>
-      <c r="D1" s="449"/>
-      <c r="E1" s="449"/>
-      <c r="F1" s="449"/>
-      <c r="G1" s="449"/>
-      <c r="H1" s="449"/>
-      <c r="I1" s="449"/>
-      <c r="J1" s="449"/>
-      <c r="K1" s="449"/>
-      <c r="L1" s="449"/>
-      <c r="M1" s="449"/>
-      <c r="N1" s="449"/>
-      <c r="O1" s="449"/>
-      <c r="P1" s="449"/>
-      <c r="Q1" s="449"/>
-      <c r="R1" s="448" t="s">
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
+      <c r="J1" s="450"/>
+      <c r="K1" s="450"/>
+      <c r="L1" s="450"/>
+      <c r="M1" s="450"/>
+      <c r="N1" s="450"/>
+      <c r="O1" s="450"/>
+      <c r="P1" s="450"/>
+      <c r="Q1" s="450"/>
+      <c r="R1" s="449" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="449"/>
-      <c r="T1" s="449"/>
-      <c r="U1" s="449"/>
-      <c r="V1" s="449"/>
-      <c r="W1" s="449"/>
-      <c r="X1" s="449"/>
-      <c r="Y1" s="449"/>
-      <c r="Z1" s="449"/>
-      <c r="AA1" s="449"/>
-      <c r="AB1" s="449"/>
-      <c r="AC1" s="449"/>
-      <c r="AD1" s="449"/>
-      <c r="AE1" s="449"/>
-      <c r="AF1" s="449"/>
-      <c r="AG1" s="449"/>
-      <c r="AH1" s="449"/>
-      <c r="AI1" s="449"/>
-      <c r="AJ1" s="449"/>
-      <c r="AK1" s="449"/>
-      <c r="AL1" s="449"/>
-      <c r="AM1" s="450"/>
-      <c r="AN1" s="448" t="s">
+      <c r="S1" s="450"/>
+      <c r="T1" s="450"/>
+      <c r="U1" s="450"/>
+      <c r="V1" s="450"/>
+      <c r="W1" s="450"/>
+      <c r="X1" s="450"/>
+      <c r="Y1" s="450"/>
+      <c r="Z1" s="450"/>
+      <c r="AA1" s="450"/>
+      <c r="AB1" s="450"/>
+      <c r="AC1" s="450"/>
+      <c r="AD1" s="450"/>
+      <c r="AE1" s="450"/>
+      <c r="AF1" s="450"/>
+      <c r="AG1" s="450"/>
+      <c r="AH1" s="450"/>
+      <c r="AI1" s="450"/>
+      <c r="AJ1" s="450"/>
+      <c r="AK1" s="450"/>
+      <c r="AL1" s="450"/>
+      <c r="AM1" s="451"/>
+      <c r="AN1" s="449" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="449"/>
-      <c r="AP1" s="449"/>
-      <c r="AQ1" s="449"/>
-      <c r="AR1" s="449"/>
-      <c r="AS1" s="449"/>
-      <c r="AT1" s="450"/>
-      <c r="AU1" s="448" t="s">
+      <c r="AO1" s="450"/>
+      <c r="AP1" s="450"/>
+      <c r="AQ1" s="450"/>
+      <c r="AR1" s="450"/>
+      <c r="AS1" s="450"/>
+      <c r="AT1" s="451"/>
+      <c r="AU1" s="449" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="449"/>
-      <c r="AW1" s="449"/>
-      <c r="AX1" s="449"/>
-      <c r="AY1" s="449"/>
-      <c r="AZ1" s="449"/>
-      <c r="BA1" s="449"/>
-      <c r="BB1" s="449"/>
-      <c r="BC1" s="449"/>
-      <c r="BD1" s="449"/>
-      <c r="BE1" s="449"/>
-      <c r="BF1" s="449"/>
-      <c r="BG1" s="449"/>
-      <c r="BH1" s="449"/>
-      <c r="BI1" s="449"/>
-      <c r="BJ1" s="449"/>
-      <c r="BK1" s="449"/>
-      <c r="BL1" s="449"/>
-      <c r="BM1" s="449"/>
-      <c r="BN1" s="449"/>
-      <c r="BO1" s="449"/>
-      <c r="BP1" s="449"/>
-      <c r="BQ1" s="450"/>
-      <c r="BR1" s="448" t="s">
+      <c r="AV1" s="450"/>
+      <c r="AW1" s="450"/>
+      <c r="AX1" s="450"/>
+      <c r="AY1" s="450"/>
+      <c r="AZ1" s="450"/>
+      <c r="BA1" s="450"/>
+      <c r="BB1" s="450"/>
+      <c r="BC1" s="450"/>
+      <c r="BD1" s="450"/>
+      <c r="BE1" s="450"/>
+      <c r="BF1" s="450"/>
+      <c r="BG1" s="450"/>
+      <c r="BH1" s="450"/>
+      <c r="BI1" s="450"/>
+      <c r="BJ1" s="450"/>
+      <c r="BK1" s="450"/>
+      <c r="BL1" s="450"/>
+      <c r="BM1" s="450"/>
+      <c r="BN1" s="450"/>
+      <c r="BO1" s="450"/>
+      <c r="BP1" s="450"/>
+      <c r="BQ1" s="451"/>
+      <c r="BR1" s="449" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="449"/>
-      <c r="BT1" s="449"/>
-      <c r="BU1" s="449"/>
-      <c r="BV1" s="449"/>
-      <c r="BW1" s="449"/>
-      <c r="BX1" s="449"/>
-      <c r="BY1" s="449"/>
-      <c r="BZ1" s="449"/>
-      <c r="CA1" s="449"/>
-      <c r="CB1" s="449"/>
-      <c r="CC1" s="449"/>
-      <c r="CD1" s="449"/>
-      <c r="CE1" s="449"/>
-      <c r="CF1" s="449"/>
-      <c r="CG1" s="449"/>
-      <c r="CH1" s="449"/>
-      <c r="CI1" s="449"/>
-      <c r="CJ1" s="449"/>
-      <c r="CK1" s="450"/>
-      <c r="CL1" s="448" t="s">
+      <c r="BS1" s="450"/>
+      <c r="BT1" s="450"/>
+      <c r="BU1" s="450"/>
+      <c r="BV1" s="450"/>
+      <c r="BW1" s="450"/>
+      <c r="BX1" s="450"/>
+      <c r="BY1" s="450"/>
+      <c r="BZ1" s="450"/>
+      <c r="CA1" s="450"/>
+      <c r="CB1" s="450"/>
+      <c r="CC1" s="450"/>
+      <c r="CD1" s="450"/>
+      <c r="CE1" s="450"/>
+      <c r="CF1" s="450"/>
+      <c r="CG1" s="450"/>
+      <c r="CH1" s="450"/>
+      <c r="CI1" s="450"/>
+      <c r="CJ1" s="450"/>
+      <c r="CK1" s="451"/>
+      <c r="CL1" s="449" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="449"/>
-      <c r="CN1" s="449"/>
-      <c r="CO1" s="449"/>
-      <c r="CP1" s="449"/>
-      <c r="CQ1" s="449"/>
-      <c r="CR1" s="449"/>
-      <c r="CS1" s="449"/>
-      <c r="CT1" s="449"/>
-      <c r="CU1" s="449"/>
-      <c r="CV1" s="449"/>
-      <c r="CW1" s="449"/>
-      <c r="CX1" s="449"/>
-      <c r="CY1" s="449"/>
-      <c r="CZ1" s="449"/>
-      <c r="DA1" s="449"/>
-      <c r="DB1" s="449"/>
+      <c r="CM1" s="450"/>
+      <c r="CN1" s="450"/>
+      <c r="CO1" s="450"/>
+      <c r="CP1" s="450"/>
+      <c r="CQ1" s="450"/>
+      <c r="CR1" s="450"/>
+      <c r="CS1" s="450"/>
+      <c r="CT1" s="450"/>
+      <c r="CU1" s="450"/>
+      <c r="CV1" s="450"/>
+      <c r="CW1" s="450"/>
+      <c r="CX1" s="450"/>
+      <c r="CY1" s="450"/>
+      <c r="CZ1" s="450"/>
+      <c r="DA1" s="450"/>
+      <c r="DB1" s="450"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22723,15 +22720,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="446" t="s">
+      <c r="CW86" s="447" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="446"/>
-      <c r="CY86" s="446"/>
-      <c r="CZ86" s="446"/>
-      <c r="DA86" s="446"/>
-      <c r="DB86" s="446"/>
-      <c r="DC86" s="447"/>
+      <c r="CX86" s="447"/>
+      <c r="CY86" s="447"/>
+      <c r="CZ86" s="447"/>
+      <c r="DA86" s="447"/>
+      <c r="DB86" s="447"/>
+      <c r="DC86" s="448"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -23121,118 +23118,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="460" t="s">
+      <c r="B1" s="461" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="461"/>
-      <c r="D1" s="461"/>
-      <c r="E1" s="461"/>
-      <c r="F1" s="461"/>
-      <c r="G1" s="461"/>
-      <c r="H1" s="461"/>
-      <c r="I1" s="461"/>
-      <c r="J1" s="461"/>
-      <c r="K1" s="461"/>
-      <c r="L1" s="461"/>
-      <c r="M1" s="461"/>
-      <c r="N1" s="461"/>
-      <c r="O1" s="461"/>
-      <c r="P1" s="461"/>
-      <c r="Q1" s="462"/>
-      <c r="R1" s="451" t="s">
+      <c r="C1" s="462"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
+      <c r="F1" s="462"/>
+      <c r="G1" s="462"/>
+      <c r="H1" s="462"/>
+      <c r="I1" s="462"/>
+      <c r="J1" s="462"/>
+      <c r="K1" s="462"/>
+      <c r="L1" s="462"/>
+      <c r="M1" s="462"/>
+      <c r="N1" s="462"/>
+      <c r="O1" s="462"/>
+      <c r="P1" s="462"/>
+      <c r="Q1" s="463"/>
+      <c r="R1" s="452" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="452"/>
-      <c r="T1" s="452"/>
-      <c r="U1" s="452"/>
-      <c r="V1" s="452"/>
-      <c r="W1" s="452"/>
-      <c r="X1" s="452"/>
-      <c r="Y1" s="452"/>
-      <c r="Z1" s="452"/>
-      <c r="AA1" s="452"/>
-      <c r="AB1" s="452"/>
-      <c r="AC1" s="452"/>
-      <c r="AD1" s="452"/>
-      <c r="AE1" s="452"/>
-      <c r="AF1" s="452"/>
-      <c r="AG1" s="452"/>
-      <c r="AH1" s="452"/>
-      <c r="AI1" s="452"/>
-      <c r="AJ1" s="452"/>
-      <c r="AK1" s="452"/>
-      <c r="AL1" s="453"/>
-      <c r="AM1" s="451" t="s">
+      <c r="S1" s="453"/>
+      <c r="T1" s="453"/>
+      <c r="U1" s="453"/>
+      <c r="V1" s="453"/>
+      <c r="W1" s="453"/>
+      <c r="X1" s="453"/>
+      <c r="Y1" s="453"/>
+      <c r="Z1" s="453"/>
+      <c r="AA1" s="453"/>
+      <c r="AB1" s="453"/>
+      <c r="AC1" s="453"/>
+      <c r="AD1" s="453"/>
+      <c r="AE1" s="453"/>
+      <c r="AF1" s="453"/>
+      <c r="AG1" s="453"/>
+      <c r="AH1" s="453"/>
+      <c r="AI1" s="453"/>
+      <c r="AJ1" s="453"/>
+      <c r="AK1" s="453"/>
+      <c r="AL1" s="454"/>
+      <c r="AM1" s="452" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="452"/>
-      <c r="AO1" s="452"/>
-      <c r="AP1" s="452"/>
-      <c r="AQ1" s="452"/>
-      <c r="AR1" s="452"/>
-      <c r="AS1" s="452"/>
-      <c r="AT1" s="452"/>
-      <c r="AU1" s="452"/>
-      <c r="AV1" s="452"/>
-      <c r="AW1" s="452"/>
-      <c r="AX1" s="452"/>
-      <c r="AY1" s="452"/>
-      <c r="AZ1" s="452"/>
-      <c r="BA1" s="452"/>
-      <c r="BB1" s="452"/>
-      <c r="BC1" s="452"/>
-      <c r="BD1" s="452"/>
-      <c r="BE1" s="452"/>
-      <c r="BF1" s="452"/>
-      <c r="BG1" s="452"/>
-      <c r="BH1" s="453"/>
-      <c r="BI1" s="451" t="s">
+      <c r="AN1" s="453"/>
+      <c r="AO1" s="453"/>
+      <c r="AP1" s="453"/>
+      <c r="AQ1" s="453"/>
+      <c r="AR1" s="453"/>
+      <c r="AS1" s="453"/>
+      <c r="AT1" s="453"/>
+      <c r="AU1" s="453"/>
+      <c r="AV1" s="453"/>
+      <c r="AW1" s="453"/>
+      <c r="AX1" s="453"/>
+      <c r="AY1" s="453"/>
+      <c r="AZ1" s="453"/>
+      <c r="BA1" s="453"/>
+      <c r="BB1" s="453"/>
+      <c r="BC1" s="453"/>
+      <c r="BD1" s="453"/>
+      <c r="BE1" s="453"/>
+      <c r="BF1" s="453"/>
+      <c r="BG1" s="453"/>
+      <c r="BH1" s="454"/>
+      <c r="BI1" s="452" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="452"/>
-      <c r="BK1" s="452"/>
-      <c r="BL1" s="452"/>
-      <c r="BM1" s="452"/>
-      <c r="BN1" s="452"/>
-      <c r="BO1" s="452"/>
-      <c r="BP1" s="452"/>
-      <c r="BQ1" s="452"/>
-      <c r="BR1" s="452"/>
-      <c r="BS1" s="452"/>
-      <c r="BT1" s="452"/>
-      <c r="BU1" s="452"/>
-      <c r="BV1" s="452"/>
-      <c r="BW1" s="452"/>
-      <c r="BX1" s="452"/>
-      <c r="BY1" s="452"/>
-      <c r="BZ1" s="452"/>
-      <c r="CA1" s="452"/>
-      <c r="CB1" s="452"/>
-      <c r="CC1" s="452"/>
-      <c r="CD1" s="453"/>
-      <c r="CE1" s="451" t="s">
+      <c r="BJ1" s="453"/>
+      <c r="BK1" s="453"/>
+      <c r="BL1" s="453"/>
+      <c r="BM1" s="453"/>
+      <c r="BN1" s="453"/>
+      <c r="BO1" s="453"/>
+      <c r="BP1" s="453"/>
+      <c r="BQ1" s="453"/>
+      <c r="BR1" s="453"/>
+      <c r="BS1" s="453"/>
+      <c r="BT1" s="453"/>
+      <c r="BU1" s="453"/>
+      <c r="BV1" s="453"/>
+      <c r="BW1" s="453"/>
+      <c r="BX1" s="453"/>
+      <c r="BY1" s="453"/>
+      <c r="BZ1" s="453"/>
+      <c r="CA1" s="453"/>
+      <c r="CB1" s="453"/>
+      <c r="CC1" s="453"/>
+      <c r="CD1" s="454"/>
+      <c r="CE1" s="452" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="452"/>
-      <c r="CG1" s="452"/>
-      <c r="CH1" s="452"/>
-      <c r="CI1" s="452"/>
-      <c r="CJ1" s="452"/>
-      <c r="CK1" s="452"/>
-      <c r="CL1" s="452"/>
-      <c r="CM1" s="453"/>
-      <c r="CN1" s="451" t="s">
+      <c r="CF1" s="453"/>
+      <c r="CG1" s="453"/>
+      <c r="CH1" s="453"/>
+      <c r="CI1" s="453"/>
+      <c r="CJ1" s="453"/>
+      <c r="CK1" s="453"/>
+      <c r="CL1" s="453"/>
+      <c r="CM1" s="454"/>
+      <c r="CN1" s="452" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="452"/>
-      <c r="CP1" s="452"/>
-      <c r="CQ1" s="452"/>
-      <c r="CR1" s="452"/>
-      <c r="CS1" s="452"/>
-      <c r="CT1" s="452"/>
-      <c r="CU1" s="452"/>
-      <c r="CV1" s="452"/>
-      <c r="CW1" s="453"/>
+      <c r="CO1" s="453"/>
+      <c r="CP1" s="453"/>
+      <c r="CQ1" s="453"/>
+      <c r="CR1" s="453"/>
+      <c r="CS1" s="453"/>
+      <c r="CT1" s="453"/>
+      <c r="CU1" s="453"/>
+      <c r="CV1" s="453"/>
+      <c r="CW1" s="454"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24679,11 +24676,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="454" t="s">
+      <c r="AX47" s="455" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="455"/>
-      <c r="AZ47" s="456"/>
+      <c r="AY47" s="456"/>
+      <c r="AZ47" s="457"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -24982,11 +24979,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="457" t="s">
+      <c r="BS60" s="458" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="458"/>
-      <c r="BU60" s="459"/>
+      <c r="BT60" s="459"/>
+      <c r="BU60" s="460"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -25350,120 +25347,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="460" t="s">
+      <c r="B1" s="461" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="461"/>
-      <c r="D1" s="461"/>
-      <c r="E1" s="461"/>
-      <c r="F1" s="461"/>
-      <c r="G1" s="461"/>
-      <c r="H1" s="461"/>
-      <c r="I1" s="461"/>
-      <c r="J1" s="461"/>
-      <c r="K1" s="461"/>
-      <c r="L1" s="461"/>
-      <c r="M1" s="461"/>
-      <c r="N1" s="461"/>
-      <c r="O1" s="461"/>
-      <c r="P1" s="461"/>
-      <c r="Q1" s="462"/>
-      <c r="R1" s="451" t="s">
+      <c r="C1" s="462"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
+      <c r="F1" s="462"/>
+      <c r="G1" s="462"/>
+      <c r="H1" s="462"/>
+      <c r="I1" s="462"/>
+      <c r="J1" s="462"/>
+      <c r="K1" s="462"/>
+      <c r="L1" s="462"/>
+      <c r="M1" s="462"/>
+      <c r="N1" s="462"/>
+      <c r="O1" s="462"/>
+      <c r="P1" s="462"/>
+      <c r="Q1" s="463"/>
+      <c r="R1" s="452" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="452"/>
-      <c r="T1" s="452"/>
-      <c r="U1" s="452"/>
-      <c r="V1" s="452"/>
-      <c r="W1" s="452"/>
-      <c r="X1" s="452"/>
-      <c r="Y1" s="452"/>
-      <c r="Z1" s="452"/>
-      <c r="AA1" s="452"/>
-      <c r="AB1" s="452"/>
-      <c r="AC1" s="452"/>
-      <c r="AD1" s="452"/>
-      <c r="AE1" s="452"/>
-      <c r="AF1" s="452"/>
-      <c r="AG1" s="452"/>
-      <c r="AH1" s="452"/>
-      <c r="AI1" s="452"/>
-      <c r="AJ1" s="452"/>
-      <c r="AK1" s="452"/>
-      <c r="AL1" s="452"/>
-      <c r="AM1" s="453"/>
-      <c r="AN1" s="451" t="s">
+      <c r="S1" s="453"/>
+      <c r="T1" s="453"/>
+      <c r="U1" s="453"/>
+      <c r="V1" s="453"/>
+      <c r="W1" s="453"/>
+      <c r="X1" s="453"/>
+      <c r="Y1" s="453"/>
+      <c r="Z1" s="453"/>
+      <c r="AA1" s="453"/>
+      <c r="AB1" s="453"/>
+      <c r="AC1" s="453"/>
+      <c r="AD1" s="453"/>
+      <c r="AE1" s="453"/>
+      <c r="AF1" s="453"/>
+      <c r="AG1" s="453"/>
+      <c r="AH1" s="453"/>
+      <c r="AI1" s="453"/>
+      <c r="AJ1" s="453"/>
+      <c r="AK1" s="453"/>
+      <c r="AL1" s="453"/>
+      <c r="AM1" s="454"/>
+      <c r="AN1" s="452" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="452"/>
-      <c r="AP1" s="452"/>
-      <c r="AQ1" s="452"/>
-      <c r="AR1" s="452"/>
-      <c r="AS1" s="452"/>
-      <c r="AT1" s="452"/>
-      <c r="AU1" s="452"/>
-      <c r="AV1" s="452"/>
-      <c r="AW1" s="452"/>
-      <c r="AX1" s="452"/>
-      <c r="AY1" s="452"/>
-      <c r="AZ1" s="452"/>
-      <c r="BA1" s="452"/>
-      <c r="BB1" s="452"/>
-      <c r="BC1" s="452"/>
-      <c r="BD1" s="452"/>
-      <c r="BE1" s="452"/>
-      <c r="BF1" s="452"/>
-      <c r="BG1" s="452"/>
-      <c r="BH1" s="452"/>
-      <c r="BI1" s="452"/>
-      <c r="BJ1" s="453"/>
-      <c r="BK1" s="451" t="s">
+      <c r="AO1" s="453"/>
+      <c r="AP1" s="453"/>
+      <c r="AQ1" s="453"/>
+      <c r="AR1" s="453"/>
+      <c r="AS1" s="453"/>
+      <c r="AT1" s="453"/>
+      <c r="AU1" s="453"/>
+      <c r="AV1" s="453"/>
+      <c r="AW1" s="453"/>
+      <c r="AX1" s="453"/>
+      <c r="AY1" s="453"/>
+      <c r="AZ1" s="453"/>
+      <c r="BA1" s="453"/>
+      <c r="BB1" s="453"/>
+      <c r="BC1" s="453"/>
+      <c r="BD1" s="453"/>
+      <c r="BE1" s="453"/>
+      <c r="BF1" s="453"/>
+      <c r="BG1" s="453"/>
+      <c r="BH1" s="453"/>
+      <c r="BI1" s="453"/>
+      <c r="BJ1" s="454"/>
+      <c r="BK1" s="452" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="452"/>
-      <c r="BM1" s="452"/>
-      <c r="BN1" s="452"/>
-      <c r="BO1" s="452"/>
-      <c r="BP1" s="452"/>
-      <c r="BQ1" s="452"/>
-      <c r="BR1" s="452"/>
-      <c r="BS1" s="452"/>
-      <c r="BT1" s="452"/>
-      <c r="BU1" s="452"/>
-      <c r="BV1" s="452"/>
-      <c r="BW1" s="452"/>
-      <c r="BX1" s="452"/>
-      <c r="BY1" s="452"/>
-      <c r="BZ1" s="452"/>
-      <c r="CA1" s="452"/>
-      <c r="CB1" s="452"/>
-      <c r="CC1" s="452"/>
-      <c r="CD1" s="452"/>
-      <c r="CE1" s="452"/>
-      <c r="CF1" s="452"/>
-      <c r="CG1" s="453"/>
-      <c r="CH1" s="451" t="s">
+      <c r="BL1" s="453"/>
+      <c r="BM1" s="453"/>
+      <c r="BN1" s="453"/>
+      <c r="BO1" s="453"/>
+      <c r="BP1" s="453"/>
+      <c r="BQ1" s="453"/>
+      <c r="BR1" s="453"/>
+      <c r="BS1" s="453"/>
+      <c r="BT1" s="453"/>
+      <c r="BU1" s="453"/>
+      <c r="BV1" s="453"/>
+      <c r="BW1" s="453"/>
+      <c r="BX1" s="453"/>
+      <c r="BY1" s="453"/>
+      <c r="BZ1" s="453"/>
+      <c r="CA1" s="453"/>
+      <c r="CB1" s="453"/>
+      <c r="CC1" s="453"/>
+      <c r="CD1" s="453"/>
+      <c r="CE1" s="453"/>
+      <c r="CF1" s="453"/>
+      <c r="CG1" s="454"/>
+      <c r="CH1" s="452" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="452"/>
-      <c r="CJ1" s="452"/>
-      <c r="CK1" s="452"/>
-      <c r="CL1" s="452"/>
-      <c r="CM1" s="452"/>
-      <c r="CN1" s="452"/>
-      <c r="CO1" s="452"/>
-      <c r="CP1" s="452"/>
-      <c r="CQ1" s="453"/>
-      <c r="CR1" s="463" t="s">
+      <c r="CI1" s="453"/>
+      <c r="CJ1" s="453"/>
+      <c r="CK1" s="453"/>
+      <c r="CL1" s="453"/>
+      <c r="CM1" s="453"/>
+      <c r="CN1" s="453"/>
+      <c r="CO1" s="453"/>
+      <c r="CP1" s="453"/>
+      <c r="CQ1" s="454"/>
+      <c r="CR1" s="464" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="464"/>
-      <c r="CT1" s="464"/>
-      <c r="CU1" s="464"/>
-      <c r="CV1" s="464"/>
-      <c r="CW1" s="464"/>
-      <c r="CX1" s="464"/>
-      <c r="CY1" s="465"/>
+      <c r="CS1" s="465"/>
+      <c r="CT1" s="465"/>
+      <c r="CU1" s="465"/>
+      <c r="CV1" s="465"/>
+      <c r="CW1" s="465"/>
+      <c r="CX1" s="465"/>
+      <c r="CY1" s="466"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27272,11 +27269,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="466" t="s">
+      <c r="AY47" s="467" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="467"/>
-      <c r="BA47" s="468"/>
+      <c r="AZ47" s="468"/>
+      <c r="BA47" s="469"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27669,11 +27666,11 @@
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="457" t="s">
+      <c r="BU60" s="458" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="458"/>
-      <c r="BW60" s="459"/>
+      <c r="BV60" s="459"/>
+      <c r="BW60" s="460"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -28148,120 +28145,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="460" t="s">
+      <c r="B1" s="461" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="461"/>
-      <c r="D1" s="461"/>
-      <c r="E1" s="461"/>
-      <c r="F1" s="461"/>
-      <c r="G1" s="461"/>
-      <c r="H1" s="461"/>
-      <c r="I1" s="461"/>
-      <c r="J1" s="461"/>
-      <c r="K1" s="461"/>
-      <c r="L1" s="461"/>
-      <c r="M1" s="461"/>
-      <c r="N1" s="461"/>
-      <c r="O1" s="461"/>
-      <c r="P1" s="461"/>
-      <c r="Q1" s="462"/>
-      <c r="R1" s="451" t="s">
+      <c r="C1" s="462"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
+      <c r="F1" s="462"/>
+      <c r="G1" s="462"/>
+      <c r="H1" s="462"/>
+      <c r="I1" s="462"/>
+      <c r="J1" s="462"/>
+      <c r="K1" s="462"/>
+      <c r="L1" s="462"/>
+      <c r="M1" s="462"/>
+      <c r="N1" s="462"/>
+      <c r="O1" s="462"/>
+      <c r="P1" s="462"/>
+      <c r="Q1" s="463"/>
+      <c r="R1" s="452" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="452"/>
-      <c r="T1" s="452"/>
-      <c r="U1" s="452"/>
-      <c r="V1" s="452"/>
-      <c r="W1" s="452"/>
-      <c r="X1" s="452"/>
-      <c r="Y1" s="452"/>
-      <c r="Z1" s="452"/>
-      <c r="AA1" s="452"/>
-      <c r="AB1" s="452"/>
-      <c r="AC1" s="452"/>
-      <c r="AD1" s="452"/>
-      <c r="AE1" s="452"/>
-      <c r="AF1" s="452"/>
-      <c r="AG1" s="452"/>
-      <c r="AH1" s="452"/>
-      <c r="AI1" s="452"/>
-      <c r="AJ1" s="452"/>
-      <c r="AK1" s="452"/>
-      <c r="AL1" s="452"/>
-      <c r="AM1" s="453"/>
-      <c r="AN1" s="451" t="s">
+      <c r="S1" s="453"/>
+      <c r="T1" s="453"/>
+      <c r="U1" s="453"/>
+      <c r="V1" s="453"/>
+      <c r="W1" s="453"/>
+      <c r="X1" s="453"/>
+      <c r="Y1" s="453"/>
+      <c r="Z1" s="453"/>
+      <c r="AA1" s="453"/>
+      <c r="AB1" s="453"/>
+      <c r="AC1" s="453"/>
+      <c r="AD1" s="453"/>
+      <c r="AE1" s="453"/>
+      <c r="AF1" s="453"/>
+      <c r="AG1" s="453"/>
+      <c r="AH1" s="453"/>
+      <c r="AI1" s="453"/>
+      <c r="AJ1" s="453"/>
+      <c r="AK1" s="453"/>
+      <c r="AL1" s="453"/>
+      <c r="AM1" s="454"/>
+      <c r="AN1" s="452" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="452"/>
-      <c r="AP1" s="452"/>
-      <c r="AQ1" s="452"/>
-      <c r="AR1" s="452"/>
-      <c r="AS1" s="452"/>
-      <c r="AT1" s="452"/>
-      <c r="AU1" s="452"/>
-      <c r="AV1" s="452"/>
-      <c r="AW1" s="452"/>
-      <c r="AX1" s="452"/>
-      <c r="AY1" s="452"/>
-      <c r="AZ1" s="452"/>
-      <c r="BA1" s="452"/>
-      <c r="BB1" s="452"/>
-      <c r="BC1" s="452"/>
-      <c r="BD1" s="452"/>
-      <c r="BE1" s="452"/>
-      <c r="BF1" s="452"/>
-      <c r="BG1" s="452"/>
-      <c r="BH1" s="452"/>
-      <c r="BI1" s="452"/>
-      <c r="BJ1" s="453"/>
-      <c r="BK1" s="451" t="s">
+      <c r="AO1" s="453"/>
+      <c r="AP1" s="453"/>
+      <c r="AQ1" s="453"/>
+      <c r="AR1" s="453"/>
+      <c r="AS1" s="453"/>
+      <c r="AT1" s="453"/>
+      <c r="AU1" s="453"/>
+      <c r="AV1" s="453"/>
+      <c r="AW1" s="453"/>
+      <c r="AX1" s="453"/>
+      <c r="AY1" s="453"/>
+      <c r="AZ1" s="453"/>
+      <c r="BA1" s="453"/>
+      <c r="BB1" s="453"/>
+      <c r="BC1" s="453"/>
+      <c r="BD1" s="453"/>
+      <c r="BE1" s="453"/>
+      <c r="BF1" s="453"/>
+      <c r="BG1" s="453"/>
+      <c r="BH1" s="453"/>
+      <c r="BI1" s="453"/>
+      <c r="BJ1" s="454"/>
+      <c r="BK1" s="452" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="452"/>
-      <c r="BM1" s="452"/>
-      <c r="BN1" s="452"/>
-      <c r="BO1" s="452"/>
-      <c r="BP1" s="452"/>
-      <c r="BQ1" s="452"/>
-      <c r="BR1" s="452"/>
-      <c r="BS1" s="452"/>
-      <c r="BT1" s="452"/>
-      <c r="BU1" s="452"/>
-      <c r="BV1" s="452"/>
-      <c r="BW1" s="452"/>
-      <c r="BX1" s="452"/>
-      <c r="BY1" s="452"/>
-      <c r="BZ1" s="452"/>
-      <c r="CA1" s="452"/>
-      <c r="CB1" s="452"/>
-      <c r="CC1" s="452"/>
-      <c r="CD1" s="452"/>
-      <c r="CE1" s="452"/>
-      <c r="CF1" s="452"/>
-      <c r="CG1" s="453"/>
-      <c r="CH1" s="451" t="s">
+      <c r="BL1" s="453"/>
+      <c r="BM1" s="453"/>
+      <c r="BN1" s="453"/>
+      <c r="BO1" s="453"/>
+      <c r="BP1" s="453"/>
+      <c r="BQ1" s="453"/>
+      <c r="BR1" s="453"/>
+      <c r="BS1" s="453"/>
+      <c r="BT1" s="453"/>
+      <c r="BU1" s="453"/>
+      <c r="BV1" s="453"/>
+      <c r="BW1" s="453"/>
+      <c r="BX1" s="453"/>
+      <c r="BY1" s="453"/>
+      <c r="BZ1" s="453"/>
+      <c r="CA1" s="453"/>
+      <c r="CB1" s="453"/>
+      <c r="CC1" s="453"/>
+      <c r="CD1" s="453"/>
+      <c r="CE1" s="453"/>
+      <c r="CF1" s="453"/>
+      <c r="CG1" s="454"/>
+      <c r="CH1" s="452" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="452"/>
-      <c r="CJ1" s="452"/>
-      <c r="CK1" s="452"/>
-      <c r="CL1" s="452"/>
-      <c r="CM1" s="452"/>
-      <c r="CN1" s="452"/>
-      <c r="CO1" s="452"/>
-      <c r="CP1" s="452"/>
-      <c r="CQ1" s="453"/>
-      <c r="CR1" s="463" t="s">
+      <c r="CI1" s="453"/>
+      <c r="CJ1" s="453"/>
+      <c r="CK1" s="453"/>
+      <c r="CL1" s="453"/>
+      <c r="CM1" s="453"/>
+      <c r="CN1" s="453"/>
+      <c r="CO1" s="453"/>
+      <c r="CP1" s="453"/>
+      <c r="CQ1" s="454"/>
+      <c r="CR1" s="464" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="464"/>
-      <c r="CT1" s="464"/>
-      <c r="CU1" s="464"/>
-      <c r="CV1" s="464"/>
-      <c r="CW1" s="464"/>
-      <c r="CX1" s="464"/>
-      <c r="CY1" s="465"/>
+      <c r="CS1" s="465"/>
+      <c r="CT1" s="465"/>
+      <c r="CU1" s="465"/>
+      <c r="CV1" s="465"/>
+      <c r="CW1" s="465"/>
+      <c r="CX1" s="465"/>
+      <c r="CY1" s="466"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30849,11 +30846,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="466" t="s">
+      <c r="AY47" s="467" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="467"/>
-      <c r="BA47" s="468"/>
+      <c r="AZ47" s="468"/>
+      <c r="BA47" s="469"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -31502,11 +31499,11 @@
       <c r="BK60" s="145"/>
       <c r="BN60" s="321"/>
       <c r="BS60" s="302"/>
-      <c r="BU60" s="457" t="s">
+      <c r="BU60" s="458" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="458"/>
-      <c r="BW60" s="459"/>
+      <c r="BV60" s="459"/>
+      <c r="BW60" s="460"/>
       <c r="BX60" s="302"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -34564,7 +34561,7 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34593,28 +34590,28 @@
       <c r="E1" s="426" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="478" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="478" t="s">
-        <v>210</v>
+      <c r="F1" s="446" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="446" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="472" t="s">
+      <c r="A2" s="473" t="s">
         <v>142</v>
       </c>
       <c r="B2" s="397">
         <v>43670</v>
       </c>
       <c r="C2" s="427" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D2" s="428"/>
       <c r="E2" s="428"/>
     </row>
     <row r="3" spans="1:16" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="473"/>
+      <c r="A3" s="474"/>
       <c r="B3" s="398">
         <v>43671</v>
       </c>
@@ -34623,21 +34620,21 @@
       <c r="E3" s="429"/>
     </row>
     <row r="4" spans="1:16" s="419" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="473"/>
+      <c r="A4" s="474"/>
       <c r="B4" s="399">
         <v>43672</v>
       </c>
       <c r="C4" s="430" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D4" s="431" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" s="431"/>
       <c r="P4" s="445"/>
     </row>
     <row r="5" spans="1:16" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="473"/>
+      <c r="A5" s="474"/>
       <c r="B5" s="400">
         <v>43675</v>
       </c>
@@ -34645,14 +34642,20 @@
         <v>147</v>
       </c>
       <c r="D5" s="433" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="E5" s="433" t="s">
+        <v>203</v>
       </c>
       <c r="F5" s="433" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="G5" s="433" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="473"/>
+      <c r="A6" s="474"/>
       <c r="B6" s="400">
         <v>43676</v>
       </c>
@@ -34665,22 +34668,22 @@
       <c r="E6" s="433"/>
     </row>
     <row r="7" spans="1:16" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="473"/>
+      <c r="A7" s="474"/>
       <c r="B7" s="400">
         <v>43677</v>
       </c>
       <c r="C7" s="432" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="432" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="E7" s="433" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="473"/>
+      <c r="A8" s="474"/>
       <c r="B8" s="398">
         <v>43678</v>
       </c>
@@ -34689,33 +34692,33 @@
       <c r="E8" s="429"/>
     </row>
     <row r="9" spans="1:16" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="473"/>
+      <c r="A9" s="474"/>
       <c r="B9" s="400">
         <v>43679</v>
       </c>
       <c r="C9" s="432" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D9" s="432" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="E9" s="433"/>
     </row>
     <row r="10" spans="1:16" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="473"/>
+      <c r="A10" s="474"/>
       <c r="B10" s="399">
         <v>43682</v>
       </c>
       <c r="C10" s="430" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" s="430" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E10" s="431"/>
     </row>
     <row r="11" spans="1:16" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="473"/>
+      <c r="A11" s="474"/>
       <c r="B11" s="399">
         <v>43683</v>
       </c>
@@ -34728,7 +34731,7 @@
       <c r="E11" s="431"/>
     </row>
     <row r="12" spans="1:16" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="473"/>
+      <c r="A12" s="474"/>
       <c r="B12" s="399">
         <v>43684</v>
       </c>
@@ -34741,7 +34744,7 @@
       <c r="E12" s="431"/>
     </row>
     <row r="13" spans="1:16" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="473"/>
+      <c r="A13" s="474"/>
       <c r="B13" s="398">
         <v>43685</v>
       </c>
@@ -34750,20 +34753,20 @@
       <c r="E13" s="429"/>
     </row>
     <row r="14" spans="1:16" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="473"/>
+      <c r="A14" s="474"/>
       <c r="B14" s="399">
         <v>43686</v>
       </c>
       <c r="C14" s="431" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D14" s="431" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E14" s="431"/>
     </row>
     <row r="15" spans="1:16" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="473"/>
+      <c r="A15" s="474"/>
       <c r="B15" s="400">
         <v>43689</v>
       </c>
@@ -34776,7 +34779,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="473"/>
+      <c r="A16" s="474"/>
       <c r="B16" s="400">
         <v>43690</v>
       </c>
@@ -34787,7 +34790,7 @@
       <c r="E16" s="433"/>
     </row>
     <row r="17" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="473"/>
+      <c r="A17" s="474"/>
       <c r="B17" s="400">
         <v>43691</v>
       </c>
@@ -34798,7 +34801,7 @@
       <c r="E17" s="433"/>
     </row>
     <row r="18" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="473"/>
+      <c r="A18" s="474"/>
       <c r="B18" s="398">
         <v>43692</v>
       </c>
@@ -34807,7 +34810,7 @@
       <c r="E18" s="429"/>
     </row>
     <row r="19" spans="1:5" s="421" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="474"/>
+      <c r="A19" s="475"/>
       <c r="B19" s="401">
         <v>43693</v>
       </c>
@@ -34818,48 +34821,48 @@
       <c r="E19" s="434"/>
     </row>
     <row r="20" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="469" t="s">
+      <c r="A20" s="470" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="402">
         <v>43696</v>
       </c>
       <c r="C20" s="427" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D20" s="442" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="428"/>
     </row>
     <row r="21" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="470"/>
+      <c r="A21" s="471"/>
       <c r="B21" s="403">
         <v>43697</v>
       </c>
       <c r="C21" s="440" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D21" s="430" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E21" s="441"/>
     </row>
     <row r="22" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="470"/>
+      <c r="A22" s="471"/>
       <c r="B22" s="403">
         <v>43698</v>
       </c>
       <c r="C22" s="431" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D22" s="443" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E22" s="431"/>
     </row>
     <row r="23" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="470"/>
+      <c r="A23" s="471"/>
       <c r="B23" s="404">
         <v>43699</v>
       </c>
@@ -34868,57 +34871,57 @@
       <c r="E23" s="429"/>
     </row>
     <row r="24" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="470"/>
+      <c r="A24" s="471"/>
       <c r="B24" s="403">
         <v>43700</v>
       </c>
       <c r="C24" s="431"/>
       <c r="D24" s="431" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E24" s="431"/>
     </row>
     <row r="25" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="470"/>
+      <c r="A25" s="471"/>
       <c r="B25" s="405">
         <v>43703</v>
       </c>
       <c r="C25" s="432" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D25" s="432" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E25" s="433"/>
     </row>
     <row r="26" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="470"/>
+      <c r="A26" s="471"/>
       <c r="B26" s="405">
         <v>43704</v>
       </c>
       <c r="C26" s="432" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D26" s="432" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E26" s="433"/>
     </row>
     <row r="27" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="470"/>
+      <c r="A27" s="471"/>
       <c r="B27" s="405">
         <v>43705</v>
       </c>
       <c r="C27" s="433" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D27" s="432" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E27" s="433"/>
     </row>
     <row r="28" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="470"/>
+      <c r="A28" s="471"/>
       <c r="B28" s="404">
         <v>43706</v>
       </c>
@@ -34927,53 +34930,53 @@
       <c r="E28" s="429"/>
     </row>
     <row r="29" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="470"/>
+      <c r="A29" s="471"/>
       <c r="B29" s="405">
         <v>43707</v>
       </c>
       <c r="C29" s="433"/>
       <c r="D29" s="433" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E29" s="433"/>
     </row>
     <row r="30" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="470"/>
+      <c r="A30" s="471"/>
       <c r="B30" s="403">
         <v>43710</v>
       </c>
       <c r="C30" s="430" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D30" s="431"/>
       <c r="E30" s="431"/>
     </row>
     <row r="31" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="470"/>
+      <c r="A31" s="471"/>
       <c r="B31" s="403">
         <v>43711</v>
       </c>
       <c r="C31" s="431"/>
       <c r="D31" s="431" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E31" s="431"/>
     </row>
     <row r="32" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="470"/>
+      <c r="A32" s="471"/>
       <c r="B32" s="403">
         <v>43712</v>
       </c>
       <c r="C32" s="431" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D32" s="431" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E32" s="431"/>
     </row>
     <row r="33" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="470"/>
+      <c r="A33" s="471"/>
       <c r="B33" s="404">
         <v>43713</v>
       </c>
@@ -34982,7 +34985,7 @@
       <c r="E33" s="429"/>
     </row>
     <row r="34" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="470"/>
+      <c r="A34" s="471"/>
       <c r="B34" s="403">
         <v>43714</v>
       </c>
@@ -34993,7 +34996,7 @@
       <c r="E34" s="431"/>
     </row>
     <row r="35" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="470"/>
+      <c r="A35" s="471"/>
       <c r="B35" s="405">
         <v>43717</v>
       </c>
@@ -35004,7 +35007,7 @@
       <c r="E35" s="433"/>
     </row>
     <row r="36" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="470"/>
+      <c r="A36" s="471"/>
       <c r="B36" s="405">
         <v>43718</v>
       </c>
@@ -35015,7 +35018,7 @@
       <c r="E36" s="433"/>
     </row>
     <row r="37" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="470"/>
+      <c r="A37" s="471"/>
       <c r="B37" s="405">
         <v>43719</v>
       </c>
@@ -35026,7 +35029,7 @@
       <c r="E37" s="433"/>
     </row>
     <row r="38" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="470"/>
+      <c r="A38" s="471"/>
       <c r="B38" s="404">
         <v>43720</v>
       </c>
@@ -35035,7 +35038,7 @@
       <c r="E38" s="429"/>
     </row>
     <row r="39" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="470"/>
+      <c r="A39" s="471"/>
       <c r="B39" s="405">
         <v>43721</v>
       </c>
@@ -35046,7 +35049,7 @@
       <c r="E39" s="433"/>
     </row>
     <row r="40" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="470"/>
+      <c r="A40" s="471"/>
       <c r="B40" s="403">
         <v>43724</v>
       </c>
@@ -35057,7 +35060,7 @@
       <c r="E40" s="431"/>
     </row>
     <row r="41" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="470"/>
+      <c r="A41" s="471"/>
       <c r="B41" s="403">
         <v>43725</v>
       </c>
@@ -35068,7 +35071,7 @@
       <c r="E41" s="431"/>
     </row>
     <row r="42" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="470"/>
+      <c r="A42" s="471"/>
       <c r="B42" s="403">
         <v>43726</v>
       </c>
@@ -35079,7 +35082,7 @@
       <c r="E42" s="431"/>
     </row>
     <row r="43" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="470"/>
+      <c r="A43" s="471"/>
       <c r="B43" s="404">
         <v>43727</v>
       </c>
@@ -35088,7 +35091,7 @@
       <c r="E43" s="429"/>
     </row>
     <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="471"/>
+      <c r="A44" s="472"/>
       <c r="B44" s="406">
         <v>43728</v>
       </c>
@@ -35099,48 +35102,48 @@
       <c r="E44" s="435"/>
     </row>
     <row r="45" spans="1:5" s="423" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="475" t="s">
+      <c r="A45" s="476" t="s">
         <v>144</v>
       </c>
       <c r="B45" s="407">
         <v>43731</v>
       </c>
       <c r="C45" s="444" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D45" s="433" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E45" s="436"/>
     </row>
     <row r="46" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="476"/>
+      <c r="A46" s="477"/>
       <c r="B46" s="408">
         <v>43732</v>
       </c>
       <c r="C46" s="433" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D46" s="433" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E46" s="433"/>
     </row>
     <row r="47" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="476"/>
+      <c r="A47" s="477"/>
       <c r="B47" s="408">
         <v>43733</v>
       </c>
       <c r="C47" s="432" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D47" s="433" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E47" s="433"/>
     </row>
     <row r="48" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="476"/>
+      <c r="A48" s="477"/>
       <c r="B48" s="409">
         <v>43734</v>
       </c>
@@ -35149,51 +35152,51 @@
       <c r="E48" s="429"/>
     </row>
     <row r="49" spans="1:5" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="476"/>
+      <c r="A49" s="477"/>
       <c r="B49" s="408">
         <v>43735</v>
       </c>
       <c r="C49" s="432" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D49" s="433"/>
       <c r="E49" s="433"/>
     </row>
     <row r="50" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="476"/>
+      <c r="A50" s="477"/>
       <c r="B50" s="410">
         <v>43738</v>
       </c>
       <c r="C50" s="430" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D50" s="431"/>
       <c r="E50" s="431"/>
     </row>
     <row r="51" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="476"/>
+      <c r="A51" s="477"/>
       <c r="B51" s="410">
         <v>43739</v>
       </c>
       <c r="C51" s="430" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D51" s="431"/>
       <c r="E51" s="431"/>
     </row>
     <row r="52" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="476"/>
+      <c r="A52" s="477"/>
       <c r="B52" s="410">
         <v>43740</v>
       </c>
       <c r="C52" s="431" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D52" s="431"/>
       <c r="E52" s="431"/>
     </row>
     <row r="53" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="476"/>
+      <c r="A53" s="477"/>
       <c r="B53" s="409">
         <v>43741</v>
       </c>
@@ -35202,29 +35205,29 @@
       <c r="E53" s="429"/>
     </row>
     <row r="54" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="476"/>
+      <c r="A54" s="477"/>
       <c r="B54" s="410">
         <v>43742</v>
       </c>
       <c r="C54" s="430" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D54" s="431"/>
       <c r="E54" s="431"/>
     </row>
     <row r="55" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="476"/>
+      <c r="A55" s="477"/>
       <c r="B55" s="408">
         <v>43745</v>
       </c>
       <c r="C55" s="433" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D55" s="433"/>
       <c r="E55" s="433"/>
     </row>
     <row r="56" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="476"/>
+      <c r="A56" s="477"/>
       <c r="B56" s="408">
         <v>43746</v>
       </c>
@@ -35235,7 +35238,7 @@
       <c r="E56" s="433"/>
     </row>
     <row r="57" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="476"/>
+      <c r="A57" s="477"/>
       <c r="B57" s="408">
         <v>43747</v>
       </c>
@@ -35246,7 +35249,7 @@
       <c r="E57" s="433"/>
     </row>
     <row r="58" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="476"/>
+      <c r="A58" s="477"/>
       <c r="B58" s="409">
         <v>43748</v>
       </c>
@@ -35255,7 +35258,7 @@
       <c r="E58" s="429"/>
     </row>
     <row r="59" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="476"/>
+      <c r="A59" s="477"/>
       <c r="B59" s="408">
         <v>43749</v>
       </c>
@@ -35266,7 +35269,7 @@
       <c r="E59" s="433"/>
     </row>
     <row r="60" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="476"/>
+      <c r="A60" s="477"/>
       <c r="B60" s="410">
         <v>43754</v>
       </c>
@@ -35277,7 +35280,7 @@
       <c r="E60" s="431"/>
     </row>
     <row r="61" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="476"/>
+      <c r="A61" s="477"/>
       <c r="B61" s="409">
         <v>43755</v>
       </c>
@@ -35286,7 +35289,7 @@
       <c r="E61" s="429"/>
     </row>
     <row r="62" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="476"/>
+      <c r="A62" s="477"/>
       <c r="B62" s="410">
         <v>43756</v>
       </c>
@@ -35297,7 +35300,7 @@
       <c r="E62" s="431"/>
     </row>
     <row r="63" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="476"/>
+      <c r="A63" s="477"/>
       <c r="B63" s="408">
         <v>43759</v>
       </c>
@@ -35308,7 +35311,7 @@
       <c r="E63" s="433"/>
     </row>
     <row r="64" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="476"/>
+      <c r="A64" s="477"/>
       <c r="B64" s="408">
         <v>43760</v>
       </c>
@@ -35319,7 +35322,7 @@
       <c r="E64" s="433"/>
     </row>
     <row r="65" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="476"/>
+      <c r="A65" s="477"/>
       <c r="B65" s="408">
         <v>43761</v>
       </c>
@@ -35330,7 +35333,7 @@
       <c r="E65" s="433"/>
     </row>
     <row r="66" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="477"/>
+      <c r="A66" s="478"/>
       <c r="B66" s="411">
         <v>43762</v>
       </c>
@@ -35339,59 +35342,59 @@
       <c r="E66" s="437"/>
     </row>
     <row r="67" spans="1:5" s="423" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="475" t="s">
+      <c r="A67" s="476" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="407">
         <v>43763</v>
       </c>
       <c r="C67" s="444" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D67" s="436"/>
       <c r="E67" s="436"/>
     </row>
     <row r="68" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="476"/>
+      <c r="A68" s="477"/>
       <c r="B68" s="410">
         <v>43766</v>
       </c>
       <c r="C68" s="431" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D68" s="431" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E68" s="431"/>
     </row>
     <row r="69" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="476"/>
+      <c r="A69" s="477"/>
       <c r="B69" s="410">
         <v>43767</v>
       </c>
       <c r="C69" s="431" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D69" s="431" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E69" s="431"/>
     </row>
     <row r="70" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="476"/>
+      <c r="A70" s="477"/>
       <c r="B70" s="410">
         <v>43768</v>
       </c>
       <c r="C70" s="430" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D70" s="431" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E70" s="431"/>
     </row>
     <row r="71" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="476"/>
+      <c r="A71" s="477"/>
       <c r="B71" s="409">
         <v>43769</v>
       </c>
@@ -35400,55 +35403,55 @@
       <c r="E71" s="429"/>
     </row>
     <row r="72" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="476"/>
+      <c r="A72" s="477"/>
       <c r="B72" s="410">
         <v>43770</v>
       </c>
       <c r="C72" s="431" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D72" s="431"/>
       <c r="E72" s="431"/>
     </row>
     <row r="73" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="476"/>
+      <c r="A73" s="477"/>
       <c r="B73" s="408">
         <v>43773</v>
       </c>
       <c r="C73" s="433" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D73" s="433" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E73" s="433"/>
     </row>
     <row r="74" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="476"/>
+      <c r="A74" s="477"/>
       <c r="B74" s="408">
         <v>43774</v>
       </c>
       <c r="C74" s="433" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D74" s="433" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E74" s="433"/>
     </row>
     <row r="75" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="476"/>
+      <c r="A75" s="477"/>
       <c r="B75" s="408">
         <v>43775</v>
       </c>
       <c r="C75" s="433" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D75" s="433"/>
       <c r="E75" s="433"/>
     </row>
     <row r="76" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="476"/>
+      <c r="A76" s="477"/>
       <c r="B76" s="409">
         <v>43776</v>
       </c>
@@ -35457,7 +35460,7 @@
       <c r="E76" s="429"/>
     </row>
     <row r="77" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="476"/>
+      <c r="A77" s="477"/>
       <c r="B77" s="408">
         <v>43777</v>
       </c>
@@ -35468,7 +35471,7 @@
       <c r="E77" s="433"/>
     </row>
     <row r="78" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="476"/>
+      <c r="A78" s="477"/>
       <c r="B78" s="410">
         <v>43780</v>
       </c>
@@ -35479,7 +35482,7 @@
       <c r="E78" s="431"/>
     </row>
     <row r="79" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="476"/>
+      <c r="A79" s="477"/>
       <c r="B79" s="410">
         <v>43781</v>
       </c>
@@ -35490,7 +35493,7 @@
       <c r="E79" s="431"/>
     </row>
     <row r="80" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="476"/>
+      <c r="A80" s="477"/>
       <c r="B80" s="410">
         <v>43782</v>
       </c>
@@ -35501,7 +35504,7 @@
       <c r="E80" s="431"/>
     </row>
     <row r="81" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="476"/>
+      <c r="A81" s="477"/>
       <c r="B81" s="409">
         <v>43783</v>
       </c>
@@ -35510,7 +35513,7 @@
       <c r="E81" s="429"/>
     </row>
     <row r="82" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="476"/>
+      <c r="A82" s="477"/>
       <c r="B82" s="408">
         <v>43787</v>
       </c>
@@ -35521,7 +35524,7 @@
       <c r="E82" s="433"/>
     </row>
     <row r="83" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="476"/>
+      <c r="A83" s="477"/>
       <c r="B83" s="408">
         <v>43788</v>
       </c>
@@ -35532,7 +35535,7 @@
       <c r="E83" s="433"/>
     </row>
     <row r="84" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="476"/>
+      <c r="A84" s="477"/>
       <c r="B84" s="409">
         <v>43790</v>
       </c>
@@ -35541,7 +35544,7 @@
       <c r="E84" s="429"/>
     </row>
     <row r="85" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="476"/>
+      <c r="A85" s="477"/>
       <c r="B85" s="408">
         <v>43791</v>
       </c>
@@ -35552,7 +35555,7 @@
       <c r="E85" s="433"/>
     </row>
     <row r="86" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="476"/>
+      <c r="A86" s="477"/>
       <c r="B86" s="410">
         <v>43794</v>
       </c>
@@ -35563,7 +35566,7 @@
       <c r="E86" s="431"/>
     </row>
     <row r="87" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="476"/>
+      <c r="A87" s="477"/>
       <c r="B87" s="410">
         <v>43795</v>
       </c>
@@ -35574,7 +35577,7 @@
       <c r="E87" s="431"/>
     </row>
     <row r="88" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="476"/>
+      <c r="A88" s="477"/>
       <c r="B88" s="410">
         <v>43796</v>
       </c>
@@ -35585,7 +35588,7 @@
       <c r="E88" s="431"/>
     </row>
     <row r="89" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="477"/>
+      <c r="A89" s="478"/>
       <c r="B89" s="411">
         <v>43797</v>
       </c>
@@ -35594,53 +35597,53 @@
       <c r="E89" s="437"/>
     </row>
     <row r="90" spans="1:5" s="417" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="469" t="s">
+      <c r="A90" s="470" t="s">
         <v>146</v>
       </c>
       <c r="B90" s="412">
         <v>43798</v>
       </c>
       <c r="C90" s="427" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D90" s="428"/>
       <c r="E90" s="428"/>
     </row>
     <row r="91" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="470"/>
+      <c r="A91" s="471"/>
       <c r="B91" s="408">
         <v>43801</v>
       </c>
       <c r="C91" s="433" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D91" s="433"/>
       <c r="E91" s="433"/>
     </row>
     <row r="92" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="470"/>
+      <c r="A92" s="471"/>
       <c r="B92" s="408">
         <v>43802</v>
       </c>
       <c r="C92" s="433" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D92" s="433"/>
       <c r="E92" s="433"/>
     </row>
     <row r="93" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="470"/>
+      <c r="A93" s="471"/>
       <c r="B93" s="408">
         <v>43803</v>
       </c>
       <c r="C93" s="433" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D93" s="433"/>
       <c r="E93" s="433"/>
     </row>
     <row r="94" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="470"/>
+      <c r="A94" s="471"/>
       <c r="B94" s="409">
         <v>43804</v>
       </c>
@@ -35649,7 +35652,7 @@
       <c r="E94" s="429"/>
     </row>
     <row r="95" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="470"/>
+      <c r="A95" s="471"/>
       <c r="B95" s="408">
         <v>43805</v>
       </c>
@@ -35660,7 +35663,7 @@
       <c r="E95" s="433"/>
     </row>
     <row r="96" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="470"/>
+      <c r="A96" s="471"/>
       <c r="B96" s="410">
         <v>43808</v>
       </c>
@@ -35671,7 +35674,7 @@
       <c r="E96" s="431"/>
     </row>
     <row r="97" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="470"/>
+      <c r="A97" s="471"/>
       <c r="B97" s="410">
         <v>43809</v>
       </c>
@@ -35682,7 +35685,7 @@
       <c r="E97" s="431"/>
     </row>
     <row r="98" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="470"/>
+      <c r="A98" s="471"/>
       <c r="B98" s="410">
         <v>43810</v>
       </c>
@@ -35693,7 +35696,7 @@
       <c r="E98" s="431"/>
     </row>
     <row r="99" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="471"/>
+      <c r="A99" s="472"/>
       <c r="B99" s="411">
         <v>43811</v>
       </c>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github_s\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B265638F-49DA-4790-861D-2F0700D4DAC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="212">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1416,12 +1417,6 @@
     <t>Procedures</t>
   </si>
   <si>
-    <t>Início - DDL
-exemplo-ddl.sql
-01_roteiro_sstop.sql
-01_roteiro_livros.sql</t>
-  </si>
-  <si>
     <t>Apresentação Semestre
 Apresentação BD
 Conceito Banco de Dados</t>
@@ -1604,9 +1599,6 @@
 Início - Conceitual - Lógico - Representação</t>
   </si>
   <si>
-    <t>ex: Optus</t>
-  </si>
-  <si>
     <t>Não Feitos
 (Manhã)</t>
   </si>
@@ -1615,21 +1607,32 @@
 (Tarde)</t>
   </si>
   <si>
-    <t>ex: RoteiroLivros</t>
+    <t>Documentação</t>
   </si>
   <si>
-    <t>RoteiroLivros
-Optus</t>
+    <t>Início - DDL
+exemplo-ddl.sql</t>
   </si>
   <si>
-    <t>RoteiroLivros 
-Optus</t>
+    <t>01_roteiro_sstop.sql
+01_roteiro_livros.sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ex: Optus</t>
+  </si>
+  <si>
+    <t>RoteiroSstop
+RoteiroLivros</t>
+  </si>
+  <si>
+    <t>Optus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
@@ -3709,7 +3712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3929,7 +3932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
     <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
@@ -22746,7 +22749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23074,7 +23077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CX71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -25282,7 +25285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -28057,7 +28060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -32088,7 +32091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CY69"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
@@ -34557,11 +34560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34571,8 +34574,7 @@
     <col min="3" max="3" width="48.7109375" style="439" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" style="439" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="439" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="414" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="414" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" style="414" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="5.5703125" style="414"/>
   </cols>
   <sheetData>
@@ -34591,10 +34593,10 @@
         <v>154</v>
       </c>
       <c r="F1" s="446" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G1" s="446" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34605,7 +34607,7 @@
         <v>43670</v>
       </c>
       <c r="C2" s="427" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="428"/>
       <c r="E2" s="428"/>
@@ -34625,10 +34627,10 @@
         <v>43672</v>
       </c>
       <c r="C4" s="430" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="431" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E4" s="431"/>
       <c r="P4" s="445"/>
@@ -34642,16 +34644,16 @@
         <v>147</v>
       </c>
       <c r="D5" s="433" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E5" s="433" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" s="433" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G5" s="433" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="420" customFormat="1" x14ac:dyDescent="0.25">
@@ -34666,20 +34668,26 @@
         <v>149</v>
       </c>
       <c r="E6" s="433"/>
-    </row>
-    <row r="7" spans="1:16" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="F6" s="420" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="420" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="474"/>
       <c r="B7" s="400">
         <v>43677</v>
       </c>
       <c r="C7" s="432" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="D7" s="432" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="433" t="s">
-        <v>205</v>
+      <c r="E7" s="432" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="418" customFormat="1" x14ac:dyDescent="0.25">
@@ -34697,12 +34705,14 @@
         <v>43679</v>
       </c>
       <c r="C9" s="432" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" s="432" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9" s="433"/>
+        <v>210</v>
+      </c>
+      <c r="E9" s="433" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="10" spans="1:16" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="474"/>
@@ -34710,12 +34720,14 @@
         <v>43682</v>
       </c>
       <c r="C10" s="430" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" s="430" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="431"/>
+      <c r="E10" s="431" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="11" spans="1:16" s="419" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="474"/>
@@ -34758,10 +34770,10 @@
         <v>43686</v>
       </c>
       <c r="C14" s="431" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="431" t="s">
         <v>181</v>
-      </c>
-      <c r="D14" s="431" t="s">
-        <v>182</v>
       </c>
       <c r="E14" s="431"/>
     </row>
@@ -34828,10 +34840,10 @@
         <v>43696</v>
       </c>
       <c r="C20" s="427" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" s="442" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E20" s="428"/>
     </row>
@@ -34841,10 +34853,10 @@
         <v>43697</v>
       </c>
       <c r="C21" s="440" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="430" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" s="441"/>
     </row>
@@ -34854,10 +34866,10 @@
         <v>43698</v>
       </c>
       <c r="C22" s="431" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" s="443" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" s="431"/>
     </row>
@@ -34877,7 +34889,7 @@
       </c>
       <c r="C24" s="431"/>
       <c r="D24" s="431" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E24" s="431"/>
     </row>
@@ -34887,10 +34899,10 @@
         <v>43703</v>
       </c>
       <c r="C25" s="432" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="432" t="s">
         <v>163</v>
-      </c>
-      <c r="D25" s="432" t="s">
-        <v>164</v>
       </c>
       <c r="E25" s="433"/>
     </row>
@@ -34900,10 +34912,10 @@
         <v>43704</v>
       </c>
       <c r="C26" s="432" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D26" s="432" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E26" s="433"/>
     </row>
@@ -34913,10 +34925,10 @@
         <v>43705</v>
       </c>
       <c r="C27" s="433" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="432" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E27" s="433"/>
     </row>
@@ -34936,7 +34948,7 @@
       </c>
       <c r="C29" s="433"/>
       <c r="D29" s="433" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E29" s="433"/>
     </row>
@@ -34946,7 +34958,7 @@
         <v>43710</v>
       </c>
       <c r="C30" s="430" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D30" s="431"/>
       <c r="E30" s="431"/>
@@ -34958,7 +34970,7 @@
       </c>
       <c r="C31" s="431"/>
       <c r="D31" s="431" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E31" s="431"/>
     </row>
@@ -34968,10 +34980,10 @@
         <v>43712</v>
       </c>
       <c r="C32" s="431" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D32" s="431" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E32" s="431"/>
     </row>
@@ -35109,10 +35121,10 @@
         <v>43731</v>
       </c>
       <c r="C45" s="444" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D45" s="433" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" s="436"/>
     </row>
@@ -35122,10 +35134,10 @@
         <v>43732</v>
       </c>
       <c r="C46" s="433" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D46" s="433" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="433"/>
     </row>
@@ -35135,10 +35147,10 @@
         <v>43733</v>
       </c>
       <c r="C47" s="432" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D47" s="433" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E47" s="433"/>
     </row>
@@ -35157,7 +35169,7 @@
         <v>43735</v>
       </c>
       <c r="C49" s="432" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D49" s="433"/>
       <c r="E49" s="433"/>
@@ -35168,7 +35180,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="430" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D50" s="431"/>
       <c r="E50" s="431"/>
@@ -35179,7 +35191,7 @@
         <v>43739</v>
       </c>
       <c r="C51" s="430" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D51" s="431"/>
       <c r="E51" s="431"/>
@@ -35190,7 +35202,7 @@
         <v>43740</v>
       </c>
       <c r="C52" s="431" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D52" s="431"/>
       <c r="E52" s="431"/>
@@ -35210,7 +35222,7 @@
         <v>43742</v>
       </c>
       <c r="C54" s="430" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D54" s="431"/>
       <c r="E54" s="431"/>
@@ -35221,7 +35233,7 @@
         <v>43745</v>
       </c>
       <c r="C55" s="433" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D55" s="433"/>
       <c r="E55" s="433"/>
@@ -35349,7 +35361,7 @@
         <v>43763</v>
       </c>
       <c r="C67" s="444" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D67" s="436"/>
       <c r="E67" s="436"/>
@@ -35360,10 +35372,10 @@
         <v>43766</v>
       </c>
       <c r="C68" s="431" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="431" t="s">
         <v>185</v>
-      </c>
-      <c r="D68" s="431" t="s">
-        <v>186</v>
       </c>
       <c r="E68" s="431"/>
     </row>
@@ -35373,10 +35385,10 @@
         <v>43767</v>
       </c>
       <c r="C69" s="431" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D69" s="431" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E69" s="431"/>
     </row>
@@ -35386,10 +35398,10 @@
         <v>43768</v>
       </c>
       <c r="C70" s="430" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D70" s="431" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E70" s="431"/>
     </row>
@@ -35408,7 +35420,7 @@
         <v>43770</v>
       </c>
       <c r="C72" s="431" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D72" s="431"/>
       <c r="E72" s="431"/>
@@ -35419,10 +35431,10 @@
         <v>43773</v>
       </c>
       <c r="C73" s="433" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D73" s="433" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E73" s="433"/>
     </row>
@@ -35432,10 +35444,10 @@
         <v>43774</v>
       </c>
       <c r="C74" s="433" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D74" s="433" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E74" s="433"/>
     </row>
@@ -35445,7 +35457,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="433" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D75" s="433"/>
       <c r="E75" s="433"/>
@@ -35604,7 +35616,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="427" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D90" s="428"/>
       <c r="E90" s="428"/>
@@ -35615,7 +35627,7 @@
         <v>43801</v>
       </c>
       <c r="C91" s="433" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D91" s="433"/>
       <c r="E91" s="433"/>
@@ -35626,7 +35638,7 @@
         <v>43802</v>
       </c>
       <c r="C92" s="433" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D92" s="433"/>
       <c r="E92" s="433"/>
@@ -35637,7 +35649,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="433" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D93" s="433"/>
       <c r="E93" s="433"/>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github_s\senai-dev-2s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B265638F-49DA-4790-861D-2F0700D4DAC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="216">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1467,11 +1466,6 @@
     <t>Projeto Senai.Sstop.WebApi</t>
   </si>
   <si>
-    <t>Início - DML
-exemplo-dml.sql
-exemplo-dql.sql</t>
-  </si>
-  <si>
     <t>Eventos
 Usuários</t>
   </si>
@@ -1586,9 +1580,6 @@
 Componentes - Rodapé</t>
   </si>
   <si>
-    <t>ex: Musicas (Sstop), Livros, Pessoas</t>
-  </si>
-  <si>
     <t>ex: Moda, Dps</t>
   </si>
   <si>
@@ -1614,29 +1605,80 @@
 exemplo-ddl.sql</t>
   </si>
   <si>
-    <t>01_roteiro_sstop.sql
-01_roteiro_livros.sql</t>
+    <t>Optus</t>
   </si>
   <si>
-    <t xml:space="preserve">
-ex: Optus</t>
+    <t>exemplo-dql.sql</t>
   </si>
   <si>
-    <t>RoteiroSstop
-RoteiroLivros</t>
+    <t>01_roteiro_livros.sql</t>
   </si>
   <si>
-    <t>Optus</t>
+    <t>Antecipados</t>
+  </si>
+  <si>
+    <t>Início - DML
+exemplo-dml.sql</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Início - DML
+exemplo-dml.sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+exemplo-dql.sql</t>
+    </r>
+  </si>
+  <si>
+    <t>Moda, Dps</t>
+  </si>
+  <si>
+    <t>RoteiroSstop (01_roteiro_sstop.sql)
+RoteiroLivros (01_roteiro_livros.sql)</t>
+  </si>
+  <si>
+    <t>ex: Sstop, Livros, Pessoas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optus
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moda, Dps</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1710,6 +1752,20 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2668,7 +2724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="479">
+  <cellXfs count="471">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3145,159 +3201,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3367,32 +3270,161 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3712,7 +3744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3932,7 +3964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
     <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
@@ -3980,123 +4012,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="449" t="s">
+      <c r="B1" s="398" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
-      <c r="J1" s="450"/>
-      <c r="K1" s="450"/>
-      <c r="L1" s="450"/>
-      <c r="M1" s="450"/>
-      <c r="N1" s="450"/>
-      <c r="O1" s="450"/>
-      <c r="P1" s="450"/>
-      <c r="Q1" s="450"/>
-      <c r="R1" s="449" t="s">
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
+      <c r="J1" s="399"/>
+      <c r="K1" s="399"/>
+      <c r="L1" s="399"/>
+      <c r="M1" s="399"/>
+      <c r="N1" s="399"/>
+      <c r="O1" s="399"/>
+      <c r="P1" s="399"/>
+      <c r="Q1" s="399"/>
+      <c r="R1" s="398" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="450"/>
-      <c r="T1" s="450"/>
-      <c r="U1" s="450"/>
-      <c r="V1" s="450"/>
-      <c r="W1" s="450"/>
-      <c r="X1" s="450"/>
-      <c r="Y1" s="450"/>
-      <c r="Z1" s="450"/>
-      <c r="AA1" s="450"/>
-      <c r="AB1" s="450"/>
-      <c r="AC1" s="450"/>
-      <c r="AD1" s="450"/>
-      <c r="AE1" s="450"/>
-      <c r="AF1" s="450"/>
-      <c r="AG1" s="450"/>
-      <c r="AH1" s="450"/>
-      <c r="AI1" s="450"/>
-      <c r="AJ1" s="450"/>
-      <c r="AK1" s="450"/>
-      <c r="AL1" s="450"/>
-      <c r="AM1" s="451"/>
-      <c r="AN1" s="449" t="s">
+      <c r="S1" s="399"/>
+      <c r="T1" s="399"/>
+      <c r="U1" s="399"/>
+      <c r="V1" s="399"/>
+      <c r="W1" s="399"/>
+      <c r="X1" s="399"/>
+      <c r="Y1" s="399"/>
+      <c r="Z1" s="399"/>
+      <c r="AA1" s="399"/>
+      <c r="AB1" s="399"/>
+      <c r="AC1" s="399"/>
+      <c r="AD1" s="399"/>
+      <c r="AE1" s="399"/>
+      <c r="AF1" s="399"/>
+      <c r="AG1" s="399"/>
+      <c r="AH1" s="399"/>
+      <c r="AI1" s="399"/>
+      <c r="AJ1" s="399"/>
+      <c r="AK1" s="399"/>
+      <c r="AL1" s="399"/>
+      <c r="AM1" s="400"/>
+      <c r="AN1" s="398" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="450"/>
-      <c r="AP1" s="450"/>
-      <c r="AQ1" s="450"/>
-      <c r="AR1" s="450"/>
-      <c r="AS1" s="450"/>
-      <c r="AT1" s="451"/>
-      <c r="AU1" s="449" t="s">
+      <c r="AO1" s="399"/>
+      <c r="AP1" s="399"/>
+      <c r="AQ1" s="399"/>
+      <c r="AR1" s="399"/>
+      <c r="AS1" s="399"/>
+      <c r="AT1" s="400"/>
+      <c r="AU1" s="398" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="450"/>
-      <c r="AW1" s="450"/>
-      <c r="AX1" s="450"/>
-      <c r="AY1" s="450"/>
-      <c r="AZ1" s="450"/>
-      <c r="BA1" s="450"/>
-      <c r="BB1" s="450"/>
-      <c r="BC1" s="450"/>
-      <c r="BD1" s="450"/>
-      <c r="BE1" s="450"/>
-      <c r="BF1" s="450"/>
-      <c r="BG1" s="450"/>
-      <c r="BH1" s="450"/>
-      <c r="BI1" s="450"/>
-      <c r="BJ1" s="450"/>
-      <c r="BK1" s="450"/>
-      <c r="BL1" s="450"/>
-      <c r="BM1" s="450"/>
-      <c r="BN1" s="450"/>
-      <c r="BO1" s="450"/>
-      <c r="BP1" s="450"/>
-      <c r="BQ1" s="451"/>
-      <c r="BR1" s="449" t="s">
+      <c r="AV1" s="399"/>
+      <c r="AW1" s="399"/>
+      <c r="AX1" s="399"/>
+      <c r="AY1" s="399"/>
+      <c r="AZ1" s="399"/>
+      <c r="BA1" s="399"/>
+      <c r="BB1" s="399"/>
+      <c r="BC1" s="399"/>
+      <c r="BD1" s="399"/>
+      <c r="BE1" s="399"/>
+      <c r="BF1" s="399"/>
+      <c r="BG1" s="399"/>
+      <c r="BH1" s="399"/>
+      <c r="BI1" s="399"/>
+      <c r="BJ1" s="399"/>
+      <c r="BK1" s="399"/>
+      <c r="BL1" s="399"/>
+      <c r="BM1" s="399"/>
+      <c r="BN1" s="399"/>
+      <c r="BO1" s="399"/>
+      <c r="BP1" s="399"/>
+      <c r="BQ1" s="400"/>
+      <c r="BR1" s="398" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="450"/>
-      <c r="BT1" s="450"/>
-      <c r="BU1" s="450"/>
-      <c r="BV1" s="450"/>
-      <c r="BW1" s="450"/>
-      <c r="BX1" s="450"/>
-      <c r="BY1" s="450"/>
-      <c r="BZ1" s="450"/>
-      <c r="CA1" s="450"/>
-      <c r="CB1" s="450"/>
-      <c r="CC1" s="450"/>
-      <c r="CD1" s="450"/>
-      <c r="CE1" s="450"/>
-      <c r="CF1" s="450"/>
-      <c r="CG1" s="450"/>
-      <c r="CH1" s="450"/>
-      <c r="CI1" s="450"/>
-      <c r="CJ1" s="450"/>
-      <c r="CK1" s="451"/>
-      <c r="CL1" s="449" t="s">
+      <c r="BS1" s="399"/>
+      <c r="BT1" s="399"/>
+      <c r="BU1" s="399"/>
+      <c r="BV1" s="399"/>
+      <c r="BW1" s="399"/>
+      <c r="BX1" s="399"/>
+      <c r="BY1" s="399"/>
+      <c r="BZ1" s="399"/>
+      <c r="CA1" s="399"/>
+      <c r="CB1" s="399"/>
+      <c r="CC1" s="399"/>
+      <c r="CD1" s="399"/>
+      <c r="CE1" s="399"/>
+      <c r="CF1" s="399"/>
+      <c r="CG1" s="399"/>
+      <c r="CH1" s="399"/>
+      <c r="CI1" s="399"/>
+      <c r="CJ1" s="399"/>
+      <c r="CK1" s="400"/>
+      <c r="CL1" s="398" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="450"/>
-      <c r="CN1" s="450"/>
-      <c r="CO1" s="450"/>
-      <c r="CP1" s="450"/>
-      <c r="CQ1" s="450"/>
-      <c r="CR1" s="450"/>
-      <c r="CS1" s="450"/>
-      <c r="CT1" s="450"/>
-      <c r="CU1" s="450"/>
-      <c r="CV1" s="450"/>
-      <c r="CW1" s="450"/>
-      <c r="CX1" s="450"/>
-      <c r="CY1" s="450"/>
-      <c r="CZ1" s="450"/>
-      <c r="DA1" s="450"/>
-      <c r="DB1" s="450"/>
+      <c r="CM1" s="399"/>
+      <c r="CN1" s="399"/>
+      <c r="CO1" s="399"/>
+      <c r="CP1" s="399"/>
+      <c r="CQ1" s="399"/>
+      <c r="CR1" s="399"/>
+      <c r="CS1" s="399"/>
+      <c r="CT1" s="399"/>
+      <c r="CU1" s="399"/>
+      <c r="CV1" s="399"/>
+      <c r="CW1" s="399"/>
+      <c r="CX1" s="399"/>
+      <c r="CY1" s="399"/>
+      <c r="CZ1" s="399"/>
+      <c r="DA1" s="399"/>
+      <c r="DB1" s="399"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22723,15 +22755,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="447" t="s">
+      <c r="CW86" s="396" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="447"/>
-      <c r="CY86" s="447"/>
-      <c r="CZ86" s="447"/>
-      <c r="DA86" s="447"/>
-      <c r="DB86" s="447"/>
-      <c r="DC86" s="448"/>
+      <c r="CX86" s="396"/>
+      <c r="CY86" s="396"/>
+      <c r="CZ86" s="396"/>
+      <c r="DA86" s="396"/>
+      <c r="DB86" s="396"/>
+      <c r="DC86" s="397"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22749,7 +22781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23077,7 +23109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -23121,118 +23153,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="461" t="s">
+      <c r="B1" s="410" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="462"/>
-      <c r="D1" s="462"/>
-      <c r="E1" s="462"/>
-      <c r="F1" s="462"/>
-      <c r="G1" s="462"/>
-      <c r="H1" s="462"/>
-      <c r="I1" s="462"/>
-      <c r="J1" s="462"/>
-      <c r="K1" s="462"/>
-      <c r="L1" s="462"/>
-      <c r="M1" s="462"/>
-      <c r="N1" s="462"/>
-      <c r="O1" s="462"/>
-      <c r="P1" s="462"/>
-      <c r="Q1" s="463"/>
-      <c r="R1" s="452" t="s">
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="411"/>
+      <c r="O1" s="411"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="412"/>
+      <c r="R1" s="401" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="453"/>
-      <c r="T1" s="453"/>
-      <c r="U1" s="453"/>
-      <c r="V1" s="453"/>
-      <c r="W1" s="453"/>
-      <c r="X1" s="453"/>
-      <c r="Y1" s="453"/>
-      <c r="Z1" s="453"/>
-      <c r="AA1" s="453"/>
-      <c r="AB1" s="453"/>
-      <c r="AC1" s="453"/>
-      <c r="AD1" s="453"/>
-      <c r="AE1" s="453"/>
-      <c r="AF1" s="453"/>
-      <c r="AG1" s="453"/>
-      <c r="AH1" s="453"/>
-      <c r="AI1" s="453"/>
-      <c r="AJ1" s="453"/>
-      <c r="AK1" s="453"/>
-      <c r="AL1" s="454"/>
-      <c r="AM1" s="452" t="s">
+      <c r="S1" s="402"/>
+      <c r="T1" s="402"/>
+      <c r="U1" s="402"/>
+      <c r="V1" s="402"/>
+      <c r="W1" s="402"/>
+      <c r="X1" s="402"/>
+      <c r="Y1" s="402"/>
+      <c r="Z1" s="402"/>
+      <c r="AA1" s="402"/>
+      <c r="AB1" s="402"/>
+      <c r="AC1" s="402"/>
+      <c r="AD1" s="402"/>
+      <c r="AE1" s="402"/>
+      <c r="AF1" s="402"/>
+      <c r="AG1" s="402"/>
+      <c r="AH1" s="402"/>
+      <c r="AI1" s="402"/>
+      <c r="AJ1" s="402"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="403"/>
+      <c r="AM1" s="401" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="453"/>
-      <c r="AO1" s="453"/>
-      <c r="AP1" s="453"/>
-      <c r="AQ1" s="453"/>
-      <c r="AR1" s="453"/>
-      <c r="AS1" s="453"/>
-      <c r="AT1" s="453"/>
-      <c r="AU1" s="453"/>
-      <c r="AV1" s="453"/>
-      <c r="AW1" s="453"/>
-      <c r="AX1" s="453"/>
-      <c r="AY1" s="453"/>
-      <c r="AZ1" s="453"/>
-      <c r="BA1" s="453"/>
-      <c r="BB1" s="453"/>
-      <c r="BC1" s="453"/>
-      <c r="BD1" s="453"/>
-      <c r="BE1" s="453"/>
-      <c r="BF1" s="453"/>
-      <c r="BG1" s="453"/>
-      <c r="BH1" s="454"/>
-      <c r="BI1" s="452" t="s">
+      <c r="AN1" s="402"/>
+      <c r="AO1" s="402"/>
+      <c r="AP1" s="402"/>
+      <c r="AQ1" s="402"/>
+      <c r="AR1" s="402"/>
+      <c r="AS1" s="402"/>
+      <c r="AT1" s="402"/>
+      <c r="AU1" s="402"/>
+      <c r="AV1" s="402"/>
+      <c r="AW1" s="402"/>
+      <c r="AX1" s="402"/>
+      <c r="AY1" s="402"/>
+      <c r="AZ1" s="402"/>
+      <c r="BA1" s="402"/>
+      <c r="BB1" s="402"/>
+      <c r="BC1" s="402"/>
+      <c r="BD1" s="402"/>
+      <c r="BE1" s="402"/>
+      <c r="BF1" s="402"/>
+      <c r="BG1" s="402"/>
+      <c r="BH1" s="403"/>
+      <c r="BI1" s="401" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="453"/>
-      <c r="BK1" s="453"/>
-      <c r="BL1" s="453"/>
-      <c r="BM1" s="453"/>
-      <c r="BN1" s="453"/>
-      <c r="BO1" s="453"/>
-      <c r="BP1" s="453"/>
-      <c r="BQ1" s="453"/>
-      <c r="BR1" s="453"/>
-      <c r="BS1" s="453"/>
-      <c r="BT1" s="453"/>
-      <c r="BU1" s="453"/>
-      <c r="BV1" s="453"/>
-      <c r="BW1" s="453"/>
-      <c r="BX1" s="453"/>
-      <c r="BY1" s="453"/>
-      <c r="BZ1" s="453"/>
-      <c r="CA1" s="453"/>
-      <c r="CB1" s="453"/>
-      <c r="CC1" s="453"/>
-      <c r="CD1" s="454"/>
-      <c r="CE1" s="452" t="s">
+      <c r="BJ1" s="402"/>
+      <c r="BK1" s="402"/>
+      <c r="BL1" s="402"/>
+      <c r="BM1" s="402"/>
+      <c r="BN1" s="402"/>
+      <c r="BO1" s="402"/>
+      <c r="BP1" s="402"/>
+      <c r="BQ1" s="402"/>
+      <c r="BR1" s="402"/>
+      <c r="BS1" s="402"/>
+      <c r="BT1" s="402"/>
+      <c r="BU1" s="402"/>
+      <c r="BV1" s="402"/>
+      <c r="BW1" s="402"/>
+      <c r="BX1" s="402"/>
+      <c r="BY1" s="402"/>
+      <c r="BZ1" s="402"/>
+      <c r="CA1" s="402"/>
+      <c r="CB1" s="402"/>
+      <c r="CC1" s="402"/>
+      <c r="CD1" s="403"/>
+      <c r="CE1" s="401" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="453"/>
-      <c r="CG1" s="453"/>
-      <c r="CH1" s="453"/>
-      <c r="CI1" s="453"/>
-      <c r="CJ1" s="453"/>
-      <c r="CK1" s="453"/>
-      <c r="CL1" s="453"/>
-      <c r="CM1" s="454"/>
-      <c r="CN1" s="452" t="s">
+      <c r="CF1" s="402"/>
+      <c r="CG1" s="402"/>
+      <c r="CH1" s="402"/>
+      <c r="CI1" s="402"/>
+      <c r="CJ1" s="402"/>
+      <c r="CK1" s="402"/>
+      <c r="CL1" s="402"/>
+      <c r="CM1" s="403"/>
+      <c r="CN1" s="401" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="453"/>
-      <c r="CP1" s="453"/>
-      <c r="CQ1" s="453"/>
-      <c r="CR1" s="453"/>
-      <c r="CS1" s="453"/>
-      <c r="CT1" s="453"/>
-      <c r="CU1" s="453"/>
-      <c r="CV1" s="453"/>
-      <c r="CW1" s="454"/>
+      <c r="CO1" s="402"/>
+      <c r="CP1" s="402"/>
+      <c r="CQ1" s="402"/>
+      <c r="CR1" s="402"/>
+      <c r="CS1" s="402"/>
+      <c r="CT1" s="402"/>
+      <c r="CU1" s="402"/>
+      <c r="CV1" s="402"/>
+      <c r="CW1" s="403"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24679,11 +24711,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="455" t="s">
+      <c r="AX47" s="404" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="456"/>
-      <c r="AZ47" s="457"/>
+      <c r="AY47" s="405"/>
+      <c r="AZ47" s="406"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -24982,11 +25014,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="458" t="s">
+      <c r="BS60" s="407" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="459"/>
-      <c r="BU60" s="460"/>
+      <c r="BT60" s="408"/>
+      <c r="BU60" s="409"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -25285,7 +25317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -25350,120 +25382,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="461" t="s">
+      <c r="B1" s="410" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="462"/>
-      <c r="D1" s="462"/>
-      <c r="E1" s="462"/>
-      <c r="F1" s="462"/>
-      <c r="G1" s="462"/>
-      <c r="H1" s="462"/>
-      <c r="I1" s="462"/>
-      <c r="J1" s="462"/>
-      <c r="K1" s="462"/>
-      <c r="L1" s="462"/>
-      <c r="M1" s="462"/>
-      <c r="N1" s="462"/>
-      <c r="O1" s="462"/>
-      <c r="P1" s="462"/>
-      <c r="Q1" s="463"/>
-      <c r="R1" s="452" t="s">
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="411"/>
+      <c r="O1" s="411"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="412"/>
+      <c r="R1" s="401" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="453"/>
-      <c r="T1" s="453"/>
-      <c r="U1" s="453"/>
-      <c r="V1" s="453"/>
-      <c r="W1" s="453"/>
-      <c r="X1" s="453"/>
-      <c r="Y1" s="453"/>
-      <c r="Z1" s="453"/>
-      <c r="AA1" s="453"/>
-      <c r="AB1" s="453"/>
-      <c r="AC1" s="453"/>
-      <c r="AD1" s="453"/>
-      <c r="AE1" s="453"/>
-      <c r="AF1" s="453"/>
-      <c r="AG1" s="453"/>
-      <c r="AH1" s="453"/>
-      <c r="AI1" s="453"/>
-      <c r="AJ1" s="453"/>
-      <c r="AK1" s="453"/>
-      <c r="AL1" s="453"/>
-      <c r="AM1" s="454"/>
-      <c r="AN1" s="452" t="s">
+      <c r="S1" s="402"/>
+      <c r="T1" s="402"/>
+      <c r="U1" s="402"/>
+      <c r="V1" s="402"/>
+      <c r="W1" s="402"/>
+      <c r="X1" s="402"/>
+      <c r="Y1" s="402"/>
+      <c r="Z1" s="402"/>
+      <c r="AA1" s="402"/>
+      <c r="AB1" s="402"/>
+      <c r="AC1" s="402"/>
+      <c r="AD1" s="402"/>
+      <c r="AE1" s="402"/>
+      <c r="AF1" s="402"/>
+      <c r="AG1" s="402"/>
+      <c r="AH1" s="402"/>
+      <c r="AI1" s="402"/>
+      <c r="AJ1" s="402"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="402"/>
+      <c r="AM1" s="403"/>
+      <c r="AN1" s="401" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="453"/>
-      <c r="AP1" s="453"/>
-      <c r="AQ1" s="453"/>
-      <c r="AR1" s="453"/>
-      <c r="AS1" s="453"/>
-      <c r="AT1" s="453"/>
-      <c r="AU1" s="453"/>
-      <c r="AV1" s="453"/>
-      <c r="AW1" s="453"/>
-      <c r="AX1" s="453"/>
-      <c r="AY1" s="453"/>
-      <c r="AZ1" s="453"/>
-      <c r="BA1" s="453"/>
-      <c r="BB1" s="453"/>
-      <c r="BC1" s="453"/>
-      <c r="BD1" s="453"/>
-      <c r="BE1" s="453"/>
-      <c r="BF1" s="453"/>
-      <c r="BG1" s="453"/>
-      <c r="BH1" s="453"/>
-      <c r="BI1" s="453"/>
-      <c r="BJ1" s="454"/>
-      <c r="BK1" s="452" t="s">
+      <c r="AO1" s="402"/>
+      <c r="AP1" s="402"/>
+      <c r="AQ1" s="402"/>
+      <c r="AR1" s="402"/>
+      <c r="AS1" s="402"/>
+      <c r="AT1" s="402"/>
+      <c r="AU1" s="402"/>
+      <c r="AV1" s="402"/>
+      <c r="AW1" s="402"/>
+      <c r="AX1" s="402"/>
+      <c r="AY1" s="402"/>
+      <c r="AZ1" s="402"/>
+      <c r="BA1" s="402"/>
+      <c r="BB1" s="402"/>
+      <c r="BC1" s="402"/>
+      <c r="BD1" s="402"/>
+      <c r="BE1" s="402"/>
+      <c r="BF1" s="402"/>
+      <c r="BG1" s="402"/>
+      <c r="BH1" s="402"/>
+      <c r="BI1" s="402"/>
+      <c r="BJ1" s="403"/>
+      <c r="BK1" s="401" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="453"/>
-      <c r="BM1" s="453"/>
-      <c r="BN1" s="453"/>
-      <c r="BO1" s="453"/>
-      <c r="BP1" s="453"/>
-      <c r="BQ1" s="453"/>
-      <c r="BR1" s="453"/>
-      <c r="BS1" s="453"/>
-      <c r="BT1" s="453"/>
-      <c r="BU1" s="453"/>
-      <c r="BV1" s="453"/>
-      <c r="BW1" s="453"/>
-      <c r="BX1" s="453"/>
-      <c r="BY1" s="453"/>
-      <c r="BZ1" s="453"/>
-      <c r="CA1" s="453"/>
-      <c r="CB1" s="453"/>
-      <c r="CC1" s="453"/>
-      <c r="CD1" s="453"/>
-      <c r="CE1" s="453"/>
-      <c r="CF1" s="453"/>
-      <c r="CG1" s="454"/>
-      <c r="CH1" s="452" t="s">
+      <c r="BL1" s="402"/>
+      <c r="BM1" s="402"/>
+      <c r="BN1" s="402"/>
+      <c r="BO1" s="402"/>
+      <c r="BP1" s="402"/>
+      <c r="BQ1" s="402"/>
+      <c r="BR1" s="402"/>
+      <c r="BS1" s="402"/>
+      <c r="BT1" s="402"/>
+      <c r="BU1" s="402"/>
+      <c r="BV1" s="402"/>
+      <c r="BW1" s="402"/>
+      <c r="BX1" s="402"/>
+      <c r="BY1" s="402"/>
+      <c r="BZ1" s="402"/>
+      <c r="CA1" s="402"/>
+      <c r="CB1" s="402"/>
+      <c r="CC1" s="402"/>
+      <c r="CD1" s="402"/>
+      <c r="CE1" s="402"/>
+      <c r="CF1" s="402"/>
+      <c r="CG1" s="403"/>
+      <c r="CH1" s="401" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="453"/>
-      <c r="CJ1" s="453"/>
-      <c r="CK1" s="453"/>
-      <c r="CL1" s="453"/>
-      <c r="CM1" s="453"/>
-      <c r="CN1" s="453"/>
-      <c r="CO1" s="453"/>
-      <c r="CP1" s="453"/>
-      <c r="CQ1" s="454"/>
-      <c r="CR1" s="464" t="s">
+      <c r="CI1" s="402"/>
+      <c r="CJ1" s="402"/>
+      <c r="CK1" s="402"/>
+      <c r="CL1" s="402"/>
+      <c r="CM1" s="402"/>
+      <c r="CN1" s="402"/>
+      <c r="CO1" s="402"/>
+      <c r="CP1" s="402"/>
+      <c r="CQ1" s="403"/>
+      <c r="CR1" s="413" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="465"/>
-      <c r="CT1" s="465"/>
-      <c r="CU1" s="465"/>
-      <c r="CV1" s="465"/>
-      <c r="CW1" s="465"/>
-      <c r="CX1" s="465"/>
-      <c r="CY1" s="466"/>
+      <c r="CS1" s="414"/>
+      <c r="CT1" s="414"/>
+      <c r="CU1" s="414"/>
+      <c r="CV1" s="414"/>
+      <c r="CW1" s="414"/>
+      <c r="CX1" s="414"/>
+      <c r="CY1" s="415"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27272,11 +27304,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="467" t="s">
+      <c r="AY47" s="416" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="468"/>
-      <c r="BA47" s="469"/>
+      <c r="AZ47" s="417"/>
+      <c r="BA47" s="418"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27669,11 +27701,11 @@
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="458" t="s">
+      <c r="BU60" s="407" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="459"/>
-      <c r="BW60" s="460"/>
+      <c r="BV60" s="408"/>
+      <c r="BW60" s="409"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -28060,7 +28092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -28148,120 +28180,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="461" t="s">
+      <c r="B1" s="410" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="462"/>
-      <c r="D1" s="462"/>
-      <c r="E1" s="462"/>
-      <c r="F1" s="462"/>
-      <c r="G1" s="462"/>
-      <c r="H1" s="462"/>
-      <c r="I1" s="462"/>
-      <c r="J1" s="462"/>
-      <c r="K1" s="462"/>
-      <c r="L1" s="462"/>
-      <c r="M1" s="462"/>
-      <c r="N1" s="462"/>
-      <c r="O1" s="462"/>
-      <c r="P1" s="462"/>
-      <c r="Q1" s="463"/>
-      <c r="R1" s="452" t="s">
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="411"/>
+      <c r="O1" s="411"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="412"/>
+      <c r="R1" s="401" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="453"/>
-      <c r="T1" s="453"/>
-      <c r="U1" s="453"/>
-      <c r="V1" s="453"/>
-      <c r="W1" s="453"/>
-      <c r="X1" s="453"/>
-      <c r="Y1" s="453"/>
-      <c r="Z1" s="453"/>
-      <c r="AA1" s="453"/>
-      <c r="AB1" s="453"/>
-      <c r="AC1" s="453"/>
-      <c r="AD1" s="453"/>
-      <c r="AE1" s="453"/>
-      <c r="AF1" s="453"/>
-      <c r="AG1" s="453"/>
-      <c r="AH1" s="453"/>
-      <c r="AI1" s="453"/>
-      <c r="AJ1" s="453"/>
-      <c r="AK1" s="453"/>
-      <c r="AL1" s="453"/>
-      <c r="AM1" s="454"/>
-      <c r="AN1" s="452" t="s">
+      <c r="S1" s="402"/>
+      <c r="T1" s="402"/>
+      <c r="U1" s="402"/>
+      <c r="V1" s="402"/>
+      <c r="W1" s="402"/>
+      <c r="X1" s="402"/>
+      <c r="Y1" s="402"/>
+      <c r="Z1" s="402"/>
+      <c r="AA1" s="402"/>
+      <c r="AB1" s="402"/>
+      <c r="AC1" s="402"/>
+      <c r="AD1" s="402"/>
+      <c r="AE1" s="402"/>
+      <c r="AF1" s="402"/>
+      <c r="AG1" s="402"/>
+      <c r="AH1" s="402"/>
+      <c r="AI1" s="402"/>
+      <c r="AJ1" s="402"/>
+      <c r="AK1" s="402"/>
+      <c r="AL1" s="402"/>
+      <c r="AM1" s="403"/>
+      <c r="AN1" s="401" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="453"/>
-      <c r="AP1" s="453"/>
-      <c r="AQ1" s="453"/>
-      <c r="AR1" s="453"/>
-      <c r="AS1" s="453"/>
-      <c r="AT1" s="453"/>
-      <c r="AU1" s="453"/>
-      <c r="AV1" s="453"/>
-      <c r="AW1" s="453"/>
-      <c r="AX1" s="453"/>
-      <c r="AY1" s="453"/>
-      <c r="AZ1" s="453"/>
-      <c r="BA1" s="453"/>
-      <c r="BB1" s="453"/>
-      <c r="BC1" s="453"/>
-      <c r="BD1" s="453"/>
-      <c r="BE1" s="453"/>
-      <c r="BF1" s="453"/>
-      <c r="BG1" s="453"/>
-      <c r="BH1" s="453"/>
-      <c r="BI1" s="453"/>
-      <c r="BJ1" s="454"/>
-      <c r="BK1" s="452" t="s">
+      <c r="AO1" s="402"/>
+      <c r="AP1" s="402"/>
+      <c r="AQ1" s="402"/>
+      <c r="AR1" s="402"/>
+      <c r="AS1" s="402"/>
+      <c r="AT1" s="402"/>
+      <c r="AU1" s="402"/>
+      <c r="AV1" s="402"/>
+      <c r="AW1" s="402"/>
+      <c r="AX1" s="402"/>
+      <c r="AY1" s="402"/>
+      <c r="AZ1" s="402"/>
+      <c r="BA1" s="402"/>
+      <c r="BB1" s="402"/>
+      <c r="BC1" s="402"/>
+      <c r="BD1" s="402"/>
+      <c r="BE1" s="402"/>
+      <c r="BF1" s="402"/>
+      <c r="BG1" s="402"/>
+      <c r="BH1" s="402"/>
+      <c r="BI1" s="402"/>
+      <c r="BJ1" s="403"/>
+      <c r="BK1" s="401" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="453"/>
-      <c r="BM1" s="453"/>
-      <c r="BN1" s="453"/>
-      <c r="BO1" s="453"/>
-      <c r="BP1" s="453"/>
-      <c r="BQ1" s="453"/>
-      <c r="BR1" s="453"/>
-      <c r="BS1" s="453"/>
-      <c r="BT1" s="453"/>
-      <c r="BU1" s="453"/>
-      <c r="BV1" s="453"/>
-      <c r="BW1" s="453"/>
-      <c r="BX1" s="453"/>
-      <c r="BY1" s="453"/>
-      <c r="BZ1" s="453"/>
-      <c r="CA1" s="453"/>
-      <c r="CB1" s="453"/>
-      <c r="CC1" s="453"/>
-      <c r="CD1" s="453"/>
-      <c r="CE1" s="453"/>
-      <c r="CF1" s="453"/>
-      <c r="CG1" s="454"/>
-      <c r="CH1" s="452" t="s">
+      <c r="BL1" s="402"/>
+      <c r="BM1" s="402"/>
+      <c r="BN1" s="402"/>
+      <c r="BO1" s="402"/>
+      <c r="BP1" s="402"/>
+      <c r="BQ1" s="402"/>
+      <c r="BR1" s="402"/>
+      <c r="BS1" s="402"/>
+      <c r="BT1" s="402"/>
+      <c r="BU1" s="402"/>
+      <c r="BV1" s="402"/>
+      <c r="BW1" s="402"/>
+      <c r="BX1" s="402"/>
+      <c r="BY1" s="402"/>
+      <c r="BZ1" s="402"/>
+      <c r="CA1" s="402"/>
+      <c r="CB1" s="402"/>
+      <c r="CC1" s="402"/>
+      <c r="CD1" s="402"/>
+      <c r="CE1" s="402"/>
+      <c r="CF1" s="402"/>
+      <c r="CG1" s="403"/>
+      <c r="CH1" s="401" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="453"/>
-      <c r="CJ1" s="453"/>
-      <c r="CK1" s="453"/>
-      <c r="CL1" s="453"/>
-      <c r="CM1" s="453"/>
-      <c r="CN1" s="453"/>
-      <c r="CO1" s="453"/>
-      <c r="CP1" s="453"/>
-      <c r="CQ1" s="454"/>
-      <c r="CR1" s="464" t="s">
+      <c r="CI1" s="402"/>
+      <c r="CJ1" s="402"/>
+      <c r="CK1" s="402"/>
+      <c r="CL1" s="402"/>
+      <c r="CM1" s="402"/>
+      <c r="CN1" s="402"/>
+      <c r="CO1" s="402"/>
+      <c r="CP1" s="402"/>
+      <c r="CQ1" s="403"/>
+      <c r="CR1" s="413" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="465"/>
-      <c r="CT1" s="465"/>
-      <c r="CU1" s="465"/>
-      <c r="CV1" s="465"/>
-      <c r="CW1" s="465"/>
-      <c r="CX1" s="465"/>
-      <c r="CY1" s="466"/>
+      <c r="CS1" s="414"/>
+      <c r="CT1" s="414"/>
+      <c r="CU1" s="414"/>
+      <c r="CV1" s="414"/>
+      <c r="CW1" s="414"/>
+      <c r="CX1" s="414"/>
+      <c r="CY1" s="415"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30849,11 +30881,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="467" t="s">
+      <c r="AY47" s="416" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="468"/>
-      <c r="BA47" s="469"/>
+      <c r="AZ47" s="417"/>
+      <c r="BA47" s="418"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -31502,11 +31534,11 @@
       <c r="BK60" s="145"/>
       <c r="BN60" s="321"/>
       <c r="BS60" s="302"/>
-      <c r="BU60" s="458" t="s">
+      <c r="BU60" s="407" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="459"/>
-      <c r="BW60" s="460"/>
+      <c r="BV60" s="408"/>
+      <c r="BW60" s="409"/>
       <c r="BX60" s="302"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -32091,7 +32123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY69"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
@@ -34560,1193 +34592,1009 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="414"/>
-    <col min="2" max="2" width="5.85546875" style="414" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="439" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="439" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="439" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" style="414" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="5.5703125" style="414"/>
+    <col min="1" max="1" width="5.5703125" style="467"/>
+    <col min="2" max="2" width="5.85546875" style="467" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="467" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="467" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="467" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" style="467" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="467" customWidth="1"/>
+    <col min="9" max="16384" width="5.5703125" style="467"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="416" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="415"/>
-      <c r="B1" s="396" t="s">
+    <row r="1" spans="1:16" s="421" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="419"/>
+      <c r="B1" s="420" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="426" t="s">
+      <c r="C1" s="421" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="426" t="s">
+      <c r="D1" s="421" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="426" t="s">
+      <c r="E1" s="421" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="446" t="s">
+      <c r="F1" s="422" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="422" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="421" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="469"/>
+    </row>
+    <row r="2" spans="1:16" s="426" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="423" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="424">
+        <v>43670</v>
+      </c>
+      <c r="C2" s="425" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="427"/>
+      <c r="B3" s="428">
+        <v>43671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="432" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="427"/>
+      <c r="B4" s="430">
+        <v>43672</v>
+      </c>
+      <c r="C4" s="431" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="432" t="s">
+        <v>214</v>
+      </c>
+      <c r="P4" s="433"/>
+    </row>
+    <row r="5" spans="1:16" s="436" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="427"/>
+      <c r="B5" s="434">
+        <v>43675</v>
+      </c>
+      <c r="C5" s="435" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="436" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="468" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="436" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="436" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="427"/>
+      <c r="B6" s="434">
+        <v>43676</v>
+      </c>
+      <c r="C6" s="436" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="436" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="436" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="446" t="s">
+      <c r="G6" s="436" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="436" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="427"/>
+      <c r="B7" s="434">
+        <v>43677</v>
+      </c>
+      <c r="C7" s="435" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="473" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="397">
-        <v>43670</v>
-      </c>
-      <c r="C2" s="427" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="428"/>
-      <c r="E2" s="428"/>
-    </row>
-    <row r="3" spans="1:16" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="474"/>
-      <c r="B3" s="398">
-        <v>43671</v>
-      </c>
-      <c r="C3" s="429"/>
-      <c r="D3" s="429"/>
-      <c r="E3" s="429"/>
-    </row>
-    <row r="4" spans="1:16" s="419" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="474"/>
-      <c r="B4" s="399">
-        <v>43672</v>
-      </c>
-      <c r="C4" s="430" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="431" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="431"/>
-      <c r="P4" s="445"/>
-    </row>
-    <row r="5" spans="1:16" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="474"/>
-      <c r="B5" s="400">
-        <v>43675</v>
-      </c>
-      <c r="C5" s="432" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="433" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="433" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="433" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="433" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="474"/>
-      <c r="B6" s="400">
-        <v>43676</v>
-      </c>
-      <c r="C6" s="433" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="433" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="433"/>
-      <c r="F6" s="420" t="s">
+      <c r="D7" s="435" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="435" t="s">
         <v>206</v>
       </c>
-      <c r="G6" s="420" t="s">
+      <c r="F7" s="436" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="436" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="470" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="427"/>
+      <c r="B8" s="428">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="436" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="427"/>
+      <c r="B9" s="434">
+        <v>43679</v>
+      </c>
+      <c r="C9" s="435" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="435" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="435" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="468"/>
+    </row>
+    <row r="10" spans="1:16" s="432" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="427"/>
+      <c r="B10" s="430">
+        <v>43682</v>
+      </c>
+      <c r="C10" s="431" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="431" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="432" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="474"/>
-      <c r="B7" s="400">
-        <v>43677</v>
-      </c>
-      <c r="C7" s="432" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="432" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="432" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="474"/>
-      <c r="B8" s="398">
-        <v>43678</v>
-      </c>
-      <c r="C8" s="429"/>
-      <c r="D8" s="429"/>
-      <c r="E8" s="429"/>
-    </row>
-    <row r="9" spans="1:16" s="420" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="474"/>
-      <c r="B9" s="400">
-        <v>43679</v>
-      </c>
-      <c r="C9" s="432" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="432" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="433" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="474"/>
-      <c r="B10" s="399">
-        <v>43682</v>
-      </c>
-      <c r="C10" s="430" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="430" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="431" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="474"/>
-      <c r="B11" s="399">
+    <row r="11" spans="1:16" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="427"/>
+      <c r="B11" s="430">
         <v>43683</v>
       </c>
-      <c r="C11" s="431" t="s">
+      <c r="C11" s="432" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="431" t="s">
+      <c r="D11" s="432" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="431"/>
-    </row>
-    <row r="12" spans="1:16" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="474"/>
-      <c r="B12" s="399">
+    </row>
+    <row r="12" spans="1:16" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="427"/>
+      <c r="B12" s="430">
         <v>43684</v>
       </c>
-      <c r="C12" s="431" t="s">
+      <c r="C12" s="432" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="431" t="s">
+      <c r="D12" s="432" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="431"/>
-    </row>
-    <row r="13" spans="1:16" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="474"/>
-      <c r="B13" s="398">
+    </row>
+    <row r="13" spans="1:16" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="427"/>
+      <c r="B13" s="428">
         <v>43685</v>
       </c>
-      <c r="C13" s="429"/>
-      <c r="D13" s="429"/>
-      <c r="E13" s="429"/>
-    </row>
-    <row r="14" spans="1:16" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="474"/>
-      <c r="B14" s="399">
+    </row>
+    <row r="14" spans="1:16" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="427"/>
+      <c r="B14" s="430">
         <v>43686</v>
       </c>
-      <c r="C14" s="431" t="s">
+      <c r="C14" s="432" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="432" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="431" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" s="431"/>
-    </row>
-    <row r="15" spans="1:16" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="474"/>
-      <c r="B15" s="400">
+    </row>
+    <row r="15" spans="1:16" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="427"/>
+      <c r="B15" s="434">
         <v>43689</v>
       </c>
-      <c r="C15" s="433" t="s">
+      <c r="C15" s="436" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="433"/>
-      <c r="E15" s="433" t="s">
+      <c r="E15" s="436" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="474"/>
-      <c r="B16" s="400">
+    <row r="16" spans="1:16" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="427"/>
+      <c r="B16" s="434">
         <v>43690</v>
       </c>
-      <c r="C16" s="433" t="s">
+      <c r="C16" s="436" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="433"/>
-      <c r="E16" s="433"/>
-    </row>
-    <row r="17" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="474"/>
-      <c r="B17" s="400">
+    </row>
+    <row r="17" spans="1:5" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="427"/>
+      <c r="B17" s="434">
         <v>43691</v>
       </c>
-      <c r="C17" s="433" t="s">
+      <c r="C17" s="436" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="433"/>
-      <c r="E17" s="433"/>
-    </row>
-    <row r="18" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="474"/>
-      <c r="B18" s="398">
+    </row>
+    <row r="18" spans="1:5" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="427"/>
+      <c r="B18" s="428">
         <v>43692</v>
       </c>
-      <c r="C18" s="429"/>
-      <c r="D18" s="429"/>
-      <c r="E18" s="429"/>
-    </row>
-    <row r="19" spans="1:5" s="421" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="475"/>
-      <c r="B19" s="401">
+    </row>
+    <row r="19" spans="1:5" s="439" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="437"/>
+      <c r="B19" s="438">
         <v>43693</v>
       </c>
-      <c r="C19" s="433" t="s">
+      <c r="C19" s="436" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="434"/>
-      <c r="E19" s="434"/>
-    </row>
-    <row r="20" spans="1:5" s="417" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="470" t="s">
+    </row>
+    <row r="20" spans="1:5" s="426" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="440" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="402">
+      <c r="B20" s="441">
         <v>43696</v>
       </c>
-      <c r="C20" s="427" t="s">
+      <c r="C20" s="425" t="s">
         <v>166</v>
       </c>
       <c r="D20" s="442" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="428"/>
-    </row>
-    <row r="21" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="471"/>
-      <c r="B21" s="403">
+    </row>
+    <row r="21" spans="1:5" s="432" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="443"/>
+      <c r="B21" s="444">
         <v>43697</v>
       </c>
-      <c r="C21" s="440" t="s">
+      <c r="C21" s="445" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="430" t="s">
+      <c r="D21" s="431" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="441"/>
-    </row>
-    <row r="22" spans="1:5" s="419" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="471"/>
-      <c r="B22" s="403">
+      <c r="E21" s="446"/>
+    </row>
+    <row r="22" spans="1:5" s="432" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="443"/>
+      <c r="B22" s="444">
         <v>43698</v>
       </c>
-      <c r="C22" s="431" t="s">
+      <c r="C22" s="432" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="443" t="s">
+      <c r="D22" s="447" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="431"/>
-    </row>
-    <row r="23" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="471"/>
-      <c r="B23" s="404">
+    </row>
+    <row r="23" spans="1:5" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="443"/>
+      <c r="B23" s="448">
         <v>43699</v>
       </c>
-      <c r="C23" s="429"/>
-      <c r="D23" s="429"/>
-      <c r="E23" s="429"/>
-    </row>
-    <row r="24" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="471"/>
-      <c r="B24" s="403">
+    </row>
+    <row r="24" spans="1:5" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="443"/>
+      <c r="B24" s="444">
         <v>43700</v>
       </c>
-      <c r="C24" s="431"/>
-      <c r="D24" s="431" t="s">
+      <c r="D24" s="432" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="436" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="443"/>
+      <c r="B25" s="449">
+        <v>43703</v>
+      </c>
+      <c r="C25" s="435" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="435" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="436" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="443"/>
+      <c r="B26" s="449">
+        <v>43704</v>
+      </c>
+      <c r="C26" s="435" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="435" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="436" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="443"/>
+      <c r="B27" s="449">
+        <v>43705</v>
+      </c>
+      <c r="C27" s="436" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="435" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="443"/>
+      <c r="B28" s="448">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="443"/>
+      <c r="B29" s="449">
+        <v>43707</v>
+      </c>
+      <c r="D29" s="436" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="432" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="443"/>
+      <c r="B30" s="444">
+        <v>43710</v>
+      </c>
+      <c r="C30" s="431" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="431"/>
-    </row>
-    <row r="25" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="471"/>
-      <c r="B25" s="405">
-        <v>43703</v>
-      </c>
-      <c r="C25" s="432" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="432" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="433"/>
-    </row>
-    <row r="26" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="471"/>
-      <c r="B26" s="405">
-        <v>43704</v>
-      </c>
-      <c r="C26" s="432" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="432" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="433"/>
-    </row>
-    <row r="27" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="471"/>
-      <c r="B27" s="405">
-        <v>43705</v>
-      </c>
-      <c r="C27" s="433" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="432" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="433"/>
-    </row>
-    <row r="28" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="471"/>
-      <c r="B28" s="404">
-        <v>43706</v>
-      </c>
-      <c r="C28" s="429"/>
-      <c r="D28" s="429"/>
-      <c r="E28" s="429"/>
-    </row>
-    <row r="29" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="471"/>
-      <c r="B29" s="405">
-        <v>43707</v>
-      </c>
-      <c r="C29" s="433"/>
-      <c r="D29" s="433" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="433"/>
-    </row>
-    <row r="30" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="471"/>
-      <c r="B30" s="403">
-        <v>43710</v>
-      </c>
-      <c r="C30" s="430" t="s">
+    </row>
+    <row r="31" spans="1:5" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="443"/>
+      <c r="B31" s="444">
+        <v>43711</v>
+      </c>
+      <c r="D31" s="432" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="431"/>
-      <c r="E30" s="431"/>
-    </row>
-    <row r="31" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="471"/>
-      <c r="B31" s="403">
-        <v>43711</v>
-      </c>
-      <c r="C31" s="431"/>
-      <c r="D31" s="431" t="s">
+    </row>
+    <row r="32" spans="1:5" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="443"/>
+      <c r="B32" s="444">
+        <v>43712</v>
+      </c>
+      <c r="C32" s="432" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="432" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="431"/>
-    </row>
-    <row r="32" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="471"/>
-      <c r="B32" s="403">
-        <v>43712</v>
-      </c>
-      <c r="C32" s="431" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="431" t="s">
+    </row>
+    <row r="33" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="443"/>
+      <c r="B33" s="448">
+        <v>43713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="443"/>
+      <c r="B34" s="444">
+        <v>43714</v>
+      </c>
+      <c r="C34" s="432" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="443"/>
+      <c r="B35" s="449">
+        <v>43717</v>
+      </c>
+      <c r="C35" s="436" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="443"/>
+      <c r="B36" s="449">
+        <v>43718</v>
+      </c>
+      <c r="C36" s="436" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="443"/>
+      <c r="B37" s="449">
+        <v>43719</v>
+      </c>
+      <c r="C37" s="436" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="443"/>
+      <c r="B38" s="448">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="443"/>
+      <c r="B39" s="449">
+        <v>43721</v>
+      </c>
+      <c r="C39" s="436" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="443"/>
+      <c r="B40" s="444">
+        <v>43724</v>
+      </c>
+      <c r="C40" s="432" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="443"/>
+      <c r="B41" s="444">
+        <v>43725</v>
+      </c>
+      <c r="C41" s="432" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="443"/>
+      <c r="B42" s="444">
+        <v>43726</v>
+      </c>
+      <c r="C42" s="432" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="443"/>
+      <c r="B43" s="448">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="452" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="450"/>
+      <c r="B44" s="451">
+        <v>43728</v>
+      </c>
+      <c r="C44" s="452" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="456" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="453" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="454">
+        <v>43731</v>
+      </c>
+      <c r="C45" s="455" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="436" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="457"/>
+      <c r="B46" s="458">
+        <v>43732</v>
+      </c>
+      <c r="C46" s="436" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="431"/>
-    </row>
-    <row r="33" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="471"/>
-      <c r="B33" s="404">
-        <v>43713</v>
-      </c>
-      <c r="C33" s="429"/>
-      <c r="D33" s="429"/>
-      <c r="E33" s="429"/>
-    </row>
-    <row r="34" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="471"/>
-      <c r="B34" s="403">
-        <v>43714</v>
-      </c>
-      <c r="C34" s="431" t="s">
+      <c r="D46" s="436" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="436" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="457"/>
+      <c r="B47" s="458">
+        <v>43733</v>
+      </c>
+      <c r="C47" s="435" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="436" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="457"/>
+      <c r="B48" s="459">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="436" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="457"/>
+      <c r="B49" s="458">
+        <v>43735</v>
+      </c>
+      <c r="C49" s="435" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="432" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="457"/>
+      <c r="B50" s="460">
+        <v>43738</v>
+      </c>
+      <c r="C50" s="431" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="432" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="457"/>
+      <c r="B51" s="460">
+        <v>43739</v>
+      </c>
+      <c r="C51" s="431" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="457"/>
+      <c r="B52" s="460">
+        <v>43740</v>
+      </c>
+      <c r="C52" s="432" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="457"/>
+      <c r="B53" s="459">
+        <v>43741</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="432" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="457"/>
+      <c r="B54" s="460">
+        <v>43742</v>
+      </c>
+      <c r="C54" s="431" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="457"/>
+      <c r="B55" s="458">
+        <v>43745</v>
+      </c>
+      <c r="C55" s="436" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="457"/>
+      <c r="B56" s="458">
+        <v>43746</v>
+      </c>
+      <c r="C56" s="436" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="431"/>
-      <c r="E34" s="431"/>
-    </row>
-    <row r="35" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="471"/>
-      <c r="B35" s="405">
-        <v>43717</v>
-      </c>
-      <c r="C35" s="433" t="s">
+    </row>
+    <row r="57" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="457"/>
+      <c r="B57" s="458">
+        <v>43747</v>
+      </c>
+      <c r="C57" s="436" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="433"/>
-      <c r="E35" s="433"/>
-    </row>
-    <row r="36" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="471"/>
-      <c r="B36" s="405">
-        <v>43718</v>
-      </c>
-      <c r="C36" s="433" t="s">
+    </row>
+    <row r="58" spans="1:3" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="457"/>
+      <c r="B58" s="459">
+        <v>43748</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="457"/>
+      <c r="B59" s="458">
+        <v>43749</v>
+      </c>
+      <c r="C59" s="436" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="433"/>
-      <c r="E36" s="433"/>
-    </row>
-    <row r="37" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="471"/>
-      <c r="B37" s="405">
-        <v>43719</v>
-      </c>
-      <c r="C37" s="433" t="s">
+    </row>
+    <row r="60" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="457"/>
+      <c r="B60" s="460">
+        <v>43754</v>
+      </c>
+      <c r="C60" s="432" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="433"/>
-      <c r="E37" s="433"/>
-    </row>
-    <row r="38" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="471"/>
-      <c r="B38" s="404">
-        <v>43720</v>
-      </c>
-      <c r="C38" s="429"/>
-      <c r="D38" s="429"/>
-      <c r="E38" s="429"/>
-    </row>
-    <row r="39" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="471"/>
-      <c r="B39" s="405">
-        <v>43721</v>
-      </c>
-      <c r="C39" s="433" t="s">
+    </row>
+    <row r="61" spans="1:3" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="457"/>
+      <c r="B61" s="459">
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="457"/>
+      <c r="B62" s="460">
+        <v>43756</v>
+      </c>
+      <c r="C62" s="432" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="433"/>
-      <c r="E39" s="433"/>
-    </row>
-    <row r="40" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="471"/>
-      <c r="B40" s="403">
-        <v>43724</v>
-      </c>
-      <c r="C40" s="431" t="s">
+    </row>
+    <row r="63" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="457"/>
+      <c r="B63" s="458">
+        <v>43759</v>
+      </c>
+      <c r="C63" s="436" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="431"/>
-      <c r="E40" s="431"/>
-    </row>
-    <row r="41" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="471"/>
-      <c r="B41" s="403">
-        <v>43725</v>
-      </c>
-      <c r="C41" s="431" t="s">
+    </row>
+    <row r="64" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="457"/>
+      <c r="B64" s="458">
+        <v>43760</v>
+      </c>
+      <c r="C64" s="436" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="431"/>
-      <c r="E41" s="431"/>
-    </row>
-    <row r="42" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="471"/>
-      <c r="B42" s="403">
-        <v>43726</v>
-      </c>
-      <c r="C42" s="431" t="s">
+    </row>
+    <row r="65" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="457"/>
+      <c r="B65" s="458">
+        <v>43761</v>
+      </c>
+      <c r="C65" s="436" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="431"/>
-      <c r="E42" s="431"/>
-    </row>
-    <row r="43" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="471"/>
-      <c r="B43" s="404">
-        <v>43727</v>
-      </c>
-      <c r="C43" s="429"/>
-      <c r="D43" s="429"/>
-      <c r="E43" s="429"/>
-    </row>
-    <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="472"/>
-      <c r="B44" s="406">
-        <v>43728</v>
-      </c>
-      <c r="C44" s="435" t="s">
+    </row>
+    <row r="66" spans="1:4" s="463" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="461"/>
+      <c r="B66" s="462">
+        <v>43762</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="456" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="453" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="454">
+        <v>43763</v>
+      </c>
+      <c r="C67" s="455" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="457"/>
+      <c r="B68" s="460">
+        <v>43766</v>
+      </c>
+      <c r="C68" s="432" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="432" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="457"/>
+      <c r="B69" s="460">
+        <v>43767</v>
+      </c>
+      <c r="C69" s="432" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="432" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="457"/>
+      <c r="B70" s="460">
+        <v>43768</v>
+      </c>
+      <c r="C70" s="431" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" s="432" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="457"/>
+      <c r="B71" s="459">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="457"/>
+      <c r="B72" s="460">
+        <v>43770</v>
+      </c>
+      <c r="C72" s="432" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="457"/>
+      <c r="B73" s="458">
+        <v>43773</v>
+      </c>
+      <c r="C73" s="436" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="436" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="457"/>
+      <c r="B74" s="458">
+        <v>43774</v>
+      </c>
+      <c r="C74" s="436" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="436" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="457"/>
+      <c r="B75" s="458">
+        <v>43775</v>
+      </c>
+      <c r="C75" s="436" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="457"/>
+      <c r="B76" s="459">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="457"/>
+      <c r="B77" s="458">
+        <v>43777</v>
+      </c>
+      <c r="C77" s="436" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="435"/>
-      <c r="E44" s="435"/>
-    </row>
-    <row r="45" spans="1:5" s="423" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="476" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="407">
-        <v>43731</v>
-      </c>
-      <c r="C45" s="444" t="s">
-        <v>182</v>
-      </c>
-      <c r="D45" s="433" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="436"/>
-    </row>
-    <row r="46" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="477"/>
-      <c r="B46" s="408">
-        <v>43732</v>
-      </c>
-      <c r="C46" s="433" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="433" t="s">
-        <v>178</v>
-      </c>
-      <c r="E46" s="433"/>
-    </row>
-    <row r="47" spans="1:5" s="420" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="477"/>
-      <c r="B47" s="408">
-        <v>43733</v>
-      </c>
-      <c r="C47" s="432" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="433" t="s">
-        <v>179</v>
-      </c>
-      <c r="E47" s="433"/>
-    </row>
-    <row r="48" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="477"/>
-      <c r="B48" s="409">
-        <v>43734</v>
-      </c>
-      <c r="C48" s="429"/>
-      <c r="D48" s="429"/>
-      <c r="E48" s="429"/>
-    </row>
-    <row r="49" spans="1:5" s="420" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="477"/>
-      <c r="B49" s="408">
-        <v>43735</v>
-      </c>
-      <c r="C49" s="432" t="s">
-        <v>199</v>
-      </c>
-      <c r="D49" s="433"/>
-      <c r="E49" s="433"/>
-    </row>
-    <row r="50" spans="1:5" s="419" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="477"/>
-      <c r="B50" s="410">
-        <v>43738</v>
-      </c>
-      <c r="C50" s="430" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" s="431"/>
-      <c r="E50" s="431"/>
-    </row>
-    <row r="51" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="477"/>
-      <c r="B51" s="410">
-        <v>43739</v>
-      </c>
-      <c r="C51" s="430" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="431"/>
-      <c r="E51" s="431"/>
-    </row>
-    <row r="52" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="477"/>
-      <c r="B52" s="410">
-        <v>43740</v>
-      </c>
-      <c r="C52" s="431" t="s">
+    </row>
+    <row r="78" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="457"/>
+      <c r="B78" s="460">
+        <v>43780</v>
+      </c>
+      <c r="C78" s="432" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="457"/>
+      <c r="B79" s="460">
+        <v>43781</v>
+      </c>
+      <c r="C79" s="432" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="457"/>
+      <c r="B80" s="460">
+        <v>43782</v>
+      </c>
+      <c r="C80" s="432" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="457"/>
+      <c r="B81" s="459">
+        <v>43783</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="457"/>
+      <c r="B82" s="458">
+        <v>43787</v>
+      </c>
+      <c r="C82" s="436" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="457"/>
+      <c r="B83" s="458">
+        <v>43788</v>
+      </c>
+      <c r="C83" s="436" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="457"/>
+      <c r="B84" s="459">
+        <v>43790</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="457"/>
+      <c r="B85" s="458">
+        <v>43791</v>
+      </c>
+      <c r="C85" s="436" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="457"/>
+      <c r="B86" s="460">
+        <v>43794</v>
+      </c>
+      <c r="C86" s="432" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="457"/>
+      <c r="B87" s="460">
+        <v>43795</v>
+      </c>
+      <c r="C87" s="432" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="457"/>
+      <c r="B88" s="460">
+        <v>43796</v>
+      </c>
+      <c r="C88" s="432" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="463" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="461"/>
+      <c r="B89" s="462">
+        <v>43797</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="426" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="440" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="464">
+        <v>43798</v>
+      </c>
+      <c r="C90" s="425" t="s">
         <v>190</v>
       </c>
-      <c r="D52" s="431"/>
-      <c r="E52" s="431"/>
-    </row>
-    <row r="53" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="477"/>
-      <c r="B53" s="409">
-        <v>43741</v>
-      </c>
-      <c r="C53" s="429"/>
-      <c r="D53" s="429"/>
-      <c r="E53" s="429"/>
-    </row>
-    <row r="54" spans="1:5" s="419" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="477"/>
-      <c r="B54" s="410">
-        <v>43742</v>
-      </c>
-      <c r="C54" s="430" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="431"/>
-      <c r="E54" s="431"/>
-    </row>
-    <row r="55" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="477"/>
-      <c r="B55" s="408">
-        <v>43745</v>
-      </c>
-      <c r="C55" s="433" t="s">
-        <v>190</v>
-      </c>
-      <c r="D55" s="433"/>
-      <c r="E55" s="433"/>
-    </row>
-    <row r="56" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="477"/>
-      <c r="B56" s="408">
-        <v>43746</v>
-      </c>
-      <c r="C56" s="433" t="s">
+    </row>
+    <row r="91" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="443"/>
+      <c r="B91" s="458">
+        <v>43801</v>
+      </c>
+      <c r="C91" s="436" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="443"/>
+      <c r="B92" s="458">
+        <v>43802</v>
+      </c>
+      <c r="C92" s="436" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="443"/>
+      <c r="B93" s="458">
+        <v>43803</v>
+      </c>
+      <c r="C93" s="436" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="429" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="443"/>
+      <c r="B94" s="459">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="443"/>
+      <c r="B95" s="458">
+        <v>43805</v>
+      </c>
+      <c r="C95" s="436" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="433"/>
-      <c r="E56" s="433"/>
-    </row>
-    <row r="57" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="477"/>
-      <c r="B57" s="408">
-        <v>43747</v>
-      </c>
-      <c r="C57" s="433" t="s">
+    </row>
+    <row r="96" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="443"/>
+      <c r="B96" s="460">
+        <v>43808</v>
+      </c>
+      <c r="C96" s="432" t="s">
         <v>150</v>
       </c>
-      <c r="D57" s="433"/>
-      <c r="E57" s="433"/>
-    </row>
-    <row r="58" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="477"/>
-      <c r="B58" s="409">
-        <v>43748</v>
-      </c>
-      <c r="C58" s="429"/>
-      <c r="D58" s="429"/>
-      <c r="E58" s="429"/>
-    </row>
-    <row r="59" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="477"/>
-      <c r="B59" s="408">
-        <v>43749</v>
-      </c>
-      <c r="C59" s="433" t="s">
+    </row>
+    <row r="97" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="443"/>
+      <c r="B97" s="460">
+        <v>43809</v>
+      </c>
+      <c r="C97" s="432" t="s">
         <v>150</v>
       </c>
-      <c r="D59" s="433"/>
-      <c r="E59" s="433"/>
-    </row>
-    <row r="60" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="477"/>
-      <c r="B60" s="410">
-        <v>43754</v>
-      </c>
-      <c r="C60" s="431" t="s">
+    </row>
+    <row r="98" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="443"/>
+      <c r="B98" s="460">
+        <v>43810</v>
+      </c>
+      <c r="C98" s="432" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="431"/>
-      <c r="E60" s="431"/>
-    </row>
-    <row r="61" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="477"/>
-      <c r="B61" s="409">
-        <v>43755</v>
-      </c>
-      <c r="C61" s="429"/>
-      <c r="D61" s="429"/>
-      <c r="E61" s="429"/>
-    </row>
-    <row r="62" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="477"/>
-      <c r="B62" s="410">
-        <v>43756</v>
-      </c>
-      <c r="C62" s="431" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" s="431"/>
-      <c r="E62" s="431"/>
-    </row>
-    <row r="63" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="477"/>
-      <c r="B63" s="408">
-        <v>43759</v>
-      </c>
-      <c r="C63" s="433" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63" s="433"/>
-      <c r="E63" s="433"/>
-    </row>
-    <row r="64" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="477"/>
-      <c r="B64" s="408">
-        <v>43760</v>
-      </c>
-      <c r="C64" s="433" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="433"/>
-      <c r="E64" s="433"/>
-    </row>
-    <row r="65" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="477"/>
-      <c r="B65" s="408">
-        <v>43761</v>
-      </c>
-      <c r="C65" s="433" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" s="433"/>
-      <c r="E65" s="433"/>
-    </row>
-    <row r="66" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="478"/>
-      <c r="B66" s="411">
-        <v>43762</v>
-      </c>
-      <c r="C66" s="437"/>
-      <c r="D66" s="437"/>
-      <c r="E66" s="437"/>
-    </row>
-    <row r="67" spans="1:5" s="423" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="476" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="407">
-        <v>43763</v>
-      </c>
-      <c r="C67" s="444" t="s">
-        <v>183</v>
-      </c>
-      <c r="D67" s="436"/>
-      <c r="E67" s="436"/>
-    </row>
-    <row r="68" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="477"/>
-      <c r="B68" s="410">
-        <v>43766</v>
-      </c>
-      <c r="C68" s="431" t="s">
-        <v>184</v>
-      </c>
-      <c r="D68" s="431" t="s">
-        <v>185</v>
-      </c>
-      <c r="E68" s="431"/>
-    </row>
-    <row r="69" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="477"/>
-      <c r="B69" s="410">
-        <v>43767</v>
-      </c>
-      <c r="C69" s="431" t="s">
-        <v>189</v>
-      </c>
-      <c r="D69" s="431" t="s">
-        <v>185</v>
-      </c>
-      <c r="E69" s="431"/>
-    </row>
-    <row r="70" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="477"/>
-      <c r="B70" s="410">
-        <v>43768</v>
-      </c>
-      <c r="C70" s="430" t="s">
-        <v>186</v>
-      </c>
-      <c r="D70" s="431" t="s">
-        <v>185</v>
-      </c>
-      <c r="E70" s="431"/>
-    </row>
-    <row r="71" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="477"/>
-      <c r="B71" s="409">
-        <v>43769</v>
-      </c>
-      <c r="C71" s="429"/>
-      <c r="D71" s="429"/>
-      <c r="E71" s="429"/>
-    </row>
-    <row r="72" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="477"/>
-      <c r="B72" s="410">
-        <v>43770</v>
-      </c>
-      <c r="C72" s="431" t="s">
-        <v>197</v>
-      </c>
-      <c r="D72" s="431"/>
-      <c r="E72" s="431"/>
-    </row>
-    <row r="73" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="477"/>
-      <c r="B73" s="408">
-        <v>43773</v>
-      </c>
-      <c r="C73" s="433" t="s">
-        <v>187</v>
-      </c>
-      <c r="D73" s="433" t="s">
-        <v>185</v>
-      </c>
-      <c r="E73" s="433"/>
-    </row>
-    <row r="74" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="477"/>
-      <c r="B74" s="408">
-        <v>43774</v>
-      </c>
-      <c r="C74" s="433" t="s">
-        <v>188</v>
-      </c>
-      <c r="D74" s="433" t="s">
-        <v>185</v>
-      </c>
-      <c r="E74" s="433"/>
-    </row>
-    <row r="75" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="477"/>
-      <c r="B75" s="408">
-        <v>43775</v>
-      </c>
-      <c r="C75" s="433" t="s">
-        <v>196</v>
-      </c>
-      <c r="D75" s="433"/>
-      <c r="E75" s="433"/>
-    </row>
-    <row r="76" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="477"/>
-      <c r="B76" s="409">
-        <v>43776</v>
-      </c>
-      <c r="C76" s="429"/>
-      <c r="D76" s="429"/>
-      <c r="E76" s="429"/>
-    </row>
-    <row r="77" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="477"/>
-      <c r="B77" s="408">
-        <v>43777</v>
-      </c>
-      <c r="C77" s="433" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" s="433"/>
-      <c r="E77" s="433"/>
-    </row>
-    <row r="78" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="477"/>
-      <c r="B78" s="410">
-        <v>43780</v>
-      </c>
-      <c r="C78" s="431" t="s">
-        <v>150</v>
-      </c>
-      <c r="D78" s="431"/>
-      <c r="E78" s="431"/>
-    </row>
-    <row r="79" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="477"/>
-      <c r="B79" s="410">
-        <v>43781</v>
-      </c>
-      <c r="C79" s="431" t="s">
-        <v>150</v>
-      </c>
-      <c r="D79" s="431"/>
-      <c r="E79" s="431"/>
-    </row>
-    <row r="80" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="477"/>
-      <c r="B80" s="410">
-        <v>43782</v>
-      </c>
-      <c r="C80" s="431" t="s">
-        <v>150</v>
-      </c>
-      <c r="D80" s="431"/>
-      <c r="E80" s="431"/>
-    </row>
-    <row r="81" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="477"/>
-      <c r="B81" s="409">
-        <v>43783</v>
-      </c>
-      <c r="C81" s="429"/>
-      <c r="D81" s="429"/>
-      <c r="E81" s="429"/>
-    </row>
-    <row r="82" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="477"/>
-      <c r="B82" s="408">
-        <v>43787</v>
-      </c>
-      <c r="C82" s="433" t="s">
-        <v>150</v>
-      </c>
-      <c r="D82" s="433"/>
-      <c r="E82" s="433"/>
-    </row>
-    <row r="83" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="477"/>
-      <c r="B83" s="408">
-        <v>43788</v>
-      </c>
-      <c r="C83" s="433" t="s">
-        <v>150</v>
-      </c>
-      <c r="D83" s="433"/>
-      <c r="E83" s="433"/>
-    </row>
-    <row r="84" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="477"/>
-      <c r="B84" s="409">
-        <v>43790</v>
-      </c>
-      <c r="C84" s="429"/>
-      <c r="D84" s="429"/>
-      <c r="E84" s="429"/>
-    </row>
-    <row r="85" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="477"/>
-      <c r="B85" s="408">
-        <v>43791</v>
-      </c>
-      <c r="C85" s="433" t="s">
-        <v>150</v>
-      </c>
-      <c r="D85" s="433"/>
-      <c r="E85" s="433"/>
-    </row>
-    <row r="86" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="477"/>
-      <c r="B86" s="410">
-        <v>43794</v>
-      </c>
-      <c r="C86" s="431" t="s">
-        <v>150</v>
-      </c>
-      <c r="D86" s="431"/>
-      <c r="E86" s="431"/>
-    </row>
-    <row r="87" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="477"/>
-      <c r="B87" s="410">
-        <v>43795</v>
-      </c>
-      <c r="C87" s="431" t="s">
-        <v>150</v>
-      </c>
-      <c r="D87" s="431"/>
-      <c r="E87" s="431"/>
-    </row>
-    <row r="88" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="477"/>
-      <c r="B88" s="410">
-        <v>43796</v>
-      </c>
-      <c r="C88" s="431" t="s">
-        <v>150</v>
-      </c>
-      <c r="D88" s="431"/>
-      <c r="E88" s="431"/>
-    </row>
-    <row r="89" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="478"/>
-      <c r="B89" s="411">
-        <v>43797</v>
-      </c>
-      <c r="C89" s="437"/>
-      <c r="D89" s="437"/>
-      <c r="E89" s="437"/>
-    </row>
-    <row r="90" spans="1:5" s="417" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="470" t="s">
-        <v>146</v>
-      </c>
-      <c r="B90" s="412">
-        <v>43798</v>
-      </c>
-      <c r="C90" s="427" t="s">
-        <v>191</v>
-      </c>
-      <c r="D90" s="428"/>
-      <c r="E90" s="428"/>
-    </row>
-    <row r="91" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="471"/>
-      <c r="B91" s="408">
-        <v>43801</v>
-      </c>
-      <c r="C91" s="433" t="s">
-        <v>192</v>
-      </c>
-      <c r="D91" s="433"/>
-      <c r="E91" s="433"/>
-    </row>
-    <row r="92" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="471"/>
-      <c r="B92" s="408">
-        <v>43802</v>
-      </c>
-      <c r="C92" s="433" t="s">
-        <v>192</v>
-      </c>
-      <c r="D92" s="433"/>
-      <c r="E92" s="433"/>
-    </row>
-    <row r="93" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="471"/>
-      <c r="B93" s="408">
-        <v>43803</v>
-      </c>
-      <c r="C93" s="433" t="s">
-        <v>193</v>
-      </c>
-      <c r="D93" s="433"/>
-      <c r="E93" s="433"/>
-    </row>
-    <row r="94" spans="1:5" s="418" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="471"/>
-      <c r="B94" s="409">
-        <v>43804</v>
-      </c>
-      <c r="C94" s="429"/>
-      <c r="D94" s="429"/>
-      <c r="E94" s="429"/>
-    </row>
-    <row r="95" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="471"/>
-      <c r="B95" s="408">
-        <v>43805</v>
-      </c>
-      <c r="C95" s="433" t="s">
-        <v>150</v>
-      </c>
-      <c r="D95" s="433"/>
-      <c r="E95" s="433"/>
-    </row>
-    <row r="96" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="471"/>
-      <c r="B96" s="410">
-        <v>43808</v>
-      </c>
-      <c r="C96" s="431" t="s">
-        <v>150</v>
-      </c>
-      <c r="D96" s="431"/>
-      <c r="E96" s="431"/>
-    </row>
-    <row r="97" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="471"/>
-      <c r="B97" s="410">
-        <v>43809</v>
-      </c>
-      <c r="C97" s="431" t="s">
-        <v>150</v>
-      </c>
-      <c r="D97" s="431"/>
-      <c r="E97" s="431"/>
-    </row>
-    <row r="98" spans="1:5" s="419" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="471"/>
-      <c r="B98" s="410">
-        <v>43810</v>
-      </c>
-      <c r="C98" s="431" t="s">
-        <v>150</v>
-      </c>
-      <c r="D98" s="431"/>
-      <c r="E98" s="431"/>
-    </row>
-    <row r="99" spans="1:5" s="424" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="472"/>
-      <c r="B99" s="411">
+    </row>
+    <row r="99" spans="1:3" s="463" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="450"/>
+      <c r="B99" s="462">
         <v>43811</v>
       </c>
-      <c r="C99" s="437"/>
-      <c r="D99" s="437"/>
-      <c r="E99" s="437"/>
-    </row>
-    <row r="100" spans="1:5" s="425" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="413">
+    </row>
+    <row r="100" spans="1:3" s="465" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="466">
         <v>43812</v>
       </c>
-      <c r="C100" s="438"/>
-      <c r="D100" s="438"/>
-      <c r="E100" s="438"/>
-    </row>
-    <row r="101" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="405">
+    </row>
+    <row r="101" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="449">
         <v>43815</v>
       </c>
-      <c r="C101" s="433"/>
-      <c r="D101" s="433"/>
-      <c r="E101" s="433"/>
-    </row>
-    <row r="102" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="405">
+    </row>
+    <row r="102" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="449">
         <v>43816</v>
       </c>
-      <c r="C102" s="433"/>
-      <c r="D102" s="433"/>
-      <c r="E102" s="433"/>
-    </row>
-    <row r="103" spans="1:5" s="420" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="405">
+    </row>
+    <row r="103" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="449">
         <v>43817</v>
       </c>
-      <c r="C103" s="433"/>
-      <c r="D103" s="433"/>
-      <c r="E103" s="433"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EEBA96-901C-4B46-BFCC-DBE7083CA091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="218">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1670,11 +1671,17 @@
       <t>Moda, Dps</t>
     </r>
   </si>
+  <si>
+    <t>DQL - Gufos</t>
+  </si>
+  <si>
+    <t>Desafio Ssvolve</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
@@ -2724,7 +2731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="471">
+  <cellXfs count="472">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3201,6 +3208,135 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3270,160 +3406,34 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3744,7 +3754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3964,7 +3974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
     <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
@@ -4012,123 +4022,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="398" t="s">
+      <c r="B1" s="441" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="F1" s="399"/>
-      <c r="G1" s="399"/>
-      <c r="H1" s="399"/>
-      <c r="I1" s="399"/>
-      <c r="J1" s="399"/>
-      <c r="K1" s="399"/>
-      <c r="L1" s="399"/>
-      <c r="M1" s="399"/>
-      <c r="N1" s="399"/>
-      <c r="O1" s="399"/>
-      <c r="P1" s="399"/>
-      <c r="Q1" s="399"/>
-      <c r="R1" s="398" t="s">
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
+      <c r="J1" s="442"/>
+      <c r="K1" s="442"/>
+      <c r="L1" s="442"/>
+      <c r="M1" s="442"/>
+      <c r="N1" s="442"/>
+      <c r="O1" s="442"/>
+      <c r="P1" s="442"/>
+      <c r="Q1" s="442"/>
+      <c r="R1" s="441" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="399"/>
-      <c r="T1" s="399"/>
-      <c r="U1" s="399"/>
-      <c r="V1" s="399"/>
-      <c r="W1" s="399"/>
-      <c r="X1" s="399"/>
-      <c r="Y1" s="399"/>
-      <c r="Z1" s="399"/>
-      <c r="AA1" s="399"/>
-      <c r="AB1" s="399"/>
-      <c r="AC1" s="399"/>
-      <c r="AD1" s="399"/>
-      <c r="AE1" s="399"/>
-      <c r="AF1" s="399"/>
-      <c r="AG1" s="399"/>
-      <c r="AH1" s="399"/>
-      <c r="AI1" s="399"/>
-      <c r="AJ1" s="399"/>
-      <c r="AK1" s="399"/>
-      <c r="AL1" s="399"/>
-      <c r="AM1" s="400"/>
-      <c r="AN1" s="398" t="s">
+      <c r="S1" s="442"/>
+      <c r="T1" s="442"/>
+      <c r="U1" s="442"/>
+      <c r="V1" s="442"/>
+      <c r="W1" s="442"/>
+      <c r="X1" s="442"/>
+      <c r="Y1" s="442"/>
+      <c r="Z1" s="442"/>
+      <c r="AA1" s="442"/>
+      <c r="AB1" s="442"/>
+      <c r="AC1" s="442"/>
+      <c r="AD1" s="442"/>
+      <c r="AE1" s="442"/>
+      <c r="AF1" s="442"/>
+      <c r="AG1" s="442"/>
+      <c r="AH1" s="442"/>
+      <c r="AI1" s="442"/>
+      <c r="AJ1" s="442"/>
+      <c r="AK1" s="442"/>
+      <c r="AL1" s="442"/>
+      <c r="AM1" s="443"/>
+      <c r="AN1" s="441" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="399"/>
-      <c r="AP1" s="399"/>
-      <c r="AQ1" s="399"/>
-      <c r="AR1" s="399"/>
-      <c r="AS1" s="399"/>
-      <c r="AT1" s="400"/>
-      <c r="AU1" s="398" t="s">
+      <c r="AO1" s="442"/>
+      <c r="AP1" s="442"/>
+      <c r="AQ1" s="442"/>
+      <c r="AR1" s="442"/>
+      <c r="AS1" s="442"/>
+      <c r="AT1" s="443"/>
+      <c r="AU1" s="441" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="399"/>
-      <c r="AW1" s="399"/>
-      <c r="AX1" s="399"/>
-      <c r="AY1" s="399"/>
-      <c r="AZ1" s="399"/>
-      <c r="BA1" s="399"/>
-      <c r="BB1" s="399"/>
-      <c r="BC1" s="399"/>
-      <c r="BD1" s="399"/>
-      <c r="BE1" s="399"/>
-      <c r="BF1" s="399"/>
-      <c r="BG1" s="399"/>
-      <c r="BH1" s="399"/>
-      <c r="BI1" s="399"/>
-      <c r="BJ1" s="399"/>
-      <c r="BK1" s="399"/>
-      <c r="BL1" s="399"/>
-      <c r="BM1" s="399"/>
-      <c r="BN1" s="399"/>
-      <c r="BO1" s="399"/>
-      <c r="BP1" s="399"/>
-      <c r="BQ1" s="400"/>
-      <c r="BR1" s="398" t="s">
+      <c r="AV1" s="442"/>
+      <c r="AW1" s="442"/>
+      <c r="AX1" s="442"/>
+      <c r="AY1" s="442"/>
+      <c r="AZ1" s="442"/>
+      <c r="BA1" s="442"/>
+      <c r="BB1" s="442"/>
+      <c r="BC1" s="442"/>
+      <c r="BD1" s="442"/>
+      <c r="BE1" s="442"/>
+      <c r="BF1" s="442"/>
+      <c r="BG1" s="442"/>
+      <c r="BH1" s="442"/>
+      <c r="BI1" s="442"/>
+      <c r="BJ1" s="442"/>
+      <c r="BK1" s="442"/>
+      <c r="BL1" s="442"/>
+      <c r="BM1" s="442"/>
+      <c r="BN1" s="442"/>
+      <c r="BO1" s="442"/>
+      <c r="BP1" s="442"/>
+      <c r="BQ1" s="443"/>
+      <c r="BR1" s="441" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="399"/>
-      <c r="BT1" s="399"/>
-      <c r="BU1" s="399"/>
-      <c r="BV1" s="399"/>
-      <c r="BW1" s="399"/>
-      <c r="BX1" s="399"/>
-      <c r="BY1" s="399"/>
-      <c r="BZ1" s="399"/>
-      <c r="CA1" s="399"/>
-      <c r="CB1" s="399"/>
-      <c r="CC1" s="399"/>
-      <c r="CD1" s="399"/>
-      <c r="CE1" s="399"/>
-      <c r="CF1" s="399"/>
-      <c r="CG1" s="399"/>
-      <c r="CH1" s="399"/>
-      <c r="CI1" s="399"/>
-      <c r="CJ1" s="399"/>
-      <c r="CK1" s="400"/>
-      <c r="CL1" s="398" t="s">
+      <c r="BS1" s="442"/>
+      <c r="BT1" s="442"/>
+      <c r="BU1" s="442"/>
+      <c r="BV1" s="442"/>
+      <c r="BW1" s="442"/>
+      <c r="BX1" s="442"/>
+      <c r="BY1" s="442"/>
+      <c r="BZ1" s="442"/>
+      <c r="CA1" s="442"/>
+      <c r="CB1" s="442"/>
+      <c r="CC1" s="442"/>
+      <c r="CD1" s="442"/>
+      <c r="CE1" s="442"/>
+      <c r="CF1" s="442"/>
+      <c r="CG1" s="442"/>
+      <c r="CH1" s="442"/>
+      <c r="CI1" s="442"/>
+      <c r="CJ1" s="442"/>
+      <c r="CK1" s="443"/>
+      <c r="CL1" s="441" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="399"/>
-      <c r="CN1" s="399"/>
-      <c r="CO1" s="399"/>
-      <c r="CP1" s="399"/>
-      <c r="CQ1" s="399"/>
-      <c r="CR1" s="399"/>
-      <c r="CS1" s="399"/>
-      <c r="CT1" s="399"/>
-      <c r="CU1" s="399"/>
-      <c r="CV1" s="399"/>
-      <c r="CW1" s="399"/>
-      <c r="CX1" s="399"/>
-      <c r="CY1" s="399"/>
-      <c r="CZ1" s="399"/>
-      <c r="DA1" s="399"/>
-      <c r="DB1" s="399"/>
+      <c r="CM1" s="442"/>
+      <c r="CN1" s="442"/>
+      <c r="CO1" s="442"/>
+      <c r="CP1" s="442"/>
+      <c r="CQ1" s="442"/>
+      <c r="CR1" s="442"/>
+      <c r="CS1" s="442"/>
+      <c r="CT1" s="442"/>
+      <c r="CU1" s="442"/>
+      <c r="CV1" s="442"/>
+      <c r="CW1" s="442"/>
+      <c r="CX1" s="442"/>
+      <c r="CY1" s="442"/>
+      <c r="CZ1" s="442"/>
+      <c r="DA1" s="442"/>
+      <c r="DB1" s="442"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22755,15 +22765,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="396" t="s">
+      <c r="CW86" s="439" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="396"/>
-      <c r="CY86" s="396"/>
-      <c r="CZ86" s="396"/>
-      <c r="DA86" s="396"/>
-      <c r="DB86" s="396"/>
-      <c r="DC86" s="397"/>
+      <c r="CX86" s="439"/>
+      <c r="CY86" s="439"/>
+      <c r="CZ86" s="439"/>
+      <c r="DA86" s="439"/>
+      <c r="DB86" s="439"/>
+      <c r="DC86" s="440"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22781,7 +22791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23109,7 +23119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CX71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -23153,118 +23163,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="410" t="s">
+      <c r="B1" s="453" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="411"/>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
-      <c r="N1" s="411"/>
-      <c r="O1" s="411"/>
-      <c r="P1" s="411"/>
-      <c r="Q1" s="412"/>
-      <c r="R1" s="401" t="s">
+      <c r="C1" s="454"/>
+      <c r="D1" s="454"/>
+      <c r="E1" s="454"/>
+      <c r="F1" s="454"/>
+      <c r="G1" s="454"/>
+      <c r="H1" s="454"/>
+      <c r="I1" s="454"/>
+      <c r="J1" s="454"/>
+      <c r="K1" s="454"/>
+      <c r="L1" s="454"/>
+      <c r="M1" s="454"/>
+      <c r="N1" s="454"/>
+      <c r="O1" s="454"/>
+      <c r="P1" s="454"/>
+      <c r="Q1" s="455"/>
+      <c r="R1" s="444" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="402"/>
-      <c r="T1" s="402"/>
-      <c r="U1" s="402"/>
-      <c r="V1" s="402"/>
-      <c r="W1" s="402"/>
-      <c r="X1" s="402"/>
-      <c r="Y1" s="402"/>
-      <c r="Z1" s="402"/>
-      <c r="AA1" s="402"/>
-      <c r="AB1" s="402"/>
-      <c r="AC1" s="402"/>
-      <c r="AD1" s="402"/>
-      <c r="AE1" s="402"/>
-      <c r="AF1" s="402"/>
-      <c r="AG1" s="402"/>
-      <c r="AH1" s="402"/>
-      <c r="AI1" s="402"/>
-      <c r="AJ1" s="402"/>
-      <c r="AK1" s="402"/>
-      <c r="AL1" s="403"/>
-      <c r="AM1" s="401" t="s">
+      <c r="S1" s="445"/>
+      <c r="T1" s="445"/>
+      <c r="U1" s="445"/>
+      <c r="V1" s="445"/>
+      <c r="W1" s="445"/>
+      <c r="X1" s="445"/>
+      <c r="Y1" s="445"/>
+      <c r="Z1" s="445"/>
+      <c r="AA1" s="445"/>
+      <c r="AB1" s="445"/>
+      <c r="AC1" s="445"/>
+      <c r="AD1" s="445"/>
+      <c r="AE1" s="445"/>
+      <c r="AF1" s="445"/>
+      <c r="AG1" s="445"/>
+      <c r="AH1" s="445"/>
+      <c r="AI1" s="445"/>
+      <c r="AJ1" s="445"/>
+      <c r="AK1" s="445"/>
+      <c r="AL1" s="446"/>
+      <c r="AM1" s="444" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="402"/>
-      <c r="AO1" s="402"/>
-      <c r="AP1" s="402"/>
-      <c r="AQ1" s="402"/>
-      <c r="AR1" s="402"/>
-      <c r="AS1" s="402"/>
-      <c r="AT1" s="402"/>
-      <c r="AU1" s="402"/>
-      <c r="AV1" s="402"/>
-      <c r="AW1" s="402"/>
-      <c r="AX1" s="402"/>
-      <c r="AY1" s="402"/>
-      <c r="AZ1" s="402"/>
-      <c r="BA1" s="402"/>
-      <c r="BB1" s="402"/>
-      <c r="BC1" s="402"/>
-      <c r="BD1" s="402"/>
-      <c r="BE1" s="402"/>
-      <c r="BF1" s="402"/>
-      <c r="BG1" s="402"/>
-      <c r="BH1" s="403"/>
-      <c r="BI1" s="401" t="s">
+      <c r="AN1" s="445"/>
+      <c r="AO1" s="445"/>
+      <c r="AP1" s="445"/>
+      <c r="AQ1" s="445"/>
+      <c r="AR1" s="445"/>
+      <c r="AS1" s="445"/>
+      <c r="AT1" s="445"/>
+      <c r="AU1" s="445"/>
+      <c r="AV1" s="445"/>
+      <c r="AW1" s="445"/>
+      <c r="AX1" s="445"/>
+      <c r="AY1" s="445"/>
+      <c r="AZ1" s="445"/>
+      <c r="BA1" s="445"/>
+      <c r="BB1" s="445"/>
+      <c r="BC1" s="445"/>
+      <c r="BD1" s="445"/>
+      <c r="BE1" s="445"/>
+      <c r="BF1" s="445"/>
+      <c r="BG1" s="445"/>
+      <c r="BH1" s="446"/>
+      <c r="BI1" s="444" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="402"/>
-      <c r="BK1" s="402"/>
-      <c r="BL1" s="402"/>
-      <c r="BM1" s="402"/>
-      <c r="BN1" s="402"/>
-      <c r="BO1" s="402"/>
-      <c r="BP1" s="402"/>
-      <c r="BQ1" s="402"/>
-      <c r="BR1" s="402"/>
-      <c r="BS1" s="402"/>
-      <c r="BT1" s="402"/>
-      <c r="BU1" s="402"/>
-      <c r="BV1" s="402"/>
-      <c r="BW1" s="402"/>
-      <c r="BX1" s="402"/>
-      <c r="BY1" s="402"/>
-      <c r="BZ1" s="402"/>
-      <c r="CA1" s="402"/>
-      <c r="CB1" s="402"/>
-      <c r="CC1" s="402"/>
-      <c r="CD1" s="403"/>
-      <c r="CE1" s="401" t="s">
+      <c r="BJ1" s="445"/>
+      <c r="BK1" s="445"/>
+      <c r="BL1" s="445"/>
+      <c r="BM1" s="445"/>
+      <c r="BN1" s="445"/>
+      <c r="BO1" s="445"/>
+      <c r="BP1" s="445"/>
+      <c r="BQ1" s="445"/>
+      <c r="BR1" s="445"/>
+      <c r="BS1" s="445"/>
+      <c r="BT1" s="445"/>
+      <c r="BU1" s="445"/>
+      <c r="BV1" s="445"/>
+      <c r="BW1" s="445"/>
+      <c r="BX1" s="445"/>
+      <c r="BY1" s="445"/>
+      <c r="BZ1" s="445"/>
+      <c r="CA1" s="445"/>
+      <c r="CB1" s="445"/>
+      <c r="CC1" s="445"/>
+      <c r="CD1" s="446"/>
+      <c r="CE1" s="444" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="402"/>
-      <c r="CG1" s="402"/>
-      <c r="CH1" s="402"/>
-      <c r="CI1" s="402"/>
-      <c r="CJ1" s="402"/>
-      <c r="CK1" s="402"/>
-      <c r="CL1" s="402"/>
-      <c r="CM1" s="403"/>
-      <c r="CN1" s="401" t="s">
+      <c r="CF1" s="445"/>
+      <c r="CG1" s="445"/>
+      <c r="CH1" s="445"/>
+      <c r="CI1" s="445"/>
+      <c r="CJ1" s="445"/>
+      <c r="CK1" s="445"/>
+      <c r="CL1" s="445"/>
+      <c r="CM1" s="446"/>
+      <c r="CN1" s="444" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="402"/>
-      <c r="CP1" s="402"/>
-      <c r="CQ1" s="402"/>
-      <c r="CR1" s="402"/>
-      <c r="CS1" s="402"/>
-      <c r="CT1" s="402"/>
-      <c r="CU1" s="402"/>
-      <c r="CV1" s="402"/>
-      <c r="CW1" s="403"/>
+      <c r="CO1" s="445"/>
+      <c r="CP1" s="445"/>
+      <c r="CQ1" s="445"/>
+      <c r="CR1" s="445"/>
+      <c r="CS1" s="445"/>
+      <c r="CT1" s="445"/>
+      <c r="CU1" s="445"/>
+      <c r="CV1" s="445"/>
+      <c r="CW1" s="446"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24711,11 +24721,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="404" t="s">
+      <c r="AX47" s="447" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="405"/>
-      <c r="AZ47" s="406"/>
+      <c r="AY47" s="448"/>
+      <c r="AZ47" s="449"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -25014,11 +25024,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="407" t="s">
+      <c r="BS60" s="450" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="408"/>
-      <c r="BU60" s="409"/>
+      <c r="BT60" s="451"/>
+      <c r="BU60" s="452"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -25317,7 +25327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -25382,120 +25392,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="410" t="s">
+      <c r="B1" s="453" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="411"/>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
-      <c r="N1" s="411"/>
-      <c r="O1" s="411"/>
-      <c r="P1" s="411"/>
-      <c r="Q1" s="412"/>
-      <c r="R1" s="401" t="s">
+      <c r="C1" s="454"/>
+      <c r="D1" s="454"/>
+      <c r="E1" s="454"/>
+      <c r="F1" s="454"/>
+      <c r="G1" s="454"/>
+      <c r="H1" s="454"/>
+      <c r="I1" s="454"/>
+      <c r="J1" s="454"/>
+      <c r="K1" s="454"/>
+      <c r="L1" s="454"/>
+      <c r="M1" s="454"/>
+      <c r="N1" s="454"/>
+      <c r="O1" s="454"/>
+      <c r="P1" s="454"/>
+      <c r="Q1" s="455"/>
+      <c r="R1" s="444" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="402"/>
-      <c r="T1" s="402"/>
-      <c r="U1" s="402"/>
-      <c r="V1" s="402"/>
-      <c r="W1" s="402"/>
-      <c r="X1" s="402"/>
-      <c r="Y1" s="402"/>
-      <c r="Z1" s="402"/>
-      <c r="AA1" s="402"/>
-      <c r="AB1" s="402"/>
-      <c r="AC1" s="402"/>
-      <c r="AD1" s="402"/>
-      <c r="AE1" s="402"/>
-      <c r="AF1" s="402"/>
-      <c r="AG1" s="402"/>
-      <c r="AH1" s="402"/>
-      <c r="AI1" s="402"/>
-      <c r="AJ1" s="402"/>
-      <c r="AK1" s="402"/>
-      <c r="AL1" s="402"/>
-      <c r="AM1" s="403"/>
-      <c r="AN1" s="401" t="s">
+      <c r="S1" s="445"/>
+      <c r="T1" s="445"/>
+      <c r="U1" s="445"/>
+      <c r="V1" s="445"/>
+      <c r="W1" s="445"/>
+      <c r="X1" s="445"/>
+      <c r="Y1" s="445"/>
+      <c r="Z1" s="445"/>
+      <c r="AA1" s="445"/>
+      <c r="AB1" s="445"/>
+      <c r="AC1" s="445"/>
+      <c r="AD1" s="445"/>
+      <c r="AE1" s="445"/>
+      <c r="AF1" s="445"/>
+      <c r="AG1" s="445"/>
+      <c r="AH1" s="445"/>
+      <c r="AI1" s="445"/>
+      <c r="AJ1" s="445"/>
+      <c r="AK1" s="445"/>
+      <c r="AL1" s="445"/>
+      <c r="AM1" s="446"/>
+      <c r="AN1" s="444" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="402"/>
-      <c r="AP1" s="402"/>
-      <c r="AQ1" s="402"/>
-      <c r="AR1" s="402"/>
-      <c r="AS1" s="402"/>
-      <c r="AT1" s="402"/>
-      <c r="AU1" s="402"/>
-      <c r="AV1" s="402"/>
-      <c r="AW1" s="402"/>
-      <c r="AX1" s="402"/>
-      <c r="AY1" s="402"/>
-      <c r="AZ1" s="402"/>
-      <c r="BA1" s="402"/>
-      <c r="BB1" s="402"/>
-      <c r="BC1" s="402"/>
-      <c r="BD1" s="402"/>
-      <c r="BE1" s="402"/>
-      <c r="BF1" s="402"/>
-      <c r="BG1" s="402"/>
-      <c r="BH1" s="402"/>
-      <c r="BI1" s="402"/>
-      <c r="BJ1" s="403"/>
-      <c r="BK1" s="401" t="s">
+      <c r="AO1" s="445"/>
+      <c r="AP1" s="445"/>
+      <c r="AQ1" s="445"/>
+      <c r="AR1" s="445"/>
+      <c r="AS1" s="445"/>
+      <c r="AT1" s="445"/>
+      <c r="AU1" s="445"/>
+      <c r="AV1" s="445"/>
+      <c r="AW1" s="445"/>
+      <c r="AX1" s="445"/>
+      <c r="AY1" s="445"/>
+      <c r="AZ1" s="445"/>
+      <c r="BA1" s="445"/>
+      <c r="BB1" s="445"/>
+      <c r="BC1" s="445"/>
+      <c r="BD1" s="445"/>
+      <c r="BE1" s="445"/>
+      <c r="BF1" s="445"/>
+      <c r="BG1" s="445"/>
+      <c r="BH1" s="445"/>
+      <c r="BI1" s="445"/>
+      <c r="BJ1" s="446"/>
+      <c r="BK1" s="444" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="402"/>
-      <c r="BM1" s="402"/>
-      <c r="BN1" s="402"/>
-      <c r="BO1" s="402"/>
-      <c r="BP1" s="402"/>
-      <c r="BQ1" s="402"/>
-      <c r="BR1" s="402"/>
-      <c r="BS1" s="402"/>
-      <c r="BT1" s="402"/>
-      <c r="BU1" s="402"/>
-      <c r="BV1" s="402"/>
-      <c r="BW1" s="402"/>
-      <c r="BX1" s="402"/>
-      <c r="BY1" s="402"/>
-      <c r="BZ1" s="402"/>
-      <c r="CA1" s="402"/>
-      <c r="CB1" s="402"/>
-      <c r="CC1" s="402"/>
-      <c r="CD1" s="402"/>
-      <c r="CE1" s="402"/>
-      <c r="CF1" s="402"/>
-      <c r="CG1" s="403"/>
-      <c r="CH1" s="401" t="s">
+      <c r="BL1" s="445"/>
+      <c r="BM1" s="445"/>
+      <c r="BN1" s="445"/>
+      <c r="BO1" s="445"/>
+      <c r="BP1" s="445"/>
+      <c r="BQ1" s="445"/>
+      <c r="BR1" s="445"/>
+      <c r="BS1" s="445"/>
+      <c r="BT1" s="445"/>
+      <c r="BU1" s="445"/>
+      <c r="BV1" s="445"/>
+      <c r="BW1" s="445"/>
+      <c r="BX1" s="445"/>
+      <c r="BY1" s="445"/>
+      <c r="BZ1" s="445"/>
+      <c r="CA1" s="445"/>
+      <c r="CB1" s="445"/>
+      <c r="CC1" s="445"/>
+      <c r="CD1" s="445"/>
+      <c r="CE1" s="445"/>
+      <c r="CF1" s="445"/>
+      <c r="CG1" s="446"/>
+      <c r="CH1" s="444" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="402"/>
-      <c r="CJ1" s="402"/>
-      <c r="CK1" s="402"/>
-      <c r="CL1" s="402"/>
-      <c r="CM1" s="402"/>
-      <c r="CN1" s="402"/>
-      <c r="CO1" s="402"/>
-      <c r="CP1" s="402"/>
-      <c r="CQ1" s="403"/>
-      <c r="CR1" s="413" t="s">
+      <c r="CI1" s="445"/>
+      <c r="CJ1" s="445"/>
+      <c r="CK1" s="445"/>
+      <c r="CL1" s="445"/>
+      <c r="CM1" s="445"/>
+      <c r="CN1" s="445"/>
+      <c r="CO1" s="445"/>
+      <c r="CP1" s="445"/>
+      <c r="CQ1" s="446"/>
+      <c r="CR1" s="456" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="414"/>
-      <c r="CT1" s="414"/>
-      <c r="CU1" s="414"/>
-      <c r="CV1" s="414"/>
-      <c r="CW1" s="414"/>
-      <c r="CX1" s="414"/>
-      <c r="CY1" s="415"/>
+      <c r="CS1" s="457"/>
+      <c r="CT1" s="457"/>
+      <c r="CU1" s="457"/>
+      <c r="CV1" s="457"/>
+      <c r="CW1" s="457"/>
+      <c r="CX1" s="457"/>
+      <c r="CY1" s="458"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27304,11 +27314,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="416" t="s">
+      <c r="AY47" s="459" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="417"/>
-      <c r="BA47" s="418"/>
+      <c r="AZ47" s="460"/>
+      <c r="BA47" s="461"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27701,11 +27711,11 @@
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="407" t="s">
+      <c r="BU60" s="450" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="408"/>
-      <c r="BW60" s="409"/>
+      <c r="BV60" s="451"/>
+      <c r="BW60" s="452"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -28092,7 +28102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -28180,120 +28190,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="410" t="s">
+      <c r="B1" s="453" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="411"/>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
-      <c r="N1" s="411"/>
-      <c r="O1" s="411"/>
-      <c r="P1" s="411"/>
-      <c r="Q1" s="412"/>
-      <c r="R1" s="401" t="s">
+      <c r="C1" s="454"/>
+      <c r="D1" s="454"/>
+      <c r="E1" s="454"/>
+      <c r="F1" s="454"/>
+      <c r="G1" s="454"/>
+      <c r="H1" s="454"/>
+      <c r="I1" s="454"/>
+      <c r="J1" s="454"/>
+      <c r="K1" s="454"/>
+      <c r="L1" s="454"/>
+      <c r="M1" s="454"/>
+      <c r="N1" s="454"/>
+      <c r="O1" s="454"/>
+      <c r="P1" s="454"/>
+      <c r="Q1" s="455"/>
+      <c r="R1" s="444" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="402"/>
-      <c r="T1" s="402"/>
-      <c r="U1" s="402"/>
-      <c r="V1" s="402"/>
-      <c r="W1" s="402"/>
-      <c r="X1" s="402"/>
-      <c r="Y1" s="402"/>
-      <c r="Z1" s="402"/>
-      <c r="AA1" s="402"/>
-      <c r="AB1" s="402"/>
-      <c r="AC1" s="402"/>
-      <c r="AD1" s="402"/>
-      <c r="AE1" s="402"/>
-      <c r="AF1" s="402"/>
-      <c r="AG1" s="402"/>
-      <c r="AH1" s="402"/>
-      <c r="AI1" s="402"/>
-      <c r="AJ1" s="402"/>
-      <c r="AK1" s="402"/>
-      <c r="AL1" s="402"/>
-      <c r="AM1" s="403"/>
-      <c r="AN1" s="401" t="s">
+      <c r="S1" s="445"/>
+      <c r="T1" s="445"/>
+      <c r="U1" s="445"/>
+      <c r="V1" s="445"/>
+      <c r="W1" s="445"/>
+      <c r="X1" s="445"/>
+      <c r="Y1" s="445"/>
+      <c r="Z1" s="445"/>
+      <c r="AA1" s="445"/>
+      <c r="AB1" s="445"/>
+      <c r="AC1" s="445"/>
+      <c r="AD1" s="445"/>
+      <c r="AE1" s="445"/>
+      <c r="AF1" s="445"/>
+      <c r="AG1" s="445"/>
+      <c r="AH1" s="445"/>
+      <c r="AI1" s="445"/>
+      <c r="AJ1" s="445"/>
+      <c r="AK1" s="445"/>
+      <c r="AL1" s="445"/>
+      <c r="AM1" s="446"/>
+      <c r="AN1" s="444" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="402"/>
-      <c r="AP1" s="402"/>
-      <c r="AQ1" s="402"/>
-      <c r="AR1" s="402"/>
-      <c r="AS1" s="402"/>
-      <c r="AT1" s="402"/>
-      <c r="AU1" s="402"/>
-      <c r="AV1" s="402"/>
-      <c r="AW1" s="402"/>
-      <c r="AX1" s="402"/>
-      <c r="AY1" s="402"/>
-      <c r="AZ1" s="402"/>
-      <c r="BA1" s="402"/>
-      <c r="BB1" s="402"/>
-      <c r="BC1" s="402"/>
-      <c r="BD1" s="402"/>
-      <c r="BE1" s="402"/>
-      <c r="BF1" s="402"/>
-      <c r="BG1" s="402"/>
-      <c r="BH1" s="402"/>
-      <c r="BI1" s="402"/>
-      <c r="BJ1" s="403"/>
-      <c r="BK1" s="401" t="s">
+      <c r="AO1" s="445"/>
+      <c r="AP1" s="445"/>
+      <c r="AQ1" s="445"/>
+      <c r="AR1" s="445"/>
+      <c r="AS1" s="445"/>
+      <c r="AT1" s="445"/>
+      <c r="AU1" s="445"/>
+      <c r="AV1" s="445"/>
+      <c r="AW1" s="445"/>
+      <c r="AX1" s="445"/>
+      <c r="AY1" s="445"/>
+      <c r="AZ1" s="445"/>
+      <c r="BA1" s="445"/>
+      <c r="BB1" s="445"/>
+      <c r="BC1" s="445"/>
+      <c r="BD1" s="445"/>
+      <c r="BE1" s="445"/>
+      <c r="BF1" s="445"/>
+      <c r="BG1" s="445"/>
+      <c r="BH1" s="445"/>
+      <c r="BI1" s="445"/>
+      <c r="BJ1" s="446"/>
+      <c r="BK1" s="444" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="402"/>
-      <c r="BM1" s="402"/>
-      <c r="BN1" s="402"/>
-      <c r="BO1" s="402"/>
-      <c r="BP1" s="402"/>
-      <c r="BQ1" s="402"/>
-      <c r="BR1" s="402"/>
-      <c r="BS1" s="402"/>
-      <c r="BT1" s="402"/>
-      <c r="BU1" s="402"/>
-      <c r="BV1" s="402"/>
-      <c r="BW1" s="402"/>
-      <c r="BX1" s="402"/>
-      <c r="BY1" s="402"/>
-      <c r="BZ1" s="402"/>
-      <c r="CA1" s="402"/>
-      <c r="CB1" s="402"/>
-      <c r="CC1" s="402"/>
-      <c r="CD1" s="402"/>
-      <c r="CE1" s="402"/>
-      <c r="CF1" s="402"/>
-      <c r="CG1" s="403"/>
-      <c r="CH1" s="401" t="s">
+      <c r="BL1" s="445"/>
+      <c r="BM1" s="445"/>
+      <c r="BN1" s="445"/>
+      <c r="BO1" s="445"/>
+      <c r="BP1" s="445"/>
+      <c r="BQ1" s="445"/>
+      <c r="BR1" s="445"/>
+      <c r="BS1" s="445"/>
+      <c r="BT1" s="445"/>
+      <c r="BU1" s="445"/>
+      <c r="BV1" s="445"/>
+      <c r="BW1" s="445"/>
+      <c r="BX1" s="445"/>
+      <c r="BY1" s="445"/>
+      <c r="BZ1" s="445"/>
+      <c r="CA1" s="445"/>
+      <c r="CB1" s="445"/>
+      <c r="CC1" s="445"/>
+      <c r="CD1" s="445"/>
+      <c r="CE1" s="445"/>
+      <c r="CF1" s="445"/>
+      <c r="CG1" s="446"/>
+      <c r="CH1" s="444" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="402"/>
-      <c r="CJ1" s="402"/>
-      <c r="CK1" s="402"/>
-      <c r="CL1" s="402"/>
-      <c r="CM1" s="402"/>
-      <c r="CN1" s="402"/>
-      <c r="CO1" s="402"/>
-      <c r="CP1" s="402"/>
-      <c r="CQ1" s="403"/>
-      <c r="CR1" s="413" t="s">
+      <c r="CI1" s="445"/>
+      <c r="CJ1" s="445"/>
+      <c r="CK1" s="445"/>
+      <c r="CL1" s="445"/>
+      <c r="CM1" s="445"/>
+      <c r="CN1" s="445"/>
+      <c r="CO1" s="445"/>
+      <c r="CP1" s="445"/>
+      <c r="CQ1" s="446"/>
+      <c r="CR1" s="456" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="414"/>
-      <c r="CT1" s="414"/>
-      <c r="CU1" s="414"/>
-      <c r="CV1" s="414"/>
-      <c r="CW1" s="414"/>
-      <c r="CX1" s="414"/>
-      <c r="CY1" s="415"/>
+      <c r="CS1" s="457"/>
+      <c r="CT1" s="457"/>
+      <c r="CU1" s="457"/>
+      <c r="CV1" s="457"/>
+      <c r="CW1" s="457"/>
+      <c r="CX1" s="457"/>
+      <c r="CY1" s="458"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30881,11 +30891,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="416" t="s">
+      <c r="AY47" s="459" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="417"/>
-      <c r="BA47" s="418"/>
+      <c r="AZ47" s="460"/>
+      <c r="BA47" s="461"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -31534,11 +31544,11 @@
       <c r="BK60" s="145"/>
       <c r="BN60" s="321"/>
       <c r="BS60" s="302"/>
-      <c r="BU60" s="407" t="s">
+      <c r="BU60" s="450" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="408"/>
-      <c r="BW60" s="409"/>
+      <c r="BV60" s="451"/>
+      <c r="BW60" s="452"/>
       <c r="BX60" s="302"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -32123,7 +32133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CY69"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
@@ -34592,1007 +34602,1017 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="467"/>
-    <col min="2" max="2" width="5.85546875" style="467" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="467" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="467" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="467" customWidth="1"/>
-    <col min="6" max="7" width="19.42578125" style="467" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="467" customWidth="1"/>
-    <col min="9" max="16384" width="5.5703125" style="467"/>
+    <col min="1" max="1" width="5.5703125" style="435"/>
+    <col min="2" max="2" width="5.85546875" style="435" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="435" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="435" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="435" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" style="435" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="435" customWidth="1"/>
+    <col min="9" max="16384" width="5.5703125" style="435"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="421" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="419"/>
-      <c r="B1" s="420" t="s">
+    <row r="1" spans="1:16" s="398" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="396"/>
+      <c r="B1" s="397" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="421" t="s">
+      <c r="C1" s="398" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="421" t="s">
+      <c r="D1" s="398" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="421" t="s">
+      <c r="E1" s="398" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="422" t="s">
+      <c r="F1" s="399" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="422" t="s">
+      <c r="G1" s="399" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="421" t="s">
+      <c r="H1" s="398" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="469"/>
-    </row>
-    <row r="2" spans="1:16" s="426" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="423" t="s">
+      <c r="I1" s="437"/>
+    </row>
+    <row r="2" spans="1:16" s="402" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="465" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="424">
+      <c r="B2" s="400">
         <v>43670</v>
       </c>
-      <c r="C2" s="425" t="s">
+      <c r="C2" s="401" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="427"/>
-      <c r="B3" s="428">
+    <row r="3" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="466"/>
+      <c r="B3" s="403">
         <v>43671</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="432" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="427"/>
-      <c r="B4" s="430">
+    <row r="4" spans="1:16" s="407" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="466"/>
+      <c r="B4" s="405">
         <v>43672</v>
       </c>
-      <c r="C4" s="431" t="s">
+      <c r="C4" s="406" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="432" t="s">
+      <c r="D4" s="407" t="s">
         <v>214</v>
       </c>
-      <c r="P4" s="433"/>
-    </row>
-    <row r="5" spans="1:16" s="436" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="427"/>
-      <c r="B5" s="434">
+      <c r="P4" s="408"/>
+    </row>
+    <row r="5" spans="1:16" s="411" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="466"/>
+      <c r="B5" s="409">
         <v>43675</v>
       </c>
-      <c r="C5" s="435" t="s">
+      <c r="C5" s="410" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="436" t="s">
+      <c r="D5" s="411" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="468" t="s">
+      <c r="E5" s="436" t="s">
         <v>212</v>
       </c>
-      <c r="F5" s="436" t="s">
+      <c r="F5" s="411" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="436" t="s">
+      <c r="G5" s="411" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="427"/>
-      <c r="B6" s="434">
+    <row r="6" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="466"/>
+      <c r="B6" s="409">
         <v>43676</v>
       </c>
-      <c r="C6" s="436" t="s">
+      <c r="C6" s="411" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="436" t="s">
+      <c r="D6" s="411" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="436" t="s">
+      <c r="F6" s="411" t="s">
         <v>204</v>
       </c>
-      <c r="G6" s="436" t="s">
+      <c r="G6" s="411" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="436" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="427"/>
-      <c r="B7" s="434">
+    <row r="7" spans="1:16" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="466"/>
+      <c r="B7" s="409">
         <v>43677</v>
       </c>
-      <c r="C7" s="435" t="s">
+      <c r="C7" s="410" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="435" t="s">
+      <c r="D7" s="410" t="s">
         <v>213</v>
       </c>
-      <c r="E7" s="435" t="s">
+      <c r="E7" s="410" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="436" t="s">
+      <c r="F7" s="411" t="s">
         <v>208</v>
       </c>
-      <c r="G7" s="436" t="s">
+      <c r="G7" s="411" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="470" t="s">
+      <c r="H7" s="438" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="427"/>
-      <c r="B8" s="428">
+    <row r="8" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="466"/>
+      <c r="B8" s="403">
         <v>43678</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="436" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="427"/>
-      <c r="B9" s="434">
+    <row r="9" spans="1:16" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="466"/>
+      <c r="B9" s="409">
         <v>43679</v>
       </c>
-      <c r="C9" s="435" t="s">
+      <c r="C9" s="410" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="435" t="s">
+      <c r="D9" s="410" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="435" t="s">
+      <c r="E9" s="410" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="468"/>
-    </row>
-    <row r="10" spans="1:16" s="432" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="427"/>
-      <c r="B10" s="430">
+      <c r="F9" s="436"/>
+    </row>
+    <row r="10" spans="1:16" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="466"/>
+      <c r="B10" s="405">
         <v>43682</v>
       </c>
-      <c r="C10" s="431" t="s">
+      <c r="C10" s="406" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="431" t="s">
+      <c r="D10" s="406" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="432" t="s">
+      <c r="E10" s="407" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="427"/>
-      <c r="B11" s="430">
+    <row r="11" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="466"/>
+      <c r="B11" s="405">
         <v>43683</v>
       </c>
-      <c r="C11" s="432" t="s">
+      <c r="C11" s="407" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="432" t="s">
+      <c r="D11" s="407" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="427"/>
-      <c r="B12" s="430">
+      <c r="F11" s="407" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="407" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="466"/>
+      <c r="B12" s="405">
         <v>43684</v>
       </c>
-      <c r="C12" s="432" t="s">
+      <c r="C12" s="407" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="432" t="s">
+      <c r="D12" s="407" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="427"/>
-      <c r="B13" s="428">
+      <c r="H12" s="471" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="466"/>
+      <c r="B13" s="403">
         <v>43685</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="427"/>
-      <c r="B14" s="430">
+    <row r="14" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="466"/>
+      <c r="B14" s="405">
         <v>43686</v>
       </c>
-      <c r="C14" s="432" t="s">
+      <c r="C14" s="407" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="432" t="s">
+      <c r="D14" s="471" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="427"/>
-      <c r="B15" s="434">
+    <row r="15" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="466"/>
+      <c r="B15" s="409">
         <v>43689</v>
       </c>
-      <c r="C15" s="436" t="s">
+      <c r="C15" s="411" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="436" t="s">
+      <c r="E15" s="411" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="427"/>
-      <c r="B16" s="434">
+    <row r="16" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="466"/>
+      <c r="B16" s="409">
         <v>43690</v>
       </c>
-      <c r="C16" s="436" t="s">
+      <c r="C16" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="427"/>
-      <c r="B17" s="434">
+    <row r="17" spans="1:5" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="466"/>
+      <c r="B17" s="409">
         <v>43691</v>
       </c>
-      <c r="C17" s="436" t="s">
+      <c r="C17" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="427"/>
-      <c r="B18" s="428">
+    <row r="18" spans="1:5" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="466"/>
+      <c r="B18" s="403">
         <v>43692</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="439" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="437"/>
-      <c r="B19" s="438">
+    <row r="19" spans="1:5" s="413" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="467"/>
+      <c r="B19" s="412">
         <v>43693</v>
       </c>
-      <c r="C19" s="436" t="s">
+      <c r="C19" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="426" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="440" t="s">
+    <row r="20" spans="1:5" s="402" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="462" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="441">
+      <c r="B20" s="414">
         <v>43696</v>
       </c>
-      <c r="C20" s="425" t="s">
+      <c r="C20" s="401" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="442" t="s">
+      <c r="D20" s="415" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="432" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="443"/>
-      <c r="B21" s="444">
+    <row r="21" spans="1:5" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="463"/>
+      <c r="B21" s="416">
         <v>43697</v>
       </c>
-      <c r="C21" s="445" t="s">
+      <c r="C21" s="417" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="431" t="s">
+      <c r="D21" s="406" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="446"/>
-    </row>
-    <row r="22" spans="1:5" s="432" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="443"/>
-      <c r="B22" s="444">
+      <c r="E21" s="418"/>
+    </row>
+    <row r="22" spans="1:5" s="407" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="463"/>
+      <c r="B22" s="416">
         <v>43698</v>
       </c>
-      <c r="C22" s="432" t="s">
+      <c r="C22" s="407" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="447" t="s">
+      <c r="D22" s="419" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="443"/>
-      <c r="B23" s="448">
+    <row r="23" spans="1:5" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="463"/>
+      <c r="B23" s="420">
         <v>43699</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="443"/>
-      <c r="B24" s="444">
+    <row r="24" spans="1:5" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="463"/>
+      <c r="B24" s="416">
         <v>43700</v>
       </c>
-      <c r="D24" s="432" t="s">
+      <c r="D24" s="407" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="436" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="443"/>
-      <c r="B25" s="449">
+    <row r="25" spans="1:5" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="463"/>
+      <c r="B25" s="421">
         <v>43703</v>
       </c>
-      <c r="C25" s="435" t="s">
+      <c r="C25" s="410" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="435" t="s">
+      <c r="D25" s="410" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="436" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="443"/>
-      <c r="B26" s="449">
+    <row r="26" spans="1:5" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="463"/>
+      <c r="B26" s="421">
         <v>43704</v>
       </c>
-      <c r="C26" s="435" t="s">
+      <c r="C26" s="410" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="435" t="s">
+      <c r="D26" s="410" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="436" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="443"/>
-      <c r="B27" s="449">
+    <row r="27" spans="1:5" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="463"/>
+      <c r="B27" s="421">
         <v>43705</v>
       </c>
-      <c r="C27" s="436" t="s">
+      <c r="C27" s="411" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="435" t="s">
+      <c r="D27" s="410" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="443"/>
-      <c r="B28" s="448">
+    <row r="28" spans="1:5" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="463"/>
+      <c r="B28" s="420">
         <v>43706</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="443"/>
-      <c r="B29" s="449">
+    <row r="29" spans="1:5" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="463"/>
+      <c r="B29" s="421">
         <v>43707</v>
       </c>
-      <c r="D29" s="436" t="s">
+      <c r="D29" s="411" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="432" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="443"/>
-      <c r="B30" s="444">
+    <row r="30" spans="1:5" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="463"/>
+      <c r="B30" s="416">
         <v>43710</v>
       </c>
-      <c r="C30" s="431" t="s">
+      <c r="C30" s="406" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="443"/>
-      <c r="B31" s="444">
+    <row r="31" spans="1:5" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="463"/>
+      <c r="B31" s="416">
         <v>43711</v>
       </c>
-      <c r="D31" s="432" t="s">
+      <c r="D31" s="407" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="443"/>
-      <c r="B32" s="444">
+    <row r="32" spans="1:5" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="463"/>
+      <c r="B32" s="416">
         <v>43712</v>
       </c>
-      <c r="C32" s="432" t="s">
+      <c r="C32" s="407" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="432" t="s">
+      <c r="D32" s="407" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="443"/>
-      <c r="B33" s="448">
+    <row r="33" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="463"/>
+      <c r="B33" s="420">
         <v>43713</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="443"/>
-      <c r="B34" s="444">
+    <row r="34" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="463"/>
+      <c r="B34" s="416">
         <v>43714</v>
       </c>
-      <c r="C34" s="432" t="s">
+      <c r="C34" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="443"/>
-      <c r="B35" s="449">
+    <row r="35" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="463"/>
+      <c r="B35" s="421">
         <v>43717</v>
       </c>
-      <c r="C35" s="436" t="s">
+      <c r="C35" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="443"/>
-      <c r="B36" s="449">
+    <row r="36" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="463"/>
+      <c r="B36" s="421">
         <v>43718</v>
       </c>
-      <c r="C36" s="436" t="s">
+      <c r="C36" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="443"/>
-      <c r="B37" s="449">
+    <row r="37" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="463"/>
+      <c r="B37" s="421">
         <v>43719</v>
       </c>
-      <c r="C37" s="436" t="s">
+      <c r="C37" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="443"/>
-      <c r="B38" s="448">
+    <row r="38" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="463"/>
+      <c r="B38" s="420">
         <v>43720</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="443"/>
-      <c r="B39" s="449">
+    <row r="39" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="463"/>
+      <c r="B39" s="421">
         <v>43721</v>
       </c>
-      <c r="C39" s="436" t="s">
+      <c r="C39" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="443"/>
-      <c r="B40" s="444">
+    <row r="40" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="463"/>
+      <c r="B40" s="416">
         <v>43724</v>
       </c>
-      <c r="C40" s="432" t="s">
+      <c r="C40" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="443"/>
-      <c r="B41" s="444">
+    <row r="41" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="463"/>
+      <c r="B41" s="416">
         <v>43725</v>
       </c>
-      <c r="C41" s="432" t="s">
+      <c r="C41" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="443"/>
-      <c r="B42" s="444">
+    <row r="42" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="463"/>
+      <c r="B42" s="416">
         <v>43726</v>
       </c>
-      <c r="C42" s="432" t="s">
+      <c r="C42" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="443"/>
-      <c r="B43" s="448">
+    <row r="43" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="463"/>
+      <c r="B43" s="420">
         <v>43727</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="452" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="450"/>
-      <c r="B44" s="451">
+    <row r="44" spans="1:4" s="423" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="464"/>
+      <c r="B44" s="422">
         <v>43728</v>
       </c>
-      <c r="C44" s="452" t="s">
+      <c r="C44" s="423" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="456" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="453" t="s">
+    <row r="45" spans="1:4" s="426" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="468" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="454">
+      <c r="B45" s="424">
         <v>43731</v>
       </c>
-      <c r="C45" s="455" t="s">
+      <c r="C45" s="425" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="436" t="s">
+      <c r="D45" s="411" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="457"/>
-      <c r="B46" s="458">
+    <row r="46" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="469"/>
+      <c r="B46" s="427">
         <v>43732</v>
       </c>
-      <c r="C46" s="436" t="s">
+      <c r="C46" s="411" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="436" t="s">
+      <c r="D46" s="411" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="436" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="457"/>
-      <c r="B47" s="458">
+    <row r="47" spans="1:4" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="469"/>
+      <c r="B47" s="427">
         <v>43733</v>
       </c>
-      <c r="C47" s="435" t="s">
+      <c r="C47" s="410" t="s">
         <v>175</v>
       </c>
-      <c r="D47" s="436" t="s">
+      <c r="D47" s="411" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="457"/>
-      <c r="B48" s="459">
+    <row r="48" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="469"/>
+      <c r="B48" s="428">
         <v>43734</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="436" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="457"/>
-      <c r="B49" s="458">
+    <row r="49" spans="1:3" s="411" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="469"/>
+      <c r="B49" s="427">
         <v>43735</v>
       </c>
-      <c r="C49" s="435" t="s">
+      <c r="C49" s="410" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="432" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="457"/>
-      <c r="B50" s="460">
+    <row r="50" spans="1:3" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="469"/>
+      <c r="B50" s="429">
         <v>43738</v>
       </c>
-      <c r="C50" s="431" t="s">
+      <c r="C50" s="406" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="432" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="457"/>
-      <c r="B51" s="460">
+    <row r="51" spans="1:3" s="407" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="469"/>
+      <c r="B51" s="429">
         <v>43739</v>
       </c>
-      <c r="C51" s="431" t="s">
+      <c r="C51" s="406" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="457"/>
-      <c r="B52" s="460">
+    <row r="52" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="469"/>
+      <c r="B52" s="429">
         <v>43740</v>
       </c>
-      <c r="C52" s="432" t="s">
+      <c r="C52" s="407" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="457"/>
-      <c r="B53" s="459">
+    <row r="53" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="469"/>
+      <c r="B53" s="428">
         <v>43741</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="432" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="457"/>
-      <c r="B54" s="460">
+    <row r="54" spans="1:3" s="407" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="469"/>
+      <c r="B54" s="429">
         <v>43742</v>
       </c>
-      <c r="C54" s="431" t="s">
+      <c r="C54" s="406" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="457"/>
-      <c r="B55" s="458">
+    <row r="55" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="469"/>
+      <c r="B55" s="427">
         <v>43745</v>
       </c>
-      <c r="C55" s="436" t="s">
+      <c r="C55" s="411" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="457"/>
-      <c r="B56" s="458">
+    <row r="56" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="469"/>
+      <c r="B56" s="427">
         <v>43746</v>
       </c>
-      <c r="C56" s="436" t="s">
+      <c r="C56" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="457"/>
-      <c r="B57" s="458">
+    <row r="57" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="469"/>
+      <c r="B57" s="427">
         <v>43747</v>
       </c>
-      <c r="C57" s="436" t="s">
+      <c r="C57" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="457"/>
-      <c r="B58" s="459">
+    <row r="58" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="469"/>
+      <c r="B58" s="428">
         <v>43748</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="457"/>
-      <c r="B59" s="458">
+    <row r="59" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="469"/>
+      <c r="B59" s="427">
         <v>43749</v>
       </c>
-      <c r="C59" s="436" t="s">
+      <c r="C59" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="457"/>
-      <c r="B60" s="460">
+    <row r="60" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="469"/>
+      <c r="B60" s="429">
         <v>43754</v>
       </c>
-      <c r="C60" s="432" t="s">
+      <c r="C60" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="457"/>
-      <c r="B61" s="459">
+    <row r="61" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="469"/>
+      <c r="B61" s="428">
         <v>43755</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="457"/>
-      <c r="B62" s="460">
+    <row r="62" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="469"/>
+      <c r="B62" s="429">
         <v>43756</v>
       </c>
-      <c r="C62" s="432" t="s">
+      <c r="C62" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="457"/>
-      <c r="B63" s="458">
+    <row r="63" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="469"/>
+      <c r="B63" s="427">
         <v>43759</v>
       </c>
-      <c r="C63" s="436" t="s">
+      <c r="C63" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="457"/>
-      <c r="B64" s="458">
+    <row r="64" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="469"/>
+      <c r="B64" s="427">
         <v>43760</v>
       </c>
-      <c r="C64" s="436" t="s">
+      <c r="C64" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="457"/>
-      <c r="B65" s="458">
+    <row r="65" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="469"/>
+      <c r="B65" s="427">
         <v>43761</v>
       </c>
-      <c r="C65" s="436" t="s">
+      <c r="C65" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="463" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="461"/>
-      <c r="B66" s="462">
+    <row r="66" spans="1:4" s="431" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="470"/>
+      <c r="B66" s="430">
         <v>43762</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="456" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="453" t="s">
+    <row r="67" spans="1:4" s="426" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="468" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="454">
+      <c r="B67" s="424">
         <v>43763</v>
       </c>
-      <c r="C67" s="455" t="s">
+      <c r="C67" s="425" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="457"/>
-      <c r="B68" s="460">
+    <row r="68" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="469"/>
+      <c r="B68" s="429">
         <v>43766</v>
       </c>
-      <c r="C68" s="432" t="s">
+      <c r="C68" s="407" t="s">
         <v>183</v>
       </c>
-      <c r="D68" s="432" t="s">
+      <c r="D68" s="407" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="457"/>
-      <c r="B69" s="460">
+    <row r="69" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="469"/>
+      <c r="B69" s="429">
         <v>43767</v>
       </c>
-      <c r="C69" s="432" t="s">
+      <c r="C69" s="407" t="s">
         <v>188</v>
       </c>
-      <c r="D69" s="432" t="s">
+      <c r="D69" s="407" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="457"/>
-      <c r="B70" s="460">
+    <row r="70" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="469"/>
+      <c r="B70" s="429">
         <v>43768</v>
       </c>
-      <c r="C70" s="431" t="s">
+      <c r="C70" s="406" t="s">
         <v>185</v>
       </c>
-      <c r="D70" s="432" t="s">
+      <c r="D70" s="407" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="457"/>
-      <c r="B71" s="459">
+    <row r="71" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="469"/>
+      <c r="B71" s="428">
         <v>43769</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="457"/>
-      <c r="B72" s="460">
+    <row r="72" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="469"/>
+      <c r="B72" s="429">
         <v>43770</v>
       </c>
-      <c r="C72" s="432" t="s">
+      <c r="C72" s="407" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="457"/>
-      <c r="B73" s="458">
+    <row r="73" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="469"/>
+      <c r="B73" s="427">
         <v>43773</v>
       </c>
-      <c r="C73" s="436" t="s">
+      <c r="C73" s="411" t="s">
         <v>186</v>
       </c>
-      <c r="D73" s="436" t="s">
+      <c r="D73" s="411" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="457"/>
-      <c r="B74" s="458">
+    <row r="74" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="469"/>
+      <c r="B74" s="427">
         <v>43774</v>
       </c>
-      <c r="C74" s="436" t="s">
+      <c r="C74" s="411" t="s">
         <v>187</v>
       </c>
-      <c r="D74" s="436" t="s">
+      <c r="D74" s="411" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="457"/>
-      <c r="B75" s="458">
+    <row r="75" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="469"/>
+      <c r="B75" s="427">
         <v>43775</v>
       </c>
-      <c r="C75" s="436" t="s">
+      <c r="C75" s="411" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="457"/>
-      <c r="B76" s="459">
+    <row r="76" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="469"/>
+      <c r="B76" s="428">
         <v>43776</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="457"/>
-      <c r="B77" s="458">
+    <row r="77" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="469"/>
+      <c r="B77" s="427">
         <v>43777</v>
       </c>
-      <c r="C77" s="436" t="s">
+      <c r="C77" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="457"/>
-      <c r="B78" s="460">
+    <row r="78" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="469"/>
+      <c r="B78" s="429">
         <v>43780</v>
       </c>
-      <c r="C78" s="432" t="s">
+      <c r="C78" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="457"/>
-      <c r="B79" s="460">
+    <row r="79" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="469"/>
+      <c r="B79" s="429">
         <v>43781</v>
       </c>
-      <c r="C79" s="432" t="s">
+      <c r="C79" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="457"/>
-      <c r="B80" s="460">
+    <row r="80" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="469"/>
+      <c r="B80" s="429">
         <v>43782</v>
       </c>
-      <c r="C80" s="432" t="s">
+      <c r="C80" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="457"/>
-      <c r="B81" s="459">
+    <row r="81" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="469"/>
+      <c r="B81" s="428">
         <v>43783</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="457"/>
-      <c r="B82" s="458">
+    <row r="82" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="469"/>
+      <c r="B82" s="427">
         <v>43787</v>
       </c>
-      <c r="C82" s="436" t="s">
+      <c r="C82" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="457"/>
-      <c r="B83" s="458">
+    <row r="83" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="469"/>
+      <c r="B83" s="427">
         <v>43788</v>
       </c>
-      <c r="C83" s="436" t="s">
+      <c r="C83" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="457"/>
-      <c r="B84" s="459">
+    <row r="84" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="469"/>
+      <c r="B84" s="428">
         <v>43790</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="457"/>
-      <c r="B85" s="458">
+    <row r="85" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="469"/>
+      <c r="B85" s="427">
         <v>43791</v>
       </c>
-      <c r="C85" s="436" t="s">
+      <c r="C85" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="457"/>
-      <c r="B86" s="460">
+    <row r="86" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="469"/>
+      <c r="B86" s="429">
         <v>43794</v>
       </c>
-      <c r="C86" s="432" t="s">
+      <c r="C86" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="457"/>
-      <c r="B87" s="460">
+    <row r="87" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="469"/>
+      <c r="B87" s="429">
         <v>43795</v>
       </c>
-      <c r="C87" s="432" t="s">
+      <c r="C87" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="457"/>
-      <c r="B88" s="460">
+    <row r="88" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="469"/>
+      <c r="B88" s="429">
         <v>43796</v>
       </c>
-      <c r="C88" s="432" t="s">
+      <c r="C88" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="463" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="461"/>
-      <c r="B89" s="462">
+    <row r="89" spans="1:3" s="431" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="470"/>
+      <c r="B89" s="430">
         <v>43797</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="426" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="440" t="s">
+    <row r="90" spans="1:3" s="402" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="462" t="s">
         <v>146</v>
       </c>
-      <c r="B90" s="464">
+      <c r="B90" s="432">
         <v>43798</v>
       </c>
-      <c r="C90" s="425" t="s">
+      <c r="C90" s="401" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="443"/>
-      <c r="B91" s="458">
+    <row r="91" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="463"/>
+      <c r="B91" s="427">
         <v>43801</v>
       </c>
-      <c r="C91" s="436" t="s">
+      <c r="C91" s="411" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="443"/>
-      <c r="B92" s="458">
+    <row r="92" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="463"/>
+      <c r="B92" s="427">
         <v>43802</v>
       </c>
-      <c r="C92" s="436" t="s">
+      <c r="C92" s="411" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="443"/>
-      <c r="B93" s="458">
+    <row r="93" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="463"/>
+      <c r="B93" s="427">
         <v>43803</v>
       </c>
-      <c r="C93" s="436" t="s">
+      <c r="C93" s="411" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="429" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="443"/>
-      <c r="B94" s="459">
+    <row r="94" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="463"/>
+      <c r="B94" s="428">
         <v>43804</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="443"/>
-      <c r="B95" s="458">
+    <row r="95" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="463"/>
+      <c r="B95" s="427">
         <v>43805</v>
       </c>
-      <c r="C95" s="436" t="s">
+      <c r="C95" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="443"/>
-      <c r="B96" s="460">
+    <row r="96" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="463"/>
+      <c r="B96" s="429">
         <v>43808</v>
       </c>
-      <c r="C96" s="432" t="s">
+      <c r="C96" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="443"/>
-      <c r="B97" s="460">
+    <row r="97" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="463"/>
+      <c r="B97" s="429">
         <v>43809</v>
       </c>
-      <c r="C97" s="432" t="s">
+      <c r="C97" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="443"/>
-      <c r="B98" s="460">
+    <row r="98" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="463"/>
+      <c r="B98" s="429">
         <v>43810</v>
       </c>
-      <c r="C98" s="432" t="s">
+      <c r="C98" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="463" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="450"/>
-      <c r="B99" s="462">
+    <row r="99" spans="1:3" s="431" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="464"/>
+      <c r="B99" s="430">
         <v>43811</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="465" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="466">
+    <row r="100" spans="1:3" s="433" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="434">
         <v>43812</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="449">
+    <row r="101" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="421">
         <v>43815</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="449">
+    <row r="102" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="421">
         <v>43816</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="436" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="449">
+    <row r="103" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="421">
         <v>43817</v>
       </c>
     </row>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai-dev-2s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EEBA96-901C-4B46-BFCC-DBE7083CA091}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="220">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1414,9 +1413,6 @@
     <t>Extra</t>
   </si>
   <si>
-    <t>Procedures</t>
-  </si>
-  <si>
     <t>Apresentação Semestre
 Apresentação BD
 Conceito Banco de Dados</t>
@@ -1677,11 +1673,20 @@
   <si>
     <t>Desafio Ssvolve</t>
   </si>
+  <si>
+    <t>Conteúdo-Adicional</t>
+  </si>
+  <si>
+    <t>Início - Projeto</t>
+  </si>
+  <si>
+    <t>Fim - Projeto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
@@ -3337,6 +3342,9 @@
     <xf numFmtId="0" fontId="11" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3432,9 +3440,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3754,7 +3759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3974,7 +3979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
     <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
@@ -4022,123 +4027,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="441" t="s">
+      <c r="B1" s="442" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
-      <c r="J1" s="442"/>
-      <c r="K1" s="442"/>
-      <c r="L1" s="442"/>
-      <c r="M1" s="442"/>
-      <c r="N1" s="442"/>
-      <c r="O1" s="442"/>
-      <c r="P1" s="442"/>
-      <c r="Q1" s="442"/>
-      <c r="R1" s="441" t="s">
+      <c r="C1" s="443"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="443"/>
+      <c r="F1" s="443"/>
+      <c r="G1" s="443"/>
+      <c r="H1" s="443"/>
+      <c r="I1" s="443"/>
+      <c r="J1" s="443"/>
+      <c r="K1" s="443"/>
+      <c r="L1" s="443"/>
+      <c r="M1" s="443"/>
+      <c r="N1" s="443"/>
+      <c r="O1" s="443"/>
+      <c r="P1" s="443"/>
+      <c r="Q1" s="443"/>
+      <c r="R1" s="442" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="442"/>
-      <c r="T1" s="442"/>
-      <c r="U1" s="442"/>
-      <c r="V1" s="442"/>
-      <c r="W1" s="442"/>
-      <c r="X1" s="442"/>
-      <c r="Y1" s="442"/>
-      <c r="Z1" s="442"/>
-      <c r="AA1" s="442"/>
-      <c r="AB1" s="442"/>
-      <c r="AC1" s="442"/>
-      <c r="AD1" s="442"/>
-      <c r="AE1" s="442"/>
-      <c r="AF1" s="442"/>
-      <c r="AG1" s="442"/>
-      <c r="AH1" s="442"/>
-      <c r="AI1" s="442"/>
-      <c r="AJ1" s="442"/>
-      <c r="AK1" s="442"/>
-      <c r="AL1" s="442"/>
-      <c r="AM1" s="443"/>
-      <c r="AN1" s="441" t="s">
+      <c r="S1" s="443"/>
+      <c r="T1" s="443"/>
+      <c r="U1" s="443"/>
+      <c r="V1" s="443"/>
+      <c r="W1" s="443"/>
+      <c r="X1" s="443"/>
+      <c r="Y1" s="443"/>
+      <c r="Z1" s="443"/>
+      <c r="AA1" s="443"/>
+      <c r="AB1" s="443"/>
+      <c r="AC1" s="443"/>
+      <c r="AD1" s="443"/>
+      <c r="AE1" s="443"/>
+      <c r="AF1" s="443"/>
+      <c r="AG1" s="443"/>
+      <c r="AH1" s="443"/>
+      <c r="AI1" s="443"/>
+      <c r="AJ1" s="443"/>
+      <c r="AK1" s="443"/>
+      <c r="AL1" s="443"/>
+      <c r="AM1" s="444"/>
+      <c r="AN1" s="442" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="442"/>
-      <c r="AP1" s="442"/>
-      <c r="AQ1" s="442"/>
-      <c r="AR1" s="442"/>
-      <c r="AS1" s="442"/>
-      <c r="AT1" s="443"/>
-      <c r="AU1" s="441" t="s">
+      <c r="AO1" s="443"/>
+      <c r="AP1" s="443"/>
+      <c r="AQ1" s="443"/>
+      <c r="AR1" s="443"/>
+      <c r="AS1" s="443"/>
+      <c r="AT1" s="444"/>
+      <c r="AU1" s="442" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="442"/>
-      <c r="AW1" s="442"/>
-      <c r="AX1" s="442"/>
-      <c r="AY1" s="442"/>
-      <c r="AZ1" s="442"/>
-      <c r="BA1" s="442"/>
-      <c r="BB1" s="442"/>
-      <c r="BC1" s="442"/>
-      <c r="BD1" s="442"/>
-      <c r="BE1" s="442"/>
-      <c r="BF1" s="442"/>
-      <c r="BG1" s="442"/>
-      <c r="BH1" s="442"/>
-      <c r="BI1" s="442"/>
-      <c r="BJ1" s="442"/>
-      <c r="BK1" s="442"/>
-      <c r="BL1" s="442"/>
-      <c r="BM1" s="442"/>
-      <c r="BN1" s="442"/>
-      <c r="BO1" s="442"/>
-      <c r="BP1" s="442"/>
-      <c r="BQ1" s="443"/>
-      <c r="BR1" s="441" t="s">
+      <c r="AV1" s="443"/>
+      <c r="AW1" s="443"/>
+      <c r="AX1" s="443"/>
+      <c r="AY1" s="443"/>
+      <c r="AZ1" s="443"/>
+      <c r="BA1" s="443"/>
+      <c r="BB1" s="443"/>
+      <c r="BC1" s="443"/>
+      <c r="BD1" s="443"/>
+      <c r="BE1" s="443"/>
+      <c r="BF1" s="443"/>
+      <c r="BG1" s="443"/>
+      <c r="BH1" s="443"/>
+      <c r="BI1" s="443"/>
+      <c r="BJ1" s="443"/>
+      <c r="BK1" s="443"/>
+      <c r="BL1" s="443"/>
+      <c r="BM1" s="443"/>
+      <c r="BN1" s="443"/>
+      <c r="BO1" s="443"/>
+      <c r="BP1" s="443"/>
+      <c r="BQ1" s="444"/>
+      <c r="BR1" s="442" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="442"/>
-      <c r="BT1" s="442"/>
-      <c r="BU1" s="442"/>
-      <c r="BV1" s="442"/>
-      <c r="BW1" s="442"/>
-      <c r="BX1" s="442"/>
-      <c r="BY1" s="442"/>
-      <c r="BZ1" s="442"/>
-      <c r="CA1" s="442"/>
-      <c r="CB1" s="442"/>
-      <c r="CC1" s="442"/>
-      <c r="CD1" s="442"/>
-      <c r="CE1" s="442"/>
-      <c r="CF1" s="442"/>
-      <c r="CG1" s="442"/>
-      <c r="CH1" s="442"/>
-      <c r="CI1" s="442"/>
-      <c r="CJ1" s="442"/>
-      <c r="CK1" s="443"/>
-      <c r="CL1" s="441" t="s">
+      <c r="BS1" s="443"/>
+      <c r="BT1" s="443"/>
+      <c r="BU1" s="443"/>
+      <c r="BV1" s="443"/>
+      <c r="BW1" s="443"/>
+      <c r="BX1" s="443"/>
+      <c r="BY1" s="443"/>
+      <c r="BZ1" s="443"/>
+      <c r="CA1" s="443"/>
+      <c r="CB1" s="443"/>
+      <c r="CC1" s="443"/>
+      <c r="CD1" s="443"/>
+      <c r="CE1" s="443"/>
+      <c r="CF1" s="443"/>
+      <c r="CG1" s="443"/>
+      <c r="CH1" s="443"/>
+      <c r="CI1" s="443"/>
+      <c r="CJ1" s="443"/>
+      <c r="CK1" s="444"/>
+      <c r="CL1" s="442" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="442"/>
-      <c r="CN1" s="442"/>
-      <c r="CO1" s="442"/>
-      <c r="CP1" s="442"/>
-      <c r="CQ1" s="442"/>
-      <c r="CR1" s="442"/>
-      <c r="CS1" s="442"/>
-      <c r="CT1" s="442"/>
-      <c r="CU1" s="442"/>
-      <c r="CV1" s="442"/>
-      <c r="CW1" s="442"/>
-      <c r="CX1" s="442"/>
-      <c r="CY1" s="442"/>
-      <c r="CZ1" s="442"/>
-      <c r="DA1" s="442"/>
-      <c r="DB1" s="442"/>
+      <c r="CM1" s="443"/>
+      <c r="CN1" s="443"/>
+      <c r="CO1" s="443"/>
+      <c r="CP1" s="443"/>
+      <c r="CQ1" s="443"/>
+      <c r="CR1" s="443"/>
+      <c r="CS1" s="443"/>
+      <c r="CT1" s="443"/>
+      <c r="CU1" s="443"/>
+      <c r="CV1" s="443"/>
+      <c r="CW1" s="443"/>
+      <c r="CX1" s="443"/>
+      <c r="CY1" s="443"/>
+      <c r="CZ1" s="443"/>
+      <c r="DA1" s="443"/>
+      <c r="DB1" s="443"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22765,15 +22770,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="439" t="s">
+      <c r="CW86" s="440" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="439"/>
-      <c r="CY86" s="439"/>
-      <c r="CZ86" s="439"/>
-      <c r="DA86" s="439"/>
-      <c r="DB86" s="439"/>
-      <c r="DC86" s="440"/>
+      <c r="CX86" s="440"/>
+      <c r="CY86" s="440"/>
+      <c r="CZ86" s="440"/>
+      <c r="DA86" s="440"/>
+      <c r="DB86" s="440"/>
+      <c r="DC86" s="441"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22791,7 +22796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23119,7 +23124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -23163,118 +23168,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="453" t="s">
+      <c r="B1" s="454" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="454"/>
-      <c r="H1" s="454"/>
-      <c r="I1" s="454"/>
-      <c r="J1" s="454"/>
-      <c r="K1" s="454"/>
-      <c r="L1" s="454"/>
-      <c r="M1" s="454"/>
-      <c r="N1" s="454"/>
-      <c r="O1" s="454"/>
-      <c r="P1" s="454"/>
-      <c r="Q1" s="455"/>
-      <c r="R1" s="444" t="s">
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="455"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="455"/>
+      <c r="K1" s="455"/>
+      <c r="L1" s="455"/>
+      <c r="M1" s="455"/>
+      <c r="N1" s="455"/>
+      <c r="O1" s="455"/>
+      <c r="P1" s="455"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="445" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="445"/>
-      <c r="T1" s="445"/>
-      <c r="U1" s="445"/>
-      <c r="V1" s="445"/>
-      <c r="W1" s="445"/>
-      <c r="X1" s="445"/>
-      <c r="Y1" s="445"/>
-      <c r="Z1" s="445"/>
-      <c r="AA1" s="445"/>
-      <c r="AB1" s="445"/>
-      <c r="AC1" s="445"/>
-      <c r="AD1" s="445"/>
-      <c r="AE1" s="445"/>
-      <c r="AF1" s="445"/>
-      <c r="AG1" s="445"/>
-      <c r="AH1" s="445"/>
-      <c r="AI1" s="445"/>
-      <c r="AJ1" s="445"/>
-      <c r="AK1" s="445"/>
-      <c r="AL1" s="446"/>
-      <c r="AM1" s="444" t="s">
+      <c r="S1" s="446"/>
+      <c r="T1" s="446"/>
+      <c r="U1" s="446"/>
+      <c r="V1" s="446"/>
+      <c r="W1" s="446"/>
+      <c r="X1" s="446"/>
+      <c r="Y1" s="446"/>
+      <c r="Z1" s="446"/>
+      <c r="AA1" s="446"/>
+      <c r="AB1" s="446"/>
+      <c r="AC1" s="446"/>
+      <c r="AD1" s="446"/>
+      <c r="AE1" s="446"/>
+      <c r="AF1" s="446"/>
+      <c r="AG1" s="446"/>
+      <c r="AH1" s="446"/>
+      <c r="AI1" s="446"/>
+      <c r="AJ1" s="446"/>
+      <c r="AK1" s="446"/>
+      <c r="AL1" s="447"/>
+      <c r="AM1" s="445" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="445"/>
-      <c r="AO1" s="445"/>
-      <c r="AP1" s="445"/>
-      <c r="AQ1" s="445"/>
-      <c r="AR1" s="445"/>
-      <c r="AS1" s="445"/>
-      <c r="AT1" s="445"/>
-      <c r="AU1" s="445"/>
-      <c r="AV1" s="445"/>
-      <c r="AW1" s="445"/>
-      <c r="AX1" s="445"/>
-      <c r="AY1" s="445"/>
-      <c r="AZ1" s="445"/>
-      <c r="BA1" s="445"/>
-      <c r="BB1" s="445"/>
-      <c r="BC1" s="445"/>
-      <c r="BD1" s="445"/>
-      <c r="BE1" s="445"/>
-      <c r="BF1" s="445"/>
-      <c r="BG1" s="445"/>
-      <c r="BH1" s="446"/>
-      <c r="BI1" s="444" t="s">
+      <c r="AN1" s="446"/>
+      <c r="AO1" s="446"/>
+      <c r="AP1" s="446"/>
+      <c r="AQ1" s="446"/>
+      <c r="AR1" s="446"/>
+      <c r="AS1" s="446"/>
+      <c r="AT1" s="446"/>
+      <c r="AU1" s="446"/>
+      <c r="AV1" s="446"/>
+      <c r="AW1" s="446"/>
+      <c r="AX1" s="446"/>
+      <c r="AY1" s="446"/>
+      <c r="AZ1" s="446"/>
+      <c r="BA1" s="446"/>
+      <c r="BB1" s="446"/>
+      <c r="BC1" s="446"/>
+      <c r="BD1" s="446"/>
+      <c r="BE1" s="446"/>
+      <c r="BF1" s="446"/>
+      <c r="BG1" s="446"/>
+      <c r="BH1" s="447"/>
+      <c r="BI1" s="445" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="445"/>
-      <c r="BK1" s="445"/>
-      <c r="BL1" s="445"/>
-      <c r="BM1" s="445"/>
-      <c r="BN1" s="445"/>
-      <c r="BO1" s="445"/>
-      <c r="BP1" s="445"/>
-      <c r="BQ1" s="445"/>
-      <c r="BR1" s="445"/>
-      <c r="BS1" s="445"/>
-      <c r="BT1" s="445"/>
-      <c r="BU1" s="445"/>
-      <c r="BV1" s="445"/>
-      <c r="BW1" s="445"/>
-      <c r="BX1" s="445"/>
-      <c r="BY1" s="445"/>
-      <c r="BZ1" s="445"/>
-      <c r="CA1" s="445"/>
-      <c r="CB1" s="445"/>
-      <c r="CC1" s="445"/>
-      <c r="CD1" s="446"/>
-      <c r="CE1" s="444" t="s">
+      <c r="BJ1" s="446"/>
+      <c r="BK1" s="446"/>
+      <c r="BL1" s="446"/>
+      <c r="BM1" s="446"/>
+      <c r="BN1" s="446"/>
+      <c r="BO1" s="446"/>
+      <c r="BP1" s="446"/>
+      <c r="BQ1" s="446"/>
+      <c r="BR1" s="446"/>
+      <c r="BS1" s="446"/>
+      <c r="BT1" s="446"/>
+      <c r="BU1" s="446"/>
+      <c r="BV1" s="446"/>
+      <c r="BW1" s="446"/>
+      <c r="BX1" s="446"/>
+      <c r="BY1" s="446"/>
+      <c r="BZ1" s="446"/>
+      <c r="CA1" s="446"/>
+      <c r="CB1" s="446"/>
+      <c r="CC1" s="446"/>
+      <c r="CD1" s="447"/>
+      <c r="CE1" s="445" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="445"/>
-      <c r="CG1" s="445"/>
-      <c r="CH1" s="445"/>
-      <c r="CI1" s="445"/>
-      <c r="CJ1" s="445"/>
-      <c r="CK1" s="445"/>
-      <c r="CL1" s="445"/>
-      <c r="CM1" s="446"/>
-      <c r="CN1" s="444" t="s">
+      <c r="CF1" s="446"/>
+      <c r="CG1" s="446"/>
+      <c r="CH1" s="446"/>
+      <c r="CI1" s="446"/>
+      <c r="CJ1" s="446"/>
+      <c r="CK1" s="446"/>
+      <c r="CL1" s="446"/>
+      <c r="CM1" s="447"/>
+      <c r="CN1" s="445" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="445"/>
-      <c r="CP1" s="445"/>
-      <c r="CQ1" s="445"/>
-      <c r="CR1" s="445"/>
-      <c r="CS1" s="445"/>
-      <c r="CT1" s="445"/>
-      <c r="CU1" s="445"/>
-      <c r="CV1" s="445"/>
-      <c r="CW1" s="446"/>
+      <c r="CO1" s="446"/>
+      <c r="CP1" s="446"/>
+      <c r="CQ1" s="446"/>
+      <c r="CR1" s="446"/>
+      <c r="CS1" s="446"/>
+      <c r="CT1" s="446"/>
+      <c r="CU1" s="446"/>
+      <c r="CV1" s="446"/>
+      <c r="CW1" s="447"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24721,11 +24726,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="447" t="s">
+      <c r="AX47" s="448" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="448"/>
-      <c r="AZ47" s="449"/>
+      <c r="AY47" s="449"/>
+      <c r="AZ47" s="450"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -25024,11 +25029,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="450" t="s">
+      <c r="BS60" s="451" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="451"/>
-      <c r="BU60" s="452"/>
+      <c r="BT60" s="452"/>
+      <c r="BU60" s="453"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -25327,7 +25332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -25392,120 +25397,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="453" t="s">
+      <c r="B1" s="454" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="454"/>
-      <c r="H1" s="454"/>
-      <c r="I1" s="454"/>
-      <c r="J1" s="454"/>
-      <c r="K1" s="454"/>
-      <c r="L1" s="454"/>
-      <c r="M1" s="454"/>
-      <c r="N1" s="454"/>
-      <c r="O1" s="454"/>
-      <c r="P1" s="454"/>
-      <c r="Q1" s="455"/>
-      <c r="R1" s="444" t="s">
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="455"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="455"/>
+      <c r="K1" s="455"/>
+      <c r="L1" s="455"/>
+      <c r="M1" s="455"/>
+      <c r="N1" s="455"/>
+      <c r="O1" s="455"/>
+      <c r="P1" s="455"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="445" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="445"/>
-      <c r="T1" s="445"/>
-      <c r="U1" s="445"/>
-      <c r="V1" s="445"/>
-      <c r="W1" s="445"/>
-      <c r="X1" s="445"/>
-      <c r="Y1" s="445"/>
-      <c r="Z1" s="445"/>
-      <c r="AA1" s="445"/>
-      <c r="AB1" s="445"/>
-      <c r="AC1" s="445"/>
-      <c r="AD1" s="445"/>
-      <c r="AE1" s="445"/>
-      <c r="AF1" s="445"/>
-      <c r="AG1" s="445"/>
-      <c r="AH1" s="445"/>
-      <c r="AI1" s="445"/>
-      <c r="AJ1" s="445"/>
-      <c r="AK1" s="445"/>
-      <c r="AL1" s="445"/>
-      <c r="AM1" s="446"/>
-      <c r="AN1" s="444" t="s">
+      <c r="S1" s="446"/>
+      <c r="T1" s="446"/>
+      <c r="U1" s="446"/>
+      <c r="V1" s="446"/>
+      <c r="W1" s="446"/>
+      <c r="X1" s="446"/>
+      <c r="Y1" s="446"/>
+      <c r="Z1" s="446"/>
+      <c r="AA1" s="446"/>
+      <c r="AB1" s="446"/>
+      <c r="AC1" s="446"/>
+      <c r="AD1" s="446"/>
+      <c r="AE1" s="446"/>
+      <c r="AF1" s="446"/>
+      <c r="AG1" s="446"/>
+      <c r="AH1" s="446"/>
+      <c r="AI1" s="446"/>
+      <c r="AJ1" s="446"/>
+      <c r="AK1" s="446"/>
+      <c r="AL1" s="446"/>
+      <c r="AM1" s="447"/>
+      <c r="AN1" s="445" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="445"/>
-      <c r="AP1" s="445"/>
-      <c r="AQ1" s="445"/>
-      <c r="AR1" s="445"/>
-      <c r="AS1" s="445"/>
-      <c r="AT1" s="445"/>
-      <c r="AU1" s="445"/>
-      <c r="AV1" s="445"/>
-      <c r="AW1" s="445"/>
-      <c r="AX1" s="445"/>
-      <c r="AY1" s="445"/>
-      <c r="AZ1" s="445"/>
-      <c r="BA1" s="445"/>
-      <c r="BB1" s="445"/>
-      <c r="BC1" s="445"/>
-      <c r="BD1" s="445"/>
-      <c r="BE1" s="445"/>
-      <c r="BF1" s="445"/>
-      <c r="BG1" s="445"/>
-      <c r="BH1" s="445"/>
-      <c r="BI1" s="445"/>
-      <c r="BJ1" s="446"/>
-      <c r="BK1" s="444" t="s">
+      <c r="AO1" s="446"/>
+      <c r="AP1" s="446"/>
+      <c r="AQ1" s="446"/>
+      <c r="AR1" s="446"/>
+      <c r="AS1" s="446"/>
+      <c r="AT1" s="446"/>
+      <c r="AU1" s="446"/>
+      <c r="AV1" s="446"/>
+      <c r="AW1" s="446"/>
+      <c r="AX1" s="446"/>
+      <c r="AY1" s="446"/>
+      <c r="AZ1" s="446"/>
+      <c r="BA1" s="446"/>
+      <c r="BB1" s="446"/>
+      <c r="BC1" s="446"/>
+      <c r="BD1" s="446"/>
+      <c r="BE1" s="446"/>
+      <c r="BF1" s="446"/>
+      <c r="BG1" s="446"/>
+      <c r="BH1" s="446"/>
+      <c r="BI1" s="446"/>
+      <c r="BJ1" s="447"/>
+      <c r="BK1" s="445" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="445"/>
-      <c r="BM1" s="445"/>
-      <c r="BN1" s="445"/>
-      <c r="BO1" s="445"/>
-      <c r="BP1" s="445"/>
-      <c r="BQ1" s="445"/>
-      <c r="BR1" s="445"/>
-      <c r="BS1" s="445"/>
-      <c r="BT1" s="445"/>
-      <c r="BU1" s="445"/>
-      <c r="BV1" s="445"/>
-      <c r="BW1" s="445"/>
-      <c r="BX1" s="445"/>
-      <c r="BY1" s="445"/>
-      <c r="BZ1" s="445"/>
-      <c r="CA1" s="445"/>
-      <c r="CB1" s="445"/>
-      <c r="CC1" s="445"/>
-      <c r="CD1" s="445"/>
-      <c r="CE1" s="445"/>
-      <c r="CF1" s="445"/>
-      <c r="CG1" s="446"/>
-      <c r="CH1" s="444" t="s">
+      <c r="BL1" s="446"/>
+      <c r="BM1" s="446"/>
+      <c r="BN1" s="446"/>
+      <c r="BO1" s="446"/>
+      <c r="BP1" s="446"/>
+      <c r="BQ1" s="446"/>
+      <c r="BR1" s="446"/>
+      <c r="BS1" s="446"/>
+      <c r="BT1" s="446"/>
+      <c r="BU1" s="446"/>
+      <c r="BV1" s="446"/>
+      <c r="BW1" s="446"/>
+      <c r="BX1" s="446"/>
+      <c r="BY1" s="446"/>
+      <c r="BZ1" s="446"/>
+      <c r="CA1" s="446"/>
+      <c r="CB1" s="446"/>
+      <c r="CC1" s="446"/>
+      <c r="CD1" s="446"/>
+      <c r="CE1" s="446"/>
+      <c r="CF1" s="446"/>
+      <c r="CG1" s="447"/>
+      <c r="CH1" s="445" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="445"/>
-      <c r="CJ1" s="445"/>
-      <c r="CK1" s="445"/>
-      <c r="CL1" s="445"/>
-      <c r="CM1" s="445"/>
-      <c r="CN1" s="445"/>
-      <c r="CO1" s="445"/>
-      <c r="CP1" s="445"/>
-      <c r="CQ1" s="446"/>
-      <c r="CR1" s="456" t="s">
+      <c r="CI1" s="446"/>
+      <c r="CJ1" s="446"/>
+      <c r="CK1" s="446"/>
+      <c r="CL1" s="446"/>
+      <c r="CM1" s="446"/>
+      <c r="CN1" s="446"/>
+      <c r="CO1" s="446"/>
+      <c r="CP1" s="446"/>
+      <c r="CQ1" s="447"/>
+      <c r="CR1" s="457" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="457"/>
-      <c r="CT1" s="457"/>
-      <c r="CU1" s="457"/>
-      <c r="CV1" s="457"/>
-      <c r="CW1" s="457"/>
-      <c r="CX1" s="457"/>
-      <c r="CY1" s="458"/>
+      <c r="CS1" s="458"/>
+      <c r="CT1" s="458"/>
+      <c r="CU1" s="458"/>
+      <c r="CV1" s="458"/>
+      <c r="CW1" s="458"/>
+      <c r="CX1" s="458"/>
+      <c r="CY1" s="459"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27314,11 +27319,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="459" t="s">
+      <c r="AY47" s="460" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="460"/>
-      <c r="BA47" s="461"/>
+      <c r="AZ47" s="461"/>
+      <c r="BA47" s="462"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27711,11 +27716,11 @@
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="450" t="s">
+      <c r="BU60" s="451" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="451"/>
-      <c r="BW60" s="452"/>
+      <c r="BV60" s="452"/>
+      <c r="BW60" s="453"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -28102,7 +28107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -28190,120 +28195,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="453" t="s">
+      <c r="B1" s="454" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="454"/>
-      <c r="H1" s="454"/>
-      <c r="I1" s="454"/>
-      <c r="J1" s="454"/>
-      <c r="K1" s="454"/>
-      <c r="L1" s="454"/>
-      <c r="M1" s="454"/>
-      <c r="N1" s="454"/>
-      <c r="O1" s="454"/>
-      <c r="P1" s="454"/>
-      <c r="Q1" s="455"/>
-      <c r="R1" s="444" t="s">
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="455"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="455"/>
+      <c r="K1" s="455"/>
+      <c r="L1" s="455"/>
+      <c r="M1" s="455"/>
+      <c r="N1" s="455"/>
+      <c r="O1" s="455"/>
+      <c r="P1" s="455"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="445" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="445"/>
-      <c r="T1" s="445"/>
-      <c r="U1" s="445"/>
-      <c r="V1" s="445"/>
-      <c r="W1" s="445"/>
-      <c r="X1" s="445"/>
-      <c r="Y1" s="445"/>
-      <c r="Z1" s="445"/>
-      <c r="AA1" s="445"/>
-      <c r="AB1" s="445"/>
-      <c r="AC1" s="445"/>
-      <c r="AD1" s="445"/>
-      <c r="AE1" s="445"/>
-      <c r="AF1" s="445"/>
-      <c r="AG1" s="445"/>
-      <c r="AH1" s="445"/>
-      <c r="AI1" s="445"/>
-      <c r="AJ1" s="445"/>
-      <c r="AK1" s="445"/>
-      <c r="AL1" s="445"/>
-      <c r="AM1" s="446"/>
-      <c r="AN1" s="444" t="s">
+      <c r="S1" s="446"/>
+      <c r="T1" s="446"/>
+      <c r="U1" s="446"/>
+      <c r="V1" s="446"/>
+      <c r="W1" s="446"/>
+      <c r="X1" s="446"/>
+      <c r="Y1" s="446"/>
+      <c r="Z1" s="446"/>
+      <c r="AA1" s="446"/>
+      <c r="AB1" s="446"/>
+      <c r="AC1" s="446"/>
+      <c r="AD1" s="446"/>
+      <c r="AE1" s="446"/>
+      <c r="AF1" s="446"/>
+      <c r="AG1" s="446"/>
+      <c r="AH1" s="446"/>
+      <c r="AI1" s="446"/>
+      <c r="AJ1" s="446"/>
+      <c r="AK1" s="446"/>
+      <c r="AL1" s="446"/>
+      <c r="AM1" s="447"/>
+      <c r="AN1" s="445" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="445"/>
-      <c r="AP1" s="445"/>
-      <c r="AQ1" s="445"/>
-      <c r="AR1" s="445"/>
-      <c r="AS1" s="445"/>
-      <c r="AT1" s="445"/>
-      <c r="AU1" s="445"/>
-      <c r="AV1" s="445"/>
-      <c r="AW1" s="445"/>
-      <c r="AX1" s="445"/>
-      <c r="AY1" s="445"/>
-      <c r="AZ1" s="445"/>
-      <c r="BA1" s="445"/>
-      <c r="BB1" s="445"/>
-      <c r="BC1" s="445"/>
-      <c r="BD1" s="445"/>
-      <c r="BE1" s="445"/>
-      <c r="BF1" s="445"/>
-      <c r="BG1" s="445"/>
-      <c r="BH1" s="445"/>
-      <c r="BI1" s="445"/>
-      <c r="BJ1" s="446"/>
-      <c r="BK1" s="444" t="s">
+      <c r="AO1" s="446"/>
+      <c r="AP1" s="446"/>
+      <c r="AQ1" s="446"/>
+      <c r="AR1" s="446"/>
+      <c r="AS1" s="446"/>
+      <c r="AT1" s="446"/>
+      <c r="AU1" s="446"/>
+      <c r="AV1" s="446"/>
+      <c r="AW1" s="446"/>
+      <c r="AX1" s="446"/>
+      <c r="AY1" s="446"/>
+      <c r="AZ1" s="446"/>
+      <c r="BA1" s="446"/>
+      <c r="BB1" s="446"/>
+      <c r="BC1" s="446"/>
+      <c r="BD1" s="446"/>
+      <c r="BE1" s="446"/>
+      <c r="BF1" s="446"/>
+      <c r="BG1" s="446"/>
+      <c r="BH1" s="446"/>
+      <c r="BI1" s="446"/>
+      <c r="BJ1" s="447"/>
+      <c r="BK1" s="445" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="445"/>
-      <c r="BM1" s="445"/>
-      <c r="BN1" s="445"/>
-      <c r="BO1" s="445"/>
-      <c r="BP1" s="445"/>
-      <c r="BQ1" s="445"/>
-      <c r="BR1" s="445"/>
-      <c r="BS1" s="445"/>
-      <c r="BT1" s="445"/>
-      <c r="BU1" s="445"/>
-      <c r="BV1" s="445"/>
-      <c r="BW1" s="445"/>
-      <c r="BX1" s="445"/>
-      <c r="BY1" s="445"/>
-      <c r="BZ1" s="445"/>
-      <c r="CA1" s="445"/>
-      <c r="CB1" s="445"/>
-      <c r="CC1" s="445"/>
-      <c r="CD1" s="445"/>
-      <c r="CE1" s="445"/>
-      <c r="CF1" s="445"/>
-      <c r="CG1" s="446"/>
-      <c r="CH1" s="444" t="s">
+      <c r="BL1" s="446"/>
+      <c r="BM1" s="446"/>
+      <c r="BN1" s="446"/>
+      <c r="BO1" s="446"/>
+      <c r="BP1" s="446"/>
+      <c r="BQ1" s="446"/>
+      <c r="BR1" s="446"/>
+      <c r="BS1" s="446"/>
+      <c r="BT1" s="446"/>
+      <c r="BU1" s="446"/>
+      <c r="BV1" s="446"/>
+      <c r="BW1" s="446"/>
+      <c r="BX1" s="446"/>
+      <c r="BY1" s="446"/>
+      <c r="BZ1" s="446"/>
+      <c r="CA1" s="446"/>
+      <c r="CB1" s="446"/>
+      <c r="CC1" s="446"/>
+      <c r="CD1" s="446"/>
+      <c r="CE1" s="446"/>
+      <c r="CF1" s="446"/>
+      <c r="CG1" s="447"/>
+      <c r="CH1" s="445" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="445"/>
-      <c r="CJ1" s="445"/>
-      <c r="CK1" s="445"/>
-      <c r="CL1" s="445"/>
-      <c r="CM1" s="445"/>
-      <c r="CN1" s="445"/>
-      <c r="CO1" s="445"/>
-      <c r="CP1" s="445"/>
-      <c r="CQ1" s="446"/>
-      <c r="CR1" s="456" t="s">
+      <c r="CI1" s="446"/>
+      <c r="CJ1" s="446"/>
+      <c r="CK1" s="446"/>
+      <c r="CL1" s="446"/>
+      <c r="CM1" s="446"/>
+      <c r="CN1" s="446"/>
+      <c r="CO1" s="446"/>
+      <c r="CP1" s="446"/>
+      <c r="CQ1" s="447"/>
+      <c r="CR1" s="457" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="457"/>
-      <c r="CT1" s="457"/>
-      <c r="CU1" s="457"/>
-      <c r="CV1" s="457"/>
-      <c r="CW1" s="457"/>
-      <c r="CX1" s="457"/>
-      <c r="CY1" s="458"/>
+      <c r="CS1" s="458"/>
+      <c r="CT1" s="458"/>
+      <c r="CU1" s="458"/>
+      <c r="CV1" s="458"/>
+      <c r="CW1" s="458"/>
+      <c r="CX1" s="458"/>
+      <c r="CY1" s="459"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30891,11 +30896,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="459" t="s">
+      <c r="AY47" s="460" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="460"/>
-      <c r="BA47" s="461"/>
+      <c r="AZ47" s="461"/>
+      <c r="BA47" s="462"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -31544,11 +31549,11 @@
       <c r="BK60" s="145"/>
       <c r="BN60" s="321"/>
       <c r="BS60" s="302"/>
-      <c r="BU60" s="450" t="s">
+      <c r="BU60" s="451" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="451"/>
-      <c r="BW60" s="452"/>
+      <c r="BV60" s="452"/>
+      <c r="BW60" s="453"/>
       <c r="BX60" s="302"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -32133,7 +32138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY69"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
@@ -34602,12 +34607,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34616,7 +34621,7 @@
     <col min="2" max="2" width="5.85546875" style="435" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" style="435" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" style="435" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="435" customWidth="1"/>
+    <col min="5" max="5" width="19" style="435" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.42578125" style="435" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="435" customWidth="1"/>
     <col min="9" max="16384" width="5.5703125" style="435"/>
@@ -34637,48 +34642,48 @@
         <v>154</v>
       </c>
       <c r="F1" s="399" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="399" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="399" t="s">
-        <v>203</v>
-      </c>
       <c r="H1" s="398" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I1" s="437"/>
     </row>
     <row r="2" spans="1:16" s="402" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="465" t="s">
+      <c r="A2" s="466" t="s">
         <v>142</v>
       </c>
       <c r="B2" s="400">
         <v>43670</v>
       </c>
       <c r="C2" s="401" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="466"/>
+      <c r="A3" s="467"/>
       <c r="B3" s="403">
         <v>43671</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="407" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="466"/>
+      <c r="A4" s="467"/>
       <c r="B4" s="405">
         <v>43672</v>
       </c>
       <c r="C4" s="406" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="407" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P4" s="408"/>
     </row>
     <row r="5" spans="1:16" s="411" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="466"/>
+      <c r="A5" s="467"/>
       <c r="B5" s="409">
         <v>43675</v>
       </c>
@@ -34686,20 +34691,20 @@
         <v>147</v>
       </c>
       <c r="D5" s="411" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="436" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5" s="411" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G5" s="411" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="466"/>
+      <c r="A6" s="467"/>
       <c r="B6" s="409">
         <v>43676</v>
       </c>
@@ -34710,75 +34715,75 @@
         <v>149</v>
       </c>
       <c r="F6" s="411" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G6" s="411" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="466"/>
+      <c r="A7" s="467"/>
       <c r="B7" s="409">
         <v>43677</v>
       </c>
       <c r="C7" s="410" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="410" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="410" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="410" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="410" t="s">
-        <v>206</v>
-      </c>
       <c r="F7" s="411" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="411" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H7" s="438" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="466"/>
+      <c r="A8" s="467"/>
       <c r="B8" s="403">
         <v>43678</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="466"/>
+      <c r="A9" s="467"/>
       <c r="B9" s="409">
         <v>43679</v>
       </c>
       <c r="C9" s="410" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="410" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9" s="410" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="436"/>
     </row>
     <row r="10" spans="1:16" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="466"/>
+      <c r="A10" s="467"/>
       <c r="B10" s="405">
         <v>43682</v>
       </c>
       <c r="C10" s="406" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D10" s="406" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E10" s="407" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="466"/>
+      <c r="A11" s="467"/>
       <c r="B11" s="405">
         <v>43683</v>
       </c>
@@ -34789,14 +34794,14 @@
         <v>152</v>
       </c>
       <c r="F11" s="407" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G11" s="407" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="466"/>
+      <c r="A12" s="467"/>
       <c r="B12" s="405">
         <v>43684</v>
       </c>
@@ -34806,42 +34811,42 @@
       <c r="D12" s="407" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="471" t="s">
-        <v>217</v>
+      <c r="H12" s="439" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="466"/>
+      <c r="A13" s="467"/>
       <c r="B13" s="403">
         <v>43685</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="466"/>
+      <c r="A14" s="467"/>
       <c r="B14" s="405">
         <v>43686</v>
       </c>
       <c r="C14" s="407" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="439" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="471" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="15" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="466"/>
+      <c r="A15" s="467"/>
       <c r="B15" s="409">
         <v>43689</v>
       </c>
       <c r="C15" s="411" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="E15" s="411" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="466"/>
+      <c r="A16" s="467"/>
       <c r="B16" s="409">
         <v>43690</v>
       </c>
@@ -34850,7 +34855,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="466"/>
+      <c r="A17" s="467"/>
       <c r="B17" s="409">
         <v>43691</v>
       </c>
@@ -34859,163 +34864,163 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="466"/>
+      <c r="A18" s="467"/>
       <c r="B18" s="403">
         <v>43692</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="413" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="467"/>
+      <c r="A19" s="468"/>
       <c r="B19" s="412">
         <v>43693</v>
       </c>
       <c r="C19" s="411" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="402" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="462" t="s">
+      <c r="A20" s="463" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="414">
         <v>43696</v>
       </c>
       <c r="C20" s="401" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" s="415" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="463"/>
+      <c r="A21" s="464"/>
       <c r="B21" s="416">
         <v>43697</v>
       </c>
       <c r="C21" s="417" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="406" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="418"/>
     </row>
     <row r="22" spans="1:5" s="407" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="463"/>
+      <c r="A22" s="464"/>
       <c r="B22" s="416">
         <v>43698</v>
       </c>
       <c r="C22" s="407" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22" s="419" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="463"/>
+      <c r="A23" s="464"/>
       <c r="B23" s="420">
         <v>43699</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="463"/>
+      <c r="A24" s="464"/>
       <c r="B24" s="416">
         <v>43700</v>
       </c>
       <c r="D24" s="407" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="463"/>
+      <c r="A25" s="464"/>
       <c r="B25" s="421">
         <v>43703</v>
       </c>
       <c r="C25" s="410" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="410" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="410" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="26" spans="1:5" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="463"/>
+      <c r="A26" s="464"/>
       <c r="B26" s="421">
         <v>43704</v>
       </c>
       <c r="C26" s="410" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="410" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="463"/>
+      <c r="A27" s="464"/>
       <c r="B27" s="421">
         <v>43705</v>
       </c>
       <c r="C27" s="411" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" s="410" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="463"/>
+      <c r="A28" s="464"/>
       <c r="B28" s="420">
         <v>43706</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="463"/>
+      <c r="A29" s="464"/>
       <c r="B29" s="421">
         <v>43707</v>
       </c>
       <c r="D29" s="411" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="463"/>
+      <c r="A30" s="464"/>
       <c r="B30" s="416">
         <v>43710</v>
       </c>
       <c r="C30" s="406" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="463"/>
+      <c r="A31" s="464"/>
       <c r="B31" s="416">
         <v>43711</v>
       </c>
       <c r="D31" s="407" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="463"/>
+      <c r="A32" s="464"/>
       <c r="B32" s="416">
         <v>43712</v>
       </c>
       <c r="C32" s="407" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" s="407" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="463"/>
+      <c r="A33" s="464"/>
       <c r="B33" s="420">
         <v>43713</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="463"/>
+      <c r="A34" s="464"/>
       <c r="B34" s="416">
         <v>43714</v>
       </c>
@@ -35024,7 +35029,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="463"/>
+      <c r="A35" s="464"/>
       <c r="B35" s="421">
         <v>43717</v>
       </c>
@@ -35033,7 +35038,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="463"/>
+      <c r="A36" s="464"/>
       <c r="B36" s="421">
         <v>43718</v>
       </c>
@@ -35042,7 +35047,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="463"/>
+      <c r="A37" s="464"/>
       <c r="B37" s="421">
         <v>43719</v>
       </c>
@@ -35051,13 +35056,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="463"/>
+      <c r="A38" s="464"/>
       <c r="B38" s="420">
         <v>43720</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="463"/>
+      <c r="A39" s="464"/>
       <c r="B39" s="421">
         <v>43721</v>
       </c>
@@ -35066,7 +35071,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="463"/>
+      <c r="A40" s="464"/>
       <c r="B40" s="416">
         <v>43724</v>
       </c>
@@ -35075,7 +35080,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="463"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="416">
         <v>43725</v>
       </c>
@@ -35084,7 +35089,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="463"/>
+      <c r="A42" s="464"/>
       <c r="B42" s="416">
         <v>43726</v>
       </c>
@@ -35093,13 +35098,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="463"/>
+      <c r="A43" s="464"/>
       <c r="B43" s="420">
         <v>43727</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="423" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="464"/>
+      <c r="A44" s="465"/>
       <c r="B44" s="422">
         <v>43728</v>
       </c>
@@ -35108,111 +35113,111 @@
       </c>
     </row>
     <row r="45" spans="1:4" s="426" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="468" t="s">
+      <c r="A45" s="469" t="s">
         <v>144</v>
       </c>
       <c r="B45" s="424">
         <v>43731</v>
       </c>
       <c r="C45" s="425" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D45" s="411" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="469"/>
+      <c r="A46" s="470"/>
       <c r="B46" s="427">
         <v>43732</v>
       </c>
       <c r="C46" s="411" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D46" s="411" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="469"/>
+      <c r="A47" s="470"/>
       <c r="B47" s="427">
         <v>43733</v>
       </c>
       <c r="C47" s="410" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D47" s="411" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="469"/>
+      <c r="A48" s="470"/>
       <c r="B48" s="428">
         <v>43734</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="411" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="469"/>
+      <c r="A49" s="470"/>
       <c r="B49" s="427">
         <v>43735</v>
       </c>
       <c r="C49" s="410" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="469"/>
+      <c r="A50" s="470"/>
       <c r="B50" s="429">
         <v>43738</v>
       </c>
       <c r="C50" s="406" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="407" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="469"/>
+      <c r="A51" s="470"/>
       <c r="B51" s="429">
         <v>43739</v>
       </c>
       <c r="C51" s="406" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="469"/>
+      <c r="A52" s="470"/>
       <c r="B52" s="429">
         <v>43740</v>
       </c>
       <c r="C52" s="407" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="469"/>
+      <c r="A53" s="470"/>
       <c r="B53" s="428">
         <v>43741</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="407" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="469"/>
+      <c r="A54" s="470"/>
       <c r="B54" s="429">
         <v>43742</v>
       </c>
       <c r="C54" s="406" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="469"/>
+      <c r="A55" s="470"/>
       <c r="B55" s="427">
         <v>43745</v>
       </c>
       <c r="C55" s="411" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="469"/>
+      <c r="A56" s="470"/>
       <c r="B56" s="427">
         <v>43746</v>
       </c>
@@ -35221,7 +35226,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="469"/>
+      <c r="A57" s="470"/>
       <c r="B57" s="427">
         <v>43747</v>
       </c>
@@ -35230,13 +35235,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="469"/>
+      <c r="A58" s="470"/>
       <c r="B58" s="428">
         <v>43748</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="469"/>
+      <c r="A59" s="470"/>
       <c r="B59" s="427">
         <v>43749</v>
       </c>
@@ -35245,7 +35250,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="469"/>
+      <c r="A60" s="470"/>
       <c r="B60" s="429">
         <v>43754</v>
       </c>
@@ -35254,13 +35259,13 @@
       </c>
     </row>
     <row r="61" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="469"/>
+      <c r="A61" s="470"/>
       <c r="B61" s="428">
         <v>43755</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="469"/>
+      <c r="A62" s="470"/>
       <c r="B62" s="429">
         <v>43756</v>
       </c>
@@ -35269,7 +35274,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="469"/>
+      <c r="A63" s="470"/>
       <c r="B63" s="427">
         <v>43759</v>
       </c>
@@ -35278,7 +35283,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="469"/>
+      <c r="A64" s="470"/>
       <c r="B64" s="427">
         <v>43760</v>
       </c>
@@ -35287,7 +35292,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="469"/>
+      <c r="A65" s="470"/>
       <c r="B65" s="427">
         <v>43761</v>
       </c>
@@ -35296,114 +35301,114 @@
       </c>
     </row>
     <row r="66" spans="1:4" s="431" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="470"/>
+      <c r="A66" s="471"/>
       <c r="B66" s="430">
         <v>43762</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="426" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="468" t="s">
+      <c r="A67" s="469" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="424">
         <v>43763</v>
       </c>
       <c r="C67" s="425" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="469"/>
+      <c r="A68" s="470"/>
       <c r="B68" s="429">
         <v>43766</v>
       </c>
       <c r="C68" s="407" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="407" t="s">
         <v>183</v>
       </c>
-      <c r="D68" s="407" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="69" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="469"/>
+      <c r="A69" s="470"/>
       <c r="B69" s="429">
         <v>43767</v>
       </c>
       <c r="C69" s="407" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D69" s="407" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="469"/>
+      <c r="A70" s="470"/>
       <c r="B70" s="429">
         <v>43768</v>
       </c>
       <c r="C70" s="406" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D70" s="407" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="469"/>
+      <c r="A71" s="470"/>
       <c r="B71" s="428">
         <v>43769</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="469"/>
+      <c r="A72" s="470"/>
       <c r="B72" s="429">
         <v>43770</v>
       </c>
       <c r="C72" s="407" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="469"/>
+      <c r="A73" s="470"/>
       <c r="B73" s="427">
         <v>43773</v>
       </c>
       <c r="C73" s="411" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D73" s="411" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="469"/>
+      <c r="A74" s="470"/>
       <c r="B74" s="427">
         <v>43774</v>
       </c>
       <c r="C74" s="411" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D74" s="411" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="469"/>
+      <c r="A75" s="470"/>
       <c r="B75" s="427">
         <v>43775</v>
       </c>
       <c r="C75" s="411" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="469"/>
+      <c r="A76" s="470"/>
       <c r="B76" s="428">
         <v>43776</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="469"/>
+      <c r="A77" s="470"/>
       <c r="B77" s="427">
         <v>43777</v>
       </c>
@@ -35412,7 +35417,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="469"/>
+      <c r="A78" s="470"/>
       <c r="B78" s="429">
         <v>43780</v>
       </c>
@@ -35421,7 +35426,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="469"/>
+      <c r="A79" s="470"/>
       <c r="B79" s="429">
         <v>43781</v>
       </c>
@@ -35430,7 +35435,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="469"/>
+      <c r="A80" s="470"/>
       <c r="B80" s="429">
         <v>43782</v>
       </c>
@@ -35439,13 +35444,13 @@
       </c>
     </row>
     <row r="81" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="469"/>
+      <c r="A81" s="470"/>
       <c r="B81" s="428">
         <v>43783</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="469"/>
+      <c r="A82" s="470"/>
       <c r="B82" s="427">
         <v>43787</v>
       </c>
@@ -35454,7 +35459,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="469"/>
+      <c r="A83" s="470"/>
       <c r="B83" s="427">
         <v>43788</v>
       </c>
@@ -35463,13 +35468,13 @@
       </c>
     </row>
     <row r="84" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="469"/>
+      <c r="A84" s="470"/>
       <c r="B84" s="428">
         <v>43790</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="469"/>
+      <c r="A85" s="470"/>
       <c r="B85" s="427">
         <v>43791</v>
       </c>
@@ -35478,7 +35483,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="469"/>
+      <c r="A86" s="470"/>
       <c r="B86" s="429">
         <v>43794</v>
       </c>
@@ -35487,7 +35492,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="469"/>
+      <c r="A87" s="470"/>
       <c r="B87" s="429">
         <v>43795</v>
       </c>
@@ -35496,7 +35501,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="469"/>
+      <c r="A88" s="470"/>
       <c r="B88" s="429">
         <v>43796</v>
       </c>
@@ -35505,57 +35510,57 @@
       </c>
     </row>
     <row r="89" spans="1:3" s="431" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="470"/>
+      <c r="A89" s="471"/>
       <c r="B89" s="430">
         <v>43797</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="402" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="462" t="s">
+      <c r="A90" s="463" t="s">
         <v>146</v>
       </c>
       <c r="B90" s="432">
         <v>43798</v>
       </c>
       <c r="C90" s="401" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="463"/>
+      <c r="A91" s="464"/>
       <c r="B91" s="427">
         <v>43801</v>
       </c>
       <c r="C91" s="411" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="463"/>
+      <c r="A92" s="464"/>
       <c r="B92" s="427">
         <v>43802</v>
       </c>
       <c r="C92" s="411" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="463"/>
+      <c r="A93" s="464"/>
       <c r="B93" s="427">
         <v>43803</v>
       </c>
       <c r="C93" s="411" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="463"/>
+      <c r="A94" s="464"/>
       <c r="B94" s="428">
         <v>43804</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="463"/>
+      <c r="A95" s="464"/>
       <c r="B95" s="427">
         <v>43805</v>
       </c>
@@ -35564,7 +35569,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="463"/>
+      <c r="A96" s="464"/>
       <c r="B96" s="429">
         <v>43808</v>
       </c>
@@ -35573,7 +35578,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="463"/>
+      <c r="A97" s="464"/>
       <c r="B97" s="429">
         <v>43809</v>
       </c>
@@ -35582,7 +35587,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="463"/>
+      <c r="A98" s="464"/>
       <c r="B98" s="429">
         <v>43810</v>
       </c>
@@ -35591,7 +35596,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" s="431" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="464"/>
+      <c r="A99" s="465"/>
       <c r="B99" s="430">
         <v>43811</v>
       </c>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7358FCD9-3D34-482D-B373-6C1AD2C9580B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="222">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1682,11 +1683,17 @@
   <si>
     <t>Fim - Projeto</t>
   </si>
+  <si>
+    <t>Obs: Foi passado para o dia 22</t>
+  </si>
+  <si>
+    <t>Ex.: Peoples</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
@@ -3759,7 +3766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3979,7 +3986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
     <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="55" workbookViewId="0">
@@ -22796,7 +22803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -23124,7 +23131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CX71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -25332,7 +25339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -28107,7 +28114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CZ71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -32138,7 +32145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CY69"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
@@ -34607,12 +34614,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34854,7 +34861,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="411" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="411" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="467"/>
       <c r="B17" s="409">
         <v>43691</v>
@@ -34863,13 +34870,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="404" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="404" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="467"/>
       <c r="B18" s="403">
         <v>43692</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="413" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="413" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="468"/>
       <c r="B19" s="412">
         <v>43693</v>
@@ -34878,7 +34885,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="402" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="402" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="463" t="s">
         <v>143</v>
       </c>
@@ -34892,7 +34899,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="464"/>
       <c r="B21" s="416">
         <v>43697</v>
@@ -34905,7 +34912,7 @@
       </c>
       <c r="E21" s="418"/>
     </row>
-    <row r="22" spans="1:5" s="407" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="407" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="464"/>
       <c r="B22" s="416">
         <v>43698</v>
@@ -34916,14 +34923,23 @@
       <c r="D22" s="419" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="407" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="407" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="407" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="404" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="464"/>
       <c r="B23" s="420">
         <v>43699</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="407" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="407" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="464"/>
       <c r="B24" s="416">
         <v>43700</v>
@@ -34932,7 +34948,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="464"/>
       <c r="B25" s="421">
         <v>43703</v>
@@ -34944,7 +34960,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="464"/>
       <c r="B26" s="421">
         <v>43704</v>
@@ -34956,7 +34972,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="464"/>
       <c r="B27" s="421">
         <v>43705</v>
@@ -34968,13 +34984,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="404" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="404" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="464"/>
       <c r="B28" s="420">
         <v>43706</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="411" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="411" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="464"/>
       <c r="B29" s="421">
         <v>43707</v>
@@ -34983,7 +34999,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="464"/>
       <c r="B30" s="416">
         <v>43710</v>
@@ -34992,7 +35008,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="407" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="407" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="464"/>
       <c r="B31" s="416">
         <v>43711</v>
@@ -35001,7 +35017,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="407" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="407" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="464"/>
       <c r="B32" s="416">
         <v>43712</v>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7358FCD9-3D34-482D-B373-6C1AD2C9580B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FE8072-5A9F-472A-A77B-55263930B675}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="224">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1435,12 +1435,6 @@
     <t>ex.: Optus</t>
   </si>
   <si>
-    <t>Controller - Domain - Repository - Artistas
-Cadastrar, Listar, BuscarPorId
-Verificação de Campos
-Swagger</t>
-  </si>
-  <si>
     <t>Início - Gufos
 Entity Framework</t>
   </si>
@@ -1478,9 +1472,6 @@
     <t>Interfaces
 Presenças
 CORS</t>
-  </si>
-  <si>
-    <t>ex.: Pclinics (SqlClient) - EFCore</t>
   </si>
   <si>
     <t>EFCore ou SqlClient - Opcional</t>
@@ -1684,10 +1675,24 @@
     <t>Fim - Projeto</t>
   </si>
   <si>
-    <t>Obs: Foi passado para o dia 22</t>
+    <t>Ex.: Peoples</t>
   </si>
   <si>
-    <t>Ex.: Peoples</t>
+    <t>ex.: Filmes</t>
+  </si>
+  <si>
+    <t>Obs: Foi passado para o dia 22 o Sstop</t>
+  </si>
+  <si>
+    <t>Verificação de Campos</t>
+  </si>
+  <si>
+    <t>Controller - Domain - Repository - Artistas
+Cadastrar, Listar
+Swagger</t>
+  </si>
+  <si>
+    <t>ex.: PClinics (SqlClient) - EFCore</t>
   </si>
 </sst>
 </file>
@@ -3286,9 +3291,6 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3447,6 +3449,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4034,123 +4039,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="442" t="s">
+      <c r="B1" s="441" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="443"/>
-      <c r="D1" s="443"/>
-      <c r="E1" s="443"/>
-      <c r="F1" s="443"/>
-      <c r="G1" s="443"/>
-      <c r="H1" s="443"/>
-      <c r="I1" s="443"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="443"/>
-      <c r="L1" s="443"/>
-      <c r="M1" s="443"/>
-      <c r="N1" s="443"/>
-      <c r="O1" s="443"/>
-      <c r="P1" s="443"/>
-      <c r="Q1" s="443"/>
-      <c r="R1" s="442" t="s">
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
+      <c r="J1" s="442"/>
+      <c r="K1" s="442"/>
+      <c r="L1" s="442"/>
+      <c r="M1" s="442"/>
+      <c r="N1" s="442"/>
+      <c r="O1" s="442"/>
+      <c r="P1" s="442"/>
+      <c r="Q1" s="442"/>
+      <c r="R1" s="441" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="443"/>
-      <c r="T1" s="443"/>
-      <c r="U1" s="443"/>
-      <c r="V1" s="443"/>
-      <c r="W1" s="443"/>
-      <c r="X1" s="443"/>
-      <c r="Y1" s="443"/>
-      <c r="Z1" s="443"/>
-      <c r="AA1" s="443"/>
-      <c r="AB1" s="443"/>
-      <c r="AC1" s="443"/>
-      <c r="AD1" s="443"/>
-      <c r="AE1" s="443"/>
-      <c r="AF1" s="443"/>
-      <c r="AG1" s="443"/>
-      <c r="AH1" s="443"/>
-      <c r="AI1" s="443"/>
-      <c r="AJ1" s="443"/>
-      <c r="AK1" s="443"/>
-      <c r="AL1" s="443"/>
-      <c r="AM1" s="444"/>
-      <c r="AN1" s="442" t="s">
+      <c r="S1" s="442"/>
+      <c r="T1" s="442"/>
+      <c r="U1" s="442"/>
+      <c r="V1" s="442"/>
+      <c r="W1" s="442"/>
+      <c r="X1" s="442"/>
+      <c r="Y1" s="442"/>
+      <c r="Z1" s="442"/>
+      <c r="AA1" s="442"/>
+      <c r="AB1" s="442"/>
+      <c r="AC1" s="442"/>
+      <c r="AD1" s="442"/>
+      <c r="AE1" s="442"/>
+      <c r="AF1" s="442"/>
+      <c r="AG1" s="442"/>
+      <c r="AH1" s="442"/>
+      <c r="AI1" s="442"/>
+      <c r="AJ1" s="442"/>
+      <c r="AK1" s="442"/>
+      <c r="AL1" s="442"/>
+      <c r="AM1" s="443"/>
+      <c r="AN1" s="441" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="443"/>
-      <c r="AP1" s="443"/>
-      <c r="AQ1" s="443"/>
-      <c r="AR1" s="443"/>
-      <c r="AS1" s="443"/>
-      <c r="AT1" s="444"/>
-      <c r="AU1" s="442" t="s">
+      <c r="AO1" s="442"/>
+      <c r="AP1" s="442"/>
+      <c r="AQ1" s="442"/>
+      <c r="AR1" s="442"/>
+      <c r="AS1" s="442"/>
+      <c r="AT1" s="443"/>
+      <c r="AU1" s="441" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="443"/>
-      <c r="AW1" s="443"/>
-      <c r="AX1" s="443"/>
-      <c r="AY1" s="443"/>
-      <c r="AZ1" s="443"/>
-      <c r="BA1" s="443"/>
-      <c r="BB1" s="443"/>
-      <c r="BC1" s="443"/>
-      <c r="BD1" s="443"/>
-      <c r="BE1" s="443"/>
-      <c r="BF1" s="443"/>
-      <c r="BG1" s="443"/>
-      <c r="BH1" s="443"/>
-      <c r="BI1" s="443"/>
-      <c r="BJ1" s="443"/>
-      <c r="BK1" s="443"/>
-      <c r="BL1" s="443"/>
-      <c r="BM1" s="443"/>
-      <c r="BN1" s="443"/>
-      <c r="BO1" s="443"/>
-      <c r="BP1" s="443"/>
-      <c r="BQ1" s="444"/>
-      <c r="BR1" s="442" t="s">
+      <c r="AV1" s="442"/>
+      <c r="AW1" s="442"/>
+      <c r="AX1" s="442"/>
+      <c r="AY1" s="442"/>
+      <c r="AZ1" s="442"/>
+      <c r="BA1" s="442"/>
+      <c r="BB1" s="442"/>
+      <c r="BC1" s="442"/>
+      <c r="BD1" s="442"/>
+      <c r="BE1" s="442"/>
+      <c r="BF1" s="442"/>
+      <c r="BG1" s="442"/>
+      <c r="BH1" s="442"/>
+      <c r="BI1" s="442"/>
+      <c r="BJ1" s="442"/>
+      <c r="BK1" s="442"/>
+      <c r="BL1" s="442"/>
+      <c r="BM1" s="442"/>
+      <c r="BN1" s="442"/>
+      <c r="BO1" s="442"/>
+      <c r="BP1" s="442"/>
+      <c r="BQ1" s="443"/>
+      <c r="BR1" s="441" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="443"/>
-      <c r="BT1" s="443"/>
-      <c r="BU1" s="443"/>
-      <c r="BV1" s="443"/>
-      <c r="BW1" s="443"/>
-      <c r="BX1" s="443"/>
-      <c r="BY1" s="443"/>
-      <c r="BZ1" s="443"/>
-      <c r="CA1" s="443"/>
-      <c r="CB1" s="443"/>
-      <c r="CC1" s="443"/>
-      <c r="CD1" s="443"/>
-      <c r="CE1" s="443"/>
-      <c r="CF1" s="443"/>
-      <c r="CG1" s="443"/>
-      <c r="CH1" s="443"/>
-      <c r="CI1" s="443"/>
-      <c r="CJ1" s="443"/>
-      <c r="CK1" s="444"/>
-      <c r="CL1" s="442" t="s">
+      <c r="BS1" s="442"/>
+      <c r="BT1" s="442"/>
+      <c r="BU1" s="442"/>
+      <c r="BV1" s="442"/>
+      <c r="BW1" s="442"/>
+      <c r="BX1" s="442"/>
+      <c r="BY1" s="442"/>
+      <c r="BZ1" s="442"/>
+      <c r="CA1" s="442"/>
+      <c r="CB1" s="442"/>
+      <c r="CC1" s="442"/>
+      <c r="CD1" s="442"/>
+      <c r="CE1" s="442"/>
+      <c r="CF1" s="442"/>
+      <c r="CG1" s="442"/>
+      <c r="CH1" s="442"/>
+      <c r="CI1" s="442"/>
+      <c r="CJ1" s="442"/>
+      <c r="CK1" s="443"/>
+      <c r="CL1" s="441" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="443"/>
-      <c r="CN1" s="443"/>
-      <c r="CO1" s="443"/>
-      <c r="CP1" s="443"/>
-      <c r="CQ1" s="443"/>
-      <c r="CR1" s="443"/>
-      <c r="CS1" s="443"/>
-      <c r="CT1" s="443"/>
-      <c r="CU1" s="443"/>
-      <c r="CV1" s="443"/>
-      <c r="CW1" s="443"/>
-      <c r="CX1" s="443"/>
-      <c r="CY1" s="443"/>
-      <c r="CZ1" s="443"/>
-      <c r="DA1" s="443"/>
-      <c r="DB1" s="443"/>
+      <c r="CM1" s="442"/>
+      <c r="CN1" s="442"/>
+      <c r="CO1" s="442"/>
+      <c r="CP1" s="442"/>
+      <c r="CQ1" s="442"/>
+      <c r="CR1" s="442"/>
+      <c r="CS1" s="442"/>
+      <c r="CT1" s="442"/>
+      <c r="CU1" s="442"/>
+      <c r="CV1" s="442"/>
+      <c r="CW1" s="442"/>
+      <c r="CX1" s="442"/>
+      <c r="CY1" s="442"/>
+      <c r="CZ1" s="442"/>
+      <c r="DA1" s="442"/>
+      <c r="DB1" s="442"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22777,15 +22782,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="440" t="s">
+      <c r="CW86" s="439" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="440"/>
-      <c r="CY86" s="440"/>
-      <c r="CZ86" s="440"/>
-      <c r="DA86" s="440"/>
-      <c r="DB86" s="440"/>
-      <c r="DC86" s="441"/>
+      <c r="CX86" s="439"/>
+      <c r="CY86" s="439"/>
+      <c r="CZ86" s="439"/>
+      <c r="DA86" s="439"/>
+      <c r="DB86" s="439"/>
+      <c r="DC86" s="440"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -23175,118 +23180,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="454" t="s">
+      <c r="B1" s="453" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
-      <c r="G1" s="455"/>
-      <c r="H1" s="455"/>
-      <c r="I1" s="455"/>
-      <c r="J1" s="455"/>
-      <c r="K1" s="455"/>
-      <c r="L1" s="455"/>
-      <c r="M1" s="455"/>
-      <c r="N1" s="455"/>
-      <c r="O1" s="455"/>
-      <c r="P1" s="455"/>
-      <c r="Q1" s="456"/>
-      <c r="R1" s="445" t="s">
+      <c r="C1" s="454"/>
+      <c r="D1" s="454"/>
+      <c r="E1" s="454"/>
+      <c r="F1" s="454"/>
+      <c r="G1" s="454"/>
+      <c r="H1" s="454"/>
+      <c r="I1" s="454"/>
+      <c r="J1" s="454"/>
+      <c r="K1" s="454"/>
+      <c r="L1" s="454"/>
+      <c r="M1" s="454"/>
+      <c r="N1" s="454"/>
+      <c r="O1" s="454"/>
+      <c r="P1" s="454"/>
+      <c r="Q1" s="455"/>
+      <c r="R1" s="444" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="446"/>
-      <c r="T1" s="446"/>
-      <c r="U1" s="446"/>
-      <c r="V1" s="446"/>
-      <c r="W1" s="446"/>
-      <c r="X1" s="446"/>
-      <c r="Y1" s="446"/>
-      <c r="Z1" s="446"/>
-      <c r="AA1" s="446"/>
-      <c r="AB1" s="446"/>
-      <c r="AC1" s="446"/>
-      <c r="AD1" s="446"/>
-      <c r="AE1" s="446"/>
-      <c r="AF1" s="446"/>
-      <c r="AG1" s="446"/>
-      <c r="AH1" s="446"/>
-      <c r="AI1" s="446"/>
-      <c r="AJ1" s="446"/>
-      <c r="AK1" s="446"/>
-      <c r="AL1" s="447"/>
-      <c r="AM1" s="445" t="s">
+      <c r="S1" s="445"/>
+      <c r="T1" s="445"/>
+      <c r="U1" s="445"/>
+      <c r="V1" s="445"/>
+      <c r="W1" s="445"/>
+      <c r="X1" s="445"/>
+      <c r="Y1" s="445"/>
+      <c r="Z1" s="445"/>
+      <c r="AA1" s="445"/>
+      <c r="AB1" s="445"/>
+      <c r="AC1" s="445"/>
+      <c r="AD1" s="445"/>
+      <c r="AE1" s="445"/>
+      <c r="AF1" s="445"/>
+      <c r="AG1" s="445"/>
+      <c r="AH1" s="445"/>
+      <c r="AI1" s="445"/>
+      <c r="AJ1" s="445"/>
+      <c r="AK1" s="445"/>
+      <c r="AL1" s="446"/>
+      <c r="AM1" s="444" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="446"/>
-      <c r="AO1" s="446"/>
-      <c r="AP1" s="446"/>
-      <c r="AQ1" s="446"/>
-      <c r="AR1" s="446"/>
-      <c r="AS1" s="446"/>
-      <c r="AT1" s="446"/>
-      <c r="AU1" s="446"/>
-      <c r="AV1" s="446"/>
-      <c r="AW1" s="446"/>
-      <c r="AX1" s="446"/>
-      <c r="AY1" s="446"/>
-      <c r="AZ1" s="446"/>
-      <c r="BA1" s="446"/>
-      <c r="BB1" s="446"/>
-      <c r="BC1" s="446"/>
-      <c r="BD1" s="446"/>
-      <c r="BE1" s="446"/>
-      <c r="BF1" s="446"/>
-      <c r="BG1" s="446"/>
-      <c r="BH1" s="447"/>
-      <c r="BI1" s="445" t="s">
+      <c r="AN1" s="445"/>
+      <c r="AO1" s="445"/>
+      <c r="AP1" s="445"/>
+      <c r="AQ1" s="445"/>
+      <c r="AR1" s="445"/>
+      <c r="AS1" s="445"/>
+      <c r="AT1" s="445"/>
+      <c r="AU1" s="445"/>
+      <c r="AV1" s="445"/>
+      <c r="AW1" s="445"/>
+      <c r="AX1" s="445"/>
+      <c r="AY1" s="445"/>
+      <c r="AZ1" s="445"/>
+      <c r="BA1" s="445"/>
+      <c r="BB1" s="445"/>
+      <c r="BC1" s="445"/>
+      <c r="BD1" s="445"/>
+      <c r="BE1" s="445"/>
+      <c r="BF1" s="445"/>
+      <c r="BG1" s="445"/>
+      <c r="BH1" s="446"/>
+      <c r="BI1" s="444" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="446"/>
-      <c r="BK1" s="446"/>
-      <c r="BL1" s="446"/>
-      <c r="BM1" s="446"/>
-      <c r="BN1" s="446"/>
-      <c r="BO1" s="446"/>
-      <c r="BP1" s="446"/>
-      <c r="BQ1" s="446"/>
-      <c r="BR1" s="446"/>
-      <c r="BS1" s="446"/>
-      <c r="BT1" s="446"/>
-      <c r="BU1" s="446"/>
-      <c r="BV1" s="446"/>
-      <c r="BW1" s="446"/>
-      <c r="BX1" s="446"/>
-      <c r="BY1" s="446"/>
-      <c r="BZ1" s="446"/>
-      <c r="CA1" s="446"/>
-      <c r="CB1" s="446"/>
-      <c r="CC1" s="446"/>
-      <c r="CD1" s="447"/>
-      <c r="CE1" s="445" t="s">
+      <c r="BJ1" s="445"/>
+      <c r="BK1" s="445"/>
+      <c r="BL1" s="445"/>
+      <c r="BM1" s="445"/>
+      <c r="BN1" s="445"/>
+      <c r="BO1" s="445"/>
+      <c r="BP1" s="445"/>
+      <c r="BQ1" s="445"/>
+      <c r="BR1" s="445"/>
+      <c r="BS1" s="445"/>
+      <c r="BT1" s="445"/>
+      <c r="BU1" s="445"/>
+      <c r="BV1" s="445"/>
+      <c r="BW1" s="445"/>
+      <c r="BX1" s="445"/>
+      <c r="BY1" s="445"/>
+      <c r="BZ1" s="445"/>
+      <c r="CA1" s="445"/>
+      <c r="CB1" s="445"/>
+      <c r="CC1" s="445"/>
+      <c r="CD1" s="446"/>
+      <c r="CE1" s="444" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="446"/>
-      <c r="CG1" s="446"/>
-      <c r="CH1" s="446"/>
-      <c r="CI1" s="446"/>
-      <c r="CJ1" s="446"/>
-      <c r="CK1" s="446"/>
-      <c r="CL1" s="446"/>
-      <c r="CM1" s="447"/>
-      <c r="CN1" s="445" t="s">
+      <c r="CF1" s="445"/>
+      <c r="CG1" s="445"/>
+      <c r="CH1" s="445"/>
+      <c r="CI1" s="445"/>
+      <c r="CJ1" s="445"/>
+      <c r="CK1" s="445"/>
+      <c r="CL1" s="445"/>
+      <c r="CM1" s="446"/>
+      <c r="CN1" s="444" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="446"/>
-      <c r="CP1" s="446"/>
-      <c r="CQ1" s="446"/>
-      <c r="CR1" s="446"/>
-      <c r="CS1" s="446"/>
-      <c r="CT1" s="446"/>
-      <c r="CU1" s="446"/>
-      <c r="CV1" s="446"/>
-      <c r="CW1" s="447"/>
+      <c r="CO1" s="445"/>
+      <c r="CP1" s="445"/>
+      <c r="CQ1" s="445"/>
+      <c r="CR1" s="445"/>
+      <c r="CS1" s="445"/>
+      <c r="CT1" s="445"/>
+      <c r="CU1" s="445"/>
+      <c r="CV1" s="445"/>
+      <c r="CW1" s="446"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24733,11 +24738,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="448" t="s">
+      <c r="AX47" s="447" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="449"/>
-      <c r="AZ47" s="450"/>
+      <c r="AY47" s="448"/>
+      <c r="AZ47" s="449"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -25036,11 +25041,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="451" t="s">
+      <c r="BS60" s="450" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="452"/>
-      <c r="BU60" s="453"/>
+      <c r="BT60" s="451"/>
+      <c r="BU60" s="452"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -25404,120 +25409,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="454" t="s">
+      <c r="B1" s="453" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
-      <c r="G1" s="455"/>
-      <c r="H1" s="455"/>
-      <c r="I1" s="455"/>
-      <c r="J1" s="455"/>
-      <c r="K1" s="455"/>
-      <c r="L1" s="455"/>
-      <c r="M1" s="455"/>
-      <c r="N1" s="455"/>
-      <c r="O1" s="455"/>
-      <c r="P1" s="455"/>
-      <c r="Q1" s="456"/>
-      <c r="R1" s="445" t="s">
+      <c r="C1" s="454"/>
+      <c r="D1" s="454"/>
+      <c r="E1" s="454"/>
+      <c r="F1" s="454"/>
+      <c r="G1" s="454"/>
+      <c r="H1" s="454"/>
+      <c r="I1" s="454"/>
+      <c r="J1" s="454"/>
+      <c r="K1" s="454"/>
+      <c r="L1" s="454"/>
+      <c r="M1" s="454"/>
+      <c r="N1" s="454"/>
+      <c r="O1" s="454"/>
+      <c r="P1" s="454"/>
+      <c r="Q1" s="455"/>
+      <c r="R1" s="444" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="446"/>
-      <c r="T1" s="446"/>
-      <c r="U1" s="446"/>
-      <c r="V1" s="446"/>
-      <c r="W1" s="446"/>
-      <c r="X1" s="446"/>
-      <c r="Y1" s="446"/>
-      <c r="Z1" s="446"/>
-      <c r="AA1" s="446"/>
-      <c r="AB1" s="446"/>
-      <c r="AC1" s="446"/>
-      <c r="AD1" s="446"/>
-      <c r="AE1" s="446"/>
-      <c r="AF1" s="446"/>
-      <c r="AG1" s="446"/>
-      <c r="AH1" s="446"/>
-      <c r="AI1" s="446"/>
-      <c r="AJ1" s="446"/>
-      <c r="AK1" s="446"/>
-      <c r="AL1" s="446"/>
-      <c r="AM1" s="447"/>
-      <c r="AN1" s="445" t="s">
+      <c r="S1" s="445"/>
+      <c r="T1" s="445"/>
+      <c r="U1" s="445"/>
+      <c r="V1" s="445"/>
+      <c r="W1" s="445"/>
+      <c r="X1" s="445"/>
+      <c r="Y1" s="445"/>
+      <c r="Z1" s="445"/>
+      <c r="AA1" s="445"/>
+      <c r="AB1" s="445"/>
+      <c r="AC1" s="445"/>
+      <c r="AD1" s="445"/>
+      <c r="AE1" s="445"/>
+      <c r="AF1" s="445"/>
+      <c r="AG1" s="445"/>
+      <c r="AH1" s="445"/>
+      <c r="AI1" s="445"/>
+      <c r="AJ1" s="445"/>
+      <c r="AK1" s="445"/>
+      <c r="AL1" s="445"/>
+      <c r="AM1" s="446"/>
+      <c r="AN1" s="444" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="446"/>
-      <c r="AP1" s="446"/>
-      <c r="AQ1" s="446"/>
-      <c r="AR1" s="446"/>
-      <c r="AS1" s="446"/>
-      <c r="AT1" s="446"/>
-      <c r="AU1" s="446"/>
-      <c r="AV1" s="446"/>
-      <c r="AW1" s="446"/>
-      <c r="AX1" s="446"/>
-      <c r="AY1" s="446"/>
-      <c r="AZ1" s="446"/>
-      <c r="BA1" s="446"/>
-      <c r="BB1" s="446"/>
-      <c r="BC1" s="446"/>
-      <c r="BD1" s="446"/>
-      <c r="BE1" s="446"/>
-      <c r="BF1" s="446"/>
-      <c r="BG1" s="446"/>
-      <c r="BH1" s="446"/>
-      <c r="BI1" s="446"/>
-      <c r="BJ1" s="447"/>
-      <c r="BK1" s="445" t="s">
+      <c r="AO1" s="445"/>
+      <c r="AP1" s="445"/>
+      <c r="AQ1" s="445"/>
+      <c r="AR1" s="445"/>
+      <c r="AS1" s="445"/>
+      <c r="AT1" s="445"/>
+      <c r="AU1" s="445"/>
+      <c r="AV1" s="445"/>
+      <c r="AW1" s="445"/>
+      <c r="AX1" s="445"/>
+      <c r="AY1" s="445"/>
+      <c r="AZ1" s="445"/>
+      <c r="BA1" s="445"/>
+      <c r="BB1" s="445"/>
+      <c r="BC1" s="445"/>
+      <c r="BD1" s="445"/>
+      <c r="BE1" s="445"/>
+      <c r="BF1" s="445"/>
+      <c r="BG1" s="445"/>
+      <c r="BH1" s="445"/>
+      <c r="BI1" s="445"/>
+      <c r="BJ1" s="446"/>
+      <c r="BK1" s="444" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="446"/>
-      <c r="BM1" s="446"/>
-      <c r="BN1" s="446"/>
-      <c r="BO1" s="446"/>
-      <c r="BP1" s="446"/>
-      <c r="BQ1" s="446"/>
-      <c r="BR1" s="446"/>
-      <c r="BS1" s="446"/>
-      <c r="BT1" s="446"/>
-      <c r="BU1" s="446"/>
-      <c r="BV1" s="446"/>
-      <c r="BW1" s="446"/>
-      <c r="BX1" s="446"/>
-      <c r="BY1" s="446"/>
-      <c r="BZ1" s="446"/>
-      <c r="CA1" s="446"/>
-      <c r="CB1" s="446"/>
-      <c r="CC1" s="446"/>
-      <c r="CD1" s="446"/>
-      <c r="CE1" s="446"/>
-      <c r="CF1" s="446"/>
-      <c r="CG1" s="447"/>
-      <c r="CH1" s="445" t="s">
+      <c r="BL1" s="445"/>
+      <c r="BM1" s="445"/>
+      <c r="BN1" s="445"/>
+      <c r="BO1" s="445"/>
+      <c r="BP1" s="445"/>
+      <c r="BQ1" s="445"/>
+      <c r="BR1" s="445"/>
+      <c r="BS1" s="445"/>
+      <c r="BT1" s="445"/>
+      <c r="BU1" s="445"/>
+      <c r="BV1" s="445"/>
+      <c r="BW1" s="445"/>
+      <c r="BX1" s="445"/>
+      <c r="BY1" s="445"/>
+      <c r="BZ1" s="445"/>
+      <c r="CA1" s="445"/>
+      <c r="CB1" s="445"/>
+      <c r="CC1" s="445"/>
+      <c r="CD1" s="445"/>
+      <c r="CE1" s="445"/>
+      <c r="CF1" s="445"/>
+      <c r="CG1" s="446"/>
+      <c r="CH1" s="444" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="446"/>
-      <c r="CJ1" s="446"/>
-      <c r="CK1" s="446"/>
-      <c r="CL1" s="446"/>
-      <c r="CM1" s="446"/>
-      <c r="CN1" s="446"/>
-      <c r="CO1" s="446"/>
-      <c r="CP1" s="446"/>
-      <c r="CQ1" s="447"/>
-      <c r="CR1" s="457" t="s">
+      <c r="CI1" s="445"/>
+      <c r="CJ1" s="445"/>
+      <c r="CK1" s="445"/>
+      <c r="CL1" s="445"/>
+      <c r="CM1" s="445"/>
+      <c r="CN1" s="445"/>
+      <c r="CO1" s="445"/>
+      <c r="CP1" s="445"/>
+      <c r="CQ1" s="446"/>
+      <c r="CR1" s="456" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="458"/>
-      <c r="CT1" s="458"/>
-      <c r="CU1" s="458"/>
-      <c r="CV1" s="458"/>
-      <c r="CW1" s="458"/>
-      <c r="CX1" s="458"/>
-      <c r="CY1" s="459"/>
+      <c r="CS1" s="457"/>
+      <c r="CT1" s="457"/>
+      <c r="CU1" s="457"/>
+      <c r="CV1" s="457"/>
+      <c r="CW1" s="457"/>
+      <c r="CX1" s="457"/>
+      <c r="CY1" s="458"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27326,11 +27331,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="460" t="s">
+      <c r="AY47" s="459" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="461"/>
-      <c r="BA47" s="462"/>
+      <c r="AZ47" s="460"/>
+      <c r="BA47" s="461"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27723,11 +27728,11 @@
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="451" t="s">
+      <c r="BU60" s="450" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="452"/>
-      <c r="BW60" s="453"/>
+      <c r="BV60" s="451"/>
+      <c r="BW60" s="452"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -28202,120 +28207,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="454" t="s">
+      <c r="B1" s="453" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
-      <c r="G1" s="455"/>
-      <c r="H1" s="455"/>
-      <c r="I1" s="455"/>
-      <c r="J1" s="455"/>
-      <c r="K1" s="455"/>
-      <c r="L1" s="455"/>
-      <c r="M1" s="455"/>
-      <c r="N1" s="455"/>
-      <c r="O1" s="455"/>
-      <c r="P1" s="455"/>
-      <c r="Q1" s="456"/>
-      <c r="R1" s="445" t="s">
+      <c r="C1" s="454"/>
+      <c r="D1" s="454"/>
+      <c r="E1" s="454"/>
+      <c r="F1" s="454"/>
+      <c r="G1" s="454"/>
+      <c r="H1" s="454"/>
+      <c r="I1" s="454"/>
+      <c r="J1" s="454"/>
+      <c r="K1" s="454"/>
+      <c r="L1" s="454"/>
+      <c r="M1" s="454"/>
+      <c r="N1" s="454"/>
+      <c r="O1" s="454"/>
+      <c r="P1" s="454"/>
+      <c r="Q1" s="455"/>
+      <c r="R1" s="444" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="446"/>
-      <c r="T1" s="446"/>
-      <c r="U1" s="446"/>
-      <c r="V1" s="446"/>
-      <c r="W1" s="446"/>
-      <c r="X1" s="446"/>
-      <c r="Y1" s="446"/>
-      <c r="Z1" s="446"/>
-      <c r="AA1" s="446"/>
-      <c r="AB1" s="446"/>
-      <c r="AC1" s="446"/>
-      <c r="AD1" s="446"/>
-      <c r="AE1" s="446"/>
-      <c r="AF1" s="446"/>
-      <c r="AG1" s="446"/>
-      <c r="AH1" s="446"/>
-      <c r="AI1" s="446"/>
-      <c r="AJ1" s="446"/>
-      <c r="AK1" s="446"/>
-      <c r="AL1" s="446"/>
-      <c r="AM1" s="447"/>
-      <c r="AN1" s="445" t="s">
+      <c r="S1" s="445"/>
+      <c r="T1" s="445"/>
+      <c r="U1" s="445"/>
+      <c r="V1" s="445"/>
+      <c r="W1" s="445"/>
+      <c r="X1" s="445"/>
+      <c r="Y1" s="445"/>
+      <c r="Z1" s="445"/>
+      <c r="AA1" s="445"/>
+      <c r="AB1" s="445"/>
+      <c r="AC1" s="445"/>
+      <c r="AD1" s="445"/>
+      <c r="AE1" s="445"/>
+      <c r="AF1" s="445"/>
+      <c r="AG1" s="445"/>
+      <c r="AH1" s="445"/>
+      <c r="AI1" s="445"/>
+      <c r="AJ1" s="445"/>
+      <c r="AK1" s="445"/>
+      <c r="AL1" s="445"/>
+      <c r="AM1" s="446"/>
+      <c r="AN1" s="444" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="446"/>
-      <c r="AP1" s="446"/>
-      <c r="AQ1" s="446"/>
-      <c r="AR1" s="446"/>
-      <c r="AS1" s="446"/>
-      <c r="AT1" s="446"/>
-      <c r="AU1" s="446"/>
-      <c r="AV1" s="446"/>
-      <c r="AW1" s="446"/>
-      <c r="AX1" s="446"/>
-      <c r="AY1" s="446"/>
-      <c r="AZ1" s="446"/>
-      <c r="BA1" s="446"/>
-      <c r="BB1" s="446"/>
-      <c r="BC1" s="446"/>
-      <c r="BD1" s="446"/>
-      <c r="BE1" s="446"/>
-      <c r="BF1" s="446"/>
-      <c r="BG1" s="446"/>
-      <c r="BH1" s="446"/>
-      <c r="BI1" s="446"/>
-      <c r="BJ1" s="447"/>
-      <c r="BK1" s="445" t="s">
+      <c r="AO1" s="445"/>
+      <c r="AP1" s="445"/>
+      <c r="AQ1" s="445"/>
+      <c r="AR1" s="445"/>
+      <c r="AS1" s="445"/>
+      <c r="AT1" s="445"/>
+      <c r="AU1" s="445"/>
+      <c r="AV1" s="445"/>
+      <c r="AW1" s="445"/>
+      <c r="AX1" s="445"/>
+      <c r="AY1" s="445"/>
+      <c r="AZ1" s="445"/>
+      <c r="BA1" s="445"/>
+      <c r="BB1" s="445"/>
+      <c r="BC1" s="445"/>
+      <c r="BD1" s="445"/>
+      <c r="BE1" s="445"/>
+      <c r="BF1" s="445"/>
+      <c r="BG1" s="445"/>
+      <c r="BH1" s="445"/>
+      <c r="BI1" s="445"/>
+      <c r="BJ1" s="446"/>
+      <c r="BK1" s="444" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="446"/>
-      <c r="BM1" s="446"/>
-      <c r="BN1" s="446"/>
-      <c r="BO1" s="446"/>
-      <c r="BP1" s="446"/>
-      <c r="BQ1" s="446"/>
-      <c r="BR1" s="446"/>
-      <c r="BS1" s="446"/>
-      <c r="BT1" s="446"/>
-      <c r="BU1" s="446"/>
-      <c r="BV1" s="446"/>
-      <c r="BW1" s="446"/>
-      <c r="BX1" s="446"/>
-      <c r="BY1" s="446"/>
-      <c r="BZ1" s="446"/>
-      <c r="CA1" s="446"/>
-      <c r="CB1" s="446"/>
-      <c r="CC1" s="446"/>
-      <c r="CD1" s="446"/>
-      <c r="CE1" s="446"/>
-      <c r="CF1" s="446"/>
-      <c r="CG1" s="447"/>
-      <c r="CH1" s="445" t="s">
+      <c r="BL1" s="445"/>
+      <c r="BM1" s="445"/>
+      <c r="BN1" s="445"/>
+      <c r="BO1" s="445"/>
+      <c r="BP1" s="445"/>
+      <c r="BQ1" s="445"/>
+      <c r="BR1" s="445"/>
+      <c r="BS1" s="445"/>
+      <c r="BT1" s="445"/>
+      <c r="BU1" s="445"/>
+      <c r="BV1" s="445"/>
+      <c r="BW1" s="445"/>
+      <c r="BX1" s="445"/>
+      <c r="BY1" s="445"/>
+      <c r="BZ1" s="445"/>
+      <c r="CA1" s="445"/>
+      <c r="CB1" s="445"/>
+      <c r="CC1" s="445"/>
+      <c r="CD1" s="445"/>
+      <c r="CE1" s="445"/>
+      <c r="CF1" s="445"/>
+      <c r="CG1" s="446"/>
+      <c r="CH1" s="444" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="446"/>
-      <c r="CJ1" s="446"/>
-      <c r="CK1" s="446"/>
-      <c r="CL1" s="446"/>
-      <c r="CM1" s="446"/>
-      <c r="CN1" s="446"/>
-      <c r="CO1" s="446"/>
-      <c r="CP1" s="446"/>
-      <c r="CQ1" s="447"/>
-      <c r="CR1" s="457" t="s">
+      <c r="CI1" s="445"/>
+      <c r="CJ1" s="445"/>
+      <c r="CK1" s="445"/>
+      <c r="CL1" s="445"/>
+      <c r="CM1" s="445"/>
+      <c r="CN1" s="445"/>
+      <c r="CO1" s="445"/>
+      <c r="CP1" s="445"/>
+      <c r="CQ1" s="446"/>
+      <c r="CR1" s="456" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="458"/>
-      <c r="CT1" s="458"/>
-      <c r="CU1" s="458"/>
-      <c r="CV1" s="458"/>
-      <c r="CW1" s="458"/>
-      <c r="CX1" s="458"/>
-      <c r="CY1" s="459"/>
+      <c r="CS1" s="457"/>
+      <c r="CT1" s="457"/>
+      <c r="CU1" s="457"/>
+      <c r="CV1" s="457"/>
+      <c r="CW1" s="457"/>
+      <c r="CX1" s="457"/>
+      <c r="CY1" s="458"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30903,11 +30908,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="460" t="s">
+      <c r="AY47" s="459" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="461"/>
-      <c r="BA47" s="462"/>
+      <c r="AZ47" s="460"/>
+      <c r="BA47" s="461"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -31556,11 +31561,11 @@
       <c r="BK60" s="145"/>
       <c r="BN60" s="321"/>
       <c r="BS60" s="302"/>
-      <c r="BU60" s="451" t="s">
+      <c r="BU60" s="450" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="452"/>
-      <c r="BW60" s="453"/>
+      <c r="BV60" s="451"/>
+      <c r="BW60" s="452"/>
       <c r="BX60" s="302"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -34618,20 +34623,20 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="435"/>
-    <col min="2" max="2" width="5.85546875" style="435" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="435" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="435" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="435" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.42578125" style="435" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="435" customWidth="1"/>
-    <col min="9" max="16384" width="5.5703125" style="435"/>
+    <col min="1" max="1" width="5.5703125" style="434"/>
+    <col min="2" max="2" width="5.85546875" style="434" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="434" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="434" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="434" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" style="434" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="434" customWidth="1"/>
+    <col min="9" max="16384" width="5.5703125" style="434"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="398" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34649,18 +34654,18 @@
         <v>154</v>
       </c>
       <c r="F1" s="399" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G1" s="399" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H1" s="398" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="437"/>
+        <v>206</v>
+      </c>
+      <c r="I1" s="436"/>
     </row>
     <row r="2" spans="1:16" s="402" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="466" t="s">
+      <c r="A2" s="465" t="s">
         <v>142</v>
       </c>
       <c r="B2" s="400">
@@ -34671,26 +34676,26 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="467"/>
+      <c r="A3" s="466"/>
       <c r="B3" s="403">
         <v>43671</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="407" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="467"/>
+      <c r="A4" s="466"/>
       <c r="B4" s="405">
         <v>43672</v>
       </c>
       <c r="C4" s="406" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D4" s="407" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P4" s="408"/>
     </row>
     <row r="5" spans="1:16" s="411" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="467"/>
+      <c r="A5" s="466"/>
       <c r="B5" s="409">
         <v>43675</v>
       </c>
@@ -34698,20 +34703,20 @@
         <v>147</v>
       </c>
       <c r="D5" s="411" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="436" t="s">
-        <v>211</v>
+        <v>194</v>
+      </c>
+      <c r="E5" s="435" t="s">
+        <v>209</v>
       </c>
       <c r="F5" s="411" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G5" s="411" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="467"/>
+      <c r="A6" s="466"/>
       <c r="B6" s="409">
         <v>43676</v>
       </c>
@@ -34722,75 +34727,75 @@
         <v>149</v>
       </c>
       <c r="F6" s="411" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G6" s="411" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="467"/>
+      <c r="A7" s="466"/>
       <c r="B7" s="409">
         <v>43677</v>
       </c>
       <c r="C7" s="410" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D7" s="410" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="410" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="411" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="411" t="s">
+      <c r="G7" s="411" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="437" t="s">
         <v>207</v>
       </c>
-      <c r="G7" s="411" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="438" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="8" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="467"/>
+      <c r="A8" s="466"/>
       <c r="B8" s="403">
         <v>43678</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="467"/>
+      <c r="A9" s="466"/>
       <c r="B9" s="409">
         <v>43679</v>
       </c>
       <c r="C9" s="410" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D9" s="410" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="410" t="s">
         <v>212</v>
       </c>
-      <c r="E9" s="410" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="436"/>
+      <c r="F9" s="435"/>
     </row>
     <row r="10" spans="1:16" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="467"/>
+      <c r="A10" s="466"/>
       <c r="B10" s="405">
         <v>43682</v>
       </c>
       <c r="C10" s="406" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="406" t="s">
         <v>210</v>
       </c>
-      <c r="D10" s="406" t="s">
-        <v>212</v>
-      </c>
       <c r="E10" s="407" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="467"/>
+      <c r="A11" s="466"/>
       <c r="B11" s="405">
         <v>43683</v>
       </c>
@@ -34801,14 +34806,14 @@
         <v>152</v>
       </c>
       <c r="F11" s="407" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G11" s="407" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="467"/>
+      <c r="A12" s="466"/>
       <c r="B12" s="405">
         <v>43684</v>
       </c>
@@ -34818,42 +34823,42 @@
       <c r="D12" s="407" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="439" t="s">
-        <v>216</v>
+      <c r="H12" s="438" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="467"/>
+      <c r="A13" s="466"/>
       <c r="B13" s="403">
         <v>43685</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="467"/>
+      <c r="A14" s="466"/>
       <c r="B14" s="405">
         <v>43686</v>
       </c>
       <c r="C14" s="407" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="439" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="D14" s="438" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="467"/>
+      <c r="A15" s="466"/>
       <c r="B15" s="409">
         <v>43689</v>
       </c>
       <c r="C15" s="411" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E15" s="411" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="467"/>
+      <c r="A16" s="466"/>
       <c r="B16" s="409">
         <v>43690</v>
       </c>
@@ -34861,8 +34866,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="467"/>
+    <row r="17" spans="1:8" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="466"/>
       <c r="B17" s="409">
         <v>43691</v>
       </c>
@@ -34870,61 +34875,64 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="467"/>
+    <row r="18" spans="1:8" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="466"/>
       <c r="B18" s="403">
         <v>43692</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="413" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="468"/>
+    <row r="19" spans="1:8" s="413" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="467"/>
       <c r="B19" s="412">
         <v>43693</v>
       </c>
       <c r="C19" s="411" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="402" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="463" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="402" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="462" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="414">
         <v>43696</v>
       </c>
       <c r="C20" s="401" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D20" s="415" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="464"/>
+      <c r="E20" s="407" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="463"/>
       <c r="B21" s="416">
         <v>43697</v>
       </c>
       <c r="C21" s="417" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D21" s="406" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="418"/>
-    </row>
-    <row r="22" spans="1:7" s="407" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="464"/>
+      <c r="E21" s="407" t="s">
+        <v>219</v>
+      </c>
+      <c r="H21" s="407" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="463"/>
       <c r="B22" s="416">
         <v>43698</v>
       </c>
-      <c r="C22" s="407" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="419" t="s">
-        <v>160</v>
-      </c>
+      <c r="D22" s="418"/>
       <c r="E22" s="407" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F22" s="407" t="s">
         <v>220</v>
@@ -34932,93 +34940,102 @@
       <c r="G22" s="407" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="464"/>
-      <c r="B23" s="420">
+      <c r="H22" s="407" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="404" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="463"/>
+      <c r="B23" s="419">
         <v>43699</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="464"/>
+      <c r="C23" s="404" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="471" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="463"/>
       <c r="B24" s="416">
         <v>43700</v>
       </c>
       <c r="D24" s="407" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="464"/>
-      <c r="B25" s="421">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="463"/>
+      <c r="B25" s="420">
         <v>43703</v>
       </c>
       <c r="C25" s="410" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="410" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="410" t="s">
+    </row>
+    <row r="26" spans="1:8" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="463"/>
+      <c r="B26" s="420">
+        <v>43704</v>
+      </c>
+      <c r="C26" s="410" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="464"/>
-      <c r="B26" s="421">
-        <v>43704</v>
-      </c>
-      <c r="C26" s="410" t="s">
+      <c r="D26" s="410" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="463"/>
+      <c r="B27" s="420">
+        <v>43705</v>
+      </c>
+      <c r="C27" s="411" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="410" t="s">
+      <c r="D27" s="410" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="464"/>
-      <c r="B27" s="421">
-        <v>43705</v>
-      </c>
-      <c r="C27" s="411" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="410" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="464"/>
-      <c r="B28" s="420">
+    <row r="28" spans="1:8" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="463"/>
+      <c r="B28" s="419">
         <v>43706</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="464"/>
-      <c r="B29" s="421">
+    <row r="29" spans="1:8" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="463"/>
+      <c r="B29" s="420">
         <v>43707</v>
       </c>
       <c r="D29" s="411" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="464"/>
+    <row r="30" spans="1:8" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="463"/>
       <c r="B30" s="416">
         <v>43710</v>
       </c>
       <c r="C30" s="406" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="464"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="463"/>
       <c r="B31" s="416">
         <v>43711</v>
       </c>
       <c r="D31" s="407" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="464"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="463"/>
       <c r="B32" s="416">
         <v>43712</v>
       </c>
@@ -35026,17 +35043,17 @@
         <v>156</v>
       </c>
       <c r="D32" s="407" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="464"/>
-      <c r="B33" s="420">
+      <c r="A33" s="463"/>
+      <c r="B33" s="419">
         <v>43713</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="464"/>
+      <c r="A34" s="463"/>
       <c r="B34" s="416">
         <v>43714</v>
       </c>
@@ -35045,8 +35062,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="464"/>
-      <c r="B35" s="421">
+      <c r="A35" s="463"/>
+      <c r="B35" s="420">
         <v>43717</v>
       </c>
       <c r="C35" s="411" t="s">
@@ -35054,8 +35071,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="464"/>
-      <c r="B36" s="421">
+      <c r="A36" s="463"/>
+      <c r="B36" s="420">
         <v>43718</v>
       </c>
       <c r="C36" s="411" t="s">
@@ -35063,8 +35080,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="464"/>
-      <c r="B37" s="421">
+      <c r="A37" s="463"/>
+      <c r="B37" s="420">
         <v>43719</v>
       </c>
       <c r="C37" s="411" t="s">
@@ -35072,14 +35089,14 @@
       </c>
     </row>
     <row r="38" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="464"/>
-      <c r="B38" s="420">
+      <c r="A38" s="463"/>
+      <c r="B38" s="419">
         <v>43720</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="464"/>
-      <c r="B39" s="421">
+      <c r="A39" s="463"/>
+      <c r="B39" s="420">
         <v>43721</v>
       </c>
       <c r="C39" s="411" t="s">
@@ -35087,7 +35104,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="464"/>
+      <c r="A40" s="463"/>
       <c r="B40" s="416">
         <v>43724</v>
       </c>
@@ -35096,7 +35113,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="464"/>
+      <c r="A41" s="463"/>
       <c r="B41" s="416">
         <v>43725</v>
       </c>
@@ -35105,7 +35122,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="464"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="416">
         <v>43726</v>
       </c>
@@ -35114,127 +35131,127 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="464"/>
-      <c r="B43" s="420">
+      <c r="A43" s="463"/>
+      <c r="B43" s="419">
         <v>43727</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="423" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="465"/>
-      <c r="B44" s="422">
+    <row r="44" spans="1:4" s="422" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="464"/>
+      <c r="B44" s="421">
         <v>43728</v>
       </c>
-      <c r="C44" s="423" t="s">
+      <c r="C44" s="422" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="426" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="469" t="s">
+    <row r="45" spans="1:4" s="425" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="468" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="424">
+      <c r="B45" s="423">
         <v>43731</v>
       </c>
-      <c r="C45" s="425" t="s">
-        <v>180</v>
+      <c r="C45" s="424" t="s">
+        <v>178</v>
       </c>
       <c r="D45" s="411" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="469"/>
+      <c r="B46" s="426">
+        <v>43732</v>
+      </c>
+      <c r="C46" s="411" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="411" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="469"/>
+      <c r="B47" s="426">
+        <v>43733</v>
+      </c>
+      <c r="C47" s="410" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="411" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="470"/>
-      <c r="B46" s="427">
-        <v>43732</v>
-      </c>
-      <c r="C46" s="411" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" s="411" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="470"/>
-      <c r="B47" s="427">
-        <v>43733</v>
-      </c>
-      <c r="C47" s="410" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" s="411" t="s">
-        <v>177</v>
-      </c>
-    </row>
     <row r="48" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="470"/>
-      <c r="B48" s="428">
+      <c r="A48" s="469"/>
+      <c r="B48" s="427">
         <v>43734</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="411" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="470"/>
-      <c r="B49" s="427">
+      <c r="A49" s="469"/>
+      <c r="B49" s="426">
         <v>43735</v>
       </c>
       <c r="C49" s="410" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="470"/>
-      <c r="B50" s="429">
+      <c r="A50" s="469"/>
+      <c r="B50" s="428">
         <v>43738</v>
       </c>
       <c r="C50" s="406" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="407" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="470"/>
-      <c r="B51" s="429">
+      <c r="A51" s="469"/>
+      <c r="B51" s="428">
         <v>43739</v>
       </c>
       <c r="C51" s="406" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="470"/>
-      <c r="B52" s="429">
+      <c r="A52" s="469"/>
+      <c r="B52" s="428">
         <v>43740</v>
       </c>
       <c r="C52" s="407" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="470"/>
-      <c r="B53" s="428">
+      <c r="A53" s="469"/>
+      <c r="B53" s="427">
         <v>43741</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="407" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="470"/>
-      <c r="B54" s="429">
+      <c r="A54" s="469"/>
+      <c r="B54" s="428">
         <v>43742</v>
       </c>
       <c r="C54" s="406" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="470"/>
-      <c r="B55" s="427">
+      <c r="A55" s="469"/>
+      <c r="B55" s="426">
         <v>43745</v>
       </c>
       <c r="C55" s="411" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="470"/>
-      <c r="B56" s="427">
+      <c r="A56" s="469"/>
+      <c r="B56" s="426">
         <v>43746</v>
       </c>
       <c r="C56" s="411" t="s">
@@ -35242,8 +35259,8 @@
       </c>
     </row>
     <row r="57" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="470"/>
-      <c r="B57" s="427">
+      <c r="A57" s="469"/>
+      <c r="B57" s="426">
         <v>43747</v>
       </c>
       <c r="C57" s="411" t="s">
@@ -35251,14 +35268,14 @@
       </c>
     </row>
     <row r="58" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="470"/>
-      <c r="B58" s="428">
+      <c r="A58" s="469"/>
+      <c r="B58" s="427">
         <v>43748</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="470"/>
-      <c r="B59" s="427">
+      <c r="A59" s="469"/>
+      <c r="B59" s="426">
         <v>43749</v>
       </c>
       <c r="C59" s="411" t="s">
@@ -35266,8 +35283,8 @@
       </c>
     </row>
     <row r="60" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="470"/>
-      <c r="B60" s="429">
+      <c r="A60" s="469"/>
+      <c r="B60" s="428">
         <v>43754</v>
       </c>
       <c r="C60" s="407" t="s">
@@ -35275,14 +35292,14 @@
       </c>
     </row>
     <row r="61" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="470"/>
-      <c r="B61" s="428">
+      <c r="A61" s="469"/>
+      <c r="B61" s="427">
         <v>43755</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="470"/>
-      <c r="B62" s="429">
+      <c r="A62" s="469"/>
+      <c r="B62" s="428">
         <v>43756</v>
       </c>
       <c r="C62" s="407" t="s">
@@ -35290,8 +35307,8 @@
       </c>
     </row>
     <row r="63" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="470"/>
-      <c r="B63" s="427">
+      <c r="A63" s="469"/>
+      <c r="B63" s="426">
         <v>43759</v>
       </c>
       <c r="C63" s="411" t="s">
@@ -35299,8 +35316,8 @@
       </c>
     </row>
     <row r="64" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="470"/>
-      <c r="B64" s="427">
+      <c r="A64" s="469"/>
+      <c r="B64" s="426">
         <v>43760</v>
       </c>
       <c r="C64" s="411" t="s">
@@ -35308,124 +35325,124 @@
       </c>
     </row>
     <row r="65" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="470"/>
-      <c r="B65" s="427">
+      <c r="A65" s="469"/>
+      <c r="B65" s="426">
         <v>43761</v>
       </c>
       <c r="C65" s="411" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="431" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="471"/>
-      <c r="B66" s="430">
+    <row r="66" spans="1:4" s="430" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="470"/>
+      <c r="B66" s="429">
         <v>43762</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="426" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="469" t="s">
+    <row r="67" spans="1:4" s="425" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="468" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="424">
+      <c r="B67" s="423">
         <v>43763</v>
       </c>
-      <c r="C67" s="425" t="s">
+      <c r="C67" s="424" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="469"/>
+      <c r="B68" s="428">
+        <v>43766</v>
+      </c>
+      <c r="C68" s="407" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="407" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="470"/>
-      <c r="B68" s="429">
-        <v>43766</v>
-      </c>
-      <c r="C68" s="407" t="s">
+    <row r="69" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="469"/>
+      <c r="B69" s="428">
+        <v>43767</v>
+      </c>
+      <c r="C69" s="407" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="407" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="469"/>
+      <c r="B70" s="428">
+        <v>43768</v>
+      </c>
+      <c r="C70" s="406" t="s">
         <v>182</v>
       </c>
-      <c r="D68" s="407" t="s">
+      <c r="D70" s="407" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="469"/>
+      <c r="B71" s="427">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="469"/>
+      <c r="B72" s="428">
+        <v>43770</v>
+      </c>
+      <c r="C72" s="407" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="469"/>
+      <c r="B73" s="426">
+        <v>43773</v>
+      </c>
+      <c r="C73" s="411" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="470"/>
-      <c r="B69" s="429">
-        <v>43767</v>
-      </c>
-      <c r="C69" s="407" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="407" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="470"/>
-      <c r="B70" s="429">
-        <v>43768</v>
-      </c>
-      <c r="C70" s="406" t="s">
+      <c r="D73" s="411" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="469"/>
+      <c r="B74" s="426">
+        <v>43774</v>
+      </c>
+      <c r="C74" s="411" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="407" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="470"/>
-      <c r="B71" s="428">
-        <v>43769</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="470"/>
-      <c r="B72" s="429">
-        <v>43770</v>
-      </c>
-      <c r="C72" s="407" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="470"/>
-      <c r="B73" s="427">
-        <v>43773</v>
-      </c>
-      <c r="C73" s="411" t="s">
-        <v>185</v>
-      </c>
-      <c r="D73" s="411" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="470"/>
-      <c r="B74" s="427">
-        <v>43774</v>
-      </c>
-      <c r="C74" s="411" t="s">
-        <v>186</v>
-      </c>
       <c r="D74" s="411" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="470"/>
-      <c r="B75" s="427">
+      <c r="A75" s="469"/>
+      <c r="B75" s="426">
         <v>43775</v>
       </c>
       <c r="C75" s="411" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="470"/>
-      <c r="B76" s="428">
+      <c r="A76" s="469"/>
+      <c r="B76" s="427">
         <v>43776</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="470"/>
-      <c r="B77" s="427">
+      <c r="A77" s="469"/>
+      <c r="B77" s="426">
         <v>43777</v>
       </c>
       <c r="C77" s="411" t="s">
@@ -35433,8 +35450,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="470"/>
-      <c r="B78" s="429">
+      <c r="A78" s="469"/>
+      <c r="B78" s="428">
         <v>43780</v>
       </c>
       <c r="C78" s="407" t="s">
@@ -35442,8 +35459,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="470"/>
-      <c r="B79" s="429">
+      <c r="A79" s="469"/>
+      <c r="B79" s="428">
         <v>43781</v>
       </c>
       <c r="C79" s="407" t="s">
@@ -35451,8 +35468,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="470"/>
-      <c r="B80" s="429">
+      <c r="A80" s="469"/>
+      <c r="B80" s="428">
         <v>43782</v>
       </c>
       <c r="C80" s="407" t="s">
@@ -35460,14 +35477,14 @@
       </c>
     </row>
     <row r="81" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="470"/>
-      <c r="B81" s="428">
+      <c r="A81" s="469"/>
+      <c r="B81" s="427">
         <v>43783</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="470"/>
-      <c r="B82" s="427">
+      <c r="A82" s="469"/>
+      <c r="B82" s="426">
         <v>43787</v>
       </c>
       <c r="C82" s="411" t="s">
@@ -35475,8 +35492,8 @@
       </c>
     </row>
     <row r="83" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="470"/>
-      <c r="B83" s="427">
+      <c r="A83" s="469"/>
+      <c r="B83" s="426">
         <v>43788</v>
       </c>
       <c r="C83" s="411" t="s">
@@ -35484,14 +35501,14 @@
       </c>
     </row>
     <row r="84" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="470"/>
-      <c r="B84" s="428">
+      <c r="A84" s="469"/>
+      <c r="B84" s="427">
         <v>43790</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="470"/>
-      <c r="B85" s="427">
+      <c r="A85" s="469"/>
+      <c r="B85" s="426">
         <v>43791</v>
       </c>
       <c r="C85" s="411" t="s">
@@ -35499,8 +35516,8 @@
       </c>
     </row>
     <row r="86" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="470"/>
-      <c r="B86" s="429">
+      <c r="A86" s="469"/>
+      <c r="B86" s="428">
         <v>43794</v>
       </c>
       <c r="C86" s="407" t="s">
@@ -35508,8 +35525,8 @@
       </c>
     </row>
     <row r="87" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="470"/>
-      <c r="B87" s="429">
+      <c r="A87" s="469"/>
+      <c r="B87" s="428">
         <v>43795</v>
       </c>
       <c r="C87" s="407" t="s">
@@ -35517,67 +35534,67 @@
       </c>
     </row>
     <row r="88" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="470"/>
-      <c r="B88" s="429">
+      <c r="A88" s="469"/>
+      <c r="B88" s="428">
         <v>43796</v>
       </c>
       <c r="C88" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="431" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="471"/>
-      <c r="B89" s="430">
+    <row r="89" spans="1:3" s="430" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="470"/>
+      <c r="B89" s="429">
         <v>43797</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="402" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="463" t="s">
+      <c r="A90" s="462" t="s">
         <v>146</v>
       </c>
-      <c r="B90" s="432">
+      <c r="B90" s="431">
         <v>43798</v>
       </c>
       <c r="C90" s="401" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="463"/>
+      <c r="B91" s="426">
+        <v>43801</v>
+      </c>
+      <c r="C91" s="411" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="463"/>
+      <c r="B92" s="426">
+        <v>43802</v>
+      </c>
+      <c r="C92" s="411" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="463"/>
+      <c r="B93" s="426">
+        <v>43803</v>
+      </c>
+      <c r="C93" s="411" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="464"/>
-      <c r="B91" s="427">
-        <v>43801</v>
-      </c>
-      <c r="C91" s="411" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="464"/>
-      <c r="B92" s="427">
-        <v>43802</v>
-      </c>
-      <c r="C92" s="411" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="464"/>
-      <c r="B93" s="427">
-        <v>43803</v>
-      </c>
-      <c r="C93" s="411" t="s">
-        <v>191</v>
-      </c>
-    </row>
     <row r="94" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="464"/>
-      <c r="B94" s="428">
+      <c r="A94" s="463"/>
+      <c r="B94" s="427">
         <v>43804</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="464"/>
-      <c r="B95" s="427">
+      <c r="A95" s="463"/>
+      <c r="B95" s="426">
         <v>43805</v>
       </c>
       <c r="C95" s="411" t="s">
@@ -35585,8 +35602,8 @@
       </c>
     </row>
     <row r="96" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="464"/>
-      <c r="B96" s="429">
+      <c r="A96" s="463"/>
+      <c r="B96" s="428">
         <v>43808</v>
       </c>
       <c r="C96" s="407" t="s">
@@ -35594,8 +35611,8 @@
       </c>
     </row>
     <row r="97" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="464"/>
-      <c r="B97" s="429">
+      <c r="A97" s="463"/>
+      <c r="B97" s="428">
         <v>43809</v>
       </c>
       <c r="C97" s="407" t="s">
@@ -35603,37 +35620,37 @@
       </c>
     </row>
     <row r="98" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="464"/>
-      <c r="B98" s="429">
+      <c r="A98" s="463"/>
+      <c r="B98" s="428">
         <v>43810</v>
       </c>
       <c r="C98" s="407" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="431" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="465"/>
-      <c r="B99" s="430">
+    <row r="99" spans="1:3" s="430" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="464"/>
+      <c r="B99" s="429">
         <v>43811</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="433" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="434">
+    <row r="100" spans="1:3" s="432" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="433">
         <v>43812</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="421">
+      <c r="B101" s="420">
         <v>43815</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="421">
+      <c r="B102" s="420">
         <v>43816</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="421">
+      <c r="B103" s="420">
         <v>43817</v>
       </c>
     </row>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FE8072-5A9F-472A-A77B-55263930B675}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4484AF67-0040-4868-A481-534FD1974144}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="225">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1694,6 +1694,9 @@
   <si>
     <t>ex.: PClinics (SqlClient) - EFCore</t>
   </si>
+  <si>
+    <t>ex.: Moda</t>
+  </si>
 </sst>
 </file>
 
@@ -3354,6 +3357,9 @@
     <xf numFmtId="0" fontId="11" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3449,9 +3455,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4039,123 +4042,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="441" t="s">
+      <c r="B1" s="442" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
-      <c r="J1" s="442"/>
-      <c r="K1" s="442"/>
-      <c r="L1" s="442"/>
-      <c r="M1" s="442"/>
-      <c r="N1" s="442"/>
-      <c r="O1" s="442"/>
-      <c r="P1" s="442"/>
-      <c r="Q1" s="442"/>
-      <c r="R1" s="441" t="s">
+      <c r="C1" s="443"/>
+      <c r="D1" s="443"/>
+      <c r="E1" s="443"/>
+      <c r="F1" s="443"/>
+      <c r="G1" s="443"/>
+      <c r="H1" s="443"/>
+      <c r="I1" s="443"/>
+      <c r="J1" s="443"/>
+      <c r="K1" s="443"/>
+      <c r="L1" s="443"/>
+      <c r="M1" s="443"/>
+      <c r="N1" s="443"/>
+      <c r="O1" s="443"/>
+      <c r="P1" s="443"/>
+      <c r="Q1" s="443"/>
+      <c r="R1" s="442" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="442"/>
-      <c r="T1" s="442"/>
-      <c r="U1" s="442"/>
-      <c r="V1" s="442"/>
-      <c r="W1" s="442"/>
-      <c r="X1" s="442"/>
-      <c r="Y1" s="442"/>
-      <c r="Z1" s="442"/>
-      <c r="AA1" s="442"/>
-      <c r="AB1" s="442"/>
-      <c r="AC1" s="442"/>
-      <c r="AD1" s="442"/>
-      <c r="AE1" s="442"/>
-      <c r="AF1" s="442"/>
-      <c r="AG1" s="442"/>
-      <c r="AH1" s="442"/>
-      <c r="AI1" s="442"/>
-      <c r="AJ1" s="442"/>
-      <c r="AK1" s="442"/>
-      <c r="AL1" s="442"/>
-      <c r="AM1" s="443"/>
-      <c r="AN1" s="441" t="s">
+      <c r="S1" s="443"/>
+      <c r="T1" s="443"/>
+      <c r="U1" s="443"/>
+      <c r="V1" s="443"/>
+      <c r="W1" s="443"/>
+      <c r="X1" s="443"/>
+      <c r="Y1" s="443"/>
+      <c r="Z1" s="443"/>
+      <c r="AA1" s="443"/>
+      <c r="AB1" s="443"/>
+      <c r="AC1" s="443"/>
+      <c r="AD1" s="443"/>
+      <c r="AE1" s="443"/>
+      <c r="AF1" s="443"/>
+      <c r="AG1" s="443"/>
+      <c r="AH1" s="443"/>
+      <c r="AI1" s="443"/>
+      <c r="AJ1" s="443"/>
+      <c r="AK1" s="443"/>
+      <c r="AL1" s="443"/>
+      <c r="AM1" s="444"/>
+      <c r="AN1" s="442" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="442"/>
-      <c r="AP1" s="442"/>
-      <c r="AQ1" s="442"/>
-      <c r="AR1" s="442"/>
-      <c r="AS1" s="442"/>
-      <c r="AT1" s="443"/>
-      <c r="AU1" s="441" t="s">
+      <c r="AO1" s="443"/>
+      <c r="AP1" s="443"/>
+      <c r="AQ1" s="443"/>
+      <c r="AR1" s="443"/>
+      <c r="AS1" s="443"/>
+      <c r="AT1" s="444"/>
+      <c r="AU1" s="442" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="442"/>
-      <c r="AW1" s="442"/>
-      <c r="AX1" s="442"/>
-      <c r="AY1" s="442"/>
-      <c r="AZ1" s="442"/>
-      <c r="BA1" s="442"/>
-      <c r="BB1" s="442"/>
-      <c r="BC1" s="442"/>
-      <c r="BD1" s="442"/>
-      <c r="BE1" s="442"/>
-      <c r="BF1" s="442"/>
-      <c r="BG1" s="442"/>
-      <c r="BH1" s="442"/>
-      <c r="BI1" s="442"/>
-      <c r="BJ1" s="442"/>
-      <c r="BK1" s="442"/>
-      <c r="BL1" s="442"/>
-      <c r="BM1" s="442"/>
-      <c r="BN1" s="442"/>
-      <c r="BO1" s="442"/>
-      <c r="BP1" s="442"/>
-      <c r="BQ1" s="443"/>
-      <c r="BR1" s="441" t="s">
+      <c r="AV1" s="443"/>
+      <c r="AW1" s="443"/>
+      <c r="AX1" s="443"/>
+      <c r="AY1" s="443"/>
+      <c r="AZ1" s="443"/>
+      <c r="BA1" s="443"/>
+      <c r="BB1" s="443"/>
+      <c r="BC1" s="443"/>
+      <c r="BD1" s="443"/>
+      <c r="BE1" s="443"/>
+      <c r="BF1" s="443"/>
+      <c r="BG1" s="443"/>
+      <c r="BH1" s="443"/>
+      <c r="BI1" s="443"/>
+      <c r="BJ1" s="443"/>
+      <c r="BK1" s="443"/>
+      <c r="BL1" s="443"/>
+      <c r="BM1" s="443"/>
+      <c r="BN1" s="443"/>
+      <c r="BO1" s="443"/>
+      <c r="BP1" s="443"/>
+      <c r="BQ1" s="444"/>
+      <c r="BR1" s="442" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="442"/>
-      <c r="BT1" s="442"/>
-      <c r="BU1" s="442"/>
-      <c r="BV1" s="442"/>
-      <c r="BW1" s="442"/>
-      <c r="BX1" s="442"/>
-      <c r="BY1" s="442"/>
-      <c r="BZ1" s="442"/>
-      <c r="CA1" s="442"/>
-      <c r="CB1" s="442"/>
-      <c r="CC1" s="442"/>
-      <c r="CD1" s="442"/>
-      <c r="CE1" s="442"/>
-      <c r="CF1" s="442"/>
-      <c r="CG1" s="442"/>
-      <c r="CH1" s="442"/>
-      <c r="CI1" s="442"/>
-      <c r="CJ1" s="442"/>
-      <c r="CK1" s="443"/>
-      <c r="CL1" s="441" t="s">
+      <c r="BS1" s="443"/>
+      <c r="BT1" s="443"/>
+      <c r="BU1" s="443"/>
+      <c r="BV1" s="443"/>
+      <c r="BW1" s="443"/>
+      <c r="BX1" s="443"/>
+      <c r="BY1" s="443"/>
+      <c r="BZ1" s="443"/>
+      <c r="CA1" s="443"/>
+      <c r="CB1" s="443"/>
+      <c r="CC1" s="443"/>
+      <c r="CD1" s="443"/>
+      <c r="CE1" s="443"/>
+      <c r="CF1" s="443"/>
+      <c r="CG1" s="443"/>
+      <c r="CH1" s="443"/>
+      <c r="CI1" s="443"/>
+      <c r="CJ1" s="443"/>
+      <c r="CK1" s="444"/>
+      <c r="CL1" s="442" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="442"/>
-      <c r="CN1" s="442"/>
-      <c r="CO1" s="442"/>
-      <c r="CP1" s="442"/>
-      <c r="CQ1" s="442"/>
-      <c r="CR1" s="442"/>
-      <c r="CS1" s="442"/>
-      <c r="CT1" s="442"/>
-      <c r="CU1" s="442"/>
-      <c r="CV1" s="442"/>
-      <c r="CW1" s="442"/>
-      <c r="CX1" s="442"/>
-      <c r="CY1" s="442"/>
-      <c r="CZ1" s="442"/>
-      <c r="DA1" s="442"/>
-      <c r="DB1" s="442"/>
+      <c r="CM1" s="443"/>
+      <c r="CN1" s="443"/>
+      <c r="CO1" s="443"/>
+      <c r="CP1" s="443"/>
+      <c r="CQ1" s="443"/>
+      <c r="CR1" s="443"/>
+      <c r="CS1" s="443"/>
+      <c r="CT1" s="443"/>
+      <c r="CU1" s="443"/>
+      <c r="CV1" s="443"/>
+      <c r="CW1" s="443"/>
+      <c r="CX1" s="443"/>
+      <c r="CY1" s="443"/>
+      <c r="CZ1" s="443"/>
+      <c r="DA1" s="443"/>
+      <c r="DB1" s="443"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22782,15 +22785,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="439" t="s">
+      <c r="CW86" s="440" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="439"/>
-      <c r="CY86" s="439"/>
-      <c r="CZ86" s="439"/>
-      <c r="DA86" s="439"/>
-      <c r="DB86" s="439"/>
-      <c r="DC86" s="440"/>
+      <c r="CX86" s="440"/>
+      <c r="CY86" s="440"/>
+      <c r="CZ86" s="440"/>
+      <c r="DA86" s="440"/>
+      <c r="DB86" s="440"/>
+      <c r="DC86" s="441"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -23180,118 +23183,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="453" t="s">
+      <c r="B1" s="454" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="454"/>
-      <c r="H1" s="454"/>
-      <c r="I1" s="454"/>
-      <c r="J1" s="454"/>
-      <c r="K1" s="454"/>
-      <c r="L1" s="454"/>
-      <c r="M1" s="454"/>
-      <c r="N1" s="454"/>
-      <c r="O1" s="454"/>
-      <c r="P1" s="454"/>
-      <c r="Q1" s="455"/>
-      <c r="R1" s="444" t="s">
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="455"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="455"/>
+      <c r="K1" s="455"/>
+      <c r="L1" s="455"/>
+      <c r="M1" s="455"/>
+      <c r="N1" s="455"/>
+      <c r="O1" s="455"/>
+      <c r="P1" s="455"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="445" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="445"/>
-      <c r="T1" s="445"/>
-      <c r="U1" s="445"/>
-      <c r="V1" s="445"/>
-      <c r="W1" s="445"/>
-      <c r="X1" s="445"/>
-      <c r="Y1" s="445"/>
-      <c r="Z1" s="445"/>
-      <c r="AA1" s="445"/>
-      <c r="AB1" s="445"/>
-      <c r="AC1" s="445"/>
-      <c r="AD1" s="445"/>
-      <c r="AE1" s="445"/>
-      <c r="AF1" s="445"/>
-      <c r="AG1" s="445"/>
-      <c r="AH1" s="445"/>
-      <c r="AI1" s="445"/>
-      <c r="AJ1" s="445"/>
-      <c r="AK1" s="445"/>
-      <c r="AL1" s="446"/>
-      <c r="AM1" s="444" t="s">
+      <c r="S1" s="446"/>
+      <c r="T1" s="446"/>
+      <c r="U1" s="446"/>
+      <c r="V1" s="446"/>
+      <c r="W1" s="446"/>
+      <c r="X1" s="446"/>
+      <c r="Y1" s="446"/>
+      <c r="Z1" s="446"/>
+      <c r="AA1" s="446"/>
+      <c r="AB1" s="446"/>
+      <c r="AC1" s="446"/>
+      <c r="AD1" s="446"/>
+      <c r="AE1" s="446"/>
+      <c r="AF1" s="446"/>
+      <c r="AG1" s="446"/>
+      <c r="AH1" s="446"/>
+      <c r="AI1" s="446"/>
+      <c r="AJ1" s="446"/>
+      <c r="AK1" s="446"/>
+      <c r="AL1" s="447"/>
+      <c r="AM1" s="445" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="445"/>
-      <c r="AO1" s="445"/>
-      <c r="AP1" s="445"/>
-      <c r="AQ1" s="445"/>
-      <c r="AR1" s="445"/>
-      <c r="AS1" s="445"/>
-      <c r="AT1" s="445"/>
-      <c r="AU1" s="445"/>
-      <c r="AV1" s="445"/>
-      <c r="AW1" s="445"/>
-      <c r="AX1" s="445"/>
-      <c r="AY1" s="445"/>
-      <c r="AZ1" s="445"/>
-      <c r="BA1" s="445"/>
-      <c r="BB1" s="445"/>
-      <c r="BC1" s="445"/>
-      <c r="BD1" s="445"/>
-      <c r="BE1" s="445"/>
-      <c r="BF1" s="445"/>
-      <c r="BG1" s="445"/>
-      <c r="BH1" s="446"/>
-      <c r="BI1" s="444" t="s">
+      <c r="AN1" s="446"/>
+      <c r="AO1" s="446"/>
+      <c r="AP1" s="446"/>
+      <c r="AQ1" s="446"/>
+      <c r="AR1" s="446"/>
+      <c r="AS1" s="446"/>
+      <c r="AT1" s="446"/>
+      <c r="AU1" s="446"/>
+      <c r="AV1" s="446"/>
+      <c r="AW1" s="446"/>
+      <c r="AX1" s="446"/>
+      <c r="AY1" s="446"/>
+      <c r="AZ1" s="446"/>
+      <c r="BA1" s="446"/>
+      <c r="BB1" s="446"/>
+      <c r="BC1" s="446"/>
+      <c r="BD1" s="446"/>
+      <c r="BE1" s="446"/>
+      <c r="BF1" s="446"/>
+      <c r="BG1" s="446"/>
+      <c r="BH1" s="447"/>
+      <c r="BI1" s="445" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="445"/>
-      <c r="BK1" s="445"/>
-      <c r="BL1" s="445"/>
-      <c r="BM1" s="445"/>
-      <c r="BN1" s="445"/>
-      <c r="BO1" s="445"/>
-      <c r="BP1" s="445"/>
-      <c r="BQ1" s="445"/>
-      <c r="BR1" s="445"/>
-      <c r="BS1" s="445"/>
-      <c r="BT1" s="445"/>
-      <c r="BU1" s="445"/>
-      <c r="BV1" s="445"/>
-      <c r="BW1" s="445"/>
-      <c r="BX1" s="445"/>
-      <c r="BY1" s="445"/>
-      <c r="BZ1" s="445"/>
-      <c r="CA1" s="445"/>
-      <c r="CB1" s="445"/>
-      <c r="CC1" s="445"/>
-      <c r="CD1" s="446"/>
-      <c r="CE1" s="444" t="s">
+      <c r="BJ1" s="446"/>
+      <c r="BK1" s="446"/>
+      <c r="BL1" s="446"/>
+      <c r="BM1" s="446"/>
+      <c r="BN1" s="446"/>
+      <c r="BO1" s="446"/>
+      <c r="BP1" s="446"/>
+      <c r="BQ1" s="446"/>
+      <c r="BR1" s="446"/>
+      <c r="BS1" s="446"/>
+      <c r="BT1" s="446"/>
+      <c r="BU1" s="446"/>
+      <c r="BV1" s="446"/>
+      <c r="BW1" s="446"/>
+      <c r="BX1" s="446"/>
+      <c r="BY1" s="446"/>
+      <c r="BZ1" s="446"/>
+      <c r="CA1" s="446"/>
+      <c r="CB1" s="446"/>
+      <c r="CC1" s="446"/>
+      <c r="CD1" s="447"/>
+      <c r="CE1" s="445" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="445"/>
-      <c r="CG1" s="445"/>
-      <c r="CH1" s="445"/>
-      <c r="CI1" s="445"/>
-      <c r="CJ1" s="445"/>
-      <c r="CK1" s="445"/>
-      <c r="CL1" s="445"/>
-      <c r="CM1" s="446"/>
-      <c r="CN1" s="444" t="s">
+      <c r="CF1" s="446"/>
+      <c r="CG1" s="446"/>
+      <c r="CH1" s="446"/>
+      <c r="CI1" s="446"/>
+      <c r="CJ1" s="446"/>
+      <c r="CK1" s="446"/>
+      <c r="CL1" s="446"/>
+      <c r="CM1" s="447"/>
+      <c r="CN1" s="445" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="445"/>
-      <c r="CP1" s="445"/>
-      <c r="CQ1" s="445"/>
-      <c r="CR1" s="445"/>
-      <c r="CS1" s="445"/>
-      <c r="CT1" s="445"/>
-      <c r="CU1" s="445"/>
-      <c r="CV1" s="445"/>
-      <c r="CW1" s="446"/>
+      <c r="CO1" s="446"/>
+      <c r="CP1" s="446"/>
+      <c r="CQ1" s="446"/>
+      <c r="CR1" s="446"/>
+      <c r="CS1" s="446"/>
+      <c r="CT1" s="446"/>
+      <c r="CU1" s="446"/>
+      <c r="CV1" s="446"/>
+      <c r="CW1" s="447"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24738,11 +24741,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="447" t="s">
+      <c r="AX47" s="448" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="448"/>
-      <c r="AZ47" s="449"/>
+      <c r="AY47" s="449"/>
+      <c r="AZ47" s="450"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -25041,11 +25044,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="450" t="s">
+      <c r="BS60" s="451" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="451"/>
-      <c r="BU60" s="452"/>
+      <c r="BT60" s="452"/>
+      <c r="BU60" s="453"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -25409,120 +25412,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="453" t="s">
+      <c r="B1" s="454" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="454"/>
-      <c r="H1" s="454"/>
-      <c r="I1" s="454"/>
-      <c r="J1" s="454"/>
-      <c r="K1" s="454"/>
-      <c r="L1" s="454"/>
-      <c r="M1" s="454"/>
-      <c r="N1" s="454"/>
-      <c r="O1" s="454"/>
-      <c r="P1" s="454"/>
-      <c r="Q1" s="455"/>
-      <c r="R1" s="444" t="s">
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="455"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="455"/>
+      <c r="K1" s="455"/>
+      <c r="L1" s="455"/>
+      <c r="M1" s="455"/>
+      <c r="N1" s="455"/>
+      <c r="O1" s="455"/>
+      <c r="P1" s="455"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="445" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="445"/>
-      <c r="T1" s="445"/>
-      <c r="U1" s="445"/>
-      <c r="V1" s="445"/>
-      <c r="W1" s="445"/>
-      <c r="X1" s="445"/>
-      <c r="Y1" s="445"/>
-      <c r="Z1" s="445"/>
-      <c r="AA1" s="445"/>
-      <c r="AB1" s="445"/>
-      <c r="AC1" s="445"/>
-      <c r="AD1" s="445"/>
-      <c r="AE1" s="445"/>
-      <c r="AF1" s="445"/>
-      <c r="AG1" s="445"/>
-      <c r="AH1" s="445"/>
-      <c r="AI1" s="445"/>
-      <c r="AJ1" s="445"/>
-      <c r="AK1" s="445"/>
-      <c r="AL1" s="445"/>
-      <c r="AM1" s="446"/>
-      <c r="AN1" s="444" t="s">
+      <c r="S1" s="446"/>
+      <c r="T1" s="446"/>
+      <c r="U1" s="446"/>
+      <c r="V1" s="446"/>
+      <c r="W1" s="446"/>
+      <c r="X1" s="446"/>
+      <c r="Y1" s="446"/>
+      <c r="Z1" s="446"/>
+      <c r="AA1" s="446"/>
+      <c r="AB1" s="446"/>
+      <c r="AC1" s="446"/>
+      <c r="AD1" s="446"/>
+      <c r="AE1" s="446"/>
+      <c r="AF1" s="446"/>
+      <c r="AG1" s="446"/>
+      <c r="AH1" s="446"/>
+      <c r="AI1" s="446"/>
+      <c r="AJ1" s="446"/>
+      <c r="AK1" s="446"/>
+      <c r="AL1" s="446"/>
+      <c r="AM1" s="447"/>
+      <c r="AN1" s="445" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="445"/>
-      <c r="AP1" s="445"/>
-      <c r="AQ1" s="445"/>
-      <c r="AR1" s="445"/>
-      <c r="AS1" s="445"/>
-      <c r="AT1" s="445"/>
-      <c r="AU1" s="445"/>
-      <c r="AV1" s="445"/>
-      <c r="AW1" s="445"/>
-      <c r="AX1" s="445"/>
-      <c r="AY1" s="445"/>
-      <c r="AZ1" s="445"/>
-      <c r="BA1" s="445"/>
-      <c r="BB1" s="445"/>
-      <c r="BC1" s="445"/>
-      <c r="BD1" s="445"/>
-      <c r="BE1" s="445"/>
-      <c r="BF1" s="445"/>
-      <c r="BG1" s="445"/>
-      <c r="BH1" s="445"/>
-      <c r="BI1" s="445"/>
-      <c r="BJ1" s="446"/>
-      <c r="BK1" s="444" t="s">
+      <c r="AO1" s="446"/>
+      <c r="AP1" s="446"/>
+      <c r="AQ1" s="446"/>
+      <c r="AR1" s="446"/>
+      <c r="AS1" s="446"/>
+      <c r="AT1" s="446"/>
+      <c r="AU1" s="446"/>
+      <c r="AV1" s="446"/>
+      <c r="AW1" s="446"/>
+      <c r="AX1" s="446"/>
+      <c r="AY1" s="446"/>
+      <c r="AZ1" s="446"/>
+      <c r="BA1" s="446"/>
+      <c r="BB1" s="446"/>
+      <c r="BC1" s="446"/>
+      <c r="BD1" s="446"/>
+      <c r="BE1" s="446"/>
+      <c r="BF1" s="446"/>
+      <c r="BG1" s="446"/>
+      <c r="BH1" s="446"/>
+      <c r="BI1" s="446"/>
+      <c r="BJ1" s="447"/>
+      <c r="BK1" s="445" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="445"/>
-      <c r="BM1" s="445"/>
-      <c r="BN1" s="445"/>
-      <c r="BO1" s="445"/>
-      <c r="BP1" s="445"/>
-      <c r="BQ1" s="445"/>
-      <c r="BR1" s="445"/>
-      <c r="BS1" s="445"/>
-      <c r="BT1" s="445"/>
-      <c r="BU1" s="445"/>
-      <c r="BV1" s="445"/>
-      <c r="BW1" s="445"/>
-      <c r="BX1" s="445"/>
-      <c r="BY1" s="445"/>
-      <c r="BZ1" s="445"/>
-      <c r="CA1" s="445"/>
-      <c r="CB1" s="445"/>
-      <c r="CC1" s="445"/>
-      <c r="CD1" s="445"/>
-      <c r="CE1" s="445"/>
-      <c r="CF1" s="445"/>
-      <c r="CG1" s="446"/>
-      <c r="CH1" s="444" t="s">
+      <c r="BL1" s="446"/>
+      <c r="BM1" s="446"/>
+      <c r="BN1" s="446"/>
+      <c r="BO1" s="446"/>
+      <c r="BP1" s="446"/>
+      <c r="BQ1" s="446"/>
+      <c r="BR1" s="446"/>
+      <c r="BS1" s="446"/>
+      <c r="BT1" s="446"/>
+      <c r="BU1" s="446"/>
+      <c r="BV1" s="446"/>
+      <c r="BW1" s="446"/>
+      <c r="BX1" s="446"/>
+      <c r="BY1" s="446"/>
+      <c r="BZ1" s="446"/>
+      <c r="CA1" s="446"/>
+      <c r="CB1" s="446"/>
+      <c r="CC1" s="446"/>
+      <c r="CD1" s="446"/>
+      <c r="CE1" s="446"/>
+      <c r="CF1" s="446"/>
+      <c r="CG1" s="447"/>
+      <c r="CH1" s="445" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="445"/>
-      <c r="CJ1" s="445"/>
-      <c r="CK1" s="445"/>
-      <c r="CL1" s="445"/>
-      <c r="CM1" s="445"/>
-      <c r="CN1" s="445"/>
-      <c r="CO1" s="445"/>
-      <c r="CP1" s="445"/>
-      <c r="CQ1" s="446"/>
-      <c r="CR1" s="456" t="s">
+      <c r="CI1" s="446"/>
+      <c r="CJ1" s="446"/>
+      <c r="CK1" s="446"/>
+      <c r="CL1" s="446"/>
+      <c r="CM1" s="446"/>
+      <c r="CN1" s="446"/>
+      <c r="CO1" s="446"/>
+      <c r="CP1" s="446"/>
+      <c r="CQ1" s="447"/>
+      <c r="CR1" s="457" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="457"/>
-      <c r="CT1" s="457"/>
-      <c r="CU1" s="457"/>
-      <c r="CV1" s="457"/>
-      <c r="CW1" s="457"/>
-      <c r="CX1" s="457"/>
-      <c r="CY1" s="458"/>
+      <c r="CS1" s="458"/>
+      <c r="CT1" s="458"/>
+      <c r="CU1" s="458"/>
+      <c r="CV1" s="458"/>
+      <c r="CW1" s="458"/>
+      <c r="CX1" s="458"/>
+      <c r="CY1" s="459"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27331,11 +27334,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="459" t="s">
+      <c r="AY47" s="460" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="460"/>
-      <c r="BA47" s="461"/>
+      <c r="AZ47" s="461"/>
+      <c r="BA47" s="462"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27728,11 +27731,11 @@
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="450" t="s">
+      <c r="BU60" s="451" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="451"/>
-      <c r="BW60" s="452"/>
+      <c r="BV60" s="452"/>
+      <c r="BW60" s="453"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -28207,120 +28210,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="453" t="s">
+      <c r="B1" s="454" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="454"/>
-      <c r="H1" s="454"/>
-      <c r="I1" s="454"/>
-      <c r="J1" s="454"/>
-      <c r="K1" s="454"/>
-      <c r="L1" s="454"/>
-      <c r="M1" s="454"/>
-      <c r="N1" s="454"/>
-      <c r="O1" s="454"/>
-      <c r="P1" s="454"/>
-      <c r="Q1" s="455"/>
-      <c r="R1" s="444" t="s">
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="455"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="455"/>
+      <c r="K1" s="455"/>
+      <c r="L1" s="455"/>
+      <c r="M1" s="455"/>
+      <c r="N1" s="455"/>
+      <c r="O1" s="455"/>
+      <c r="P1" s="455"/>
+      <c r="Q1" s="456"/>
+      <c r="R1" s="445" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="445"/>
-      <c r="T1" s="445"/>
-      <c r="U1" s="445"/>
-      <c r="V1" s="445"/>
-      <c r="W1" s="445"/>
-      <c r="X1" s="445"/>
-      <c r="Y1" s="445"/>
-      <c r="Z1" s="445"/>
-      <c r="AA1" s="445"/>
-      <c r="AB1" s="445"/>
-      <c r="AC1" s="445"/>
-      <c r="AD1" s="445"/>
-      <c r="AE1" s="445"/>
-      <c r="AF1" s="445"/>
-      <c r="AG1" s="445"/>
-      <c r="AH1" s="445"/>
-      <c r="AI1" s="445"/>
-      <c r="AJ1" s="445"/>
-      <c r="AK1" s="445"/>
-      <c r="AL1" s="445"/>
-      <c r="AM1" s="446"/>
-      <c r="AN1" s="444" t="s">
+      <c r="S1" s="446"/>
+      <c r="T1" s="446"/>
+      <c r="U1" s="446"/>
+      <c r="V1" s="446"/>
+      <c r="W1" s="446"/>
+      <c r="X1" s="446"/>
+      <c r="Y1" s="446"/>
+      <c r="Z1" s="446"/>
+      <c r="AA1" s="446"/>
+      <c r="AB1" s="446"/>
+      <c r="AC1" s="446"/>
+      <c r="AD1" s="446"/>
+      <c r="AE1" s="446"/>
+      <c r="AF1" s="446"/>
+      <c r="AG1" s="446"/>
+      <c r="AH1" s="446"/>
+      <c r="AI1" s="446"/>
+      <c r="AJ1" s="446"/>
+      <c r="AK1" s="446"/>
+      <c r="AL1" s="446"/>
+      <c r="AM1" s="447"/>
+      <c r="AN1" s="445" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="445"/>
-      <c r="AP1" s="445"/>
-      <c r="AQ1" s="445"/>
-      <c r="AR1" s="445"/>
-      <c r="AS1" s="445"/>
-      <c r="AT1" s="445"/>
-      <c r="AU1" s="445"/>
-      <c r="AV1" s="445"/>
-      <c r="AW1" s="445"/>
-      <c r="AX1" s="445"/>
-      <c r="AY1" s="445"/>
-      <c r="AZ1" s="445"/>
-      <c r="BA1" s="445"/>
-      <c r="BB1" s="445"/>
-      <c r="BC1" s="445"/>
-      <c r="BD1" s="445"/>
-      <c r="BE1" s="445"/>
-      <c r="BF1" s="445"/>
-      <c r="BG1" s="445"/>
-      <c r="BH1" s="445"/>
-      <c r="BI1" s="445"/>
-      <c r="BJ1" s="446"/>
-      <c r="BK1" s="444" t="s">
+      <c r="AO1" s="446"/>
+      <c r="AP1" s="446"/>
+      <c r="AQ1" s="446"/>
+      <c r="AR1" s="446"/>
+      <c r="AS1" s="446"/>
+      <c r="AT1" s="446"/>
+      <c r="AU1" s="446"/>
+      <c r="AV1" s="446"/>
+      <c r="AW1" s="446"/>
+      <c r="AX1" s="446"/>
+      <c r="AY1" s="446"/>
+      <c r="AZ1" s="446"/>
+      <c r="BA1" s="446"/>
+      <c r="BB1" s="446"/>
+      <c r="BC1" s="446"/>
+      <c r="BD1" s="446"/>
+      <c r="BE1" s="446"/>
+      <c r="BF1" s="446"/>
+      <c r="BG1" s="446"/>
+      <c r="BH1" s="446"/>
+      <c r="BI1" s="446"/>
+      <c r="BJ1" s="447"/>
+      <c r="BK1" s="445" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="445"/>
-      <c r="BM1" s="445"/>
-      <c r="BN1" s="445"/>
-      <c r="BO1" s="445"/>
-      <c r="BP1" s="445"/>
-      <c r="BQ1" s="445"/>
-      <c r="BR1" s="445"/>
-      <c r="BS1" s="445"/>
-      <c r="BT1" s="445"/>
-      <c r="BU1" s="445"/>
-      <c r="BV1" s="445"/>
-      <c r="BW1" s="445"/>
-      <c r="BX1" s="445"/>
-      <c r="BY1" s="445"/>
-      <c r="BZ1" s="445"/>
-      <c r="CA1" s="445"/>
-      <c r="CB1" s="445"/>
-      <c r="CC1" s="445"/>
-      <c r="CD1" s="445"/>
-      <c r="CE1" s="445"/>
-      <c r="CF1" s="445"/>
-      <c r="CG1" s="446"/>
-      <c r="CH1" s="444" t="s">
+      <c r="BL1" s="446"/>
+      <c r="BM1" s="446"/>
+      <c r="BN1" s="446"/>
+      <c r="BO1" s="446"/>
+      <c r="BP1" s="446"/>
+      <c r="BQ1" s="446"/>
+      <c r="BR1" s="446"/>
+      <c r="BS1" s="446"/>
+      <c r="BT1" s="446"/>
+      <c r="BU1" s="446"/>
+      <c r="BV1" s="446"/>
+      <c r="BW1" s="446"/>
+      <c r="BX1" s="446"/>
+      <c r="BY1" s="446"/>
+      <c r="BZ1" s="446"/>
+      <c r="CA1" s="446"/>
+      <c r="CB1" s="446"/>
+      <c r="CC1" s="446"/>
+      <c r="CD1" s="446"/>
+      <c r="CE1" s="446"/>
+      <c r="CF1" s="446"/>
+      <c r="CG1" s="447"/>
+      <c r="CH1" s="445" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="445"/>
-      <c r="CJ1" s="445"/>
-      <c r="CK1" s="445"/>
-      <c r="CL1" s="445"/>
-      <c r="CM1" s="445"/>
-      <c r="CN1" s="445"/>
-      <c r="CO1" s="445"/>
-      <c r="CP1" s="445"/>
-      <c r="CQ1" s="446"/>
-      <c r="CR1" s="456" t="s">
+      <c r="CI1" s="446"/>
+      <c r="CJ1" s="446"/>
+      <c r="CK1" s="446"/>
+      <c r="CL1" s="446"/>
+      <c r="CM1" s="446"/>
+      <c r="CN1" s="446"/>
+      <c r="CO1" s="446"/>
+      <c r="CP1" s="446"/>
+      <c r="CQ1" s="447"/>
+      <c r="CR1" s="457" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="457"/>
-      <c r="CT1" s="457"/>
-      <c r="CU1" s="457"/>
-      <c r="CV1" s="457"/>
-      <c r="CW1" s="457"/>
-      <c r="CX1" s="457"/>
-      <c r="CY1" s="458"/>
+      <c r="CS1" s="458"/>
+      <c r="CT1" s="458"/>
+      <c r="CU1" s="458"/>
+      <c r="CV1" s="458"/>
+      <c r="CW1" s="458"/>
+      <c r="CX1" s="458"/>
+      <c r="CY1" s="459"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30908,11 +30911,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="459" t="s">
+      <c r="AY47" s="460" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="460"/>
-      <c r="BA47" s="461"/>
+      <c r="AZ47" s="461"/>
+      <c r="BA47" s="462"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -31561,11 +31564,11 @@
       <c r="BK60" s="145"/>
       <c r="BN60" s="321"/>
       <c r="BS60" s="302"/>
-      <c r="BU60" s="450" t="s">
+      <c r="BU60" s="451" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="451"/>
-      <c r="BW60" s="452"/>
+      <c r="BV60" s="452"/>
+      <c r="BW60" s="453"/>
       <c r="BX60" s="302"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -34623,8 +34626,8 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34665,7 +34668,7 @@
       <c r="I1" s="436"/>
     </row>
     <row r="2" spans="1:16" s="402" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="465" t="s">
+      <c r="A2" s="466" t="s">
         <v>142</v>
       </c>
       <c r="B2" s="400">
@@ -34676,13 +34679,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="466"/>
+      <c r="A3" s="467"/>
       <c r="B3" s="403">
         <v>43671</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="407" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="466"/>
+      <c r="A4" s="467"/>
       <c r="B4" s="405">
         <v>43672</v>
       </c>
@@ -34695,7 +34698,7 @@
       <c r="P4" s="408"/>
     </row>
     <row r="5" spans="1:16" s="411" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="466"/>
+      <c r="A5" s="467"/>
       <c r="B5" s="409">
         <v>43675</v>
       </c>
@@ -34716,7 +34719,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="466"/>
+      <c r="A6" s="467"/>
       <c r="B6" s="409">
         <v>43676</v>
       </c>
@@ -34734,7 +34737,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="466"/>
+      <c r="A7" s="467"/>
       <c r="B7" s="409">
         <v>43677</v>
       </c>
@@ -34758,13 +34761,13 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="466"/>
+      <c r="A8" s="467"/>
       <c r="B8" s="403">
         <v>43678</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="466"/>
+      <c r="A9" s="467"/>
       <c r="B9" s="409">
         <v>43679</v>
       </c>
@@ -34780,7 +34783,7 @@
       <c r="F9" s="435"/>
     </row>
     <row r="10" spans="1:16" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="466"/>
+      <c r="A10" s="467"/>
       <c r="B10" s="405">
         <v>43682</v>
       </c>
@@ -34795,7 +34798,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="466"/>
+      <c r="A11" s="467"/>
       <c r="B11" s="405">
         <v>43683</v>
       </c>
@@ -34813,7 +34816,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="466"/>
+      <c r="A12" s="467"/>
       <c r="B12" s="405">
         <v>43684</v>
       </c>
@@ -34828,13 +34831,13 @@
       </c>
     </row>
     <row r="13" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="466"/>
+      <c r="A13" s="467"/>
       <c r="B13" s="403">
         <v>43685</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="466"/>
+      <c r="A14" s="467"/>
       <c r="B14" s="405">
         <v>43686</v>
       </c>
@@ -34846,7 +34849,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="466"/>
+      <c r="A15" s="467"/>
       <c r="B15" s="409">
         <v>43689</v>
       </c>
@@ -34858,7 +34861,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="466"/>
+      <c r="A16" s="467"/>
       <c r="B16" s="409">
         <v>43690</v>
       </c>
@@ -34867,7 +34870,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="466"/>
+      <c r="A17" s="467"/>
       <c r="B17" s="409">
         <v>43691</v>
       </c>
@@ -34876,13 +34879,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="466"/>
+      <c r="A18" s="467"/>
       <c r="B18" s="403">
         <v>43692</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="413" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="467"/>
+      <c r="A19" s="468"/>
       <c r="B19" s="412">
         <v>43693</v>
       </c>
@@ -34891,7 +34894,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="402" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="462" t="s">
+      <c r="A20" s="463" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="414">
@@ -34908,7 +34911,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="463"/>
+      <c r="A21" s="464"/>
       <c r="B21" s="416">
         <v>43697</v>
       </c>
@@ -34926,7 +34929,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="463"/>
+      <c r="A22" s="464"/>
       <c r="B22" s="416">
         <v>43698</v>
       </c>
@@ -34945,19 +34948,19 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="404" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="463"/>
+      <c r="A23" s="464"/>
       <c r="B23" s="419">
         <v>43699</v>
       </c>
       <c r="C23" s="404" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="471" t="s">
+      <c r="D23" s="439" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="463"/>
+      <c r="A24" s="464"/>
       <c r="B24" s="416">
         <v>43700</v>
       </c>
@@ -34966,7 +34969,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="463"/>
+      <c r="A25" s="464"/>
       <c r="B25" s="420">
         <v>43703</v>
       </c>
@@ -34976,9 +34979,12 @@
       <c r="D25" s="410" t="s">
         <v>161</v>
       </c>
+      <c r="E25" s="411" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="26" spans="1:8" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="463"/>
+      <c r="A26" s="464"/>
       <c r="B26" s="420">
         <v>43704</v>
       </c>
@@ -34990,7 +34996,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="463"/>
+      <c r="A27" s="464"/>
       <c r="B27" s="420">
         <v>43705</v>
       </c>
@@ -35002,13 +35008,13 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="463"/>
+      <c r="A28" s="464"/>
       <c r="B28" s="419">
         <v>43706</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="463"/>
+      <c r="A29" s="464"/>
       <c r="B29" s="420">
         <v>43707</v>
       </c>
@@ -35017,7 +35023,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="463"/>
+      <c r="A30" s="464"/>
       <c r="B30" s="416">
         <v>43710</v>
       </c>
@@ -35026,7 +35032,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="463"/>
+      <c r="A31" s="464"/>
       <c r="B31" s="416">
         <v>43711</v>
       </c>
@@ -35035,7 +35041,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="463"/>
+      <c r="A32" s="464"/>
       <c r="B32" s="416">
         <v>43712</v>
       </c>
@@ -35047,13 +35053,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="463"/>
+      <c r="A33" s="464"/>
       <c r="B33" s="419">
         <v>43713</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="463"/>
+      <c r="A34" s="464"/>
       <c r="B34" s="416">
         <v>43714</v>
       </c>
@@ -35062,7 +35068,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="463"/>
+      <c r="A35" s="464"/>
       <c r="B35" s="420">
         <v>43717</v>
       </c>
@@ -35071,7 +35077,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="463"/>
+      <c r="A36" s="464"/>
       <c r="B36" s="420">
         <v>43718</v>
       </c>
@@ -35080,7 +35086,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="463"/>
+      <c r="A37" s="464"/>
       <c r="B37" s="420">
         <v>43719</v>
       </c>
@@ -35089,13 +35095,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="463"/>
+      <c r="A38" s="464"/>
       <c r="B38" s="419">
         <v>43720</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="463"/>
+      <c r="A39" s="464"/>
       <c r="B39" s="420">
         <v>43721</v>
       </c>
@@ -35104,7 +35110,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="463"/>
+      <c r="A40" s="464"/>
       <c r="B40" s="416">
         <v>43724</v>
       </c>
@@ -35113,7 +35119,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="463"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="416">
         <v>43725</v>
       </c>
@@ -35122,7 +35128,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="463"/>
+      <c r="A42" s="464"/>
       <c r="B42" s="416">
         <v>43726</v>
       </c>
@@ -35131,13 +35137,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="463"/>
+      <c r="A43" s="464"/>
       <c r="B43" s="419">
         <v>43727</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="422" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="464"/>
+      <c r="A44" s="465"/>
       <c r="B44" s="421">
         <v>43728</v>
       </c>
@@ -35146,7 +35152,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" s="425" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="468" t="s">
+      <c r="A45" s="469" t="s">
         <v>144</v>
       </c>
       <c r="B45" s="423">
@@ -35160,7 +35166,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="469"/>
+      <c r="A46" s="470"/>
       <c r="B46" s="426">
         <v>43732</v>
       </c>
@@ -35172,7 +35178,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="469"/>
+      <c r="A47" s="470"/>
       <c r="B47" s="426">
         <v>43733</v>
       </c>
@@ -35184,13 +35190,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="469"/>
+      <c r="A48" s="470"/>
       <c r="B48" s="427">
         <v>43734</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="411" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="469"/>
+      <c r="A49" s="470"/>
       <c r="B49" s="426">
         <v>43735</v>
       </c>
@@ -35199,7 +35205,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="469"/>
+      <c r="A50" s="470"/>
       <c r="B50" s="428">
         <v>43738</v>
       </c>
@@ -35208,7 +35214,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" s="407" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="469"/>
+      <c r="A51" s="470"/>
       <c r="B51" s="428">
         <v>43739</v>
       </c>
@@ -35217,7 +35223,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="469"/>
+      <c r="A52" s="470"/>
       <c r="B52" s="428">
         <v>43740</v>
       </c>
@@ -35226,13 +35232,13 @@
       </c>
     </row>
     <row r="53" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="469"/>
+      <c r="A53" s="470"/>
       <c r="B53" s="427">
         <v>43741</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="407" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="469"/>
+      <c r="A54" s="470"/>
       <c r="B54" s="428">
         <v>43742</v>
       </c>
@@ -35241,7 +35247,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="469"/>
+      <c r="A55" s="470"/>
       <c r="B55" s="426">
         <v>43745</v>
       </c>
@@ -35250,7 +35256,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="469"/>
+      <c r="A56" s="470"/>
       <c r="B56" s="426">
         <v>43746</v>
       </c>
@@ -35259,7 +35265,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="469"/>
+      <c r="A57" s="470"/>
       <c r="B57" s="426">
         <v>43747</v>
       </c>
@@ -35268,13 +35274,13 @@
       </c>
     </row>
     <row r="58" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="469"/>
+      <c r="A58" s="470"/>
       <c r="B58" s="427">
         <v>43748</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="469"/>
+      <c r="A59" s="470"/>
       <c r="B59" s="426">
         <v>43749</v>
       </c>
@@ -35283,7 +35289,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="469"/>
+      <c r="A60" s="470"/>
       <c r="B60" s="428">
         <v>43754</v>
       </c>
@@ -35292,13 +35298,13 @@
       </c>
     </row>
     <row r="61" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="469"/>
+      <c r="A61" s="470"/>
       <c r="B61" s="427">
         <v>43755</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="469"/>
+      <c r="A62" s="470"/>
       <c r="B62" s="428">
         <v>43756</v>
       </c>
@@ -35307,7 +35313,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="469"/>
+      <c r="A63" s="470"/>
       <c r="B63" s="426">
         <v>43759</v>
       </c>
@@ -35316,7 +35322,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="469"/>
+      <c r="A64" s="470"/>
       <c r="B64" s="426">
         <v>43760</v>
       </c>
@@ -35325,7 +35331,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="469"/>
+      <c r="A65" s="470"/>
       <c r="B65" s="426">
         <v>43761</v>
       </c>
@@ -35334,13 +35340,13 @@
       </c>
     </row>
     <row r="66" spans="1:4" s="430" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="470"/>
+      <c r="A66" s="471"/>
       <c r="B66" s="429">
         <v>43762</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="425" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="468" t="s">
+      <c r="A67" s="469" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="423">
@@ -35351,7 +35357,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="469"/>
+      <c r="A68" s="470"/>
       <c r="B68" s="428">
         <v>43766</v>
       </c>
@@ -35363,7 +35369,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="469"/>
+      <c r="A69" s="470"/>
       <c r="B69" s="428">
         <v>43767</v>
       </c>
@@ -35375,7 +35381,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="469"/>
+      <c r="A70" s="470"/>
       <c r="B70" s="428">
         <v>43768</v>
       </c>
@@ -35387,13 +35393,13 @@
       </c>
     </row>
     <row r="71" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="469"/>
+      <c r="A71" s="470"/>
       <c r="B71" s="427">
         <v>43769</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="469"/>
+      <c r="A72" s="470"/>
       <c r="B72" s="428">
         <v>43770</v>
       </c>
@@ -35402,7 +35408,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="469"/>
+      <c r="A73" s="470"/>
       <c r="B73" s="426">
         <v>43773</v>
       </c>
@@ -35414,7 +35420,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="469"/>
+      <c r="A74" s="470"/>
       <c r="B74" s="426">
         <v>43774</v>
       </c>
@@ -35426,7 +35432,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="469"/>
+      <c r="A75" s="470"/>
       <c r="B75" s="426">
         <v>43775</v>
       </c>
@@ -35435,13 +35441,13 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="469"/>
+      <c r="A76" s="470"/>
       <c r="B76" s="427">
         <v>43776</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="469"/>
+      <c r="A77" s="470"/>
       <c r="B77" s="426">
         <v>43777</v>
       </c>
@@ -35450,7 +35456,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="469"/>
+      <c r="A78" s="470"/>
       <c r="B78" s="428">
         <v>43780</v>
       </c>
@@ -35459,7 +35465,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="469"/>
+      <c r="A79" s="470"/>
       <c r="B79" s="428">
         <v>43781</v>
       </c>
@@ -35468,7 +35474,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="469"/>
+      <c r="A80" s="470"/>
       <c r="B80" s="428">
         <v>43782</v>
       </c>
@@ -35477,13 +35483,13 @@
       </c>
     </row>
     <row r="81" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="469"/>
+      <c r="A81" s="470"/>
       <c r="B81" s="427">
         <v>43783</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="469"/>
+      <c r="A82" s="470"/>
       <c r="B82" s="426">
         <v>43787</v>
       </c>
@@ -35492,7 +35498,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="469"/>
+      <c r="A83" s="470"/>
       <c r="B83" s="426">
         <v>43788</v>
       </c>
@@ -35501,13 +35507,13 @@
       </c>
     </row>
     <row r="84" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="469"/>
+      <c r="A84" s="470"/>
       <c r="B84" s="427">
         <v>43790</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="469"/>
+      <c r="A85" s="470"/>
       <c r="B85" s="426">
         <v>43791</v>
       </c>
@@ -35516,7 +35522,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="469"/>
+      <c r="A86" s="470"/>
       <c r="B86" s="428">
         <v>43794</v>
       </c>
@@ -35525,7 +35531,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="469"/>
+      <c r="A87" s="470"/>
       <c r="B87" s="428">
         <v>43795</v>
       </c>
@@ -35534,7 +35540,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="469"/>
+      <c r="A88" s="470"/>
       <c r="B88" s="428">
         <v>43796</v>
       </c>
@@ -35543,13 +35549,13 @@
       </c>
     </row>
     <row r="89" spans="1:3" s="430" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="470"/>
+      <c r="A89" s="471"/>
       <c r="B89" s="429">
         <v>43797</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="402" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="462" t="s">
+      <c r="A90" s="463" t="s">
         <v>146</v>
       </c>
       <c r="B90" s="431">
@@ -35560,7 +35566,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="463"/>
+      <c r="A91" s="464"/>
       <c r="B91" s="426">
         <v>43801</v>
       </c>
@@ -35569,7 +35575,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="463"/>
+      <c r="A92" s="464"/>
       <c r="B92" s="426">
         <v>43802</v>
       </c>
@@ -35578,7 +35584,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="463"/>
+      <c r="A93" s="464"/>
       <c r="B93" s="426">
         <v>43803</v>
       </c>
@@ -35587,13 +35593,13 @@
       </c>
     </row>
     <row r="94" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="463"/>
+      <c r="A94" s="464"/>
       <c r="B94" s="427">
         <v>43804</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="463"/>
+      <c r="A95" s="464"/>
       <c r="B95" s="426">
         <v>43805</v>
       </c>
@@ -35602,7 +35608,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="463"/>
+      <c r="A96" s="464"/>
       <c r="B96" s="428">
         <v>43808</v>
       </c>
@@ -35611,7 +35617,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="463"/>
+      <c r="A97" s="464"/>
       <c r="B97" s="428">
         <v>43809</v>
       </c>
@@ -35620,7 +35626,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="463"/>
+      <c r="A98" s="464"/>
       <c r="B98" s="428">
         <v>43810</v>
       </c>
@@ -35629,7 +35635,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" s="430" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="464"/>
+      <c r="A99" s="465"/>
       <c r="B99" s="429">
         <v>43811</v>
       </c>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4484AF67-0040-4868-A481-534FD1974144}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C197D4E-936F-4230-A4D4-BEB5F1327053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="225">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1681,9 +1681,6 @@
     <t>ex.: Filmes</t>
   </si>
   <si>
-    <t>Obs: Foi passado para o dia 22 o Sstop</t>
-  </si>
-  <si>
     <t>Verificação de Campos</t>
   </si>
   <si>
@@ -1696,6 +1693,9 @@
   </si>
   <si>
     <t>ex.: Moda</t>
+  </si>
+  <si>
+    <t>Obs.: Criar um exercício aqui.</t>
   </si>
 </sst>
 </file>
@@ -34627,7 +34627,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34925,7 +34925,7 @@
         <v>219</v>
       </c>
       <c r="H21" s="407" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -34935,15 +34935,6 @@
       </c>
       <c r="D22" s="418"/>
       <c r="E22" s="407" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="407" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" s="407" t="s">
-        <v>220</v>
-      </c>
-      <c r="H22" s="407" t="s">
         <v>218</v>
       </c>
     </row>
@@ -34956,7 +34947,10 @@
         <v>165</v>
       </c>
       <c r="D23" s="439" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="E23" s="404" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -34980,7 +34974,7 @@
         <v>161</v>
       </c>
       <c r="E25" s="411" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -34994,6 +34988,9 @@
       <c r="D26" s="410" t="s">
         <v>166</v>
       </c>
+      <c r="E26" s="411" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="27" spans="1:8" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="464"/>
@@ -35006,6 +35003,9 @@
       <c r="D27" s="410" t="s">
         <v>167</v>
       </c>
+      <c r="E27" s="411" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="28" spans="1:8" s="404" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="464"/>
@@ -35021,6 +35021,9 @@
       <c r="D29" s="411" t="s">
         <v>159</v>
       </c>
+      <c r="E29" s="411" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="30" spans="1:8" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="464"/>
@@ -35037,7 +35040,7 @@
         <v>43711</v>
       </c>
       <c r="D31" s="407" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C197D4E-936F-4230-A4D4-BEB5F1327053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6C5FCF-9AE5-44D8-86A3-FFAD10A5AE87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="CRONOGRAMA_V3" sheetId="10" r:id="rId7"/>
     <sheet name="CRONOGRAMA_V3_CONTEUDO" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="223">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1432,9 +1432,6 @@
 EstiloRepository - bd</t>
   </si>
   <si>
-    <t>ex.: Optus</t>
-  </si>
-  <si>
     <t>Início - Gufos
 Entity Framework</t>
   </si>
@@ -1447,9 +1444,6 @@
 JWT</t>
   </si>
   <si>
-    <t>JWT</t>
-  </si>
-  <si>
     <t>Apresentação API
 JSON
 Projeto Senai.Sstop.WebApi</t>
@@ -1458,23 +1452,12 @@
     <t>Projeto Senai.Sstop.WebApi</t>
   </si>
   <si>
-    <t>Eventos
-Usuários</t>
-  </si>
-  <si>
-    <t>JWT
-Swagger</t>
-  </si>
-  <si>
     <t>ex.: Livros</t>
   </si>
   <si>
     <t>Interfaces
 Presenças
 CORS</t>
-  </si>
-  <si>
-    <t>EFCore ou SqlClient - Opcional</t>
   </si>
   <si>
     <t>Gufos - DOM - Arrays, Funções, Map, Filter, Reduce</t>
@@ -1689,13 +1672,24 @@
 Swagger</t>
   </si>
   <si>
-    <t>ex.: PClinics (SqlClient) - EFCore</t>
+    <t>Obs.: Criar um exercício aqui.</t>
   </si>
   <si>
-    <t>ex.: Moda</t>
+    <t>Swagger</t>
   </si>
   <si>
-    <t>Obs.: Criar um exercício aqui.</t>
+    <t>Usuários
+JWT
+Swagger</t>
+  </si>
+  <si>
+    <t>PClinics (SqlClient)</t>
+  </si>
+  <si>
+    <t>EFCore ou SqlClient</t>
+  </si>
+  <si>
+    <t>Ex.: Ekips</t>
   </si>
 </sst>
 </file>
@@ -34627,7 +34621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34657,13 +34651,13 @@
         <v>154</v>
       </c>
       <c r="F1" s="399" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G1" s="399" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H1" s="398" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I1" s="436"/>
     </row>
@@ -34690,10 +34684,10 @@
         <v>43672</v>
       </c>
       <c r="C4" s="406" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D4" s="407" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P4" s="408"/>
     </row>
@@ -34706,16 +34700,16 @@
         <v>147</v>
       </c>
       <c r="D5" s="411" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E5" s="435" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F5" s="411" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G5" s="411" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -34730,10 +34724,10 @@
         <v>149</v>
       </c>
       <c r="F6" s="411" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G6" s="411" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -34742,22 +34736,22 @@
         <v>43677</v>
       </c>
       <c r="C7" s="410" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="410" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="410" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="411" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="411" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="437" t="s">
         <v>202</v>
-      </c>
-      <c r="D7" s="410" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="410" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="411" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="411" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="437" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
@@ -34772,13 +34766,13 @@
         <v>43679</v>
       </c>
       <c r="C9" s="410" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D9" s="410" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E9" s="410" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F9" s="435"/>
     </row>
@@ -34788,13 +34782,13 @@
         <v>43682</v>
       </c>
       <c r="C10" s="406" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D10" s="406" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E10" s="407" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -34809,10 +34803,10 @@
         <v>152</v>
       </c>
       <c r="F11" s="407" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G11" s="407" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -34827,7 +34821,7 @@
         <v>152</v>
       </c>
       <c r="H12" s="438" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="404" customFormat="1" x14ac:dyDescent="0.25">
@@ -34842,10 +34836,10 @@
         <v>43686</v>
       </c>
       <c r="C14" s="407" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D14" s="438" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -34854,10 +34848,10 @@
         <v>43689</v>
       </c>
       <c r="C15" s="411" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E15" s="411" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -34890,7 +34884,7 @@
         <v>43693</v>
       </c>
       <c r="C19" s="411" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="402" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34901,13 +34895,13 @@
         <v>43696</v>
       </c>
       <c r="C20" s="401" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D20" s="415" t="s">
         <v>157</v>
       </c>
       <c r="E20" s="407" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34916,16 +34910,16 @@
         <v>43697</v>
       </c>
       <c r="C21" s="417" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D21" s="406" t="s">
         <v>158</v>
       </c>
       <c r="E21" s="407" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H21" s="407" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -34935,7 +34929,7 @@
       </c>
       <c r="D22" s="418"/>
       <c r="E22" s="407" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="404" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34944,13 +34938,13 @@
         <v>43699</v>
       </c>
       <c r="C23" s="404" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D23" s="439" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E23" s="404" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -34959,7 +34953,7 @@
         <v>43700</v>
       </c>
       <c r="D24" s="407" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -34968,43 +34962,35 @@
         <v>43703</v>
       </c>
       <c r="C25" s="410" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="410" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="410" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="411" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" s="411" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="464"/>
       <c r="B26" s="420">
         <v>43704</v>
       </c>
       <c r="C26" s="410" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" s="410" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="411" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="411" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="464"/>
       <c r="B27" s="420">
         <v>43705</v>
       </c>
-      <c r="C27" s="411" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="410" t="s">
-        <v>167</v>
-      </c>
+      <c r="D27" s="410"/>
       <c r="E27" s="411" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="H27" s="411" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="404" customFormat="1" x14ac:dyDescent="0.25">
@@ -35018,11 +35004,8 @@
       <c r="B29" s="420">
         <v>43707</v>
       </c>
-      <c r="D29" s="411" t="s">
-        <v>159</v>
-      </c>
       <c r="E29" s="411" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -35031,7 +35014,7 @@
         <v>43710</v>
       </c>
       <c r="C30" s="406" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -35040,7 +35023,7 @@
         <v>43711</v>
       </c>
       <c r="D31" s="407" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -35052,7 +35035,7 @@
         <v>156</v>
       </c>
       <c r="D32" s="407" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
@@ -35067,7 +35050,10 @@
         <v>43714</v>
       </c>
       <c r="C34" s="407" t="s">
-        <v>150</v>
+        <v>156</v>
+      </c>
+      <c r="D34" s="407" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -35162,10 +35148,10 @@
         <v>43731</v>
       </c>
       <c r="C45" s="424" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D45" s="411" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -35174,10 +35160,10 @@
         <v>43732</v>
       </c>
       <c r="C46" s="411" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D46" s="411" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -35186,10 +35172,10 @@
         <v>43733</v>
       </c>
       <c r="C47" s="410" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D47" s="411" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
@@ -35204,7 +35190,7 @@
         <v>43735</v>
       </c>
       <c r="C49" s="410" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -35213,7 +35199,7 @@
         <v>43738</v>
       </c>
       <c r="C50" s="406" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="407" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -35222,7 +35208,7 @@
         <v>43739</v>
       </c>
       <c r="C51" s="406" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -35231,7 +35217,7 @@
         <v>43740</v>
       </c>
       <c r="C52" s="407" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">
@@ -35246,7 +35232,7 @@
         <v>43742</v>
       </c>
       <c r="C54" s="406" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -35255,7 +35241,7 @@
         <v>43745</v>
       </c>
       <c r="C55" s="411" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -35356,7 +35342,7 @@
         <v>43763</v>
       </c>
       <c r="C67" s="424" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -35365,10 +35351,10 @@
         <v>43766</v>
       </c>
       <c r="C68" s="407" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D68" s="407" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -35377,10 +35363,10 @@
         <v>43767</v>
       </c>
       <c r="C69" s="407" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D69" s="407" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -35389,10 +35375,10 @@
         <v>43768</v>
       </c>
       <c r="C70" s="406" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D70" s="407" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
@@ -35407,7 +35393,7 @@
         <v>43770</v>
       </c>
       <c r="C72" s="407" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -35416,10 +35402,10 @@
         <v>43773</v>
       </c>
       <c r="C73" s="411" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D73" s="411" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -35428,10 +35414,10 @@
         <v>43774</v>
       </c>
       <c r="C74" s="411" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D74" s="411" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -35440,7 +35426,7 @@
         <v>43775</v>
       </c>
       <c r="C75" s="411" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
@@ -35565,7 +35551,7 @@
         <v>43798</v>
       </c>
       <c r="C90" s="401" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -35574,7 +35560,7 @@
         <v>43801</v>
       </c>
       <c r="C91" s="411" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -35583,7 +35569,7 @@
         <v>43802</v>
       </c>
       <c r="C92" s="411" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -35592,7 +35578,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="411" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="404" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6C5FCF-9AE5-44D8-86A3-FFAD10A5AE87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7ADAC0-44FB-4190-9A8E-FD775E9E940C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1672,9 +1672,6 @@
 Swagger</t>
   </si>
   <si>
-    <t>Obs.: Criar um exercício aqui.</t>
-  </si>
-  <si>
     <t>Swagger</t>
   </si>
   <si>
@@ -1690,6 +1687,9 @@
   </si>
   <si>
     <t>Ex.: Ekips</t>
+  </si>
+  <si>
+    <t>Ex.: AutoPecas</t>
   </si>
 </sst>
 </file>
@@ -34621,7 +34621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34977,7 +34977,7 @@
         <v>161</v>
       </c>
       <c r="D26" s="410" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -34987,10 +34987,10 @@
       </c>
       <c r="D27" s="410"/>
       <c r="E27" s="411" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H27" s="411" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="404" customFormat="1" x14ac:dyDescent="0.25">
@@ -35005,7 +35005,7 @@
         <v>43707</v>
       </c>
       <c r="E29" s="411" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -35023,7 +35023,7 @@
         <v>43711</v>
       </c>
       <c r="D31" s="407" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -35035,7 +35035,7 @@
         <v>156</v>
       </c>
       <c r="D32" s="407" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
@@ -35053,7 +35053,7 @@
         <v>156</v>
       </c>
       <c r="D34" s="407" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github_s\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7ADAC0-44FB-4190-9A8E-FD775E9E940C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7887BB-9EB1-4E52-8835-6ED6D4A8AF2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34621,7 +34621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github_s\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7887BB-9EB1-4E52-8835-6ED6D4A8AF2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647E7E5-87C1-4DCF-8208-0031EE1B135C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="224">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1690,6 +1690,9 @@
   </si>
   <si>
     <t>Ex.: AutoPecas</t>
+  </si>
+  <si>
+    <t>Ex.: Optus (Sstop com senha)</t>
   </si>
 </sst>
 </file>
@@ -34621,7 +34624,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34967,6 +34970,9 @@
       <c r="D25" s="410" t="s">
         <v>160</v>
       </c>
+      <c r="E25" s="411" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="26" spans="1:8" s="411" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="464"/>
@@ -34978,6 +34984,9 @@
       </c>
       <c r="D26" s="410" t="s">
         <v>218</v>
+      </c>
+      <c r="E26" s="411" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="411" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github_s\senai-dev-2s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647E7E5-87C1-4DCF-8208-0031EE1B135C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A029A68-70C6-4591-AB5A-632C38537504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1689,10 +1689,10 @@
     <t>Ex.: Ekips</t>
   </si>
   <si>
-    <t>Ex.: AutoPecas</t>
+    <t>Ex.: Optus (Sstop com senha)</t>
   </si>
   <si>
-    <t>Ex.: Optus (Sstop com senha)</t>
+    <t>Ex.: AutoPecas (Trocar AAPM)</t>
   </si>
 </sst>
 </file>
@@ -34623,8 +34623,8 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34971,7 +34971,7 @@
         <v>160</v>
       </c>
       <c r="E25" s="411" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="411" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34986,7 +34986,7 @@
         <v>218</v>
       </c>
       <c r="E26" s="411" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -35008,22 +35008,23 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="411" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="411" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="464"/>
       <c r="B29" s="420">
         <v>43707</v>
       </c>
-      <c r="E29" s="411" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C29" s="410" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="464"/>
       <c r="B30" s="416">
         <v>43710</v>
       </c>
-      <c r="C30" s="406" t="s">
-        <v>165</v>
+      <c r="C30" s="406"/>
+      <c r="E30" s="407" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A029A68-70C6-4591-AB5A-632C38537504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA7BE95-657E-4B8B-BDFF-2EFE184C03AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34624,7 +34624,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35008,23 +35008,23 @@
         <v>43706</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="411" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="411" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="464"/>
       <c r="B29" s="420">
         <v>43707</v>
       </c>
-      <c r="C29" s="410" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="410"/>
+      <c r="E29" s="411" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="464"/>
       <c r="B30" s="416">
         <v>43710</v>
       </c>
-      <c r="C30" s="406"/>
-      <c r="E30" s="407" t="s">
-        <v>223</v>
+      <c r="C30" s="406" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">

--- a/planejamento/cronograma-v2.xlsx
+++ b/planejamento/cronograma-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github_s\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA7BE95-657E-4B8B-BDFF-2EFE184C03AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFC0BED-D31A-4032-B91B-0511DA75F778}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="223">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1680,12 +1680,6 @@
 Swagger</t>
   </si>
   <si>
-    <t>PClinics (SqlClient)</t>
-  </si>
-  <si>
-    <t>EFCore ou SqlClient</t>
-  </si>
-  <si>
     <t>Ex.: Ekips</t>
   </si>
   <si>
@@ -1693,6 +1687,9 @@
   </si>
   <si>
     <t>Ex.: AutoPecas (Trocar AAPM)</t>
+  </si>
+  <si>
+    <t>Ex.: AAPM</t>
   </si>
 </sst>
 </file>
@@ -34623,8 +34620,8 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34971,7 +34968,7 @@
         <v>160</v>
       </c>
       <c r="E25" s="411" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="411" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -34986,7 +34983,7 @@
         <v>218</v>
       </c>
       <c r="E26" s="411" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="411" customFormat="1" x14ac:dyDescent="0.25">
@@ -34996,7 +34993,7 @@
       </c>
       <c r="D27" s="410"/>
       <c r="E27" s="411" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H27" s="411" t="s">
         <v>217</v>
@@ -35015,16 +35012,22 @@
       </c>
       <c r="C29" s="410"/>
       <c r="E29" s="411" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="F29" s="411" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="411" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="464"/>
       <c r="B30" s="416">
         <v>43710</v>
       </c>
-      <c r="C30" s="406" t="s">
-        <v>165</v>
+      <c r="C30" s="407" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
@@ -35032,41 +35035,38 @@
       <c r="B31" s="416">
         <v>43711</v>
       </c>
-      <c r="D31" s="407" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="407" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="407" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="464"/>
       <c r="B32" s="416">
         <v>43712</v>
       </c>
-      <c r="C32" s="407" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="407" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="406" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="407" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="404" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="464"/>
       <c r="B33" s="419">
         <v>43713</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="407" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="464"/>
       <c r="B34" s="416">
         <v>43714</v>
       </c>
-      <c r="C34" s="407" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="407" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="407" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="411" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="464"/>
       <c r="B35" s="420">
         <v>43717</v>
@@ -35075,7 +35075,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="411" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="464"/>
       <c r="B36" s="420">
         <v>43718</v>
@@ -35084,7 +35084,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="411" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="464"/>
       <c r="B37" s="420">
         <v>43719</v>
@@ -35093,13 +35093,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="404" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="464"/>
       <c r="B38" s="419">
         <v>43720</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="411" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="464"/>
       <c r="B39" s="420">
         <v>43721</v>
@@ -35108,7 +35108,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="407" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="464"/>
       <c r="B40" s="416">
         <v>43724</v>
@@ -35117,7 +35117,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="407" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="464"/>
       <c r="B41" s="416">
         <v>43725</v>
@@ -35126,7 +35126,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="407" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="407" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="464"/>
       <c r="B42" s="416">
         <v>43726</v>
@@ -35135,13 +35135,13 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="404" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="464"/>
       <c r="B43" s="419">
         <v>43727</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="422" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="422" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="465"/>
       <c r="B44" s="421">
         <v>43728</v>
@@ -35150,7 +35150,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="425" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="425" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="469" t="s">
         <v>144</v>
       </c>
@@ -35164,7 +35164,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="411" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="411" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="470"/>
       <c r="B46" s="426">
         <v>43732</v>
@@ -35176,7 +35176,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="411" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="470"/>
       <c r="B47" s="426">
         <v>43733</v>
@@ -35188,7 +35188,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="404" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="404" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="470"/>
       <c r="B48" s="427">
         <v>43734</v>
